--- a/data/valid.xlsx
+++ b/data/valid.xlsx
@@ -28,67 +28,67 @@
     <t>texts</t>
   </si>
   <si>
+    <t>asafzamir</t>
+  </si>
+  <si>
+    <t>ErelSegal</t>
+  </si>
+  <si>
+    <t>yairlapid</t>
+  </si>
+  <si>
+    <t>raananshaked</t>
+  </si>
+  <si>
+    <t>yayafink</t>
+  </si>
+  <si>
+    <t>GadiTaub1</t>
+  </si>
+  <si>
+    <t>zoharm7</t>
+  </si>
+  <si>
+    <t>ariana_melamed</t>
+  </si>
+  <si>
+    <t>GabbayAvi</t>
+  </si>
+  <si>
+    <t>ravithecht</t>
+  </si>
+  <si>
     <t>noarothman</t>
   </si>
   <si>
-    <t>rothmar</t>
-  </si>
-  <si>
-    <t>itamarbengvir</t>
-  </si>
-  <si>
-    <t>haimhz</t>
-  </si>
-  <si>
-    <t>razibarcay</t>
-  </si>
-  <si>
-    <t>amit_segal</t>
-  </si>
-  <si>
-    <t>regev_miri</t>
-  </si>
-  <si>
-    <t>KahlonMoshe</t>
-  </si>
-  <si>
-    <t>KalmanLiebskind</t>
-  </si>
-  <si>
-    <t>orikol</t>
-  </si>
-  <si>
-    <t>ishmuli</t>
-  </si>
-  <si>
-    <t>YaaraZered</t>
-  </si>
-  <si>
-    <t>noa_landau</t>
+    <t>newyamin</t>
+  </si>
+  <si>
+    <t>davidbitan</t>
+  </si>
+  <si>
+    <t>Rami_Hod</t>
+  </si>
+  <si>
+    <t>ArielKallner</t>
+  </si>
+  <si>
+    <t>mossi_raz</t>
+  </si>
+  <si>
+    <t>assafrl</t>
   </si>
   <si>
     <t>Isaac_Herzog</t>
   </si>
   <si>
-    <t>Ahmad_tibi</t>
-  </si>
-  <si>
-    <t>LVertzhaizer</t>
-  </si>
-  <si>
-    <t>yoavgallant</t>
-  </si>
-  <si>
-    <t>netanyahu</t>
-  </si>
-  <si>
-    <t>misscorina2</t>
-  </si>
-  <si>
-    <t>Idaneretz</t>
-  </si>
-  <si>
-    <t>michael_dvorin</t>
+    <t>HassonYoel</t>
+  </si>
+  <si>
+    <t>giladerdan1</t>
+  </si>
+  <si>
+    <t>YeshAtidParty</t>
   </si>
   <si>
     <t>L</t>
@@ -97,67 +97,67 @@
     <t>R</t>
   </si>
   <si>
+    <t>יש דברים מורכבים שדורשים יותר מ 280 תווים    gantzbe לא נאפשר הפעלת תקנות לשעת חירום נגד הפגנות  ההחלטה על הסגר המחמיר נועדה לבלום את המגיפה ולא לחסום את ההפגנות או התפילות אנחנ… 22  אין הדבקה בצימר ייתר משיש בבית והגבלת 500 המטרים שמונעת את הפעלתם אינה סבירה ואינה מידתית ביחס להקלות הנוספות…  12 לאור ההקלות המתגבשות ביחס לסגר בתחומי החיים הרבים מוכרחים לאפשר לצימרים ולתיירות הכפרית להמשיך לפעול ובמקביל ל…  למה אצביע מחר נגד סגר מלא בישיבת הממשלה   odedkramer logreisas erancherpak לגמרי מה שקרמר gantzbe יחד עם שר התיירות asafzamir אני מסיים עכשיו פגישה עם שר החוץ הקרואטי גורדון גרליץ רמדן המטרה להמשיך במאמצים לבניית חזית… יום 11 לבידוד מדבר בפני משקיעים מהעולם בכנס עידוד השקעות במלונאות בארץ מהסלון עם הופעת אורח  40 בבידוד עם המתנה הכי גדולה שקיבלתי השנה  מצטער על פרישתו של שאול מרידור עובד ציבור חכם ומסור שתמיד היה קשוב ונכון לסייע אני מציע לא להקל ראש במילות הפרידה…  התראיינתי לערוץ dubaitv מהאמירויות לקראת יציאת המשלחת הרשמית מחר מודה שהיה מרגש להתראיין לטלוויזיה של האיחוד בפעם…  rshamir Shiritc עובדים מסביב לשעון חביבי bezalelsm YoazHendel1 קחו  Kachollavan19 אנחנו מאחלים לחברינו בליכוד להפסיק להיות חמוצים ומברכים אותם על קידום נורמליזציה שלום וביטחון במקום מהלכים חד צדדיים ח… Shiritc מינוי מעולה את מעולה בהצלחה גדולה מחזק את רוני גמזו שמתחילת הדרך  מנסה לעשות סדר ולייצר שיטת עבודה שיש לה סיכוי לבלום את התחלואה מבלי לגמור את הכלכלה…  בראיון שערכתי לעיתון Alroeya שיתפתי כי אנחנו מחכים בקוצר רוח לבואם של אזרחי האמירויות לישראל וליום שבו נוכל לטוס ל…  shimritmeir כחול לבן באמת מקשים מאוד את חייו של נתניהו בלימת הסיפוח הטרלת ההסכם עם האמירויות עם הf35 ניסנקורן במשפטים ועוד אבל מה… ishmuli היום שמנו סוף לעוולה ארוכת שנים שהביאה לפגיעה קשה במאות מורי דרךאשכול ומנעה מהם לקבל את רשת הביטחון שהם כה זקוקים לה ביוזמה… בשבוע הבא אהיה בן ארבעים לפני שנים קבענו החברים שאת ה40 נציין בטיול לנפאל בפועל אציין אותו בבידוד ביתי אחרי שישב…  BarakRavid נתניהו אני רוצה אחדות נתניהו 5 דקות אחכ  מפיץ בשידור חי פייק ניוז על שר המשפטים ניסנקורן אנחנו לא מפחדים מבחירות אנחנו פשוט חושבים שכרגע זה רע מאד לישראל לו היינו מפחדים היינו מוותרים בתקציב לו היינו ע…  LimorYoav Ayeletnnv טורטית בלי שאלה בכלל AviNissenkorn לכל מי שמנסה להפיץ שקרים מופרכים ולהמציא פרשה לא תרתיעו אותי לרגע מהגנה על שלטון החוק  עלובי נפש המתקפות שלכם רק מחזק… RotemShtarkman מודה שבזמנו לא אהבתי את הכניסה של ניסנקורן לכחול לבן טעיתי אין ספק שהוא הפך לדמות חשובה בהנהגה מפגין אומץ ועצמאות מי… מסביב דיבורים על בחירות ואני לא יכול לחשוב על שום דבר אחר מלבד 30 גברים שאונסים ילדה בת 16 במעשה שאין מזעזע ממנו ה…  לוינסון מתי תנסח גם לנו הודעות  franktowens אפילו לא גרם הגעתי הבוקר לביקור בגסר אזרקא עם ח״כ איימן עודה חכ סמי אבו שחאדה וראש המועצה מוראד עמאש בג׳סר התיירות יכולה ל…  RonelAdani HSajwanization בוא أعزائي مواطني الإمارات، لقد تأثرت شخصيًا بالاتفاقية التي يتم تشكيلها بيننا وأتطلع إلى اليوم الذي ستعمل فيه الطائرات…  AviNissenkorn לא יוטלו הגבלות נוספות על המסעדות  אני מברך את שר הבריאות YuliEdelstein ואת הפרויקטור פרופ רוני גמזו על שקיבלו את עמד… HSajwanization Visit Tel Aviv    barpeleg UriahCanaff almogbenzikri מודה barpeleg UriahCanaff almogbenzikri אתה תראה שבסוף אתה תאהב אותו זה תהליך שעוברים עם הבניין הזה מי שמעמיקים בו בניין מדהים UriahCanaff barpeleg almogbenzikri מחזק את אוריה סיפוח חד צדדי זה רע לישראל הסכם עם איחוד האמירויות זה אירוע מרגש והיסטורי כן ירבו ימים כאלו  moranynet בני גנץ השתנה בבום לא רק לא מתקפל הפסיק להיות במצב המתנה לאירועי נתניהו הוא גם יוזם ומייצר אירועים משלו ונתניהו הוא זה ש… לצמרת משרד האוצר יש פה יש מנכ״לית ויש ממונה על התקציבים יתכבדו ויודיעו לציבור שתקציב דמה למערכת בחירות עדיף בעיני…  ישיבת הממשלה לא תכונס מחר בשל סירובה של ככל לבן להסכים לרמיסת ההסכם קואליציוני ולאישור תקציב דמה חד חודשי שכל תכלית…  בשורה חשובה לענף התיירות ולכלל אזרחי ישראל פתיחת השמיים זה צעד הכרחי בדרך להתאוששות הכלכלה הישראלית ולשיקום תעשיית…  gantzbe בהנחיית שר הביטחון בני גנץ ושר החוץ גבי אשכנזי פנתה ישראל ללבנון דרך גורמים ביטחוניים ומדיניים בינלאומיים והציעה לממשלת לבנון… מפלגות שמתנגדות לאיסור על טיפולי המרה זו התוצאה זו הרואה בנטיה להט״בית משהו שאפשר ואו צריך לפעול כדי לשנות ושולח…  SemelYair   33 זה לא צריך להיעשות בלחץ של קבוצות אינטרס שעומדים בפניי מציאות כלכלית בלתי אפשרית אלא מתוך מחשבה תחילה וניהול ק…  23 פני עשרה ימים היו 260 חולים קשים והסבירו לנו שבעוד 11 ימים יהיו בקצב הזה 520 עברו עשרה ימים ויש 319 זו האמת…  13 רגע לפני כניסת השבת אני בכל זאת מציע לחבריי בקבינט הקורונה לבטל את הגבלות המעיין ״סגר״ המתוכננות לסופש מציע ל…  האלימות כנגד המפגינים היתה מאורגנת ויזומה אסור לעבור על זה בשתיקה והמשטרה חייבת לפעול במלוא העוצמה כדי להעניש את ה…  GLZRadio השר asafzamir לamirbarshalom וbardugojacob יש בהפגנות ביקורת מוצדקת במקום שהממשלה תקשיב לה היא עוסקת בלבקר אותה ברד… אם זה אומר שנאמץ את מודל איכילוב אשרינו מינוי מצוין בהצלחה פרופ׳ גמזו עלינו אתם מאיימים בבחירות על אזרחי ישראל אתם מאיימים על מיליון מובטלים אתם מאיימים על אלפי חולים חדשים אתם מאיימ…  ההחלטה להצביע בעד חוק האוסר על טיפולי המרה נובעת אך ורק מהרצון שלנו לעמוד בציפיות של הבוחרים שלנו  אין לנו רצון לל…  בעד החוק ונגד וטיפולי המרה בעד שיוויון ונגד דיכוי שואלים אותנו לעיתים מה הם הקוים האדומים שלנו להלן דוגמא חיה roiberenshtein TomerTheCoolGuy יאללה erancherpak לפי האנלוגיה הזאת הטובים בסוף מנצחים וזה מה שחשוב erancherpak אני אוהד הפועל נצחונות קטנים וזמניים שמסתיימים במפח נפש זה כל מה שיש לנו GLZRadio השר asafzamir אצל IKweller המילה סגר לא צריכה אפילו להיות בלקסיקון ההשלכות הכלכליות של הקורונה יהיו חמורות מהבריאותיות מברך על כוונת שר הבריאות אדלשטיין לפתוח את המסעדות להושבה בחוץ של עד 50 איש כפי שהצעתי בישיבת הממשלה ביום חמישי נ…  לפני שבועיים החלטנו על שורה של הגבלות הפחתנו את כמות המשתתפים באירועים הטלנו מגבלות על התכנסויות והנה חלפו שבועיי…  אמשיך לפעול בכל כוחי על מנת שהחלטות הממשלה בניהול משבר הקורונה יהיו שקולות יותר על מנת שהציבור יתן בנו אמון הצבעתי אתמול נגד החלטת הממשלה הצעה בנושא המסעדות היתה לא סבירה בעיני וגם ההצעה בעניין מערכת החינוך אני שמח מאד שב…  odaskal לא לכן למרות  נדמה לי שאנחנו בשלב שבו המשבר מספיק גדול בכל העולם כדי שאפשר יהיה להבין למה חשבתי שישראל…  33  אנחנו בהתפרצות אין בזה ספק ולא מן הנמנע שניאלץ בסוף לנקוט צעדים נוספים אבל לא בפזיזות ולא בשליפה 23 עוד לא חלפו שבועיים מאז שהטלנו מגבלות וידענו מראש שאת תוצאותיהן נתחיל לראות רק בשבוע הבא זו התנהלות לא אחראית…  13 ההמלצות להגבלות שמביאים הערב לממשלה יסבו נזק אדיר למשק סגירת בתי הספר של החופש הגדול והגנים היא סגר דה פקטו לה…  DorHollander DorDugy shirakadari מוקדש לך  DorHollander DorDugy shirakadari לא תאמין הייתי גם הנוער העובד כתה ז׳י׳ קן ירקון צפון עליו השלום אפילו את ק…  DorDugy shirakadari קל מדי  התכנית הכלכלית היא רק ההתחלה המבחן שלנו יהיה בביצוע כשהמענקים לעסקים ולעצמאיים אכן יגיעו בזמן ושדמי האבטלה יסייעו…  Syechimovich לא מעט דברים קשים עברו בינינו אבל פשוט אגיד את זה אני מאוד מאוד מרוצה מהתפקוד של שר המשפטים AviNissenkorn בכל היבט gantzbe נלחמים בקורונה שומרים על הדמוקרטיה  גאה בAviNissenkorn  שר המשפטים של מדינת ישראל  טוב שההצעה הזו הושלכה למקומה הראוי בפח האשפה אנחנו נמשיך להגן על הדמוקרטיה בזמן שאחרים ימשיכו לצערי לעשות פוליטיקה…  אתה יודע מיקי גם לנו יש תכניות שהבטחנו לבוחרינו לקדם החלטנו יחד שמשבר הקורונה מחייב הקמת ממשלה גם במחיר דחיית הי…  למעלה מ1000 חולים חדשים ביום יותר מ100 מאושפזים במצב קשה מאות אלפים ללא פרנסה והם מתעסקים בחקירות נגד שופטים  הזוי לא יקרה  חוץ מוועדות חקירה נגד שופטים שזה עכשיו ממש מעניין  RoyIddan פתוחה nadavneuman פלטפורמה חייבים לקטוע את שרשרת ההדבקה אם רוצים להימנע ממצב של סגר כללי סגירת עסקים חייבת להיות המפלט האחרון ולכן חשוב כל כך…  תקציב דו שנתי הוא תקציב לשנתיים אף אחד לא מדבר עכשיו על תקציב לשנתיים השאלה אם מעבירים תקציב לרבעון או לחמישה רבע…  מגנה את המתקפה הבוטה וחסרת היסוד כנגד היועץ המשפטי איזה מזל שאבי ניסנקורן הוא שר המשפטים בתקופה הזו RoloMcBS 10elilevi Ahmadtibi כמו גדול Ahmadtibi בביקור חשוב של שר התירות asafzamir בנצרת תולים בו תקוות ליחס שונה ממה שהיה בעבר  תחנה שניה להיום ביקור עבודה ראשון בנצרת עיר התיירות הגדולה בחברה הערבית אשר נפגעה קשות במשבר הקורונה  AviNissenkorn מנדלבליט לא רודף אף אחד הוא מבצע את תפקידו מתקפה על שומרי הסף פוגעת בדמוקרטיה והחלשת הדמוקרטיה תפגע בזכויות של כל אזר… הגעתי להפגנה של ענף התיירות אני מחויב לסייע לעובדי הענף אשר נסגר ראשון ויפתח אחרון הארכת החל״ת והגדלת קרן המענקי…  GLZRadio ברקע החמרת ההגבלות השר asafzamir חבר קבינט הקורונה אומר לירון וילנסקי וbardugojacob לחורבן הכלכלי יהיו השלכות בריאותי… gantzbe הצטרפו לשידור החי עדכון קצר ממני אליכם בתום ישיבת קבינט הקורונה  BarshishatOren כשאתה מציג את זה ככה זה קצת עושה חשק לנסוע לשם gt אנחנו בעיצומו של משבר כלכלי חברתי  אדיר מימדים וכמות ההפגנות רק תלך ותגדל בחודשים הקרובים חייבים לנקוט גישה המאפשרת את קיומן ללא הפרעה לא ברור לי למה אזרח שומר חוק צריך להעביר שבת במעצר לא סביר ולא הגיוני על פניו גם לא מאוד דמוקרטי בכוונתי לפנות ל…  חזרה לאחור תיצור תגובת שרשרת קטלנית לכלכלה הישראלית שאסור לאפשר אותה אתנגד להוספת הגבלות ואין ברירה אלא ללמוד לחי…  פגשתי היום את חברי הרשימה המשותפת לדיון התנעה לקידום התיירות בחברה הערבית לקידום העיר נצרת כיעד תיירותי משמעותי ול…  חנכתי היום את המצפור על שם ברק ועמיחי איטקיס זל במצפה רמון  פגשתי את חיים ואריאלה ההורים המדהימים של ברק ועמיחי…  harelfish HRHMeni בכיף harelfish HRHMeni אתה לא צודק קיימו בעיר שני ירידי תעסוקה גדולה במטרה להציע את העבודות הללו לתושבי העיר והסביבה…  lt ככה צריכה להיראות שגרת קורונה אחראית ושקולה הקורונה לא הולכת להיעלם ואם נטיל גזירות על המשק בכל פעם שנתוני התחלו…  מברך על פתיחת הרכבת הבוקר חייבים להמשיך ולפתוח את יתר מרכיבי המשק ולנהל את המאבק בהידבקות ובתחלואה באמצעות הגברת ה…  התרגשות זהירה  ramshefa SharrenHaskel  הצטערתי לשמוע על מותו של פרופסור זאב שטרנהל איש אמת וחזון שלחם למען מדינת ישראל הדמוקרטיה והשלום יהי זכרו ברוך שתי החלטות חשובות נעלה היום בישיבת הממשלה מענק סיוע בגובה של כ50 מיליון ₪ לעיר טבריה והבאת 700 אזרחים ירדנים לעבו…  בשורה חשובה בדרך לשיקום טבריה ביום ראשון נצביע על מתן חבילת סיוע בגובה של כ50 מיליון שח כדי לסייע לעיר שנפגעה…  EyalZivIL פתיחת השמיים גם אם רק למדינות ספורות היא התחלת תהליך הפתיחה הכללית של השמיים גם לתוך ישראל וגם החוצה מה…  18 תאריך יעד לפתיחת השמיים עם יוון וקפריסין שהחיינו דמיון מצמרר  מארח הבוקר את שר התיירות של יוון לגיון על שיתופי פעולה בין המדינות ועל קידום פתיחת השמיים  הבוקר נפגשתי עם לשכת התיאום של תעשיית התיירות לטובת קידום סיוע בעקבות המצוקה אליה נקלע הענף בלשכה חברות חברות התע…  BarakRavid שמונה סיבות לאופטימיות וסימן שאלה אחד גדול קראו את מאמרי בהארץ הבוקר    כל הכבוד ללוחם גולני שהציל חיים ומנע אסון  לא נאפשר חקיקת פסקת התגברות על בגץ Kachollavan19 הליכוד וכחול לבן סיכמו על קידום חקיקה שתסדיר את סוגיית אי הפללה וליגלזיציה במודל אחראי שיותאם למדינת ישראל ולאוכלוסייה ה… Kachollavan19 לראשונה זה שנים כולם מבינים שיש אוזן קשבת במשרד התרבות בהובלת שר התרבות והספורט חילי טרופר וזה לא רק שם זה בכל משרד מ… אני בקשר עם השרים הרלוונטיים מנסה לסייע ככל יכולתי ורגוע מזה שחברי הטוב חילי טרופר הוא שר התרבות ומטפל בנושא אמשי…  ובכל זאת הממשלה המורכבת הזו קמה בדיוק כדי לפתור את המצוקות שנוצרו בגלל המשבר האדיר הזה שמי יודע מתי הוא יהיה מאח…  הלכתי לבקר הבוקר את שאול  אין מי שאוהב מוזיקה בארץ ולא חווה חוויות יוצאת דופן בזכותו התרומה שלו לתרבות הישראלית ר…  AviNissenkorn החקיקה בנושא הקורונה הכרחית אבל זכויות הפרט ימשיכו להיות נר לרגלנו גם בעת חרום  יחד עם אנשי משרד המשפטים ושותפיי בממשלה… ivgiz טול קורה מבין עיניך  NaorMeningher רוצה להשאיר אתכם בארץ ממש לא רוצה שהשמיים יפתחו מהר ככל הניתן אבל זה לא אומר שלא חשוב לעודד את התיירות בתוך הארץ  החלק המוצלח ביותר בביקור  הגעתי לראות את ההכנה לפתיחת המלונות מחר יישום התו הסגול מבטיח חזרה לפעילות תוך שמירה על בריאותנו המלונות המסעדות…  מתחילים לעבוד  פעולה ראשונה עם כניסתי לתפקיד ירדתי הבוקר לאילת משימת שיקום לאומית לפנינו 80 אחוזי אבטלה והרבה ח…  WeissInbar moryo19 ruthelbaz אני אומר לך jonjon202020 אני מתרכז בזה yadgaroren FakeSarusi קצת פחות התחברתי FakeSarusi אלי מה שאני חושב הוא שאני שר התיירות ולא שר התרבות והספורט בסוף נשנכע את חילי לפתוח טוויטר ותוכל לשאול…  דעה לא פופולרית  דעתכם על אשתי פחות מעניינת אותי אני אוהב אותה אהבה קיצונית שאני מאחל לכל אחד ואחת מכם  היא מצח…  התחלנו  eyallurie גם כדור אבל מתנפח של בריכה HadasRibak מדהים אבל לא מפתיע gantzbe עדכון קצר ממני אליכם 1 החל מהחודש חברי הכנסת של כחול לבן יתרמו 20 משכרם  2 עם הקמת הממשלה נפעל מול גורמי המקצוע כדי להור… טוב שבגץ קיבל את ההחלטה הזו לא ראוי ולא הגון למנוע מבני אדם שכר שהרוויחו כדין בעקבות משבר הקורונה מהגרי העבודה נו…  לא יודע איך זה יגמר יש לי תחושה אבל אני שלם במאה אחוז עם כל שניה שניסינו ועדיין מנסים למנוע את ההליכה המופקרת וה…  dangoren4 ShaiCohen13 עונות הדיאטה GLZRadio הפרצה במגעים לממשלת אחדות  יור כחול לבן המתפרקת gantzbe פנה לשותפיו הקודמים yairlapid וbogieyaalon והסביר את החל… NadavEyalDesk יאללה סיכמנו לא חושב שבחרנו בין בחירות פשוטות אבל בסופו של דבר אתה יושב ערב ערב לצד שלושה עיתונאים…  NadavEyalDesk אתה טועה לולא המשבר כלל לא הייני מנהלים את השיחה הזאת את מתווה הנשיא הרי יכולנו לקבל גם פעם קודמת…  NadavEyalDesk אני מבין שמבין האופציות הליכה לבחירות רביעיות תוך כדי משבר הקורונה עדיפה בעיניך נישאר חלוקים librarius123 תמיכה מבחוץ מובילה לבחירות רביעיות בסוף היו רק שתי אופציות בחירות רביעיות או אחדות של חירום לאומי בשעת משבר הקורונה ההליכה לבחירות רביעיות היא בלתי…  Theengineer161 Noamkatz7 yankihebrew Drormandel zehavagalon תודה  amichaic123 Noamkatz7 yankihebrew Drormandel zehavagalon לכאורה אני מקבל אבל הם טענו את זה כדי להסביר מדוע י…  Noamkatz7 yankihebrew Drormandel zehavagalon חידוד זה לא לתקן טעות ועל החידוד אני מפרגן  אבל הציוץ שלי התיי…  Noamkatz7 yankihebrew Drormandel zehavagalon במחילה איזו עובדה שציינתי התבררה כלא נכונה זהו יו״ר הכנסת מודיע שלא יקיים פסיקת בג״צ לא אולי לא ליד בלי התפלפלות מהמקפצה בתקופת משבר שלא ידענו כמותו כש…  אדלשטיין היום שימש סה״כ כעוד שרת של נתניהו כשניסה בעריצות המיעוט למנוע מרוב חברי הכנסת לבחור יו״ר  העובדה שבמקום…  TheMaya אשתי ביקשה ממני ואני מפחד ממנה מציין היום חצי שנה מאז שהפסקתי לעשן עדיין מתגעגע מאד במיוחד בתקופות כאלו אבל זה אחד הדברים הטובים שעשיתי ממליץ בחום gantzbe כמו שהבטחתי לכם  הקמנו לפני דקות אחדות את ועדת הקורונה נמשיך לעבוד למען אזרחי ישראל  הוסר המכשול לאחדות  הגיע הזמן שיהיה איסור גורף על אנשים ממערכות הממשלה להתראיין מלבד אלו שיקבלו אישור מרוכז וישמשו דוברים רשמיים הגיע…  אני לא אשרוד על מנות קרב  תכינו את יוראי אם במקביל תפסיק לייצר סרטונים שליליים נגד גנץ ותבקש מבריוני הרשת שלך להרגיע טיפה עם ההסתה זה גם יוכל אולי להיות אמין  מיקי זוהר נטש עכשיו את ישיבת הועדה המסדרת יחד עם כל נציגי הבלוק משפטו האחרון למזכירות היה ״אל תשבצו אותנו באף ועדה…  הודעה חשובה לכל מעוותי המציאות ומגלגלי העיניים לא בגצ משתלט על הכנסת הכנסת משתלטת על הכנסת  רוב חברי הכנסת יקבלו…  Noamkatz7 אז הסכמנו  ErelSegal Noamkatz7 הוא לא פראייר אין ספק  אבל עדיין היו יורי״ם בדני המקרים שלא ממפלגתו של ראה״מ LikudParty שקר  1 בממשלת האחדות הראשונה מ1986 עד 1988 ראש הממשלה היה מהליכוד יצחק שמיר ויור הכנסת מהעבודה …  Noamkatz7 ובממשלת שרון נעם שקר  1 בממשלת האחדות הראשונה מ1986 עד 1988 ראש הממשלה היה מהליכוד יצחק שמיר ויור הכנסת מהעבודה שלמה הלל 2…  התגעגעתי לכנסת  freyisrael1 כעומק הטינוף והלעג על גנץ ערב הבחירות  עומק העונג מהנקמה שהוא מגיש הלילה נפל דבר הכנסת עוברת לידיו בניחותא כמובן ElkyBergstein אל תגזימי ElkyBergstein יועז זה פויקה חירום לאומי  שר משפטים שחותר תחת הליגיטימציה של הרשות השופטת יו״ר קואליציה ויו״ר כנסת שמונעים את פעילות הרשות המחוקקת  וראש המ…  zoharm7 זו הפעם הראשונה בהיסטוריה שהמיעוט לא מקבל את הכרעת הרוב ונוהג בצורה כוחנית שלא מאפשרת הגעה להסכמות זולת כנ…  עצוב לראות שבעוד מיליוני אזרחים נצורים בביתם עם חשש אמיתי לבריאותם ופרנסתם וכחולבן עושה כלל העולה בידה על מנת להפע…  meirilior   בואו קחו לנו כבר את הפחמימות ותגמרו אותנו סופית נשב בחושך ונאכל תרד ונעבור את זה יחד  menachemtoker שתהיה בריאה במהרה gantzbe הליכוד מנסה לסגור את הכנסת ומוביל לאסון  אם אין ועדת כספים מתפקדת לא ניתן לבצע העברות תקציביות ולהעביר פיצויים אם לא תהיה ו… ארדואניצזיה קווים לדמותה  מפא״י זה מועצת תלמידים של בית ספר יסודי בהשוואה להתנהלות של הליכוד השבוע אבל לא נוותר ל…  akivanovick הכפירה של הליכוד בעובדה שיש 61 חכים שמעוניינים בהקמת ועדות היא לא אחריות בריאותית אלא מהלך אנטי דמוקרטי ועוד ממפלגה שניהל… אני מעריך שהבוקר הוא התפלל במניין  אני מוכן  אולי נתחיל קודם בשולחן הכנסת  zoharm7 akivanovick כן מיקי אבל תודה לפחות שאתה שיקרת כשאמרת שהכל כלכך נפלא ושום דבר בעצם לא היה נכון zoharm7 akivanovick  RonTuvia zoharm7 מורטל קומבט חבריי בימין חבריי העיתונאים וכל מי שקונה את השקרים של הליכוד ומקבל את דריסת ההליך הדמוקרטי על ידם חשוב לי להבהיר…  אני לא יודע אם אחזיק מעמד עוד הרבה זמן עם מאיה בבית ככה מבלי שיש לה מסגרת  asafzamir zoharm7 זה שאתה לא מקבל את עקרון הרוב זה לא חדש לי לפחות אתה מודה שזה העניין ולא הבריאות אבל הצביעות מיקי מה איתה עד מתי… zoharm7 זה שאתה לא מקבל את עקרון הרוב זה לא חדש לי לפחות אתה מודה שזה העניין ולא הבריאות אבל הצביעות מיקי מה אית…  zoharm7 חוץ מזה אתה זוכר שהיינו בטלוויזיה בבחירות ואתה ישבת באולפן בירושלים ואני בתא  אני בטוח שאפשר לשבת בשני…  zoharm7 באולמות נגב או ירושלים יש מקום לעשרות משתתפים גם אם שומרים על מרווח של שני מטרים בינהם משרד הבריאות אשכרה…  zoharm7 מיקי משרד הבריאות בעצמו אמר שהכנסת סוברנית להחליט ושכל עוד שומרים על מרווח של שני מטרים בין האנשים אין בע…  המהלך של הליכוד לבטל את פעילות הכנסת לא נוגע למאבק בקורונה אלא למאבק בדמוקרטיה יש מספיק אולמות בכנסת שניתן להקפיד…  או כמו שקוראים לזה אצל ההורים שלי פסח  מציע שלבחירות הבאות היא תרוץ ברשימה משותפת עם אסף הראל  שוד לאור היום  הושבעתי היום לכנסת השלישית שלי פעם שלישית בשנה אחת אם זה לא היה עצוב זה היה מצחיק ובכל זאת כמו תמיד אני מתחייב…  בינתיים במשכן ימין חזק YoavKisch  זה די מדהים איך כל ראשי המפלגות שכבר שבוע מגירים דמעות באולפנים מהאפשרות שתוקם ממשלת מיעוט מסרבים אפילו להיפגש עם ג…  LVertzhaizer sagithorowitz דמיון מצמרר יעל אהובה שותפה יקרה לדרךחכמה רגישה ולא דופקת חשבון עזיבתך היא הפסד אמיתי לכנסת למפלגתנו אבל אין לי ספק שנזכה ל…  בליכוד מבזבזים ב24 השעות האחרונות את הגיבוי הציבורי והפוליטי שהיא מקבלת חינם בזכות הקורונה ראשית עם הודעת אוחנה מא…  העיקר שבתי המשפט מקפידים על ההנחיות  הגיע הזמן לחוקק חוק לפקיעת כהונת ממשלה  תמה קדנציה  פקעה הכהונה  רלוונטי במצבים שאדם מנצל הצבעת אמון בכנסת מלפני…  מסימני התקופה התחילו לעשות עם מאיה סלפים ממרחק של שני מטר  כל הפיד מלא בתמונות מלחיצות של תורים בסופרמרקטים אז הנה תמונה אופטימית לשם שינוי גם תור אבל של אנשים אכפתיים שעו…  RonelAdani עליתי קילו מאז שהתחלתי</t>
+  </si>
+  <si>
+    <t>michaeldvorin aviadglickman הייתי שמח לראות את התצהיר של הגב בן ארי כשקיבלה טופס 4 גליקמן אתה יכול לעזור לי להשיג אותו סעיף 239 ל… drmichaelbenari hadover1 moshenayes גם בישיבה של בני hadover1 ויש דברים שהם בכלל חילול ה והוא שיעשה אותם אדם גדול בתורה ומפורסם בחסידות דברים שהבריות מרננים אחריו…  Guynesher83 ChezkyAisentark חס וחלילה שעיר לעזאזל אבל נאה דורש מבלפור  מקיים גם בקרוב ללבו אסור התקהלות בזמן הסגר  זה כל רעיון הסגר Guynesher83 ChezkyAisentark אני לא בא בטענות לכל הציבור החרדי ולא לרוב שמקפיד אבל בוא חלק גדול מהחצרות החסידיות…  Adamchoshev NehemiaGA ChezkyAisentark KobiNachshoni טוב אני לא מצליח להבין את הטיעון ומה הקשר איראן וכיבוש האר…  mendysilber Adamchoshev NehemiaGA ChezkyAisentark KobiNachshoni השואה כדוגמה לקוצר רואי קרא על הילה וכסלר  ChezkyAisentark אין בי שנאה כלל וכלל ועניין התחושות הוא במחילה מטופש גם לי יש תחושות קשות מול המפגינים גם לי יש תח…  mendysilber Adamchoshev NehemiaGA ChezkyAisentark KobiNachshoni אז קו כעת מגיפה עולמית  ברוקלין כמשל לא נ…  Adamchoshev NehemiaGA ChezkyAisentark KobiNachshoni לא נכנס לסיבות שאין לי יכולת לדון בהם אני מתייחס להיסטוריה…  ChezkyAisentark שקר וכזב שום דבר לא נגדם תפילה במקום סגור מסוכנת  מותר להתפלל בחוץ אין אירועי ספורט המוניים ולגבי…  Guynesher83 ChezkyAisentark תגיד אתה נורמלי דמוניזציה אני עורך עכשיו טיש אני מבקש ממנהיגי הציבור החרדי להיות ר…  ChezkyAisentark אני משווה בגלל אלמנט העיוורון כלפי הסכנה  אני מצפה לאחריות של מנהיגי הציבור של הרועים  מי רוצה…  Adamchoshev NehemiaGA ChezkyAisentark KobiNachshoni אני מצטער לא שותף לתפיסתך  הכתובת הייתה על הקיר הרבה הרב…  NehemiaGA Adamchoshev ChezkyAisentark KobiNachshoni ואפילו האמרי אמת שתמך בישוב אי בד בבד עם התנגדותו החריפה…  ChezkyAisentark ממש לא הסברתי באמצעות השוואה לתקופה נוראית בהיסטוריה שגגה בתפיסת המציאות של מנהיגים רוחניים נוכח…  ChezkyAisentark שנאת חינם לשון הרע התמונות לא מדברות בעד עצמן הנתונים לא מדברים בעד עצמם אני לא שונא אני אוהב…  NehemiaGA KobiNachshoni לא עובדת התוכחה הנעימה הכתובת על הקיר באותיות קידוש לבנה כנראה לא עושה רושם  גם לפני…  YanivTurgi אני מתנגד להפגנות בבלפור ולכל התקהלות המונית בעת הזאת הכל כולל הכל מי שרואה את הסרטון הזה מבני ברק ושותק כשהתחלואה בישראל… HochmanGuy בשעה טובה  ודש מפרנק זל הוגה המנברזיר  אמר לי ישמעאל בני ברכני אמרתי לו יהי רצון מלפניך שיכבשו רחמיך את כעסך ויגולו רחמיך על מדותיך ותתנהג עם בניך במי…  YosephHaddad 17 בסוף השבוע הגיע ליישוב יצהר איש צוות רפואי מהחברה הערבית כדי לבצע בדיקות קורונה אך השומר בכניסה ליישוב לא אישר לו כנ… chaimlevinson noamfathi כל הכבוד  סחטיין fischlerpini תת ניצב גיא ניר שהצביע על שחיתות במשטרה ובין השאר הביא לפרישתו של ניצב רוני ריטמן מבקש לבטל את הסכם הפרישה שלו שלפיו… זוכרים את כפר מימון אז הערב הפריבלגים חצו את הגדר arisade94 הם אשכרה חושבים שהם לוחמי חופש בגיפים הממוזגים שלהם אני חייב אימוגי יותר חזק מ🤦‍ זה לא מספיק כדי לתאר כמה זה מביש שלא… omryavital לא הבנתי עם רובים וכזה שורפים מחסנים  YotYotam ועכשיו אחרי שכתבתי ורבתי והתווכחתי על הסיפור הזה יותר מדי רוצה להגיד לאנשים שאני ממש אוהב כמו ריקלין קלמן ארז כנרת וכולם… Danielpen5 JudyMozes  Ronen23 15 שרשור קצר על החשיפה המטלטלת של גידי וייץ  הדברים שאמר נתניהו על יאיר פורסמו כבר ב2019 עי newsisrael13  אמנם אני חמור זקן שראה הכל אבל הוא איתי שם תמיד הילד שהוריו התגרשו  גירושין מכוערים מאוד  קרוע בין אמא לאבא ואח…  לא אישי ענייני  nerizuki תגידו למשפחה של רפי שאין מגיפה  YinonMagal אמש התברר בסקר שרוב הציבור חושב שהוא עצמו אשם במשבר הערב אחרי הנאום המצויין של ראש הממשלה אמרה קרן מרציאנו שביבי וממשלתו… dovikco מילה טובה לעורכי מהדורות החדשות שעצרו את הדיווחים אחר הצהריים כדי לדווח על האלימות הפיזית שספג פעיל הימין רן כרמי בוזגלו בהפג… BoazGolan שמאלנים תקפו את רן כרמי בוזגלו בעת שתיעד מחאתם בנס ציונה חשוד שנגח בפניו וייתכן ושבר אפו נעצר במקום בעת התקיפה שבוצעה מול… realadamgold הצעה לתקשורת הישראלית המופקרת על כל שלושה אייטמים ששוב מנסים לנרמל ולקדם אנרכיה כשמגפה משתוללת כאן תראיינו גם אמא – אחת… Yishai2 rothmar mosheifargan ברצח אתה פוגע באדם אחר העמדת אנלוגיה לא נכונה לגבי קדושת מקום  והזכרת חוף ראה חוף…  YinonMagal אז אחרי שהאשימו את נתניהו שהוא משבית את המשק רק כדי לפגוע בהפגנות ואז היועמש הבהיר שאין קשר בין הדברים עכשיו הם מזועזעים… Yishai2 rothmar mosheifargan אני בכלל הייתי בדיון הפילוסופי וניסיתי להבהיר שסוגיית  הקדושה במדינה שאינה מדינת…  Pootzi ביום שלישי 299 חברת החשמל החליטה שדחוף חייבים להחליף את התאורה ברחוב שלי ולצורך כך לא יהיה חשמל מ8301530  אזכיר לכם שזה זמ… Refael81480415 Yishai2 rothmar mosheifargan מסכים Yishai2 rothmar mosheifargan בעולם אמוני קדושה וחול הן יצירה אלוקית   במדינה דמוקרטית מודרנית קדושה היא פועל…  Yishai2 rothmar mosheifargan מה קדוש לאתאיסט האם קדוש היא המילה מהו חופש הפולחן של חסרי האמונה מהו חופש משה…  rothmar mosheifargan מהו חופש הדת של אתאיסט נניח  מבחינתו חוף הים בשבת הוא מקדש מעט  וחוזר לשאלת עבר בגצ הגביל…  shlomopyuter היועמש מנדלבליט נבהל מהפרסום שהוא התנה הגבלת הפגנות בסגירת המשק ודאג שתפורסם מטעמו הודעה שלפיה היועמש לא קבע בשום שלב… akibigman אשמתי בגדתי טעיתי תמכתי בממשלת אחדות חשבתי שהאנשים יתעלו על עצמם שיניחו בצד את האינטרסים הקטנוניות ויצליחו להתאחד במטרה לה… RanBaratz עיתונאי השמאל הופכים לפתטיים מיום ליום הספין החדש המטרה של נתניהו היא לעצור את ההפגנות זה כל מה שמעניין אותו האמת בלי ל… פוליטיקה קטנה על חשבון המלחמה במגפה  אבל היי העיקר היא נגד מושבי עור  tomerskurnik אני קורא כבר שבוע לסגירת בתי כנסת אין לי פה פוזיציה חופש הפולחן אינו נופל מחופש הביטוי והמחאה למרות חשיבות חופש הפולחן תפילת יהודים בהר הבית הוגבלה למעשה נאסרה בבגצ…  yitzhak55 חבל על דאבדין RuthB36446246 אוריאל לין YinonMagal ומה שהכי מקומם במאבק של כחול לבן להשאיר את ההפגנות ולא תשמעו על כך הוא שמדובר פשוט בשיקולים פוליטיים לבייס מדומיין שאגב ב… arielschnabel אז עכשיו ניכנס לסגר חונק במיוחד רק כי זו הדרך היחידה להגביל הפגנות הקנאות המטורפת של קיצוני בלפור בסיוע דחלילי כחל״ב ב… liyaomer תקשיבו רגע כל מטורללי השמאל בראשות פקיד ההסתדרות  אתם באמת חושבים שההפגנות רעות לנתניהו ולכן הוא רוצה לאסור אותן בחיי שאתם… AvishayBenHaim ברא כרעי דאבוה   האב נפטר אבל הבן הוא כרגלי אביו וממשיך להוביל דרך פסיקתו הספרדית המתונה  הרב דוד יוסף בנו של הרב… Ofir77744530 כך בחשו רביב דרוקר וברוך קרא בחקירות נתניהו יחד עם אילן ישועה עוד לפני הגשת כתב האישום המידע שהיועץ המשפטי לממשלה הסתיר… netanelgla למה לעד כמו אילן שלא חשוד בכלום להדליף לעיתונאים על חומר חקירה אולי בגלל ש״שביבי אסון וצריך להוריד אותו״ העד שחומר מאוד ס… Meshilut ברק לייזר היועץ המשפטי של הנהלת בתי המשפט היום בוועדת חוקה יש פה אמירות פומפוזיות על צוות ושמעתי אמירה על כך שמעסיקים חב… MmEeIiRr16 זה עובר חילוניים שהשופר בסוף הצום חשוב להם Onetruth011 הרב דוד יוסף במסר חשוב לסגור את כל הבתי כנסיות  radio103fm erelsegal issacharoff בשידור חי gtgt  GadiTaub1 ברייקינג  זה חתיכת בום  צו נשיאותי שאוסר אינדוקטרינציה פרוגרסיבית של כת הפי סי בכל רשויות הממשלה בצבא ובכל חברה שעובדת… ariehking האנרכיסטים תושבי הגבעות פוגעים באחדות העם ואף במפעל ההתיישבות ביהודה ושומרון והאינטרס של מחנה הימין יותר מהאנרכיסטים בהפגנ… WinnieRottem falkoure שמע הקישור שהעלת הוא הודעה של הcdc שהם לא מקבלים את תוצאות מחקר שהתפרסם בשבוע שעבר על  6 ש…  Piniwine לא תקפתי התעצבתי  מותר לי  לא גידפתי לא השמצתי  לא קילסתי סתם יהודי פשוט עצוב כשהוא מהרהר בעתיד הקרוב boruch052 וואלה כי בגרמניה שיחסית מתמודדת טוב יותר מאשר ארהב עם הקורונה  ההמלצה חד משמעית מסיכות מסיכות מסיכות RafiRodnik12 urieltzaitlin אני גם כמובן דואג לעצמי ומשפחתי וכו וכו אנחנו רקמה אנושית אחת הנגיף לא מבדיל בין חרד…  urieltzaitlin זה תירוץ חביבי אתה רוצה להפגש פה עוד חודש אתה מוכן להמר על חייך וחיי קרובך  גם אני בסגר גם לי יש ב…  boruch052 מה הקשר לגאונותו בענייני רפואה הרב הבר זצל היה בקיא ומבין הנגיף הרי לא בוחן את האדם באנטומיה או בDSM ה…  urieltzaitlin ממש אתה לא בכיוון אלו לא סתם יהודים אלו מנהיגי ציבור חשובים  ואני לא מתנגח  אני עצוב  אני אוהב את…  oshvitzon תתנצל  WinnieRottem falkoure למה אתה מבלף  המאמר באבסטרקט MoshkovitzRaz מה לא תרגמתי נכון danmedalsy3 דן היקר אני קורא כבר יומיים לסגירת בתי כנסת  פיקוח נפש למי שאינו מאמין לפרופ ברבש זה המחקר של אוניברסיטת אוקספורד על הסיכון הרב בהפגנות   RonenRt די רונן   RonenRt  RonenRt  RonenRt אני עושה זאת משבוע שעבר AvishayBenHaim לא חבל על חיי אדם אבישי איך היו לדעתך פוסקים הרב יוסף והרב שך neoraytal לא מנסה לחנך את החרדים מנסה לדבר אל השכל הישר  על בסיס מוסכמות הלכתיות אנא אל תראה זאת כהתרסה אלא כתחנונ…  FacuI29147752 לא כל כמה שנים באה מגפה כזו לא בכל כמה שנים בכל העולם מגבילים התקהלויות במקומות פתוחים וסגורים  לא…  רמבם משנה תורה שבת פרק ב  שנאמר אשר יעשה אותם האדם וחי בהם ויקרא יחה ולא שימות בהם הא למדת שאין משפ…  RoyIddan טייכר ענק liyaomer כל עוד יהיו הפגנות לא יהיה כאן סגר חברי הכנסת האנרכיסטים שממשיכים לדחוף את ההפגנות שרי כחול לבן שנראה שזו כל מטרתם עלי אדמו… Mickeygitzin  thefakedancohen YinonMagal אכן קושיה netaelbandel יועצי רה״מ הגישו תביעת דיבה ״לא ביימנו הפגנה  יועצי ראש הממשלה עופר גולן וטופז לוק הגישו תביעה דיבה נגד אהוד ברק אורי… RonenRt הנה עשיתי לך לייק למשל   BiniAshcknasy למשל חוד שהוזמנה בידיעות לקראת חוק ישראל היום  ושרת המשפטים לבני הביאה לישיבת הממשלה  ReemSherman אהבתי את הרפרנס ההיסטורי GilBringer לא נתפס כמה אנרגיה מנדלבליט משקיע בהשתקת עמדות אחרות   להלן עמדתו המלאה של היועמש מדוע יש למנוע מהממשלה לשמוע את עמדתו של… ZechariaHezi אז מה אתה אומר בעצם אם הם קופצים מהגג גם אני רוצה titoreru אני מנסה להגיד להם שהם צודקים זה מרגיז זו חרפה  אבל לעם ישראל יש זיכרון אסור לשתף פעולה עם שורפי מחסנים מ…  AronRabino1 AvishayBenHaim מכיר כמובן Onetruth011 ErelSegal הרב עובדיה זצל היה אומר לדעתימה יש לנו מהם רוצים להפגין שהפגינויש להם תורה אלה יש להם ונשמרתם הם חוגגים מ… Onetruth011 כמה הוא חסר כעת AvishayBenHaim מנדלבליט היה תלמיד הרבש  שם בקרב תלמידי הרבש חזר בתשובה כך על פי הביוגרפיה   אני לא בטוח שהכיפ…  חס וחלילה חס ושלום להפך בנקודת שבר זו היהדות החרדית יכולה להוכיח את עוצמת התורה ואת אהבת ישראל שלה אסור להגרר אחר…  Davidv30v12v19 אז אין שיקול דעת כעת אין מגפה עולמית שבחלל סגור בזמן שירה מסוכנת  ויש אפילו דוגמאות לא אנקדוטליות…  אז או קי יש אלפי מפגיני שמאל הם לא תרוץ  אנחנו האם האמיתית  אנחנו יודעים שאסור לשרוף מחסנים איפה האחריות של המנ…  2 איני מורה הלכה ולא רב סתם יהודי פשוט אבל ההלכה ברורה אפילו אין סכנה מיידית  יאכל כי נאמר וחי בהם פקוח נפש דוחה…  1 ושמרתם את חקותי ואת משפטי אשר יעשה אותם האדם וחי בהם ויקרא יח ה דרשו חזל וחי בהם ולא שימות בהם על כן אם…  haskioren רפואה שלמה thefakedancohen mosheifargan זו מחשבה פרברטית אתה היית שורף מבחן רורשך עם העיניים שלך mosheifargan איפרגן                                      למה                    את מי היא מעניינת           למה איפרגן Fnnobou NissimSofer Thioret casperraul הדלות NissimSofer Thioret casperraul ניסים ניסים המתוק   כאילו  שמאל תל אביבי  אבל בלב פנימה ביבי  ניסים ניסים הח…  NissimSofer casperraul אני מתבאס בגלל קלמן  אני אוהב אותו  הוא חבר אח זכותו כמובן לחשוב אחרת  זכותי להתבאס motic1976 מבחינתי הוא דיבר על חבר שלו צאבס  מגוחך omerbabai yesnomabyyes oranmikel stav100 mosheifargan rothmar אתה לא מבין חלום סוס המשטרה שלי הוא אחד הרג…  yodfatyoni 8xJHSXjvLpKXpjK YaaraZered עוגת שמרים במילוי חרא נשמע מתאים לקטע בסרט מתיחות גרמני שייסה שטרודל yesnomabyyes oranmikel stav100 mosheifargan rothmar חכה שאספר פעם על חלום הסוס שלי 8xJHSXjvLpKXpjK YaaraZered הכרזת נבצרות היא סוף הדמוקרטיה  אם לא נצא לרחוב מגיע לנו כל חרא שנאכל YaaraZered נצא לרחובות adibergman2 ronitlev12 WTDT61WXKg8Ke0t liberallikudnik akivanovick הנוכל שעמד מול תשע שנות אובמה הביא לשוקת את…  casperraul אחי כבר הייתי על הבורדו של האדום בטורים  הזעתי בתחת מרוב כעס AdiVaknin6 ולכן אסור להכנע בשום פנים ואופן חייבים לחזק את ראש הממשלה שיילך למשפט המשפט שלו הוא המשפט של כולנו 4 ומנגד  לא לציטוט הפוך  אנחנו במלחמה הגיע הזמן שילך  עשו בצאלח א דין הערכת מצב והגיעו למסקנה שהם חייבים לעלות…  3 ״אחוז התפעלות״  מנדלבליט משחק על כל המגרש ולכן משנה טקטיקות תדיר כשמרגיש שהאדמה רועדת והוא יותר מדי מזוהה פוליטי…  2 אדרבה הוא אחוז התפעלות מיכולותיו של נתניהו להתמודד עם ההליך המשפטי תוך כדי ניהול שוטף של המדינה טיפול בקורונה…  1 בניגוד למר נוביק שמטיל ספק ביכולתו של ראש הממשלה להנהיג אותנו היועמש מנדלבליט דווקא חושב אחרת הנה מתוך הראיון…  amitsegal דעה פופולרית אין על קלמן ליבסקינד ואראל סגל ומבחינתי שיריבו עד מחר אני בעד שניהם EJabotinsky NoaLavi6 כואב לי Riklin10 שלום לאלי ורטר אף אחד לא מכין לי את הציוצים  כלומר אתה שקרן לא תאמין אבל בימין אנשים חושבים לבד ולא נעים בעדרים כמוך לגבי… BarashiKinneret אדוני ראש הממשלה בבקשה אל תלך לעסקת טיעון  4000 זה לא באמת תיק זה מספר הפאשלות שיש בתיק שנקרא תיק בזק   עסקת טיעון… NoaLavi6 אראל oranmikel stav100 mosheifargan rothmar איך בשלב הזה פגשנו כמובן תיירים גרמנים שהדריכו אותנו איך להגיע לבית אנה…  oranmikel stav100 mosheifargan rothmar באמת דוכן רחוב מעולה בלענו שתי לחמניות עם הרינג  והמשכנו עם המפה אין…  oranmikel stav100 mosheifargan rothmar סוף שנות התשעים  טסתי לאמסטרדם עם חבר  קמנו בבוקר והתחלנו לתדלק כמו חזי…  tsahi8 arisade94 בעיקר עצוב מתוסכל  אבל ממשיכים קדימה כי אין ברירה מול העוול העצום zeevlev היו מי שאמרו שנתניהו לא יכול לנהל את המדינה במקביל למשפטו נראה שזו הפרקליטות שלא מסוגלת לנהל את הפרקליטות במקביל למשפט נתניה… TheEngineer161 כמה התווכחו איתי על התגובה שכתבתי לKalmanLiebskind  ובכן סהכ אמרתי מה שאמר גדול ממני לפני שנה תודה רבה לנפתלי בנט על… arisade94 נניח שעקיבא וקלמן צודקים נתניהו לא עסוק מספיק בענייני המדינה אלא בענייניו מה הם אומרים 1 גם אם אתה חף מפשע תקריב את עצמך… levyguy77 אופס  בעקבות חקירות נתניהו הוגשו לפחות 13 תביעות נגד המדינה שבגינן ביקשה הפרקליטות עיכוב הליכים וצווי איסור פרסום כדי להס… rothmar זה פשוט גדול עליהם הם חייבים להתפטר f7FEPCkXfGH3sBU mosheifargan Shiritc סליחה דר AvishayBenHaim נמשך מסע הדה לגיטימציה החינני באמת ב׳הארץ׳   הרושם העולה איננו אמת וכושל בדיכוטומיה כלומר מפספס לגמרי שוב ושוב את כ… mosheifargan מנדלבליט חייב לדווח לציבור כאן ועכשיו עם אילו עיתונאים הוא נפגש ועל מה הוא דיבר עליהם אם היו כאלה אי אפשר להמשיך יותר ע… yotameyal אמיצים וראויים לכל שבח תהיו חזקים רפואה שלמה rothmar NadavEyal היום הצעתי בשידור  קחו פרמדיקים והכשירו אותם לטיפול נמרץ mosheifargan השאלה המעניינת היא מי השליחה שהציעה למר ריקלין להיפגש עם דר מנדלבליט ומי שלח אותו mosheifargan Shiritc איתי מר מנדלבליט לא ביקש להפגש חחח stav100 oranmikel mosheifargan rothmar כשאסיים בטלוויזיה אשים פה סיפור חביב mosheifargan rothmar אני מאוד אוהב הרינג mosheifargan עוד שאלה שהייתי שואל את המנדלבליט תוך שאני משחרר כפתור כי ההרינג חנק אותי מדוע נתת אישור לשידור תוכנית המקור שהופיעו בה… mosheifargan 3 לא נדרש להסביר למה בין ארי לא ויזבק ובלד כן ו הוא כן אומר משהו על מצפה כרמים מפנה לסעיף ב בשרשור בשורה התחתונה… mosheifargan 2 למה הוא לא מוכן שהציבור ישמע את הקלטות האם יש עוד קלטות שמטרידות אותו הוא לא נשאל למה פעל בניגוד עניינים כדי לשנות את… mosheifargan 1 א רק על הראיוןתדרוך של במנדלבליט במקור ראשון הוא צריך לעוף האיש מדבר כמו מנהל הממשלה ב בפרשנות שלי הראיון הזה הוא… Nadav007 akivanovick אלתיקח ללב מחילה לא משהו אישי נגדך אתה תופס אותי ברגע כואב ומתסכל אנחנו בשיא המאבק נגד עוו…  Shiritc לא רואה עיוורון אוטומטי אצל מי שמשיבים למאמר של קלמן במאמרים מנומקים משלהם או פה בדיונים בטוויטר זה תמיד חוזר דווקא לאותה האש… Shiritc תודה שירית Nadav007 akivanovick לא ידידך ולא מחמד לבך עקיבא הכליל   חלק גדול מהמגיבים לקלמן הגיבו עניינית היו גם מי שירד…  akivanovick העיקר שאתה מוסרי בוא ספר לנו איך torliber תקבל הודעה אישית torliber drorfo  DrorGloberman  OrHeller  TalLazar torliber סיפור נהדר עכשיו בכל פעם שאנגן אותו אחשוב עליכם torliber בטח torliber כבוד גדול עבורי torliber מתוק  איזה שיר itayr2 liyaomer הפר  עונש  קנס אין שאלה בכלל itayr2 liyaomer אירוע רע מאוד שדורש תשובה טובה  אם אכן טופז החביב הפר בידוד הוא צריך להקנס על ההפרה כמו כל אזרח אחר liyaomer חבורה של אנרכיסטים נמצאת ליד בלפור ועושה מה שבראש שלה וכולם מתעסקים עכשיו עם טופז אלפי אנשים צועקים בוגד וכולם סותמים את הפה… liyaomer אדם ענק איש של שלום עם לב מזהב יהי זכרו ברוך giladerlich1 amirhaimov גם בבריטניה לבוריס גונסון יש תיקים על הראש הם גם בדרך לסגר  אולי תצא אתה מהפוזיציה א…  levyguy77 תיקי נתניהו נפרמים פרק 05 עלק עד מדינה  עקבו ושתפו   levyguy77 כל הכבוד גיא amirhaimov giladerlich1 בדיוק אתם רואים מהקצה ההפוך של המשקפת בזמן שנתניהו מסתכל על התמונה הכוללת שבוע שעבר הוא קצר את הפירות omeraricha galisunrise1 כל מהפכה גובה מחיר גברת לוי זה מאוד מאוד מפורש מה המחיר  galisunrise1 את לא מיש עתיד סה מה שלפיד רוצה מהפכה לכל מהפכה יש מחיר מה זה בינינו אבא או אמא  סבא או סבתא  אתם רואים את התמונות מירושלים והבטן מבעבעת  זמן סגר ואלפים במפגן נרקיסיזם אינפנטילי דוחה של שנאה עיוורת אבל זכרו…  giladerlich1 amirhaimov אתה זה שבציוץ המקור הוצאת את תומכי נתניהו מהגדרתם כימין יורה ובוכה רק בעפרה יש ימין  netanelgla אז המחנה שלימד אותנו מהי קדושת החיים והסביר שבשם אותו ערך קדוש צריך לוותר על חבלי מולדת ולתת נכסים אסטרטגיים שלנו ולחמש… GilTevet כבר הוכחתי לא פעם את מחוייבותי לחופש הביטוי גם של אנשים שגורמים לי אולקוס   בדכ אני גם מתווכח עניינית giladerlich1 אתה מוציא את מצביעי הליכוד מהימין יש לך מבחן קבלה לימין יצא לך גם מתנשא וגם אידיוטי זה מה שמלמדים…  ThisAnd56493597 לכן איני מסכים איתו בדיוק לעיל אבל אפשר להתווכח איתו  אפשר להטיח בו את העובדות לא ללכת לגידופים mosheifargan משה מורי ורבי אני מסכים שהדרישה מנתניהו להכנע אינה מוסרית וגם אינה רציונלית  ולכן אני שולל מכל וכל א…  פיד ימין יקר ההתקפות האישיות על קלמן ליבסקינד לא לעניין בכלל  אני אומר זאת גם כחבר אח וברור שאני חשוד בנפוטיזם א…  qeeSA14UahkoBqz Inbalgilmore כלומר אחרי שנתניהו יכנע המנהיג חדש שכבר יודע היטב מה יעלה בגורלו של מי שהמערכת רוצ…  drorfo AmirBenDavid danaspec בדיוק יש לנו צפצפה כזו בשלט  אם נרצה למצוא אתכם  נלחץ drorfo danaspec כשריק דאנקו שר Its make no difference  אתה מבין מה זה גבר עם לב שבור drorfo danaspec איבדתי אתכם כבר בדה בנד danaspec drorfo שנה טובה דנה  לך ולרן ולכל החמולה שלכם  chaimlevinson מר לוינסון ההכללות הגידופים והשמצות אינן נחלת מחנה אחד אז איך אומרים בגרמנית טול קורה בכל מקרה  שנה טובה chaimlevinson מה אתה רוצה ממני אני תוקף אישית ארז יקירי אתה טועה ומטעה קלמן פועל בשירות קלמן בשירות מצפונו ועמדותיו   וזו דרכו מאז ומתמיד אני מכבד את דעותיו ג…  drorfo danaspec ניל יאנג הגיע לשיאו כש  Lynyrd Skynyrd  שרו עליו ב Sweet home Alabama  יש לו קול דק והוא נראה כמו…  RoyIddan לא ממש לא זכותו להחזיק בדעתו אבל אתה התגוללת על אנשים בהכללה גורפת ואני מרגיש חלק מהם מקבוצה שלמה שנאב…  RoyIddan אתה קורא לי עבד לי שנה טובה רועי Slonim91 יש דלת יש מזוזה לך תרצע שם את האוזן אני אדם חופשי לא משרת של אליטות ושל מערכת מושחתת אתה מוזמן להפסיק לעקוב קלמן חבר טוב ושותף אבל דעתנו שונה מאוד בעיני כניעה של נתניהו  היא חרפה למחנה שלנו  וניצחון להגמוניה הישנה והמושחתת…  לא בום ולא נעליים מותר לקלמן להכנע ולכספית להדהד את הכניעה  אנחנו נמשיך בכל הכוח כי אם נכנע  ירצעו את אוזנינו במזו…  YinonMagal מי שבימיןבבלוק וקורא לנתניהו ללכת גם בעסקת טיעון או חנינה הוא כפוי טובה שמחתי לעזור אוהב דקל Meshilut לקראת השנה החדשה רצינו להציע לכם חברות אחרי השנה כולם כבר יודעים על הבעיות במערכת המשפט שלנו  תשפא תהיה שנת פתרונות איתכ… arrhton aaakaniel עניין טכני גוזרים את הקטעים בדיגיטל  זה היה הקטע האחרון בתכנית ולכן עלה בסןף</t>
+  </si>
+  <si>
+    <t>amsterdamski2 תנו לנתון הזה להדהד לכם בראש היום ומחר עד ישיבת קבינט הקורונה בקבינט הקורונה חברים 16 שרים ובמלים שישה עשר זה גודל… אפשר אחרת בשווייץ מדינה בגודל של ישראל הלוואות ל57 שנים ב100 ערבות מדינה מאושרות תוך 48 שעות calcalist  Gmar Chatima Tova to Jews across the world May you be inscribed in the book of life   Let us hope this coming yea…  גמר חתימה טובה לכל בית ישראל תתפללו באחריות תשמרו מרחק עד כמה שניתן עם הילדים הקטנים מסביב לבית שמרו על עצמכם וצום קל בימים אלה חייבים לזכור את המלחמה הנוראה ההיא על אלפי ההרוגים והפצועים שלה מלחמה ששינתה את ישראל ותישאר לעד כאות אז…  יש להקים מתחמי בידוד ענקיים לחולים מאומתים מהמגזר לתת מעטפת תמיכה למשפחות מערכת ניטור עירונית יעילה שתדע להגיע למ…  יש עתיד  תלם תמכה ותתמוך בכל דרישה תקציבית או אחרת שנוגעת לטיפול ובמאבק הקורונה נתמוך בכל מה שצריך כדי לטפל מייד…  נתוני התחלואה במגזר החרדי מדאיגים מאוד אנחנו חייבים כולנו  הממשלה הכנסת והאזרחים  לעשות הכל כדי למנוע אסון זו ה…  את שיש לי להגיד אני עוד אצרח  אפילו בירח ישמעו  בחוץ שקט אנשים מתכנסים בבית בחדשות מדווחים על שיא של מאומתים אבל ישראלים הם עם חזק ובמשברים עוד יותר חזק נעבור…  תודה בשם כל קהילת הצרכים המיוחדים לח״כים המדהימים שלנו שבזכותם הורים לילדים עם צרכים מיוחדים יוכלו להסיע את ילדיהם…  מברך את ארגוני המחאה על החלטה אחראית וראויה שוב הוכח שהאזרחים בישראל הרבה יותר חכמים והרבה יותר אחראים מהממשלה שלהם כל מה שמעניין את ראש הממשלה זה הפגנות יש כאן חיים של אנשים עסקים קורסים מובטלים מחדלנתניהו  למה אני  נתניהו במרץ עשיתי אמרתי הנחתי  נתניהו ביוני תעשו חיים נתניהו באוגוסט מה זה קשור אלי נתניהו אתמול לפיד אשם KElharrar ועדת חוקה דנה כל הלילה בהצעת החוק ועדיין לא ברור מה מהמשק יישאר פתוח הממשלה טרם אישרה את התקנות הקשורות במגבלות בתעסוקה אי… כן נתניהו הבנו אני אשם גמזו אשם שאשאביטון אשמה המפגינים אשמים הציבור אשם אולי תפסיק להאשים את כל העולם בכשל…  אם כבר יוצאים לסגר יש ששה דברים שצריך לעשות הנה התוכנית שהממשלה היתה צריכה להציג ולא הציגהזו התוכנית המינימלית לצ…  לא ניתן לנתניהו להפוך את זה למלחמה בין דתיים לחילונים לא יעזור לך מר נתניהו אנחנו לא שונאים אחד את השני אכפת לנו…  אני מצטרף לקריאת הרב יוסף השמרו לנפשותיכם תתפללו באוויר הפתוח עם מסיכות פיקוח נפש דוחה הכלאנו נציית להוראות לגב…  זו לא תקלה זה מחדל זו התוצאה של ממשלה שאין לה מושג מה היא עושה שאיבדה את אמון הציבור כל דרגי המקצוע היו נגד הסג…  זה פשוט לא נכון שהגל השני מכה בכל העולם ואין ברירה זה עוד אחד מהשקרים שבגללם הממשלה איבדה את אמון הציבור הגל השני…  אזרחי ישראל לא מבינים מה התוכנית מאחורי הסגר הזה  כי אין תוכנית הממשלה לא הציגה שום רעיון חוץ מלסגור את המדינה א…  מדינת ישראל נכנסת לסגר שהיא לא היתה צריכה להכנס אליו הסיבה לסגר הזה היא לא הקורונה הסיבה לסגר הזה היא הניהול הכוש…  נפגשתי הבוקר עם שגריר רוסיה לישראל אנטולי ויקטורוב israelmidru  ניהלנו שיחה על האתגרים שעומדים בפנינו גם ברמה ה…   כל שרי הממשלה ובעיקר חברינו מכחוללבן צריכים לשאול את עצמם הבוקר מה הם עושים בממשלה שמפקירה ככה את הציבור מה הם עו…  אנשים שלא מילאו חשבונית בחייהם סגרו הלילה את כל העסקים במדינת ישראל מחדל נתניהו  מחדלנתניהו הממשלה הצביעה על סגר שני עכשיו שתגלה לנו איך לא נגיע לסגר שלישי מה התוכנית 6 ביום שאחרי הסגר לתת לראשי הערים את הסמכויות והמשאבים שינהלו את הערים בשיתוף פיקוד העורף 4 מינוי דובר מקצועי למשבר בלי מסיבות עיתונאים פוליטיות רק מידע והוראות ברורות לציבור הישראלי כל יום  5 דוגמא א…  2 מודל פיצוי לעצמאים שייכנס לתוקפו מיידי עם תחילת הסגר רשת בטחון ודמי אבטלה לעצמאים וביטול מודל החלת ומעבר למוד…  1 אסטרטגיית יציאה ברורה עם פרמטרים ברורים מה ייפתח מחדש מתי מה המדד להצלחה מה אנחנו מנסים להשיג כמה מקרים חמור…  לא היינו צריכים להגיע לסגר המחיר הכלכלי הנפשי והחברתי יקר מידי היינו חייבים לטפל בקורונה לא בפטיש אלא באיזמל זה…  עדיין שורה תחתונה מחדל נתניהו  לפני חודשיים כבר הזהרתי  במקום דיון על המחדל הנורא שלו בטיפול בקורונה בעליה בתחלואה ובהרס הכלכלה נתניהו מנסה לגרור את את הדיון להפגנות ליד…   חצי שנה אחרי שהמחלה הגיעה לארץ  עדיין אין קבלת החלטות מסודרת אין תהליך אחד שעושים מהתחלה עד הסוף הכל חפיף ופוליטי ולא מנוהל מחדל נתניהו 200 אלף נדבקים מעל אלף מתים וכלכלה קורסת זה הדבר היחיד שחשוב הנסיון של נתניהו להסיט את הדיון להפגנות שקוף ופתטי…  קודם יקבלו אזרחים בקבוצות סיכון אחר כך ילדים ואוכלוסיות נוספות ובסוף חברי כנסת נתנגד לעדיפות לחברי כנסת על פני א…  ביבי מנסה להזיז את הדיון להפגנות כי זה אזור הנוחות שלו הסתה סכסוך שנאת האחר הכל כדי שלא נדבר על המחדל הנורא שלו…  יעילות ממשלתית קווים לדמותה  אז בזמן ששני יועציו הקרובים של ביבי מפרים את הסגר היועץ הכלכלי הכי בכיר  שלו אמר היום ״העניים נפגעו הכי פחות מהקו…  האופוזיציה ראש האופוזיציה יפעת שאשא ביטון פרופ׳ גמזו המפגינים על הגשרים אזרחי ישראל החולים בקורונה כולנו אשמ…  לקחו מאתנו את הזכות לחיות במדינה מתפקדת עם ממשלה מתפקדת וראש ממשלה מתפקד מגיע לנו יותר זה מה שאנחנו מציעים לאזר…  מאז 2009 בתוך רחל יש את מלח – משק לשעת חירום – הגוף שמרכז מפעלים ושירותים חיוניים בשעת חירום למשרד הבטחון יש את…  דמיינו שכבר בינואר ממשלת ישראל היתה מחליטה מי הגוף שמרכז את נושא הקורונה למעשה היא לא באמת צריכה היתה להחליט עליו…  בעולם האלטרנטיבי הזה בשלב הראשון מוקמת הממשלה על פי החוק מפלגות הקואליציה היו מתכנסות היו מסתכלות על החוק בחוק…  דמיינו מה היה קורה אם היינו נכנסים לקורונה וכל השיקולים היו ענייניים מה היה קורה אם מינואר ישראל היתה מתפקדת כמו ש…  היום ב1200 נתניהו הופך להיות גם שר הבינוי והשיכון כי מזמן לא הזניחו פה איזה תחום חשוב העיקר שיש שר לענייני מים זה מה שעושה ההסתה האינסופית של ביבי השקרים מכונת תעמולת האימים אם יישפך פה דם הוא יהיה על ידיו  אנחנו אומרים להם את זה מהיום הראשון  זה לא חייב להיות ככה לא צריך להגיע למיליון מובטלים שוב אני אומר כבר מספר חודשים תמחקו את מודל החל״ת ולכו למודל ה…  חוזרים על אותן טעויות נתניהו נכשל כי הוא מנהל גרוע אם רוצים להלחם במגיפה בהצלחה  צריך להחליף אותו  כל היום דיברו על זה שיקצצו 20 משכר השרים והח״כים התראיינו על מצב חירום ודוגמא אישית בירכנו תמכנו ואז הממשלה הת…  ממשלה שעסוקה בעצמה נראה את השרים מחכים חודשיים למשכורות  42 אלף מובטלים חדשים ביומיים זה לא סגר נושם זה סגר חונק מצטרף להצעת דרעי הוא צודק    הקיצוץ חייב לבוא עם קיצוץ נוסף ממשלת ה36 שרים צריכה להתכווץ לממשלה יעילה של 18 שרים בלבד ממשלה שהוקמה לצורך טיפו…  אני תומך בקיצוץ שכר השרים וחברי הכנסת נחמד שהם נזכרו סוף סוף להפסיק את השערורייה הזו יש עתיד מנהלת את המלחמה נגד…  הלב עם משפחת הררי דידי והילדות מירית הייתה השראה לכולנו החיוך והמאבק שלה במחלה השאירו אחריה מורשת של עוצמה ונחיש…  Ruth Bader Ginsburg lived every day by the Jewish value that took pride of place in her Supreme Court chamber “Jus…  לכל אלפי השוטרים חיילים כוחות הבטחון ההצלה והבריאות אני יודע שאיפה שאתם לא נמצאים עכשיו זה המקום האחרון שאתם רוצ…  זו הולכת להיות השנה שבה נהיה טובים יותר שנה טובה  התוכנית לעידוד מעסיקים של שר האוצר ישראל כץ היא התחלה טובה של המודל הגרמני שאני מדבר עליו כבר כמה חודשים עכשיו צר…  הרמת כוסית לשנה חדשה וטובה בזום עם ראשי מטות ומאות פעילי יש עתידתל״ם עם אורחת אחת מיוחדת שאנחנו מתגעגעים אליה כל…  GLZRadio ראש האופוזיציה חכ yairlapid אצל efitriger צריך לציית להנחיות בהנחה שמישהו יבין אותן הסגר הוא עוד 32 שעות וביטלו את ה… בעוד כ 40 שעות האנשים שאשמים בכשלון הנורא בטיפול בקורונה שולחים את כולנו למעצר בית הם בעצמם לא מאמינים שזה יעזור…  ruvirivlin כי אין לנו ארץ אחרת ואין לנו מדינה אחרת ואין לנו עם אחר ואין אין לנו דרך אחרת מי ייתן ותהיה זו שנת בריאות בריאות הלב… הנשיא ruvirivlin צודק הממשלה לא עשתה די היא הפקירה את הציבור והאכזבה גדולה מאוד אפשר עוד לתקן אפשר לבטל את הסג…  תודה גדולה ואישית לשר הרווחה ishmuli  שנענה לבקשתנו לאפשר למשפחות עם צרכים מיוחדים לבלות את החג עם יקיריהם ולהחזיר…  פעימות לא מגיעות ומענקים לא מגיעים והם אומרים אנחנו נמשיך לעבוד עכשיו אתם סוגרים אותם בתור עונש על זה שהם היו בסדר כל מה שמעניין אתכם זה פוליטיקה קטנה ולא אכפת לכם להרוס את חייהם של אנשים טובים שכל החיים היו בסדר אמרו להם תו סגול…  יש לכם 48 שעות לבטל את הסגר   הסגר הזה לא יציל חיי אדם הוא יעלה בחיי אדם דכאון הורג ייאוש הורג אנשים לא יגיעו לבתי החולים בזמן עם התקפי לב ק…  יש אלטרנטיבה את הסגר צריך לבטל לחזור לרמזור להתמקד באיזורי סיכון ובקבוצות סיכון בגילאים המבוגרים באנשים עם מח…  יש לסגר אלטרנטיבה בא הפרוייקטור שם על השולחן את מתווה הרמזור יצאו לדרך פתאום מבטלים את זה בגלל שלחצו על נתניהו…  הסגר הזה הוא שגיאה זה אסון הם מוציאים את המדינה לסגר במהלך לא מבושל לא מקצועי סגר עושים רק אם אין ברירה – יש בר…  אנחנו קוראים לממשלה לעצור רופאים אומרים לכם לעצור ארגוני המעסיקים אומרים לכם לעצור העצמאים אומרים לכם שאם לא תעצ…  הממשלה היחידה בעולם שמכניסה את אזרחיה לסגר שני חייבת להתפטר קודם זו הודאה בכשלון האזרחים מקבלים עונש על זה שהממשלה שלהם נכשלה במקום סגר תעשו סדר ראש האופוזיציה יאיר לפיד חברי הכנסת אורנה ברביבאי ומיקי לוי בהצהרה מיוחדת עם נציגי גופים וענ…  אז בשביל מה הסגר בשביל מה אתם הורסים את הכלכלה משפחות שלמות יקרסו כלכלית על משהו שאין בו תועלת מנותקים נמאסתם  היו לממשלת ישראל 6 חודשים לחזק את מערך הבדיקות והמעבדות  36 שרים עסוקים בעצמם במקום בניהול המשבר אם הם לא יוכלו ל…  שולח ברכת רפואה שלמה ומהירה לפצוע מאשדוד ליבי עם משפחתו ועם תושבי הדרום שעברו שוב לילה קשה לבנו עם תושבי הדרום בלילה הזה Congratulations to Israel the UAE and Bahrain on this historic agreement  أُبارك لمواطني دولة إسرائيل، ومواطني دو…   DemocratTV לפיד ״הרשימה המשותפת היא שחקן לגיטימי בפוליטיקה הישאלית ולמה לא אומרים את זה כי מפחדים שביבי יצביע עלייך ויגיד ׳הוא אוהב… מה עוד צריך לקרות כדי שהממשלה תבטל את מתווה החל״ת הכושל שלה ותעבור למודל הגרמני היעיל  talshalev1 שיחת השבוע של WallaNews והפעם עם yairlapid  על הקורונה והסגר צריך לקיים את ההנחיות למרות שהן מטומטמות טקס השלום ההיס… חמישה חודשים העצמאים מחכים להבטחת נתניהו העלנו את החוק לכנסת הקואליציה הפילה את החוק ואמרה שהיא תעלה בעצמה חמישה…  גורם בכיר באוצר שמתחבא מאחורי הכינוי ״גורם בכיר באוצר״ כמה מנותק אפשר להיות אתם מנותקים מהעסקים אתם מנותקים מהמעס…  אין תוכנית כניסה אין תוכנית חילוץ העסקים קורסים הממשלה המנופחת בתולדות המדינה מנותקת מהמציאות  מוציאים אותנו לסגר מיותר מפרידים משפחות הורגים את העסקים ואפילו עוד לא החליטו איך זה יתבצע הפקרות גמורה  ניאבק בוועדות הכנסת נגד הסגר ההזוי בכל כוחנו וננסה למנוע אותו מדובר בטעות נוראה בריאותית יש פתרונות טובים בהרבה…  הכאוס מכה בציבור בכל צעד והממשלה שאיבדה מזמן שליטה על המגיפה והכלכלה מאבדת כעת שליטה גם על מנגנון דמי האבטלה איזה…  התכניות הממשלתיות נכשלות אחת אחרי השנייה התכנית להכשרה מקצועית בניצול אפסי מתווה המענקים לעידוד תעסוקה  קרס ההח…  KnessetT בשביל 144 מונשמים לא סוגרים מדינה שלמה הציבור לא יציית לסגר הזה כי משגעים אותו כך טוען ראש האופוזיציה yairlapid בפתח ישי… Minister Hanegbi doesn’t represent the opinion of the State of Israel about Joe Biden or the Democratic Party   I’…  היתה לנו שיחה עירנית ותוססת מקורונה לכלכלה ומדיניות חוץ אבל לכולם כמובן היה שאלה אחת מתי הבחירות קיימתי הבוקר שיחת תדרוך מפורטת עם 50 שגרירים ונציגים דיפלומטים בכירים מכל רחבי העולם הבעתי את תמיכתי בהסכמים החדשי…   במדינת ישראל יש כרגע 144 מונשמים ליבנו עם כל אחד מהם אבל בשביל 144 מונשמים לא סוגרים את הכלכלה של מדינה שלמה זו לא מדיניות סגר הוא לא תוכנית הוא הודאה בכשלון נתניהו נכשל הממשלה הזו נכשלה עכשיו רוצים שכולנו נשלם את המחיר יותר אנשים ימ…  הסגר שעליו החליטה ממשלת נתניהו הוא אסון הוא טעות איומה מה התוכנית שלהם לצאת לסגר להרוג את העסקים עד שהם הרימו…  newsisrael13 לפיד הממשלה אומרת לציבור  נכשלנו עכשיו אתם תשלמו את המחיר • לריאיון המלא עם usegal וtamarishshalom gtgt  נתניהו פשוט לא מסוגל להודות שנכשל ולהתנצל בפני הציבור הישראלי זה המינימום שהוא היה צריך לעשות הערב מי שלא יכול לה…  N12News סגר הוא טעות איומה אלה הדברים שצריך לעשות כרגע  yairlapid בטור מיוחד לN12   GadeerMreeh בהתרגשות רבה אני מודה לך אמיר השכל על בחירתך בי כאשת השנה  זה מרגש ומשמעותי עוד יותר כשזה מגיע ממך אדם שמצליח לסחוף אחר… כל פעם הם אומרים ״המחאה בירידה״ ואז באים יותר אנשים מהפעם הקודמת  Israel stands with the United States as we mourn and remember the victims of those horrific acts of terrorism 19 ye…  מטוס פרטי עכשיו מה פתאום מטוס פרטי לאנשים אין מה לאכול אין גבול לניתוק ולאטימות של האיש הזה העקרון הדמוקרטי הראשון הוא שאנחנו לא מטומטמים לפידקאסט עם פרופ׳ דן בן דוד שיחה טעונה וקודרת עם איש חייכן ואופטימי…  העובדה שנתניהו נמנע מפגישה עם ג׳ו ביידן בנסיעתו לארה״ב עומדת בניגוד לנוהג רב שנים מזיקה לנו מדינית ומעמיקה את הקרע…  מתנגד נחרצות לנסיון להוריד משידור את עירית לינור וקובי אריאלי חופש הביטוי כולל את זכותם להיות מעצבנים GLZRadio הניסיון של נתניהו לדחוף לסגר מוחלט בחגים הוא פשוט הודאה בכישלון ילכו שלושה שבועות סגר ואז מה יש להם תוכנית בריאות…  MKMickeyLevy הצלחנו אחרי מאבק עיקש שלי מול האוצר אישרו לי היום שתקנות הפחת המואץ על מכונות לעידוד התעשייה שהונחו על שולחן והכספים י… אם ביבי וחבורתו היו משקיעים במאבק בקורונה עשירית מהאנרגיה שהם משקיעים בנסיונות לחלצו מהכלא היינו היום  מדינה ירוקה עכשיו זה רשמי מנכ״ל משרד הבריאות מודה בקולו שהשיקולים וההחלטות הם פוליטיים ולא בריאותיים או כלכליים ממשלת המנותקי…  דו״ח מבקר המדינה הוא תוצאה של החל״ת ההרסני והחובבני שגרם נזק נתניהו תודה בטעות נעבור למודל הגרמני נתחיל את ההתא…  פסקת התגברות כזו פירושה שאין שיוויון אין חוק ישראל מפסיקה להיות דמוקרטיה נתניהו לא צריך ללכת לכלא כי הוא השליט…  בני גבי בואו לגשר   gantzbe GabiAshkenazi    אחרי הצהרתו המטורפת של ראש הממשלה שקורא לחקירה עצמאית על הפרקליטות כחול לבן לא יכולים להישאר בממשלה ההרסנית הזו נ…  בועז טלי ומיכל ז״ל מסתכלות עליך מלמעלה וגאות יו״ר ועדת המשנה למלחמה בתאונות דרכים עבורך זה לא עוד תפקיד בהצלחה BToporovsky hadarse הליכוד מכנסים הערב ישיבת סיעה כדי לדון באיך מנצחים את הקורונה סתאםםם נראה לכם  על תיקי נתניהו בוקר טוב ממשלת ישראל שלושה חודשים אני כבר צועק את זה  הדבר היחיד שיש זה בנאדם אחד שמטרלל מדינה שלמה  החוק שבכלל לא אמור להגיע להצבעה בכנסת  איסור מועמדות לנאשם בפלילים לתפקיד נשיא המדינה 30 בעד 37 נגד השתגענו כל המדינה בטרלול כי יש לנו רהמ ששקוע בכתבי אישום מה ביקשנו שנשיא המדינה סמל המדינה לא יהיה עם כתב אישום אפילו ב…  כולכם צריכים ללכת הביתה כי איבדתם כל קשר לאזרחי ישראל  אין קורונה בבניין הזה אין כלכלה במשרדי הממשלה הדבר היחיד שיש זה בנאדם אחד שמטרלל מדינה שלמה עומד אתמול בבית שמש…  אבל למה למען השם היינו צריכים להגיע לזה חודשים אנחנו צועקים שהממשלה המנותקת והמנופחת הזאת חיה במציאות משלה לא מבי…  MKmeircohen היום עלה למרשתת אתר חכימא האתר מאגד בתוכו סיפורי רוח של חכמי המזרח  מרוקו תוניס אלגיריה עיראק לוב מצרים גיאורגי… הממשלה הזו לא מקיימת את ההנחיות של עצמה ואז עוד באה בטענות לאזרחים מנותקים נמאסתם  לפיד לזהבי ampquotבוא למכביampquot החלוץ שלח מסר משלו   אין שום מערכת מדינתית שחפה מביקורת וטעויות הצבא וגופי הבטחון מערכת המשפט ושלטון החוק המערכת הפיננסית והחינוכית…  nadavabeksis עד כמה דפק החל״ת את המשק הישראלי שיחה שלי עם חבר שמודה שלא בא לו לחזור לעבוד  יותר משתלם לו לשבת בבית ולקבל כסף מהמדינה… Sport1Sport2 יאיר לפיד לערן זהבי פנרבחצה השתגעת בוא הביתה מחכים לך    תוכניות העבודה המפורטות בתחומים השונים שהוצגו במפגש הן מפת הדרכים הנכונה למדינת ישראל רק שאין כרגע מי שיוביל את המ…  המשפט ״בכל משבר יש הזדמנות״ אמרתי במהלך הדיון הוא לא תמיד נכון כל משבר צריך להפוך להזדמנות בניהול נכון ובמיקוד מ…  התארחתי הבוקר במכון למחקרי ביטחון לאומי יחד עם האלופה במיל׳ ח״כ אורנה ברביבאי דנו לעומק במסמך ההזדמנויות לישר…  I had a great meeting this evening with Foreign Minister grlicradman in which we discussed the importance of stron…  מכתב ששלחתי עכשיו לראש הממשלה גלה אחריות  מה שקרה אתמול זה שאנשי המקצוע הביאו מתווה ואז ראש הממשלה והממשלה אמרו רק רגע והלכו לעשות פוליטיקה ושינו את המתווה…  הממשלה הזאת איבדה זה את אמון הציבור מפני שהציבור מסתכל עליה ומרגיש שהוא נכנס לתא הטייס בזמן טיסה ורואה שהמטוס טס ל…   תהיה התמודדות אני מברך עליה הגיע זמנה אבל אנחנו נעשה הכל בלי לחץ אף אחד לא מציב לי אולטימטומים אני לא אתן לתופ…  במסגרת התהליך שהתחלנו בו בתוך המפלגה בחנו כבר כמה שיטות לקיום בחירות פנימיות אחת האפשרויות שנפסלו היא פריימריז פת…  בוועידה הזו אנחנו נמצא את הדרך הטובה ביותר לקיים בחירות פנימיות לתפקיד יושב ראש המפלגה כל חבר מפלגה שירצה להתמודד…  ההצעה של עפר לא באה בחלל ריק התחלנו לפני כמה חודשים בתהליך של בחינת כל האפשרויות לדמוקרטיזציה של המפלגה זה השלב ה…  אין דבר פחות חשוב לציבור הישראלי בימים אלה מפוליטיקה מפלגתית המדינה קורסת ממשבר הקורונה הציבור במצוקה הדבר האחרו…  אם אתם מפחדים אחד מהשני באופן שמוביל לשיתוק ולהחלטות עקומות לכו הביתה המדינה צריכה הנהגה עניינית שאפשר לסמוך עליה…  הממשלה הזו כבר לא רק מנותקת היא מסוכנת יושבים צוותי מומחים רופאים כלכלנים אנשי מדיניות ציבורית וממשל מקומי בו…  אנחנו נתנגד לכל דחייה של בגץ לנושא עד עכשיו הנושא נדחה בגלל הבחירות עכשיו יש ממשלת אחדות חוק הגיוס חייב לעבור…  יש דבר אחד שהממשלה הגרועה והמנותקת בתולדות המדינה לא לקחה בחשבון לא נוותר בשום נסיבות זו המדינה שלנו אלה הילדים…  גם בשיא החום יצאנו היום באלפינו לגשרים להגיד מנותקים נמאסתם נתניהו נכשל בטיפול בקורונה נכשל בטיפול בכלכלה הורס…  צריך 3000 נדבקים ביום כדי לכנס את ישיבת הממשלה מנותקים נמאסתם אין לתאר  מחזק את הרמטכל  באמירתו ״נכון יהיה שכל אזרחי המדינה ישרתו בצהל או לפחות בשירות לאומי חלופי לא מתקבל על הדעת שח…  נתניהו צריך לצאת לנבצרות בגלל הכשלון בניהול התחלואה הוא צריך לצאת לנבצרות בגלל שנכשל בניהול הכלכלה הוא צריך לצאת…  newsisrael13 עוצרים את האלימות נגד נשים  יור האופוזיציה yairlapid במשדר המיוחד ברשת 13 אני פונה מכאן לממשלה נתמוך בכל תוכנית שתב… 36 שרים ואף אחד מהם לא לוקח אחריות על ענף המסעדנות מפקירים אותם לגורלם ללא תשובות ללא תוכנית אף אחד לא מקשיב להם…  העלייה בתחלואה מדאיגה ונובעת מכשלון ניהולי מחפיר של הממשלה הזאת חייבים לפעול מהר ובמקצועיות ללא שיקולים פוליטים ז…  נפגשתי הבוקר עם קבוצה של מסעדנים לשיחה על אתגרי הענף במשבר הקורונה עבורם זה לא רק עבודה זה מפעל חיים העצמאים הא…  נפגשתי הערב עם שר החוץ של רומניה BogdanAurescu שוחחנו על ההתמודדות עם הקורונה גם בהבט הכלכלי וגם הבריאותי שוחחנו…  גם שבוע הבא לא מתוכננת ישיבת ממשלה הממשלה ויתרה על ניהול המדינה מדובר במשתמטי עבודה שאנחנו משלמים להם את המשכורות יש לי כבוד רב לרב קנייבסקי ואני מקווה ומאמין שהקריאה להמנע מבדיקות קורונה בישיבות לא הגיעה ממנו בכל מקרה פרופ׳ גמ…  מאחל רפואה שלמה ומהירה לשני אנשי כוחות הבטחון שנפצעו הבוקר בפיגוע בצומת תפוח כוחות הבטחון פעלו בצורה מהירה וההחלטי…  אחרי הכשלון בבריאות ובכלכלה יגיע גם הכשלון בחינוך מנותקים נמאסתם  הממשלה הגרועה בתולדות המדינה  12 שעות לפני תחילת שנת הלימודים ויש ילדים שעדיין לא יודעים אם הם הולכים לבית ספר או לא הממשלה הזאת היא בדיחה עצובה…  בשורה התחתונה למי שלא הצליח לעקוב ברקת תוקף את כץ שתוקף את מרידור שתוקף את ביבי שלא נותן גיבוי לגמזו ואני שואל תגידו אתם השתגעתם מה שברקת אומר על כץ זה מה שהוא בעצם חושב על נתניהו מה שכץ אומר על ברקת זה מה שהוא בעצם חושב על נתניהו יש רק אחר…  מברך את המשלחת הישראלית לאבו דאבי ההסכם עם האמירויות חשוב לבטחון המדינה ולכלכלה הישראלית סעו לשלום ושובו בשלום GLZRadio חכ משה ארבל משס מסביר אצל razibarcay את תמיכתו בלימודי ליבה הכלי המרכזי לשגשוג הוא חברה שמשתתפת במעגל התעסוקה יודעת ללמ… מצדיע לראש ממשלת יפן שינזו אבה גם על הדרך בה שירת את עמו גם על הבחירה ללכת ברגע שהבין שהוא כבר לא בשיאו כך נראית הנהגה אחראית הממשלה הזו שפכה עשרות מיליארדים בלי שום שיקול דעת ומסרבת לתמוך בתנועות הנוער ניאבק בוועדת הכספים עד שיימצא התקציב…  radio103fm חכ יאיר לפיד yairlapid יור האופוזיציה את הכלכלה אפשר להוציא מהמשבר  עשיתי את זה צריך ממשלה מתפקדת של 18 שרים וצריך ת… radio103fm חכ יאיר לפיד yairlapid יור האופוזיציה כל העולם עשה עבודה כלכלית יותר טובה מנתניהו בהתמודדות עם משבר הקורונה גם גאון… התפטרותו של שאול מרידור היא לא תמרור אזהרה אלא אזעקת אמת כפי שהזהרנו כלכלת ישראל הפכה לאיזור אסון הניהול הכלכלי ש…  אתמול שלף אדם אקדח אוויר על מפגינים זה התחיל בהסתה איומה של ראש הממשלה המשיך בקללות ואיומים עבר לדקירות ומכות ה…  מברך על כך זה חשוב זה כיוון טוב מוכן בכל רגע לשבת לדיאלוג חוצה מפלגות ומחנות איך לעשות את זה נכון  החל מהבוקר עובדי המעבדות בשביתה רוב הבדיקות לא יערכו הממשלה לא תדון בזה כי היא לא תתכנס העיקר שהוקם צוות מיוחד לטיפול בנסיעות לאומן בניגוד למסרים מבלפור רבי נחמן מאומן לא שמאלני ישראלים יפים במדינה יפה יוצאים נגד ממשלה מכוערת  אין צורך בצוות שרים לנושא הנסיעה לאומן לא צריך מתווה לא צריך ממונה צריך רק ממשלה נורמלית שתעשה החלטה לפי המלצות…  הממשלה קבעה יעד של 400 נדבקים חדשים ליום עד הראשון בספטמבר  היום יש למעלה מ 2000 נדבקים חדשים ובמקביל הנתונים הכ…  YoraiLahav מה קשה יותר להגיד  גנן גידל דגן בגן או יוראי להב הרצנו  בוקר שישי במדינת ישראל מפלגת השלטון מוציאה הודעה שמאשימה את הפרקליטות שהיא אנרכיסטית ראש ממשלת ישראל מוציא הודעה…  שוב אין ישיבת ממשלה ביום ראשון אם הם בכל מקרה לא עובדים אפשר פשוט להוציא אותם לחל״ת ההתקפה של גורמי שלטון על בג״צ בעניין מצפה כרמים היא חמורה ומסוכנת הבקשה לדיון נוסף היא נכונה ובמקומה אבל ברור שלא…  idanroll תהיה גבר  מדובר באסון הממשלה הזו מרסקת את העסקים הקטנים והבינוניים ברשלנותה בחוסר המקצועיות שלה בזה שלא באמת אכפת למנותקים…  ממשלת הניתוק מציגה עוד שיא  850 אלף מבקשי עבודה ו36 שרים שאין להם שום עניין בזה אחוז אחד בלבד נוצל מהתקציב לעידוד התעסוקה מודל החל״ת הוא אסו…  זה פשוט לא ייאמן הממשלה הזאת פשוט לא רואה את האזרחים בכלל כל מה שמעניין אותם זה פוליטיקה זה פשוט ביזיון  ליבי עם משפחתו ויקיריו של הרב שי אוחיון זל שנרצח בדם קר המאבק בטרור נמשך אני מבקש לשלוח את הערכתי הרבה לאזרחים ו…  היה לא פשוט אבל השגתי ספר של חנוך דאום בלי הקדשה</t>
+  </si>
+  <si>
+    <t>לעצת המשפטנים אודה אם מתברר נניח שיס לא מזכים אותי על היממה שבה הם לא משדרים ביום כיפור האם יש מצב לייצוגית בדרך לבלוקבאסטר לא הספקנו אתמול מקווה שנשארו איזה סרטים בכל זאת ליתר ביטחון ניסע ישר לסניף הגדול ברמת גן  בטוח…  amirzelcer בול amsterdamski2 מודע לסכנות ולאתגרים אבל יוצא לדרך מלא באמונה ובדטרגנטים עדינים החלטתי ללכת עד הסוף פעם אחת בחיים  ולהמר על הכל אני מכבס את הבד של הספה לכאורה זה אפשרי יש ריצרץ אפשר להסיר א…  Kronos240430 noamfathi באמת היה מרגש תודה כיף לשמוע noamfathi תראה פתחי בדברים כל כך כבירים יפה לנהוג מעט צניעות אני הייתי הולך על הייתי ממובילי קמפיין שוקה ולא…  MosheFriedPhys הוא קודם אין לנתניהו מושג סגירת המדינה על מנעול רק כדי להיפטר מההפגנות היא ניסיון לכבות אש בנפט זה יחזור ויתפרץ ויהיה גדול…  השאלה אם גם הוסיפו שבבטן יש לך בן  tsipisasony יש מצב לקבל את זה מולחן asafnevo4 א  שטייניץ מדבר אך ורק על מה שנתניהו מורה לו לדבר למה לא ללכת ישר למקור ב שטייניץ ממשיך לעבוד על פתי…  למה האיש הזה בכלל ממשיך לדבר כשכל מה שהוא אומר תמיד יכול להסתכם בצילום קטן של כלב דאשבורד מנהנן בראשו  נתניהו מעביר כאן קורס ברודנות למתחילים כשהמסר שלו ברור תפגינו נגדו יסגרו לכם את העסק מישהו אחר יפגין נגדו יסגר…  רגע הוושינגטון פוסט לא שייך עכשיו לגף בזוס נו זה מסביר הכל האיש אנטישמי ידוע מה לא טוב אז בכל מקרה הוא לוק…  doroniko לא ממש משנה אם הוא אישית אחראי לזה ספציפית לכל הפעולה יש את הדיאןאיי שלו כמי שיצר ושכלל את המנגנון הת…  yanivfogel תרגיש טוב אשמח לייעץ בפרטי לגבי דרמות פסיכוסומטיות וחרדתיות  אבל מקווה שלא תזדקק צריכים אותך שם דברים שלא עשיתם אפילו בסגר הראשון אבל בשני כבר לא הייתה ברירה והגעתם אליהם אני אתחיל  לגלוש בלינקדאין לחפש שם…  האפליקציה הכי עצובה לסגר קולות של מקומות שפעם יכולת להגיע אליהם  ממשלת ישראל תראי מה גרמת לי לעשות  טוב זה מתחיל להיראות כמו התקף טורט בסדר גודל קולנועי עוד תגובהשתיים והליכוד יספק רק רצף של חרחורים עם קצף על הש…  gabibarh מצבי הידרדר חתכתי לשנין בלאן זול אז מה אתם עושים היום בהינתן ילדים וסגר שאתם תוהים כמה ברצינות אתם אמורים לקחת אותו filbers זה סקר של דיירקט פולס לימד אותך או שסתם המצאת מהראש אה סליחה שכחתי זה אותו דבר שכח מהשאלה הפאתט השנתי שלכם חזר מסורת פרסום נצחוננו הגדול מכולם בערב ראש השנה  אנחנו הרבה אנשים פה ממש עושים המון ילדים בלי…  נראה לי שהסגר הקרוב הולך להיות סגר פריסטייל או אם תעדיפו מעורב אישי בסגנון חופשי מחכה לראות את מגוון סגנונות הס…  דיוני הממשלה על הקורונה לא תוכלו לקרוא אותם בטרם יחלפו 30 שנה הסכם עם איחוד האמירויות לא תוכלו לקרוא אותו נראה…  oppositeop מצרף אותם בכיף UdiEhrlich מיקי שביב גאון תמיד היה ebenyair משעשע אבל לא וואו נתניהו נחת בוושינגטון במטוס מנהיג של פעם בדור תודה לכם כתבים שלא היה להם את עמוד השדרה הבסיסי לסרב להיות…  RadeRuti אין לי מושג אם את אפילו בנאדם ממשי ולא חלק מצבא המגיבים הממומן אבל עדיין מרגיש צורך לענות אין שום חלום…  shaulmert מה בהישרדות הזה שלכם לא רואה ShushanGad אני פשוט חושב שכל עוד תדבק בטרמינולוגיה שמכרו לך הסכם שלום תישאר פתי שלום עושים עם אויבים לא עם מ…  ShushanGad טוב מה שעובד בשבילך הם הלכו לחתום על שלום היסטורי שבעקבותיו יבוא שלום כולל במזרח התיכון ובעולם כולו…  ShushanGad הם הלכו לחתום על כתב כניעה אחרי שטראמפ הודיע שהחליט למכור מטוסים לאמירויות אבל כדי שנתניהו לא ייצא חו…  אין שום דבר שהוא פחות ממדכא לחלוטין הערב מקווה שנתניהו והיפיוף שלו מהמוסד יהנו בוושינגטון ושהילדים והאישה לא יפרי…  lilachv את חייבת לעצמך את ״הבתים המוזרים בעולם״ בנטפליקס תגידי לי נדלן אחר כך מסכי עשן המלכודת הדיגיטלית  שם גרוע לThe Social Dilema  הוא הסרט הלא מספיק טוב הכי טוב חשוב דחוף וחובה בנטפ…  ״כשאני נזכר בכל הבחורות שהכרתי כשהייתי רווק אם הייתי יכול לכנס את כולן ללילה אחד אני יודע שכולן היו הגמוניות שאינ…  הארנונה החזירית של עיריית תל אביב מתחילה לתת פייט למס הכנסה וביטוח לאומי כבר עכשיו לשנה הבאה הם מתכננים רפורמה שבמ…  הדבר היחיד שנותר לחכות לו לשמוע את אבישי בן חיים מלביש את התיאוריה שלו על העובדה שישראל ההגמונית עושה ממנו פארודיה מתלבש בול אגב לא מבין למה נותנים מטוס פרטי לביבי ושרה מופרד משאר המשלחת כשברור לגמרי שעד שלגברת לא יהיה מטוס פרטי נפרד ממטוסו ה…  כמו כן אין דרך לדעת האם הקורונה בכלל הגיעה לישראל האם מתקיים משבר כלכלי או חברתי ובאיזו רמה בדיוק ראש הממשלה הוא…  BoazCohen שמע אין לי אמפתיה או סימפטיה גדולות לאיש אבל בסוף מה שנשאר בזכרון הציבורי  כפי שאתה מדגים  זה מעטפו…  וזו חברים השורה התחתונה החשובה מכל שנתניהו לעולם לא יבין מתוך ״אהוד אולמרט האיש שרצה יותר מדי״  thenthinkagain נבחר חחחח שלוש מערכות בחירות רצופות שהאיש לא נבחר העונש האמיתי של נתניהו הוא שכל הישראלים שעבורם יצא לדרכו הפוליטית מלכתחילה יוצאים עכשיו לרחובות כדי לסלק אותו ולא י…  מכל העולם באים ללמוד איך לא  המודל השוודי סגר חלקי ואז הכרה בטעות וצעדים נמרצים המודל הניו זילנדי סגר מקומי זמני וכוננות המודל הישראלי תעש…  תן לי לנחש זה משהו שסקר דיירקט פולס מראה בבירור  בואו נתנהל מעכשיו כולנו במודל ממשלת ישראל בוס אני יודע שיש דדליין עוד שבועיים אז אני אגיש את הפרויקט בזמן או ל…  למה דוקטורים כמו אבישי בן חיים וגדי טאוב לא יכולים פשוט להגיד חברה  אולי זה הגיל או מה אבל הפכתי לאומני וגזעני…  YTB2018 מה שקורה כרגע באמירויות רלוונטי לאנשים שכבר עשו יותר כסף מכפי שכולנו נעשה איפעם לכתבי תיירות וכותבים איש…  אז כשאל על גוססת ומשוועת לעזרה למי איכפת  בטח לא לממשלת ישראל  אבל כשצריך את הלוגו והמטוס למטרות תדמיתיות כמו ההפ…  omercohentishbi אל תגרום לי להתחיל בכלל על שמיר וברק אם גרתם תקופה בארהב אתם מכירים את הטיפוס הזה הליברלית הזועמתפוליטית בגיל העמידה היא מהעיר ולא משנה מתי ועל מה…  giladlevi73 AvishayBenHaim נגמרו הימים שיכולת להרשות לעצמך להפריד בין ״אישיותם המלבבת״ לבין האופן שבו הם נחושים ל…  giladlevi73 AvishayBenHaim חטפת מכת שמש שב בצל תנוח רק הקמת הממשלה הזו עלתה לנו 900 מיליון שקל כבר ארבעה שבועות שהיא לא מתכנסת מה נהוג לעשות עם  מכשיר חשמלי ששילמת ע…  סוף סוף ווייז מקשיבים לי  טוב מה נסגר עם פייסבוק ועוד כמה אתרים שלא אנקוב בשמם הקו המנחה של העיצוב החדש היה נגישות לעיוורים יענו תגדילו…  תשמעו טופז לוק אוריך או כל שם קריפי אחר שבו קוראים  לחובבני הסושיאל של קול אדונם כל צילום נוסף של אנשים שמגיעים…  חברה אני חייב להגיד שכשאתם מצמידים את שתי התמונות המסוימות האלה זו לזו אני איכשהו עדיין בעניין של קנדה תחזרו למ…  למה האיש הזה ממשיך לפרסם ציוצים כאלה כשברור לו לחלוטין שהם יישלפו שוב ושוב בעתיד הלארחוק כשיצטרף כמו טטעלע לממשל…  shaulmert פייר ממך ציפיתי ליותר חוץ מזה הם מסעדה בהחלט טובה דיה בכל האגפים האחרים אין לי מושג למה דווקא על הקינוחים יצאה תהילתם Shabinir אוקיי אין לי זכרון מוחשי מספיק מהפאי לימון ייתכן שהוא יוצא דופן אם כי אני בספק בשבוע שעבר דגמתי חמש מה…  עמדה לא פופולרית אבל נכונה כל הקינוחים של מגזינו הם חירטוט בסגנון אמריקאי מנופח עודף סוכר גס טעמים בסיסיים ולח…  drorfo harnevo החיוך למצלמה של קושמרו בכמה פריימים האחרונים  פרייסלס העובדה שבלפור  דרך הביריון הנוכחי בשירותם אוחנה  שינו את ההנחיות למשטרה והורו לנקוט אלימות בתוך הפגנה שהיא בהגדרת…  asafnevo4 קשקשן אם נתקלתם מימיכם באראל סגל  בנסיבות מקצועיות או אישיות  אתם כבר יודעים בדיוק איך האיש הזה עובד ועבור מי אבל הנה…  MizM232 מה רע בימים ראשון עד חמישי בין 1 בלילה ל7 בבוקר hagaykr ilanitshaked Arspoeti בשלב הנוכחי החברה האלה הם פשוט פארודיות על עצמם כן עיריית תל אביב שישי בשעות הבוקר והצהריים זה לגמרי הזמן הנכון לסגור את אבן גבירול ורמז לעבודות חבורת גרועים ronenwei אוי נעדרתי שעה מתנצל דינמיקה קבועה של אוגוסט 1 עד 10 לחודש  נו פחות גרוע השנה לא עד כדי כך חם והזמן עובר איכשהו 11 עד 30 לחודש …  לא זה באמת דורש איזו חקירה מדעית למה ביביזם חייב תמיד לבוא בליווי שוביניזם מיזוגניה אינפנטיליות רמת טיעון מביכ…  למה פוליטיקאים ישראלים  מכל המפלגות  תמיד מדברים למצלמה עם תנועות הידיים המוגזמות וההסברתיות האלה משל היו התרגום…  הרב אלי סדן כאילו איש חינוך כאילו איש המכינה בעלי האיש הזה לא מסוגל להבין או להכיל תוכנית סאטירה קלה  אפילו לא…  מי אתם אנשים שמסוגלים להתעלם למשך שעות מהודעות ווצאפ זה כמו גירוד חייב להתייחס מייד או לכל המאוחר בחמש הדקות שאחרי איך נרפאים מירי רגב בפריים נתניהו אמר את זה בקולו עכשיו אתם יכולים לדעת בוודאות שזה לא קורה  קאמבק העשור המילה האסורה ״שלום״ אז זו תמונת הכניסה של ווינדואוז כרגע ואני תוהה מתי הם עברו מנופים פראיים בעולם לאישים מפורסמים ולמה החליטו להתחיל…  מזל שלפחות הספקנו לספח את נחל האסי subtext100 תביאי שם חייב לעצמי העצמה ארגונית לרגל משבר גיל כלשהו לא רוצה חלילה לצאת סקפטי בערב היסטורי שכזה ובכל זאת תוהה מה יבוא קודם הביקור שלי בדובאי היום שבו יגיע אליי או ל…  koahmachatz מסכים זה הישג לישראל אבל לא לנתניהו בקלפי זה משאיר אותו במקום במקרה הטוב ובמקרה הרע מעיף איזה חצי…  כל ערב שבו ישראל זוכה בהסכם מדיני או משהו בדרך לשם נתניהו מפסיד אינספור נקודות אצל הבייס המתנחלי ולא זוכה באף נק…  חבל ששרה לא הלכה רחוק יותר עם האמת שלה לא רק שהיא נפגעת אלימות מינית אלא גם נפגעת כתות נפגעת חרדה נפגעת רמדיה…  ספירת מלאי נוכחית 1 מזגן אחד משתין בסלון 2 קיר ספוג במים כולל קצר חשמלי בעקבות נזילה שמקורה טרם נודע 3 המכו…  איך אמר ראש הממשלה שלכם בהזדמנות אחרת יצא המרצע  igalmosko שעשעת החוקים 74 באוגוסט כל אוגוסט תופיע תקלה אקוטית במזגן כל מזגן igalmosko מתפרנסים הא מוסקו lilachv vandersister הבנאדם חובב גאז נו זה לא פשע כמו כן בואו לטוס איתי בשקד פלייט בכפוף להוצאת רישיון טיסה רכישת מטוס קבלת אישור מינהל התעופה חתימת חוזה עם…  מה זה ישראליות בשבילך רענן אה זה קל להקים לעצמך מותג פלפאון שמבטיח לאנשים לגלוש במהירותשיא ברשת 5G בזמן ש…  nivshai הציוצים האלה של ריקלין פייגלין סמוטריץ וחברים רק מוכיחים שזה אף פעם לא היה ויכוח על אדמה תפיסת עולם מדינית וביטחונית אנ… Israelcohen911 AvivHurvitz האמת לא אז הגיעו היום שתי חולצות שקניתי באינטרנט את שתיהן לא הייתי קונה אם הייתי מודד אותן בחנות וזה למה שופינג באינטרנט…  תגיד לא מעייף אותך להזדקן כפארודיה על עצמך עצוב  למכירה צוללת מבקשים בתמורה חללית שמעתי שאברי גלעד יוצא נגד היהודים באים כי לא עושים מערכון על אלוהים בישראל כמו שלא עושים מערכון על מוחמד במצרים…  אלה בטח זמנים מדהימים להיות בהם גרב אילמת במקרר של שרה נתניהו ולהקשיב לדיאלוגים מסביב תאשים את התקשורת לא הערבי…  דברים שהטלוויזיה לא מצליחה לראות ולהראות במחאה 1 היא מבוזרת בין המון מוקדים וקבוצות 2 היא שמאלנית במובן זה שה…  ranlevi attilus מעניין מאוד אבל לא הקשבתי כי זה פודקאסט מה אתם ילדים מי עושה פודקאסט ולמי יש זמן להקשיב לאחד…  samiandsoso zoharm7 אה כן מה שתגיד תנסה להיות רגוע ולחשוב מחשבות טובות בסדר אתה מדאיג אותי קצת harnevo בשלב זה האיש מוציא שם רע במיוחד לציונות הדתית ומגשים בגופו כל סטריאוטיפ בעניינה zoharm7 אתה יכול להפסיק עם בעזרת השם אף אחד כבר לא קונה את זה כולל השם טוב ווייז שוב מעצבנים אותי לא יכלו לשים ״ההפגנה בבלפור״ כיעד מוכר odedkramer לא רוצה לצאת לצפוי ולהגיד שאף אחד לא מושלם הערב הנבואה סופסוף מתגשמת עמותות השמאל מביאות אותנו באוטובוסים AmirBenDavid כתבה אדירה כמעט מעוררת חשק לבוא ולהגיד למה בעצם שלא יהיה אתר ישראלי שלם שיוקדש למוזיקה לאנשים שעוש…  לא זוכר מתי אי פעם בכיתי מפרסומת אבל אתמול בלילה  ואני אכחיש אם מישהו ישאל  יש מצב שייללתי קצת  NetanyahuNoa הנה תיקנתי  הימין הישראלי כל כך מנותק כרגע עד שאפילו לעשות את המינימום המקובל אצלו  לנכס לעצמו את היהדות  הוא כבר לא מסוגל…  YTB2018 TomerKariv מוסיף ומשווה שני האלבומים הראשונים מצוינים גם אם פה ושם מבצבץ בקטנה הפאתוס שישתלט בקרוב על הכל YTB2018 גם אני חיכיתי כמעט כל מה שהWC הקליטו יכול להיות הימנון מחאה מושלם אבל זה בפרט moshesiani RoyIddan סגל נראה נזוף כמו תלמיד שנתפס לא שולט בחומר בשיעור אזרחות בסיסי זה אגב בדיוק מה שהוא גקי עשה טובה איפה שרה הוא לגמרי הציור השבועי לילד הבא הציבור מחכה וזקוק NoaAngel1 netanyahu שתי נקודות זה אחותו המפגרת של שלוש נקודות שהוא בעצמו סימן פיסוק לא קביל thenthinkagain אתה יכול לבחור לעצמך מנהיג על סמך הIQ שלו אגב הם מדדו איך יודעים ואתה יכול לבחור לעצמך מנהיג…  thenthinkagain אתה בטח מתכוון לאותו פורבס שקבע  לפחות על פי נתניהו  שישראל היא המקום הבטוח ביותר בעולם מול הקורונה בחייאת מתבוסס במי אפסיים בין מירי רגב אסנת מארק אמיר אוחנה ומיקי זוהר ומיוצג על ידי ביריוני לה פמיליה  נתניהו והמקום…  navedromi דוגמטיות במיטבה כמובן הנה    subtext100 Dvorit בדיוק היום הייתי בדיון הזה עם דורית אמרתי לה אבל יש גם נשים שהן אביוזריות רגשיותמיניות שניזו…  תופעות של העידן הנוכחי שעדיין אין להן שם השארת טאב פתוח בבראוזר עם משהו ממש חשוב שאתה לא רוצה לשכוח או שטרם קראת…  מדי בוקר בערך אני חוזה באוטומנקההכביש המצוקמק של עיריית תא שנוסע לו באיטיות לצד המדרכה ויורק מעט לחלוחית מהו…  איך זה ייגמר הגיע הזמן להוסיף לרשימת הדברים הטובים שהקורונה הביאה לחיינו את זוכרים בעלפה את מספרי תעודות הזהות של הילדים ShalomKarbasi כן כשלא אכפת לך לרמות לכפות להפר חוק ולהסית בלי סוף בעודך בתפקיד הממלכתי והאחראי מכולם  הכל אפשר…  ShalomKarbasi הפסדתם שם אגב אבל אל תיתן לזה להפריע לך בשגרת חייך האשלייתית בואו כמו ב2011 גם עכשיו מדברים בתקשורת המשודרת על ״ערב רב״ של מפגינים שלכאורה דורשים שלל דברים שונים זוכרים את…  אדם סביר שלושהארבעה מבקרים חריפים  נניח ברשת החברתית שלו  טורדים את מנוחתו נתניהו שרואה תמונה כזו לא מרגיש כ…  aharoni82501445 נכון ולכן הם עושים הכל כדי לערער את יסודות ואיזוני החוק שמביא לחוסר יכולתם להקים ממשלה שלוש פעמים…  thenthinkagain אה מה ארחיב מעט בעבר הרחוק אנשים כמו גדי טאוב היו הופכים לדתיים הם זקוקים לדת בחייהם כי בלעדיה הם מתקשים להכיל את חוסר…  זו תקופה של מאבק אימתני בחלקים גדולים של המערב וגם בישראל בין הדת החדשהישנה אליה פונים ההמונים שבעבר היו פונים ל…  מדויק וגם אין טעם להתייחס לכל אסכולת אני בעדכם אבל בחייאת תפסיקו אתם גורמים נזק כי הימין לא יקבל אתכם בחיים כ…  לא יהיו בחירות בנובמבר כי אם יהיו בחירות בנובמבר אף אחד לא יגיע להצביע בהן מרוב זעם כולם יהיו בבלפור אם יש דבר אחד שהקורונה המאיסה עליי ממש זה טלוויזיה כל הטלוויזיה כן סדרות נטפליקס תעודה חדשות קומדיות משומשו…  אל תשאלו לאהוד ברק סגרו את העסק ואז פתחו וסגרו שוב שרירותית ואז העבירו לו 1200 שקל פיצוי כמו כן אהוד ברק שהוא…  sageeb ואתה מפרסם את זה כאילו זה משהו לספר עליו בנאדם שים מכנסיים ארוכים ונעליים גם אם אתה בבית כל היום המקרר שלך ראוי לזה odmishpat הכנסת לי אבל כן אני אשמח אחרי פרופ לס אני מצפה מ103 לתת בהקדם שעה שבועית גם לחברה הבאים 1 שפי פז אפשר עם  אמיר חצרוני 2 מישהו מהאג…  לזכות המשטרה חייבים להגיד שכשמשפריצים על מפגינים מלא מים הכל מתחיל להצטלם הרבה יותר הירואי ואיקוני הם לא נחמדים מודל 2020 וברצינות הנה פרצופו האמיתי של הימין הביביסטי דחיפה קלה והגזענות צרות האופקים והפנייה ה…  וואו אורנה בנאי הפציצה בנאום שתיכף יצוטט ועכשיו ברצינות מוקי כמה מילים אישיות ממני אליך  כשאתה הולך לסן פרנסיסקו אל תשכח לשזור פרח בשערך originalnew1 ברכותיי בניסיון לגוון את הפיד עם כמה קולות ימנואידים ייצוגיים נבחרת הוספתי אותך הלכתי הערב לארוחת ערב אצל חברים וגיליתי לתדהמתי שהאירוע הוא מפגן של אוכל נטשתי בזעם GaliGnt שהנייט קוקי זה סתם אבל אם בכל זאת הולך על זה רק הטופי קרמל sageeb ובעברית תיאבון לחורבן  tomashash hamishiya אחח כסית טוב שהזכרת לי זה היה כמו הלב הפועם של מרכז תא  בעצם לא יותר כמו הכבד ההרוס שלה…  navedromi מנסה להבין איפה הבעיה שלך שהוא מחה באופן לא מתוחכם ושנון מספיק לטעמך שהוא מגויס למחאה מוצדקת למרות שה…  adomadom36 NaamaMeshulam בשמחה NaamaMeshulam לא אני לא יושב על שום ערימות כסף אבל אני אשמח לראות עצמאים ועובדות סוציאליות ואחיות מקבלים את הכסף…  אם אי פעם ראיתי כסף טיפש זה המענק הזה אשכרה מושל אדנותי באיזו קולוניה מרוחקת שרוכב על הפיל ומפזר שטרות כסף לילידים Jeronimo כן קריוניקה כזה יופשר כשהמדע יאפשר היה בבראסרי משהו ששיקף את פעימות הלב של תא זה היה מין לב אורבני ענקי כזה שניצב ממש במרכז העיר ופעם ופעם ללא הפסק…  האשם תמיד  אסנת מארק מחר אני לא ראיתי בהפגנה בבלפור שום שמאלנים ראיתי רק עצמאים שבאו ואמרו דבר אחד ביבי תמשיך רשות המסים היקרה במקרה שבבדיקה שערכתם התברר שהתנאים לקבלת מענק לתקופת הקורונה אינם מתאימים לי אין צורך להוציא לי…  לשאלתכם מה קורה עם הסיפוח להלן עדכון זה קורה ברביעי בבוקר אלא במקרה שבאמת ייכנס מלוא הכסף לחשבונות העצמאים עד אז ואז אין צורך בספין GadiTaub1 שמע כל ציוץ שלך מצליח להדהים מחדש מילא שהפכת לבדיחה ואין לך מושג אבל זה נראה יותר כסוג של בוט שמצייץ…  ושוב מדברים על הפגנה אפוליטית לא למדו כלום מ2011 הכל פוליטי הכל על כוח זו מערכת ההפעלה היחידה של נתניהו ול…  אז סגרו את החדר כושר ועכשיו מותר להם לקיים רק חוגים הייתי בטוח  שיגידו שיש איזה חוג פרשת השבוע סתם כתירוץ להכ…  RamiHod מוטי אשכנזי  הקמת ועדת אגרנט היום שלחתי מכתב לשר המשפטים ובו בקשה לדחות את החלתו של החוק בכלל וזאת כדי למנוע פגיעה מיידית באוכלוסיית העבריינים…  SapirEdi אתם לא קונים כלום חוץ מדמגוגיה  בעיקר כי היא בחינם  אבל לבריאות בוקר טוב ל11 מיליון מצביעי נתניהו באש ובמים באיהצגת שום תוכנית כלכלית אבל עיסוק דחוף בחקירת שופטים בהאשמת הציב…  cyanidewand ezrachmudag אין ציפיות סתם דורש בשלומם כי לא עושה רושם שהם בכלל ערים לו K0YLkLhC7TL8plv למה לעצור פה 86 מיליון ביום חלש DudiElkubi צר לי עליך ShalomKarbasi תודה הוכחת את הנקודה tsipisasony מהן חראונות Yan95254257 הנקודה הוכחה תודה לך בוקר טוב ל11 מיליון מצביעי נתניהו באש ובמים בקורונה ובפשיטת הרגל איך הולך Eladingo ״חברים״ היא ההדגמה המושלמת למנוע ארבעפעימות הסיטקומי הקלאסי לייןלייןלייןפאנץ׳ בז׳אנר שלה היא כמעט…  תנו לי לנחש שאחרי הגל השלישי כחוללבן ייכנעו יאפשרו לנתניהו לבטל את בגצ להעביר תקנות חירום שמשאירות אותו בתפקיד…  לא מבין את תורת השלבים הזו כשערוץ 20 נותן ליאיר נתניהו להגיש תוכנית חלאס פשוט תנו כבר לראש הממשלה תוכנית אירוח י…  אה טוב שיגרנו לוויין ריגול לחלל לא אין עליו מלך מי יכול עליו שיישאר לתמיד קצת חשיבה ימנית על הבוקר מה מפחיד אותך יותר תחושה שבכל רגע יצלצל הטלפון וידרשו ממני להיכנס לבידוד מדינה בורחת מבשורה חראם צחי הנגבי יכולת לחיות טוב על חשבוננו עוד עשור כמו כלום בלי שמישהו יזכור שאתה קיים או מועיל במשהו מה היית צריך לדבר SapperMorton1 יותר עדיף לא תדע אדון לימן ומר שליסל היקרים אני יודע שאתם מתפרנסים מייבוא הדבר הזה לארץ אבל אני פונה ללב שלכם בבקשהבבקשהבבקשה א…  טוב זה ששרון ליפשיץ לא יוצאת עכשיו בקאמבק עם הלהיט ״אני אוהבת ת׳קורונה״ זה וואחד פספוס סליחהלאהתאפקתי navedromi מציע שתתעדכני מלבד שבטים מסוימים בעולם השלישי והשבט הישראליפלסטיני באף מקום בעולם כבר לא נלחמים על ש…  טוב כבר אחר צהריים איך מתקדם שם הסיפוח יש מצב לבנות על טיול עם הילדים בשבת הקרובה לשוק בחברון מעלה עשהאל ודאונטאון איתמר עוצר נשימה לקראת ינון מגל ברדיו היום בתהייה מה יהיה הלהיט היומי 1 מילת נשים היא מנהג  בן מאות שנים 2 בריתות הן…  חשבון מים מפלצתי  תודה לכם מי אביבים התאגיד הכי חסר זכות קיום בישראל מצטרף למתנות יומולדת שצריך לקנות טיפול רכב…  כשאין טיעונים מושכלים תמיד ישנה ״ישראל השנייה״ ושאין ישראל השנייה תמיד יש ״התנשאות אשכנזית״ וכשאין התנשאות אשכנ…  ConanOBrien Billboard just announced the song of the summer It’s the sound of your spouse chewing הראל ויזל עדיין מוכר לי את בגדי הילדים הכי משתלמים בקניון אוקיי נתניהו לעומת זאת מוכר לי הסתה ושקרים וזה ביום…  פה ושם משתחלת המחשבה האסורה מה אם שום דבר לא באמת יחזור למה שהיה אם העולם באמת השתנה לבלי שוב מה אם חיי יתחלקו ל…  qkSyyJn45MrHu5S כי זה פחות טוב חברים החודש מתקרב לקיצו ואני יודע שגם אתם חרדים  לראות אם נתניהו יצליח לגמור אותו מציע להתארגן כבר עכשיו עם עמותה או מלכר שיגייסו תרומות</t>
+  </si>
+  <si>
+    <t xml:space="preserve">מאז היותי ילד חלמתי להיות חזן ביום כיפור הערצתי את החזנים לא הבנתי איך גם צמים וגם מחזנים היום הגשמתי חלום במני…  efi26592887 יקנעם YinonMagal רפואה שלמה מניין מרפסות הבוקר עם הנוף הכי יפה בארץ חתימה ובריאות טובה לכולנו  AfifAbuMuch טוב קיבלתי נתונים להנחות אירוע עם קרוב לחצי מיליון צופים עושה לי חשק לצעוק יייייייישששש אחד גדול  בהצלחה לתנועת dark… למעלה מחצי מיליון צפיות כבר איתנו בואו לשידור החי  75 אלף אישרו הגעה להפגנה הוירטואלית שלנו בתמיכה בבלפור מהבית מתחילים בשעה 20 בשידור חי בעמוד הפייסבוק היו טיוב וה…  shlomoshizgal  חצינו עכשיו את קו 40 אלף מאשרי ההגעה להפגנה הוירטואלית שלנו במוצש מחזקים את בלפור מהבית את אש המחאה אי אפשר לכבות GiladBa תודה רבה שותף 30 אלף כבר אישרו הגעה להפגנה הוירטואלית שלנו במוצש הקרוב  20 אלף כבר אישרו הגעה להפגנה הוירטואלית שלנו במוצש מחזקים את מחאת בלפור מהבית הם רוצים לכבות את אש המחאה אנחנו נ…  mreshef1 bruria1947  bruria1947  תודה oizreel  SternAnton יפה הפך לציוץ נוסף 12 אלף איש ואישה כבר אישרו הגעה להפגנה הוירטואלית שלנו במוצש מפגינים בבלפור מהבית NofarNaimLevi  פתחנו איוונט היום לקראת ההפגנה הוירטואלית שלנו במוצש מחזקים את מחאת בלפור מהבית יותר מ 5000 אנשים כבר אישרו הגעה…  regevmiri כי תעביר ממשלת זדון שנאה והסתה מן הארץ החלטנו בתנועת darkenuIL לארגן במוצש הקרוב הפגנה וירטואלית שתאפשר למאות אלפי ישראלים שלא יכולים להגיע לירושלים להיות בבלפור מהבית מחבלים יהודים זאת לא היהדות שלי מה אתם אומרים תצא קריאה נרגשת של רבנים למימון המונים להוצאת הצדק לאור  פוסט מעניין של amitsegal על אולמרט מסביר מדוע הוא מנהל גרוע רלוונטי מאד לכישלון ניהול משבר הקורנה של נתניהו  משהו טוב מהקורנה מניח שאין יותר רפי שכל שתומכים בקיצוץ מערכות הבריאות והרווחה אחרי עשורים של הרעבת השירותים החברת…  horowitzb YairEttinger ראשית לא כתבתי שכל ביקורת היא צבועה 90 ממי שמבקר אותה היום ניסה להשחיר אותה גם לפני כמ…  הביקורת על הפגנות בזמן סגר ממי שניסו לחסל את המחאה הזאת מהרגע הראשון צבועות יש קורנה זאת מגיפה מסוכנת מאד אבל יש…  לא יודע מה היה בשאר הארץ בבית הכנסת שלנו ביקנעם התפללנו את כל התפילות בחוץ עם מסיכות וברווחים ונשמרתם מאד לנפשותיכם שתחל שנה וברכותיה ואפילו הספקתי להוציא את אבא מבית החולים רגע לפני החג אבינו מלכנו שלח רפואה שלמה לחולי עמך  שתכלה שנה וקללותיה ותח…  תזכורת לערוצי התקשורת אין צורך לשדר את דבריו אם יש כותרת שדרו רק אותה בדיעבד עד אז די לתעמולה שקרית Yonisapirov judash0 קיגל judash0 זה עד שתגלה שאני צמחוני זאת היהדות שלי גם מתפללים בחוץ וגם מבינים את הזולת  ממשלת חלם שני הורים עובדים אין גן את הילדים אסור לשים אצל סבא וסבתא אולי שר החרטא בלי תיק פנוי החל ממחר בגלל שמתפללים בחוץ במניינים קטנים חסרים תוקעים בשופר וביקשו ממני לתקוע הבעיה אף פעם לא עשיתי את זה טיפים יתקבלו בברכה מי יתן ובמהרה בימינו נראה גם מנהיגות נשים חותמות על הסכמים ובני זוגם הגברים יושבים בקהל טוב שלום מארץ ישראל השלמה עשיית שלום וביטול הסיפוח זאת לגמרי היהדות שלי yaelshevach שכל בני האדם נבראו בצלם אלוקים שהציווי הנפוץ ביותר בתורה הוא לזכור כי גרים היינו במצרים ושאסור לתעב זר מצרי אדומי וכו רשימת הבושה בחברה טובה עם יאיר נתניהו  זאת לא היהדות שלי  רבנים בכירים ובנו של ראש הממשלה תומכים במסע גיוס מימון המונים להגנתו המשפטית של רוצח משפחת דווא…  גם יהודית וגם דמוקרטית גם הפגנות חשובות בבלפור וגם תפילות בשטח פתוח ומה הקשר לארתור פינקלשטיין מוזמנים לקרוא  ליברלים שלא מסוגלים להבין את חשיבותה של התפילה במניין במדינה יהודית ודמוקרטית מגוחך  אני מאד מעריך את המסירות של הצוותים הרפואיים הקורסים ולכן אמשיך לקצץ ולהרעיב את מערכת הבריאות  נכשלת ועדת חקירה עכשיו מושחת נכשלת TzurielSharon יום כן יום לא היום כן  בכל זאת תפילות אחרונות לשנה ואני עוד לא ביעד noamil הצאליםהאילנות תלוי מאיזה כיוון כך מתפללים מנחה אצלנו ביקנעם ובחרת בחיים  לראשונה מהקמתו בשנת 1958 בית הכנסת הגדול בירושלים הודיע על סגירת שעריו בחגים תכלה שנה וקללותיה תחל שנה וברכותיה guylerer HapoelJLMfc ולא סתם ניצחון הפועל כפר שלם בחוץ matanshaf1 זה ציטוט שלו לא שלי YoazHendel1 יש גם דתיים לא ימניים מדובר על רוהמ ששקוע עד צוואר בחקירות ואין לו מנדט ציבורי ומוסרי לקבוע דברים כל כך גורליים בישראל קיים חשש אני ח…  YoavKisch אז למה בעוד שבוע וחצי ולא מעכשיו אבד האמון ועדת חקירה ממלכתית עכשיו מעולם לא נוהל כאן משבר בצורה כל כך גרועה בימים אלו אין מנהיגות בישראל איש הישר בעינו יעשה חייב להגיד שלא מעריך את התכנית יצאת צדיק במקום להיות חזקים על חזקים הם חזקים על חלשים לכו תעשו תחקירים על תשובה…  מדינת ישראל נחטפה  judash0 לגמרי לא העיתונות שלי ביזיון שערוץ 13 משדר עכשיו בחי את התעמולה של ראש הממשלה YTB2018 DemocratTV תודה שבאת היית מצוין מסתבר שביבי שונא את מערכת שלטון החוק יותר מאשר את הערבים אם הבנתי נכון כולם מושחתים חוץ מנתניהו לו יש שלושה כתבי אישום חמורים מזכיר לכל כלי התקשורת אין צורך לשדר את נאום התעמולה של ראש הממשלה תשדרו כאשר הוא יקח אחריות לכישלון עד אז זה סתם…  NadavTirosh gantzbe לגמרי היה איתי יותר נכון אני הייתי איתו ראש הממשלה החליפי ואני תודה לאמא ששלחה לי תמונה שמוכיחה שגם מפיצי מחלות כמוני הם מצטייני קורס קצינים gantzbe  דורשים ועדת חקירה ממלכתית לבדיקת כשל ניהול משבר הקורנה  אלפים כבר חתמו על הדרישה מוזמנים להצטרף בשביל שהעתיד ירא…  LVolf sbyifat בבקשה תגובה רשמית של משרד הבריאות  eyalnz shilofreid mossiraz שליחי מצווה אינם ניזוקים לשואלים לגבי ההפגנות כמובן שקדושת החיים גוברת על קדושת ההפגנה לפי דוח רשמי של משרד הבריאות מהיום לחכ שאשא ביטון…  shilofreid mossiraz כמובן שקדושת החיים גוברת על קדושת ההפגנה לפי דוח רשמי של משרד הבריאות מהיום לחכ שאשא ביטון…  קדושת החיים חשובה מקדושת התפילה במניין זאת היהדות שלי בעוד כמה דקות אתראיין אצל ErelSegal ו KalmanLiebskind ב kann מוזמנים לצפות ישיבת הממשלה שכן התקיימה הבוקר darkenuIL  barpeleg הנה ״ישיבת ממשלה״ שכן נערכה הבוקר בכיכר רבין לאחר חודש וחצי ללא ישיבות ישיבת ״ממשלת המנותקים״ שארגנה תנועת ״דרכנו״ מהתנועה… הבוקר התכנסה ישיבת ממשלה דחופה לטיפול במשבר הקשה  למעלה מ 1000 מתים למעלה מ 3000 נדבקים חדשים ביום קרוב למיליון מובטלים ועוד מאות אלפי עצמאיים קורסים כ 45 חברי ממ…  יש הוראה מלמעלה לפרק את המחאה אין הסבר אחר ערב הקמת ממשלת חירום הקורנה היו 16608 מאומתים בקורונה ו268 מתים היום 122799 מאומתים 976 מתים ו למעלה מ 3000 ח…  היום חצי שנה מנכל תנועת דרכנו סיכום עשר הפעולות הראשונות שלי ושלנו חוץ מהקמת ה DemocratTV יש עוד כמה דברים מו…  נסית נשקר נתעסק רק באיך מחלצים אותו מהכלא ואז נגיד שהכשלון המטורף הוא בגלל ההפגנות נבחר ציבור ישראל2020  וועדת חקירה ממלכתית עכשיו מעולם לא נוהל כאן משבר בצורה גרועה כל כך  מי אמר שהוא יודע לנהל זאת היהדות שלי  איזה ירח מטורף של אמצע אלול מעל עמק יזרעאל  המצלמה שלי לא מצליח לקלוט את היופי אבל סמכו עלי ותרימו את הראש אחרי שחצינו את רף 6000 השותפים הכספיים החודשיים הערב חוזרים לאוויר מוזמנים למסע שלנו להקמתו של ערוץ תקשורת אלטרנט…  YairEttinger זה כבר וייז אחר אתה צריך בהתחלה להזדהות לפי רמת דתיות YairEttinger אתה צריך להוסיף ניתוח פנים מגזרי לפי הרחובות בתמונה למשל כאן 73 מהם דתיים ליברלים לחוץ ומתרגש מחר בארי בן השבעה חודשים יכנס לפעוטון מנסה בכל כוחי לא לחשוב על מקרי ההתעללות יְשִׂימְךָ אֱלֹהִים…  Eyal yossidavidov10 lucyaharish DemocratTV נכון להערב יש 5960 שותפים בסכום של 307 אלף שח לחודש סכום חציוני…  במפתיע אין כותרת אולי רק אני לא עובד בשביל ציוץ או כותרת תזכורת לכלי התקשורת אין צורך לשדר בחי את דברי התעמולה  אפשר בדיעבד ואם ישנה כותרת חדשותית לשדר רק אותה  mossiraz אני בהחלט חושב שהצד הפלסטיני אשם ב 100 השנים האחרונות יותר מאיתנו בזה שאין כאן שלום  לא סותר את זה שצרי…  mossiraz 120 שנים יש כאן מחבלים המבקשים לרצוח יהודים עוד לפני שהיו לנו חיילים והרבה לפני שהיה כיבוש להתעלם מההי…  הערב הוגש כתב אישום חמור נגד שר האוצר והממשלה מחר שני בשעה 10 בבוקר נגיע למשמרת מחאה מול משרד האוצר ונדרוש משר ה…  עולם הפוך האחרון שיתפטר במדינה שלנו הוא הראשון שהיה צריך לקחת אחריות ולהתפטר בהפגנות יש פחות נדבקים מאשר מקרב שרי הממשלה אז חפשו תירוץ אחר ואם לא הייתה קורנה היו 400 אלף ברחובות ולא 40 אלף 36 אלף צמידים חולקו הערב בבלפור מההפגנות הגדולות שידעה העיר ירושלים  שבוע הבא 50 אלף חמוץ  יהי זכרו ברוך של הרב שי ברוך מי שרוצה לתרום למשפחתו בביט תרומה ישירה 0505710962  shoshi1964 יום שלישי הקרוב hadover1 רפואה שלמה ומהירה אז שלשום 220 אתמול 180 והיום עד 12 עוד 100 וקצת בסך הכל 500 מצטרפים תוך 48 שעות ואוטוטו אנחנו על 6000 שותפים חודש…  שירית היא כתבת מצוינת ללא קשר לדעותיה הפוליטיות  בהצלחה Shiritc אתמול נשבר שיא המצטרפים לדמוקרטtv 220 ישראלים הצטרפו כשותפים קבועים למיזם אנחנו על 5500 שותפים בסכום כולל של 275…  RinoZror נרכש והופץ בהצלחה רבה ומזל טוב mikiros1 מזל טוב סבא מיקי ההישג הגדול ביותר של הממשלה הזאת אין תקציב בשנה שהמדינה הכי אבל הכי זקוקה לו אם זה לא היה עצוב היינו צוחקים ומי…  אם היה כאן ערוץ תקשורת אמיץ היה מדלג על התעמולה של ראש הממשלה מספיק לשדר את עיקרי הדברים כמה דקות אחרי כל ספין שקרי סופו להתגלות כפי שכתבתי בציוץ הקודם שלי הסיבה היחידה בעולם שזה עולה עכשיו היא כי הנאשם מבלפור לא רו…  בתור מי שהיה אחראי על הקמפיין מול AviNissenkorn והיה אחראי על הגשת התלונה למשטרה על חשד לזיופים אין לי אלא להפריך…  itzikelrov הם בדרך לשיעור א אלול חוגגים את תחילתו של חודש אלול אחרי לילה ראשון של בארי באוהל חודש טוב ושבת שלום  תודה לשר אוחנה על חיזוקה של המחאה התשובה במוצש בבלפור  30 גברים אנסו נערה בת 16 לסדום היינו לעמורה דמינו מיקי זוהר בגלצ רוב הציבור בקואלציה תומך בנו אנחנו 54 מנדטים  תזכורת תוצאות הבחירות האחרונות 6258 להחלפתו של נתניהו captinsami1999 DemocratTV כתבי וצלמי שטח   עוד תוכנית לקהלי יעד צעירים יותר yakmargi תושבי יקנעם ואני בינהם ישמחו מאד בדרך לבנות אלטרנטיבה דמוקרטית אמיצה וישירה לתקשורת היום אנחנו חוצים את רף 5000 השותפים ב DemocratTV לגייס תוך…  זאת היהדות שלי כל הכבוד  האיש שאמר לבן של קובי מימון אבא שלי סידר לך עכשיו 20 מיליארד דולר מדבר על משאבי טבע אשר שייכים לציבור מגוחך  tzvitessler חברה טובה גם שעון מקולקל צודק פעמיים ביום מי נגד ההסכם המדיני איראן סמוטריץ דגן ושות החמאס HSajwanization Visit Tel Aviv    TzurielSharon גם אנשי בוכמן יכולים על סיפוח לא חותמים בלשכה amitsegal  יש וגם זאת היהדות שלי יותר מדי בשורות טובות בערב אחד  דחיית הסיפוח והסכם שלום זאת היהדות שלי בפעם הרביעית מאתמול מחבלים יהודים תקפו את כוחות הביטחון ואל תספרו לי על עשבים שוטים זה מה שצומח כאשר ממציאים יהד…  judash0 גם רגל קרושה לא אני יותר בעניין של קיגל אבל זה לשיחה אחרת judash0 חד משמעית לא היהדות שלי מה שעושים לליאת בן ארי זה עוד פרק של בית הקלפים הבלתי נגמר שאנו חיים בו בהובלתו של הנאשם מבלפור אמנם זה לא עזר אבל תודה לכל מי שהתגייס בתוך 24שעות נשלחו 135568 מיילים לחברי הכנסת של כחול לבן בדרישה לתמוך בה…  אנרכיסטיםמחבלים  BarakRavid WallaNews בהצלחה רבה 101567 מיילים נשלחו מאמש לחברי הכנסת של כחול לבן דרך המערכת ב darkenuIL בדרישה לעמוד במילתם שוחד מרמה והפרת אמונים לא בבית ספרנו yanircozin אתמול בBP בנתניה המלצר הפיל עלי בקבוק קולה כל הבגדים נרטבו השארתי טיפ נראה שזה עשה לו את היום המדינה שבויה בידי אדם אחד שרוצה להתחמק ממאסר כל השאר רעשי רקע וספינים oriherzl ItaiJamshy נזקקים לפרויקט של לרר לעמותת שכן טוב למען הדמוקרטיה מוזמן לתרום לדמוקרטtv אם יש הסכמה אחת במדינת ישראל היא שצריך תקציב כלשהו עכשיו בשביל הבריאות בשביל מורי הילה בשביל שירותי הרווחה ולכן…  המשטרה הודיעה כעת שתפתח בחקירה  לא ניתן למסיתים לגרום לרצח הפוליטי הבא  עוד סיבה לגאווה אני בעלים גאה של קבוצת כדורגל סבירה ומיזם חברתי יוצא דופן  כבוגר הרבה מאד הפגנות בירושלים הערה קטנה למגמדים בהפגנה אמש היו לכל הפחות 30000 אנשים  וזה מקדם של 15 מזו הקוד…  מתי העיתונאים שאמרו מעטים מתנצלים  פתאום קם אדם בבוקר ומרגיש שהוא עם ומתחיל ללכת  azariarachel מרשים מאד רק מי שעבר את העלייה בהר איתן יבין את גודל ההישג  כל הכבוד ושבת שלום azariarachel מטורף 2 סיבובים מלאים ברצף הרב שטיינזלץ זכר צדיק לברכה בזכותך אני אוהב ללמוד גמרא תודה שהיית האור לפני המחנה תהיה נשמתך צרורה בצרור החיים  2 סוגים של יהדות הוצגו השבוע בישראל אלו שחגגו את ההרס בלבנון ואלו המאמינים שכאשר מעשה ידי הקדוש ברוך הוא טובעים בי…  TzurielSharon כמו שאמרת אושר שאין לו גבול שבת שלום אחי השבוע נגמר   Riklin10 אני מניח שכלבנוני היה לך יותר קל שם גישת שישרפו כל מי שלא כמונו נפוצה לֹא תְתַעֵב אֲדֹמִי כִּי אָחִיךָ הוּא לֹא תְתַעֵב מִצְרִי כִּי גֵר הָיִיתָ בְאַרְצוֹ זאת היהדות שלי  LinorDeutsch DemocratTV lucyaharish המחמאה החשובה של היום aryeyoeli להפך אתה פשוט מתעלם מחלקים שלא נוחים לך  לא תתעב מצרי שכל בני האדם נבראו בצלם ושהציווי הנפוץ ביותר בת…  aryeyoeli היהדות של נערי הגבעות לא שלי ולדעתי אם תעשה סקר בישראל על הפסוק לא תתעב מצרי כי גר היית בארצו רוב מוחלט…  aryeyoeli מצוין אז הנה היהדות שלך aryeyoeli א אנחנו לא בשעת מלחמה ב כן הנה הרמבם כל מי שיש בו עזות פנים או אכזריות ושונא את הבריות ואינו גומל…  כבר 70 אלף  תודה זאת היהדות שלי  כבר 60 אלף שזה עוד שישה אוטובוסים תודה LaLinea007  כאן תודה בתוך 24 שעות כבר 50 אלף שקלים נאספו מ 400 ישראלים לחיזוק מערך ההסעות במוצש הקרוב החייזרים ינהרו לבלפור  ruthelbaz את אשת חיל נגעל מהקריקטורה הזאת  מושחתים נמאסתם  החייזרים נוהרים באוטובוסים מאז הבוקר מימנתם בקמפיין שלנו כבר עשרה אוטובוסים לחייזרים במוצש מוזמנים להצטרף לקמפיין…  וכמובן MayaNahor התכנית הכי טובה שיש מברוק ל guylerer AdamShafir BarShemUr ושאר העוסקים במלאכת הקודש  מוזמנים להצטרף לאתגר שהוטל עלינו לממן את ההסעות למחאה החברתית  מבטיח שאני לא עומד מאחורי הפרופיל הפקטיבי שמסית נגדי דורפמן אולי תברר לי מי כן YossiDorfman  בבלפור כעת מתקיימת אחת מההפגנות הגדולות שידעה העיר ירושלים עיתונאים שקוראים לא לסקר את המחאה הם אלו ששכחו מה זאת עיתונות קיצוניים משני הצדדים חלק ימין קיצוני וחלק ימין ממש קיצוני  wWpE9ge603W3Gk4 מסכים אין דבר יהודי יותר מאשר להפגין נגד שחיתות וקיצוניות זה הלקח מתשעה באב שלטון מסואב קיצוני ומסית יכול להביא לחורבן…  Onetruth011 נשמע לא פשוט טעים noampor מקורי עם חלב כן EranBenYehuda על זה אתה שובר שלוק ראשון Onetruth011 מה זה TsafrirG נשמע שווה rachelturgeman tzvitessler רחל כך אמא שלי שוברת  tzvitessler והקפה ראשון עוד שלוש שעות ודקה לכוס המים המיוחלת אבל מי סופר על מה אתם שוברים את הצום GLZRadio מנכל תנועת דרכנו yayafink בתגובה עצוב שבזמן ט באב ראש הממשלה ושליחיו ממשיכים להסית נמשיך להיאבק על דרכנו בכל מקום ואנ… גם בתשעה באב הם לא מפסיקים להסית אין ספק שההסתה שלנו ב darkenuIL יוצאת דופן העזנו אתמול לארגן אירוע קריאת מגילת…  זאת היהדות שלי תודה שהגעתם הערב  תודה רבה לרב בני לאו לרב יוסי פרומן לאשת ההלכה דבורה עברון לסופר אשכול נבו לא…  ranxarad כן אחרי ערב כזה יש תקווה  תודה שבאתם צום מועיל לצמים  הרב יוסי פרומן מקריא לקהל האנרכיסטי את מגילת איכה  אוטוטו מתחילים בקריאת מגילת איכה בבלפור לא לשחיתות לא לאלימות לא לקיצוניות כן לאהבת חינם  התשובה לאלימות אמש תתקיים גם הערב בשעה 20 בבלפור לפני אלפי שנים נחרב הבית בגלל קיצוניות אלימות ושחיתות ואסור לנו…  הוא מסית הם מבצעים  תהיו שאשא ביטון  orlybarlev הערב מגישה יחד עם talschneider את תכנית הערב ב DemocratTV לוסי אהריש lucyaharish המהממת בחופש אז אנחנו מתייצבות  כבוד שטל המוכשרת תגיש הערב מתחילים ב 18  איכה בבלפור ברביעי הקרוב בשעה 20 נתכנס לקריאת מגילת איכה בבלפור כי ערכי תשעה באב המאבק נגד שחיתות סיאוב שנאת ח…  בשורה טובה לפתיחת השבוע הבוקר אנחנו חוצים את קו 4000 שותפים קבועים ב DemocratTV עלינו לאוויר לפני תשעה שבועות…  בערב אחד מחבלים יהודים דקרו יהודי בצוואר ריססו גז מדמיע וזרקו אבנים על כוחות הביטחון  אנרכיסטים נמאסתם  גם ברצח הפוליטי המתקרב הוא יגיד שהוא לא ראה לא שמע ולא ידע נו כבר שעה של אלפי מפגינים בכל הארץ ועוד אין החלטה בצד הביביסטי איזה שלט יעיד הפעם שאנחנו אנרכיסטים ומפיצי מחלות…  מתוך הפטרת השבת שבת חזון שָׂרַ֣יִךְ סוֹרְרִ֗ים וְחַבְרֵי֙ גַּנָּבִ֔ים כֻּלּוֹ֙ אֹהֵ֣ב שֹׁ֔חַד וְרֹדֵ֖ף שַׁלְמֹ…  נמצאו האנרכיסטיים בהפגנות בירושלים  נתניהו אל תפגעו בסמלי המדינה  אמר מי שהסית נגד המשטרה בתי המשפט מוסד הנשיאות היועמש הפרקליטות ומכהן תחת שלושה…  הרב בני לאו זאת היהדות שלי </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coming soon   TomFitton John Durham Also Investigating Clinton Foundation in His Obamagate Probe  “The Clinton email investigation was corruptly han… dbongino John Durham reviewing FBI handling of Clinton Foundation investigation   GeorgePapa19 We don’t want the news about Mueller’s team wiping their phones while under investigation the Clinton foundation facing… לחקור הדלפות זה מאד מאד חשוב  itayABC YanivTurgi אין הבדל יש לאסור את שניהם כמו שכתבתי יותר מפעם YanivTurgi itayABC אף פעם לא הבנתי למה מי שמניף את דגל האנרכיסטים הדגל השחור אחר כך מתפלא שקוראים לו אנרכיסט ז…  OrenNahari אחת הסיבות שישראלים לא מקבלים חדשות של ממש מאמריקה היא שאתם שאמורים לתווך לנו אותן ממשיכים להסתמך על הטיימס OrenNahari הדרך היחידה להמשיך לחשוב שהניו יורק טיימס הוא עיתון עיתון היא להתעלם מזה שהעיפו את גיימס בנט ממכתב הה…  attilus לחסומים  תיבת  המחבר דיסלקט אין מה לעשות AmirOhana  ניסה לעצור את הדבר הנורא הזה הרשת לא שוכחת  taliaeinhorn 44 של בעלי הדין בהתחשב במשקלם הסגולי של אינטרסים אלה במקום זאת יש בתק 5 איזון עם האינטרס הציבורי הקורא בעצם לסיים… taliaeinhorn 34 הדין המהותי ותקנות סדר הדין ולהגיע לתוצאה הנכונה בין הצדדים להליך הוא לא אמור לעסוק באיזון אינטרסים  בספרו המכונן… taliaeinhorn 24 הציבורי לעניין זה אינטרס ציבורי – נגישות הציבור למערכת ביהמש לרבות קיומו של דיון משפטי צודק מהיר ויעיל חיסכון… YanivTurgi אני מתנגד להפגנות בבלפור ולכל התקהלות המונית בעת הזאת הכל כולל הכל מי שרואה את הסרטון הזה מבני ברק ושותק כשהתחלואה בישראל… ללמדכם שבתוך טיבת התהודה לא שומעים כלום חוץ מאישור לדעותיך הקדומות ולא יודעים כלום על הדברים שקובעים עכשיו את העתי…  ממש נתניהו רועד מפחד מהפגנות הנרקיסיזם שמשניאות את השמאל על הציבור   וזה לא עלה על דעתם שהוא יישפט על טיפול במגפ…  חבר כנסת שמעודד מסיבות הדבקה בבלפור שלא יטיף לנו מוסר על המחיר הכלכלי  WSJ Take an early look at the front page of The Wall Street Journal   BurtonJM Looks like JVP is not happy that there are consequences for platforming actual terrorists  stillgray Antifa in Seattle attempted to murder a police officer by hitting his head with a metal baseball bat as the Black Lives Matt… Nrg8000 THREAD Today after monthsyears of work ASPIICPC and I are able to launch the Xinjiang Data Project It currently has the… HaleviAmit בכחוללבן זועקים שאין להגביל את ההפגנות כי הן נשמת אפה של הדמוקרטיה  מבחינתם שהדֵּמוֹס ימות במגיפה הדמוקרטיה המהותית גם כ… לא יכול להיות תקראו מהר לנדב איל  אחד חלה בקורונה למרות שהוא היה בהפגנה בבלפור די איך זה יכול לקרות  omeryankelevitc עם 6700 נדבקים ביממה הגיע הזמן לומר די לדמוגוגיה למפגינים בדיוק כמו למתפללים  אין שום חסינות מהדבקות אותם כללי… AvielDabush בודק giladzw הפרויקטור אומר שנדבקים בהפגנות מנהלת המחלקה למחלות זיהומיות בשיבא קוראת לא להפגין פרופ ברבש אומר שצריך לסגור את ההפגנות  ש… אני קורא כל כך הרבה פרשנויות שלפיהן ההפגנות מזיקות לנתניהו והוא עושה הכל כדי להפסיקו אותן וואו באמת איך הן מזי…  OrenNahari פרובבלי זה יפה מה עם סרטנלי  AnshelPfeffer ברור שהיא לא תורמת לתחלואה 4000 איש שמזיעים אחד על השני לא מדביקים זה לא מזכיר קצת את התיאוריה שכדור הארץ שטוח Russian Collusion anyone  MrAndyNgo Portland BLMantifa rioters throw an incendiary device at police that erupts in huge flames PortlandRiots BLM  MrAndyNgo Another angle showing a rioter throwing a Molotov cocktail at PortlandPolice in downtown PortlandRiots antifa  MrAndyNgo The antifa mob in Portland cheer as one of their comrades hurls an incendiary device at PortlandPolice tonight PortlandR… 2000 איש בעל האש מותר איך אתם רוצים להגביל תפילות אם בהפגנות אתם מתירים 2000 איש  איפה הראש שלכם  כל ההתקהלויות תפילות והפגנות יכולות…  yehuday30 בסוגיית ההפגנות תומכי נתניהו צודקים   ההפגנות עצמן הן לא הסיפור  הסיפור הוא שהן הפכו את מגבלות הקורונה למגבלות עם כוכבית ועם… WhiteHouse At the urging of the radical left Big Tech platforms have become intolerant of diverse political views  evanatha WhiteHouse But Ali Khamenei promises of a second holocaust are fine right YanivTurgi תודה יניב שימחת אוטוטו 75K למה לא חותכים חד משמעית  עד סוף הסגר שום התקהלות משום סוג לא בתי כנסת לא הפגנות ולא סיאנסים כלום  עכשיו  ל…  אז הנה מה שיש לחכ עמית הלוי ליכוד לומר האופן שבו ניהל השופט מלצר את וועדת הבחירות ובתור מייסד המכללה למדינאות י…  JoshBreiner ברור כי מרגע לרגע הציבור יותר מתאהב בכם על האומץ שלכם לצפצף על כללי הזהירות ועל הסגר נראה לי שאם תק…  ובריאות הציבור זה לא שיקול בעיני כחול לבן    ErelSegal פוליטיקה קטנה על חשבון המלחמה במגפה  אבל היי העיקר היא נגד מושבי עור  BarashiKinneret בוקר טוב ברוך קרא  שמעתי שפנו אליך מרדיו גלי ישראל וביקשו את התייחסותך לאילן ישועה ולהדלפות   עוד שמעתי שהתנת את זה… מה שרוצים למנוע אחינו זה הפקרות של מסיבות הדבקה בזמן מקפה אלקטורלית המשך הטנטרום הנרקיסיסטי בבלפור רק מועיל לימ…  nedryun Just a reminder The Biden Center at the University of Penn is under fire this week over its alleged failure to disclose mill… RanBaratz עיתונאי השמאל הופכים לפתטיים מיום ליום הספין החדש המטרה של נתניהו היא לעצור את ההפגנות זה כל מה שמעניין אותו האמת בלי ל… sheffipaz היה דיון מטורף המשטרה מסרבת למסור את המידע שביקשנו על אכיפה בררנית איתמר העורך דין שלנו עשה להם בית ספר השופט דרש מהם להת… yhazony מזל טוב עוד חוזה שלום בדרך  LeeSmithDC Damning report from SenRonJohnson amp ChuckGrassley shows how Hunter Biden compromised US national security in business dea… גרסה פתוחה של המאמר שלי על מערכות האכיפה ומלחמתן נגד ישראל השנייה ובכלל מלחמתן של האליטות נגד הדמוקרטיה הישראלית…  2TTgtWQVE1zj6MO איזו מדינה יותר טובה ממנה זה יעלה לשמאל מאד ביוקר בקלפי הדבר הזה כי מילא הם היו מפגינים בעד הדמוקרטיה בזמן מגיפה שזה חמור מספיק אבל הם מפג…  arielschnabel נתון מדאיג לדמוקרטים משמעותי לא פחות ואף יותר מהסקרים הרישום לבחירות ברוב ארה״ב חייבים להירשם קודם בכדי להצביע בקרב… haggaisegal אם שארית המשק תושבת רק כדי לרצות את שרי כחול לבן שמתעקשים לסגור הכול לא רק את מחאת בלפור או את דרעי שמתעקש לפתוח את… LiberalRiWo תנו למנדלבליט להתערב גם ביחסי החוץ ונפתחת תוך שבוע מלחמה עם איחוד האמירויות ובחריין  אם אתם רוצים להבין מה קורה באמריקה עכשיו זה הספר בשבילכם מבט על על ההפיכה המתמדת נגד טראמפ  seanmdav Who among us hasnt gotten kicked out of the Navy for snorting cocaine knocked up a stripper preyed on a brothers widow a… AmirLevi81 הם באמת בטוחים שהם חברים במחתרת חשאית והירואית שנלחמת ברשע באמצעות ציוצים מבית קפה  כדור הארץ לדגלים השחורים האם שומעים עבור  MischakMilim GadiTaub1 פרטים כאן   AnshelPfeffer אנשיל אתה רוצה לקרוא לי מטומטם אז בוא נפסיק כאן המפה שלך פשוט שמה את המרכז במקום אחר ממני וגם הק…  הלוינסון הודיע שהפרוייקט האמרקאי נכשל קראתי את רשימת החטאים של אמריקה שהוא מנה באמת נורא   רק מה פחות נורא מבער…  AnshelPfeffer הימין היה מאד חלש בלמשול עם זה אני מסכים  אבל אין שמאל בישראל  אין שמאל בישראל חוץ משליטה כמעט גמ…  AnshelPfeffer זה לא עבש אנשיל זה תמיד רלוונטי לשמאל מותר לימין אסור כמו ששינו את מדיניות המעצרים בהפגנות אחרי…  OrakelMoor הן התחפשו לרות באדר גינזבורג yarivop AnshelPfeffer אתה גרת על הירח באותה תקופה יריב  היו בערך ש 6000 עצורים מנהלתיים אם זכרוני אינו מטעה אותי AnshelPfeffer אתה מתכוון השמאל נעצר כשהוא ניסה להפגין נגד ההתנתקות adhalperin מאז שקולומבוס גילה את אמריקה לא הייתה בעולם תגלית מפתיעה כמו זו  ArielKallner אנו נמצאים במדרון חלקלק להפוך מדמוקרטיה לאוליגרכיה משפטית ופקידותית בדיון בוועדת חוקה היום הצבעתי על המצב האבסורדי בו המ… שום אות קלון אתם רוצים לדרוש שלא יהיו הפגנות אל תאפשרו שום סוג של התקהלות זה לא משחק הסגר הזה  dudiamsalem עם ישראל ישב סביב שולחן החג עם המשפחה הגרעינית בלבד בלי ההוריםסביםסבתות אבל רק אדוני הארץ חבורת שמאל אנרכיסטי המשיכ… AnshelPfeffer למעשה כשימין אירגן הפגנות אז אסרו ילדות בנות 14 עצרו אוטובוסים ועשו הארכות מעצר בקבוצות לשום פוליטיקאי משדרות אסור להגביל הפגנות בזמן אזעקת צבע אדום כי לדחות הפגנה ב 40 שניות זו פגיעה בזכות ייסוד דמוקרט…  הקרן החדשה לשיסוי המיעוטים ברוב מטיפה על פילוג לא יודע אם זה ציניות או פשוט מודעות עצמית של עלה גרניום  Ruth Bader Ginsburg Didn’t Understand Her Job   שלום לכתבי חדשות החוץ אתם ערים כי נדמה לי ששווה להזכיר שקרה פה משהו לא מבוטל במיצוב הבחירות לנובמבר לא רוצה להפר…  הנה עוד משהו שקרה לאחרונה במלחמתו של טראמפ בפי סי נשיא אוניברסיטת פרינסטון במסגרת טקסי ההטהרות הכה על חזה של הא…  שזה חל רק על אגף אחד של הפי סי  תיאוריה ביקורתית בנושא גזע אבל זה האגף הרלוונטי אחרי מהומות בלאק לייבז מאטר זה…  ברייקינג  זה חתיכת בום  צו נשיאותי שאוסר אינדוקטרינציה פרוגרסיבית של כת הפי סי בכל רשויות הממשלה בצבא ובכל חב…  השמאל האמריקאי מדגים איך לא מנצחים במאבק פוליטי    Doranimated Finally We will now know the answer Also does Gal Gadot really have superpowers that she acquired…  Doranimated The Middle East experts got the region consistently wrong egregiously wrong and realDonaldTrump got it right What does… ErelSegal למי שאינו מאמין לפרופ ברבש זה המחקר של אוניברסיטת אוקספורד על הסיכון הרב בהפגנות   RanBaratz  אנחנו המונים מאות אלפים שיפילו את נתניהו  אבל קורונה אוסרים התקהלויות כולל תפילות   טוב מה אתה משווה תפילות זה ה… amitsegal מי שנלחם עכשיו נגד סגירת בתי הכנסת נאבק על זכותו לעודד מגיפה רק כדי שיוכל להתפלל בציבור את המילים ״מנע מגיפה מנחלתך״ CarolineGlick הדרך הטובה לבחון את זה הוא שמתנגדיו המשפטיים של מנדלבליט יפגינו מחוץ לביתו הוא לא יכול להתלונן כי הוא בניגוד עניינים כ… smadarshmueli יאיר גולן אני מתביישת שהיינו חברים באותה רשימה דמוקרטית עושה רושם שהחלטת להצליף בתקשורת הימין כדי שהדרוקרים ישלטו ת… navedromi בליכוד לפי מה שידוע לי נכנעו לכחלב ומשכו את חוות הדעת של בקשי אם זה נכון אז מדובר בנפולת של נמושות וכחלב הם סמרטוטים של… amitsegal רק דת אחת בעולם כולו דורשת את המשך הפולחן גם במחיר חיי אדם הדת היא רק לא ביבי ופולחנה  הפגנה שבועית בבלפור NissimSofer אשר להשתתפות גורם משפטי חיצוני בישיבת הממשלה אבקש להודיעך כי אני מתנגד בתוקף להשתתפותו של דר אביעד בקשי בדיון הכו… RanBaratz האם לא ברור לכולם שבממלכת המשפטנים ההפגנות הללו הן בעדם האם עדיין צריך להסביר למישהו שבתור התובעים הם נטולי אינטרס בערך… זה בלי ספק יהיה קרב מעניין אם טראמפ יבחר באיימי קוני בארט להחליף את רות גינזברג בעליון   Why Amy Coney Barrett is…  מיט רומני זה הבני בגין של הרפובליקנים    RealSaavedra Bill Clinton who picked RBG was impeached  אז מסתבר שאולי אקטיביזם שיפוטי זה לא כזה רעיון טוב בעיני השמאל פתאום איזה קטע  מצביעי טראמפ שמסתירים את דעותיהם    limorlaw טוב itamarkorem כל נשיא שהיתה לו הזדמנות עשה זאת היו 22 נשיאים כאלה חלקם מינו שופטים אחרי בחירות שהפסידו בהן ולפני שפינו את הבית הלבן kannnews חכ יפעת שאשאביטון לא הסכימה עם התחזית של פרופ גבי ברבש שעמדה על 600 חולים קשים גם כשהתברר שהוא צדק מהצדהשני עם guyzo… tuchfeld הממשלה וראש הממשלה האריכו את כהונתה של דינה זילבר מה yairkraus בדרך לבלפור מוודאים שכולם נדבקים  ofra27708991 זה אבא שלי המטפלת צילמה אותו ללא ידיעתו  אבא אדם דתי רצתה לשמח אותנו 5 ילדיו שהוא ״חוגג״ראש השנה כדת בצאת החג הפיד ה… IsraelHayomHeb ההפגנות יימשכו  לישיבת קבינט הקורונה הוזמן דר אביעד בקשי שייתן חוות דעת משפטית אחרת מזו של היועמש אביחי מנדלבליט לס… AlonGadot טוווווב Yishai2 ראש הממשלה מחליט על סדר היום בישיבת הממשלה היועמש לא מכח חוק אלא רק כי רהמ הכניס אותו אבל עכשיו היועמש הוא זה שיקבע את ס… Findparity AvishayBenHaim או ניידים ונייחים  כלומר פוסטלאומיים וגלובליסטים מול לאומיים ודמוקרטים יאיר שלנו הוא לא השאלה הכי מסובכת בנהיגה מונעת  YonatanJaku CarolineGlick כמעט אף פעם לא טוב שהחלטות ילכו לפי טהרנים אבל נתניהו צריך להאבק נגד מה שנראה כמו פוט…  TitaniaMcGrath Apparently when the Titanic was being evacuated there was a “women and children first” policy   Although this was disg… TitaniaMcGrath The best way to persuade people to come around to your point of view is to surround them in a mob and tell them what wo… עושה רושם שהדמוקרטים מלהיבים את עצמם לכדי אקסטזה סביב מינוי מחליפה לרות גינזבורג בעליון איומים בהעמסת בית המשפט…  CarolineGlick זה בדיוק אתה תופעה בהתנגדותם להחלת הריבונות טהרנות הם חיים בעולם של ערכים מוחלטים וכדי לשמור על ט…  ComfortablySmug INBOX  דריסת זכויות אדם במערכת האכיפה הישראלית זוועה ואבסורד   אני אתרגם לכם לעברית את הצעתו של קלמן ליבסקינד שנתניהו יפרוש תמורת ביטול ההליך הפלילי נגדו המלצה להיכנע לרעיון שהפ…  הם רוצים עוד קורונה אין שום הסבר אחר אם לא הם היו נוהגים באחריות ודוחים את ההפגנות לאחרי הסגר שום דמוקרטיה לא נ…  NRO Black Lives Matter Removes Language about Disrupting the Nuclear Family from Website   uTKJAbcp48zw3lJ היום שקעתי בדיכאון הפנמתי סוף סוף שאני חיה בצפון קוריאה מנדלבליט הוא טירן הוא שולט ומחליט לחיים ולמוות איך יוצאים… rightStudent1 נפתלי של פעם  אם מישהו חשב שמבחינת הרפובליקנים הרכבת הזאת תעצר לפני הצבעה במליאת הסנאט  אז לא  מנדלבליט שחוסה תחת צווי איסור פרסום גם משוכנע שהוא הבוס של כולנו ושכל מה שלא נראה לו הוא יכול לשים עליו מדבקה מנ…  Momokomo14 עד השולחן Here we go  יום הכיפורים מתקרב וזו ההזדמנות שלכם לבקש סליחה על שלא עשיתם מנוי לערוץ שומר סף ביו טיוב   לחלופין אתם יכולים…  qrFl9KBBj7X72jA מה שברור הוא שהחוק לא יופעל כנגד אלימות של נשים כלפי גברים  שלא לדבר על הגדלת האפשרויות לתלונות ש…  Eyalo365 אם זה היה קשקוש הייתם דוחים את הפגנות לאחרי הסגר אבל כמובן זה לא קשקוש המטרה היא כאוס לכן הדגלים השחורים דגלי האנרכיזם ITGuy1959 Whichever RNC staffer did this deserves a promotion     הרציונאל החדש של ההפגנות   משולחנו של דן שיפטן  נחישות אמריקנית במאבק באיראן   Yishai2 לגופו של עניין אני חושב שהפגנות בזמן מגפה זה הפקרות LindseyGrahamSC So how did your Monday start Stand with me against the mob   המערב הפרוע זה דרום תל אביב  מה שיפה במפלגת לא אשתוק כי ארצי שינתה את פניה זה שהם חושבים שהם עדיין קובעים למי יש לגיטימציה    RanBaratz לפני זמן מה הופיע אצלי תמיר דורטל הניח על השולחן אוסף של מיקרופונים אזניות ומכשירי הקלטה ופרץ באוסף שאלות נוקבות על הציונ… The forgotten counties will make their voices heard  מאתיים מיליון איש ימותו עד סוף הנאום של ביידן רוצו למקלט עכשיו  JHWalz32 Watch this again and again and share it again and again    Their rage has nothing on ours    Just vote—Zero debate  Chicago Us English Dept announced they will only accept applicants who want to work in or with Black Studies…  שומר סף 42 עם עוד נעמה סלע על הצעת החוק למניעת אלימות כלכלית שאוטוטו תעלה בוועדת חוק חוקה ומשפט באדיבות ניסנ…  rothmar זה די מבאס ש LikudParty מתגייס לכל איוולת שמעבירה עוד ועוד כח לבתי המשפט ולפקידות ואז בוכה על זה  NissimSofer YiftachDayan הם כבר שברו כל כך הרבה כללים שאני נוטה להתייחס ברצינות לאיום שלהם אבל כך או כך אין ש…  RonColeman Thats it All the things I was just literally shaking  NissimSofer YiftachDayan יתרה מזאת למיטב ידיעתי אין תקדים לזה שסנאט אוהד שיכול היה לאשר מינוי לא עשה זאת YiftachDayan ובינתיים  אפשר לקנות את זה ואפשר לא  מקונל טוען שצריך לחכות אחרי הבחירות כשיש מצב של עימות בין הנשי…  לרות גינזברג יש מסר בשבילכם לגבי מינוי שופטים בשנת בחירות  shiraaedri במשך רבע מאה השמאלנים טענו שהקריאות בוגד עלולות להוביל לרצח ועל כן הם האשימו את כל הימין ברצח רבין  ועכשיו הם מכנים את… Massive Fk Cuomo and de Blasio mural painted on Brooklyn street  via nypmetro alfiekohn RonCharles And which the Dems helped build a nuclear program that Trump is trying to stop shiraaedri miriambaram GadiTaub1 החוק כללי מדי ומותיר יותר מדי פרשנות לשוטר  קצין בתחנה ואחר כך לשופט הרי מה קצין בתחנת משטרה אמור… YairKannai ronitlev12 omeraricha GadiTaub1 קרן ברק  ליכודניקים חדשים  מרצ בתוך הליכוד שוב הנה נייר העמדה של פורום קפה שפירא בעניין החוק הזה מבית היוצר של קרן ברק  אבי ניסנקורן    ronitlev12 רוניתה מחכים שתשמיעי את קולך הערב יעלה שומר סף שלם על הנושא ובינתיים הנה הנייר של פורום קפה שפירא…  חברת הכנסת קרן ברק עשתה מעבר מהיר משירות כלוביסטית לחברות פרטיות ולבנקים לשירות הציבור   ניתוח שקוף מגלה כל הד…  EMaccabiTA  נייר העמדה של פורום קפה שפירא בנושא הצעת החוק למניעת אלימות כלכלית שיאפשר למערכת משפט פרוגרסיבית להפוך את עצמה לבו…  עדכון הדיון בחוק נדחה ל 20 באוקטובר אז יש לכם עוד זמן להביע בפני חברי המפלגה שאתם חברים בה או מצביעים לה את ד…  הארכת המינוי של דינה זילבר ימין חלש leale6 קרן ברק MeidanAri GadiTaub1 בגלל שאנחנו יודעים איך חוקים כאלו נאכפים הוא למעשה דהפאקטו הופך כל גבר נשוי או במערכת זוגית לעבד שתוצר עבודתו ל… Riklin10 זוועה למה הליכוד צריך לשרת את הטירלול מחר בעודכם יושבים בסגר לבטח עומד לעלות להצבעה מה שקרוי החוק למניעת אלימות כלכלית חכ קרן ברק מהליכוד יזמה עזב…  IsraelGaley ד״ר GadiTaub1 לtadmorerez48 ״אני חושב שההפגנות האלו יעלו ביוקר לשמאל בקלפי זה נכון גם לארה״ב הציבור כבר לא מאמין לתקש… bardugojacob בג״צ בדחיית העתירה כנגד מנדלבליט ״נסמכת כאמור על חלקי שיחות מדובר בקטעיקטעים של שיחות אשר רב הנסתר על הגלוי בהןלא… JoshBreiner גוש אתה עיתונאי ותיק אז אתה בטח יודע את ההבדל בין סיקור להשתתפות rothmar רק אומר שליועץ המשפטי לממשלה אסור על פי חוק לבקר בראיון את הממשלה ואת שריה  אבל חוק זה הדבר המיותר היה שמפריע לפקידים לשלוט… YinonMagal אם ההפגנה היא זכות יסוד בדמוקרטיה אז הנדבקים בקורונה הם בעצם קורבנות הדמוקרטיה clairlemon Reminder that Jack Dorsey CEO of Twitter recently donated 10million to this guy rothmar איזה מזל יש לנתניהו לא יאומן  כל תומכי המאבק חסר הפשרות בהשתלטות מערכת המשפט על מדינת ישראל כבר גמרו את הגרון בצעקות על קלמן… כשהקרן החדשה לדהציוניזציה מדברת על זה שדרוש אמון בהנהגה עוד דבר שנגע לליבי על הבוקר  כשוותיקי להקת המעודדות של בלפור מתלוננים שהסגר לא מספיק הדוק זה הכי נוגע לי ללב  ErelSegal אתם רואים את התמונות מירושלים והבטן מבעבעת  זמן סגר ואלפים במפגן נרקיסיזם אינפנטילי דוחה של שנאה עיוורת אבל זכרו את האם ממ… AdiVaknin6 וכאלה      אוי אני נקרא ממש גזעני  מוסיף גם את האשכנזים לאיזון  בנפרד  ונקרא עוד יותר גזעני  הניו יורק טיימס כבר לא עיתון  YanivTurgi יפעת שאשא ביטון בתגובה על בסיס אלו נתונים שר הבריאות הבריטי רוצה להטיל סגר מלא  היסטוריה קצרה של אנטיפה בחמש דקות  seanmdav You mean Barrett supported due process as required by the Constitution instead of field trials with no jury no defense and… ענקי האינטרנט שמנתבים ומצנזרים את המידע שכולנו צורכים הכריזו מלחמה על טראמפ מפני שהוא מאיים לנתק להם את צינורות…  כל זה מחזק את הימין  mclbgn חרדים מתנחלים מפגינים נגד אוסלו ונגד הגירוש מגוש קטיף היו יכולים לחלום על יחס כמו שמקבלת הקאסטה הפריבילגית מהמשטרה על פרומי… navedromi קלמן הוא מהעיתונאים הטובים בארץ והדעה שלו סופר לגיטימית ובאופן אישי אני חושבת שוויכוחים בתוך הימין זה נהדר לדעתי זו דעה של… andrewklavan A SCOTUS Justice dies GOP We will replace her according to the Constitution  TheDemocrats We will burn the country… שר החוץ של האמירויות מסביר שהתקינות הפוליטית עוד תהרוג את אירופה  Mickeygitzin השיטה של הקרן שלך היא הפרד ומשול  והפוליטיקה של הזהות כמובן  ובעקבות שאלתך על מה קרה שאני תומך לפתע…  YiftachDayan אם הוא למד משהו מ 4 השנים האחרונות זה שהדמוקרטים לא עוצרים ברמזורים אדומים ולכן  רק בכוח אין שום מש…  אם אתם רוצים לשמוע על האסון ההולך ומתרגש עליכם בדמות החוק למניעת אלימות כלכלית אתם מוזמנים להצטרף ממש תיכף 2100…  YiftachDayan לא זו לא טענה מתגרה או מתריסה אני מסכים שמקונל מפר את מילתו אבל אין פה שום עבירה לא על חוק ולא על…  YiftachDayan השאלה מה אני רוצה היא נפרדת השאלה האם מינוי שופט עכשיו הוא גנבה או איזו עבירה על הכללים  השאלה הפרג…  YiftachDayan לא יודע מה אבא שלך אומר אבל אין שום דבר לא חוקי ואפילו לא נהוג במה שמיטשל מתכנן לעשות ושאני מקווה…  מה שמצחיק זה שמולר תבע כל כך הרבה אנשים על שיבוש הליכי חקירה ואז הצוות שלו מחק את הטלפונים שהיו רכוש ממשלתי וסופקו…  YiftachDayan לגנוב איזה חוק או כלל יופר אם מיטשל יעביר בסנאט מינוי של שופט אלא אם כן אתה קורא גניבה פה להפרת המילה של עצמו NissimSofer Yanivamos3 amitaydror אבל יש נוהג ונוהג עובד כשמניחים שהצד השני ינהג בהדדיות אין שום סיכוי שהדמו…  Yanivamos3 NissimSofer amitaydror היו מינויים שנעשו ואף אושרו אחרי הבחירות אבל לפני כניסת הנשיא החדש כלומר ממש בדקה התשעים behi1954 לא שכחתי הם עשו מה שסנאט לעומתי בדרך כלל עושה הטיעון שלהם היה צביעות זה נכון אבל אין תקדים לזה שסנאט… </t>
+  </si>
+  <si>
+    <t xml:space="preserve">חתימה טובה לכל עם ישראל יישר כוח למתפללים הרבים ששמרו על ההנחיות וחשבו על כולנו סולידריות אחוות אחים ורעות הדדי…  doroniko מצחיק לקרוא כל כך הרבה שקרים בטקסט אחד תתבייש מעולם לא ביקשתי לפתוח את אולמות האירועים אלא בדיוק ההפך…  חתימה טובה רואים את ההפגנות המתריסות ושומעים את גנץ ואת כחול לבן ומיד מבינים שהם עושים הכל כדי להפוך את הקואליציה…  לפני כשעה נעלתי את ישיבת המליאה שהתקיימה באופן נדיר בשישי בצהריים  בשעה הזו היינו צריכים להעביר את חוק הגבלות הסגר…  לאור התנהלות האופוזיציה שמאפשרת הפגנות מלחמת יום כיפור השנייה בפתח התפשטות הנגיף תהיה חסרת תקדים האופוזיציה החליטה למנוע מאיתנו להעביר את החוק שימנע הפגנות בתקופת הסגר לאחר שאתמול הלכו לעולמם 61 בני אדם ואחרי שנ…  אם כחול לבן יכנעו לדרישת ה״הדגלים השחורים״ ויאפשרו להם להמשיך להפגין למרות המצב המטורף אליו נקלעה המדינה יש לפרק א…  כן גם לך כמי שעודד את קיום ההפגנות ההזויות הללו יש חלק עצום במצב התחלואה אליו התדרדרנו  aviadglickman כן גם לך כמי שעודד את קיום ההפגנות ההזויות הללו יש חלק עצום במצב התחלואה אליו התדרדרנו כחול לבן מתעקשים לתמוך בהמשך קיום ההפגנות ומבקשים להשוות אותן לגודל התפילות ביום כיפור היום הקדוש ביותר לעם ישראל…  yanircozin כמובן שזו לא היתה המטרה שלי yanircozin נורא פשוט  אני מבקש לחדד את הטענות המוצדקות של חלק עצום מהציבור בכל הנוגע להפגנות שגורמות לנזק כפול ה…  ״תמונה אחת שווה אלף מילים״ מנהיגי כחול לבן נסו להסביר לציבור למה הפגנות כן ותפילות לא  ספויילר לא תצליחו  ציוץ שלי מלפני שבועיים וחצי בזמנו עלו טענות נגד הציוץ והיו גם שתמכו היום כשהדברים מתבהרים ברור לכולם שמחובתנו לע…  החלטת בג״ץ בעניינו של הרב שמואל אליהו מדיפה ריח רע של סתימת פיות לצד מסוים בחברה הישראלית שיטות אלו מתאימות למשטרי…  מזה זמן רב יפעת שאשא ביטון אינה מתנהלת כחלק מסיעת הליכוד ואינה משרתת את מטרותיה היא בוחרת לתקוף אותנו ואת רה״מ באו…  ZvikaKlein yaakovhagoel LikudParty MakorRishon צריך לכתוב אותו באופן מפורט כדי להפריך את כל הטענות ההזויות שנ…  ZvikaKlein yaakovhagoel LikudParty MakorRishon מכתב תגובה מסודר ומפורט יפורסם מחר בעה nadavabeksis moshenayes ברור שלא יהיה פיקוח כשהמדינה שלנו לא מעורבת בדיוק את זה ביקשתי למנוע באמצעות תיאום מול…  אני ורעייתי עקבנו אחרי סיפורה המרגש והמיוחד של מירית הררי ז״ל היא לימדה אותנו את מהות החיים ואת הערך המיוחד שבהם…  BarashiKinneret סלחתי שנה טובה ומבורכת לכל אזרחי ישראל מי ייתן ובע״ה תהיה זו שנה של בריאות של אושר ושמחה  הגשתי מחדש את הצעת החוק שלי להגנה על קטינים באינטרנט לפיה חברות האינטרנט יציעו ללקוחות חסימה אוטומטית של אתרים פורנ…  0 תחלואה בהפגנות התחלואה עולה והתקשורת מחפשת אשמים שיקחו אחריות לכך שהם עודדו הפגנות המוניות בהם נתגלו לאחרונה עש…  חוקרים אותנו כי אנחנו ימין  אחרי שנחשפה המזימה לעיני כל איך תפרו לראש הממשלה תיקים  ממשיכים באליטה המשפטית לטכס…  פניתי הבוקר ליועמ״ש בדרישה לסגור לאלתר את תיק 2000 ולבטל את כתב האישום ההזוי שהוגש נגד רה״מ כמו כן דרשתי לפתוח בח…  נוח לו לאדם להשליך עצמו לכבשן האש ואל ידביק חברו זהו משפט דומה לאמירה חשובה של רבי שמעון בר יוחאי שמתאימה לנוכח…  0 מקרי הדבקה בהפגנות אין גבול לשקרים כדי לפגוע בנו  תשאירו את הטלפון בבית הפוסט של הרופאה הסערה ואיכוני השבכ  השמאל הבין שההפגנות זו דרך מצויינת לפגוע בבייס של מצביעי הימין ונתניהו  גם אם נצא מנקודת הנחה הזויה לחלוטין שאין ה…  אם יימצא גורם שפוי שיוכל להסביר למפגינים שהם לא משיגים כלום למעט הדבקה המונית של אזרחי ישראל זה יעשה שירות מצויין…  שבת שלום ⁦naftalibennett⁩ מי שרוצה לעצור את התפשטות הקורונה חייב לעצור גם את ההפגנות המסוכנות לו הייתי במקומך הי…  attilus לא תוכל לשכנע אותי וגם לא את עצמך שהמפגינים חסינים מקורונה ושאין שם שרשרת הדבקה זה לא מסובך למנוע ממשרד ה…  לא ייתכן שיוטלו סגרים על ערים אדומות בלי שההפגנות יופסקו לאלתר אין בר דעת שיוכל להסכים עם מצב בו אלפים יתגודדו ברח…  aradnir yaronavraham אני מניח שאתה מתכוון גם לתפילות המוניים באוויר הפתוח כמו באומן yaronavraham aradnir מה שאתה בעצם אומר זה שלתפיסתך אפשרי לקיים מפגשים המוניים באלפים העיקר שלא יגיעו נתונים מחש…  aradnir נכון יש עוד נתון בולט שחסר ביקורת מצד התקשורת על הסכנה הבריאותית הממשית שקיימת כתוצאה מהפגנות הללו כן…  aradnir אין סיכוי שלא תיפתח שרשרת הדבקה בהפגנות מהסוג הזה ובכל מקרה יש נתון אחד שנפגע בוודאות מוחלטת כתוצאה מהן  אמון הציבור Josifoon shayhausmann עזוב אותך שטויות בוא נדבר על יאניס אדטוקומבו שמגיע ממדינה ירוקה ועושה בית ספר לכולם אגב…  BenCaspit אין סיכוי שלא תיפתח שרשרת הדבקה בהפגנות מהסוג הזה ובכל מקרה יש נתון אחד שנפגע בוודאות מוחלטת כתוצאה מהן  אמון הציבור zalmanovitz אין סיכוי שלא תיפתח שרשרת הדבקה בהפגנות מהסוג הזה ובכל מקרה יש נתון אחד שנפגע בוודאות מוחלטת כתוצאה מהן  אמון הציבור נעטה מסיכות נשמור על מרחק נמנע התקהלויות של יותר מ 20 אנשים ונשלח את ילדינו ללמוד בקפסולות כלום לא יעזור כל עו…  ivgiz זה ממש לא מה שכתבתי ivgiz ציינתי עובדות זה הכל גילויי האנטישמיות באוקראינה הולכים וגוברים מאז מכתבו של פרופ׳ גמזו לנשיא אוקראינה בו בעצם נכתב שהישראלים מוכי הקורו…  החלת ריבונות עכשיו עוד לפני הבחירות בארה״ב  האמירות החשובות והמעודדות שמגיעות מבכירי האמירויות לכך שהחלת ריבונות…  roeebe אתה קצת ילדותי לטעמי אבל בסדר roeebe הסיכום שהושג הוא שאם יימצא לזה רוב בועדת השרים החוק יוכל להתקדם ולצערי הרב נכון לעכשיו אין לכך רוב וגם אין…  roeebe כן ההחלטות הללו מרסקות את סוכני הביטוח מה שיביא לאובדן הכנסה של עשרות אלפי משפחות שלום כיתה א׳ לבן הזקונים שלנו  דניאל המקסים בין כל הטירוף של החיים בשגרה יום יומית לא פשוטה אלו רגעים מרגשים וב…  למען הסר ספק ברור שבכל מצב יש לעמוד על החזרת כל השבויים המצויים בעזה כולל אברה מנגיסטו והיאשם אסייד טוב היה אם ההסכם שהושג עם החמאס היה כולל את השבת הבנים הדר גולדין ואורון שאול ז״ל ברור לכל שהם מצויים בלחץ גדול לא…  EytanAvriel מה ההימור שלך ממשלה שמנוהלת ע״י פקידים זו לא ממשלה  זמן למשילות זמן למנהיגות yairlapid אתה צודק ומוטב שיקבלו החלטות גם בעניין ההפגנות המטורפות שלכם ההחלטה להקים צוות שרים לעניין הנסיעה לאומן נכונה חבל שהיא מגיעה מאוחר מדי יכולנו למנוע את המבוכה בהחלטה יותר מהיר…  חקיקת פסקת ההתגברות צריכה להיות תנאי להמשך קיום הממשלה  בזמן ששופטי בג״ץ ממשיכים למתוח את החבל השמאל אומר שהימין…  כשמדובר בהרס בתים של יהודים  בג״צ לא מבזבז רגע אני חושב על המשפחות של של דביר שורק ועמית בן יגאל הי״ד ואין לי דרך…  הגיע הזמן לאסור הפגנות המוניות בדיוק כפי שאוסרים את הנסיעה לאומן  צפו בסרטון מילים כדורבנות  אחרי שחטפתי ביקורת על עניין הנסיעה לאומן עמדתי מתבהרת כנכונה במקום להערך לנסיעה מבוקרת ומפוקחת של מאמינים ולהפחית…  KnessetT yanircozin אין כמו הגורמים הבכירים בליכוד כבוד  bezalelsm בצלצאל אתה אתה פשוט לא מצליח להמציא את עצמך מחדש  אתה חייב לחזור לקואליציה כי זה כבר מביך נכון לעכשיו קיימות 85 טיסות לאוקראינה לקראת ראש השנה מדובר בכ 25000 מקומות טיסה פתוחים אני פועל להסכמה בין כל הג…  דוקטרינת לפיד כן להפגנות המוניות ואנרכיסטיות לא למימוש האמונה של אלפי יהודים שנוהגים להגיע לאומן כדי להתפלל זה כ…  gontarzn JoshBreiner  gontarzn JoshBreiner קצת עבודה עיתונאית תניב לך תוצאות ברורות לגבי עמדתי בעניין עבודת המשטרה ״יש הבדל עצום בין ע…  aviadglickman הכל בסדר אביעד העיקר שלא תתחיל להאמין לעצמך aviadglickman בבקשה  JoshBreiner קצת עבודה עיתונאית תניב לך תוצאות ברורות לגבי עמדתי בעניין עבודת המשטרה ״יש הבדל עצום בין עבודתה הטוב…  aviadglickman קצת עבודה עיתונאית תניב לך תוצאות ברורות לגבי עמדתי בעניין עבודת המשטרה ״יש הבדל עצום בין עבודתה הט…  bezalelsm ניכר שהאופוזיציה לא עושה לך טוב מסתבר שאתה לא מהסס להפיץ שקרים ובלבד שתצליח לפגוע בליכוד אני חייב להו…  ראש הממשלה קיבל את פשרת האוזר מתוך ראיית טובת אזרחי ישראל כל הספינים התבררו כשיקריים כל הטענות נגדו התבררו כאשליה…  אהוד ברק משחית את ישראל  הגיע הזמן שימסור תשובות ברורות כדי שהכל יהיה שקוף לגבי מימון הפגנות האנרכיסטים שמסכנים את…  notkin1985 arik3000 תקרא ותבין אתה גם מוזמן להמליץ לה להתנצל notkin1985 arik3000 היה יותר סביר אם היית מעיר על כך שהיא כתבה עליי את אותם הדברים התחרפנתם איבדתם כל צלם אנוש סימה קדמון מידיעות אחרונות  הפנים המכוערות של התקשורת הישראלית ניתן לזהות מגמה מאוד ברורה של שופטי העליון בפסק הדין מהיום בעניין הוועדה למינוי שופטים  ״טוב יהיה שנציג האופוזיציה…  IsraelGaley ZivMaor michaeldvorin סירבתי לעלות אצלכם מוזר כי אתם אחת התחנות האהובות עליי משום שאתם באמת מייצגי…  ניתוח מעניין   השתתפתי היום בשדולת ארץ ישראל בראשות ח״כ חיים כץ וח״כ בצלאל סמוטריץ׳ אני בטוח שהם יעשו עבודה חשובה ומועילה למען הה…  שבוע טוב פטירתה של רות גביזון ז״ל היא אבדה גדולה שכן היא היתה קול של שפיות מלא בהמון ערכים וחוכמת חיים שהיתה טבול…  בירכתי את רה״מ על ההישג המדהים והבעתי בפניו את דאגתי לעניין הריבונות משום שמדובר בהזדמנות שאסור לפספס לשמחתי תשובת…  Bluemin25434002 OfirKatzMK זו אחת מהתגובות הדוחות שקראתי התמונות המחרידות שפורסמו מגן הילדים ברמלה מזעזעות את כולנו בע״ה נעשה הכל כדי לקדם את החקיקה החשובה של ח״כ…  BenCaspit בכיינות אתה אמיתי הופנו כאן דברי הסתה מיניים מכוערים ומבישים כלפי רעיית רה״מ ומבחינתך זו בכיינות ת…  ivgiz netanyahu חבלז  ivgiz netanyahu למה לסכסך שלחו לי צילום של שלט תלוי על אחד הגשרים בישראל  להערכתי זה בוצע ע״י אנשים שאינם חלק מאוהביי אבל אתם חייבים להודות…  בואו לעקוב אחרי גם באינסטגרם gtgt    ראיון מהערב במהדורת החדשות של כאן 11 מוזמנים לצפות  mottyn חזק  כוחו של הרגל  צו בג״צ שניתן עכשיו ומורה על ביטול הריסת ביתו של המחבל שרצח את החייל עמית בן יגאל הי״ד מוכיח שוב כי האינטרס של מדי…  שמחתי לראות התנהלות מעולה ויעילה של סיעת הליכוד בשבוע שחלף רק בזכות עבודה משותפת בע״ה נוכל להביא עוד המון הישגים…  LikudHadashim ענק  רה״מ ללפיד ״היית כתב המחנה היום אתה צייצן המחנה״ אין תיאור יותר מושלם מזה למר לפיד שמציג את עצמו כמועמד לראשות הממשלה וכמובן תודה רבה גם לכל מאות האנשים ששיתפו את הפוסט תודה לאלפי התומכים והמגיבים על החיזוק והתמיכה בעקבות מה שכתבתי לכם מעומק ליבי זה פשוט מרגש בע״ה נמשיך לעשות ובע״ה…  צר לי לבשר שעמדתי לא התקבלה הליכוד לא יצביע בעד פסקת ההתגברות אלא ייעדר מההצבעה לאחר בירורים ובדיקות היה ברור שהצ…  YuvalKarni shlomokarhi זו לא הדחה שטות התפקיד היה שייך ליו״ר הסיעה מאז ומתמיד לגיטימי שאחליט למלא את התפקיד ששייך לי לא צפו בח״כ אריק קלנר ArielKallner וח״כ קטי שיטרית shitritketi מוצאים מח״כ כסיף את ה״אמת״ לצערנו זו האמת של השמאל…  שלושת הכ הסיפור האמיתי הבחנתי לאחרונה שהסיפור הזה עושה גלים בלי שום קשר למציאות ולאמת שלי הגיע הזמן שאענה למתנג…  raananshaked לא רק שלא אפסיק אלא בע״ה אשתדל להגביר בע״ה אמליץ לנתניהו לתמוך בפסקת ההתגברות שיעלה השבוע אסור לנו ללכת נגד הבוחרים שלנו כל מילה  IshayShnerb בנתיים לא הוכרע אולי השבוע שבת של שלום לכל עם ישראל דברים נהדרים של ח״כ טסלר על השבת ״כי היא מקור הברכה״  מצטער על ההטרלה אבל הייתי חייב לשתף אתכם בסרטון שקיבלתי מאנשים מדהימים בקרית גת שבאו לנצח את מפגיני השנאה באמצעות ש…  מפגיני שמאל הגיעו להפגין ליד ביתי בפעם השנייה עוד הוכחה שאני בדרך הנכונה מצרף לכם תמונות של מפגינים שמייצגים את ה…  yarivop בתקופת קורונה שמאיימת על בריאות הציבור ועל כלכלת ישראל ״חסרות פרופורציה״ זה אנדרסטיימנט בתקופה האחרונה אנו עדים לעלייה מדאיגה במדד השנאה כלפי רה״מ והליכוד הפגנות חסרות פרופורציה התבטאויות משולחות רסן ו…  צום ט׳ באב נועד להזכיר לנו שבית המקדש נחרב בגלל שנאת חינם על אף שלאחרונה אני מרגיש זאת על בשרי כמעט מכל כיוון מהש…  לא קיימים 12 ח״כים שחתמו להעברתי מהתפקיד ברור לכולם שתעשיית הפייק ניוז בתקשורת פועלת נגדי בדיוק כפי שהיא פועלת נגד…  אני מודה לרה״מ על הגיבוי בע״ה אמשיך לעשות הכל למען עבודה תקינה ויעילה של סיעת הליכוד  elicoh1 אוהבים אותך אלי תבוא להצבעות תפקידי וחובתי לדאוג לשלמות הקואליציה לאחרונה יש התרופפות במשמעת הקואליציונית אשר מקשה עלינו לפעול למען עם ישראל…  שמחתי לשמוע על החלטת שר האוצר לשדרג את הצעתי ולהעביר 300 ש״ח החל מהילד החמישי זו בשורה מעולה לכולם שמראה את נכונות…  הצגתי לועדת הכספים הצעה מאוזנת כדי לצמצם את הקיפוח בין ילד לילד הילד הרביעי יקבל 500 ש״ח החמישי 250 ש״ח והילד השי…  UriahCanaff נוהל קבוע כדי להתנהל באופן שוטף ויעיל מחיקת כל ההודעות והשיחות שקיבלתי וטיפלתי בהם באופן גורף תנסה ל…  בזמן עבודתי בכנסת בעודי משרת את עם ישראל וממלא את שליחותי הציבורית  הגיעו כמה פעילי שמאלקיצוני ואנרכיסטים להפגין…  הנה לא ינום ולא ישן שומר ישראל  מבקש לברך את חיילי צהל בגבול הצפון על התגובה המהירה והיעילה שטרפדה את חדירתם של…  arik3000 ברור שתודרכת בשקרים וחבל שהפצת אותם האמת שזה מפתיע אותי משום שבדרך כלל אני רגיל שזה מגיע מכתבי השמאל אל…  AssafYNews AmichaiStein1 kann  שבוע של הכרעות attilus לאחרונה הפכת לכתב מתודרך מדי ולכן אני בוחר להפסיק להתייחס לדבריך תצליח יקירי החיבור הפוליטי בנינו לבין כחול לבן לא יוכל להימשך אם לא יחול שינוי המצב שנוצר מביא לחוסר היציבות של הממשלה מה שגור…  הממשלה הציעה פשרה סבירה למסעדנים על מנת לסייע להם לעבוד בהתאם לנסיבות לצערי יור הועדה נפלה למלכודת שטמנה לה האופו…  תגובה לדברי גילה גמליאל עליי ״כנראה שהעובדה שהיא וישראל כץ נתמכו יחד ע״י ״הליכודניקים החדשים״ הפכה אותם לבני ברית…  לאור מתקפת הציוצים של השר ישראל כץ אני מציע לו להירגע ולהתחיל לעבוד למען אזרחי ישראל תוך שימת דגש על קשב לצרכים ול…  מופע אימים של ח״כ אלי אבידר כשלא נוח להם הם תוקפים את היועמ״שים וכשנוח להם הם מגינים עליהם תהיו בטוחים שאם איש ל…  BenCaspit פתטי בעיני לנסות לבדוק גושים כדי לשקף את כוחו של הליכוד פשוט תבדוק את תוצאות הבחירות ותגלה שהליכוד עלה…  BenCaspit אין ספק ש 11 שנות כהונה מצוינות מעבירות רבים על דעתם ברור שגם אתה אחד מאלו המסרבים לעכל את האמון המתמשך…  אזהרת מסע לאנשי הימין בימים האחרונים וכנראה שגם בימים הבאים אנו עדים למסע הסברה מתוזמן ומתוזמר של אנשי השמאל בגיבו…  chaimlevinson ובכן החלק הזה נועד בעיקר כדי לחדד מי יזם את ההפגנות הללו ומי מוכן לסכן את כל הציבור רק כדי לממש את שנאת החינם שלו chaimlevinson היי חיים הוירוס לא מבחין בין שמאל לימין ובלי שום קשר לסיכון הבריאותי עיקר הבעיה שלי בהפגנות היא ח…  לאשר קיום הפגנות המוניות שמהוות סכנה בריאותית לכל אזרחי ישראל מצד אחד ולסגור עסקים רבים ששומרים על ההנחיות מצד שני…  attilus יש מצב שאלו תחושות דומות לאלו שחשת כל פעם כשסברת שנתניהו לא יישאר ראש הממשלה גם לי יש תחושה אתה שוב טועה avishaigrinzaig היי אבישי נראה קצת טרחני חלוקה כספית לכלל הציבור שונה מחלוקה לבעלי עסקים אותם ניתן לאמוד בהתאם ל…  כבר אמרנו לכם שיש פה תקשורת הוגנת  בעניין הפרסומים בעניינה של איילת שקד שהתמודדה לועדה למינוי שופטים ודיינים המצב ברור וגם התוצאות הליכוד נאבק למען…  הנה לכם קריאה למרד מטעם ח״כ מרשימתו של יאיר לפיד שבגל הראשון עוד הציע לציבור להפר את ההנחיות עכשיו זה ברור יצא…  סיעת הליכוד תתמוך באיילת שקד כנציגת האופוזיציה בוועדה למינוי דיינים המשבר הבריאותי והכלכלי שפקד אותנו ואת העולם הוא אתגר לא פשוט אנחנו עושים כל שיש ביכולתנו כדי לתת פתרונות הכי טובים…  לפני זמן קצר התקיימה שיחה בין ראש הממשלה ויו״ר הכנסת יריב לוין יחד עימי בתום השיחה החלטתי שינקטו כנגד ח״כ שאשא ביט…  החלטה של ח״כ יפעת שאשא ביטון היא בניגוד לעמדת גורמי המקצוע ושר הבריאות וגם מפרה משמעת קואליציונית צר לי שחברת כנסת מהקואליציה בחרה בדרך פופוליסטית וחסרת אחריות על גבם של הרשויות הנלחמות למניעת מגפת הקורונה והחליטה…  וואו ברוך ה איזו תוצאה מדהימה עבדנו קשה מאוד ועשינו את זה עם 1025 חברי מרכז שתמכו בי שעזרו לי לסיים במקום הראשו…  השתתפתי היום בפגישה חשובה יחד עם ראש הממשלה ושר האוצר על מנת לשמוע את המצוקות האמיתיות של כל ראשי האירגונים המייצגי…  חברים וחברות יקרים   מזמין אתכם לקרוא ראיון נרחב וחשוב למוסף שישבת של ישראל היום  אני בטוח שהבעתי היטב את מה שא…  BenCaspit בעיני זו תגובה מיותרת אפילו מבחינתך הוצגה היום תוכנית כלכלית עצומה אני בטוח שבע״ה היא תביא ליציבות הכלכלית הדרושה לאזרחי ישראל בעת המשבר הזה לכל אלו…  ההחלטה להצביע בעד ועדת החקירה לבדיקת ניגודי העניינים של השופטים נובעת אך ורק מהרצון שלנו לעמוד בציפיות של הבוחרים ש…  הליכוד יצביע בעד ועדת החקירה לניגודי עניינים של שופטים עניין ועדת החקירה לניגודי העניינים של השופטים שמביא ח״כ סמוטריץ׳ נדונה ברגעים אלו בקרב חברי הקואליציה טרם התקבלה ה…  AssafYNews TzachiHanegbi אני כותב את זה רק כשהטקסט מיועד לאנשים כמוך המשימות שלפנינו לא פשוטות הן במשבר הכלכלי העצום שנוצר והן במשבר הבריאותי אנחנו פועלים ברוב שעות היממה למען אזרחי…  עמדתי לגבי התקציב אינה קובעת ההחלטה נתונה בידי גורמי המקצוע והממשלה נמתין להכרעה ונפעל בהתאם להחלטות שיתקבלו ע״י ראש הממשלה ומשרד האוצר מנדלבליט פעל בניגוד עניינים בכך שעסק במימון הוצאות המשפט של נתניהו הרי מנדלבליט המשמש כתובע הראשי במשפטו של נתניהו…  אני מבקש להודות לרה״מ על התמיכה בי בבחירות לליכוד העולמי בע״ה בנוסף לתפקידי כיו״ר הקואליציה אדאג לפעול גם שם למען…  הפעם זו רק ״התנשאות מבישה״ כנראה ש״יש עתיד״ לא שולטים בזה הגישה המזלזלת והמתנשאת שלהם כלפיי אנשי הליכוד הפכה לשגר…  צביעות קווים לדמותה  בזמן שמדינת ישראל נלחמת בנגיף הקורונה ומתמודדת עם אחד המשברים הגדולים בתולדותיה עם חולים ששוכבים בבתי החולים ושכירי…  כן להחלת ריבונות לא למדינה פלסטינית  ״אוי לה להתנשאות האשכנזית״ עצוב לראות כיצד ישראל כץ המשמש כשר האוצר של מדינת ישראל יורד נמוך רק כדי להצדיק את החלטו…  אני מברך את רה״מ netanyahu על היוזמה החשובה מול שר האוצר להאריך את דמי האבטלה לזכאים עד לאמצע אוגוסט זה מהלך חשוב…  amsterdamski2 אז מה שאתה מציע בעצם זה שרה״מ היה צריך לשלם כ 600000 ש״ח כדי שאתם בתקשורת תמחאו לו כפיים אני חושב…  לכל המבקרים שניתן להבין אותם בעניין העיתוי בו החלטנו לפתור את בעיית המיסוי של רה״מ להלן הבהרה חשובה רשות המסים ל…  JudyMozes היי ג׳ודי תודה אבל לא תודה אגב מציע לך לנסות מדי פעם לוותר על השנאה התהומית שלך לרה״מ ומשפחתו זה יכול לעשות לך ממש נעים עזבו אתכם ימין ושמאל צאו מהפוזיציה לרגע   נראה לכם הגיוני שראש ממשלת ישראל  העבודה המורכבת ביותר במזרח התיכון וא…  היי בצלאל איפה הייתם כשאותו צו בדיוק אושר בתקופת בנט כשר הביטחון  לעולם לא נכיר במדינה פלסטינית  רהמ הודיע אתמול בישיבת הסיעה שבכל קונסטלציה הממשלה והכנסת לא יכירו בעיקרון של הקמת…  roeebe אני חולק על עמדת שר האוצר דאז ייתכן שהגיע הזמן לשנות אותה roeebe החוק לעידוד תעסוקה היה עובר ביום בכל מקרה בין אם בנוסח שאושר ובין עם תיקונים שהיו מיטיבים עם הציבור לעניי…  roeebe וואו רועי איזו היסחפות ניכר שאתה לוקח ממש קשה את ההישג שלי למען ענף הביטוח בכלל וסוכני הביטוח בפרט ברגע…  מעדכן שהגשתי רוויזיה על החוק המענקים כדי להיטיב עם הציבור בע״ה אבקש להעלות מחר את החוק לדיון מחודש בועדת הכספים על…  אני מסכים כולנו חייבים לשמור על מערכת המשפט מוזר בעיני שאתה AviNissenkorn כשר המשפטים מתעלם מהפירסומים המדאיגים…  ״באורח פלא״ חלק גדול מהתקשורת הכלכלית מסייעת לחברות האשראי להפוך לסוכני ביטוח לא תהיתם מדוע בזמן שחברי הכנסת נאבק…  היה מצופה משר האוצר להאבק למען אלפי סוכני הביטוח כמו שנאבק למען ענף המוניות במלחמתו באובר ההחלטה לאפשר לחברות האשראי להיכנס לשוק הביטוח יכלה להיות נכונה אם היו הופכים אותן לחברות ביטוח כשמצ׳פרים בשביל רפו…  העסקים בסכנת קריסה המובטלים לא חוזרים לעבודה כי אין את חוק המענקים מ הבריאות מוגבל בטיפול בקורונה ובמה עסוקה האו…  בג״צ ממשיך בהתערבות הגסה שלו ומבטל את חוק ההסדרה הפגיעה היא כמובן במפעל ההתיישבות אך גם ברשות המחוקקת אין מנוס מפ…  סיכמתי עם יו״ר ו הכנסת  איתן גינזבורג על העלאת החוק שלי למניעת כניסת חברות האשראי לענף הביטוח לאישור בועדת השרים…  תמונה מההפגנה היום בתל אביב דגלי פלסטין וקריאות נגד מדינת ישראל כפי הנראה מדובר בחבורת אנשים מנותקים מהמציאות מל…  היום נכנסתי לראשונה לתפקידי כסגן יור הכנסת וניהלתי את ישיבת המליאה  אני חייב להודות שמדובר במעמד מרגש  מאחל לכול…  YakiAdamker יקי יקירי YakiAdamker אין מילים לנחם אתכם בצערכם הגדול בע״ה שלא תדעו עוד צער ומי יתן והקב״ה יפצה את…  steinitzyuval תודה רבה יובל האמת שבמקרה הזה אולמרט יצא מאוד משכנע  NirBarkat תודה רבה OfirKatzMK תודה רבה אחרי יום מתיש וקשה אני מלא בהרבה מאוד תקווה ובעיקר גאווה רה״מ בנחישותו ואמונתו בצדקת דרכו נותן לנו את הכוח להמשיך…  ממשיכים לעבוד למען אזרחי ישראל  עיד אלפיטר מבורך לכל המוסלמים בע״ה שנזכה לשגשוג ופריחה במדינה ונדע נחת ובריאות  GLZRadio YaelDan1 ציוץ שיקרי שמוציא מהקשרו את מה שאמרתי חבל מאוד שתעשיית הפייק ניוז שלכם מסרבת לדעוך רה״מ תודה  מסתבר שעובדים קשה בשביל להקים ממשלה  היום ה 55 ואני מניח שחלקים מאיתנו שכחו מהו המועד המיוחד הזה זהו יום הולדתו של רון ארד שטרם שב הביתה כולנו תקווה…  הסתיים הדיון בבג״ץ אם תתקבל החלטה הזויה שתמנע מרה״מ לכהן בתפקידו נלך לבחירות ובע״ה ננצח אם תתקבל החלטה נכונה בהת…  DaphnaLiel DirectPolls ככה זה שהציבור חכם yanircozin ברור במיוחד כשהיא על חשבוני yanircozin הכל נכון למעט העובדה שהשיח הזה התקיים בין היועמ״ש של בוועדה לבין מיקי לוי מיש עתיד יום עצמאות שמח גאווה אדירה עבורי להיות חלק מהעם הנפלא והמיוחד שלנו ואני מודה לקב״ה שהעניק לי את הזכות הגדולה לשרת… </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hemdacohen2 ברור ונגנים וזמר וילד קטן שרואים בסרטון הזה גם היו איתם כל הזמן פחחחחח pL7D1FqaohiX3fh בטח שקרנית יש לך ראיה אחת אין לך ולא למלך שלך pL7D1FqaohiX3fh שני ערוצי טויזיה ומשה ויסברג עיתונאי חרדי רציני אבל מה אכפת לך עובדות את ביביסטית תומכת בשקרן…  pL7D1FqaohiX3fh כלל גדול ביהדות המוציא מחברו עליו הראיה אין לך ש ו ם  הוכחה גם לא של אנשי המקצוע על ההדבקות בה…  harelorbach arianamelamed rachelhsh מצטרפים בוואטסאפ עכשיו  קבוצה 13    קבוצה 14  CoronaHorowitz הכחול היום שחור מאוד  והלבן היום שחור מאוד  רק שחור ואין מה שיסתיר הנאשם היום נבצר מאוד  והעתיד היום עבר מאוד  רק אסור… כחול לבן צפויה לתמוך בהגבלת ההפגנות בחוק סמכויות הקורונה ולכן בואו להפגין לצעוק להם את מה שאתם חושבים עליהם כל…  אני רק אניח את זה כאן  orlyzuk כן יאיר גולן הגיע  צילום און עזריאל  קרדיט מישל קישקה  אין כמו הנחישות של רועי פלג מלח הארץ  תראו מי הגיע לביקור אצל בני גנץ רועי פלג והצוללת אנחנו אזרחי ישראל דורשים ממך לגדל עמוד שדרה  ממשיכים להגיע מפגינים  שרים לבני גנץ לא לא לא ניתן דיקטטורה לכונן  וצועקים לא לעוצר פוליטי  את ההפגנה הזאת אי אפשר להפסיק המשטרה דווקא ניסתה בדרך רחוק מהבית של גנץ מחסום שוטר ששמו מיכאל מודיע שאסור לעבו…   TimothyDSnyder The same is true for Israel Ariana Melamed HaAretz ההיסטוריון טימותי סניידר מחבר על הרודנות הוא המנטור שלי לענייני דמוקרטיה במשבר צמיחתם של רודנים וגלישה לדיקטט…  להתראות סדי   P9YP8OcFh0mndCQ hadarse הביביסטית מייחלת למוות של מעשהע ואני מסיתה תגיד לך לא כואב הטמטום שלך dimikolo arianamelamed יסוד המעלה  tFFi0gf5qNStTsH אני מבקרת שם לפעמים אנא פרש את דבריך  צומת נהלל   הפיצו ובואו  BarNahum5 סליחה שרימיתי סליחה שגנבתי סליחה ששיקרתי סליחה שפילגתי סליחה שסיכסכתי סליחה שפגעתי סליחה על מיקי זוהר סליחה על שוחד סליחה ע… pL7D1FqaohiX3fh מאד מקווה שהטמטום לא כואב לך PTzachi rikycohen4 באמת אז שכל אחד ימחה בשקט בזום עדיר כמאל מריח מסבירה משהו לדודי אמסלם ממתק  sadibenshitrit ברוך שובך סדי התגעגעתי PTzachi rikycohen4 ברור כי השלטון השמאלני רודף אותם לא מאפשר להם לצאת מן המדינה מגביל את זכויותיהם ומונע מהם חופש דת mandela40415358 תמשיך לחלום בקרוב ניפגש בבית משפט שדרות רוטשילד תל אביב  אבקש רק לחדד איננו חיים עדין בדיקטטורה יש לישראל מוסדות אזרחיים מתפקדים אבל נתניהו מבקש לחרב אותם בדרך לרודנות ש…  הדבר הזה עדיין כאן twitter חשבתי שאתם לא מעטדדים קריאות לאלימות  אבל ככר פריז  Yoglas74 מכירים חשמלאי להיום באזור קיסריה זה קצת דחוף DafnaMaor BoazCohen נכון mandela40415358 עוד דניאל חקלאי אנא הכן מכתב התראה לפני תביעה על פי חוק לשון הרע לאיש הזה אם זכור לי נכון הכינ…  RamiDar omrimaniv רק שאני לא מדבררת כלום אני דוברת של עצמי במקרה הטוב hazyossi omrimaniv עוד דניאל חקלאי אנא כתוב לאיש הזה מכתב התראה לפני תביעה על פי חוק לשון הרע תודה רבה  hacklai10 shfifon omrimaniv GONENB1 לא אני לא הייתי לידו ולא דיברתי איתו אם טענות וביקורת מפריעים לו לעבוד הוא מצוי בבע…  Soloph0ne בואו לכנסת NewLikudnik הכנו לכם ציוץ לכיפור על חשבון נפש ערכים ומוסר ואז באה לאה סטולר ניצולת שואת והסבירה בשלושה משפטים את מה שכתבנו ב280 ת… Soloph0ne אפילו קציני ILpolice יודעים שהדרישה לריחוק באוויר הפתוח היא יותר פוליטית מבריאותית אני בטוח שהם לא יסכנו את בריאותם ובריא… hazyossi אתה יודע מה מציעה לך חומר קריאה ליום הכיפורים חוק איסור לשון הרע התשכה 1965 דווקאנבא לי לעשות לך שמ…  מישהו מכיר את האיש הזה אני חייבת שיחה עם אמא שלו  בדיוק ישבתי על ההליכון על המדרכה הסמוכה לככר פריז זה מה שאירע אתמול  idokius arielikobi אאוץ Soloph0ne ליל אמש יזכר בהיסטוריה של מדינת ישראל  הפגנות בכל רחבי הארץ  גשרים צמתים כיכרות מרפסות  שיירה של למעלה מ2000 רכבים שעלתה ל… הוא לא מקשיב לאנשי מקצוע פועל בניגוד לדעתם וצודק במאה אחוז  ארועי מנהרת הכותל 15 חיילים וקצינים הרוגים 139 דקו…   GONENB1 כך נראית צמרת ILpolice DovrutPolice רגע לפני שלחו שוטרים לחלק דוחות על אי שמירת מרחק  ביבסט אחד ליום  Elihas13 omrimaniv מי מתרגש כשישי הדס צודק הוא צודק הייתי שם ראיתי כיצד המפגינים שמרו על ריחוק כל עוד ישי חימר בהם בקול רועם הוא עשה זאת מד…  omrimaniv ועוד משהו עמריממניב שמעיד כל חוסר הבנה תהומי שלך אראל סגל משדר אקטואליה ובעת ששידר בשכר בכאן 11השת…  omrimaniv GONENB1 אחרי דיון בועדת האתיקה נראה מי יצחק אתה הרי יודע בדיוק מי מדברר את מי לא זכטר לי ששמי רועי נ…  omrimaniv עמרי אתה משקר ביודעין אני לא מדבררת איש במחאה אני לא מדבררת ארגון כלשהו במחאה אני לא פעילה מרכז…  AmicamBar אמא שלך חלאה UzanShoshi אמא שלך אלימה DAVIDBiton14 יש לך עבודה  לה אין Soloph0ne אז רגע עכשיו המפגינים הם לא ״מפיצי מחלות״ אלא רק ״גוררים״ אנשים להפר למשטרת ישראל יש סמכויות אכיפה מי שמפר את החוק שיעו… מה יהיה עםצההפגנות האלה שינון מגל משתתף בהן קבוע מדגרות קורונה    דקה 036 פעיל ימין תוקף מפגין בדרך לבלפור  המפגינים מכבים טלפונים עאלק  ניצב משנה רונן עובדיה  רוצה שיזכירו לו  שרק בשבת שעברה הוא גרר ודחף אזרח סתם כך וקרע לו את הגיד בכתף  עמי דיין…  עדכון המשטרה ברוב חסדה החליטה לשחרר את רועי בצדק  היי עמרי אחרי טעויות רבות מדי בדיווח של 13 על המחאה מותר ואפילו רצוי שצופים יאמרו לך בדיוק מה דעתם לא זה לא הם…  דוגמה אישית למדו מראש ממשלה כלשהו  כוח משחית כוח אבסולוטי אתם כבר יודעים  חברים רועי פלג נעצר כשביקש למנוע משוטרים להמשיך ולנהוג באלימות נגד מפגינה על גג בנין בקינג גורג  עילת המעצר הפ…  המשטרה מסלקת את המפעילים מעמדת המקרן למה באלימות  אם לא חשבתם שיש שוטרות אלימות אז יש  מי פרובוקטור  מי לא שומר מרחק   משטרת ישראל מודיעה רשמית שתשתמש בכוח נגד אנשים  שלא ישמרו מרחק ולא יעטו מסיכה  קצת אחרי 2300 את האנרגיות האלה כבר אי אפשר לכבות  איל קאהן אזרח שומר חוק צילם התגודדות של שוטרים סביב מפגין  השוטרים התעצבנו  כששוטרים מתעצבנים כבר למדנו בהפגנו…  מתווה לסיום ההפגנות לך  ובשמחה נלך הביתה  עוד פרובוקציה של המשטרה הם נחושים ליצור התקהלויות עד שנדחקו בינינו שמרנו מרחק   הצוללות הגיחו לביקור  קורינה אחותי את ובני דורך הם התקווה שלי ואנחנו החטייארים פה בשבילכם בשבילנו בשביל המדינה המשונה הזאת שכולנו או…  הגברת הזאת סבתא לנכדים מתפרנסת בדוחק  מוכרת בייגלה חם ומים בהפגנות  זה עתה חטפה קנס של 1000 ש₪ וביטול רשיון הרו…  כבר שעתיים הם מתנהלים כך  ההוראה מגבוה אין ספק  דבוקות של משטרה כחולה יסמניקים מגב סמויים  מגילים ושועטים…  משטרת ישראל מחרימה לנו  את הרמקולים      המשטרה מבקשת  לא להפר את הרעש  כש 100 מהמפגינים עוטים מסיכות  ממציאים קנסות על  אי שמירת מרחק בין בני זוג  למה הסמויים לא שומרים מרחק  במקום לחלק דוחות אולי תפתחו את הכבישים עד לכותל מה דעתכם  הצוללת חומקת כפרה על רועי פלג אחראי צוללות ומיצג הכביסה המלוכלכת של הבית בבלפור הבושה העמוקה של כולנו  יואב גלזנר מחכה לך טופז בייבי נראה אותך מפר בידוד ממציא פייק שופר עלוב שקרן קטן    סיגל עזריהו ותיקה במחאה הולעת  בין המפגינים עם שקית ובה טישרטים של אין מצב או קריים מימיסטר מה זה משנה ומפגיני…  אם המשטרה לא תפתח עוד שטחים לא נוכל לשמור על ריחוק שלא תגידו שלא אמרנו כל חמש דקות כורזים לכם רבאק  נראה שעצרו ביביסטיםלה פמיליה מתפללים בדרך להפגנה  בלפור עכשיו פתחו את אגרון הולכים ומתרבים  ובינתיים פקק תנועה ממחלף חמד עד ירושלים והשיירה מלטרון עדיין לא הגיעהונוסבאום ב 12 מדווח על אלפי המכוניות שבדרך  NitzanWaisberg הגיעו עדויות שמשטרת ישראל עוצרים אנשים בדרך לבלפור ומחלקים דוחות בטענה שהם ״מקדימים״ להפגנה טירוף  עו״ד יאיר נהוראי ה… השיירה בדרך לבלפור  אחת מעשרות שיירות יום הזעם   מפת ההפגנות לוחצים על התמונה לפתיחה  ishayhadas כל הארץ הפגנות הפגנות מצב מפת ההפגנות בכיכר ליד הבית כפי שדווחו עד רגע זה  די  לא נאפשר לנרמל את הטירוף והטירלול…  idoshiponi1 תחפש ותמצא שקרן הנה גם חווד על עוד גונן בן יצחק GONENB1  אותה תוכלו להציג בפני שוטרים מציקים  idoshiponi1 למה לעלוב במה שיקרתי כתבתי את האמת האישה היא עבריינית מורשעת שקרנית אתה מייחס לי שקר כסף על הרצפה Eranw44 dorosenblum ולכן כתבתי שהוא מורי ורבי idayan68 אתה מייחס לי דברים שלא אמרתי מעולם ולא עשיתי מעולם idoshiponi1 היא עבריינית מורשעת לא אני קבעתי את זה שיקרתי תתבע אותי בלפור עכשיו  israel67250128 קראת לי שמנה הוכחת משהו גט טקסי על חשבוני michaelrommy2 אני לא נמצאת בקבוצת סיכון אלא אם כן הסכנה היא להחלת דיקטטורה Amichaishiffer מצויין  alecyefremov תצמיד בבקשה את חווד גבי לסקי לציוץ rankarmibuzaglo שום הפיכה ושום אלימה טיפש מסוכן שכמוך יום יבוא ומשפטך ייערך אחר כך נדבר idoshiponi1 שקרן עלוב גיניתי בחריפות כל איום שראיתי על יאיר נתניהו גיניתי בחריפות כל נסיון לביזוי מיני והשפלה מט…  גזרו ושמרו בדרך לבלפור  dorosenblum דורון רוזנבלום מורי ורבי היה בין הראשונים לזהות אנא קראו  דברי חוכמה שלא הקשבנו להם בזמן  כל שישי בבלפור שרים מי האיש החפץ חיים אוהב ימים לעשות טוב שמור לשונך מרע ושפתיך מדבר מרמה סור מרע ועשה טוב בקש…  גם בגלל זה צריך לעלות לבלפור  לא בגלל שהיא מטורללת  בגלל שהטרלול שלה הוא ציווי קטגורי  בגלל שאנשים רוחפים מפחד ב…   איכשהו החרא הזה חמק ממני היום הילדים שלך ירגישו מאויימים מאיים הפח האנושי רן כרמי בוזגלו על היועץ המשפטי לממשלה…  YairGolan1 תהליכים 2020   הליכוד  וימינה חוברים יחדיו כדי לשלול את זכותנו להפגין גם אחרי הסגר כלומר לתמיד   הברית הלא קדושה של הימי… ilanilanf eranetzion Yoglas74  ולהיות בעל IQ שואף לאפס ולהיות עבד נרצע של הדיקטטור מבלפור כולל לרצוע את אזנך naomilster כל יום לפחות עשרה ביביסטים מאחלים לי למות מסרטן וזה כשהם ממש עדינים ואני לא שונאת אותם שמעתי שמחדשים את הדר שטירמר כדאי שיאיר ישלח קורות חיים לענייננו כשאביו של הפרזיט מופיע אנחנו משלמים עשרות אלפ…  שמע בנימין מוסר אביך ולך כבר  אני לא שונאת ביבטסטים מי ששונא ומשתמש בהם לצרכיו הם נתן אשל והבוס שלו על הדרך למה לא להתגזען קצת  Soloph0ne AmirHaskel הוא בסך הכל מתרגם למזרחית את מה שארופאי עדין אומר אני מתה עם חני קים  NiceGuy65663963 Machlufb Soloph0ne תגיד אתה אמיתי אתה מודד ביקורת נגד עבריינית מורשעת לפי המראה שלה מאיזו מערה הגחת ניאנדרטל miguel19554 Soloph0ne חחחח ברור idayan68 Soloph0ne אני לא עובדת פה אני לא שונאת את נתניהו שיהיה לו רק טוב שיצבור כוח כבוד וכסף יחד עם העברייני…  idayan68 Soloph0ne בהחלט ואני עדיין חושבת כך אבל איך זה קשור להיכרות שלו עם נתניהו OranAdler מצטערת שלא נתתי קרדיט בכותרת  זו עבודה של OranAdler שאין גבול ליצירתיות שלו אמן מחאה גדול  איזה כיף לחטט בארכיון של Soloph0ne גיל סולומון ולמצוא עדויות של אנשים שאשכרה ראו לנתניהו את הלבן בעיניים והרעד בי…  דודי אמסלם ברגע נושן של כנות  זוכרים זה מה שקרה כשכתבה קטנה ודבילית לא מצאה חן בעיני רעייתו  עכשיו דמיינו 5000 זמבורות  אני שומר עליך אתה עושה החלטות לא נכונות כך נהג הפרזיט לומר לאביו עפי חדשות 12 עכשיו ברור למה התרחש מחדל הקור…  תמיד אני צריכה לעשות הכל בבית הזה אתם לא מושיטים יד לא עוזרים הכל עלי אני BA MA פסי כו לו גית   כל מילה של  קושמרו  שלט בבלפור   כל מילה פוליטית מעולם לא הייתי חסידה של אהוד ברק אבל כשהוא משמיע קול אזרחי נכון וחשוב  כדאי להקשיב כדאי מאד  misscorina2 הפרזיט מאבד את זה התקף קשה צפוי מחר היא ענקית ענקית ענקית קורינה עושה שרה נתניהו ופתאום הכל ברור  כבר פירגנתם עוקב לגאונה הזאת למה אתם מחכים…  alecyefremov בדרך לניצחון הגדול עוצרים בנצחונות קטנים הניצחון הקטן של היום  הנאשם לא הצליח בינתיים לבטל את זכות ההפגנה בישראל על אף… בלפור מחר 2000 חוקי  r0OUYRzZIuajmtj כדי לפתוח באש על מפגינים AmosSchurr לא תפסיקו לחייך   ShragaTichover oferdann ומי בטרמפ איתך משפחה גרעינית הסתה רדיואקטיבית  GalilaWengrow attilus  דמוקרטיה היא שיטת המשטר שבה מגבילים זכויות אזרח רק בחוק להתראות בבלפור מחר 2000 בקיצור נפגשים בבלפור מוצש בנוהל אם המשטרה רוצה ריחוק חברתי שתאפשר שטח הפגנה סביר עד כה לא הסכימה  הכל מטומטם כבר היה   מתוך חקירות נתניהו במשטרה  רמת אמינות של ראש הממשלה  קצת מתחת לטופז לוק לאכשיר  יפה שנזכרתם  10destroy עצוב שהימין מלא טמבלים לא תמיד היה ככה אם קלמן ליבסקינד מספר לנו שחבורת השופרות היא פיגוע תקשורתי  מי אני שאתנגד  OranAdler ההפגנות זו מדגרת קורונה ומדגרת אנרכיה  וכך נראה הלילה הסגר במאה שערים מסיכות שוטרים מה פתאום א שיינע סגר והעיקר שאסור להפגין  זוכרים את דר יעקב ויינרוט המנוח פרקליט המשפחה בראיון האחרון שלו בעובדה כשהוא גוסס מסרטן  ניסה כמיטב יכולתו ל…  טוב זה גאוני   בוקר טוב מהכנסת  תקנות הסגר לא יהיו בתוקף עם התחלת הסגר קסם  saragusti בסך הכול 68 ח״כים השתתפו באחד הדיונים המשמעותיים ששללו מאיתנו את זכות ההפגנה כמחצית מחברי הכנסת בחרו לא להביע עמדה איזו בו… GadeerMreeh לא נעים לכם תתפטרו  democratimOrg מכתב מ11 ארגוני מחאה ל נשיא המדינה ראש הממשלה ראש הממשלה החליפי נשיאת בית המשפט העליון היועץ המשפטי לממשלה מבקר המדינה… שרים לילה לילה עם אחינעם ניני  שוב דוח על מסיכה הפעם על ידי יסמניקים  למה הם משפילים מפגינה  התגובה בככר הדמוקרטיה להתפטרות של יזהר שי   מלך ואזרחים כולם שווים בפני החוק   שלט ענק למחדל ענק עוד יותר  הפגנה בבלפור כיכר הדמוקרטיה מלאה אזרחים בעת הזאת שתיקה היא ונייטרליות היא פשע אומר א יר השכל ואנשים יושבים בשק…  לא בקלות נתנו למשטרה לגרור את רכב ההגברה שלנו לא בלי מאבק אזרחי  המשטרה הביאה גרר כדי לפנות את רכב ההגברה החרימה ציוד ועצרה את שרלי עייש זה לא המעצר הראשון של שרלי במעצר הקודם ה…  Yoglas74 תשלח לערות דרכי הטרדה מינית היא עבירה פלילית שנתיים בכלא YuvalLeshem arianamelamed  YuvalLeshem arianamelamed  SchibyAmir הכהה ביביסטים הגיעו לבלפור  האיש בטישירט רמי בן יהודה אמיר השכל עלוב נפש שיזיינו אתכם השמאלנים  פעילים ותיקים  של…  אין לנו דמוקרטיה אחרת יש בה מקום למפגין ולשוטר אבל לא למי שמפלג ביניהם  התחילו בהפגנהמגיע פקח עיריה עם שוטר ומחלקים דוחות    freyisrael1 סך הכל נחמד שהולכים לחנוק את כולנו בבתים ולהסב למשק נזק של מיליארדים בזמן שאת ההנחיות הבסיסיות לא טורחים לאכוף אין על הר… TomerMichelzon החשמלאי שמגיע ביום כיפור לקיסריה יוחרג מהסגר חברה חובבת כביסה שואלת NitzanWaisberg </t>
+  </si>
+  <si>
+    <t>DavidLifshitz די ראיתי אתכם ביחד בהופעה של אוזי roykatz פנדמיה של אמת ולפני הקורונה היתה פה ממשלה ולפני הקורונה מישהו דאג לכם ולפני הקורונה קיבלתם תמורה למיסים במקום לתפוס… Mickeygitzin מיקי  נראית 66 avivatlas odedkramer barzik vlvl היי אביב זה פרוייקט עצום תפעולית ופיננסית ומתבצע בארץ מאד מהר ביחס למקומות אח…  nivshai שי תודה cch444444  ומי ידאג לך לטלויזיה  avivatlas היי אביב שלח לי מספר טלפון ואבדוק zako74 עודכנתי בבוקר zako74 בן מצטער על עגמת הנפש שלח לי מס׳ טלפון ואטפל TomerLotan אנחנו אלופי העולם ב״לתפור״ פתרונות לאלתר להמציא לקמבן וליזום הכי טובים כש״יורים עלינו״ ככה הפכנו למדינה ממציאה מובילה… yonibloch שלח כתובת ב DM yonibloch היי יוני  באתר שלנו אפשר לבדוק תחזור yonibloch  תומר מדייק  akivanovick כל כך חבל   אחד העיתונאים היותר חכמים סקרנים והגונים NoamGershony If we can do it so can you WearAMaskSaveALife  jessfeet  ZShilon  amsterdamski2 שאול רק סלקום tv השילוב הנכון של מוצר אינטרנטי ומתקדם הרבה תכנים כולל HBO ומחיר מצוין עושים גם הובלות cch444444 cellcomil ויקטור תודה חיפשנו משהו מדויק חול שוויצרי נבדוק את זה שבת שלום barkomforty היי בר  בודק את זה בינתיים מחזיר לך את הפתק  rahelibindman daveden11 נדב  תודה רחלי תודה   ofercorn תודה עופר Undercontrol200 barzik LaviShiffman מדויק zeevelkin מזל טוב זאב kann כאן מתרגשים לחשוף את הקליפ המלא של שחור לבן כחול לבן   בפעם הראשונה בשילוב של תחקיר עומק כוח מחשוב עצום ויוצרי וידאו וטכנ… michallovo akivanovick מיכל תודה וחג שמח MosheIce תודה מטפל akivanovick עקיבא רבי  אני אמנם מספק קווים כשרים אבל לא מאזין להם gadperez נראה שרשתות התקשורת עמדו בעומס והחשש מפני תקלות לא התממש סלקום מעריכה כי 100 אלף משפחות עשו שימוש בזום בליל הסדר מדובר בגי… arielschnabel תהיו יוסוף  Irisleal15 לצד המגלומניה של אתה בחרתנו ואור לגויים אין לפרטים בתוך החברה שלנו שום תחושה של זכאות האין זה מדהים חברה שלא חושבת שמגיע… במענה לבקשת אנשי הוראה הודענו אתמול שהגלישה ל zoom וסקייפ תהיה מחוץ לחבילה ובהמשך לפניות גם ילדים חרדים שלומדים דרך…  974jxh Dannyhbrown YoavCM טופל  ילדים שלומדים וכל מי שרוצה להאזין לשיעורים יוכל לעשות זאת ללא עלות בתקופת המשבר…  menachemgerst Dannyhbrown YoavCM אם אין בעיה טכנית נוסיף אשתי רכזת וחושבת שהמשוב עדיף 974jxh Dannyhbrown YoavCM היי אנחנו לומדים איך הדברים עובדים בדיוק בכדי להתאים פתרון שיאפשר לתלמידים להקשיב כאוות נפשם Dannyhbrown YoavCM דני  תודה שהפנית את תשומת ליבי  לא יהיה ילד שלא ילמד משום שאין לו גלישה  בעקבות זאת הודענו…  Irisleal15 פעם פעם בסבב הבחירות הראשון באפריל 2019 היה אחד אבי גבאי שלמד את כל בעיות מערכת הבריאות הוא הסתובב בבתי חולים דבר עם רו…    אז איך ייראו החיים שלנו אחרי הקורונה  הגירסה האופטימית RonHuldai הממשלה החליטה להפסיק את עבודת המורות והמורים בלמידה מרחוק לא ייחסך כסף רק יתווסף עלבון לציבור שהוכיח את מסירותו הפעם בחז… roykatz רועי אני חושב שזו היתה יונה 10elilevi zviashkenazi HavodaParty תודה אלי zviashkenazi HavodaParty תודה רבה לך צבי  dandayan דני יקר תנחומיי YoazHendel1 תודה יועז YaakovLebi תודה יעקב kunikran תודה חבר cohenmeirav תודה מירב אשמח לשמוע וללמוד 10elilevi תודה חבר רעיון מבריק   Shmuelbenzvi כשצפיתי בזה לפני חצי שעה חשבתי ש GabbayAvi קצת מגזים ואז קיבלתי טלפון ממישהי שנמצאת עכשיו במיון בשערי צדק ואמרה לי בדיו… kunikran קשה להאמין אבל הולכים לבחירות מה שנורא זה שאנחנו אדישים אין כח להילחם מקבלים כל גזירה בהכנעה עכשיו יריבו מי אשם ומה זה מ… BihariGilad ״גיוס החרדים״ הוא ישראבלוף בדיוק כמו חוק הגיוס עליו לפיד וליברמן שמו את יהבם זה טריק שלא היה מגייס אף חרדי באמת חבל ש… EldadYaniv תודה אלדד RavivDrucker ׳חבר בארגון לא נקי׳  תיזהר שלא תישאר הצדיק היחיד בעולם  אחרי הבחירות אספר מה יש שם ואתה תתבייש בכל…  RavivDrucker אם אתה חושב שהסרטון הוא אס ולא הרוטציה אז תתרחק מטקסס הולדהם RavivDrucker ואגב הסרטון לא ברשותי מאחר והוא נעשה למטרה מסויימת שלא התרחשה ומעבר לזה כמי שצילם אותו אני יודע שפי…  RavivDrucker דרוקר  מה קרה שחזרת להיות עיתונאי נחרץ  ראיתי אותך ביום שישי בערב אצל איילה חסון ממלמל משהו מבולבל…   ruthelbaz גם אני נשמה תומר מדייק   ליברמן נסיך האופל  מדויק   sshahar OrHeller ואתה חושב שלא הבנתי את השאלה  sshahar OrHeller שנתיים ושמונה אלא אם יילך לקצונה OrHeller תודה  Irisleal15 ההתלהבות מליברמן מפליאה אותי נפלתם על הראש אתם רוצים להחליף ראש ממשלה עם שלושה כתבי אישום בראש ממשלה שהצליח להמלט מכתב אי… amitsegal מזל טוב  אושר ובריאות ותוסיפי שהאקרדיטציה לקחה מהן את הזכות לטפל בחולים לטובת ישיבה אינסופית מול מחשב והקלדת נתונים שאף אחד לא יראה  SylvieKeshet זה באמת יעבור לך הרשעות תמיד תישאר לך עצוב מאד עם פטירתו של יוסי שבו ז״ל לשעבר ראש העיר נס ציונה איש נפלא ישר וחכם שכל מיפגש איתו היה מלמד ומעשיר  Syechimovich את משאירה חותם של ממש בחברה הישראלית   חותם שנובע מהיכולת המפלאה ומהאומץ  לראות את הקשר בין הנושאים…  נתנו להם אצבע לקחו את כל היד  כל תיאוריית מתווה הגז היתה שתהיה תחרות ולכן לא צריך לפקח על המחירים  צלצול השכמה לרגולטורים  BiranMichal מזל טוב מיכל כל כך שמח בשבילך  תודה לכולם מאחל לכל אחד שותפי דרך יקרים ומוצלחים כאלה   שוחחתי לפני זמן קצר עם היור הנבחר עמיר פרץ ואיחלתי לו הצלחה בתפקיד החדש מאחל לו שיוביל את המפלגה להישגים הראויים לה Irisleal15 לא משנה לי את מי ליברמן מתקיף אם הוא צודק או לא אם הוא משרת את עמדותי הפוליטיות אם בדרך נפתלת הוא עוזר למחנה שלי לעולם… צאו להצביע  ברכות NitzanHorowitz שמח מאד בשבילך אתה הקול הנכון למרצ הערב בועידת מפלגת העבודה אחרי שנתיים סוערות אנחנו עומדים כעת בפני מערכת בחירות חדשה ומפתיעה ואני קורא לכל המועמדי…  TheProletariat אסף אין ספק בגללי אנשי שמאל עברו להצביע לביבי Benadam2019 אבישי גם אני חשבתי לתומי שתיתן לעוקביך גילוי נאות שביקשת לעבוד איתי וסורבת  אבל תרגיש נוח אתה לא לב…  שבתאי שביט ומתנשאים שכמותו הם מבוני שלטון הליכוד והמתחזקים המרכזיים שלו  הם גורמים לכך שישראלים רבים מצביעים בהתאם…  ZeevKam מזל טוב  מיכל יקרה תודה על הדברים  אור לי יקרה  תודה  תמשיכי באומץ הנפלא שלך  doonch z1jgCrJzgLmBzKM EldadYaniv דנה תודה על הדברים לאה יקרה  תודה רבה   EmilieMoatti תודה מקסימה  חיליק תודה ושיהיה בהצלחה   GideonMeir benirabin גדעון תודה על הכל  selaudi1 benirabin אודי תודה  ofercorn עופר תודה על הכל  אלדד תודה רבה   ראשת העיר תודה רבה   תודה אורית זכיתי לראות אותך נלחמת לטובת הציבור  TomerPersico תודה תומר benirabin בני תודה רבה על הדברים  לתומכים ולחברים שלום  לאחר התלבטות ארוכה החלטתי ללכת עם הלב והאמת שלי ולהסיר את עצמי מהרשימה לכנסת הבאה  כמובן שה…  לתומכים לחברים ולשותפים היקרים והאהובים  לאחר מסע ארוך ורצוף באתגרים מורכבים החלטתי שלא אתמודד על ראשות המפלגה בב…  ביום 29718 פרסמתי בחשבון הטוויטר הודעה שבמסגרתה כיניתי את איתן ברושי עבריין מין והודעתי על השעייתו מפעילות במפל…  היתה לי הזכות להכיר ולהיות עם טל בתקופה שלפני ואחרי הבחירות מרגע שהצטרף טל עבד ועבד בלי הפסקה הגיע לכל מקום שבו…  חבריי וחברותיי המוסלמים בני החברה הערבית   לרגל חג עיד אל פיטר אני מבקש לברך אתכם בברכת חג שמח ומבורך ושנזכה לחי…  המומים וכואבים את לכתה של נחמה ריבלין שולח חיבוק ותנחומים לנשיא ולבני משפחתו הצניעות ואהבת האדם של נחמה ילוו אותנו תמיד יהי זכרה ברוך טל רוסו הודיע לי שהוא מוותר על השיריון שלו כמספר 2 ברשימה   פגשתי אנשים רבים בפוליטיקה וטל הוא אחד המרשימים שבהם…  מר ליברמן מסכים בתמורה תגלה לעם ישראל מי ולמה שילם 3 מיליון דולר  למיכל בתך כשהייתה רק בת 21  Amos123Biderman בידרמן  בקשה אחרונה אל תהרוג אותי בלי תבלינים טובים כשנכנסתי למערכת הפוליטית הבטחתי לילדיי שבכל החלטה שלי אראה לנגד עיניי רק את טובת המדינה וזה בדיוק מה שאני עושה יש כאלו שמסכימים שנכון היה להיכנס לממשלה ולעצור את חוק החסינות את הפגיעה במערכת המשפט ובדמוקרטיה הישראלית ויש שחול…  MoavVardi לא אמר כלום עמדתנו נותרה שאין מקום לבחירות נוספות ועל הנשיא לתת את המנדט להרכבת הממשלה לחבר הכנסת בני גנץ במהלך החודש האחרון מפלגת העבודה קיבלה  מספר הצעות להשתלב בממשלה   ההצעה האחרונה אמש כללה התחייבות לחבילת צעדים לשמ…  roussotal באתי לכאן להיות שומר סף של הדמוקרטיה לקבל את רצון הרוב ולא פחות מכך לשמור על זכויות המיעוט חברים חוקים נועדו להגן על כ… אם נתניהו יכשל בהרכבת ממשלה המנדט חוזר לנשיא  נתנגד לבחירות הן משרתות רק את נתניהו ולא את המדינה  לא ניתן למי ש…  אתם הצעירים שהמדינה מפקירה אתכם ליוקר המחיה למחירי שכירות מטורפים ולשכר נמוך – אם לא תצאו לרחוב נאבד את הדמוקרטי…  AviBenayahu החשבון הקטן והאישי מאוד שלי עם barakehud מוכר וידוע  אבל ביום השנה ליציאת צה״ל מלבנון  צריך לברך ולהודות לברק על היו… חתמתי ותומך במאבק כל כך צודק להחזרת הבטחון האישי ל 20 מאזרחי המדינה  הצעירים הנפלאים של ישראל המבוגרים שנתנו את הכל כדי להקים כאן מדינה לא יעמדו מנגד בזמן שישראל תהפוך לדיקטטורה  אנ…  עוד משרדי ממשלה עוד שרים עוד בירוקרטיה עוד טירטור של האזרחים שיעברו מעכשיו בין משרדים נוספים ועוד מיסים כדי לממן…  זוהי שעה אפלה לדמוקרטיה אחרי החסינות לנתניהו תגיע גם חסינות לטייקונים שתומכים ונתמכים על ידו  תרבות של חסינות היא…  אחי הצעיר יהודה הוא אחד המרגשים שבשירי הזכרון  היום בבית העלמין בבנימינה השיר הפך לחצי מציאות כשפגשתי שניים מחבר…  תפילה  גיורא פישר  מִי יִתֵּן  וְאֶהְיֶה כְּבָר זָקֵן  מְבֻלְבָּל  אִם אָז אֶשְׁאַל  לָמָּה הוּא לֹא בָּא לְבַ…  מברך על הפסקת האש ושולח תנחומים למשפחות ההרוגים ואיחולי החלמה לפצועים אחרי עשרים שנים שנתניהו מחזק את החמאס  שחרו…  משתתף בצער משפחתו של משה אגדי מאשקלון שנהרג מפגיעת רקטה ושולח איחולי החלמה לפצועים לתושבי הדרום מגיע לחיות בשקט וב…  אינני מכיר ומעולם לא פגשתי את גיל מסינג דובר צהל המיועד  רק אלו שרואים את המשטרה והפרקליטות כאוייבים יכולים לצאת…  גם השנה נעמוד יחד לזכר המיליונים שנרצחו רק בגלל שהיו יהודים למען מי ששרדו ונושאים עמם צלקות שאי אפשר אפילו לדמיי…  התרגשתי לומר מתחייב אני בטקס ההשבעה היום בכנסת זאת זכות וחובה גדולה לשרת את עם ישראל נמשיך להילחם על הדמוקרטיה…  למי שכבר הגיע ולמי שעוד בפקק למארחים ולמתארחים למי שקורא כל פסיק בהגדה ולמי שרק מחכה לאוכל   חג שמח שנדע לא רק…  הגענו לנשיא והמלצנו להטיל על בני גנץ את הרכבת הממשלה למרות הסיטואציה הפוליטית  הדגשנו שנילחם מהאופוזיציה שהדמוקרטי…  אנחנו כאן בטירה כדי לאמר בקול רם שלאזרחי ישראל הערבים יש זכות לבחור ולהיבחר ואני קורא להם לממש אותה ולהשפיע על עתי…  אנחנו היחידים ששואלים את ביבי את השאלות הקשות באמת  איציק שמולי הספיק לנחות אתמול בארץ עם הרכש החדש למשפחה ומילא את כולנו בגאווה והתרגשות  ככה זה כשמחויבים לשינוי תי…  שרונה הנהדרת הצטרפה והתחייבה לשינוי וכמוה עוד הרבה אחרים שהצביעו היום בפעם הראשונה לעבודה אל תאבדו תקווה אף פעם…  עוד 100000 מצביעים של מפלגת העבודה שיכולים לעשות את השינוי צאו להצביע העבודה  barakehud עוד שלוש וחצי שעות  מחיקת או גימוד העבודה ומרצ אם חלילה תתרחש  תוביל בהכרח לממשלה קיצונית בראשות נתניהו זוהי גם שגיאה פ… אם העבודה תימחק  ביבי ראש הממשלה  תודה אורי  nadavabeksis Irisleal15 לך אחרי איריס Irisleal15 הצבעתי למי שמרגיז אותי כל יומיים למי שיש לו ראש בארד ולפעמים הולך איתו ישר בקיר למי שהכי מתאים לראשות הממשלה מוכשר ונחוש… גאה בבן שלי חניך מכינת רבין הולך עם האמת שלו  נתניהו צא כבר מהגזענות שלך זכותם של ערביי ישראל לבחור ולהיבחר קורא לכם צאו להצביע בהמוניכם  נתניהו גזען ושקרן שקר המפלגה הגדולה ושקר הדיל שלא היה ערביי ישראל הם אזרחים שזכותם לבחור ולהיבחר נגד השקרים והגז…  צאו מהספינים צאו מהשקרים  צאו להצביע ולכו עם האמת שלכם רק מפלגת העבודה  RamiHod ראיתי עכשיו תוצאות של מספר סקרים שבוצעו היום הסיפור פשוט מה שכחוללבן עושים מצליח התוצאה הניתוח יצליח החולה ימות במצב כ… roussotal מסתובב בקלפיות תל אביב ופוגש את מפקדי היקר ראש הממשלה לשעבר barakehud אהוד ברק  שהלך גם הוא עם האמת שלו  אמא שרה היקרה מצביעה לראשונה בחייה  אמת העבודה והיא לא היחידה רבים אחרים קראו את התכניות שלנו התאהבו בנבחרת של…  GabbayAvi אני מבקש מכל חברי מחנה השינוי להקשיב היטב לראש הממשלה ושר הבטחון לשעבר אהוד ברק האיש שהוביל עשרות מבצעים מעבר לקווי האויב… בוקר נפלא לכולם הולכים עם האמת שלנו שמים אמת בקלפי למען השינוי בגלל הדרך בזכות הנבחרת  יחד אנחנו נעשה את זה תאמינו העבודה תודה ילד  AnshelPfeffer אצביע עבודה כי היא מייצגת היום את התקווה הטובה ביותר לאיחוד החברה הישראלית סביב מכנה משותף שהוא לא רק סגידה לכוח אבי גב… מצמצתם קבלו את זה  סיכום הבחירות ב90 שניות  חוזרים לדרך חוזרים לעבודה  השיחה האינטימית בין ביבי ולפיד נחשפת  נתניהו ולפיד משקרים  שקר המפלגה הגדולה  בלי מרפסת אבל עם נשים חזקות הנבחרת הכי טובה בישראל יחד כל הדרך לשינוי אל תפלו לספינים לכו עם האמת שלכם  רק קו…  אני מבקש מכל חברי מחנה השינוי להקשיב היטב לראש הממשלה ושר הבטחון לשעבר אהוד ברק האיש שהוביל עשרות מבצעים מעבר לקו…  כדי שהקול שלכם באמת ייקבע לכו עם האמת שלכם תצביעו לדרך אמיתית לנבחרת שאתם סומכים עליה לשינוי שאתם מאמינים בו כ…  דינה היקרה תודה רבה   RomanBronfman תודה רומן אלדד   תודה רבה   MatanAlcalay אשמח אם מישהו יסביר לי באמת איך הצבעה לרשימה שיש בה את טל רוסו איציק שמולי סתיו שפיר שלי יחימוביץ רויטל סויד מרב מיכ… נתניהו יספח את כחול לבן לממשלה ויספח 25 מיליון פלסטינים לישראל  אומרים לא לסיפוח  מצביעים העבודה  אתמול בלילה נתניהו הכריז על המהלך שעלול להוביל לחיסולה של מדינת ישראל  סיפוח של יהודה ושומרון וכחול לבן במקום ל…  לפיד עלול להקים את ממשלת נתניהו הבאה  zionnenko הספין על חשיבות המפלגה הגדולהשמקדמות הליכוד וכחוללבן הוא כל כך מטופש ורחוק מהמציאותשברור שהוא יתפוס   גם אם אחת מהן תקבל… drorbin זה הפתק שלי לעוד יומיים למה כי אני רוצה בכנסת אנשים שיעבדו בשבילי ראינו בכנסת הקודמת כמה עשו החכים של העבודה ועכשיו קיבל… granot בשמחה עידו  yitzy4 אני ימין מדיני וימין כלכלי אך אצביע GabbayAvi למה תקראו את grolnik   GabbayAvi פעם שקרן תמיד שקרן  GabbayAvi מי שחונה בכחול לבן  יגררו אותו לליכוד  גם ב0904 הולכים עם האמת שלנו  הנבחרת הכי טובה הכי לוחמת והכי מקצוענית בישראל רגע לפני הבחירות על עתידה של המדינה amirperetz MeravMichaeli…  עם הנבחרת המעולה שלנו מציגים את התכניות שלנו לשינוי פני המדינה על גבי מסכי ענק בתל אביב מוזמנים להספיק להגיע עוד…  מי שחונה בכחול לבן  יגררו אותו לליכוד  kannnews יור מפלגת העבודה GabbayAvi בשבתרבות בתא אני מסתכל על ראש הממשלה מפטר אנשים מפתה אנשים הכל כדי לתת מיליארדים לטייקונים… kannnews חכ StavShaffir ממפלגת העבודה בשבתרבות בגבעת שמואל צריך להחליף את נתניהו אם לא תהיה מפלגת עבודה חזקה אז המנוע האידיאולוג… גפן הבת המקסימה של הילה הדוברת שלי  אני חייב לה המון שעות אמא  GabbayAvi 7000 שח שכר מינימום מבינים לביבי אין ארנק איך יבין צפו ורטווטו  aradeyal כל פעם אותו הדבר  מתי הם ילמדו  פעם שקרן תמיד שקרן  איזו נבחרת הבוקר בתל אביב בדרך לאירוע הצעירים שלנו לדבר על הנושאים שחשובים באמת לצעירים בישראל ועל התכניות שלנו…  התקבלנו במטח סוכריות בשוק הכרמל מרגישים את השינוי באוויר  10elilevi ברכות אלי יקר מהפרסים המוצדקים שניתנו  תרשה לי להוסיף שאתה לא מביא רק נושאי פריפריה אלא גם הרבה שכל יש…  7000 שח שכר מינימום מבינים לביבי אין ארנק איך יבין צפו ורטווטו  TheProletariat סיימתי הדרכת קלפיות לכ100 חברי ועדת קלפי  מרגש בכל פעם לדבר על טוהרהבחירות ולשתף בטיפים ודגשים לתהליך ההצבעה והספיר… eransinger על רקע הקריאה להחרים את ההצבעה בחברה הערבית איך בונים קמפיין בערבית לקראת הבחירות במה מתמקדת מפלגת העבודה ומה מייחד את ה… sharonidan אבי גבאי GabbayAvi מגיע לכרמל אינעל העולם באקסטרים  נרגשים על החזרת גופתו של זכריה באומל זל הלב עם משפחתו ועם שאר משפחות הנעדרים שממשיכות להמתין בכאב ברכות לכוחות הביטחון על המבצע ההרואי עכשיו בשוק הכרמל מתקבלים בממטרי סוכריות זה לא רק הסוכריות זה האור בעיניים של האנשים זה הרצון העז בשינוי וזאת ה…  HavodaParty מטח סוכריות ואהבה עכשיו בשוק הכרמל  עם ישראל רוצה שינוי ולעם ישראל מגיע שינוי זה מה ששמענו וראינו בסיור הבוקר עם יור… שולחים איחולי החלמה לגברת הראשונה נחמה ריבלין גם אחרי כנס בגבעתיים  המנה הטובה ביותר ביקום  נתניהו ממשיך לתקוף את ריבלין שיתבייש  תומכים בממלכתיות תומכים בנשיא  לא דרמטי איבדתם את הביטחון ב0904 תאבדו את העם  חברת חשמל מוותרת על מיליארד וחצי דולר מהכיס שלנו ובתמורה חברות הגז ימכרו גז למצרים המשך של שוד הגז רק אנחנו במפלג…  נתניהו שוב נכנע לחמאס שתפו  barakehud אמור לי מי הם חבריך ואומר לך מי אתה  yoavkeren2  איך יודעים שנתניהו יעשה הכל כדי לגנוב את הבחירות  ככה  צחצחים נתניהו אתה לא מתבייש אתה שאמרת שחיילי גולני טובים כל עוד יש להם קצינים לבנים אתה שהקמפיין והבית שלך מ…  KnessetT יור מפלגת העבודה GabbayAvi לפרלמנט צהריים עם mazalm3 בהתנהלות של netanyahu אין קווים אדומים ונועדה להציל אותו מכתבי…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Haaretz זו הפרשה הכי חמורה שהיתה יכולה להפיל את ביבי אבל היא טויחה  LinoyBarGeffen בריאות והחלמה מהירה JoshBreiner קדימה ראיון שערכתי עם יור מועצת ישע דוד אלחייני  benirabin על זה אני עוד לא יודעת להשיב אני קצת יותר צנועה ומתונה מהבינאריות המטורפת כאן אם לא שונאים את ביבי בדי…  benirabin בני קראת את המאמר בכלל זו תמיכה בנתניהו כפי שכתבתי לגבי כחל לא יודעת אם הם צודקים או לא בקונסטלציה…  benirabin אני אי פעם תמכתי בו אני תמכתי בבגץ שהחליט בהתאם לחוק כחול לבן חושבים שיאבקו בכך יותר טוב מתוך הממשלה…  benirabin שמחה בכך benirabin אני מניחה שמותר לנו גם להיות חלוקים בדבר מה לילה טוב benirabin אבל לעניין עצמו הממשלה הזאת שלדעתי לא יכולה היתה לקום אחרת ללא פשרת נתניהו הנסבלת כל עוד משפטו יתקיים…  benirabin אז כאן אנחנו חלוקים מצער אותי מאוד שנתניהו נאשם בפלילים זה אינו מצב רצוי ולדעתי יש לשנות את החוק שמאפש…  benirabin יישומה כפי שראינו היום  מחפיר benirabin אבל נתניהו לא נאשם בעבירת רצח יש חוק ברור המתייחס למקרה של נתניהו הגם ששנינו מסכימים כי ראש ממשלה נאשם…  benirabin בני תמכתי בממשלת אחדות מאחרי בחירות אפריל שזו היתה עמדה חתרנית שלא לומר מגונה בקרב רוב קהל קוראיי היי…  Eyalo365 LifeRivlin תודה רבה maayanef יש EladRa חן חן שבוע טוב revitalamiran מזל טוב מותק רק בריאות ושלווה יחסית כל השאר אינו נחוץ hagaykr גם אני Onetruth011 ובכן זה מאמר דעה שלי וזה ראיון עם עפר שלח להסביר את ההבדל AyaTene OriBenDov perezesty AmirBenDavid ronenbergman מכירה את השם לא היה מורה שלי perezesty OriBenDov AmirBenDavid ronenbergman זה גם מה שמעניין אותי קולנוע סביון לנצח Irisleal15 סחתיין על החתן הרופא israzohar kerenmelamed אמא שלי הקליטה הודעה בווטס אפ לבת שלי ונשברה באמצע והתחילה לבכות והיא אחת שכל היום אומרת…  Emptycart kerenmelamed משום מה הכות בקידום היא זו צל המחדל החרדי של נתניהו Emptycart kerenmelamed  Emptycart kerenmelamed הקדשתי לכך פחות או יותר את מאמרי השבוע kerenmelamed ממש מכאיב להסתכל החוצה RonnyLinder גרוטו בשיחה עם כתבים המטרה היא שאם הצעדים יוכחו כאפקטיבים החל מסוף פסח נתחיל לשחרר את האנשים לאט לאט לפי רמת חיוניות שלה… motiohana1 מוטי זה קורה גם במקומות אחרים Ayeletnnv שאננות וזחיחות arielplaksin1 יתירה מזאת הידיעות מצרפת ודוח שמפלח את 2500 החולים הראשונים בארהב מלמדים שגם הטוכלוסייה הצעירה פגיעה אלוהים אדירים עוד מישהו רוצה לצאת החוצה לים כי יש יום יפה  nadavabeksis אני יודע שזו הרשת הכי צינית והכי מבינה וכולנו חכמים יותר מכולם אבל לפני שזה יחמיר ולפני שנהיה במצב של מיטות חסרות רופאי… nadavabeksis לכל מי שחשב שהרחובות הריקים השבוע זה כי ישראלים הבינו את גודל המצב וגודל האחריות אז הגיעה קצת שמש ותל אביב מפוצצת באנשי… moshebst אנחנו מקבלים דיווחים על כך שמזג האוויר היפה הוציא אנשים לרחובות זו סכנה גדולה שתבטל את האפקטיביות של כל המאמצים שלנו בבקשה… raanan25 טוויטר תראו לי את הכוח שלכם חברה טובה מחפשת תרופה סופר חשובה עבור הילדה שלה ומסתבר שנגמר המלאי בכל בתי המרקחת  הילדה חול… orikol  האם זו בדיחה  gabibarh לא ללכת לשרינק פגישה בזום LifeRivlin בתמונה תומכת טרור מסיעה חולים להדסה שם יפגשו אותם תומכי טרור במיון ובמחלקת הקורונה רנטגנאים אחים ואחיות רופאים ורופאות… yanircozin זה אפשר וועדת כנסת אי אפשר kerenmelamed frak001 במסגרת התזונה המשובחת של הימים האלו סיימתי חיקוי חרדי כלשהו של ביסלי בר בי קיו ובא לי למות אם אפשר לא מקורונה YagonTugati היי lugasishai  kerenmelamed frak001 את סוטה kerenmelamed frak001 משוגעת לא את הפיצה JIssacharoff בריאות במהרה shnaiderman יפה שיש עליות Irisleal15 תהיי חזקה dblech חתיך ReutBitton אין שכל אין דאגות elikmargalit יו 4נחנו ממש נשמות תאומןת האמת שכיף פה שיגעון itayr2 חיכה באוטו Irisleal15 כן את תבנית הביצים האחאונה פספסתי אבל אני חזק מאוד בקטניות ופסטות Irisleal15 מוטרף סתם ניואנס אנשים לא משתמשיך בשיטת הרטבת האצבע לפשק שקיות מי שלא ביקר היום בסופר מרקט לא יודע הזיה מהי מאיפה להתחיל liorkodner אתר הארץ פתוח לכל הגולשים למשך שבועיים ללא תשלום זה דורש רק הרשמה קצרה  ShaiCohen13 אמן אינשאללה כפרה עליך haimhz תודה לרגל המצב Jeronimo יו לא שמעתי אותם מ2003 attaliami וווואוווווו איזה רגע של חן בתוך כל העולם הדפוק הזה NevoSheffi ברור שצריך פתרון משקי כולל אבל תסביר לי איך ילד בכיתה א יכול לשמור על עצמו כלומר אנחנו כבר שם Meravbenari zehavagalon Ayeletnnv ShuliMR MichalRozin לא להתנשק יותר מדי ztomer GmailRamagure hshilorunning אני מעריכה בזהירות שזה אירוע אחר שוב הלוואי ואתה צודק ztomer GmailRamagure hshilorunning כמות החולים המאובחנת לבטח יש הרבה יותר שלא אבל מה אני אגיד לך הלוואי ואתה צודק ואני סתם היסטרית ztomer נו אז טוב שעצרו הרי היתה ביקורת גם על זה ובשלב זה מוטב לעצור אם חלילה יהיה כאן איטליה או ספרד הכלכלה תהיה באמת בעיה משנית izojYsq1E86na7Y erancherpak Irisleal15 נדמה לי שבכל אצליח להירדם הלילה AlonPinkas יש לי יתרון עליך של כמה שנים אני אזכה בסוף מאבק קל מאוד במכונה ShaiCohen13 erancherpak Irisleal15 לא שנאתי את ביבי בדיוק בסולם שהוא רצה פלורליזם erancherpak Irisleal15 כי אני מגיבה עניינית לכל צעד זו פעולת רצונית של מי שאינו מחויב לאוטמטיות כתית כלשהי erancherpak Irisleal15 סליחה שלא מילאתי את רף הדרישות שלך תפחית לי מהצק של חודש הבא כמנסחת מסרי המחנה וברצינות…  shalevai תביא אותם אליי אני עושה גן עם שלי Irisleal15 erancherpak גם הפעם אגב ההשבתה היא תגובה נכונה שאתה בעצמך קראת לה הבוקר ריטווטתי זמן להתבגר ולהפסיק…  Irisleal15 erancherpak תוציאו כבר את הראש מהביבי לא ביבי זה פתטי וילדותי AlonPinkas וחוץ מזה פנקס אני בטוחה שלאדם רחב אופקים כמוך יש חברים באיטליה וספרד כרגע הם בכלל לא יוצאים מהבית בוא…  ztomer איטליה וספרד דוגמאות מפחידות מספיק AlonPinkas לדעתי זה מה שעשו בסין כולל דברים הרבה יותר רדיקליים צריך לסגור את כל הכיתות והגנים לכל הגילאים וזהו ככה עוצרים מגיפה לא בחצי השבתה BokerIris אלוהים tamarishshalom חולים 92 ו98  ניצחתם  LVertzhaizer הפגיעה המשקית הורים לא יכולים לעבוד amsterdamski2 יופי זה בטח יעצור הכל erancherpak הגרף הכי חשוב שאתם צריכים לראות הבוקר כל רגע שעובר בלי שמכניסים את מדינת ישראל לעוצר ואומרים לכולם להישאר בבית יעלה בחיי… Ayeletnnv kerenmelamed על אחרים אני אחלה מתפרקת רק על עצמי kerenmelamed יהיה בסדר נעבור את זה יחד kerenmelamed רק עכשיו ruthelbaz איזה נרקמונית של צומי ShaiCohen13 אתם תסתדרו טוב amosshani בינתיים זה יותר טוב ממה שאנחנו רואים מטראמפ ומרקל horowitzb אני חושבת שמה שהכי חשוב הוא המסר התודעתי כדי לשבור את ההכחשה שעוד מעט תהפוך לפאניקת אימים אני חושבת…  horowitzb עוד קודם לכן הנחיות הבידוד הסופר מוצדקות שהתקבלו ללעג רבים ההבנה וההפנמה שזה אירוע אמיתי ורציני ובנאו…  gershuni מניחה שהיה מנהל בסדר גמור ומקבל גם הוא את המלצות משרד הבריאות BokerIris כבר יותר טוב ממרקל shnaiderman מותק אבל שזה ממני זה מיוחד תלעגו ותשנאו כמה שאתם רוצים בנימין נתניהו מאה אחוז במשבר הקורונה NadavEyalDesk שמע ישראל NadavEyalDesk מעניין אם היא מנדבת את עצמה aradboaz אבל אנגלה אמרה שהיא מכילה הדבקה בשיעור של 6070 LilacBL בבידוד בשיבא BokerIris אוקיי חוזרת בי Nefolet 62 מגדיר מחדש את המושג לה דולצה ויטה BokerIris משוגעת BokerIris והמדיניות שלהם הזויה ruthelbaz eyaldatz חלום שלי guyzo שורה תחתונה משוערת  בניו יורק ימותו המונים בתל אביב בעה פחות eyaldatz ruthelbaz בשביל תייגתי את רות מומחית למקום יותר מלסבית eyaldatz ruthelbaz יאללה בייבי עלי לפרשנות eyaldatz מזל טוב כאחד הדשאים Haaretz ביקשו שנפגין אחריות אך כבר אסור לשתוק רופא איטלקי כותב  NadavEyalDesk עזוב לס אמר שלא צריך להיכנס ללחץ erancherpak עזוב לס אמר RonnyLinder הדבר הכי הכי חשוב שצריך לעשות עכשיו הגדלה משמעותית של מספר הבדיקות עובדים על זה כבר כמה ימים ושינוי האינדיקציות גם לחול… naomilster מנדב את עצמו ומי מתומכיו שמנדב הוריהם  תפדאלו chinavictor אמצעי הזהירות חשובים אם אנשים כמו אבא שלי נגיד לצערי אני לא מצליחה גם בסביבתי הקרובה יפסיקו להיות כ…  ruthelbaz בלי איומים  ישר לעבודה צריך להרחיב את כלל הבדיקות משמעותית כמו שעשו בקוריאה אם יקשיבו למטומטמי לס אנחנו בסנריו איטליה תוך שבוע  AlonPinkas בכלל צריך להעביר כנראה שליש מאוכלוסיית ישראל לבידוד בסופרמרקט AlonPinkas ניפגש בפנימית ו כלשהי simonyoav חיפה והקריות עידכון לא התאפק והלך הבוקר לסופר  Irisleal15 זה דבר מחליא ומסליד כשלעצמו ודאי odedkramer עף על החיים TheProletariat NeumanRoee טוב סבבה להתווכח עם גוויה זה בגבולות האפורים של המוסר בהצלחה עם חדי קרן ימנים שתעבירו בבחירות הבאות TheProletariat אינספור טורי תמיכה תראו אחד TheProletariat NeumanRoee ואגב הטענה על טורים שלי שקראו לתמיכה בכחול לבן היא 100 שקרית כי אין טור אחד כזה דווק…  TheProletariat NeumanRoee תמשיכו בעבודה המצוינת אתם על הסוס TheProletariat NeumanRoee אה זה בוט חבל על האנרגיה בהצלחה ותמשיכו עם העבודה המצוינת TheProletariat מודעות עצמית פחות הא אם כבר כתבתי דווקא טור שקרא להצביע אמת למה להצביע אמת ואף הואשמתי בהתנק…  NeumanRoee TheProletariat רגע בוא נקשיב איך הם הביאו סחף מנדטים מהימין ובעצם הארץ אשם בהכל brownjohnbrown noalandau אני עדיין קשובה איך הם הביאו 50 מנדטים מהימין TheProletariat תגובה ראויה חחחחחחחח אזהרה אלו שממשיכים בהכחשת זוועת הקורונה הולכים להיראות בקרוב כמו אלו שהדפו את ספקני פרץלוי אבקסיס בטענות גזענות noalandau לא נעים סוף הקריירה הפוליטית של עמיר פרץ אין לדבר הזה תקומה ברייקינג חרדות שמאלנים מתגשמות  dinadayan איימתי עליו בבוקר בסיפורי איטליה GiladDvir יש קבוצה לא קטנה מסתבר שהסופרמרקט הוא מקור משמעותי של משמעות בחיים פעם חשבתי שרק אבא שלי מסתובב כל היום בסופרמרקטים לאחר פרסום מסלולי הדבוקים אני מבינה שהוא חלק מקבוצת סיכון ענקית MatiHBL חחחחחחח kerenmelamed יו זה כזה טעים MatiHBL זה זה שהיה בכל בית קפה אפשרי יש אחד שנכנס כמ6 ילד טוב לבידוד kerenmelamed הזוג הזה טרף את החיים ובדרך הדביק חצי מדינה חולה 29 וחולה 47 הם האנשים החרוצים במשק NadavEyalDesk במה הוא עובד GiladDvir כולם משתעלים זה שרידים ממגיפת השפעת הקודמת TomerPersico מה חדש Liorfink elikmargalit אנשים משוועים שם להיכנס לבידוד NadavEyalDesk AnshelPfeffer BokerIris אל תדאג זה תיכף בא צריך רק לדאוג שאנשיל יישר בחוץ לבשל AnshelPfeffer BokerIris NadavEyalDesk תשאיר להם סיר עם חריימה נתניהו שוב משחק באש שיח אלים וקשה מאוד בימים אלו די elikmargalit צודקת בגבעתיים יש קורונה tamam231 AnshelPfeffer אנשיל ייתן לך מספר מדויק לפי הסירים שהשאיר לי ידוע על שני כתבים לפחות ועורך שהיה ויצא מבידוד almogbenzikri AnshelPfeffer ככ מרגש דיווחתי בפיד שמחה הולצברג גרסת שוקן אנשיל פפר סועד את כל מבודדי הקורונה של הארץ AnshelPfeffer shalevai לפני אבל אחרי הצהרת ליברמן אם זו השאלה GiladDvir YiscaA טוב מאוד אני חושבת שמשרד הבריאות עדין מדי באמת YiscaA GiladDvir אני מבינה שהיא עולה ביעילותה על הבחור מהפיראט האדום עשעה עבודה יסודית מאוד GiladDvir האיטלקי שלחץ לך יד RonnyLinder מה קורה כשנגיף נתקל במערכת בריאות פרטית על מלא תסתכלו על ארהב מול ישראל   Arspoeti פחות roysharon11 כבר הפכה YHepstein זאת על האשכנזים קורעת horowitzb NadavEyalDesk דעת הדיוטית אני הייתי מחמירה אף יותר Ronen23 מה הקשר אז באמת הפסדתם עכשיו אפשר לומר שניצחתם כך או כך או כך הפתרון היחיד הוא אחדות השאלה מה התנאים talialin ruthelbaz רצוי אחדות בני גנץ לא צריך להתפטר ולא נעליים כל הכבוד לו על שעמד בגועל נפש חריג ברמה היסטורית אולי הוא לא ווינר כמו נתניהו א…  RonenPressler וזכור שגם עם 59 ביבי על הסוס RonenPressler יש בפיד כבר הדלפות RonenPressler ה61 ריאלי בחיים האמיתיים אין תוצאות אמת משום שלא התחילו לספור את הקולות מה שיודעים אלו המדגמים שמראים תמונה די ברורה RonenPressler אין תוצאות אמת אבל לא מופרך כלל וכלל YHepstein איזו אצילות אני בכלל ביביסטית מה יש לי להתחבא yitzchakw קשה להאמין shalevai כן אפשר לסכם אפוא nurro1 חחחחחחח ruthelbaz בחיים לא haggaisegal חגי ומה לגבי ממשלת שמאל ruthelbaz מי אמר למי איפה הבלון חמצן שלי AmitTali batiag AmitEvenTal אני מקרית ביאליק AmitTali batiag AmitEvenTal רוצה לומר לדעתי הזדהות ריגשית ותרבותית אני לא שם וגם לא שם אבל אני כן יכולה לראות את החלוקה AmitTali batiag AmitEvenTal אבא שלי אשכנזי במצב כלכלי לא רע עמוק בישראל השנייה ליכודניק ביביסט batiag AmitEvenTal אני גרה ושייכת לישראל השנייה AmitEvenTal batiag כן אני הכי ישראל הראשונה batiag חמסה חמסה טפו טפו משהו kerenmelamed frak001 קרואסונים קטנים גועל GurMegiddo התקבל בדואר  hananamiur חנן מה עם התרומה לשוברים שתיקה כתב אישום 4000 urizaki מזל טוב doko2015 יאללה ימות המשיח DoriaLampel ואיך את מייבשת אותן orencaspi shlomihaz RoyIddan natitucker YoazHendel1 שזה notpolicorrect orencaspi RoyIddan natitucker YoazHendel1 לא נפגעת אני בעד ויכוחים ענייניים המגובים בעובדות orencaspi shlomihaz RoyIddan natitucker YoazHendel1 אני לא מתעייפת ככ מהר אתה בורח כעת כי אתה מגלה שהטחת ב…  orencaspi shlomihaz RoyIddan natitucker YoazHendel1 אינני קוזאק ואני לא נגזלת מותר להקליט וכפי שהגבתי לנתי…  shlomihaz orencaspi RoyIddan natitucker YoazHendel1 עורך לא שינה לי משפט לא בכוונת זדון ולא לא בכוונת זדון…  notpolicorrect orencaspi RoyIddan natitucker YoazHendel1 אני מתרשמת שלא קראת אותי מימיך meetmache natitucker baruchikra GaliGnt YoazHendel1 אגב ביום ו אגב כשהליכוד התחיל לעשות סיבוב על הנדל צייצת…  meetmache natitucker baruchikra GaliGnt YoazHendel1 רגע עברנו מכותרת לתמונה מודגשת פרטים זה דבר חשוב מאוד…  notpolicorrect orencaspi RoyIddan natitucker YoazHendel1 ניכר שאינך קורא אותי כלל יד על הלב קראת בכלל את… </t>
+  </si>
+  <si>
     <t>After all it was my late grandfather Itzhak Rabin who said You make peace with your  enemies not with your frie…  YossiZabari תמיד כשנדמה שהגענו לשפל המדרגה בא הנאשם ומראה לנו שיש עוד מרתף שלם שלא הכרנו  NitzanWaisberg למי שמעיז לוותר על הזכות להפגין   שלחתם את הילדים למערכת החינוך ב19  אתם מפיצי מחלות  אתם אגואיסטיים  בארה״ב חצי ש… shlumplump11 nirhasson הגיע הזמן שיתחילו לעצור את האמנים הסוטים האלה  מה עם הפורנוגרף המסוכן מיכלאנגלו  arianamelamed התמונה הזאת לא מהיום זאב אנגלמאייר שושקה ותיק מחאה היום נעצר על ידי משטרה דיקטטורית בעילה של פגיעה ברגשות הציבו… NitzanWaisberg שושקה האלטר אגו של המאייר הנפלא זאב אנגלמאיר שפוטר מידיעות אחרונות בגלל פעילות המחאה שלו ומופיע ברשימת 100 המשפעינים… YomTovSamia דוגמא אישית NitzanWaisberg שלט דוחה ומתנשא אעשה כמיטב יכולתי להוריד אותו הערב הוא לא מייצג אותי לא את מה שאני חושבת לא את מה שאני מרגישה ולא ב… NeumanRoee BenCaspit  yanivbiton99 סיור לילי ברחובות תל אביב עם אבישי בן חיים  barakehud טירוף וסירחון בבלפור נאשם רדוף מכופף את  המשטרה  לפינוי פוליטי ואלים של מחאה חוקית הריקבון מתחיל ונגמר בצמרת אבל זה לא… democratimOrg לאחר הרצח של יצחק רבין זל נתניהו הצהיר שהוא איננו רוצה את הקולות של אלו שקראו לרצח היום צועקים מסביבו מוות לשמאלנים… HashomrimOrg במילה אחת זיקקה מדינת ישראל את גודל המחדל שהתרחש כאן בהתמודדות עם הקורונה ובניגוד מוחלט למה שנמסר לציבור   המדינות החבר… arianamelamed אמירה אישית לגמרי אני רוצה להודות למשטרת ישראל בהפגנות בבלפור ככל שזה נוגע לי נכה שמגיעה להפגנות עם הליכון השוטרים… NeumanRoee דברים שלא חשבתי שאכתוב בדרך לאיכילוב לפצועים מההפגנה נגד המושחת שאלוהים שתשמור עלינו אין לנו ארץ אחרת orlybarlev זה הסיפור הערב משטרה פוליטית ופרטית של נאשם בפלילים פועלת בשליחותו לחסל את המחאה ומפקירה את האזרחים להתקפות אלימות ומסכנות… NavotBar פותח כאן שרשור  עזרו לי לחשוב מה יגידו הנאשם והעבד שלו במשרד לבטחון פנים לאחר שיונה אברושמי 2020 ירצח את אמיל גרינצוויג 2020… moranynet 13 חברי ליכוד היו במשכן ולא נכנסו להצביע לא פחות מעניין מתמיכת כחול לבן בחוק democratimOrg wow כמות אדירה של אנשים תודה ל EmTM36  omlavi צאו להפגין כי לא ברור כמה הזדמנויות עוד יהיו לנו NitzanWaisberg פשששתסתכלו על האנרכיסטים האלו בבלפור גם כן לא למדו כלום מרצח רבין  EstyS פינת החידה השבועית לילד לאן נעלמו הרמטכלים במיל גנץ ואשכנזי מאז נעצר מעצר פוליטי תת אלוף במיל אמיר השכל barakehud 24 שעות אחרי טקס הסיום של קורס טייס נעצר תא״ל מיל בחיל האוויר אמיר השכל בוגר קורס 72 כשהוא מפגין נגד השחיתות והחזירות… arianamelamed בוקר טוב חגי סגל איש מיוחד במינו גם מחבל מורשע גם עורך עיתון מציעה לך לקרוא את חוות החיות של אורוול טקסט ממש קצר… SylvieKeshet חשבתי שלרהמייק יביאו כוכבים חדשים אבל אפילו הטיעונים ממוחזרים כך או כך מרוב כתובת לא רואים את הקיר בהצלחה לכולם zehavagalon די אני מתה NeumanRoee לבן אדם יש משפט על שוחד מרמה והפרת אמונים זה עוד לפני תיק המניות שבו הוא הרוויח 16 מיל׳ שח מעסקאות ביטחון   ממש איכפת לו… tallevram צר לי 21 שני שיגורים יירוט אחד שער הנגב שדרות זה הנתון החשוב של הערב ולא ספירה מטופשת של מספר מפגינים  Rutshapira 🤍 הוא לגמרי לבן כשהפון בתצוגה שחורה  Rutshapira סליחה אלף פעם אבל לרגע דמיינתי מה היה קורה לו זה היה ציוץ שלי  חיבוק גדול אהובה avidabush תושבי מרכז יקרים אל תחבקו אותנו ואל תזדהו איתנו הצטרפו ללחץ על מקבלי ההחלטות לעצור את המלחמה הבאה ולקדם הסכם מדיני זו ה… Yoglas74 רגע אחד של רבין – לפני 25 שנה בדיוק היינו כמה עשרות מדריכים בשנתשירות בנוער העובד והלומד ורצינו להפגין תמיכה בראש הממשלה… Yoglas74 תודה על השיתוף והסיפור  jbapkingdom צמרמורת noarothman  hi3xyVsiLvOhnvG CAvshlomo שנה טובה ורפואה שלמה גמלך יוזר בלי פנים שיורה דעות על אוטומט CAvshlomo את מנשקת אנשים שאת אוהבת עם הפה הזה תנחומיי שנה טובה ורפואה שלמה לך במהרה דומה שאין שנה שעליה ועל קללותיה תפור איחול ה״תכלה״ כמו על זו ruthelbaz אני בעד שידור חי גם מגמר החתימה lucyaharish קול שפוי ואמיץ כהרגלך  Ori30822799 ruthelbaz מזמן לא שמעתי מה קורה עם הטלפון של גנץ והאיראנים או כמה כוכבים מצאת הבחירות צריך לספור עד שמתייבשים בורות הבוטים ruthelbaz אידלקת כמו שאומרים בגבוצות מסויימות ruthelbaz נראהלי את מתכננת שידור חוזר לתדריך HadasRibak הלם כמוכן מסימני התדרדרות השיח והאלימות כי האם נדמה לי או כשגרתי בעיר הכינוי היה ״יהלומן״ attilus כולם בעד פיוס לאומי בעד אחדות בתוכנו כולם לפתע רוצים להיות ביחד אבל את הפיוס לא יכול להוביל שר המלחמה של החברה הישראלית… beware12863855 תודה על האמון    BarakRavid 1  הערב במהדורה בnewsisrael13 פרסמתי פרטים חדשים על הדיון הדרמטי שכמעט הוביל למלחמה בעזה  הרמטכל ראש השבכ וגורמי ביט… StavShaffir גם היום פגשתי אנשי שמאל ששוקלים להצביע מחר באופן אסטרטגי הסברתי להם שהדבר הכי אסטרטגי לעשות זה לדאוג שהגוש יהיה הכי גדו… ביום שלישי יש לכולנו הזדמנות  רק פתק מרצ למחנה הדמוקרטי יבטיח שהאיש הקטנוני הזה יוחלף וסופסוף נפרד מהמנהיג הציני…  ב17 לספטמבר מצביעים עם הלב מחנה דמוקרטי גדול מרצ בקלפי זה הפתק היחיד שיבטיח את הערכים שאתם מאמינים בהם  למען יש…  הפוך גוטה הפוך  אם למדנו משו מבחירות 2013 וכן ממועד א׳ של בחירות 2019  גודל הגוש הוא היחיד שקובע ברור לכם איזה…  לכל הימנים לא סתם ביבי עושה ספין רק על הבקעה זה בגלל שהוא כבר הסכים במסגרת תוכנית טראמפ לחלק את ירושלים כן כן א…  EsawiFr  ואני התקבלנו היום על ידי מר עלי סאלם ראש עיריית נצרת לביקור מרגש ושמענו את תמיכתו המלאה בשותפות יהודית…  רק המחנה הדמוקרטי נלחם על ישראל צו 8 לדמוקרטיה  שומע חתיכת זוהמה מזל שהדוד האמיתי שלך לא הכיר אותך ודאי היה מתבייש לנוכח הפער בין הג׳ורה לבין הרזומה לשכת רהמ י…  StavShaffir ככה נראה תועמלן שקיבל דף מסרים מהליכוד מעז לתקוף את נעה חברתי למחנה הדמוקרטי על הרצח של רבין סבא שלה האפס הזה לא מעני… StavShaffir DemUnion כהרגלך גם הפעם זקופה אמיצה ובלתי מתפשרת מול המבקשים להתנקש בדמוקרטיה תודה חברה חודש הסליחות אז למה כל החושך הזה ב17 בספטמבר י״ז אלול צאו בפנים גלויות ובראשים מורמים ובואו להחליף את משטר נתנ…   בואו לפגוש את הדמוקרטיות ברביעי בתל אביב   1nitzan DemUnion היא לא רק המפלגה היחידה עם 50 נשים היא גם היחידה שמחוייבת להמשיך את המאבק על ישראל טובה יותר ושוויונית  ברביעי א… SylvieKeshet כל כך צודקת ההתערבות ההורית בקהילה היא הדרך היחידה להשפיע הבעיה היא שזה גם מה שמחדד את הפערים החברת…  BarakRavid לכל עיתונאי ששותק עכשיו כי הוא מפחד או מדחיק או חושב שזה רק גיא פלג ואם נוריד את הראש ולא נעשה רעש זה יעבור  אתם חיים בסר… StavShaffir כשאנחנו היינו ילדים ראינו את ראש הממשלה שלנו נלחם בכל כוחו למען השלום הילדים של 2019 רואים את ראש הממשלה שלהם ברשת החברתי… barakehud את המצלמות  עצרנו בבגץ את שוחד הבחירות של נתניהו נעצור בקלפי ב1709 רק במחנה הדמוקרטי נלחמים על ישראל צפו שתפו והפ… barakehud תודה לאהוד יערי מוזמנים לשמוע עוד על התכנית כאן בקישור הזה   mossiraz באתי הערב למטה אשפ ברמאללה כחלק ממשלחת של 20 חברי כנסת לשעבר בהם 6 שרים לשעבר נפגשנו עם ראש הממשלה מוחמד א שתייה שהרשים בדב… itayalmogbar כבר הרבה זמן רוצה לכתוב אין דבר כזה עיתונאי ימני  עיתונאי שמאלני   יש מי שהוא עיתונאי  שמדווח אמת כולל על שחיתויות… EsawiFr במקום ללחוץ על הממשלה לשינוי אנחנו רוצים להיות חלק מהממשלה כדי לשנות  FogelEran attilus ערן כפרעליך  יותר מתרי״ג מצוות ויותר משלטון נתניהו קטע מדבריי הבוקר בשבתרבות בחדרה attilus  אם הקיצוניים בצד השני כועסים על אבו מאזן שנפגש איתנו במקום להפגש עם משפחות השאהידים אז את מי באמת משרת הקיפאון…  גם מאיר שלו עם המחנה הדמוקרטי  WilliamPelto שופטים כ״א כה ובימים ההם אין מלך בישראל איש הישר בעיניו יעשה  SylvieKeshet     זה שימוש מכוון במונח מכובס להעיד על הקלות הבלתי…  ותודה למפלגת העבודה שלא התייצבה הערב בפני ועדת הבחירות ובכך הכשירה את המשך המסע של איתמר בן גביר  מהשוליים הסהרור…  future generations It is our duty and our responsibility to not give up on finding a solution We must provide an…  out and our morality – impaired Above all the unbearable price of loss of human life in this never ending confli…  – especially when there is so much that we can do As it is now the IDF is unable to stop kites and balloons from…  including basic steps to bring forth a dialogue which would help restore serenity to the people of Israel and part…  home and that we have much to lose by the persistence of this conflict and its bloody price  As an Israeli citize…  Tonight I met with Mahmoud Abbas the Chairman of the Palestinian Authority in Ramallah I met a leader concerned…  אינו פרטנר ליצירת תקווה לדורות הבאים  חובתנו ואחריותנו היא לא להתייאש מלחפש פיתרון מדיני ולפתוח לקראתו את הדלת אנ…  הצבא לא יכול למגר בלונים ועפיפונים תושבי הדרום במצוקה קשה שהממשלה אינה פותרת החוסן הלאומי שלנו נשחק המוסריות שלנ…  כישראלית אני כועסת ומאוכזבת שבעשור האחרון נתניהו לא עשה דבר לקידום התהליך המדיני ואפילו לא צעדים מינימליים של הידב…  נפגשתי הערב עם יו״ר הרשות הפלסטינית אבו מאזן ברמאללה פגשתי מנהיג מודאג מההקצנה בחברה הישראלית והפלסטינית מחוסר הת…  בצלאל סמוטריץ איש עם כיפה ובלי אלוהים שלא מתבייש להפיץ את תורתו החשוכה ולהרבות מחלוקת בעם גם בתשעה באב אירועי הפ…  evlinezehavi77 כמה שקרים ורוע זהבה או איך שלא קוראים לך אשה פייק בלי פנים ובלי בושה eliaholankin יש משהו על אלטלנה שאתה יודע שבגין לא ידע כי אם השקר שלכם היה אפילו חצי נכון ולא עלילת דם  איך זה ש…  ramivered אפילו ישי לוריא לא היה הוגה כזה רעיון מבריק vmW33VN7SvQBZbF DalalySharon אני מקווה שאת לא מנשקת את הילדים שלך עם הפה הזה SylvieKeshet שלו כמובן למה שאדבר אליך בגוף שלישי מה את אייל גולן  SylvieKeshet זה ציוץ אמיתי של עיתונאי eliaholankin לא לענות לטרולים לא לענות לטרולים לא לענות לטרולים זה הרי רק לתת להם עוד הזדמנות לדף המסרים ספויילר…  SylvieKeshet אם נשרוד לעונה הבאה של הבחירות מצב שידרוש זבחים ועולות eliaholankin לא לענות לטרולים לא לענות לטרולים לא לענות לטרולים לא לענות לטרולים לא לענות לטרולים קססססססססס קינאה היא הרגש האחרון לבטח לא ציניות זה לא עניין של ימין או שמאל השלטון הזה דואג רק לעצמו בריש גלי שננו את השמ…  talt22 הפיד הוא שלי השנאה היא שלך המדינה של שנינו ולא אני פיקפקתי בנאמנות אליה למרות שאולי היה ראוי לפקפק בך ל…  talt22 לאדעת ״אתם״ ולא טובה בהכללות אבל אתה בטוח לא איש שיחה מנומק יום נעים לך תפסיק לשנוא ככ זה מזיק לבריאות…  talt22 השחרה על ריק זה פחות הסגנון מוזמן לקחת את עצמך החוצה מהפיד שלי טרם תחסם talt22 אני פטריוטית שמאלנית זוהי קריאה אחרונה לכל הפטריוטים משמאל  הציבור מצפה מאיתנו לשים הכל בצד ולשלב ידיים מקום יש לכולם הזדמנות שלישית…  NitzanHorowitz תודה לחברי ועידת מרצ שאישרו הערב ברוב גדול את הריצה המשותפת המחנה הדמוקרטי יוצא לדרך  ronenbergen מעץ תפוח לא נופל אגס   RavivDrucker חולקת עליך כניסתו של ברק למערכת הבחירות הזו והאנרגיה שהכניס לגוש מדברת בעד עצמה הוא ישאר בה עד הסוף ויהיו איחודים נוספים talschneider רפורמות חשובות ומשמעותיות שהובילה המנכ״לית אמי פלמור אחת המשרתות הציבור הטובות ביותר בישראל חוק הזנות מאבק בפוליגמיה… היה שווה לפגוש את העיתונות ולו כדי לשמוע את קולה האמיץ והערכי המדינה לפני המפלגה מחוץ לפריים קינלי  GLOCK1728276437 מקווה שנותנים לך חופש בשבת יא טאמגוצ׳י של כהנא עמיר פרץ עשה טעות כשהעדיף גשר צר מאד לממשלת נתניהו במקום איחוד רחב שורות במחנה והעיקר לא לפחד כלל איחוד שמאל ג…  barakehud AviBuskila sagitderi לפחות לא ״בית הקלפים״ פלאפל הקוסם  העדפנו בפיתה ולא בחמגשית ועם הרבה טחינה  בלי ספינים ושטיקים בישראל דמוקרטית אומרים כן ליהדות לא לכפייה דתית  hanggili טופל אז עכשיו תורי נעה בלי ו  gnWMka43MWVzoit פייק יוזר עם פייק ניוז מוזמן לפתוח ויקיפדיה הכל כתוב כל טוב ושיער רטוב ARIE84894043 תמונה שלך ושם אמיתי יש hanggili טוב טוב תיכף מבטיחה ומחבבת אוסידי פתיחת גשר יהודית נדחתה בחצי שנה התירוץ לחץ קואליציוני חרדי האמת מנהיגות שלא סופרת אותנו התוצאה מאות אלפי הולכ…  הרב פרץ בראיון לדנה וייס מציע להחיל את הריבונות הישראלית בכל שטחי יו״ש ושהערבים לא יקבלו זכות הצבעה אפרטהייד בלי ב…  moriakor עשית לי את השבת תודה     אז האם ברקו נתן לי לדבר טבילת האש האמיתית של הפוליטיקה עכשיו באופירה וברקוביץ  ישבתי איתו הסתכלתי בלבן שבעיניו שמעתי את קולו ראיתי את התרגשותו אני מאמינה לו הוא בה בכוונות טובות עם רצון לה…  החייל מהסיירת עם הסרבל הלבן מחילוץ מטוס סבנה ומאין סוף של מבצעים בהם סיכן את חייו בשביל המדינה  אבל מעל הכל  אה…  בשבילי אהוד ברק זו היציאה מלבנון התחייבות של מנהיג להוציא אותנו מלבנון אחרי 18 שנה ואלפי הרוגים משני הצדדים אהוד…  גל שנאה שטף את הארץ האהובה שלנו מדינה שקמה מאפר המשרפות למשימת קיבוץ הגלויות במאמץ ציוני ובמחיר אדיר סט הערכים ה…  איך החינוך הציבורי משלב בתוכו יותר אלמנטים מן הדת ופחות מהמדע איך אוכלוסיות שלמות נזנחות איך אנחנו משעממים את המנ…  גם אני ישבתי על הגדר והתבוננתי איך המנוולים משנים את השיטה איך חשוד בפלילים תפס את הציבור הישראלי כבני ערובה על מנ…  הי טוויטרז קצת ארוך תהיו איתי  אני בת 42 אמא לעומר אלונה ועמליה נשואה לאלדד תסריטאית ויוצרת עורכת דין ציוני…  אם טרם צפיתם בעונה השניה של ילדי זה הזמן פייגלין כבר בכנסת אז לפחות נהנה מהנוף בדרך לתהום   זה עכשיו שמותר לדבר על דברים אחרים יופי אז תראו ׳הגשר׳ כי צרות של סקנדינביים זה הרבה יותר פוטוגני danaspec מדאיגה אותי ההתקפה המטופשת הזאת על בר רפאלי כמו עדר שמחפש את מי לשנוא הטוויטר ואני איך לומר בעדינות לא מתאקלמים עכשיו אחרי שצייצתי את זה אולי זה ישתפר אני אוהבת קוקוס זה רק הסטרפטו שמבאס lets all follow ravivofer cant sleep מעדכנת את הסטטוס רק שאין לי מושג מה הסטטוס שלי בחום הזה איך כבר עבר חצי פאקינג יום גלי חום בגיל 32 פויה taking a morning walk before itll get too hot to breathe la lai laila laila tov making room for fun after all it is what i do best Was 2 slow  now cant get a ticket to DepecheModes concert TLV marathon is unnecessary how come my babys never tired Avigdor Liberman what a poor joke BabyBjorn kills your back priorities priorities passover is over How come Wednesday isnt always Saturday constantly awake</t>
   </si>
   <si>
-    <t>tsahi8 זה לא כולם זה רק אני amotzsh בעקבות תלונה נגד ליאת בן ארינציב תלונות הציבור על התביעה משרת ציבור מצווה להקפיד ולהזהר בהליכותיו קלה בחמורה לא רק בעשייתו ב… danieldolev OriginalMosheC הוא אמר שהטענה מקובלת עליו אבל הוא כמובן לא בירר את נכונותה או עסק בה לגופה  לגופם…  danieldolev OriginalMosheC תחליט דניאל אם הנציב לא בירר את התלונה לגופה איך בדיוק הוא קיבל את עמדת המשרד ILLogger נראה לי ש keslasy הבין היטב ודווקא אתה לא הבנת RoyIddan קודם כל שתוכיח וזה ממשיך  האירוניה הוסיפה ארבע קומות לא חוקיותפרגולה לבית שלה פיצלה לעשרים דירות עלתה למעלה וקפצה אל מותה  ואז ליאת בן ארי טענה שמדובר באכיפה בררנית  וזהו דוקטור יותר אני לא זוכר כלום  KoheletForum ראש מחלקת הליטיגציה בפורום קהלת בטור נוקב על האיומים ניגודי העניינים סוגיית הסמכות ומסרים בעייתיים נוספים שהגיעו מהיועמ… taliaeinhorn רפורמהתקנותסדרהדין 14 בהמשך לעצתו הטובה של chaimindig שאציג בפניכם מידי יום תקנה מתקנות סדר הדין החדשות כדי שהצי… ronnyeps yehuday30 שמחה 40 מקבל את הזכות להתנשא בטוויטר מיד בצאת יום כיפור כי מתפלל כבר שנים חצי אצל האשכנזים וחצי אצל הספרדים Shaireiner orenaviel מצוין  תגיד לחברים שהתקמצנו שהם יכולים לעשות הוראת קבע לתנועה למשילות ודמוקרטיה במקום  avrahambin אז מוסי רז ממרצ וליאור עמיחי מארגון השמאל הקיצוני יש דין בעד תג מחיר וריסוס גרפיטי על בית כנסת בליל יום כיפור  אז בפעם… Shaireiner orenaviel אחי עלו עליך עם המכונת זמן orenaviel יום כיפור התשמ״א זכיתי להתפלל מהבית בבידוד  בין התפילות הספקתי לסיים את הספר  ״מפלגת בגץ״ של rothmar מורה נבוכים על מהפכ… rothmar את פדיון הכפרות שלכם תנו לצדקה לרעבים לחולים לבית כנסת שצריך ציליות וקפסולות למתפללים בחוץ ובפנים  אני לא מבקש שתתרמו ל … SababaYomtov וכן למר Shutup100000 סגור מארגן את כל זה פלוס מפטיר יונה בתרומה בתעריף בית הכנסת בכפר שמריהו  תתחילי מכירה פומבית ZviWaldman אצלי בחצר בית הכנסת שמחה לארצך וששון לעירך דקק פני קדם כבר מוכן  אם תמהרו לקנות מקומות נארגן לכם כסא עם נוף  yanircozin YairNetanyahu פרט קטן וחשוב יש להם רוב בקרב המיעוט תענוג גדול TzachiDavidi מאמין לך שאתה לא מבין יש כאן כתבה שמאירה זווית שמאוד מאוד מעניינת  היא לא מדווחת על הצלחת העתירה א…  itayr2 אתה רואה כשאתה רוצה אתה יכול IshayShnerb חייבים ליישר את העקומה itayr2 יאללה קורס מזורז  TzachiDavidi וואלה הכתב המשפטי איתמר לוין והעורך דין עוסקים בדיון המשפטי  תעצרו את העולם אני רוצה לרדת שום דבר כבר לא הגיוני כאן itayr2 איזה קטע הציניות שלך עובדת באופן חד כיווני  LeoraLev arielschnabel שיאומי זה מה שקורה כשמזמינים רב מעלי אקספרס  כאן יש לנו עסק עם 5G מסקנדינביה  אני כבר מ…  TzachiDavidi תלוי מה הנושא  גילוי נאות מעטים בעולם מכירים טוב ממני את פרשנותו של ס 39 לחוק עזר לירושלים שמירת…  TzachiDavidi להגיש בקשה לצו עראי דחוף וכשלא מקבלים אותו להמשיך להתנהג כרגיל זה חוסר נקיון כפיים  השיג ושיח מול…  את פדיון הכפרות שלכם תנו לצדקה לרעבים לחולים לבית כנסת שצריך ציליות וקפסולות למתפללים בחוץ ובפנים  אני לא מבקש…  המלצה חמה לשר המשפטים שלנו תפוס קצת אמריקה סע להשתלמות ותחזור עם גישה בריאה ודמוקרטית לתפקידך  AviNissenkorn…  TomerNaor גם לך תומר גמר חתימה טובה Carmitroth TomerNaor באמת מתנצל שלא צייצתי את דעתך על מה חשוב ומה טפל בסיפור כאן אלא רק את דעתי  לא יקרה שוב…  זו הנקודה העיקרית בכל הסיפור  בזמן שארגוני ימין כמו lavingo חוטפים הוצאות בלי סיבה מי שמשרת את האג׳נדה של שופטי…  JoshBreiner ג׳וש תהיה הגון  דבר ראשון שיתפתי כתבה לא שכחתי לציין דבר כי בראש הכתבה מצויין שאלרון היה בדעת מי…  TomerNaor תומר מה זה משנה אם הדברים הם בדרך אגב התיאור העובדתי כאן הוא הנושא  ואגב הבאתי את הדברים בעיקר בשביל…  TomerNaor תומר אל תהיה מצחיק  מה הקשר בין דעת המיעוט לבין תיאור ההשתלשלות הזו  השופטים האחרים חלקו על תיאור העו…  YiscaA מה הקשר בין תיאור ההשתלשלות לבין המסקנה המשפטית DoroniP ronnyeps JoshBreiner ענייני מצידך אגב כדאי לזכור את זה כשיסבירו לכם כמה חמור זה להתעלם מפסיקות של בית המשפט  התנועה עותרת סדרתית אבל כשהפסיקה לא מ…  שופט בית המשפט העליון יוסף אלרון ביקורת חריפה על שרגא ותנועתו קובע שהתנועה לאיכות השלטון פעלה בחוסר נקיון כפיים ח…  yehudaamrani אז בפרקליטות דוקא כן קוראים את המאמרים של קלמן ועדיין לא נפתחים שם תיקי חקירה כל שבוע אתם כבר יודעים למה yarivop לא הבנתי קראת לדניאל חקלאי שקרן  נראה לי שהוא סתם בור ועם הארץ שלא יודע איך נראית רחבת הכותל ביום רגיל…  mohsaud08 אני לא נרדם האקטיביזם השיפוטי משגע אותי ErezSalari  עוד שש דקות טראמפ מכריז על המועמדת לבית המשפט העליון בארהב  מדהים איך האמריקאים האלה לא מבינים כלום בדמוקרטיה מה…  yakhinzik לאל עורך דין yakhinzik שלנו זה שמחה לארצך או ותתפלל חנה yesnomabyyes yaelshevach יעל מקווה שיש לך אליבי amake86947145 BiniAshcknasy זו לא פסיקה פוזיטיבית שרלוונטית לסוגיה בכלל וזו בטח לא פסיקה פוזיטיבית שמחייבת את המ…  amake86947145 BiniAshcknasy מדהים שחברי הכנסת שחוקקו את החוק לא ידעו את זה  ולכן כשפיצלו את הצעת חוק זכויות האדם…  מוזמנים לפנות ליחידה הממשלתית לתיאום המאבק בגזענות שלא תאמינו אבל היא יושבת במשרד המשפטים  מוקד טלפוני 3406  an…  BiniAshcknasy אנא הפנה אותי לסעיף בחוק יסוד כבוד האדם וחירותו שעוסק בהפגנות Hadardv אין מגוחך מזה yaelshevach וכך במחי ציוץ אחד הכפלת את ההצעות הפוטנציאליות  כשרונית שזה משהו עמית כמובן צודק מלבד דבר אחד  במקום לגנזך הממשלתי יש לתייק את חוות הדעת הזו בפח וכך לחסוך מהנינים שלנו את הפדיח…  zeevlev סמכות בלי אחריות סמכות בלי אחריות סמכות בלי אחריות סמכות בלי אחריות סמכות בלי אחריות  OhadSobol taliaeinhorn הוגשה בקשה על ידי Meshilut amitsegal במשך חודשים פרסם קלמן ליבסקינד תחקירים על ניגודי עניינים של שופטים כל הצבועים שפתאום נזכרו להחמיא לו רק כשהוא תוקף ימניים… tsahi8 אני מודע וניסיתי לכבות את זה ללא הצלחה אז אני מבקש לעבור הלאה  אשמח אם תכבד את בקשתי YotYotam ועכשיו אחרי שכתבתי ורבתי והתווכחתי על הסיפור הזה יותר מדי רוצה להגיד לאנשים שאני ממש אוהב כמו ריקלין קלמן ארז כנרת וכולם… Onetruth011 כפי שכתבתי רבים וטובים לא הבינו את הציוץ שלי מיום שישי לכן מחקתי אותו  מציע שנפסיק לעסוק במריבה הזו tsahi8 אז בוא נפסיק את הדיון על הויכוחים המגזריים והאישיים שמשום מה הטוויטר הימני עוסק בהם באובססיביות thenthinkagain זה מה שניסיתי לעשות ביום שישי ולא ממש הצלחתי  אני חושב שאקשיב לחזל ולא אנסה לרצות את חבריי בשעת כעסם tsahi8 אל תיקח אותי ברצינות אם אתה לא רוצה זכותך המלאה  שבוע טוב הציוץ הזה נפלא בעיניי  הוא משקף את חוסר המודעות העצמית המטורף של הפרקליטות יחד עם ההרגל הקבוע שלהם לחשוב שמשחק ב…  RonelAdani כמו שאמרתי הסברים אחרי יום כיפור מחקתי את הציוץ אחרי שהבנתי שרבים וטובים נפגעו ממנו בניגוד לכוונתי  את הסליחה אבקש לפני שבת הסברים אולי רק אחרי י…  michelletelaviv Riklin10 tadmorerez48 bardugojacob YaaraZered הזמן יגיד ואני חושב שזה דווקא יקרב את הסולחה א…  michelletelaviv Riklin10 tadmorerez48 bardugojacob YaaraZered אה אני מלבה את האש  עד שלא שיתפתי את זה היו פה…  michaeldvorin Riklin10 tadmorerez48 bardugojacob YaaraZered לא אני אומר שהטענה שהודהדב שמנדלבליט נפגש עם קלמ…  LAMONITA1L עם העמדה של קלמן התווכחתי כל השבוע גם בראיונות  עם המתקפה המגזרית והאישית מהצד השני התווכחתי כל השב…  LAMONITA1L אם כאבת אז הבנת אם את חושבת שהצדקתי פה את אחד הצדדים אז לא הבנת Onetruth011 אני לא בוחר את הדברים שאני כותב לפי המשבחים או לפי המגנים אותם  מעולם לא עשיתי זאת ואני לא מתכנן להתחיל michaeldvorin Riklin10 tadmorerez48 bardugojacob YaaraZered זה פחות או יותר בדיוק מה שכתבתי חוץ מהקטע של אשפ…  LAMONITA1L נראה לי שלא הבנת את הציוץ שלי אבל לא נורא זה כנראה השבט היטיב לסכם  Yaron1225 Riklin10 tadmorerez48 bardugojacob YaaraZered לא יודע מה אתה רוצה את ההצעה של קלמן אני ביקרתי וגם…  inbar323 Riklin10 tadmorerez48 bardugojacob YaaraZered תתייחסי לציטוטים שקלמן מביא בכתבה ambuch99 Riklin10 tadmorerez48 bardugojacob YaaraZered א ברוב כלי התקשורת שאני מכיר הכותב לא בוחר את הכותרת…  ambuch99 Riklin10 tadmorerez48 bardugojacob YaaraZered איפה הוא דיבר על הערוצים הללו כערוצי תעמולה  קראתי את…  Shalon541 Riklin10 tadmorerez48 bardugojacob YaaraZered נכון inbar323 Riklin10 tadmorerez48 bardugojacob YaaraZered לא ואמרתי את זה במפורש בקולי כמה וכמה פעמים השבוע…  kobiafl Riklin10 tadmorerez48 bardugojacob YaaraZered לא מעניין אותי המקצוע  מעניין אותי ששקר כמו מנדלבליט נ…  inbar323 Riklin10 tadmorerez48 bardugojacob YaaraZered צר לי שאת מצטערת  גם בספר שלי כמו בציוצים שלי אני מש…  nurbinur Riklin10 tadmorerez48 bardugojacob YaaraZered ההפסד כולו שלך ambuch99 Riklin10 tadmorerez48 bardugojacob YaaraZered לא הבנתי עם מה בדיוק אני צריך להתמודד zersamuel Riklin10 tadmorerez48 bardugojacob YaaraZered תודה על הציון עכשיו אפשר גם לענות zersamuel Riklin10 tadmorerez48 bardugojacob YaaraZered מה הקשר עכשיו לטהרן Riklin10 tadmorerez48 bardugojacob YaaraZered העליהום שעובר מי שלא מסכים עם שורת המקהלה הוא לא דבר לגיטימי גם אם אני לא מסכים עם עמדתו Riklin10 tadmorerez48 bardugojacob YaaraZered שמעון גם אני עשיתי שיחת רקע עם מנדלבליט מה אתה רוצה  יש פה התי…  ShohatAlon Riklin10 tadmorerez48 bardugojacob YaaraZered תקרא ותגיע למסקנות בעצמך AsorSnir coyaron noamfathi אתה ממשיך להדהד את השקר שים לב neoraytal noamfathi לגופו של עניין הטענות שלו הן לגמרי לגופו של עניין של הסטנדרט שמאפשר להמציא פגישה שלא הייתה…  AsorSnir noamfathi שמעת און רקורד מידע נטול בסיס לחלוטין  האם עכשיו אתה דורש הסברים מארז תדמור מריקלין מכנ…  AsorSnir noamfathi א יש הכחשה ב השאלה היא כזו אחרי שאנשים שאתה מקשיב להם פמפמו שוב ושוב השבוע מידע לא נכון…  elchananz תמו הריסות בתי מחבלים  בקיצור מזוז פוגלמן וברון ניצחו למרות שיש רוב בבגץ נגד עמדתם  היועמשים החליטו לאמץ את עמדת השופט… AsorSnir noamfathi אני ביקרתי את הטור של קלמן אני לא הסכמתי עם ההצעה שלו ושל חגי סגל  אבל מה הקשר בין זה לבין…  nuritlach AsorSnir אני מאוד רוצה שהם ימנו שופטים הסיכוי שהם יקמבנו לבן הזוג שלהם או למתמחהעוזר משפטי שלהם מינוי…  noamfathi אה זו הרעלת בארות  עכשיו התעוררת AmirH90347597 AvishayBenHaim נו אז עכשיו יהיו עוד הרבה שמות על שם נשים ועל שם גיבורים וגיבורות שמסרו את נפשם על…  GilBringer מה שהיה נראה במאי אפיזודה בעייתית אך קצרה במסגרתה אמור היה מנדלבליט למלא לתקופה קצובה את מקומו של פרקליט המדינה במקביל… mohsaud08 מוחמד גם אני רוצה שיר אני כבר מחכה ליום בו השמאל בישראל יילחם לצדי שכם אל שכם על הגבלת הכהונות הסניוריטי והסמכויות של בית המשפט העליון…  DoreBloch AvishayBenHaim אני יודע איזה ספינים רצים על זה בפוליטיקה של בית שמש שממש לא מעניינת אותי  בפועל יש…  מצטרף להמלצה של דוד פטר תעקבו אחריו  DoreBloch AvishayBenHaim זה נראה בעיקר שהעדיפו מאוד לתת שם בן מילה אחת שישמש כשם הרחוב DoreBloch AvishayBenHaim אבל יש פה את הרשימה אין פה צמצום נוכחות נשית  יש פה החלפת שמות רחובות מעל שם חודשים וע…  AvishayBenHaim אבישי לא מצליח להבין את הבעיה כאן  למי זה משנה בדיוק אם לרחוב קוראים רח נתן אלבז או רחוב אלבז ע…  OrenNahari gershuni אורן יצאת קצת לא רציני בציוץ הזה שלך על תפקידו של העליון בפרשה  וכשאני אומר קצת זה כי אני…  ofralax2 zabardoker עם ספר תורה זו הרמת משקולות ThisAnd56493597 accurateWell dadoundaniel beshevanews יש מהלכים רבים שקודמו בעניין המשילות בממשלה האחרונה הי…  zomerg BiniAshcknasy השאלה היא בכלל לא כמה עתירות נדחות או נמחקות פעמים רבות עצם הגשת העתירה והחשש מפני מעורבות…  jonklinger KristalZvika DovMorell אתה התחלת jonklinger יונתן 11000 זה עבור עסקה מתנה מותר לתת ב50000 שקל  ובכל מקרה המגבלה היא על עסקה  כך שאם הוא פור…  chaimlevinson הייתי בטוח שתתרום לתנועה למשילות ודמוקרטיה  היינו מנפיקים לך כרטיס חבר  עדיין לא מאוחר חיים כל זמ…  dadoundaniel beshevanews כי מינוי קבוע דורש אישור ממשלה dadoundaniel beshevanews לא מדוע נתניהו האריך את כהונתה של דינה זילבר כתבה בעיתון beshevanews עם הרבה סימני שאלה  sfardm אז חשבון אתה יודע עכשיו תדאג לנפש DiscussingEcon1 naftalibennett TomerAvital1 השמצות של נבחרי ציבור זה שיטה או תחביב OrenNahari הפוך גוטה אנחנו ממש רוצים לחזור לבית המשפט של לפני 40 שנה sfardm אתה יושב על לפחות שתי רובריקות ממליץ על חשבון נפש almogtamar עם כאלה שופטים טוב שיש לנו אל עורך דין  גמר חתימה טובה  almogtamar  Idaneretz שיעשה הסכם עודפים עם מנדלבליט ביחד יהיה להם סמכות ואחריות ptrdvd דחוף  היועמש התנה את הגבלת ההפגנות בסגר מלא אחכ הכחיש בתקשורת כעת בנוסח התיקון לחוק הקורונה הוא מביא נוסח שבו הוא מנסה ב… עזבו הכל  כשאין סגר אני יכול לארח עשרה אנשים לחודשיים והקניות יעלו לי פחות מ7500 שקל  אין ספק שהאנשים הללו במצב…  לו רק לשופטים היה חוש אירוני או מודעות עצמית  BiniAshcknasy Music to my ears FtG9f4F8dUYueFU Yishai2 ErelSegal Refael81480415 mosheifargan כן זה ידוע שהמלחמה בין הקתולים לפרוטסטנטים באי…  Yishai2 ErelSegal Refael81480415 mosheifargan היא לא הייתה טענה תיאורטית בכלל היא הייתה טענה אמפירית אנשים מ…  yehudaamrani חשבו שמגיפת האקטיביזם המשפטי היא בעיה של מי שמעניין אותו מנהל תקין של סעיפים וכללים חשבו שזה מציק לתזה השמרנית ומיועד לד… Yishai2 ErelSegal Refael81480415 mosheifargan לא הבנתי מה הקשר או הסתירה לטענה ErelSegal Refael81480415 Yishai2 mosheifargan הדיון מעט משונה מדינת לאום נועדה לשימור ופיתוח הלאום גם מדינת…  Eli77581952  bfyyfSmVqAYQ4sw  shirant3  shirant3 אני מניח שלפחות ה100 פלוס אנשים שעשו לייק הבינו avribloch בפרקליטות אומרים לMeshilut כי משרד המשפטים היה גורם מקשר בלבד בין ליאת בן ארי ועיתונאים אבל מהפרוטוקולים בבקשה נגד אורלי ל… Mooshitwitt תראה מה זה אם גם אני וגם shlomopyuter  בחור לא טיפש בכלל הבנו את העניין ככה יש מצב שלפחות חלק מהש…  mosheifargan אתה לא רואה בחופש הדת ובחופש הביטוי הפוליטי זכויות נפרדות עם רגישויות אחרות והצדקות אחרות מחופש התנוע…  Skankilicious נו זה בדיוק התנאי בוא נניח שאני שר בממשלה ואני חושב מסיבותיי שהגבלת ההפגנות היא חיונית למאבק בק…  refaelu mosheifargan אני ואיתי מרבית ההוגים שעסקו בחירויות ובהגבלתן על ידי המדינה לא רבים יודעים אבל החתולה של פרומה המשוגעת ממאה שערים והכלב של אורלי בר לב מבלפור נפגשו ופרי אהבתם מכתיב למדינת…  זה לא שהוא משקר זה שבנסיבות מיוחדות ובאופן מידתי הוא לא אומר אמת  FriedmanIddo nadavkna TalYanko לא אתה צודק עדיף של 15 שופטים יהיו שלושה נציגים נציג לכל 5   80000 עורכי דין…  danieldolev אז שוב אנחנו במצב בו מותר להפגין בקבוצות גדולות ואסור להתפלל  אני לא יכול לארגן תפילה של 2000 איש בסג…  EdmondSoze mosheifargan שוב לגבי הצדקת המגבלות אין לי ויכוח אבל ההשוואה בין הפגנה ותפילה ובין בילוי על החוף היא מופרכת EdmondSoze mosheifargan לא נכון בעבור החופש להתבטא כרצונם אנשים יצאו למלחמות danieldolev למה לא רלוונטי  לכאורה אם יש 2000 איש בטווח של קילומטר מבלפור הם יוכלו לבוא ולהפגין לא EdmondSoze mosheifargan לא דיברתי מילה על דמוקרטיה דיברתי על ההפגנה כמרכיב זהות  אנשים לכל אורך ההיסטוריה היו…  מה שהוא אמר  TalYanko כך מבין כל אדם עם מח בקודקדו גם אם הוא דמוקרט תומך ביידן mosheifargan שטויות במיץ  המסקנה האופרטיבית שלך נכונה צריכים כללים אחידים בעיקר בשביל הפשטות האכיפה והציות  א…  diklaaharon נתון מעניין אבל השאלה היא החלוקה לגורם הבידוד  הרי באופן עקרוני כל מי שעושה בדיקה נכנס לבידוד עד קבל…  TheTeac39205141 RoyIddan איכות נבחרי הציבור הוא בידינו לא מוצא חן בעיניך תחליף  מהיכרות יש לנו חברי כנסת מעו…  KristalZvika RoyIddan אין ספק שהאשמה היא על הציבור ונבחריו שמסתובבים חשוף עם כל הדמוקרטיה בחוץ  אבל גם לגנבי הדמוקרטיה יש קצת אחריות TheTeac39205141 RoyIddan דמוקרטיות לא מתות מדום לב אלא מסרטן איטי והדרגתי ששולח גרורות  אנחנו בתהליך ארוך של א…  shlomohecht מה שצריך היה להיות  נתניהו ההצעה המובאת  עשרה אנשים במקום סגור עשרים במקום פתוח עד אלף מטר מהבית מקומות עבודה חיוני… TheTeac39205141 RoyIddan להגדיר מהי שיטה דמוקרטית זה קשה להגדיר מהי שיטה לא דמוקרטית זה קל  שיטה שבה שופטים…  RoyIddan איזה שטויות ממתי בחירות חיוניות לדמוקרטיה  אתה מפספס את האספקטים החשובים ביותר של דמוקרטיה  שופטים שמ…  sefafefa attilus cnnbrk כלום כל הכבוד להם אין ציניות attilus cnnbrk קריירה ארוכה הספיקה לעבוד עם הרבה trzFsTWjPnYu5JG אין לי איך להסביר לך יותר טוב  המפגינים לא מעניינים אותי בכלל  אם לא יהיו מגבלות אחידות ברורות…  אם אתם חושבים שממשלה שלא מסוגלת להעביר החלטה פשוטה יחסית על סגר כשמגפה משתוללת ברחובות תצליח להעביר תקציב ועוד דו…  trzFsTWjPnYu5JG אני מכיר שיש מגבלות משמעותיות על בתי הכנסת מישהו כבר דאג להם להגן על עמדת הממשלה בבגץ זה אחד מתפקידיו של היועץ המשפטי לממשלה  בעולם נורמלי מי שבא לבוס שלו ואומר שהוא לא מסוג…  trzFsTWjPnYu5JG כמה אתה לא מבין באיך עובדת מגפה מאחת ועד לחשוב שאני דואג לבריאות של המפגינים כשאני תומך בהגבלה על הפגנות DorelMasasa אין שום קשר בין הדיונים לבין משפט DorelMasasa אני חושב שאסור לייצר מגבלות מיוחדות על הפגנות שמבוססות על תוכן ההתקהלות אבל כאשר מייצרים הגבלות הנובע…  ShimonNataf IsraelCourts שזו חברה שעוסקת בניטור תכנים ברשת האינטרנט כשהיכולת של הממשלה לפעול למיגור המגפה מוגבלת ליכולת ההסבר המוגבלת משהו של היועץ המשפטי לממשלה וליכולת הקליטה המו…  MousaBlancos7 akibigman שאפשר לשאול המון שאלות בטוויטר ואפשר אשכרה להציג את השאלה העיתונאית לאנשים הרלוונטיים ולקבל תשובות ptrdvd יש תיאוריה הגורסת כי אם אי פעם יגלה מישהו לשם מה בדיוק נועד היועץ המשפטי לממשלה ומדוע הוא נמצא כאן ייעלם…  EdmondSoze aviadglickman baruchikra DaphnaLiel AmirOhana זה קצת לא פייר הוא לא מסתדר עם לקרוא ולהבין עברית…  MySmallfish IsraelCourts חינוך לאמת לא מתחיל ביום אחד צריך הדרגה והדרכה היוש IsraelCourts תרצו להתייחס לזה שהיועץ המשפטי שלכם מגיע לוועדת חוקה ומוסר לחברי הכנסת מידע לא נכון  2020 עוד לא נגמרה   BrdShr שטויות במיץ מינוי מחליפה קבועה לשבע שנים דורש וועדת איתור שעוד לא קמה ואישור ממשלה במליאתה  החלופה כאן…  accurateWell ayeletkahana globesnews netaelbandel כמובן מעמתים accurateWell ayeletkahana globesnews netaelbandel אז במקום להתווכח תצפה אתה בדיון תצפה בכל דבריו של ברק לייזר…  accurateWell ayeletkahana globesnews netaelbandel ובנדל לא מסביר לי על מה היה הדיון בגלל שבנדל לא נכח בדיון accurateWell ayeletkahana globesnews netaelbandel אני לא מבין בכלל על מה אתה מתווכח  אתה טוען שהתשובה שלו לא ה…  accurateWell ayeletkahana בוא נאמר כך  כששואלים אותו האם הייתה פנייה להסרת כתבות והוא עונה לא הייתה פנייה לאמצ…  Meshilut ברק לייזר היועץ המשפטי של הנהלת בתי המשפט היום בוועדת חוקה יש פה אמירות פומפוזיות על צוות ושמעתי אמירה על כך שמעסיקים חב… yehudaamrani על רותח  accurateWell ayeletkahana קראתי בעיון אבל יותר מזה הקשבתי לדיון בעצמי  הנה הציטוט המלא שלו אני מודיע כאן קב…  mic94496714 netaelbandel Haaretz נתנו תשובה היא ארוכה אז קצת קשה להעלות לטוויטר אנסה לבדוק אפשרות להעלות לאתר התנועה ולשים לינק AyeletMitsch dasdasit InOn1500 avihaihaddad לא הבנתי יש בעיה שנוביק יראיין אנשים מהמכון הישראלי לדמוקרטיה  הו…  נזרי הופסקה הפעילות הלא חוקית של הנהלת בתי המשפט  לאחרונה נחשף שוב על ידי netaelbandel הפעם כבר בעיתון…  חשוב להזכיר כאן את ההיסטוריה  כל קיומו של המאגר ונוהל הריגול נחשף עקב אמירה בדיון בכנסת  netaelbandel אז בעיתון…  AyeletMitsch dasdasit InOn1500 avihaihaddad איילת הסיבה שיש להם תוקף היא שהציבור סומך עליהם שיגידו את דעתם לפי…  ayeletkahana האמת היא מצרך כל כך נדיר  taliaeinhorn arrhton MischakMilim הצעת חוק לתיקון חוק יסוד השפיטה שתבלום את הרפורמה הונחה אתמול בידי חכ gidonsaar וHaleviAmit… מנדלבליטגנץניסנקורן לא מסכימים עם חוות הדעת של ptrdvd ואביעד בקשי מ KoheletForum והם מוכנים שתמותו כדי שחוות…  IdoA13 אני אומר את דעתי תמיד ומי שיוטרד מדעתי או שיאשים אותי בקונספירציות זו בעיה שלו אנקדוטה מעניינת הנהלת בתי המשפט הוציאה על מאגר הריגול שלה מאות אלפי שקלים כמובן בניגוד לחוק  כשהפסקנו את הפעילות…  GadiTaub1 אז מסתבר שאולי אקטיביזם שיפוטי זה לא כזה רעיון טוב בעיני השמאל פתאום איזה קטע</t>
-  </si>
-  <si>
-    <t>אבדה קשה לחברון בפרט ולעם ישראל בכלל יהי זכרה ברוך  Menachemcohen1 רפואה שלימה צדיק Menachemcohen1 רפואה שלימה מוזמן להשתמש בזה בפייסבוק טוויטר  לפחות זה אמנם רחוק מאוד ממה שצריך להיות ואם מחבלים ערבים זוכים לתפילה קבוצתית לא ברור לי מדוע הוא לא אבל עדין יש ח…  תן בנו מידת הרחמים   אמרתי לכם  ivgiz זו אותה מדינה כאילו  להם מותר הכלאמנם אני נגד שימוש בתקשח כדי למנוע הפגנות אבל קשה להבין איך בישראל 2020 יש אזרחים סוג א מפגיני ב…  וכשלא מאפשרים ליהודים להתפלל בהר הבית גברת זילבר גם נזעקת  אם זה נכון זו חרפה  avishaigrinzaig לא סותר והאמת שכהל שעובר הזמן והמפגש שלי עם חלק מהפוליטיקאים מעריך אותו עוד יותר בתוך ים של פוליטיקאים לא אמינים רובם מילה זו לא מילה ומה שמעניין אותם זה הכסא משה פייגלין תמיד היה בעיני סמל ל…  מומלץ בחום  אני מוכן  הרגע שבו אמנון לוי ואני מסכימים בעניין פסיקת בגצ על הרב שמואל אליהו  עולה בשעה הקרובה אצל אמנון לוי להגיב על פסיקת בגצ בעניין הרב שמואל אליהו צודקת בכל מילה אבל לצערי לא מסוגל לשכוח שדינה  זילבר פרחה בתקופתך  כמה כיף הלחץ של השמאלנים המטורללים שיודעים שרוב הלקוחות שלי משתחררים או יוצאים זכאים הלחץ אוכל אתכם הא  העיקר שאת יזבק הם לא פסלו אבל כלפי מנהיג ציבור איש אמת גדול דור מפעילים את כל התותחים ומנסים לסתום לו הפה מביש  marikshtern מבין את התסכול שלכם בשמאל המטורלל  מכמות הזיכויים והשחרורים של הלקוחות שליתמשיכו להיות חמוצים ARotmensh מבין את התסכול שלכם בשמאל מכמות הזיכויים והשחרורים של הלקוחות שליתמשיכו להיות חמוצים לא כל בחור שצריך טיפול ועזרה זה אוטומטית ניסיון לפגוע במפגינים שמאלנים הסרטון מוכיח שלא רצה לפגוע ומי שרוצה לפג…  כמה נכון  nevokatz1 ברוך דיין האמת אביך היה אדם יקר וצדיק זזכה לחנך דור אין משטרה בירושלים אם זה היה הפוך  הערב  במוצאי החג  שנה מתוקה  drmichaelbenari איש השנה בנצי גופשטיין אשת השנה ענת גופשטיין מסירות נפש לבנות ישראל במקצועיות ובאהבה ללא גבולות טירוף הדעת התיק הזה היה חייב להסתיים בזיכוי יודע שעורכי הדין המוכשרים יערערו לעליון ורק מתפלל שימצאו אוזן קשבת שת…  הנחיות הסגר שמטילים על ישראל מלמדות כי הסגר מלא חורים גבינה שווצרית אטומה לידו לא תהיה שום בעיה לתרץ תירוצים  ו…  אחלה תקשורת ימנית  tzvisuccot בית משפט פסל לגמרי את ההודאות שלו שנגבו בעינויים הבחור מצולק לגמרי מההתעללות בחקירות כבר התחיל חיים חדשים למי דחוף לשלוח… שמח שגם בפרקליטות הבינו את מה שאמרתי מהרגע הראשון אין בסיס לחקירה אין בסיס לטענות ואין שום תקדים לאירוע כזה אם ה…  YinonMagal מועצת העיתונות היקרה אחרי שתזכרו לגנות את דבריו הבהמיים והמסתים של ירון לונדון שקרא בזמנו ברצינות לירות על מתנחלים אני… מכיר את חומר הראיותייצגתי בהליך המעצרהיום נשלח אדם חף מפשע לשלושה מאסרי עולם ההודאה שלו נתנה בעקבות עינויים ש…  YairNetanyahu  בואו נשמע עכשיו את כל אבירי חופש הביטויאופנהיימר זהבה האגודה לזכויות האזרח נאלמתם דום  הערב  אפילו שלא יהיה סגר במוצש מומלץ להישאר בבית  שמח שבסכנין הבינו שביזוי הטקס זה דבר פסול ומי שעשה זאת ראוי לכל גינוי  וגם שמח שהוסרה תביעה מיותרת מבלי שאשלם שקל…  tzvisuccot Einavschiff  בתפקיד המטרחן היומי עם ה אויאויאוי הקבוע  והפעם על NahumDana שאשכרה העיזה לראות משהו מעבר לקו הירוק שהוא לא… arielelharar על החתונה ברהט הערב אני מאמין שלא תראו את זה בכותרות הראשיות אנחנו פה בשביל שכולם יראו  כך סוחטים ראש ממשלה באיומים  chanamel1 על רקע גמגומי בנט ושקד זמן טוב להזכיר מי נתן גיבוי מלא בזמן אמת לשי ניצן ואביחי מנדלבליט לעשות ככל העולה על רוחם צפו  מת… לצערי נתניהו לא שמע לי שי ניצן לכלא כתבה במבט  על מינויו של ניצן לפרקליט המדינה כאשר הפצרתי  בממשלת ישראל לא למ…  drmichaelbenari ׳אין חשד סביר׳  ניצן העבריין מנאייכ לעניים עוול  כמי שייצג את עמירם בהליך המעצר ונחשף לעינויים הקשים שעבר אין לי ספק שאסור להרשיעו מקווה שלא יתייאש ויערער ל…  newsbuzznet בן גביר תובע מיליון שקלים מערוץ 7 – כל הפרטים  הם ליכלכו שיקרו סילפו לאורך כל מערכות הבחירות והתנהלו הפוך מאיך שאתר חדשות  מתנהל על כל אלה החרשתי אבל ההתנהלות…  השבח לבורא עולם עוד ניצחון בבית המשפט  ילמדו שוטרים לא לעצור אנשים שמתנגדים ל מצעד הגאווה רק בגלל השקפתם חופש…  רק בישראל  מוזר לא ראיתי את כבוד הרב בעצרת המחאה לרצח של הרב שי אוחין בפתח תקווהטוב הוא היה יהודי  העיקר שיש מזרח תיכון חדש אין לי בעיה עם שלום מול האמירויות בתנאי שזה שלום תמורת שלום אבל יש לי בעיה עם מדינ…  יום עצוב אורי לא רק עיתונאי מקצועי בחסד אלא איש אמת לצערי לא פלא שנזרק מקווה שערוץ 20 גלי ישראל תחנת שידור חרד…  שלום כיתה א  היום הכנסנו את דוד ציון המתוק לכיתה א בבית הספר הנפלא ממד חברון  גם בפעם החמישית ההתרגשות גדולה…  עושה רושם שהיא באה לעבוד שאפו  ביזיון  drmichaelbenari עתידות ההתפטרות של  מרידור לא תעבור ללא התערבות של ׳המשפחה׳ מבית המשפט העליון מרידור בשר מבשרם הוא זרוע שלטונית של… עולה אצל אמנון לוי בעוד דקה מקווה שהמסר יעבור אני יודע שיש הרבה שוטרים נפלאים ויקרים אבל לא אתן שיתעללו בציבורים שלמים סתם  דם יהודי אינו הפקר עכשיו בהפגנה בפתח תקווה  הבעיה שאת כיהנת כשרת משפטים  במשך 4 שנים ומלבד שינויים קוסמטיים לא באמת עשית רפורמה במערכת חבל  לירן היקר המצוקה היא מצוקה אמיתית ואסור לזלזל בה בין אם הוא מצביע לביבי או לעוצמה לאזרחי ישראל מגיע ללכת ברחוב מב…  שמח שהשכל הישר גבר ומקווה לקבל בקרוב הודעה רישמית מרשתי טענה לאורך כל הדרך כי מדובר בהתנכלות רק משום שסירבה להעיד…  העיקר שחאן אל אחמר עומד על תילוכפיים לבגץ  מקווה שהתקשורת תתעסק גם בזה  יום שחור למערכת המשפט שהגענו למצב כזה  kahanezadak זה לא סוד שהיו מריבות גדולות עם bezalelsm בגלל הבחירות וההחרמה שלנו אבל יישר כח גדול שהוא מעלה את הנושא של מיהו יהודי כ… carmeldangor פרסמנו במהדורה דקירה שבה נפצע אדם אנושות לפני כעשרה ימים  נחקרת במערכת הביטחון כפיגוע הדקירה דווחה בהתחלה כקטטה ומאז… urieltzaitlin שמאלנים יקרים איפה הייתם כשהם משכו בזקנים של חרדים כשהם היכו חרדים בני 70 כשהם תפסו באשכים של נערים חרדים בהפגנות כש… ayeletlash9 אבי בן שחר בן ה70 מכוכב השחר נכלא לראשונה בחייו בשנה שעברה הוא הושם במגרש הרוסים בני המשפחה חששו לחייו ודרשו מהשופט לה… כל מילה אמת רק חבל שהנציגים הפוליטיים שמתיימרים לייצג את הציונות הדתית שכחו את זה  TalAngel1 אתה חוצפן נתתי ליוצאי אתיופיה קורסים בחינם המשפטים YairNetanyahu רוצים הוכחה שישראל קיימת בחסד האל עובדה ששרדנו את כרמי גילון כראש שבכ gabigr007 מת על הבת ימים אבל זה ממש לא שייך מגעיל גזעני ובעיקר לא חוקי  עכשיו בנתניה  למה בהפגנות של השמאל הם תמיד מפרים את החוק ואגב אני כמובן בעד חופש הביטוי אבל האדם שבתמונה היה אמור להיות סמל…  yoni02cohen BiniAshcknasy מתוק שלי נעשה לכם גם קורסים בלשוןלא רק בדמוקרטיה BiniAshcknasy ביני יקירי אני יודע שאתה אדם חכםפשוט תספור עד 10 ואז תגיב אתה באמת לא מבין ההקשר אמת  mendystarck רפואה שלימה מביש  מאבדים את ירושלים צפו איך בריון מנוול מרביץ לילדים ומנסה להגביר השליטה הערבית בירושלים ומשטרת ישראל עוצרת כמובן את…  את טטיאנה סוסקין שתלתה כרוז נגד האיסלם שלחו לשנתיים בכלא דברים שאמרתי בהפגנה נגד הסדרה האנטישמית  בהפגנה נגד הסדרה האנטישמית  כולנו נהיה שם  EAnavin ממשיכים לכתוב דברים כמו שאתה כותב רק אל תגיד שלא הזהרתי ינון אחי זה מה שיש לך להגיב על המאמר אז כנראה שאתה יודע שאני צודק  תסתכלו על הפרצוף של אורי זכי ותבינו למה נתניהו  עושה מדיניות של השמאל  תכף מתחילים  WinnieRottem מעריך אותך מאוד אבל כדאי להפסיק עם ההשמצות אמרנו שנתמןך בו אם יעשה מדיניות ימין UdiBenDavid אודי יקירי זה לא ממש דומה  עם נתניהו יש לכולנו ניסיון לטוב ולרע רק מקווה שלא באמת האמנתעצוב  EAnavin עניתי מספר פעמים התשובה שזו השמצה  אבל יש כאלה שאני גם תובע אותם על אותה השמצה ואחר כך הם עושים במכנסים  רוצה להצטרף אליהם לא חייבים ללטף את נתניהו כשלא מגיע לו ולא תמיד צריך להאשים אחריםאולי הגיע הזמן להודות שחייבים לשמור על נתניהו מימי…  אמרנו או לא בלי עוצמה יהודית אין ממשלה ימנית  1gDArPt8EiaPBXk סיפורי סבתא בינתיים מי שהצביע למפלגות שהזכרת קיבל ממשלה כזאת רות גביזון הייתה מההגונות והישרות והחכמות במערכת המשפט הישראלי אמנם בחלק מהדברים עמדתי שונה ממנה כמרחק מזרח ממערב…  לשמעון ריקלין בידידות דברים שפרסמתי באתר ynet  לצהל באהבה משלוח ראשון מתוך רבים רביםשל משלוחים ופינוקים לחיילינו האהובים בעמדות שלידנו בשיתוף עם גילת בנט ותוד…  שמעון יקירי תפסיק להיות פרייאר  YairAltman IsraelHayomHeb כל הכבוד  תכלס  EHarfuf וביבי המלךאחלה סיפוח EHarfuf בטח רק אני אשם תראו מופתעיםלנתניהו אין אומץ  natihatar בהצלחה יקירי עשית עבודה מצויינת הי שליאת צבועה  YinonMagal ב9 בפטריוטים patriotim20  עידית סילמן iditsilman  יאיר לוי iairLevy  ביני אשכנזי BiniAshcknasy  איתמר בן גביר itam… Aviadbr יקירי גם כאשא עושים דילים צריך קווים אדומים haimmisgav חיים יקירי זו הייתה ממשלת ליכוד matanhuberman IsraelGaley YotYotam AyeletShaked noamfathi נכון ובהחלט יש לה זכויות לרגע אחד אני לא שוכח א…  hgkkuh גם אם אתה עובד עובדת בימינה צריך לדעת שאסור לשקר שקד מינתה את קרא לצערי לא שוכח שאיילת שקד מינתה את השופט גורג קרא יש לאיילת זכויות לא מעטות במינוי שופטים אבל מינוי קרא היה טעות…  פחחחעוד תגובה כזאת ואבדנו  מזוז וקרא אלה הם השופטים שמייצגים את דעת הרוב בבית המשפט העליון של מדינת ישראל כך נראה בית המשפט העליון שלנו וזו ה…  yaronavraham באלגנטיות בועז גולן עיתונאי אמיץ ישר ובעיקר אוהב ישראל גדול שאפו  avribloch המשטרה פונה בצורה יפה למפגינים נגד נתניהו ומתחננת שיתחילו להתפזר  אני מנסה להיזכר כמה פעמים המשטרה התנהלה ככה בהפגנות מול ה… ולך אני מאחל  לשבת בכלא  כנער בן 16 חוזר בתשובה ממבשרת ציון התחלתי ללמוד גמרא עם פירוש שטיינזלץ לא ברור לי כיצד הייתי יכול ללמוד בלי הפירו…  על עלילת הדם דן חלוץ יחטוף תביעה  אוהדי ביתר ירושלים הגיעו למשרדי כדי להפסיק את ההתעללות המשטרתית בהם מעצרי שווא רדיפותהתנכלותנמאס להם והם צודקים  ItshakWaserlauf מזל טוב יצחק היקר אחרי שקראתי שהיה מתמחה של השופט גובראן הכל ברור  רק ממשלה מטומטמת מציעה סיוע לאויבים שלה מיצר על כל ילד שנפגע אבל כשמדובר במדינת אויב שיבקשו עזרה מסוריה יש שם מ…  BiniAshcknasy לבנון היא מדינת אויב ויש מספיק בתי חולים בסוריה תמימות שכזאתיפים הדברים של דר בן ארי שיפתחו רכבת אווירית לסוריה  YotYotam לא הבנתי גם אם פיצוץ של מחסן גרעין בטהרן יעלה חצי עיר באוויר נציע סיוע או שמדובר במדינה שמזכירים לנו כל הזמן שמכוונת אלינו… המשטרה בירושלים יודעת לעצור רק פעילי ימין וחרדים  GolanMay kahanezadak ArielKallner כל הכבוד יהודי יקראוהב ישראל גדול ברוך דיין האמת  הפרצוף של השמאלניםויישר כוח לבועז גולן  carmeldangor סיפור מעניין מתוך דוח מבקר המדינה מנגנוני הביטחון של הרשות הפלסטינית עצרו וחקרו עובד פלסטיני במנהל האזרחי העובד משמש כ… אם אני יאיר נתניהו אני מגיש ערעור על ההחלטה ועולה עם זה עד לעליון מדוע להם מותר להפגין יום ולילה וליאיר אסור אפילו…  עכשיו זה רישמי  KalmanLiebskind התקשורת מתאמצת להגביר את הלהבות לחמם את האווירה לטפח את הכאוס לא לתת למחאה נגד נתניהו לדעוךעיתונאים לא מדווחים על… KalmanLiebskind נדמה לי שלא באמת הבנת במי פיד ימין מזלזל מצער לראות שערוץ 7 ממשיך בהתנהלותו המגעילה  מודה ועוזב ירוחם קיץ בריא  שמח שמוצאי תשעה באב סיימנו את המחלוקות וחתמנו על הסכם חשוב  ItamarKatzir אני ראיתי סרטון ערוך שעשו האנרכיסטיםלתדהמתי חלק גגול מכלי התקשורת העלו הסרטון עם הכותאות שהאנרכיסטים עצמם נתנו ItamarKatzir בסרטון הערוך והמבושל אתה מתכוון ItamarKatzir עבודה עיתונאית זה להבין שיש שני צדדים והמציאות מורכבת וגם אם פספסת לינץ של אנרכיסטים באוהדי מכבי הסר…  ItamarKatzir מניח שאם היית עוקב היינו רואים צילומים אלא אם כן צילמת וזה פשיט לא התאים לאגנדהמה קרה אתה מפחד ששוקן יפטר אותך פעם הצגת את עצמך בפני ככתב הוגן והיום אני מבין שאתה סותם פיות דיקטטור שמנסה להסתיר את האמת מה קרה לא נוח לך שלפתע…  נו יקירי עשה טוב חכם שלקח  את בן גביר או לא  בית המשפט שחרר את מרשי וקבע שאי אפשר להפלות ביןצשמאל לימין  הסרטון שהשמאלנים לא רוצים שתראו אין דין ואין דיין  מדהיםכתב הארץ העלה סירטון אלימות של אנרכיסטים שעטו על רכב והחלו להכות על הרכב ולפתע מחקמה קרה זה לא משרת את…  לשמחתכם אני מייצג את אלה שלא נעצרו אבל לא פלא שהאנרכיסטים בלחץ גם הם מבינים שהאמת עלולה להיחשף ואחרי הלחץ התקשורת…  notspecial2020 על חסימת כביש אנשים ישבו במעצרים עד תום ההליכיםטוב בעצם זה אנשי ימין אז בטח אתם לא מחשיבים YaelFreidson צר לי יעל אבל בהפגנות שנכחתיאלפי הפגנות  ובתיקים שאני מטפל מאות תיקים המדיניות המכילה הזאת לא קיימת בהפגנות השמאל למדנו משפט חדש משטרה מכילה מי ייתן וערב תשעה באב יעשו גורמים במשטרה חשבון נפש  ויכילו גם הפגנות…  לא להאמין במקום לטפל באנרכיסטים זה מה שמשטרת ישראל עושה בימים אלה  drmichaelbenari ׳בריונים׳ או לוחמים עזי נפש ההיסטוריון ד״ר בן ארי מגיע אליכם לסלון לספר את סיפורו של המרד הגדול מנקודת המבט של לוחמ… 8tSFx8GhfSG9198 בניגוד לכם לא הלכתי ותמכתי בחימי yoelcoh אבל בניגוד לפייק ימין בלשכה אני לא תמכתי בחימירק אומר שמאלן נשאר שמאלן  אני את שלי אמרתי והזהרתי לצערי חלק מהחברים הימניים והדתיים בלשכת עורכי הדין תמכו בחימי אלה התוצאות  ayeletlash9 פשוט מחפיר ומזעזע  עכשיו בחברון ארבעה נערים מחבלים תוקפים ילד יהודי לעיני חייל שעומד שם הם דופקים לו סלע לראש וחייל פ… יש לי לא מעט ביקורות על נתניהו אבל אף אחת מהן לא על הצוותים המוכשרים שעובדים איתו לא מכיר את טופז לוק באופן אישי…  יש שמאלנים הגונים לצערי הם מעט מידי  בקיצור אין דין ואין דיין  drmichaelbenari האיש שחתם הסכם והפר אותו בלי למצמץ YemanimNews עוד בן גביר זכויות מפגינים זה רק לשמאל המשטרה שכחה לעבוד   itamarbengvir חדשות ימנים gtgtgt  akivanovick בהצלחה יקירי profit1to1 2 למשרפות הקימו מחנות ריכוז באם אינך מבין שכאשר אתה משווה אותי לנאצי אתה פוגע בראש ובראשונה בשישה מל…  profit1to1 1 שאלת שאלה כביכול רטורית אם היית רוצה לשאול באמת היית שולח בפרטי מעולם לא דיברתי על עליונות הגזע ואי…  profit1to1 אמנם משתדל לא לתבוע על כח אמירה אבל אין ספק שעברת את הגבול יש לך 24 שעות להתנצל ולכתוב בהודעה שתתפרסם…  למה ההתפרעויות של האנרכיסטים ישמשו אותי בבית המשפט הגיגים שכתבתי בעקבות ההתפרעויות והיחס המקל של המשטרה  avribloch תנו לי להבין ההפגנות שהיו נגד רבין נחשבות להסתה אבל ההפגנות נגד נתניהו הן סבבה בדכ לא מעלה דברים מערוץ 7 שנהג בצורה שפלה בבחירותאלא ששימו לב לתגובת הערוץ באשר לדרישה  שהגשתי נגדם בשל הפרסומים…  UdiBenDavid ימנים ושמאלנים עכשיו אחרי שכבר הבנתם שכולם חרטטו אתכם מה תצביעו בבחירות הבאות kahanezadak תשעת הימים זה הזמן לדאוג להר בית ה אלוקינו היו שותפים  גזען  hundfritz הודה בעינויים GndjqzCibDYcmyJ AvrahamPeretz אמרנו וצדקנו אין עוצמה יהודית  אין ממשלה ימנית מתפלל שהצדק יצא לאור ועמירם בן אוליאל יחזור הביתה  כאמור לא אהבתי את הדיל עם המשותפת אבל אוסנת מארק יותר מראויה בהצלחה  OsnathilaMark ברכות אמנם לא אהבתי את הדיל עם המשותפת אבל את יותר מראויה בהצלחה רבה YaronH8 אין לי שום בעיה עם אוססנת מארק היא יותר מראויה  ואחרי כל זה מצפה שהליכוד לא יעשה דיל עם המשותפת על אף הביקורת הקשה שיש לי על איילת שקד ואותה אמרתי לא פעם בשנה האחרונה צריך לומר ביושר שהברית ליכוד רשימה משותפת…  ואם התוקפים היו מנוער הגבעות מה היה קורה   חופש ביטוי בודאי אבל למה באלימות  עולה לאילה חסון ערוץ 13 בסוגיית ההפגנות והאלימות נגד הציבור החרדי לשאלת רבים הנער שנעצר לפני מספר דקות איננו ידידיה אפשטיין אין בדברים כדי להצדיק אלימות שוטרים כלפי קטין שאיננו יד…  נראה לי שאני מוחרם בתוכנית של ברקוביץ והתוכנית הפכה להיות במה ללפיד ובוגי אבל אחרי כל אלה צריך לומר את האמת ברקו…  גועל נפשהשנאה לחרדים עוהרת כל גבול מדיניות המשטרה לא חוקית אם אני חרדי שמקבל דוח מבקש להישפט אכיפה בררנית  YemanimNews רכבו של בנצי גופשטיין ניזוק מירי ערבי במהלך השבת  גופשטיין ממשלת ישראל אדישה לחיי יהודים  חדשות ימניםgtgtgt  בשבת עברנו טרללת בחברון אלפי זיקוקים חזיזים ויריות החל מלפנות בוקר ואין דין ואין דייןפניתי למשטרה בסופו של דבר ה…  לפני כשעה הצטרפתי למקבלי הדוחות בגין מסכה מעבר לכך שהדוח לא חוקי ושלא נותנים דוח למי שעושה פעילות ספורטיבית ולעוב…  הבנות הללו צריכות לקבל פרס כשהתחילו את מאבקן אותו אני מלווה מספר שנים בהתנדבות המשטרה סברה שאסור להתפלל ברובע המו…  ובסיומו של היום הזה  הולך לישון מוקדם היום את האמת צריך לומר שאפו לבצלאל סמוטריץ יחד עם זאת חוששני שמעשיו של ח…  ותודה ללאה מרכזי עוצמה יהודית ששלחה תזכורת לסרטון הזה   מביש  issab5191 אומץ יקירירק אומץ Aviadbr מציע שתקרא את בקשת רשות הערר ואז נשוחחהחלטה מבישה שפוגעת בזכויות אזרח</t>
-  </si>
-  <si>
-    <t xml:space="preserve">noyalooshemusic הייתי צריך את זה תודה noyalooshemusic כולנו הולכים למות גם ככה  liliLongstockin idokius זה בדיוק מה שאני חשבתי איזה ריאות יא וואראדי francoyaniv לעבור לפוליטיקה gt הצעות רציניות מאירופה מכל העולם באים ללמוד מנתניהו עקפנו אפילו את אמריקה גם כשמדובר במוות עם ישראל חי  mashkazg מאז ומעולם אני חולם להסתובב בעולם כמה ימים אחרי מותי כדי לראות מה יגידו וזה אגב  אין לי ספק שיסתדרו בל…  DannyU2020 כי כשהמספר לא רשמי נותרת הערכה ותו לא בשעתו ניסינו TheYossifoon ואני לאתר את שמות כל הנופלים והגענו…  katmendo Rereshef זה רק כי את בטיימזון אחר אם היית פה היית מקבלת ממני ״ערה״ כזה בדיוק  Rereshef אז תגידי אממ ערה כן גם אני כוסומו כן הא איזה דפוק זה אני רוצה לישון קיבינימט טוב לילה טוב ללט DannyU2020 למלחמת לבנון זו שמסיום מבצע שלום הגליל ב29 באוגוסט 1982 ועד הנסיגה ב24 במאי 2000 אין מספר הרוגים רש…  LitalCohen תיעוד נדיר של חולה הקורונה הראשון  תודה על ההשראה כמו תמיד DorDugy   AddieBenYehuda KobiLavi ועוד שאלה מטרידה נכנס ילד בן 15 למקעקע והוא לא צריך להביא שום אישור מאמאבא ואיך זה שהה…  odaskal ygurvitz אה אוקי ניחא odaskal ygurvitz אין לי שמץ של מושג מי זו ומה אמרה בדרך כלל זה היה יוצר לי פומו אבל אחרי שאני רואה את השיחה בינ…  AddieBenYehuda KobiLavi יש להם כולה מוסך עם מחלקת מכירות ואז בעלה אומר לה ״היי אני הולך לבנות דוג׳ו ולהשקיע בזה…  kettybar אני די בטוח שבדומה לפרקינסון ולמחלות אחרות הפוגעות בתהליכים קוגניטיביים איש עדיין לא מת מאלצהיימר לכל…  maykaduri צריך לומר וזה עולה לי בבריאות שבניגוד לעולם הבידור של שנות ה70 או של ימינו מועדון הכדורגל הצהוב מתל…  horowitzb האמת היא שקו העלייה יציב למדי זו אחת הבעיות לא lolo67097765 אנשים שמתים הם אנשים שמתים גם לאנשים בני 85 90 ו60 יש זכות לחיים ולאושר ממש כמו אנשים בגילי או צע…  RonnyLinder רוצה שנכתוב ביחד ספר נוכל לקרוא לו ״קורונה ההנהגה האבודה״ 1500 מתים מקורונה הם יותר מסך ההרוגים של צה״ל ב18 שנות המלחמה בלבנון כ650 במבצע שלום הגליל ועוד כ700 מסוף המב…  yairy יום הכיפורים לא היה שונה מכל יום אחר בלבנון Loriiii הוא בהה בפיצה נו בתיאבון RubyTelefus חס וחלילה להרגיש רע אתה איש מעולה ולכן אתה ראוי להרגיש הכי טוב שיש שנה מעולה איש יקר פינת האיןלישוםכוונהלאלהשוויץ מבול של דיאמים פה והודעות פרטיות בפייסוש מאנשים שקראו את הספר בכיפור והיה להם חש…  Loriiii זה טעיםםםםםםםםםםםם AssafCohen2 sDavidovitch אני היחיד שרואה מתאם חד ערכי בין נוכחותו של ערן זהבי במדינה כלשהי לבין התפרצויות דרמטיות של קורונה באותה מדינה כותרות שכוחן יפה לשנים 19491972 19742020  Loriiii סליחה על האשמת הקורבן וזה אבל מי שלא מתארגנת מראש על נגיצים נגיסי פיצה של מעדנות אל להתפלא שהיא עומדת…  Arspoeti חיבוק מגיע לך גמר חתימה טובה לכולכן ולכולכם צום קל וחתימה טובה פיד נתראה בצד השני של יום כיפור קליק smallweed ShimonBurshtein שמעון הוא מגדולי מבשרי הטוב כפרעליו מקווה שהמצברוח הטוב יימשך לכמה שבועות ברציפות לכל הפחות לב RonnyLinder יש לי קושי אמיתי עם זה שכתב ״אנא תפעלו״ מבחינת צרימה זו המקבילה התחבירית להעברת ציפורניים חדות על לו…  Rnusha כל הכבוד שהתקשרת כל הכבוד שאת מתעקשת על בריאותך ועל בריאות הסובבים אותך ופרט לאלה גם חיבוק גדול לב haimhz חברי סיעת הליכוד מסכמים את תש״פ  LJgTWEwCKRfZgsZ YuliEdelstein התמונה משקפת את ההנחיות זה מה שממשלת הליכוד עשתה היא הגבילה בלי שום סיבה את התפיל…  Shutup100000 גזענות היא לא דבר סובייקטיבי גזענות מעידה על כך שבקרב הגזען נוצר הקוקטייל ההרסני של פחדנות שפגשה בור…  arianamelamed נו באמת על מי את עובדת כולם יודעים שהפנס נדלק בשנייה שמוציאים את הסים HulaValley barakbl כן אבל האם הוא יכול לעשות את זה תוך כדי ריקוד מקרנה Shutup100000 אין שום פסול ערכי בכינוי גנאי אישי זולת העובדה שזה לא נעים למכונה בכינוי הגנאי ונועד לפגוע בו דאאא…  Shutup100000 אני לא חושב שאפשר בפלטפורמה המוגבלת הזאת להתחיל להסביר לפלונית את ההבדל העצום שבין הבעת דעה שלילית…  1 אבי צודק לגמרי 2 אדלשטיין בכלל יליד אוקראינה  Leemalach אני רק רוצה לציין כמו בכל פעם שמוזכר שמו ששמתי לדודו אוואט גול בין הרגליים בנופש מבצעי במתקן של האגוד…  kfiron אני היחיד שרואה פה ציפור  AddieBenYehuda גם החרדים ולכן הם משתפים פעולה  הרי לו רצו היו יכולים לצפצף על ההוראות מדי יום חול ומדי שבת והמ…  AddieBenYehuda זה כל מי שעניין המסורת יקר ללבו בלי קשר להשתייכות כיתתית כזו או אחרת יום הכיפורים הוא הרי המשמעות…  AddieBenYehuda האמת ממש כן בעבור דתיים לא ללכת לבית כנסת בכיפור זו קריעה של ממש אני חושב שרוב החילונים לא מביני…  dudiamsalem כן הצבעת בעד בממשלה זוכר זה היה ממש לפני כמה ימים AddieBenYehuda כי זו פעם ראשונה מזה המון המון המון שנים שאסור להגיע לשם בלילה לפני תחילת הצום זה באמת שבר רגשי בע…  חברי סיעת הליכוד מסכמים את תש״פ  ariyederi למעט צררנו הרי אינך צורר ואולי גם לצנו אין ברשימה הזאת ולו עבירה אחת שלא עשית בשנה האחרונה על כל מערכ…  MatanAlcalay חס ושלום על אמת YuliEdelstein כפרעליך עליך ועל שכמותך אומרים במקום דוגמה אישית  דוגמה היא שיט אתה לא נמצא בעמדה מוסרית להעביר…  torliber פףףף את זה אני יודע ג׳ון דיר זה ירוק SmadarS Drorlivne  בגיל 42 תכלס קרוב יותר ל43 למדתי לראשונה בחיי מה היא משדדה  ועל הדרך גיליתי שיש דבר שנקרא קלטרת מתברר שעולם…  NaimNaor לא חושב שאספיק מחר לפני הצהריים אחרי כיפור כמובן שיהיו משלוחים לירושלים מלוא החופן jonklinger NirHirshman זה המקום שידוע בכינוי ״הבתים בדרך למעלה החמישה״ או בכינוי הנפוץ אף יותר ״שיט פנינו לא נכון וזה לא אבו גוש״ YuvaLidor תן לבנאדם להגיע הביתה בחייך האם בחמש השעות האחרונות עשיתי אחד עשר משלוחי ספרים לירושלים קריית ענבים מודיעין שוהם קריית אונו רמת גן גבעתיי…  Guy09894400 haimhz תוך שעה אצלי ביד תודה  מהגשר שבין שער הגיא ומחלף שורש ועד המחסום המשטרתי במחלף חמד שיירה עצומה וארוכהארוכה של מכוניות עם דגלים שחורים וש…  dahanmicha 28 דק מרגע ההזמנה תודה haimhz  dahanmicha תודה מאמין שיגיע אליך עוד היום ואם אתה לא מתכוון לקרוא ואני יכול להבין את מי שבוחרים לא לעשות זאת א…  hanankal מהמדורה הראשונה הזמנתי 2 אחד תרמתי לספריה במודיעין מי שטרם הזמין מומלץ haimhz תושבי תל אביב רמת גן גבעתיים חולון בת ים ראשל״צ הרצליה בקעת אונו ירושלים ומודיעין אם תזמינו את ״לבנון המלחמה האבודה״… talschneider זו דוגמת טקסטבוק לאיך צריך להיראות ציוץ מושלם של דובר בלי התלהמות בלי סרקזם בלי ציניות  והכי נותן בראש מושלם israzohar משפחת לוק BendavidAmir ilanacuriel ברברה סטרייסנד של האלימות החייתית Shutup100000 כך תייצרי גרסה מנוקדת 1 קני את הגרסה הדיגיטלית 2 סמני את כל הטקסט ועשי קופי ל86000 המילים 3 פתח…  itamaralroey haimhz יאללה קניתי itamaralroey אם לא יגיע עוד היום ויש סבירות גבוהה שאספיק יגיע מחר בבוקר Loriiii למה שארצה לנקות את המראה הרבה יותר נוח לחשוב שהסיבה שכל מה שאני רואה בה נראה עקום נעוצה בה ולא בי  naglistal יש בהחלט אפשר להזמין אותה באתר בפורמט EPUB ואם לקורא שלך תהיה בעיה יש גם גרסת PDF schaingarte אני לא חוסם את הזולת  אבל גם לא מתערב לאחרים בחסימותיהם 🤷‍ תושבי תל אביב רמת גן גבעתיים חולון בת ים ראשל״צ הרצליה בקעת אונו ירושלים ומודיעין אם תזמינו את ״לבנון המל…  ililush התגובה היחידה מה logreisas היהודי הספורטאי מעל הגוי הספורטאי חלומו של נורדאו התגשם NirTsadok האחים ניסנוב צאו לחל״ת אנחנו לא קבוצה מקצועית hagigat1 LiorZatlavi YaaraZered אין בעיה שעיתונאי או חקלאי או חנווני יעבור לפוליטיקה אין גם בעיה שפוליטיקאי יעב…  NormanCleg מה yuval98 yaronriko LiorZatlavi YaaraZered talschneider בוודאי שכן היא הייתה הבעלים והכתבת של כלי תקשורת עיתונאי למשעי hagigat1 LiorZatlavi YaaraZered מה Bicherit צריך בעיקר להוריד את הקשקוש הזה של גיוס מעל סדר היום ואז הם ישתלבו בחברה מרצונם שלהם בשביל זה צריך מנהי…  רק מזכיר לכל מי שטוענים שהם ״מממנים חרדים שלא רוצים לעבוד״ אסור להם לעבוד אנחנו כמדינה אוסרים עליהם בחוק לעבו…  hagigat1 LiorZatlavi YaaraZered שם שם  yaronriko LiorZatlavi YaaraZered מי שאינו חלק ממערכת חדשות ואינו מגיש תוכנית הכוללת תכנים חדשותיים ידיעות עובד…  Amitna87 כשאתה מוצא משהו באזור דרוםמזרח תל אביב תמנשן לי אני בא Amitna87 NadavPerez  NadavPerez מעולם בכל כמעט 43 שנותיי לא טענתי שבשמאל יש פחות מטומטמים מאשר בימין נתניהו הוא כישלון כה מהדהד עד שאפילו הדבר המרכזי שבגללו הוא הלך לסגר מלא  הפסקת ההפגנות  הוא משהו שלא הצליח להעב…  yairyona בשעה טובה לב LiorZatlavi YaaraZered להיות פרשן כדורסל זה לא לסקר משהו לסקר משהו זה להביא את המידע מתוך הקבוצה  להגיד ״לברון…  LiorZatlavi YaaraZered אם יחזרו לעיתונות של ממש לסקר משהו בוודאי שיהיה בזה טעם לפגם ולמעשה ספק גדול אם יימצא כ…  ravitnachman EitanNachman רוית תמיד אומרת שז׳אנר הציטוטים של בני משפחה מעייף כמו ז׳אנר הציטוטים של מקורבים LiorZatlavi YaaraZered כמו שכתבת לפני שנכנס לפוליטיקה אין הבדל בין עיתונאי לבין חנווני לבין עורך דין לבין מור…  AKcholi LiorZatlavi YaaraZered הטור של היום כולו טור דעה הוא לא נותן עובדות שלא ידעת  הוא מביע את דעתו על המצב…  LiorZatlavi YaaraZered כל עוד זו לא תוכנית חדשות  אין בעיה זה בדיוק ההבדל בין לפרסם ידיעה דבר שמחייב איש מקצוע…  LiorZatlavi YaaraZered ניצן הורוביץ הוא חבר כנסת ולא עיתונאי שלי יחימוביץ׳ מגישה תוכנית דעות ופרשנות ואינה חלק ממערכת חדשות כלשהי עדיין נכון תמיד נכון  zionnenko אם היא רק ב1992 זה ייקח עוד כמה חודשים מה שכן צפויה לה הפתעה בעוד כמה שבועות כשתגיע ל1998 ותראה את…  YaaraZered שנת 1992 הייתה לפני 28  שנים ליבסקינד הפך עיתונאי רק אחר כך ומאז לא דילג מישיבת צוות הקמפיין לישיב…  משחק עם הבנות ״המירוץ למיליון״ עם רמזים למקומות שונים בבית ששם מחכים להן רמזים אחד הרמזים איזו פעולה באמת עושים ב…  N12News מי היה כאן ראש הממשלה בחצי השנה האחרונה אולי גם לו יש אחריות כך הגיבה KerenMarc  להצהרת ראש הממשלה  אני מוכן להתערב שאחוז לא מבוטל מהישראלים ששמעו שיזהר שי מתפטר מהממשלה הגיבו בשאלה ״מי זה יזהר שי״ einatfishbain בשבילך  הכל  raanantau קרא שוב sagivsteinberg בעבודה בהחלט היו מתנגדים לתהליך אוסלו  והם היו קולניים מאוד חלקם אף פרשו מהמפלגה על רקע תהליך השלום הליכוד הוא מחולל האסון כל מי שהצביע מחל בבחירות האחרונות הצביע לרשימה של חדלי אישים ופרוקי רגליים אנשים שאין בהם…  yoav85 יומולדת שמח איש יקר לב faniaoz אדרבא ככה אפשר להשיג דאבל אזכור שואה הרחוב יכול להיות מעתה גם על שמה של אנה פרנק ז״ל מאמסטרדם וגם על שמ…  SHAROOMBA1  mashiahno בפער עצום מה הגיוני יותר מאשר להטיס את הכביסה ליבשת אחרת אם מישהו במדינה זרה היה מסכים לעשות לכם את הכביסה וגם מחזיר אותה א…  bennyteitel כפרעליך לב anirozaleison ההישגים אינם כראש ממשלה menashlev1 כנראה ראש הממשלה הטוב ביותר שהיה לישראל מאז היווסדה הסיר את המשטר הצבאי מעל אזרחי ישראל הערבים ניצח ב…  Liberwomen כמעט על הכל אני מוכן לסלוח  אבל יש שם דאבל ספייס lilachv skoopit נו באמת ״יצאת שלילית בבדיקת קורונה״ קלללללללל arianamelamed אני לא יודעת איך עוד לצעוק את זה החזירו 3 מיליון ילדים למדגרת קורונה בידיעה וזה העלה הדבקות בטירוף  RamEliBrandts לא יצא לא ניסה לצאת ויותר מזה  העמיק עוד ועוד את האחיזה בדרום לבנון לאסמכתאות אמליץ על ספר מצוין…  neomian בהחלט RamEliBrandts תקע את ישראל בלבנון עם ה״הברקה״ של רצועת הביטחון ועוד פעם עם הגאונות ושמה ענבי זעם אביר ההפרטות והר…  danby בפער עצום אולמרט לא היה כזה גרוע  ברק הרס כמעט כל דבר שנגע בו ובאפס זמן ראשי הממשלה הגרועים בתולדות ישראל בסדר עולה במקום החמישי  יצחק שמיר במקום הרביעי  גולדה מאיר במקום השלישי  שמע…  igalk3 זה לא הציטוט Rereshef כל ישראל ערבים זה לזה אבל קודם אתם TZURSADE מתקן לך למה נרשמים לגביע ווינר בית הספר לשדאות מציג כך תיצרו הסוואה מושלמת  barzik  ואתם אמרתם שאין בעיר הזאת שום דבר תתביישו  michashulem אימצתי את הרעיון הזה לפני שלושים שנה בערך קצת לפני הבר מצווה אני לא רואה איך הוא מעלה או מוריד ממה…  TRADOCIDF ברור שעל ב׳ תכף גם עושים סיבוב רענון על הנגמ״שים מאחורי הסככות טרוסטורי shlomiavraham70 יש תרגיל בסוף אוקטובר כבר הגיע אליי הצו CrocodileDani החיים עצמם  QueerLizzy יאאאא מזל טוב לב לב לב idokius לא יודע מאיפה להתחיל אפילו זמן מאז החיול במילואים 28 דקות עוגיות שנצרכו 3 מסוג קרמוגית כוסות קפה שחור שהוצעו 1 זמן שעבר ללא עשייה כלשהי 2…  Rereshef הם צריכים לקבל החלטה על הפעם הבאה שבה ייפגשו כי בפגישה הזאת תיפול ההחלטה באיזו מהפגישות הבאות יוכרע מתי מכריעים LeoraLev נאחל שנה טובה וחתימה טובה ונקווה  כמו תמיד  שאיכשהו יהיה טוב לב ראש ממשלה של מדינה עם עשרות אלפי חולים שמתעסק רק בחילוץ ישבנו מאימת הדין שר אוצר של מדינה עם כלכלה מתרסקת שעושה לי…  RacheliSegel אנשים טובים הם תמיד הפתרון הנכון ביותר הייתי שמח אם הייתה התארגנות של אנשים כאלה לסוף נעילה זה בא…  Ofernicus עניתי כבר קודם וגם בהזדמנויות קודמות שבאמת לא ברור לי למה יש הגבלה על תפילה בחוץ ובלבד ששומרים על ריח…  Maayanian סבתא ז״ל הייתה אומרת שלא שווה כל הצום אם לא שמעת שופר נכון שזו לא חובה  אבל למה לא לעשות את זה בעצם…  barakltd נהדר itainathaniel jonklinger למה לוותר סתם כך על האפשרות להקים את המשרד לביטחון פנים פנימי ErelSegal יאללה תרים קבלו רעיון בתי הכנסת והישיבות ושאר מוסדות דת יחלקו שופרות לאנשים שמוכשרים לכך ואלה יתקעו ברחובות בצאת הצום כך שהכ…  LeoraLev אני לא חלק מהעליהום הזה כאמור וכן החום זו צרה צרורה ויש חשש אמיתי מהתעלפויות בטח בשעות הצהריים  אבל…  ISudri נו באמת איציק אתה תהיה הראשי הספרדי ואני הראשי האשכנזי קל יש לי אימון קצר במילואים היום אז התקשרו מהקישור לשאול אותי סדרת שאלות ארוכה ובהן האם חזרתי מחו״ל בשבועיים האחרונים…  omeryankelevitc חייבים שמישהו יגיד משהו לשרי הממש אה רגע Bicherit לכבוד הוא לי לב Bicherit אני לא מאמין שאת גורסת את התיק שלי אין לך לב Sykocan הכל מטומטם הכל הכל הכל הכל מטומטם באמת  LeoraLev אבל למה תפילת יחיד אפשר לארגן מניין בחוץ בחצר הבניין או ברחוב  וזה לפי כל ההוראות ושומר על העניין המהו…  supercoquette  supercoquette אף אחד לא משתמש במילים נרדפות למדע המדינה בסוף מדע המדינה ואומנות הנאום הם הרי לא עניין של לאומנים…  MayanRodeh ״אני בכלל לא יודעת לשיר״ liliLongstockin כן yosefack אני לא מבין באמת שלא מדוע יש הגבלה כלשהי על המתפללים תחת כיפת השמיים ובלבד שכולם עוטים מסכות LeoraLev זה סיפור אמיתי שהיא הייתה גאה בו בצדק לדעתי כל חייה מי שהמצווה חשובה לו ימצא תמיד דרך לקיים אותה והח…  tomersade1 לדעתי צריך לארגן הפגנות בכל ערי ישראל במקביל ובאותה שעה וכך יישמרו ההוראות וגם הנראות ותישמר גם זכות…  Elyashivz1 מה סבתא שלי והמשפחה שלה התפללו לבד ביום כיפור של 1944 בבית ספר טרנסילבני שהפך זמנית לגטו בדרך לגירוש לאושוויץ וזה הי…  AmirKoz לפי מירי רגב אתה איש ללא זהות  מה שאומר שיש לך אונות מוח מתפקדות ravitnachman ibagp EitanNachman לא נכון אנחנו תמיד ניצחנו את הקבוצות מזלצבורג yaniv82172266 מה ShiraltYt תזדרזו כי אוטוטו יחזירו אותו לשולח 🤦‍ ״המתח בין היהודים לישראלים״ מה יש מישהו נורמלי שיכול להסביר את המשפט המטומטם הזה השנה הזאת יותר מאי פעם הולמ…  RealLeonardCohe אתה צודק לא הבנת ShiraltYt ואת הספר שלך כבר אספת Arspoeti הוא לא טיפש  הוא חלאה טיפש הוא מישהו שעושה דברים בטעות אצל המנוול ערל הלב הזה הכל מתוכנן איזה איש מבחיל Israelcohen911 LeckerAmir אתה איש רשע וערל לב מנוול וכפוי טובה גם עשרה ימי כיפור לא יכפרו על הציוץ הזה שמנאץ את…  את דעתי על גיוס חרדים הבעתי לא פעם אני מתנגד לזה כי אני חושב שזה מטומטם אבל יותר מזה אני מתנגד לכפיות טובה ישר…  avi07325462 אתה לא מכיר אותי ומכאן שאין לייחס כל חשיבות לקביעה שלך אודות הקביעות שלי אני עושה את זה נכון kerenmelamed מעולה kerenmelamed כל כך נכון  natitucker וכרגיל אזכיר  barzik סקייפ ronenwei אף אחד לא הולך עם ההסכם וממילא מעולם לא ביקשו ממני דבר כזה  לא הפעם ולא בסגרים הקודמים פסח ויום העצמא…  מנסיעה בכביש 1 ובירושלים המסקנה היא אחת אין סגר למעשה אין אפילו מחסומים ריקים משוטרים שידמו ניסיון לסגר או אופצ…  comedychildren 8tSFx8GhfSG9198 לעשות בייביסיטר זה לא מה שהיא הציעה זה מותר בחוק אגב גם כיום מה שהיא הציעה הוא…  cinacity  IBenmoshe oxGNCxo נכון הנה אפילו מצאתי דוגמה לימים טובים יותר לא רחוקים שבהם ילדים בגילים האלה עבדו   8tSFx8GhfSG9198 ממליץ לך בחום לקרוא ספרים של צ׳רלס דיקנס זה יבהיר את העניין shalevra idaholloway לא כי הם שני אהבלים thought11G idaholloway וכמובן שהדבר הנבון ביותר שיש בווידאו כולו הוא אידה עם הטרלה שמקבלת 1010 idaholloway הדבר הכי נבון שיש באולפן הזה הוא השולחן 🤦‍ idaholloway זוט עני פתחו רמקולים  ravitnachman פיני בלילי  perryallon עונש מלקות והוצאה להורג בגין גניבת מזון edvalotan  swedishkeren eripowers שנתיים מנוי פרימיום לאתר האינטרנט שלי ב2100 שקל שמע ישראל ה׳ אלוהינו ה׳ אחד g1Co2Z9ktPzvBGn אמנם LVertzhaizer למה זה מגיע לו אני יודע  אבל למה זה מגיע לנו וגם היום אזכיר לכם שיפעת שאשאביטון הביאה לכנסת ישראל הצעת חוק שילדים בני שלוש עשרה  ילדים בכיתה ז׳  יצאו לעבוד…  odaskal שמע אני רואה את זה עם בת11 שראתה איתי לפני כמה שבועות את קראטה קיד מהאייטיז ומתענג על כל רגע זה טלנובל… </t>
-  </si>
-  <si>
-    <t>attilus אטילה ידידי הטוב החיים לא פשוטים אני קורא אותך למרות שלמול שלך ב ynet קוראים נוני מוזס אני מקשיב מדי פ…  לא היה שום תיק נוסף ערב מינויו של AviNissenkorn היועמש ביקש מהמשטרה לוודא שמאז הסגירה בינואר 2019 לא התווספו חומ…  תיק AviNissenkorn נסגר בינואר 2019 הודעת הסגירה אכן נשלחה אז למתלוננת Syechimovich על ידי המשטרהאבל שלי טעתה מ…  2 אתם יודעים מהזורם איתכם סתם חוסר רגישות של מנהיג ציבור אבל איש מהמגיבים לא התייחס לטו באב שמח לכולכם וכמה…  לכל המקללים מימין בא אדם לעיר ההריגה ובמקום להגיד  באתי לגנות את הנבלה שנעשתה כאן פותח ואומר פורים שמחבפורים יה…  זוכרים את הפורים שמח של חנן פורת אחרי הטבח של גולדשטיין במערת המכפלה פורת התנצל אחכ ואמר שמדובר ברצח נתעב איזו…  נכון לגמרימהלך הזוי  אמנון Amnonanewsdesk ידידי אני יודע כמה כוחות נפש צריך מול החלאות האלה תהיה חזק ותשמור על עצמך חברים בשמאלתרגיעו אברי גלעד avrigilad צודק לא חייבים להסכים איתו בכל אמירה בסכסוך הישראלי פלסטיני אנחנו שם קמ…  LiadMudrik ‍הכי הכי עמית amitsegal ידידי כשאתה מצייץ שזה נגמר בבגצ 81 כי ישבו שם 8 שמאלנים לך עם זה עד הסוף כלומר לפני חמישה שב…  אני מה קורה נכדי בן העשר הכל סבבה סבא חוזרים לשיגרונה אניבלב אלהים שמור לי על האלתרמן הקטן הזה מאמר חורך לב של רוגל אלפר הבוקר בהארץ  BenCaspit אכן תחקיר מדהים avishaigrinzaig amitsegal MakorRishon GLZRadio כן גרינצייג וזה נדחה על הסף על ידי כולנו ובראש וראשונה עי מפקד גלצ כבר לא חיילקוראים amitsegal  הכל נעשה בשקטבלי הדלפות מתוך הבנה לכאב שלו נזכרתי בזה אחרי שקראתי את הכאילו תחק…  השנה היא 2005 התנתקות גלצ כמובן בשטחכתב צעירכבר אז מוכשר כשד חוזר מגוש קטיף על סף בכי ומבקש לשחרר אותו מכיס…  תחרות האגו הזו נחתה עליכם טוב gantzbe netanyahu  לכו על ממשלה רזה 20 שרים תיפטרו מכל הטרמפיסטים מוסף סופש של מעריב הוא העיתונות הכי טובה של סופי שבוע אף אחד שם לא חבר שלי לא BenCaspit לא ehudolm  ובטח לא…  הסכם מסריח barakehud  היום בהארץ בין השאר הוא מקונן על האימפוטנציה של בגץ  מי שלא עמד להם כוחם איך יעמוד…  איטליה21 שריםגרמניה16צרפת18 ארהב16 קבועים פלוס 4 מזדמנים למשל השגרירה באוםדנמרק25 ספרד22ניוזילנד20…  לחברי וחברותי בערוץ 13איתכם לגמרי RavivDrucker  NadavEyalDesk  aviadglickman  tamarishshalom baruchikra…  לפני החתימהתעצרו את זהיש לכם רוב עצום בכנסת ובציבור לממשלה רזהגג 20 שרים חשבון פשוט 30 שרים ומעלה זה אומר למעל…  מתחיל להיות שם צפוף מתחת לאלונקה ממשלת חירום למעלה מ 30 שרים חוק נורווגי נפלתם על הראש מאז אמש אני מפזם לעצמי את מה שדקלמנו בילדותנו     אב ר הם  אל תלך לשם כי הזאב יאכל אותך הם אלי ישראלי יקירי דש למעלה אין ברירהממשלת חירום לזמן קצוב גנץ רוהמביבי ממ העברת חוק שגם ממ כמו רוהמ אסור לפטר גג 18 שריםהורדה דרסטית…  תודה רבה  מי  הטוקבקיסט שמנסח את ההודעות של יד ושם פוליטיתהרב פרץ קבר את עצמו בסוף השבוע ב 2023 מתפנה משרת הרב הראשי הספרדי לך על זה ככה להדיח את ברדוגו לא חראם  שאלתי פעם את TzachiHanegbi   אם אמא שלו כמוהו שינתה את דעתה על חוזה השלום עם מצרים הוא אמר לי השתגעת בעיניה…  לא מתווכח עם ברדוגואין לי עניין רק הערה קטנה אחתלמה בוער יש יותר מאזינים מאשר לתכנית שלו זה על פי כל הסקרים כ…  Oh Mighty Caesar Dost You Lie So Low תרגיעוamitsegal סגר מדפים גם כשקיבל כסף ציבוריגלצ וזה היה בסדר אז וגם היום אם ליאת בן ארי היתה מבטלת את החופ…  עמית amitsegal יקירי אני מבין שכשאתה יוצא לחופשה מדי סופשבוע גם כשהמדינה מתהפכת זה ממש בסדר כי זה במצוות שמיא כ…  זו מכה לא קלה בכנףסוף ציטוטעכשיו תתווכחובלי התיווך של הגורה של Riklin10  הבוקר אמרתי השמאל חטף ביממה האחרונה שתי מכות בכנף הפרישה של Syechimovich היא עוד מכה לרעיון השמאל הציוני והמכה…  ליעל YaelDan1 ולרינו RinoZror   חיבוק גדול עמית amitsegal ידידי רשימה חלקיתרק אלה שהצליחו לרצוח ולא אלה שמוכרים לך שרק ניסו ישראל לדרמןאלן גודמןדוד בן…  קראתי במעריב סופש ראיון של BenCaspit עם נשיא מכון וייצמן דניאל זייפמןיש תקווה קובי מידן סוכן תרבות kann עשה לי צילום רנטגן בסוף השבוע מדקה 3800 מוזמנים   בתגובה לחדשות 12 גבי אשכנזי אומר לי הכל שטויות אוסף של רכילויות כדי שהתמונה תהיה שלמהבגין תקף גם את אהוד ברק barakehud על השתלחותו במנדלבליט בני בגין בהתבטאות חריפה נגד netanyahu  רוהמ מבצע התנקשות בשלטון החוקהוא הופך את היועמש לאיש רופסצעצוע של השמאל הבוקר בגלצ הוא amitsegal מנסה להלבין את הכהאניסטיםכתםאבל אם להשתמש בלשונו הציורית של מישה חשיןתגדע היד של מי שכינה אותו היטלר YoavNews1 BarakRavid תגיד יואב יכול להיות שזה ש AyeletShaked מנועה מלטוס במטוס רהמ זה בגלל שהיא לא עברה תחקיר ביטחוני בעוד כמה דקות ב מהבוער איפה אביחי מנדלבליט ואיך אנשי netanyahu מצליחים לטרטר אותו  JusticeGov סיימתי לקרוא את GabbayAvi  ענייניחף מפומפוזיות בלי אכלו לי שתו לי הוא לא יהיה ראש ממשלה משהו שם התפספס אבל הוא איש על הכייפאק הדס שטייף hadasshtaif לא לבד בסיפור הזההכל נעשה בליווי צמוד של המשטרה והפרקליטותכל גלצ מאחוריה חוץ מכמה מגלגלי…  הרמטכל הפורש על נסראללה על המנהרות על גדי גדי תיזהר ומתי הוא בכה לאחרונה הבוקר ב900 מהבוער  שום מפלגה חדשה ושום נעליים כמה עוד ניפול עד אפריל לקשקושים האלה נמאס לו לחכות עד אפריל נוח בשלום איש יקר יונתן אוריך יועצו הפוליטי של ראש הממשלה בתגובה לשיחתנו בתכנית על בן כספית  יום טוב לתקשורת החוקרת RavivDrucker ימשיך להלום בערוץ הממוזג יוסי שריד היה מתקשר אלי באישון לילה  שיפר שוב הלםהייתי אומר לו יש לו משהו שאין לך וליהוא מדבר עם לילי שרון בהונגרית שש שאפו עוד חוזר הניגוס כשהיתה בכנסת יוליה שמאלוב ניסתה לסגור את גלצמי שניהלה אז את הקמפיין גלצ סכין בגב החיילים היתה…  עשיתי כמה בירוריםגם אצל אנשי לוינסקיLeviYonit לא חרגה משום סיכום והשאלה שלה הייתה לגמרי לגיטימיתיחד עם זה ההזמנ…  אנחנו הנערים של שנת חורף 73 פרק מבכיאחוזר בי מההערכה שזה יהיה ארסי כלפי גולדה RavivDrucker נהיה סנטימנטליזה מוסיף לו לווית חן חושד ב RavivDrucker  שהוא למד לחבב את לוי אשכוללא לדאוג בשבוע הבא בפרק על גולדה הוא יחזור להיות ארסי אתמול בשעה הזו צייצתילעת עדנתו הייתה לו עדנה חוזר בי לעת עדנתו היתה לו בלות לעת עדנתו הייתה לו עדנהגם הודה שרואנדה זה בלוף וגם סידר לעצמו עוד 18000 ליכודניקים בבוא היום סחטיין דבר ראשון בבוקר המאמר של baruchikra בהארץחובה האם הוא מצפה שיזמינו אותו לטקס העברת השגרירות לירושלים ואם כן האם יבוא DanielBShapiro ב מהבוער מיד לדוד גרוסמן אין יפה מחגך הצנוע יונתן גפן חברי כאח לי  פישל אל תיגעו באנה פרנק ואחרי זה הכבש השישה עשר ישאר הרבה אחרי איווט שר הביטחון יהיה…  AssenOmri uribreitman razibarcay על מה מדובר רזי איזה עמרי עמריישבתי עם רינה כשראיינו את עופר שלח ואמנון אברמוביץ ואילנה דיין הייתה שם ביקורת ענייניתההשתלחות שלך ברינה היא במילה אחת פויה בכנס סבן נזכרתי מה שקיסינגר  אמר עלינושאין לישראל מדיניות חוץ רק פוליטיקת פנים למה נזכרתי כי זה מה שקורה עכשיו לאמריקנים הם נהיו כמונו האוזניים והמיקרופון של האיש הצנוע הזה היה שלום מיקי גורדוס יקר netanyahu אותה שיטה אותם שקרים אותו עיתון ואותה עורכת דין אף אחד לא קונה את התרגיל המשומש הזה הנה התגובה שידיעות צנזרו  AlfiGuri ייפרד הבוקר מכם ממהבוער וממני יחסינו מוצו רמז זה לא קשור לפוליטיקה זה קשור לשחמט הבוקר במהבוער הצוללות והר הבית המפכל לשעבר קראדיניצב ממזרחי פרקליטו של צייניאלקיןגבאי דרוקר ומה כתוב באתר משהחוץ על זכויות גייז רינה מצליח ואני הבוקר עם איילת גבאיאשתו שלעם יור הקואליצי  דוד ביטן ועם הצוללן רביב דרוקר AlfiGuri  ואני בודקים הבוקר מי יהיה  המודח הבא במפלגת העבודה menachemho ואני הבוקר עם שני שרי משפטים שקד המכהנת ופרידמן הקודם תשע בבוקר מהבוער BismuthBoaz ואני הבוקר במה בוער על חוק הגיור מתווה הכותל וכמובן שלדון וביבי בדרך לאבו חסן LiorSchleien קפץ לאולפן מה בוער מתחילים בתשע מהבוער מישהו משתמש בשמי כדי ללכלך על Danmargalit מתחת ידי לא יצאה שום אמירה ובוודאי שלא מכפישה על אודות פיטוריו היום אני עם RMatsliah  במהבוער ואשאל אותה מה גיבריל רגוב אמר לה בעברית ואז גם מה אמר בערבית הבוקר במהבועראיילת שקד זהבה גלאון זאב אלקיןלמה השגרירות עדיין בתא 40 שנה לאסון הנד מראיינת אורחת יפעת ארליך אצל AlfiGuri  ואצלי ב מהבוער  הבוקר naftalibennett   TzipiLivni  ואב שכול שחטף יריקות מכנופיית הצל ביום הזיכרון אני וברוך קרא baruchikra הבוקר עם אהוד ברק על התאגיד ועמונה וכל השאר תשע בבוקר גלצ GLZRadio פסטיבל כאן  כאן  הקוקיה שמות חדשים לתאגיד שחוסל אין להם בושה אני ו RMatsliah  הבוקר ב מהבוער עם ישראלים שמצפצפים על אזהרות מסע ועל אלימות בבתי חולים ובתי הספר עוד מעט בראיון שערכנו עם regevmiri  במהבוער השרה אומרת לא מוכנה שהתאגיד יהיה גלגלצ 2 GLZRadio בתשע KerenMarc ואני עוזרים היום לנתניהו לחפש שם חלופי לתאגיד תנו לנו רעיונות מהבוער אריה דרעיאורי אריאלכתבים מבייגין הכל על כאן הקוקיההבוקר במה בוער גורי אלפי AlfiGuri ואני הבוקר על ציוצי רוהמ נגד התאגידעל יגאל סרנה ושיחה עם שר הבריאות על האלימות ליאור שליין LiorSchleien  הבוקר מראיין אורח במה בוער סכין בגב האומהיהיה אחלה תודה על האיחולים גורי ואני AlfiGuri  נדבר היום על חקירות רוהמ ועל העומס של שופטי העליוןוכמובן תשובה לקשקושי הרב על שירות חיילות בכל זאת הגעתי למרות הכל מהבוער</t>
-  </si>
-  <si>
-    <t xml:space="preserve">amitsegal תזכורת שנתית כמה דקות לפני חדשות 2000 של קול ישראל  המנגינה הכי יפה ברדיו כששומעים אותה אפשר להרגיש את החורף מגיע אל ת… לשנה הבאה בירושלים הבריאה Syechimovich חבל שהמתנפלים על YaronDeckel לא יודעים שבלעדיו גלצ היתה נסגרת מזמן איזנקוט הבהיר לנו בוועדת חוב שיסגור ואף לגלג אול… 10 קבין של צביעות ירדו לעולם   5 לקחו אלה שהפכו את קלמן ליבסקינד לשמאלן ושפוט של מנדלבליט כי אינם מסוגלים להתווכח…  ItayBlumental  אבי בבקשה תמחוק את הציוץ המופקר הזה היית תת אלוף בצבא שדיבר על ממלכתיות וציות  עד הקורונה חשבתי שקמצא ובר קמצא זה פולקלור במשך חודשים פרסם קלמן ליבסקינד תחקירים על ניגודי עניינים של שופטים כל הצבועים שפתאום נזכרו להחמיא לו רק כשהוא תוקף…  LifeRivlin natitucker אתה אדם חכם בטוח שתקרא שוב ואולי תבין בכל זאת את ההבדל RavivDrucker להפך לכבוד הוא לי אך בחודש שעבר הבהרת שטרם התקבלתי לשולחן מרגש לראות שבחסדך בכל זאת זכיתי ולו לרגע להשתתף בדיון RavivDrucker אולי תחלק לנו במסודר רשימה מי ראוי בעיניך לתעודת עיתונאי כדי שיהיה סדר אחת ולתמיד קלמן ליבסקינד  הטור המלא הבוקר במוסף לשבת של YediotAhronot באחד השבועות הפוליטיים הגרועים בחייו כשמפלגתו יורדת למספר חד ספרתי ונכנעת לליכוד בסוגיית ההפגנות  דווקא בשבוע הזה…  פרסום ראשון השר יזהר שי הודיע לבני גנץ ״מתפטר מהממשלה״ גנץ ביקש לפגוש אותו הערב בטרם ישגר את המכתב soudron amitsegal אולי האופוזיציה לא רוצה בחירות האופוזיציה איבדה הערב הזדמנות פז לבחירות   בקיעים בכחלב התנגדות ביהדות התורה יואב קיש נואם חמישים דקות כי הגיוס לה…  הקלות הבלתי נסבלת שבה אפשר להשמיץ על בסיס עובדתי שקרי ברוטב אבחנות סוציולוגיות על הציונות הדתית ״הבוגדנית״  בו…  כל מילה אין גבול לרשעות ואין איש שיחמוק מהחרב המתהפכת של משטרת המחשבות הפעם למרבה הצער מימין  וַיֹּאמְרוּ אִישׁ אֶל אָחִיו אֲבָל אֲשֵׁמִים אֲנַחְנוּ עַל אָחִינוּ אֲשֶׁר רָאִינוּ צָרַת נַפְשׁוֹ בְּהִתְחַנְנוֹ…  מתוך הצ׳אט המלא  הממשלה מאפשרת את המשך ההדבקה בבתי הכנסת ובהפגנות זה לא מחייב אותנו לנהוג בחוסר היגיון  יפעת שאשא ביטון אמרה עכשיו שהיא לא עוסקת בפוליטיקה בנט אמר אתמול בשש עם מירי רגב אמרה שהדיונים בקבינט לא פוליטיים…  הציבור בוגר ממנהיגיו רוב גדול תומך בסגירת בתי הכנסת ובהגבלת הפגנות בלפור לרבות רוב לשני המהלכים בימין ובשמאל והפ…  רוחות המחאה ניכרות היטב בשאלה הבאה מפלגה בראשות יפעת שאשא ביטון  8 מנדטים כמעט כמו מנהיגה בדימוס משה כחלון רובם…  סקר החדשות הליכוד יורד לראשונה זה שנה וחצי לקידומת 2 בנט מטפס בעוד שני מנדטים מהסקר הקודם האם לראשונה זה שנות דו…  הויכוח בכחול לבן מצד אחד הטענה שהמפלגה נגררת לקצוות מהצד השני  שהגבלת ההפגנות תפגע במפלגה פוליטית  חיימוביץ אם נוותר כם על זכות ההפגנה זו תהיה הפעם האחרונה יהיה פה שבר יותר גדול עם הבוחרים ממה שנראה  ניסנקורן וזמיר לא לבטל ההפגנות  צריך לאזן  טרופר איך קרה שכחול לבן נותנת גיבוי לקולות הקצה אנחנו אמורים להיות הקול הממלכתי  מיד במהדורה חילוקי הדעות הקשים בכחול לבן בנושא ההפגנות מיד הטקסטים המלאים כרגע יש שתי מפלגות מגזריות בישראל יהדות התורה שנלחמת על פתיחת בתי הכנסת בכל מחיר וכחול לבן שעושה אותו דבר לגבי הה…  מי שנלחם עכשיו נגד סגירת בתי הכנסת נאבק על זכותו לעודד מגיפה רק כדי שיוכל להתפלל בציבור את המילים ״מנע מגיפה מנחלתך״ רק דת אחת בעולם כולו דורשת את המשך הפולחן גם במחיר חיי אדם הדת היא רק לא ביבי ופולחנה  הפגנה שבועית בבלפור haggaisegal הטענה שמפומפמת בשעות האחרונות כאילו MakorRishon נחלץ לקדם איזשהו בלון ניסוי של היועמש או לשרת פתאום את הפרקליטות היא… DaphnaLiel עיתונאי ברמה ממליץ להאזין דעה פופולרית אין על קלמן ליבסקינד ואראל סגל ומבחינתי שיריבו עד מחר אני בעד שניהם לא מכיר את ראובן עזר אבל גם אם מדובר ביועץ הטוב ביותר בנמצא את היום הזה הוא צריך לסיים עם מכתב פיטורין אי אפשר ל…  מעודדת זה כמובן יחסי הכוונה היא שהערבות ההדדית הערך החשוב ביותר בחברה הישראלית לא התפוררה זו רק קלות הדעת ההפק…  את האבחנה הכי מעודדת על מצבנו סיפק רן ברץ במקור ראשון בחג בעיניו ההפקרות בנושא הקורונה לא מעידה על אובדן הלכידות …  ביבי נגד הקורונה  אז הם בעדה  שנה טובה  העולם של אתמול העולם של מחר מחשבות לקראת תשפ״א שנה טובה    מחלת הרקע הישראלית שהחמירה את הקורונה היא אותה מחלת רקע אמריקנית רק הפוך הטור המלא הבוקר בYediotAhronot  סדרה מעוררת מחשבות אשרי הדור שלא ידע את החשש לשבת בבית קפה ולהתפוצץ וכל הכבוד לצה״ל  וזו הקונספציה של ממשל אובמה שהתנפצה שלשום לאלף רסיסים  שנה טובה ואם חסר לכם עוד קצת ויכוחים על התקשורת העליון הפוליטיקה ותיקי נתניהו  הנה אצל dverthaim בglobesnews …  אך אתמול התגאה ראש הממשלה בוושינגטון שנגמר עידן הויתורים תמורת לאכלום אין צודק ממנו  והנה נוחת הערב נתניהו בישר…  תשעה מיליון אזרחים הולכים לחודש בבית המדינה תשרוף עשרים מיליארד שקל ועוד בטרם החל האירוע כבר מסביר לנו סגן שר הברי…  ErelSegal גם אני בעד סגירת בתי כנסת הסיכון מיותר ומראית העין גם  אפשר להתפלל בחוץ  אפשר לעשות תשליך ליד ברז או בור מים לא חייבים חוף… טירוף קווים לדמותו או שסוגרים הכל או שפותחים  tamarishshalom בשולי טקס השלום בבית הלבן שאלנו בסיום ראיון עם השגריר גלעד ארדן האם הוא רוצה להצטרף להתנצלות של רה״מ בפני משפחת אלקיען… אני רואה שיש כאלה שלא מכירים את העובדות ועוד מתעקשים להאשים בשקרים 4 הרוגים ביממה של אוסלו לא הכרתם כי התקשורת ש…  soudron מיד במהדורה שידור משותף של מגישי הטלויזיה מאיחוד האמירויות בחריין וישראל  אני עוד זוכר שכשמחבלים רצחו ארבעה ישראלים ביממה של חתימת הסכמי אוסלו השמאל לא נתן לזה לפגום בשמחתו כמו מהרקטות הערב מי שירו הערב על אשקלון הוזמנו לעלות על רכבת השלום לפני 27 שנה במקום זה העדיפו לנסות לפוצץ אותה הטרלתם היא סימן של ייאוש liyaomer אין דרך אחרת לומר זאת  יאיר גולן מזוכיסט ללכת ולקבל בראש פעם אחר פעם מעמית סגל ובצדק מוחלט מזוכיזם טהור  N12News ויתור על החלת הריבונות  מול מערכת הבריתות amitsegal על ההסכם ההיסטורי והקונצנזוס סביבו  משדר מיוחד gt  יוסי גרינשטיין היה אדם עם לב זהב וידע נרחב אף פעם לא התנשא ותמיד שמח לעזור לצעירים ממנו יהי זכרו ברוך אדם אחראי   לא יילך בחגים לתפילות עם יותר מעשרה אנשים  לא יילך להפגנות גדולות   לא יחשוב שהנסיונות לשמור על ברי…  היום לפני 27 שנה נחתם הסכם אוסלו לא היו רשתות לא היו דעות אחרות העיתונים והערוצים נצבעו כחולנסיגות החודש לפני…  הסכנה בסגר תשרי היא של הפרות המוניות כשכל מגזר רואה את המגזרים האחרים באירועים המוניים לוח השנה זימן הזדמנות לפעו…  לנאום המלא  ועל כך אני מתנצל בפני הנשיאה חיות בת לניצולי שואה ״בית שקט מאוד״ הגדירה זאת פעם ללא קשר לביקורת שיש ומן הסתם ת…  בקריאה שניה ושלישית מאז התבררה לי הטעות חיות דווקא נזהרה מאוד מקביעה שהמשפט עשוי ״להציל״ מדינות היא דיברה על גרמנ…  5 ימים לפני ראש השנה הזדמנות להתנצל על טקסט שפרסמתי בין היתר כאן על הנשיאה אסתר חיות היא נאמה בנירנברג על המשפט…  shlomopyuter העובדה שתחנת רדיו מכובדת מראיינת על ענייני הקורונה את פרופ רבקה הקורונה תיעלם אחרי הבחירות כרמי היא תעודת עניות לתחנת… אם הכל היה בסדר ופשוט מוש כפי שטענה הפרקליטות בתגובותיה  למה יש בדיקה האם ייתכן שגם הפעם כמו בכמה מקרים בעבר נפלו אי דיוקים פרסום ראשון בעקבות חשיפת חדשות 12  שר המשפטים צפוי להורות על בדיקה בפרשת אום אלחיראן לסיכומו של השבוע נחשפנו לדרך בה נוהלה החקירה של האיש החשוב בישראל ולדרך בה נוהלה החקירה של בדואי מהפזורה ״האחרון…  למה ניצן התעקש נגד כולם לא לזכות את אלקיעאן מהאשמה הנוראה זה קרה אחרי שיחה עם אלשיך פסולה לכשעצה לאור מעורבות המפ…  ניצן חיכה חודשים אחרי התכתובת הזו התיק נסגר בעיתוי מופלא בשבוע שבו ראש מחש אורי כרמל התחלף ביורשתו הכנועה והנוחה…  ראש מח״ש אורי כרמל התקומם והזהיר  ההתכתבויות בתיק חירןאלקיעאןשי ניצן נחשפות  אפילו המשנה לפרקליט המדינה מומי למברגר סבר שיש לקבוע שההרוג חף מפשע…  הביצוע המלא   שבת שלום בכל פעם שברי סחרוף מוציא שיר חדש זו חגיגה בכל פעם שהוא מחדש שיר ישן  זה אירוע יש תחושה ש״את חירותי״ גרסת 2020 יה…  הפוטש המהותי  גיל ברינגר  קריאה מומלצת ביותר   תגובה שבכוונתי להשתמש בה עוד כל כך הרבה פעמים  הטור המלא הבוקר במוסף לשבת של YediotAhronot  מי זה חבר הכנסת הגאון שבחודש מרץ טעו שמשבר הקורונה הוא אחיזת עיניים באוגוסט שמדובר במחדל נורא של הממשלה ובספטמבר…  צפו הערב בראיון של דני קושמרו עם שי ניצן ובקרוב ממש  עוד פרטים מאחורי הקלעים על ההחלטה בתיק אום אל חיראן תומך בסיכול המחבל המתאבד שכבר מסתובב בינינו אבל בנחת בעוד עשרה ימים   אין דבר כזה החלטה דרמטית בעיכוב של שבוע וח…  ״התאמת פרוטוקול הטיפול״ פירושה הורדת איכותו בגלל עומס וזה עוד לפני הזינוק בתחלואה של חידוש הלימודים שנראה בשבוע הב…  בכיר התנועה לאיכות השלטון משקר במצח נחושה על סף הדיבה ואולי מעבר לה את ״התודעה הכוזבת״ יצר פרסום של חיים לוינסון…  KalmanLiebskind חוזר מבית העלמין בקיבוץ נחשון מלוויה של יזהר חבר טוב איש משפחה לוחם שנפצע שלוש פעמים במהלך שירותו הצבאי ונכנע רק… והרי תזכורת לפי החוק החדש הוצאה לנצברות מסיבה לא בריאותית  הממשלה מתפטרת והכנסת מתפזרת  אם זה נכון הרי שהסיבה היחידה למהפך כה דרמטי היא הפרסומים הלא מחמיאים על הפרקליטות תג המחיר הגדול בהיסטוריה  מסמך משטרתי חושף   החוקר רוטנברג ״ידע על בדיקה נגד נוני מוזס ועל קיום חומרים שנגעו לה״  D0ronhe בהצלחה דורון תודה שלי וסליחה מראש על מה שתחטפי עכשיו  התביעה של החוקר הראשי במח״ש דובי שרצר היא אחד המסמכים המפחידים שיצא לי לקרוא לאחרונה ערכים במבחן  Riklin10 מת Riklin10 אני קצת מבולבל  ofiroshr בויכוח בין דרוקר לסגל ברור שאני עם סגל למה תקשיבו לחשיפה הראשונית של דרוקר מאוגוסט 17 ושימו לב היטב למלל של דרוקר עצמו  … RavivDrucker לא טענתי את הטענה הזו אתה לא האדם היחיד שמכיר את העובדות ציטטתי דוחות מחש ומסמכים לבית המשפט אם יש…  RavivDrucker לא צפית כנראה בתחקיר טענתי וגיביתי במסמכים שעל פי 4 חוות דעת במח״ש רוטנברג היה שותף סוד בתיקי 2000…  צר לי אבל זה לא נכון עדות הרו שציטטת יולי 16 החתימה על ההסכם אוגוסט 17  המסמך הזה  מאי 16   על כל פנים שמח לראו…  שי ניצן ורוני אלשיך הביאו לבחירתה של מועמדת אלמונית וחיצונית לראשות מח״ש על אף קיומם של מועמדים טובים בהרבה ממנה ה…  לאחר היממה האחרונה מה דעתך הו ואוו  רוטנברג לא ידעתי שלהרו יש את ההקלטה דיברנו על מידע מודיעיני אחר ואת השם מוזס שמעתי לראשונה מהתקשורת כשפרצה הפרשה וגם עוד עדות על השתקת תלונות בתיקי נתניהו  בניסיון לחסוך לבכירי הפרקליטות עוד לילה ללא שינה הנה המסמך המוגדר ״סודי ביותר״ הפרקליטות מבקשת למנוע פרסום מזכר ש…  avishaigrinzaig טיוח וציפוף שורות במשטרה ובפרקליטות שוב נשבר שיא בשערוריות של מערכת אכיפת החוק  וגם האם למברגר באמת מנע את החקירה כד… בבית משפחת סגל דווקא כבו כל הלילה האורות ובכל זאת אאתגר הערב את הטענה הזו  shaquedmorag את תת רמה ולא ראויה לתגובה  באשר לאמינות ההכחשות של הפרקליטות והמשטרה הנה התגובה לפנייתו של ידידי ורעי אבישי גרינצייג לשאלה אם הופעלו לחצים פס…  לא השקר הראשון של שלום עכשיו אבל מהקלים יותר להפרכה הנה הקלטה של ראיון שבו צלבתי את ארדן בבוקר שאחרי הירי באלקיעא…  ראש מח״ש אורי כרמל לשי ניצן אחרי שזה סירב לנקות את שמו של אלקיאן ואת שמה של מח״ש מזה שנתיים מוקרבת מח״ש על מזבח הא…  עד עכשיו ספרתי חמישה שקרים בתגובת הפרקליטות בהמשך הבוקר ארכז אותם ואעלה כאן מתגובת הפרקליטות הלילה עולה שאין סיפור והכל נפלא וכשר כמעט עמדתי להתנצל ולהתפטר ואז נזכרתי שהמשטרה הכחישה שנעשה ת…  מתוך מנאייכ  OriginalMosheC שי ניצן יודע שנהרג אזרח חף מפשע מעולם לא הוא ולא מנדלבליט טרחו להבהיר זאת הרקע חקירות נתניהו מזעזע אני מכבד את התגובה אבל חולק עליה מכל וכל הרקע הוא דרישה של כרמל לצאת להגנת מח״ש ולהבהיר אגב כך שאין כל ראיה הקובעת…  אזרח ישראלי חף מפשע נורה למוות סתם מפכל המשטרה מעליל עליו עלילות דם אחרי מותו ושי ניצן מונע את פרסום האמת הזו כדי…  שר המשפטים ניסנקורן ביקש לעדכן שיתייחס לעניין מיד כשיסיים לשסות אלופים בצה״ל בעיתונאים חשוב להסביר כשהפרקליטות ושי ניצן הכחישו את הטענות הם לא ידעו על קיומם של המסמכים בכתבה מטריד ומעורר מחשבות מאידך…  הכתבה המלאה  פניתי לשי ניצן ושאלתי אותו אם התבטא כך על המפכל לא סיפרתי לו שיש לי את המייל תגובתו אלה טענות כזב שקריות מתלבט…  אבל ניצן מודה במייל סודי המפכל התנהג שערורייתית אבל לא נעזור כי זה יעשה טוב למי שרוצה ברעת המערכת ודי לחכימא…  הלך הרוח הזה נוכח גם בפרש שבה נהרג אזרח חף מפשע יעקוב אל קיאן מאש המשטרה המפכל אלשיך קבע שהוא מחבל מחש קבעה…  עוד שנה עוברת ראש מחש עוזב ובמקומו מתמנה בלחץ אלשיך וניצן מנהלת נוחה בהרבה למשטרה במשך חודשים ולמרות ההפצרות ה…  וזוהי הפצצה למברגר אוסר על מחש בצעד תקדימי לבדוק את תיק 2000 מסיבות מובנות הסיבות המובנות חוסר רצון לתת נשק ל…  אבל הימים הם ימי ההתכתשות הגדולה בין נתניהו והמשטרה לקראת המלצות המשטרה בתיקי האלפים פרקליט המדינה שי ניצן ומשנהו…  במחש המומים הן מניגוד העניינים לכאורה והן מההסתרה שורה של חוות דעת קובעות  החוקר חשוד בהפרת אמונים משפחות נתני…  שנה וחצי אחרי מגיעה אשתו של רוטנברג לראש אגף החקירות ומספרת לו בעלי בזוגיות עם גודי מוזס וסיפרתי על זה לכמה עית…  שנה אחכ מתברר למשטרה שה2 דווקא כן מנהלים קשר זוגיתפו״א הלוהט מתגלגל בשרשרת הפיקוד ונעצר אצל ר׳ להב ריטמן ור׳ אגף…  רב פקד אבי רוטנברג ניהל את חקירת המעונות של שרה נתניהו במהלך החקירה רגע לפני שהוא אמור להיות גם בצוות שבודק את הק…  הערב בחדשות הדבר הזה אל תחמיצו  התקיימה בנו האמירה הסובייטית המוכרת שרק ככל שיהיה יותר גרוע יהיה יותר טוב במצב הנוכחי שבו אף מגזר חרדים ערבים בליינים שמאלנים לא מוכן לוותר על מימוש הערך העליון שלו סגר יתאפשר רק כשמבת…  giladsharon כתב אישום הוגש נגד איתן זאב מאזור בנימיןהמון פלשתיני הגיע לשטח פרטי אותו עיבד איתן ורצה לבצע לינץאיתן איש אדמה וחלוץ א… מתוך YediotAhronot  הטור המלא במוסף לשבת הימין 65 למרות שנתניהו יורד ובנט מזנק והנה הדילמה האכזרית של נתניהו במלוא תפארתה בנט הוא גם הסכנה הגדולה וגם תקוו…  בין ברי לבלפור  KalmanLiebskind ההחלטה של חיות ומלצר למחוק את מצפה כרמים איננה אירוע משפטי אלא אירוע פוליטי  כך התגלגלה הפסיקה שתביא להרס יישוב יהו… הטור המלא הבוקר במוסף לשבת של YediotAhronot שני יהודים העניקו למוסלמי אחד ויתור לא כואב כי לא כאב להם לוותר  צמאה  שלום לבן דודי  shimritmeir לאל אמין זה לא היה קורה בתל אביב אין סתיו בירושלים יש ברי  לא הייתה מעולם מתקפה כזו או אפילו קרובה לזו על לפיד מבפנים שניהם סיימו את דרכם המשותפת כָּל מָקוֹם שֶׁיֵּשׁ חִלּוּל הַשֵׁם אֵין חוֹלְקִין כָּבוֹד לָרַב עוד פרטים ומחשבות על שלחלפיד  מדהים  ממליץ בחום התזה של ohadh1  שמגובה באינספור מפגשים מסמרי שיער בכפרים ובקסבות 47׳ חשובה 67׳ חשובה מאוד אבל הפלס…  מהפרק היומי ב929 זה כבר קרה ויום אחד אולי הזקנים והזקנות יישבו ליד הילדים והילדות שמשחקים בלי לשמור על ריחוק חבר…  שלב א ״לא היה תרגיל חקירה״ שלב ב מנדלבליט קובע שהתמלילים ״חלקיים ומגמתיים״  שלב ג מסתירים מבית המשפט את התמלילי…  shimritmeir מתכתב עם נסיון לשדר מעודכנות ולמחוק את הפער הדורי שמטפס ליותר משישה עשורים ילדי בית הספר שביקר בקדנצי…  כבוד לעיתונאיות ישראל בהן חברות תא העיתונאיות שמכבדות מסורת דתית מקומית  ErelSegal mosheifargan avishaigrinzaig מה אתם רוצים ממנו דעלך דסני לחברך לא תעביד שנה חדשה גן חדש עברי אמר לי הערב יש לפחות אחד שאני אכיר בגן ruvirivlin בתמונה על הקיר  הטיעונים של אלשיך בראיונות סוף השבוע די משומשים עניתי לרובם כבר לפני שנתיים בטקסט הבא מוזמנים לקרוא  אגב באמת אין כוח לגולל את מסכת השקרים המוחלטים וחצאי האמיתות של אלשיך אבל הטענה המקוממת מכולן היא זעקתו על ״המצב…  מעיון בראיונות שהעניק רוני אלשיך עולה שעל משטרת ישראל פיקד אדם שלא טעה מעולם אשרינו שזכינו מה המוסד הבא שנגלה שאפשר להסתדר בלעדיו בישראל צה״ל או אולי מס ההכנסה הטור המלא הבוקר בYediotAhronot  כבר היה פעם בגצ מצפה כרמים לפני 19 שנה דחה הנשיא ברק את בקשת התושבים שסרט שאליו הצטלמו לא ישודר בשבת כאז כן היום…  avishaigrinzaig קשה להאמין שאפשר לנחש מראש מה יחליטו מזוז ופוגלמן הם פוסקים רק לפי החוק בלב פתוח ובנפש חפצה לא חלפו חמש דקות והפילוסוף של המוסר מחק מה שמרשים במיוחד הוא שאיש מהנ״ל לא שווה דבר מבחינה עיתונאית אבל בתודעתם הם הסלקטורים בכניסה למוסד הנחשק של העיתונו…  וְעַל כֵּן הַבַּיִת לִי צַר וְהָעִיר – זָרָה כִּי הָיָה מִתְנוֹפֵף סוּדָרָהּ לְרוּחוֹת הַמִּדְבָּר  אם רוני גמזו יתפטר לא יהיה עוד משוגע שיסכים לשמש ממונה קורונה ההתנפלות עליו מהקואליציה בגלל צעדים שהוא מבקש לנקוט…  Riklin10 אולי מדובר בצמחיית חורף בדקת במשתלה נגמר המשבר הליכוד יתמוך בדחיית הבחירות גנץ צפוי להודיע בנאומו נתמוך בדחיית הבחירות הערב בהצבעה  המשמעות מגלגל את הכדור והאשמה למגרש של נתניהו תיקון חשוב לאחר בדיקה התברר לי שבניגוד לפרסומים שעליהם הסתמכתי מנדלבליט לא יזם ולא קשור לשינוי במח״ש שבעטיו הסתיי…  arnonsegal1 עשורים שפעילי הר הבית סובלים מאלימות המשטרה בעוונות פחותים בהרבה מנאצות שתיה מברזיות של מוסלמים סטייה מהנתיב המורשה הנפ… נתניהו לא סיפרתי לכחול לבן שאני לא הולך לבחירות כדי שזה לא ידלוף לאירנים מסיבת העיתונאים  על קורונה ועל המצב הפוליטי הספר ״ממלאי הפקודות״ עוסק בין היתר בחיסולה השיטתי של יהדות אירופה בידי הנאצים  והאמת העוול לניסנקורן הוא גם צדק פואטי הרי מיום כניסתו לתפקיד הוא ״אגרוף ברזל״ להכשרת כל עוולה משפטית לא צייץ מי…  אני לגמרי מאמין למשרד המשפטים שמייחס את העיכוב בן השנתיים בסגירת התיק הקשור לניסנקורן לרשלנות ולא לזדון אבל מרגע ש…  שבוע טוב עם מה שנראה כמו סיכוי לחדשות טובות בליכוד נוטים להסכים לפשרה של צבי האוזר שלפיה התקציב יידחה בכמה חודשים…  לא בשולי הדברים המצב שבו תיק נותר פתוח במשך למעלה משנתיים נגד איש ציבור אף שלא מבוצעת בו כל פעולת חקירה  בלתי נסב…  מאי 2020 הוא לא סתם תאריך אלא החודש שבו שר המשפטים נכנס לתפקידו נמתין להבהרת משרד המשפטים  כנראה מודאגים מאוד מהפגיעה ביתרון האיכותי של צה״ל  אויר של אלול בירושלים avishaigrinzaig אבל NadavNadavw פסק אחרת קיבלו אישור לחלוק עליו amirayelet ממליץ לקרוא את התגובה של אלוף במיל יעקב עמידרור למאמר של העיתונאי רן אדליסט מעריב  ובגירסת האינסטגרם amitsegalnews   האם תהיינה בחירות בשבוע הבא זו בהחלט אפשרות ריאלית האם בטוח שתהיינה בחירות ממש לא מוזמנים להאזין  Riklin10 איך זה קשור לליאת בן ארי shimritmeir מאז שאהוד יערי נכנס לאולפן ובישר כל חיסולו של בכיר החמאס דרדסאווי לא היה מבזק כזה shimritmeir אכן לא חזר לעצמו מאז ההופעה בסרט של דיסני RavivDrucker לא לא ירדתי כולנו יודעים לצפות בחדשות עשית מאמץ עילאי להעביר את אשמתו של נתניהו צילומי נתניהו בצו…  RavivDrucker רק במקרה כל התמונות זה ביבי עולה ויורד מצוללות זה היה הפוטג׳ היחיד בארכיון לגבי חפץ ופילבר ואלוביץ׳…  4 גם אם עיתונאי הימין כולם יתגייסו להלל ולשבח את נתניהו לאתרג ולסנגר  עדיין לעולם לא יועילו לסיכויי הבחירה מחדש…  3 לראות את ברוך קרא ואביעד גליקמן צמד הדוברים הנרצעים של מערכת המשפט שמימיהם לא הוציאו מילת ביקורת על מסוקריהם…  2 אם על כל 10 דברי ביקורת שלי על נתניהו בהקשר הפלילי והפוליטי תהיה מילת ביקורת אחת של דרוקר על התנהלות החקירות או…  כמה מחשבות לסיכום הויכוח הסוער עם רביב 1 תיקי נתניהו טרם החלו להתברר בבית המשפט יש משהו כמעט מחוצף בקביעה עוד מ…  אביעד גליקמן ריטווט היום ציוץ ביקורת חזק ועוצמתי על קולגה שלא מבקר מספיק את מושאי הסיקור שלו אין פאנץ׳ פרסום ראשון של מסקנות דו״ח מבקר המדינה על נסיבות מינויו של מנדלבליט נתניהו מינה אותו  RavivDrucker מרוב שאינך מקשיב להן לא עוברים שבועיים בלי מאמר שאתה מקדיש לי בהארץ וכעת אחזור לבריכה RavivDrucker תעדכן בבקשה כשמועצת האבירים תספר שיש לי מקום ליד השולחן חלום חיי שתקבלו אותי RavivDrucker לכן לא אמרת מילה על הממד החמישי תפירת תיקים לניצבים ועוד ועוד המטרה מקדשת RavivDrucker אני אכן סבור שיש הבדלים משמעותיים בין נתניהו ואולמרט ואם בית המשפט יפסוק אחרת אכבד זאת אבל כל זה לא…  תזכורת  באפריל 12׳ נראה שפנינו לבחירות  ב75 מפרסם עבדכם שרוזנטל נפגש עם יו״ר העבודה וסיכם שיתמודד בפריימריז … </t>
-  </si>
-  <si>
-    <t xml:space="preserve">מרכינה ראש יחד עם כל בית ישראל על פטירתה של הרבנית מרים לוינגר עליה השלום שהייתה לאם התיישבות היהודית בחברון ואשר…  מחכה לכם אצלי בסוכה יהיה שמחgtgtgt  גמר חתימה טובה  אשוחח מיד עם גדעון אוקו במשדר N12News אשוחח מיד עם עודד בן עמי ב N12News מוזמנים לצפות הגיע הזמן שגורמי אכיפת החוק יבצעו את תפקידם ללא חשש וללא מורא אחרת זה יהיה ״יום הכיפורים״ של המדינה היהודית והדמוקרטית התפילות  נערכות על פי קפסולות בצורה מפוקחת ומסודרת ואילו ההפגנות  נערכות בצורה בריונית ואנרכיסטית שבהן שמים פס ע…  יהיה זו אות קלון על המדינה היהודית והדמוקרטית אם יהודים לא יתפללו בבתי הכנסת  המתח בין היהודים לישראלים מתחדד בויכ…  המפגינים בבלפור וברחבי הארץ מהווים בהתנהלותם סכנה לבריאות העם ופוגעים במאמצים להורדת התחלואה אני קוראת ליועמ״ש מנד…  בצער רב שמעתי על פטירתה של מירית הררי ז״ל שהייתה בחייה השראה לרבים וכך תיזכר היא לימדה אותנו שיעור באצילות בבחיר…  מי שבאזור בחריין הבוקר שיביא איתו עיתון   הגיע הזמן שאל על תשוב לטוס לחברה סגל טייסים דיילים ועובדים מקצועיים מסורים ומנוסים המשוועים לחזור לנתיב ההמראה ה…  בחודשים האחרונים הובלנו שורה של מהלכים שאפשרו את אורך הנשימה הפיננסי והיציאה להנפקה שבוצעה הערב אני רוצה להודות ל…  זהו ערב חשוב לעתידה של התעופה הישראלית חברת אלעל יוצאת לדרך חדשה התואמת למתווה אליו חתרנו כל העת במטרה לשמור על…  ברכות להנהלת ארקיע לעובדי ארקיע ולהסתדרות העובדים שמצאו את הדרך להשיב את החברה למסלול המראה חברת ארקיע לקחה חלק ב…  ראש הממשלה בנימין נתניהו אני גאה בך  לך בכוחך זה ותצליח במהלך הטקס נשמעו הערב אזעקות צבע אדום באשקלון ובאשדוד זו דרכם של המפסידים הגדולים של הערב  ארגוני הטרור דרך הטרו…  ראש הממשלה בנימין נתניהו ייזכר לדורות בהיסטוריה כמנהיג ששבר את הפרדיגמה של השמאל שלום תמורת שטחים ראש הממשלה חתם…  באולפן חדשות 13 עם אודי סגל ותמר איש שלום לרגל הסכם השלום ההיסטורי שייחתם הערב מוזמנים לצפות newsisrael13  GLZRadio שרת התחבורה regevmiri שוחחה עם עמיתה מבחריין השר כאמל בן אחמאד מוחמד במהלך השיחה סוכם על קידום פרויקטים משותפים בתחום התח… השר כמאל הזמין אותי לפגישת עבודה משותפת בהקדם האפשרי הודיתי לו והזמנתי אותו לביקור בירושלים במהלך השיחה דנתי עם ה…  לפני דקות אחדות שוחחתי עם עמיתי מבחריין שר התחבורה והתקשורת כמאל בן אחמד מוחמד לשיחה ראשונה והיסטורית ברכתי את השר…  התנהלותה השערורייתית היום של עיריית בני ברק מהווה פגיעה מכוערת וצינית בכבודו של הציבור החרדי באמצעות התנהגות לא מק…  עדכון מתחקיר ראשוני שערכתי מול מנכ״ל רכבת ישראל עולה כי לא מדובר בעובד רכבת ישראל אלא במתחזה שנכנס למתחם התחנה ועו…  הזדעזעתי לראות את הסרטון המזעזע והקשה מרכבת ישראל הנחיתי לבצע תחקיר מיידי של הנושא אמירות כאלו והתנהלות כזו לא יה…  זעקנו והתרענו כל הזמן שתיקי הסרק נגד ראש הממשלה נגועים בהתנהלות פסולה באופן חסר תקדים של רשויות החקירה והפרקליטות…  נמשיך לעבוד יחד בשיתוף פעולה על מנת לתת מענה לצרכים התחבורתיים של תושבי העיר פתחתי את היום בביקור עבודה בפתח תקווה אם המושבות עיר בהתפתחות מואצת עם צרכים רבים בתחום התחבורה שמחתי להיפגש עם ר…  מחשמלים ומחברים עוד צעד חשוב בהנגשת התחבורה הציבורית עם תחילת נסיעות המבחן הבוקר של הרכבת החשמלית בקו הרצליהירוש…  ב1948 שרפו הלהבות את ספינת אלטלנה  והתירו פצע מדמם ופתוח בליבה של החברה הישראלית 72 שנים אחרי בכוונתי  לקרוא א…  שולחת ברכת החלמה מהירה לאנשי כוחות הביטחון שנפגעו בפיגוע הדריסה בצומת תפוח פעילותם המהירה והנחושה לנטרול המחבל  מנעה אסון כבד רפואה שלמה משמרות הזה״ב מצילות חיים ומגינות  על ילדנו בדרכם לבית הספר ובחזרה לביתם הבוקר עם תלמידי בית הספר רמב״ם בראש העין…  ״אישור תנועה״ היסטורי בנתב״ג לטיסת LY971  צפו ברותם תלמי פקח הטיסה בנמל התעופה בן גוריון  מזניק בהתרגשות את טיסת…  הגיע זמן משילות עלינו לעמוד איתנים מול הניסיון של פקידים לקבוע את המדיניות במקום ליישם אותה נבחרנו כדי למשול ולקד…  השייח׳ חליפה בן זאיד היקר והשייח׳ מחמד בן זאיד היקר  קיבלתם החלטה חכמה ואמיצה ההיסטוריה תציב אתכם בשורה אחת עם מנ…  رئيس دولة الإمارات العربية المتحدة صاحب السمو الشيخ خليفة بن زايد وصاحب السمو الشيخ محمد بن زايد ال نهيان لقد اتخذت…  החלטת בג״ץ באשר למצפה כרמים הינה מופת של טהרנות וצדקנות ״דעת הרוב״ של שופטי בג״ץ הינה דעת המיעוט בעם ישראל אין לנ…  ״ישראייר 447  כאן שרת התחבורה מירי רגב במגדל הפיקוח״ צפוgtgtgt  הלב דואב על הירצחו של אזרח ישראלי בידי בן עוולה בפיגוע בפתח תקווה נבוא חשבון עם הרוצח ומשלחיו שטופי השנאה תנחומיי…  ב2013 בנט ושקד דיברו ימין בטוויטר אבל הכינו מאחורי הקלעים את הברית עם לפיד פלא שעכשיו אנחנו לא סומכים עליכם ימי…  ב2019 נטשו בנט ושקד את הציונות הדתית לטובת הפרוייקט המגלומני של ״הימין החדש״ שהוביל את מחנה הימין לסחרור איתו אנו…  הגיע הזמן לדבר דוגרי איילת  על הנזק שעשית לימין בשנים האחרונות יחד עם בנט בשל הילדותיות והאגו שלכם תשפוט אתכם הה…  גם בפעם הקודמת בנט ושקד התחייבו שימליצו על נתניהו וברגע האמת לא עמדו בהבטחתם לציבור  בנט ושקד התנגדו לריבונות וקרא…  ראש הממשלה נתניהו הוכיח הערב שוב מנהיגות ואחריות מול ההתנהלות של כחול לבן שניהלו ממשלה בתוך ממשלה ודחפו לבחירות…  4 האם הייתה חפיפה בין מועד ההחלטה על סגירת התיק למועד המינוי שלך לשר המשפטים  הציבור זכאי לקבל תשובות משר המשפטים…  לא ביבי לא חוקרים  לא ביבי  גונזים  הציבור זכאי לקבל תשובות ענייניות ולא מתקפה של שר המשפטים שמכנה ״עלובי נפש״ א…  אירוע האונס האכזרי באילת כפי שמצטייר מהחקירה עד כה  מחייב אותנו להחרפה חמורה של הענישה עד למיגור מוחלט של תופעות מ…  שדה תעופה בלב הים   במשרד התחבורה אנו מטפלים גם בים וגם באוויר אבל מסתבר שניתן לשלב את הים והאוויר יחד  אעדכן כ…  הליכוד בראשות נתניהו מוביל את ישראל לעידן חדש של שלום תמורת שלום שמביא לישראל עוצמה ותקווה ב1967 התכנסה וועידת חרטום שחרטה על דגלה את ההתנגדות לישראל והכריזה לא להכרה בישראל  לא לשלום עם ישראל לא למו״מ…  תגובת כוחות הביטחון המקצועית והנחושה לפיגוע בדקות האחרונות בירושלים הובילה לנטרול המחבל מנעה תוצאה חמורה יותר ומז…  שוחחתי בשעה האחרונה עם שר התחבורה היווני קוסטאס קרמנליס והודיתי לו על נכונותה של יוון לקבל תיירות ישראלית לשטחה סי…  פטירתה של הפרופסור רות גביזון ז״ל כלת פרס ישראל היא אבידה גדולה לעולם המשפט הישראלי כחוקרת משפט קולה האיר באור של…  הסכם השלום ההיסטורי עם איחוד האמירויות מביא עמו בשורה כלכלית לאומית וביטחונית ראש הממשלה נתניהו מוכיח הערב שוב את…  שומעת את הראיון עם רעיית ראש הממשלה הגב׳ שרה נתניהו וחושבת לעצמי כמה עוצמה ואמונה יש באישה הזו שנושאת על כתפיה עש…  החלטה מנותקת נוספת של בית המשפט העליון שאינה מאפשרת למדינת ישראל וצה״ל את הכלים להילחם בטרור כחברת הוועדה לבחירת ש…  בני גנץ ו״כחול לבן״ מספיק עם הפוליטיקה הגיע הזמן שתפנימו אנחנו במצב קורונה והכל צריך לעבוד מהיום למחר מיד בזמן…  עם ישראל מרכין ראש ואבל על פטירתו של הגאון הרב עדין אבן שטיינזלץ מגדולי הדור ומבאר התלמוד הבבלי תורתו של הרב וספרי…  ברכות חמות לאנשי המכון הביולוגי שהצליחו להתקדם משמעותית עם המשימה שהטיל עליהם ראש הממשלה בנימין נתניהו בפברואר למצ…  לפני שעה קלה סיימתי דיון בקבינט הקורונה שהסמיך אותי יחד עם שר הבריאות יולי אלדשטיין ושר החוץ גבי אשכנזי לפעול לייש…  שרה היקרה – מאחורייך ולצידך עומדות נשים רבות מחזקות אותך גאות בך ומודות לך  על עשייתך ותרומתך לחברה הישראלית  אתלאלבד  לרדוף אותה עד לאן נגיע  היכן מירב מיכאלי שלי יחימוביץ היכן אורנה ברביבאי זהבה גלאון איפה כל נשות האופוזיציה ה…  השמאלניות הצבועות הסרטון המזעזע הזה חושף אלימות מינית בוטה ברברית ואנרכיסטית כלפי הגברת נתניהו כמה צביעות חייבי…  הוא צייץ ״רגב הצעירה המציאה שתקפתי אותה  ועל כך תשלם״   אז מצייץ מי שמצייץ אחרון היום בית המשפט דחה את התביעה הש…  מצייץ מי שמצייץ אחרון   לפני כשלוש שנים כשהלכתי ברחוב עם בני משפחתי תקף אותנו ברק כהן בקללות ונאצות במקום להתנצל…  אתראיין מיד על כל ענייני היום במהדורה המרכזית של arutz20 עם Litalsun הצטרפו לשידור החי  GLZRadio שרת התחבורה regevmiri אומרת לירון וילנסקי וbardugojacob על המתווה להצלת אל על שיחל בסוף החודש כבר לפני החגים 200 מילי… היחסים  בין כלי התקשורת  לבין מושאי הסיקור שלהם על מנת שתעוגן גם זכותו של נבחר ציבור לשם טוב ולסיקור הוגן והצלחתי…  בין השאר בשל אי עריכת תחקיר עיתונאי ראוי בסוגיה זו  אני מאמינה שביקורת וחופש עיתונות הינם חשובים ומהווים עקרונות…  במדרגה גבוהה ביותר עוד קבע בית המשפט המחוזי כי הפרסום שהיתה מקורבות או הכרות מוקדמת ביני לבין בעליו של משרד…  וכל כלי התקשורת ניהלו מתקפה פראית שאיימה לפגוע בשמי הטוב בכבודי וביושרי הציבורי דרכי הייתה ותשאר תמיד ישרה ונאמנ…  לפני 5 שנים פורסמו לגבי 7 כתבות במשך 3 ימים שבהם הואשמתי על לא עוול בכפי בהעברת מיליונים שלא כדין למשרד פרסום שב…  על פסק דינו של בית משפט השלום וחייב את הערוץ ואת הכתב ספי עובדיה לשלם לי סך כולל של 150000 ₪ וכן להשיב לי את ההוצ…  היום הסתיימה תביעת לשון הרע שהגשתי לפני 5 שנים באמצעות עוהד אלעד איזנברג וחגי חביב ממשרד אורלנסקי איזנברג מוזסו…  היום בבוקר ניתן פסק דינו של בית המשפט המחוזי בירושלים בהרכב של 3 שופטים אשר קבע פה אחד כי ערוץ 10 היום ערוץ 13…  מסע ההשחרה ההשמצה והמתקפה השקרית והפראית של ספי עובדיה וחדשות 13 מסתיימים בפסק דין נחרץ ובפיצוי של 150000 ש״ח …  צדק צדק תרדוף הסתה מובילה לאנרכיה ולאלימות אנו רגע לפני אסון הגיע הזמן להתעורר ולפעול ביד ברזל נגד המסיתים המאיימים על חיי ראש…  שמחה שמשרד הבריאות נעתר לבקשתי לפתוח את ענף התעופה אשר חייב לחזור לעבוד עפ״י תו כחול  שיתואם בצורה מסודרת עם משרד…  בערבו של תשעה באב יש מי שבחר ללבות עוד ועוד שנאה וקיטוב בעמנו  יש מי שאולי רומז שגם עתידו של ראש הממשלה יהיה כעתיד…  חברותיי וחברי  חברי תנועת הליכוד זה לא הזמן לפיצולים ולא העת למחלוקות כוחנו באחדותנו ובהתלכדותנו  רוצים להגיע לעבודה דרך הים הצורך להתמודד עם הפקקים מוביל אותנו לבחון פתרונות יצירתיים וחדשניים  כמו למשל השאטל הי…  הגיע הזמן להתעורר ולעצור את ההפגנות האלימות שנועדו להפלת שלטון הימין שבוע טוב ובשורות טובות שלא תגידו שלא הזהרנו אנחנו לא מתנגדים להפגנות אלא להסתה לא מבקשים לסתום פיות אלא מזדעזעים מביזוי סמלי המדינה וה…  מאוסף חותמות הפקידים הגדול שנחשף נראה שפקידי ממלכת יהודה בניגוד לפקידי ימינו אנו ידעו את מקומם בתווך שבין אחריות ו…  על שלטון הפקידים וממלכת יהודה  מי שחיפש עוד חותמת נוספת לקשר העמוק שלנו לארץ ישראל קיבל זאת הבוקר שוב בדמות אוצר…  ליבי עם בני משפחתו של רבטוראי סהר אלגזר זל חייל חטיבת הנחל מהמושב רנן שנפל בתאונה ברכב צבאי בעת פעילות בהר דב יהי זכרו ברוך ״אוהב אני את עמי ואת ארץ ישראל  זה האני מאמין שלי זו מלאכת חיי״ זאב ז׳בוטינסקי  80 שנה לפטירתו          חשיפת הפערים החמורים בין תמלילי החקירה בתיקי הסרק נגד ראש הממשלה להקלטות בפועל היא לא פחות מרעידת אדמה לעצור הכל ו…  שלמה שרף היקר  רפואה שלמה במקורותנו נאמר ״שבת היא מלזעוק ורפואה קרובה לבוא״ GLZRadio השרה regevmiri לKerenMarc וusegal עם כל הכבוד לפקידי האוצר  רהמ מבין הרבה יותר בכלכלה מרציאנוסגל צילום מרים אל… ברכות לחברתי אוסנת מארק על מינויה לוועדה לבחירת שופטים וברכות לקואליציה שגילתה בגרות ואחריות  המפגינים בבלפור לדוקטור אבישי בן חיים ״מרוקאי זבל״   בלי חשומה   מרוקאיתגאה גם כשכואב וקשה נדרשת סולידריות חברתית איפוק וכבוד לחוק הגיע הזמן להתעורר ספרו לשוטרים שהוכו הלילה על דמוקרטיה ספרו לסוס שקיבל מחסום ברזל ברגלו על חמלה ספרו לאבישי בן חיים שהותקף על חופש…  הפגנה וחופש ביטוי כן אלימות והסתה לא הגיע הזמן לעצור בטרם יהיה מאוחר מדי בושה וחרפה מאחלת בריאות טובה לכל נוסעי האוטבוס הנחיתי את אנשי הרשות הלאומית לבטיחות בדרכים לקבל את מסקנות חוקרי משטרת התנועה…  סיכמתי עם שר האוצר שיחד נקדם הפרוייקטים כבר בתקציב הקרוב זאת בהחלט תהייה בשורה גדולה למשק הישראלי בעת הזו לפני מספר דקות הצגתי את תכנית הניו דיל הישראלית תשתית לצמיחה 2025 בישיבת הממשלה  זוהי תכנית חשובה לקידום מנועי צמ…  שנמצא בחוד החנית ובזכותו אנחנו יכולים לעמוד במשימה הלא פשוטה של הפעלת האוטבוסים במגבלות הקורונה ותודה למפעילי התחב…  נוסעות ונוסעי התחבורה הציבורית  הבוקר הנחתי להאריך את שעות פעילות התחבורה הציבורית גם לאחר השעה 2200 תחת מגבלות ה…  משרד הבריאות במלואן   מוטלת עלינו חובה להעביר מסר לציבור של אחריות כך נילחם יחד במגיפת הקורונה נישמע להוראות שמצ…  אני מצפה מכל נבחר ציבור שיעמוד על כך שכל אחד ואחת מאיתנו ישמרו על הנחיות משרד הבריאות   הבוקר הגעתי לאירוע חשוב…  נפעל כדי לאפשר לכם את יכולת הנסיעה בתחבורה ציבורית תוך שמירה על הנחיות משרד הבריאות לילה טוב ושקט חברות וחברים יקרים בהמשך לשאלות רבות שהגיעו אליי ברצוני לעדכן אתכם כי האוטובוסים יפעלו מחר כרגיל הנחתי את משרדי ל…  מחליפים את השופטים ואם אפשר להטות את התוצאה גם טוב על זה אמרו פעם במערכון של הגשש החיוור ״אנחנו נקבע מי השופט השח…  על בקשת ערוץ 13 וספי עובדיה אפשר לומר ״רואים לכם״ חופש הביטוי והצדק הוא נכון רק כאשר הוא בצד שלכם פסילת השופטים…  ואז הגיע הפירוט ״אפליקציה יישומון״ מסתבר שבמודעה מטעם המשרד  נעשה שימוש במילה לועזית במקום בעברית   אז אבשלום י…  מתי קמתם לאחרונה בבוקר עם הודעה מאבשלום קור אצלי זה קורה הרבה והבוקר ההודעה ההבאה ״אנא מירי הפסיקי להתחבק עם הלוע…  כבר ב2018 אמרתי שיש לנו סוסים טרויאנים בכנסת מעודדי טרור והסתה נגד חיילי צה״ל איימן עודה השתתף בכנס טרור ׳וירטוא…  גבי אתה בטוח נראה שאתה מדבר מספסלי האופזיציה  אם בחקירות עסקינן אינך חושב שהגיע הזמן לפתוח ולחקור מחדש את פרשת הר…  כדי לחקור ולתבוע את נתניהו אבל את הזכות של נתניהו להגן על עצמו מנדלבליט מונע זה אבסורד שחייבים לתקן אישי ציבור…  היועץ המשפטי לממשלה נמצא בניגוד עניינים מצד אחד הוא כותב ומגיש את כתבי האישום ומצד שני מונע הגנה שראוי לה כל אדם –…  הבהרה חשובה לפני מספר דקות שוחח איתי גלעד שרון והבהיר לי כי בניגוד לדברים שאמרתי בראיון בnewsisrael13 אביו ראש ה…  גם סבא וסבתא שאין להם רב קו  יוכלו להשתמש בתחבורה הציבורית   הנחתי על מתן אפשרות תשלום במזומן ללא רב קו באוטובו…  אשוחח מיד עם יעקב ברדוגו וירון וילנסקי ביומן הערב של GLZRadio מוזמנים זו כבר אובססיה נגד ראש הממשלה נגד מיליוני בוחרים ונגד הדמוקרטיה איפה כל יפי הנפש שיגנו אפרים שמיר הפך לכוורת שנא…  תחבורה עם נשמה זוכרים את מיכאל לשמחתי חברת אגד פעלה להעניק לו כרטיס רבקו ובכך החזרנו את הכבוד לאזרח הוותיק מדור…  תנחומיי הכנים למשפחת וקסמן על פטירת הרב יהודה וקסמן ז״ל אביו של נחשון ז״ל שהיווה בדרכו ובהתמודדותו עם השכול השראה לרבים יהי זכרו ברוך ״כִּי אֶת כָּל הָאָרֶץ אֲשֶׁר אַתָּה רֹאֶה לְךָ אֶתְּנֶנָּה וּלְזַרְעֲךָ עַד עוֹלָם״  הגענו לרגע האמת אני מאמינה…  אחרי אוטובוס הקומותיים שיגיע בתחילת השנה קבלו את הדבר הבא רכבת על גלגלים שתגיע למרכז הניסויים שאנו מקימים באמצעות…  נהנית מהנוף מהשקט ומנסיעה נגישה זמינה ובטוחה ערב טוב ישראל  הרכבת חוזרת קצת אחרת  גם הרכבת עוטה מסכה  אנחנו בהערכות שיא על מנת לשמור על הנחיות משרד הבריאות מבקשים מציבור הנ…  קיימתי כעת הערכת מצב עם מנכ״ל רכבת ישראל בתחנת ראש העין צפון על מנת לעמוד מקרוב אחר ההערכות לחזרת הרכבת מחר במגבלו…  רינה הפעם זה לא יצליח  אנסת הערב את כבודם של מיליון מצביעי ליכוד תתביישי פעם אחר פעם את מצליפה במחנה הימין ובראש…  שבת שלום  ביום שני הרכבת חוזרת  קצת אחרת  אז איך ניסע מעכשיו ברכבת איך משריינים מושב לנסיעה מהם כללי ההתנהגות ברכבת בצל…  כולל בשיחות הטלפון הנחיתי את רכבת ישראל לקיים הסברה לציבור הרחב אודות כללי הנסיעה העדכניים תחת שגרת הקורונה בהתאם להוראות משרד הבריאות הרכבת חוזרת – אבל אחרת אחרי תקופה ארוכה של ציפייה ביום שני נחזיר את הרכבת לפעילות אני חייבת להגיד ביושר – זו לא…  GLZRadio שרת התחבורה regevmiri אומרת אצל IshayShnerb צריכים לעשות הכל כדי להציל את אלעל אבל גם בעלי הבית צריכים להבין שעליהם לה… GLZRadio השרה regevmiri מגבה אצל IshayShnerb את שרה נתניהו הרדיפה אחריה בלתי אפשרית עושים לה לינץ ציבורי צילום הדס פרוש פלאש9… המדינות הערביות המתונות יצרה את ההזדמנות להחלת הריבונות בתמיכה אמריקנית חסרת תקדים ופתחה חלון הזדמנויות היסטורי ש…  שמצביע על הדברים הנפלאים שיש באותו מאמר בדיוק  בראשם העובדה שהוא נכתב בעיתון ישראלי בצורה עניינית ולא מסיתה ושאנש…  יש החולמים ויש המחמיצים  המחמיצים  קראו את המאמר של שגריר האמירויות בנושא החלת הריבונות ומיד התחילו לייצר פאניק…  נוסטלגיה זוכרים את ה״אוטובוס קומותיים״  בקרוב אנחנו מחזירים את אוטובוס הקומותיים אבל הפעם במהדורה משודרגת חדשנית…  שמתי לי ליעד לפתח את חזון המסילה המזרחית בראש סדרי העדיפויות לתקן החלטות היסטוריות  ולחבר את ישראל  כך אעשה אם הייתי אומרת לך שטקסי המשואות ייצגו באופן שוויוני מזרח ומערב ערבים וחרדים ולא רק רובד אחד באוכלוסייה  היית מאמי…  גילי לנדסמן כתבה לי ב״הארץ״ הבוקר מכתב פתוח על המסילה המזרחית שתחבר את ישראל   אני אומרת לך גילי אם הייתי מספרת…  שאני כל כך מצטערת על החוויה שעברה עליו נפעל כדי שמקרים כאלו לא ישנוgtgtgt כאב לי מאוד לשמוע על כך שנהג אוטובוס הוריד את מיכאל מגידוביץ בן ה99 במהלך הנסיעה ועל חוסר האנושיות שבה הוא נתקל ש…  החלטת בג״צ בתזמון תמוה ערב החלטה היסטורית על החלת ריבונות ביהודה ושומרון רק מלמדת אותנו ואת ההתיישבות שאסור לנו ל…  שמחתי מאוד לחנוך היום את כביש 73  הכניסה הדרומית למגדל העמק יחד עם ראשי הערים בעמק ששותפים למהפכה ולמחיקת המושג פ…  בישיבת עבודה עם ראש העיר צפת שוקי אוחנה ומנכל נתיבי ישראל ניסים פרץ מחברים את ישראל  בדרכי לצפת נתקלתי בצומת עמיעד בניידת בדיקת תקינות כלי הרכב של משרד התחבורה עצרתי כדי להגיד שלום ולהזכיר לכם ששמיר…  אני מברכת את אנשי שירות הביטחון הכללי וכוחות צה״ל שבאו חשבון עם המחבל הנתעב שרצח את סמל ראשון עמית בן יגאל ז״ל לוח…  כמו כן שוחחתי עם מנכל רשת והנחתי אותו לפעול על מנת למצוא חלופות נחיתה בישראל לנמל בן גוריון ולתת מענה הולם לכלל צרכי הנוסעים שוחחתי עם יור וועד העובדים פנחס עידן ואמרתי לו כי על וועד העובדים לחזור באופן מיידי לשולחן המשא ומתן ולנהלו יחד בצ…  עמדתי החד משמעית הינה שעל המדינה לעמוד לימינה של רשת ולהבטיח את הרציפות התעסוקתית של העובדים שייצרו לאורך השנים הכ…  זימון עובדים לפגישת משא ומתן מאחורי גבם של כלל הגורמים הממונים והשרה הממונה היא התנהלות חמורה ולא תקינה וחבל שוועד…  לפעילות בתקופת משבר הקורונה כולל פתיחת הליגות המתווה לסיוע הקורונה לעולם התרבות סוכם בתקופת כהונתי עם משרד האוצר…  כחול לבן תפתחו את האוזניים גם מסע החנופה לבייס שלכם לא ישנה את העובדות לא תוכלו למחוק את המהפכה שהבאתי לעולם התרב…  regevmiri אדוני ראש הממשלה  תחת הנהגתך אנחנו מדברים ימין  ועושים ימין בשם ה׳ נעשה ונצליח אדוני ראש הממשלה  תחת הנהגתך אנחנו מדברים ימין  ועושים ימין בשם ה׳ נעשה ונצליח יש מי שחושב שהטרור ימנע מאיתנו להתקדם למטרה ולהחיל את הריבונות על כל שטחי ישראל אם האיומים היו מנהלים אותנו  ישרא…  הובא לידיעתי שידידי השר דוד אמסלם מהליכוד יזם והחל כבר בממשלה הקודמת בפעולה לעצירת האפשרות להתחזות לאחר בהודעות סל…  יועז החלטה נכונה וחשובה כשמגיע מגיע YoazHendel1  שמחתי לארח בלשכתי היום את נציגי ארגוני התחבורה הציבורית שותפים מלאים לעשייה לטובת הציבור מטרתנו אחת ומשותפת  תחב…  כולנו תקווה שנתוני התחלואה לא יובילו לשינוי במועד פתיחת הרכבת ונוכל להחזירה בשבוע הבא לפעילות מלאה כמתוכנן   הגעתי…  ״עימות חריף״ yaronavraham  הבוקר הזה ליבי עם רעיית ראש הממשלה הגב׳ שרה נתניהו עוד האשמות עוד הכפשות מהסוג שמתחילות בכותרות ענק ומסתיימות ב…  לצערי בימים האחרונים חלה עלייה מדאיגה במספר הנדבקים בנגיף קורונה הנתונים מחייבים אותנו לשמירה על הריחוק הפיזי על…  שבוע טוב ובשורות טובות  החל מערב החג הרחבנו את שרות התחבורה הציבורית האוטובוסים פועלים במתכונת של עד 75 אחוזי תפו…   12 חברים למישהו נשאר עיתון הבוקר   מצרפת לכם את הראיון שהענקתי ל״7 ימים״ לכבוד החג בין השאר הצגתי את תפיסת עול…  במקום לעשות רעש מיותר  תקראו את הראיון המלא שלי מחר לוינסון  זו הפעם הראשונה שאנחנו מסכימים  חג שמח  41 מנדטים שהם רוב עצום בעם אומרים עד כאן די לרדיפה די לאישומי הסרק ״וכאשר יענו אותו כן ירבה וכן יפרוץ״  בשמחה תודה על פעילותכם למען קידום התחבורה הציבורית ניפגש בקרוב שבת שלום  22 ניפגש בקרוב ויחד נעשה ונצליח gtgtgt   12 תודה לך עופר עיני מנהל קבוצת הפייסבוק נוסעים ונהנים על הטור המעניין והמכבד שכתבת בימים אלו אני עוסקת בלמידת…  מברכת את קרן טרנר על מינויה הצפוי לתפקיד מנכ״לית האוצר אין לי ספק שהיא תהיה שגרירה נאמנה של משרד התחבורה שאותו היא…  22 ההחלטה תסייע לרשויות המקומיות להשיב את פעילות מערכת החינוך לשגרה בצל הקורונה בהמשך השבוע אדון עם משרד הבריאות…  12 שמחה לבשר על החלטתי הראשונה כשרת התחבורה והבטיחות בדרכים  החל ממחר התחבורה הציבורית תפעל בשעות השיא 70083…  33 אז לכל יפי הנפש והמצקצקים אולי ראוי גם הפעם פשוט לומר את האמת וקצת להרגיע בוודאי לפני כניסת שבת 23 בטרם שיחתי עימה פניתי לנציב שירות המדינה וביקשתי לוודא שכל זכויותיה תישמרנה וכך יהיה  טרנר עשתה ועושה עבודה…  13 אז בואו נשים סוף לספינים ולמסכת השקרים  דבר ידוע הוא שכל שר המגיע למשרד חדש ממנה את מנכ״לו שהוא איש אמונו על…  22 זו השעה לעשות את השינויים המתבקשים ולהשיב את אמון הציבור במערכות אלה שבוע טוב ובשורות טובות  12 החשיפה האמיצה של איילה חסון מאמש מלמדת עד כמה חמור מצבה של מערכת אכיפת החוק בישראל הגיעה העת לפתוח מחדש את פר…  בתגובה לפרסום בYNET השרה רגב מבקשת להבהיר כי היא לא מנהלת שיח על תפקידה באמצעות כלי התקשורת השרה רגב אמרה לא פעם…  טוב עשו שופטי ירושלים שלא התערבו יש ריבון בישראל  העם והוא אמר את דברו טוב היא יכולה לשכוח מהרכב בתקופה הקרובה  33  3 לכל אדם יש את זכות החפות וכך גם לנתניהו חוק יסוד קובע שראש הממשלה יכול לכהן עד הרשעה בפסק דין חלוט   לכן…  23 2 הדרך היחידה לצאת מהפלונטר הפוליטי היא לקיים את הסכם הרוטציה ככתבו וכלשונו גם מוסד היועץ המשפטי לממשלה אבן…  13 אל תתערבו פשוט אל תתערבו 1 במדינה דמוקרטית רק העם קובע מי יהיה ראש הממשלה ומי יהיו נבחריו העם רצה אחדות ה…  22 אולי כי הם מודרים הגיע הזמן לעשות גם שם סדר 12 פרס ישראל הוא אחרון המבצרים שנשארו לישראל הראשונה הפרס חוטא לאמת ההיסטורית ולכוונתו המקורית ״לחזק את עוצמתו…  ברכות חמות לרות כהן מאולפנת בהרן כלת חידון התנך העולמי ליום העצמאות ה72 ולתפארת הכוח הנשי במדינת ישראל   תודה לכולם  עם ישראל חי  מתפללת לשלומה של תושבת כפר סבא שנפצעה היום באורח קשה בפיגוע הדקירה בעירה ומצדיעה לאזרח שפעל בעוז ובאומץ רב וניטרל את המחבל הצטערתי לשמוע על מותו של הרב אברהם ישעיהו הבר יו״ר ומייסד ארגון ״מתנת חיים״ לתרומת איברים  הבר ז״ל איש חסד וחזון…  שמחתי להתבשר על כך שנשיא איחוד הצלה אלי ביר החלים מנגיף הקורונה ונחת אתמול בישראל אלי אני מקווה שתשוב לאיתנך במה…  מחזקת את לוחמי מג״ב שפעלו בנחישות ובאומץ רב וניטרלו את המחבל בפיגוע שארע הבוקר במחסום הקיוסק הסמוך לאבו דיס אני…  לירון זייד יצאת צדיק lironzaid  כפיים  גנץ לפיד אשכנזי בוגי וליברמן הצלחתם  אתם חתומים בדפי ההיסטוריה על אחד המהלכים השפלים ביותר שידעה הד…  רואים לך בוגייצאה האמת עכשיו אמרת לדנה וייס בערוץ 12 לא יהיה מו״מ עד שנשתלט על הכנסת זו לא דמוקרטיה מר בוגי ז…  למדו ממנחם בגין שבעת משבר ערב מלחמת ששת הימים הניח את המחלוקות בצד ונכנס לממשלת אחדות וחירום לאומית בראשות לוי אשכול 23 ממשלת חירום לאומית בעת הזו היא מחויבת ומחייבת את כולנו אני קוראת לגנץ ושותפיו עשו מעשה לכו לנשיא היום ותאמרו…  13 על רקע סבב ההתייעצויות היום בבית הנשיא אני קוראת לנשיא המדינהפעל להקמת ממשלת חירום לאומית מתוך הכרה והבנה שז…  גנץ gantzbe גלה אחריות לאומית וכנס לממשלת חירום לאומית ללא תומכי הטרור כי זהו צו השעה מנהיגות נבחנת בדיוק בשעו…   55 וגם על כך אני עומדתשלושה רמטכ״לים מנסים להקים ממשלה בחסות טיבי ממשלה מסוכנת שעלולה להביא למחיקת המדינה היה… </t>
-  </si>
-  <si>
-    <t xml:space="preserve">נפגשנו היום בלשכתי בירושלים עם שר האוצר הפלסטיני דר שוכרי בשארה  בנוסף לנושאים הכלכליים השוטפים שוחחנו בעיקר על ה…  היענות גנץ להצעת ראש הממשלה היא צעד נכון  כלכלת ישראל המערכת הפיננסית התעשייה העסקים הקטנים והבינוניים העצמאים…  עכשיו זה הזמן לממשלת חירום לאומית  יחד נביא את המדינה לחוף מבטחים     אחרי שיפתר המשבר אפשר יהיה   להמשיך בפוליטיקה מאיפה שהפסקנו מהיום בעלי עסקים יכולים לגשת לבנקים ולקבל מענה לקשיים התזרימיים שנגרמו בעקבות משבר הקורונה אנחנו במשרד האוצר נמשיך…  אתמול הוחלט על הקמת קרן לסיוע והיום היא כבר בפעולה  הקרן לסיוע תזרימי לעסקים נפגעי הקורונה בהיקף של כ4 מיליארד ש…  אני מאמין שבעזרת השם ובכוחות משותפים נצלח את המשבר הזה בהזדמנות זו אני מבקש ממעסיקים שיכולים לאפשר עבודה מהבית שיעשו זאת כדי שהפגיעה במשק תהיה מינימלית   אנחנו במשרד האו…  היום אציג לראש הממשלה מתן קו אשראי לעסקים שנקלעו למצוקה בעיקבות משבר הקורונה הנחיתי את רשות המיסים ואת ראשי האגפים…  חברת דירוג האשראי SampP מאשררת את דירוג האשראי של ישראל לרמת  AA עם תחזית יציבה  רק מדיניות חברתית נחושה אחראית שמ…  10 שנים להצטרפות ישראל לOECD   לקראת ערב שבת מסיימים דיונים קדחתניים בנושא הדוח הדושנתי של האירגון על כלכלת ישר…  לידידי כאח לי חכ יצחק כהן שר השיכון הנכנס אני מבקש לאחל הצלחה רבה  בזכות  הניסיון  הרב שלו כחבר כנסת שהיה כמעט ב…  הדיור הציבורי בתקופתה של שאשא ביטון קיבל תנופה משמעותית כשדירות רבות  נרכשו בעבור חסרי היכולת   אני בטוח שהמצוינות…  דר יפעת שאשא ביטון היא הביטוי המובהק למצוינות לאורך כל חייה וגם במשרד השיכון היא פעלה במצוינות אלפי זוגות צעירים…  כל עשירית אחוז הוזלה שתשיגו שווה עשרות אלפי שקלים   זה הכסף שאתם עובדים מאוד קשה בשבילו והמטרה של הרפורמה בפנסיה היא שהאזרחים ירוויחו יותר ההשקעה הכלכלית הכי טובה שיש שעתיים של עבודה ואתם יכולים להרוויח כ250000 שקלים  איך עושים את זה  מאוד פשוט מתק…  בעבורי גאולה כהן היא סמל ותזכורת שמדינת ישראל לא הוגשה לנו על מגש של כסף אלא רק אחרי מאבק נגד המשעבד הבריטי ולאחרי…  netanyahu שינוי מגמה במחירי הדירות לאחר עשור של עליות חדות   השר כחלון תודה על העבודה המשותפת  ישיבת עבודה עם צוות המחקר של הOECD שהגיעו לישראל לפגישות לקראת סיום הדוח השנתי על כלכלת ישראל  לשימור צמיחה גב…   ירידה ביוקר המחיה בישראל  חדשות טובות מנתוני הלמס שמראים שההכנסה הממוצעת למשפחה עלתה ב43 לעומת ההוצאה שעלתה ב…   כל בן אדם רוצה לקום בבוקר ללכת לעבודה ולפרנס את משפחתו בכבוד  חתמתי הבוקר על הגדלת המכסות לייבוא חמאה כדי להגדיל את כמות החמאה בשוק ולצמצם את המחסור הקיים בחנויות  בימינו אין ס…   בשורה לזוגות הצעירים  אישרנו במועצת מקרקעי ישראל את הארכת תוקף מחיר למשתכן עד לסוף 2020  תוכנית מחיר למשתכן שמה א…  כל הכבוד לכוחות הבטחון שביצעו הלילה פעולת חיסול חשובה ומדויקת ברצועת עזה  מי שיפגע בנו  אנו נפגע בו  סיימתי יש…  אורי ידידי תודה על העבודה המשותפת והדאגה הכנה לציבור לאורך כל שנותיך בכנסת ובממשלה למען עם ישראל ארץ ישראל ותורת…  מתוך דברים שאמרתי ביום העיון לאגף התקציבים שנערך היום בירושלים אסור לנו להגיע למצב שההישגים הכלכליים שעבדנו עליהם…  החלטות שקיבלנו היום בישיבת קבינט הדיור 1 18100 יחידות דיור בהתחדשות עירונית באור יהודה קרית גת נתיבות ורמלה 2…  התקשורת הישראלית והעיר חיפה איבדו היום את אחד האנשים היקרים אני איבדתי חבר קרוב ואהוב דני נישליס זל יהי זכרו ברוך  עוד בשורה טובה לכלכלת ישראל   כמה כסף אתם הרווחתם ממחיר למשתכן אפילו אנחנו הופתענו  stevenmnuchin1 Had a very productive meeting with Israeli Finance Minister KahlonMoshe We discussed our important bilateral economic… תודה סטיבן  בשנים האחרונות מנהלת ארהב מלחמת חורמה נגד הטרור העולמי  מלחמה כלכלית  זו מלחמה שקטה שמתנהלת בא…  בשורה אדירה הבוקר לכלכלת ישראל זינוק של 14 מקומות למקום ה35 מתוך 190 מדינות במדד Doing Business של הבנק העולמי…  IsraeliPMheb ראש הממשלה בנימין נתניהו קיבל אמש את ממצאי הדוח השנתי של הבנק העולמי המציג את דירוג עשיית העסקים Doing Business מידי… סיימנו כעת פגישה טובה עם נשיא שוויץ ושר האוצר אולריך מאורר בכנס השנתי של הבנק העולמי וקרן המטבע בוושינגטון החלטנו…  פגישה מצוינת עם שר האוצר הבלגי alexanderdecroo בנושאי סחר ושיתוף פעולה כלכלי בין המדינות במסגרת הכנס השנתי של הבנ…  מדינת ישראל איבדה היום את מאיר שמגר זל אחד מהאבות המייסדים של המשפט הישראלי ואדם שסיפור חייו שוזר בתוכו את סיפור…  יחד עם שר האוצר ההולנדי WBHoekstra סיכמנו על מפגש שנתי בין משרדי האוצר לטובת חיזוק הקשרים הכלכליים ושתפ בנושאי סי…  פגישת עבודה עם שרת האוצר הנורווגית SivJensenFrP במסגרת הכנס השנתי של הבנק העולמי וקרן המטבע בוושינגטון השרה ינס…  גמר חתימה טובה לכל עם ישראל  מדובר על פרויקט שבירו גליל ים בהרצליה  כששיר הופך למציאות  צילם וערך שי ציקוטאי זוכה מחיר למשתכן בהרצליה  שנה טובה לכל עם ישראל  שנה טובה לכלכלת ישראל   רשימת היישובים ירושלים ראשון לציון באר יעקב מגדל העמק אשקלון רמלה אילת מעלה אדומים נתיבות בית שאן נהריה קרית ים  גסר אזרקא דווח לי כעת שמהבוקר היו 420000 כניסות לאתר מחיר למשתכן  מספר שיא  ההרשמה להגרלה ללמעלה מ3000 דירות במחיר הוגן…  מתן הרישיון לבנק החדש הוא צעד חשוב לתחרות שמיישם את הרפורמה בבנקאות שהתחלנו לפני 4 שנים בועדת שטרום אני מצפה מבנק…  מנהיג תנועת הליכוד הוא ראש הממשלה בנימין נתניהו והוא המועמד הבלעדי מטעמה להמשיך ולכהן כראש ממשלה מי שהדרך החברתית חשובה לו צריך להצביע מחל  כל התוכניות שקידמנו נטו משפחה מחיר למשתכן העלאת שכר חיילים חסכון לכ…  הבחירות האלה צמודות מתמיד צאו להצביע מחל  הבחירה היום היא בין ממשלת ימיןמרכז בראשות הליכוד לממשלת שמאל בראשות גנץ ולפיד צאו להצביע מחל רק מחל גדול ימנע ממשלת שמאל ורק מחל גדול ישאיר את הימין בשלטון שידור חי   כדי להמשיך שמים מחל בקלפי  השמאל רוצה שאפרוש אבל אני פה כדי להישאר ולהביא הישגים לעם ישראל  עכשיו בליכוד יש לי פי 10 יותר כוח לעבוד בשבילכם…  סיימתי כעת פגישת עבודה מצוינת עם סגנית מזכיר האוצר האמריקאי סיגל מנדלקר בתל אביב שמחתי לשמוע ממנה שבניגוד לפרסו…  קחו לכם רגע כדי להכיר את שמורות הטבע החדשות והיפות של ישראל    מפגש עם פעילים מרכזיים בחדרה לאחר סיור בעיר יחד עם ראש העיר צבי גנדלמן וממ וסגן ראש העיר ניר בן חיים לקראת השבוע…  ישיבת פסגה בין ארהב לאיראן מיותרת כל עוד איראן ממשיכה לקדם את תוכנית הגרעין ולהפעיל זרועות טרור במזרח התיכון ובעול…  בשורה כלכליתמדינית  מדינת ישראל קרובה להצטרפות לאחד הבנקים העולמיים הגדולים והחשובים  לאחר שנים של התנגדות מצד מ…  זכיתי להכיר ולעבוד בשיתוף פעולה עם jdgreenblatt45 יהודי חם ואוהב ישראל שעשה לילות כימים כשליח ארהב לקידום פתרו…  אנחנו מציינים השבוע תשע שנים להצטרפותה של ישראל לOECD הערב נפגשתי בפריז עם מזכיר הארגון AGurria לפגישת עבודה מצ…  סיימתי כעת פגישה בפריז עם ידידי שר האוצר הצרפתי BrunoLeMaire בה דנו על שיתופי פעולה כלכליים השקעות חדשנות ונושאי…  Cher BrunoLeMaire merci de votre invitation je suis persuadé que notre rencontre sera à l’image de l’amitié qui…  ב179 כולנו חוזרים הביתה מצביעים מחל ⁦⁩  עד שנכנסתי לתפקיד שר אוצר תקציב סל התרופות תוקצב בחסר והחולים שילמו את המחיר  בכהונתי הגדלנו את תקציב סל התרופות…  בהצלחה לכל תלמידי ותלמידות ישראל וזכרו תמיד האמינו בעצמכם וכוונו הכי גבוה שרק אפשר   בשורה מצוינת להורים למורים וגם לתלמידים  שבת שלום   מעמדה הבינלאומי של כלכלת ישראל בשיא  הדירוג הגבוה של כלכלת ישראל על ידי חברות דירוג האשראי הבינלאומיות מוכיח שו…  נטו אלוף עולם   netanyahu החלטתי עם שר האוצר כחלון ושר הפנים דרעי להעניק מענק סיוע מיוחד לבעלי עסקים בתחום המסעדנות בשדרות וביישובי עוטף עזה זאת כדי… ltltlt שיחות עם יגאל תמיד היו מרתקות עם המון ידע ותבונה וכך היה גם בפגישתנו האחרונה לפני חודשיים בלשכתי בתל אביב נת…  יגאל כהןאורגד זל היה איש ציבור מהמעלה הראשונה ששירת את עמו לכל אורך חייו מראשית דרכו המקצועית במשרד האוצר ברשות…  ברכות ותודה לראש העיר elidukorski על השכונה החדשה ושיתוף הפעולה לאורך כל הדרך מול מאות משפחות צעירות ואפס נציגי תקשורת אכלסנו את שכונת נאות אפק של מחיר למשתכן בקרית ביאליק מרגש להגשים את חלום…  elidukorski צלילי מיתרים מכוונים להצלחה במעמד שר האוצר משה כחלון מנהלת בית הספר ״מיתרים״ טלי אינדיבו נציגי משרד החינוך והסתדרות המו… כלכלת ישראל ממשיכה לטפס ולתפוס מקום של כבוד בכלכלות העולם גאווה גדולה    ידענו שהפרשן הכלכלי הותיק של YediotAhronot סבר פלוצקר יודע לבקר אבל מסתבר שהוא גם יודע לפרגן תודה סבר  אין אכזרי מפיגוע של בני עוולה שרוצחים נערה צעירה שכל חייה לפניה רק מפני שהיא יהודיה אנחנו סומכים על כוחות הביטחו…  We have concluded cooperation in promoting Israeli companies and technologies in the field of cyber protection Thi…  Great work meeting with the President of the InterAmerican Development Bank Luis Moreno The bank invests 135 bi…  פגישת עבודה מצוינת עם נשיא הבנק הביןאמריקני לפיתוח לואיס מורנו הבנק משקיע 135 מיליארד בשנה בפיתוח תשתיות ממקסיק…  חזרתי הביתה  טוב שההסתדרות תישאר בהסתדרות ושכלכלת ישראל תמשיך להיות מנוהלת בדרך של כלכלה חופשית עם רגישות חברתית  כל המתאבל על ירושלים  זוכה ורואה בשמחתה תענית דף ל ע”ב gtgt דווקא היום כשאנו מתאבלים על חורבן המקדש ואובדן חירותנו חשוב גם לזכור ולהעריך את הזכות הגדולה שיש לנו לחיות במד…  כוחות הבטחון שלנו מזכירים לנו היום שוב עד כמה חירותנו בארץ ישראל איננה מובנת מאליה היום ערב תשעה באב כוחות הבטח…  קרדיט צילום יהושע יוסף  שבת שלום  הלב כואב על הירצחו של חייל צעיר לומד תורה  בידי בני עוולה כוחות הביטחון ישימו ידם על המרצחים הנתעבים והם ישלמו את המחיר  תחזיות הצמיחה בעולם על פי קרן המטבע הבינלאומית ל2019 • האיחוד האירופי  13 • בריטניה  13 • ארהב  26…  gtgtgtgt •60 מיליון שח לשיפור התחבורה כולל טיסות לתושבי אילת שאטלים וכביש עוקף אילת  •100 מיליון שח לפיתוח תעשיות מן…  עולים על הטיסה חזרה לחיפה משדה תעופה היפה בארץ  ירדנו לאילת כדי להשיק תוכנית לחיזוק העיר בגובה 530 מיליון שח בחלו…  בשורות מצוינות פורסמו השבת על מצבה האמיתי של כלכלת ישראל מסוכנות הדירוג הבינלאומית SampP ממשיכים להוביל את כלכלת ישר…  נהננו מכל רגע אלופים אמיתיים גאים בכם   הי שלי זה משה  לאורך השנים היית חברה ושותפה לחלק מהדרך פעלת תמיד מתוך ערכיות יושרה ענייניות ודאגה לחלש דוגמא…   נמשיך לחזק את כלכלת ישראל   יותר מדי שנים דיברו על רפורמה בבנקאות רק דיברו  מסקנות מארבעה ימי עבודה בארהב  1 בעולם מעריכים את כלכלת ישראל רוצים להשקיע בארץ ונותנים לנו הרבה כבוד 2 אנ…  הסיפור של הבחירות הללו הוא ניצחון הימין ובשביל זה כולנו התחברה לליכוד לי אין שום התלבטות פייק מוחלט  Riklin10 ריקלין הסיפור של הבחירות הללו הוא ניצחון הימין ובשביל זה כולנו התחברה לליכוד לי אין שום התלבטות פייק מוחלט  בשורה חדשה מניו יורק  הבעת אמון יוצאת דופן של הבורסה החזקה בעולם בכלכלת ישראל  nyse Thank you נמשיך לחזק את כ…  הבשורה המשך עליה בהוצאות האזרחיות על חשבון הוצאות הבטחון ותשלומי הריבית  כך עולה מהדוח הכספי של המדינה לשנת 2018…  דודי היקר ברכות על המינוי לשר התקשורת אם צריך עצה משר תקשורת לשעבר תמיד זמין בסלולר dudiamsalem ברכות לתאל עופר וינטר על מינויו למפקד אוגדת עוצבת האש מעבודה משותפת בשנים האחרונות אומר שמדובר במינוי ראוי ונכון בהצלחה gtgtאנחנו משקיעים בכל שנה 270 מיליון שח כדי לתת חזרה להורים למשפחות צעירות כפי שאנחנו עושים בחסכון לכל ילד סבסוד ה…  בוקר טוב ובהצלחה ללמעלה מ325000 ילדי והורי ישראל שמתחילים הבוקר את בית הספר של החופש הגדול  כשהמדינה הרחיבה את…  אמלק העולם מאמין בכלכלת ישראל     הבחירות הקרובות מיותרות יקרות ומזיקות למשק כל יוזמה שתביא לביטולן מבורכת  תוספת חשובה וצודקת לניצולי שואה Важная информация для переживших Холокост   אין מילים לתאר את החלחלה והכאב מסיפור אונס הילדה בת ה7 מערכות המשפט צריכות למצות עם האנס וסייעיו את מלוא חומרת הד…  למי שהתגעגע עונה על הכל אצל אופירה וברקו הערב ערוץ 12  שבת שלום  zviashkenazi netanyahu צודקמשה בשורה משמחת להורים סבסוד הצהרונים ימשיך בשנה הבאה ובשנים הבאות  נמשיך לדאוג לילדי ישראל netanyahu  פגישת עבודה מוצלחת עם שגריר יפן בישראל קואיצי אייבושי בנושאים כלכליים ואסטרטגיים יפן היא מהכלכלות המובילות בעולם…   כלכלת ישראל ממשיכה להיות חזקה   האתר הכלכלי העולמי המוביל בלומברג business קובע שכלכלת ישראל איתנה מתמיד  מא…  ההספדים על נחמה ריבלין זל נגעו במדינה שלמה ולימדו אותנו על האדם המיוחד שהיתה מחבק יחד עם כל אזרחי ישראל את ידידי…  משתתף בצערו של הנשיא ruvirivlin עם לכתה של אשתו היקרה נחמה יהי זכרה ברוך מברך את מתניהו אנגלמן על בחירתו למבקר המדינה  בהצלחה בתפקיד KahlonKulanu כולנו תצטרף רק לקואליציה שיש לה רוב  של לפחות 61 חכים KahlonKulanu לא נהיה בקואליציה בלי תיק האוצר הודעת שר האוצר לאור האפשרות להקדמת הבחירות  רפורמה חדשה של משרד האוצר בביטוחי הרכב תחסוך לכם במחירי הביטוח  בניית מסלולי low cost  תיקון תאונות קלות ללא ריש…  העבודה הקשה משתלמת גאים בשקל שלנו   גיא גולן זל הוא בנם הבכור של יורם ובת דודי תיקי גיא התגייס לשייטת 13 ונהרג יחד עם אחד עשר מחבריו ליחידה בספט 1…  כולנו מרכינים ראש הערב לזכר 23741 חללי מערכות ישראל ו3150 אזרחים שנרצחו בפעולות איבה  בזכותם אנחנו חיים כאן  י…  יהי זכר קורבנות השואה ברוך ונצור בליבנו תמיד  אל תשימו לב לכותרות המוזמנות  כולנו תמשיך לכהן ולשרת את הציבור כמפלגה עצמאית  הגענו להיות שותפים לא שכירים  מזועזעים וכאובים מהמתקפה האכזרית על הקהילה היהודית בסן דייגו שוב אנו עדים לאלימות אנטישמית חמורה ומסוכנת   תנחומי…  עוד הישג לכלכלת ישראל והבעת אמון בינלאומית בכלכלה שלנו  ההודעה החשובה הזו מתווספת לדירוגי האשראי הגבוהים מטעם סוכנ…  KahlonKulanu הנשיא ריבלין השר כחלון הוא תלמיד נאמן של מנחם בגין  סיעת כולנו המליצה בפני נשיא המדינה ראובן ריבלין להטיל על רהמ בנימ… צפינו יחד עם כל עם ישראל והתרגשנו  Beresheet השיגה את מטרתה עוד הרבה לפני שהתקרבה לירח יעידו על כך מאות אלפי ילד…  תודה לך יוסי בניון על 22 שנה של הנאה לכל אוהד כדורגל וגאווה לכל ישראלי  אתה סיפור הצלחה מעורר השראה בדרך שעשית ממ…  ההכרעה האמיתית של השעות האחרונות gtgt  תזכורת חשובה מאוד רגע לפני סגירת הקלפיות gtgtgt  אל תקנו את הלוקשים של אף אחד מצב החירום היחיד הוא מצב החירום החברתי  צאו להצביע  בשביל המשפחות שלכם gtgtgt  HadasRibak מתפלא עלייך הדס ספינג ובסיסה הרצליאנים תקשיבו טוב gtgt  לעולם לא אשכח מאיפה באתי  זוג צעיר בקלפי בעתלית ״בזכותך הגשמנו חלום בזכותך יש לנו בית תמשיך בשבילנו ובשביל כל הדור הצעיר לעשות את כל הטו…  KahlonKulanu אנחנו כבר בחרנו ואתם  פותחים את היום ברגל ימין שפוי  KahlonMoshe רק כחלון יעצור את פייגלין רק כולנו חזקה תשמור על כלכלה חזקה עם חמלה כולנו בוחרים כחלון כ ועוד כ ועוד כ  roeecohen19 פייגלין בעלי העסקים העצמאים לא יקנו את הבלוף שלך העסקים העצמאים יודעים מי הולך לעבוד בשבילם בארבע השנים הבאות למי באמת… רק כחלון יעצור את פייגלין רק כולנו חזקה תשמור על כלכלה חזקה עם חמלה כולנו בוחרים כחלון כ ועוד כ ועוד כ  אחריות חברתית או אכזריות חברתית הבחירה בידיים שלכם  אקטע את היד לפני שאצביע למדיניות אנטי חברתית מסוכנת  נתניהו מפרגן להישגים של כחלון ואפילו לא שם לב  תודה ל1500 תומכים ופעילים שהרעידו הערב את גני התערוכה  ביום שלישי נרעיד יחד איתכם את הקלפיות  אם חס וחלילה פייגלין יהיה שר אוצר כולנו לא תהיה בממשלה  כשאתה נכנס לממשלה יש לך התחייבות קואליציונית  דקה לפני ש…  הצטרפו אלי לנאום בכנס המרכזי של מפלגת כולנו בגני התערוכה gtgt   ilanacuriel קחו דקה ותראו את הילדה הכי מקסימה שזכתה לשאת דברים בכנס בחירות של כולנו שנערך אמש בבאר שבע ריתאל אלקירנאווי 11 מרהט שעל… אנחנו עלולים להתעורר בעשירי לחודש לממשלה ללא חמלה במקום שתהיה חמלה ואחריות חברתית  תהיה פה אכזריות חברתית   פייג…        החזרנו את הכסף לעם   בארבע השנים האחרונות החזרנו מאות מיליוני שקלים לאזרחי ישראל שינינו את סדרי העדיפויות נלחמנו…  ערב טוב חדרה  ערב טוב נתניה  ושבו בנים לגבולם    מברך את צהל ומערכת הביטחון ואת כל קהילת המודיעין על החזרת גופתו של חלל צהל זכריה באומל  מנע…  עשינו לא רק את מה שנכון וצודק אלא החזרנו חוב חברתי משמעותי לתושבים הללו  זכינו לפתור בעיה שהיתה צלקת על פניה של החברה הישראלית זו הסיבה שמפלגת כולנו תחזיק בתיק האוצר גם בממשלה הבאה אם אנחנו לא נהיה שם התיקונים האלה לא יהיו וכל מה שעשינו בסכנ…  כל שכונה כזו  כפר שלם גבעת עמל הארגזים ליפתא והקראוונים בבת ים  זה סיפור ציוני לתפארת שהפכו לסיפור של פושעים…  נכנסנו לפוליטיקה לפני ארבע שנים כדי לעשות תיקון בחברה הישראלית על מנת לעשות צדק ירשנו בעיות שהצטברו במשך 70 שנה פ…  הצטרפו לשידור החי gtgt עושים צדק בשכונות שהופקרו במשך עשרות שנים     הציבור חייב להבין מנדט נוסף לליכוד או לכחול לבן לא ישנה דבר מנדט נוסף לכולנו ישפיע על החיים של מיליוני ישראלים ז…  רפואה שלמה לנחמה ריבלין רעיית הנשיא כולנו מתפללים להחלמתך ערב טוב בת ים  roeecohen19 יש לנו את השר נפתלי בנט שהוא רמבו שר הביטחון לשעבר אביגדור ליברמן הוא מצ׳יסטה והרמטכ״ל לשעבר בני גנץ הוא ג׳יימס בונד וא… התוכנית תמשיך את מגמת צמצום הריכוזיות ועידוד התחרות נרחיב את היקף ההשתתפות של העסקים הקטנים במכרזי הממשלה נפחית ח…  המהפכה הבאה שאנו מציגים היא פשוט עושים עסקים תוכנית שבאה לקדם את העסקים הקטנים העצמאים הפרילאנסרים המשך של תו…  החלטות של הבנקים מסמנות את המטרות מראש מי שהחליטו לספק לו אשראי  שרד ומי שהחליטו שרירותית לא לתת לו אשראי  חוסל…  האתגר האמיתי של נגיד בנק ישראל החדש הוא לעודד תחרות ולא לחסום אותה היה לי עסק זעיר הייתי עצמאי מגיל 14 ואני מכיר…  האופנה החדשה זה הבוטים התחילו עם חיבורים  איך מחלקים את ראשות הממשלה עברו לפלאפונים אחר כך לחפרפרות היום זה בו…  חתמתי אתמול על קיזוז של חצי מיליארד ₪ לשנה מהרשות הפלסטינית כסף שמיועד למשפחות המחבלים זה מהלך נכון מהלך צודק מה…  הצטרפו אלי בשידור חי ממסיבת העיתונאים  בה אחשוף את המשך מהפיכת העסקים הקטנים והעצמאיים  ערב טוב קרית מלאכי  ״אני לא מקלל לא משמיץ לא מגדף וגם לא מיליונר אין לי כוונה לשחק משחק של השמצות ועלבנות״  האזינו לדברי שר האוצר מ…  שבוע טוב פתח תקווה  לירן טוב לדעת שאתה מאחורינו  מילים מרגשות של הרבנית עדינה בר שלום בתו של הרב עובדיה יוסף שהודיעה אתמול על הצטרפותה לכולנו  יחד ננצח למען עם י…  בגין לא פחד ללכת נגד העדר למען האנשים הפשוטים הצעירים המשפחות הילדים עד שניצח למענם בכל פעם שאני עומד לפני קר…  כשאולגה ובאר שבע נפגשים בתל אביב  אין כמו שוק התקווה ביום חמישי  עם ישראל על כל צבעיו וגווניו יוצא לעשות את הקניות לשבת לילדים למשפחה אתם הכוח…  תודה עדינה את השראה לכל ישראלי  מנהיגות פורצת דרך מאחדת למען העם למען כולנו  שמחים שאת איתנו   בהצלחה לכל משתתפי ההגרלה נתנו תקווה לעשרות אלפי משפחות צעירות תנו לנו את הכוח להמשיך במהפכה </t>
-  </si>
-  <si>
-    <t>מתנצל אף אני על הניסוחים שאליהם גלש הוויכוח שנה טובה חיים וגמר חתימה טובה  בשולי העיתונות הימנית צמחו במהלך השנים באין מפריע גידולי פרא תקשורתיים אנשים שאין להם עניין בעובדות ושאתיקה וע…  avishaigrinzaig השבוע הפך קלמן ליבסקינד שתחקיריו על מערכת אכיפת החוק נישאו על גלי האהדה של הליכוד לשופרו של מנדלבליט והוא לא היחיד •… liranmori asaflib akivanovick זה עצוב avishaigrinzaig הנל ודומיו אכלו לי את הראש על שכתבתי את העובדה שלא מדובר בבן של ליאת בן ארי   טוב שהוא מתנצל על השיימינג המטורף שעבר… yosefack אבא של עמיתה מהעבודה נפטר מקורונה   בן 70 ללא מחלות רקע רזה עושה כושר  אוכל בריא   נדבק לפני חודשיים היום נפטר   מתי אנ… kannnews חכ OferShelah מה שצריך הוא למנוע התקהלויות בעיקר במקומות סגורים שהן עיקר מקום ההדבקה צריך לעצור דברים שנוגעים לתחבורה… kannnews ישראל כהן חושב שאם ממשלת ישראל מאפשרת הפגנות במתווה הנוכחי אז עליה להשאיר את בתי הכנסת פתוחים ErelSegal וKalmanLiebskind… אני איתך  kannnews אמשיך ללכת להפגנות ההתנהגות שלי היא מאה אחוז ההדבקה בקורונה היא בחללים סגורים וצפופים יור מרצ NitzanHorowitz הגיע ל… kannnews ירי בנגמש akivanovick וKalmanLiebskind משוכנעים שנתניהו צריך להגיע להסכמה על פרישה תמורת סגירת תיקיו הפליליים ErelSeg… nevokatz1 מן השמים תנוחמו אינו יכול עוד  דווקא נוכח הישגיו המדיניים בולט כשלונו של נתניהו בזירה הפנימית נתניהו לא יכול עוד לאחד את העם סבי…  ilypes תודה רבה לך שנה טובה ושמחה שתהיה לך מצטרף לחגי אם שהייה ממושכת בחלל סגור מגבירה את הסכנה להדבקות אז אין שום התלבטות מתפללים באוויר הפתוח  arielplaksin1 זה כולל ל חבר שואל bugiamit arielu671 מציע לך לקרוא את הטור ברוכים הבאים למדינת שושקה  המצב שבו התפילה לא חשובה והפרנסה לא חשובה והבריאות לא חשובה והחיים אינם חשובים וכל…  kannnews תאל במיל גיורא ענבר על הצעדה לבלפור שכונתה מגש הכסף הטרמינולוגיה נועדה לתת מכנה משותף עבור אנשים שתורמים מחייהם לטובת… MeirRubin התראיינתי הבוקר אצל asaflib ושותפו KalmanLiebskind הנפלאים בReshetBet  על הידוע והלא ידוע לגבי נזקי הנגיף חשיבות הער… rothmar RivkiDvash שמחה אני חוזר שוב על השאלה האם זה נראה לך טוב שאין איש שיודע על מה חותמים מחר ומה משלמת מדי…  rothmar RivkiDvash לא הבנתי שמחה זה נראה לך טוב שראש הממשלה חותם מחרתיים על הסכם שאיש כולל שרי ממשלתו לא יודע מה יש בו asaflib ראש שירותי בריאות הציבור דר שרון אלרעי פרייס ההפגנות לא יוחרגו במהלך הסגר אסור להפגין מחוץ לגבולות ה500 מטר קלמןליברמן שרי הממשלה לא יודעים מה כתוב בהסכמים עם איחוד האמירויות ועם בחריין  simonyoav למה בלי מסיכות יואב במאי 2017 בעוד השרה שקד נלחמת נגד מינוי השופטת חיות לנשיאת ביהמש העליון פנתה הרשות השופטת לויקיפדיה בבקשה להחל…  hugi26 דוד יואל נפטר הוא לא היה מאוד מבוגר ולא ממש חולה סתם הדברים הרגילים קצת סוכר קצת לחץ דם ואז קורונה הוא יכל לחיות עוד הרבה… yonatnwer אמא של גיסתי נפטרה הערב מקורונה לאחר חודש וקצת של אישפוז קשה אישה מלאת חיים טובת לב ואמא למופת ללא מחלות רקע זה תפס אותה… חוזר מבית העלמין בקיבוץ נחשון מלוויה של יזהר חבר טוב איש משפחה לוחם שנפצע שלוש פעמים במהלך שירותו הצבאי ונכנע…  sarabeck75 שלום חברים  אנחנו משיקים היום את האתר חכימא  סיפורים ורוח מחכמי המזרח ההזדמנות של כולנו להפוך את הסיפור שלנו לשלם יותר… מקור ההדבקה הכוונה לחולה ממנו נדבקו נתוני משרד הבריאות כפי שפרסמנו ב קלמןוסגל  מתוך 111559 החקירות האפידמיולוגיות שנערכו עד כה ב44 49134 מקרים לא זוהה מקור ההדבקה tecinv קראנו את התגובה של אלימלך זורקין תגיד ציפורי מה הסיפור שלך עם כל ציוץ של גרינצייג מה זה כל הכינויים הילדותיים האלה  למה אתה חושב שהוא צריך לקבל…  ההחלטה של חיות ומלצר למחוק את מצפה כרמים איננה אירוע משפטי אלא אירוע פוליטי  כך התגלגלה הפסיקה שתביא להרס יישוב…  kannnews יש הדתה גדולה בספרי הלימוד עמותות דת נכנסות לבתי הספר  האם יש צורך להקים זרם חינוך חילוני כפי שקיים כבר דתי ומה יהיו המ… kannnews שר הביטחון גנץ לקלמןליברמן היכולת שלי לשרת את המדינה קשורה בשותפות ובכנות פוליטית מספקת של נתניהו היינו יריבים פוליטים… kannnews רהמ החליפי גנץ לקלמןליברמן על הרוטציה אני רואה הרבה מאוד טריקים אבל אני לא נכנס לזה ההסכם שעשינו הוא נכון לשעה הזו וצ… kannnews רהמ החליפי גנץ לקלמןליברמן או שמטפלים בממלכה או שמטפלים במלוכה  אני באתי לטפל בממלכה  האזינו KalmanLiebskind asaf… איך צריך להתייחס להבנות עם החמאס ידידי כאח לי אראל סגל בעד אני נגד התווכחנו קצת  bainhorn בריאות דורון kannnews חכ יאיר גולן על התקרית בחברון על פניו לא טוב אני הייתי חייל אגרסיבי ואצלי זה לא היה נגמר ככה  צפו בריאיון KalmanLiebs… kannnews פרופ גבי ברבש אני מודאג שאול מרידור פוליטיקה קורונה הכול ביחד הכול משיק לאותו מקום פיטורי מרידור הם עוד ביטוי של ני… kannnews מנכל משרד הבריאות לשעבר פרופ גבי ברבש לקלמןליברמן אין מדינה נורמלית בעולם שהייתה מעזה להפעיל את מערכת החינוך בקצב הד… kannnews ברבש שסירב לקבל את תפקיד ממונה הקורונה בטמפרמנט שלי הייתי מתפטר כבר שלוש פעמים מהתפקיד פעם אחת על כניסת 17 אלף התלמידים… kannnews ראש עיריית שדרות אלון דוידי בקלמןליברמן על טרור הבלונים אמרתי לרהמ אני רואה כמה אתם דואגים למשפחות שלכם הגיע הזמן… חכ ניר ברקת ל קלמןליברמן שר האוצר ישראל כץ מסכן את שלטון הליכוד asaflib ניר ברקת על ישראל כץ זה גדול עליו הוא צריך להתפטר קלמןליברמן מערכת אכיפת החוק מציגה חוק אחד ליהודים חוק אחר לערבים  הטור הזה נכתב לפני שניתן פסד מצפה כרמים אבל כדאי לקרו…  keslasy חברים יקרים הוכחתם לא פעם פה את ההירתמות שלכם ושלכן לעזרה הפעם המכה בבטן כל כך עמוקה וכואבת  אני מפרסם עבור משפחת אוחיון שש… Shiritc בהצלחה רבה שירית avrimusic yaelshevach קפה ברותם yaelshevach הופה איזו מהירות מי מזהה  hadsl Ransarig תודה הדס האם הגיע הזמן לשנות את חוק השבות היה לנו ויכוח מעניין בסוגיה עם חכ יואל רזבוזוב  GadiAleks הפוך גדי הפוך צייצתי ראיון YairOrbach TogetherKulan KalmanLiebskind עשיתם פדיחה לא מאוחר למחוק KerenCK TogetherKulan KalmanLiebskind הגבתן על אוטומט ועשיתן כאן פאדיחה למה לא להאזין לראיון לפני שמצייצים Eyalo365 misscorina2 KalmanLiebskind מציע להאזין לראיון  קלמן תישאל בקשיחות את העוד  בהחלט עבודה עיתונאית סבירה או למעלה מזה לא… bainhorn כתבתי הרבה על האירוע באילת אפשר לבדוק אבל הנזק שכל מיני ארגונים עושים למאבק הוא לא נורמלי הקשבתי לראיון של KalmanLiebskin… חבורת ליצניות יקרה תכניות אקטואליה מראיינות אנשים מסוגים שונים ביניהם גם פרקליטים של אנשים שלפי החשד עשו מעשים אי…  עוד עמית ויצמן המייצג שניים מהנערים החשודים באונס הם בכלל לא שכבו איתה יש שיגידו שהיא הזמינה את זה אחרי המקרה…  kannnews כחול לבן בלי מסכות  השר חילי טרופר לקלמןליברמן על חשיפת כאן חדשות יש משם כמה תמונות מטרידות  המציאות הזאת לא הייתה צרי… haggaisegal במילים אחרות מחזיק תיק הדמוקרטיה בממשלה מבקש מצה״ל לפעול נגד עיתונאי שהכעיס אותו סנצ אסי אהרוני דוברות המשטרה ל קלמןליברמן באירוע ביום חמישי כרמי גילון נפצע מהאזיקים שהוא אזק את עצמו המשטרה…  drorrefael פשוט מאד מדובר בשני אנשים בוגרים הגבר והאשה  ואין שום סיבה שאתה או אני נתערב בהחלטות שלהם החופש לבחורפ ונ צעירים דתיים נמשכו בעבר לגברים וחשו רע עם עצמם אחרי טיפול פסיכולוגי ממושך הם נישאו לנשים וה…  yaakove17 השוואה מטופשת למדי בין 200 איש שמפוזרים באוויר הפתוח על שטח גדול לבין 200 אנשים שיושבים אחד על השני בחלל סגור קניון טבריה הערב עיר ואם במדינה אדומה מקורונה 200 אנשים אחד על השני בין הגלידה לפיצה אפס הקפדה אפס אכיפה שנ…  ittaishick ברור  נחל הקיבוצים האסי של ישראל השניה  ש אם הייתי אומר לך ב2005 שאחרי ההתנתקות יעופו טילים עד תא והחמאס ינסה לחפור  מנהרות לקיבוצי האזור היית אומר ל…  איתמר פליישמן חשף בעבר באומץ רב את הקשיים שעבר בשלבים שונים בחייו עכשיו בעקבות מכתב התאבדות שפורסם ברשת הוא פו…  kannnews האזינו לריאיון המלא עם ראש אגף מודיעין לשעבר במוסד חיים תומר בקלמןליברמן  kannnews השר אלי כהן לקלמןליברמן על המשבר בממשלה בעת הנוכחית לא צריך ללכת לבחירות אתמול עשינו צעד נוסף לדחייה מועד הגשת התקציב ע… kannnews השר לענייני מודיעין אלי כהן לקלמןליברמן על האפשרות שישראל תאפשר מכירת מטוסי F35 לאמירויות לא מכיר את הסעיף הזה מדינת ישר… NoamNoamKatz אנחנו מחפשים משלבת לבן שלנו שעולה לכיתה א  עומר הוא ילד מקסים עם שמחת חיים ענקית ויכולות קוגניטיביות גבוהות הוא צריך… לשמוע שקבוצות ישראלים יוצאים לרחובותברלין כדי לשפוך חמתם על הממשלה הרקובה זהו דבר מכאיב ומעורר בוזאיזו זכ…  בקשנו מחכ סמי אבו שחאדה להסביר למה הוא וחבריו למפלגה מעניקים תעודות הוקרה למחבלים שתכננו לרצוח יהודים  kannnews שר האוצר ישראל כץ לקלמןליברמן הריבונות הוקפאה לצערי עוד לפני היוזמה עם האמירויות הצגת ההסכם כקשור לזה נוחה יותר לכל המ… חשיפה באדיבות ישראל ביתנו לא צריך להיות ישראלי כדי להחזיק בדרכון כחול לבן   בניגוד לאזהרת המשטרה דרשה המפלגה…  השופט מודריק מציג קווים לדמותה של מערכת משפט שמאמינה שאפשר לטמטם את הציבור  בשבוע שעבר  בניסיון להגן על נשיאת בי…  YoavBlum ErelSegal YinonMagal סגלים יש הרבה ליבסקינד יש רק אחד HaimOmri בינתיים באלמנאר של חזבאללה עסקו היום בדברים החשובים באמת וטרחו לטשטש את תליון מגן הדוד של גל לוסקי מנכלית ומייסדת ה IFA… amirayelet זה די מעניין שהחשבון הרשמי של ׳ידיעות אחרונות׳ מרטווט ציוץ כמו זה של רמי ורד  rothmar על פריים רקע של קברים מאחורי תשדיר בחירות שפגע ברגשות אנשים דרשו את ראשו של ivri99 על צלחת והרימו מהומת אלוהים  על קטע אנטי… אראל ואני הזמנו את השופט עודד מודריק לדיון על ניגודי העניינים של הנשיאה אסתר חיות  מוזמנים לצפות  לגדעון לוי יש הרבה ביקורת על המחאה נגד נתניהו  ניסינו להבין מה מוכנה מנכלית המוקד להגנת הפרט לעשות כדי למנוע רצח ישראלים ואם תהיה מוכנה לענות מחבל שהוא פצצה מת…  asaflib חכ ברקת אין צורך להעביר תקציב אלא רק כשנראה את הסוף של הקורונה קלמןליברמן kannnews חכ ניר ברקת לKalmanLiebskind וasaflib על קיום הרוטציה אני לא חושב שגנץ מתאים להיות רהמ הסכמים צריך לכבד אך יותר ח… asaflib  האם בני גנץ יהיה ראש הממשלה חכ ניר ברקת חשוב יותר מלעמוד בהסכם זו השאלה מי מתאים להנהיג את המדינה ובני גנץ לא מתאים קל… orenhelman הי אני ליחי 23 עם מוגבלות מונשם מעכו  מחפש עבודה מהבית בזכות הקבה שנתן לי ידע במחשבים אני יודע לכתוב מהר ולכתוב ב p… כך רוקן היועץ המשפטי מתוכן חוק שמאפשר שלילת תושבות ממחבלים  לחכים שחוקקו את החוק היו שתי דרישות שליועץ לא תהיה…  ivri99 רזי נאמן לשיטה שלהם לעולם לא להודות לעולם לא להתנצל הדרך היחידה להילחם בשקרנים האלה היא לחזור שוב ושוב על האמת רינה מצליח ו… dasides אני מבין שלא היה לך פנאי לצפות בקטע לפני שהגבת ונניח שאסון כזה היה מתרחש ברובע הדאחייה בביירות בבניין שבו מתגוררים אנשי חזבאללה האם רון חולדאי היה מאיר אז את בנ…  זו הייתה עלילת דם של עיתונות שקרנית אז וממשיכה להיות עלילת דם של עיתונאים שקרנים היום ומסתבר שלא עשיתם מאז שום דרך  לֹא הָיוּ יָמִים טוֹבִים לְיִשְׂרָאֵל כַּחֲמִשָּׁה עָשָׂר בְּאָב וּכְיוֹם הַכִּפּוּרִיםלכבוד חג האהבה קבלנו מ…  nadavbas kannnews ErelSegal נשמה חג הקרבן הוא יום שבתון אבל ערב חג הקרבן איננו יום שבתון לשירותך תמיד שני צדדים שמייצגים באותו תיק פנו לדיין מרט דורפמן וביקשו לדחות דיון צד אחד הסביר שמדובר בתשעה באב הצד השני הסב…  titoreru את מחבקת אנשים שרצחו יהודים ואומרת שאוחנה ורגב הם אלימים   י KalmanLiebskind  ו ErelSegal  מראיינים עיתונאית יהודייה מ… rafiperlshtein קיבלתי לפני זמן קצר תשובה חיובית לקורונה אני יודע איפה נדבקתי נקלעתי לצערי למקום של אנשים חסרי אחריות עם אפס הקפדה על… ofirmaman רענן שקד היום בידיעות  צריך להיות מנותק כדי לראות במפגינים מופע בידור ולא להבין את מצוקתם   גם שקד ב2014 בחטיפת שלושת הי… סגל עצבני  בערוץ 20 חילקו תלושים של איקאה  100 מרצים למשפטים חתמו על עצומת תמיכה בשופטי בית המשפט העליון בין השאר מפני הרדיפה האישית נגדם ErelSegal ואני…  asaflib חכ אביגדור ליברמן נצביע נגד פסקת התגברות קלמןליברמן kannnews חכ ליברמן לקלמןליברמן אנחנו נצביע נגד פסקת ההתגברות זו הסחת דעת מהעיקר asaflib KalmanLiebskind asaflib אביגדור ליברמן אם הממשלה לא תבטל את ההגבלות על העסקים בסופשים כל חברי ישראל ביתנו יסתובבו בשבת הקרובה בין בתי עסק ויעודדו… asaflib סגן שר האוצר איציק כהן שס אין אפשרות להביא תקציב דושנתי רק חדשנתי קלמןליברמן asaflib השר יזהר שי כחול לבן יש לנו יכולת למנוע בחירות נוכל להקים קואליציה חלופית בראשות בני גנץ אנחנו מדברים עם כולם קלמןליברמן נדמה לי שלא באמת הבנת במי פיד ימין מזלזל  הקטע הזה כולו  מהדברים של עמית ועד לחלוקה הנפלאה של הדעות באולפן  יכול למלא סמסטר שלם בפקולטה לתקשורת  התקשורת מתאמצת להגביר את הלהבות לחמם את האווירה לטפח את הכאוס לא לתת למחאה נגד נתניהו לדעוךעיתונאים לא מדווחים…  akivanovick נראה לי שכבר ברור כמה אני רחוק מלהיות ביביסט אבל בחיים לא ראיתי הפגנות שמקודמות תקשורתית כל כך חזק אם זה לא אבדן עשתונות… aviyashklar וזה מה שיש לפרופ שלומי סגל ראש תוכנית פכם היוקרתית של העברית לומר על שרה נתניהו לצידו הדר לכלכלה יניי שפיצר גם הוא מ… assafgolan3948 BarakRavid ברק מעבר להכל ומעבר לכל ביקורת על ראש הממשלה אני נגד זלזול במחלות נפש אישתי חולה וזה הגיהינום בהתגלמותו ל… טינופת  IshayFridman קבלת פנים המונית בשפרעם לאסיר המשוחרר גמיל ספורי מר ספורי ישב בכלא על תכנונו לרצח מדענים ישראלים ולחטוף חיילים בכירי מ… NehemiaGA תשקיעו 5 דקות וצפו בבצלאל הכי רחוק מהתדמית שהודבקה לו הכי בצלאל שאני מכיר מהצד moshemem מעניין מה המומחה לשורשי ההסתה היה אומר אם היה מתגלה שנתניהו גם משלם ללה פמיליה משכורת kannnews חכ שלמה קרעי לקלמןליברמן חכ זוהר פוגע בסוף ברהמ – שנאלץ להתעסק בדברים קטנוניים יור קואליציה אמור לתת שקט לרהמ ולא… kannnews ניסיון ההדחה של יור הקואליציה  חכ שלמה קרעי לקלמןליברמן חכ זוהר זוכה לגיבוי מרהמ בגלל שהוא מטעה אותו הוא אומר שהכי… netaelbandel אפרופו הפגנות סיפור אישי  ב2005 הייתי תיכוניסט במגמת קולנוע ונסעתי לצלם את ההפגנות בדרום נגד ההתנתקות בהפגנה הראשונה ש… IshayFridman חטאו הנורא של אבישי בן חיים העיז להגיד מילה טובה על אנשי גוש קטיף קרא להם אנשים קסומים האניש אותם והמצייץ הנל שהיה… asaflib תאל אשר בן לולו לשעבר מפקד גזרת הר דב מחבלים שפוגעים בריבונות הישראלית  אין מצב שהם לא נפגעים  קלמןליברמן yedidyagrosman אהבה לא ניצחה  היום לפני כמעט 15 שנה יז באב גורשתי יחד עם משפחתי מיהשוב נצרים בגוש קטיף היישוב היה פורח בריכה… DilmoniYigal נווה דקלים בחורבנה צולם מגג בית הכנסת  חמש עשרה שנה לגירוש גוש קטיף וצפון השומרון  merkazkatif  לא תאמינו אבל ההפקה המשובחת של קלמןליברמן הצליחה לאתר הבוקר בדירת מסתור בטהרן את תמר רביניאן  asaflib השר יועז הנדל בגלל הקורונה הריבונות כרגע לא על הפרק קלמןליברמן elishanadav 20 שעות אחרי אירועי אתמול התאגיד מעלה פתאום קליפ אמפתי  כאילו חדשותי  בעד המחאה ונגד נתניהו תעמולה פוליטית במסווה של ד… דניאל הוא בחור צעיר עם מוגבלות קשה מאד  אבל לפני זה הוא לוחם עם לב גדול וכח רצון נדיר עכשיו הוא מגייס כסף כדי לרכ…  arisade94 קח עוד לייק merkazkatif הערב amitsegal מסביר לKalmanLiebskind את ההבדל בין התקשורת הימנית של היום לבין התקשורת שאיתרגה את ראש הממשלה ב2005 ו… חרף ניגוד העניינים אצטרף לפסיקתו של הנשיא עמית סגל ושל ראש ההרכב אבישי גרינצייג אחלה אחלה סדרה  kannnews השר לביטחון הפנים אמיר אוחנה לקלמןליברמן על מינוי המפכל אני עובד על זה קשה ועדיין אין לי החלטה יש כמה אפשרויות אני לא… על עליונים על ניגודי עניינים ועל מה שמותר להם ואסור לאחרים  מה פסק אהרון ברק בעניינה של שופטת שדנה בדיוק כמו אס…  noamfed ברור שבת שלום  haggaisegal 15 שנים להתנתקות עם 20 אחוזי סימפטיה תקשורתית להפגנות הענק דאז ביחס להפגנות הבינוניות כעת  גוש קטיף לא היה נעקר  moshemem מצד אחד מוסף מיוחד של ידיעות אחרונות שמוקדש כולו לציון 15 שנים לגירוש מגוש קטיף שזה מכובד ויפה מצד שני מסתבר שהתקשורת שהחל… לא הבנתי אז המחאה שלה היא בכלל נגד רצח של פלסטינים והכיבוש  NcWA8ccLM3SxfqI ספוילר זו עבירה פלילית אנשים מיוחדים  avrahambin שלום חגית עופרן הלילה החזירו פקחי קמט ארכיאולוגיה אגן טבילה ביזנטי יחיד במינו בעולם ככהנ שנגנב לפני כ20 שנה מתל תקוע… יעל דן הזמינה אותי לדבר על התחקירים שלי בעניין בית המשפט העליון ואז העירה לי שאולי אני כותב אותם מפוזיציה פוליטית…  yehuditsheilat כזה ראיון עוד לא שמעתי יעל דןמראיינת את קלמן ליבסקינד על החברות שלה עם הילה גרסטל ליבסקינד חיות חברה של גרסטל והיא… IdanYosef יעל דן מראיינת בגלי צהל את קלמן ליבסקינד על ניגודי העניינים של השופטים ושואלת אותו האם היה מפרסם את התחקיר אם לא היה עיתונ… BarashiKinneret אי אפשר לנהל את הראיון שאת שואלת שאלות ולא נותנת לי להגיב אלא רק מציפה את מה שאת רוצה ואז לא רוצה לעייף את המאזינים… avitandudi ואי ואי שומע את KalmanLiebskind אצל יעל דן בגלצ ובא לי למרוט את השערות מהראש הלבנות את השחורות אני משאיר אז מה מפריע ל… kannnews שרת התחבורה מירי רגב לKalmanLiebskind וasaflib על תוכנית המענקים אי אפשר לחלק את הכסף דיפרנציאלית הכסף לא יגיע אם תח… kannnews השף חיים כהן לKalmanLiebskind וasaflib על משבר המסעדנים הוצע לנו להשאיר את המסעדות פתוחות רק בחוץ כמו באירופה וארהב… asaflib עוד מיכה פטמן פרקליטו הפורש של נתניהו עלות המשפט עבור רהמ  3040 מיליון שקל קלמןליברמן asaflib מירי רגב אם כחול לבן ימשיכו להתעקש על תקציב דו שנתי  נלך לבחירות קלמןליברמן נשמע מעניין אני בא  תיקון קל לציוץ אני לא מבקש להתפלל בבתי כנסת שהם מקומות סגורים אני תוהה למה לאלפי מפגינים מותר להתקהל בחוץ ולכמה…  הדבר היחיד שמחבר בית כנסת ישיבה ומקווה זה שבכולם משתמשים אנשים חובשי כיפה באמת תודה לאנשי משרד הבריאות שלא הכניס…  asaflib השר יזהר שי כחול לבן אם הליכוד יבקשו להחליף את יפעת שאשא ביטון בראשות ועדת הקורונה  אני מניח שנעמוד מהצד ולא נתערב זה עני… asaflib השר יזהר שי כחול לבן אם נמשיך ללא מגבלות  נגיע ל200 חולים קשים ביום אחד 45 ימים אחכ  קריסה קלמןליברמן haggaisegal בכל שלושת  ערוצים כותרת כוזבת זהה ״מדינה במחאה״ כאילו מיליונים יצאו לרחובות amnonshomron 2 הפגנות עם מאות בירושלים ואלפיים בתל אביב מחזיקים עשרות דקות בשידור חי עם כתבים שמתלהבים יותר מהמפגינים יד רוחצת יד  השופטים העליונים במפגן שכבר מזמן לא ראיתם  על הנשיאה אסתר חיות שמכרה לנציב תלונות השופטים סיפורים…  iairLevy השתדלתי בקנאות להתעלם פה בפיד מהסיפור של הבלש שגוננתי עליו מפני ההמון כי זו חובה אנושית ומוסרית ולא עניין יחצני  אלא שהפוסט… saragusti אין לנו עוקבים כמו guylerer ולא כוח של ErelSegal  אבל אם אתם מעוניינים לתרום את המענק כן לזקן מפעילה קו חם למימוש זכויות… haggaisegal האם יהיה זה מופרך לאבחן במכתב הזה השוואה בין מבקרי ביהמש העליון לבין הנגיף לצד גל הקורונהאנו נאלצים להתמודד עם גל עכ… kannnews הציוץ והסערה  KalmanLiebskind אמרת אל תצייתו להנחיות  חכ רול אם הובנתי לא נכון אני מתנצל  asaflib זה לא עניין ש… asaflib חכ עידן רול אני קורא לציית להנחיות   הציוץ שלך אמר הציבור לא צריך לציית רול אם הבינו אותי לא נכון  אני מתנצל קלמןל… argamon30 ברוך הבא הגעת למקום הנכון kannnews מנכל הדסה פרופ זאב רוטשטיין בריאיון לקלמןליברמן ביצענו בין 500 לאלף בדיקות פרטיות ביום הכסף שקיבלנו עליהן איפשר לנו ל… יש מי שמבקשים לקבל את הזכות להחליט מי ידבר באופן חופשי ומי לא אסור לתת להם לנצח  נראה כאילו בכל בוקר ממשלת ישראל מתעוררת ומופתעת מחדש שגם היום יש קורונה  goldman1007 kannnews ErelSegal אם גם אתה רציני אתה מבין שמשם התחלנו kannnews מפקד מרחב ציון תנצ עופר שומר מגיב להאשמות של חכ פרוש צריך לגלות מנהיגות ולא ללבות אלימות ומחלוקות אני מצפה ממנהיגות ש… asaflib ראש אגף התקציבים שאול מרידור על מחאת העובדות הסוציאליות לא נכון לדבר כעת על תוספות שכר במגזר הציבורי קלמןליברמן kannnews לאחר שסמוטריץ ביקש להיות פרוייקטור קורונה במגזר החרדי  השר יועז הנדל הביע תמיכה במינוי בהקלטה שנחשפה בקלמןליברמן הוא י… kannnews נציב תלונות הציבור על שופטים כתב בהחלטה שהוגשה לו נגד שופט בית המשפט העליון מני מזוז יש לתת את הדעת לחשיבותו של נושא ניגוד… בטח עוד רגע ייכנסו השוטרים אל הילדה בת ה13 שעומדת שם באמצע וייתנו לה דוח  הורים לילדי תימן מבקשים להעיד לבית המשפט אין זמן להקשיב  ההורים  שוועדות החקירה לא הצליחו לגלות מה עלה בגורל י…  avrahambin זה מרגש ממש הציוץ ההומוריסטי שלי הופך למציאות  אלחנן גרונר חבר אהוב ויקיר הטוויטר תרם כליה לאדם שאיננו מכיר סתם כדי לע… avishaigrinzaig עימות רדיופוני של השופט סטרשנוב עם קלמן ליבסקינד מלפני זמן קצר אצל טלי ליפקין בגלי צהל  סטרשנוב דיבר ביהירות אין קץ… hananrubin613 אודי ורצברגר הוא סוס עבודהאחד שיעיף את הארגון שלכם במדיות הדיגיטליותמומחה בחווית לקוח ובניתוח מידעמקים אתריםועושה המ… asaflib שר הבריאות יולי אדלשטיין על פרופ סיגל סדצקי ההנהלה אינה מתחייבת לקבל הצעה כלשהי המדיניות שלה דיברה על צמצום הבדיקות מערך… kannnews קו 382 מירושלים לקריית ארבע נרגם באבנים ליד כרמי צור בגוש עציון אין נפגעים באירוע  sharonidan  kannnews סגן שר הבריאות יואב קיש לקלמןליברמן על הליכתו לחדר כושר אמש לא עברתי על שום הנחייה אני אוהב ספורט זו היתה שירת הברבור… asaflib חידת דקל בנו ל קלמןליברמן   כך ביקשו מדיין לשלוח מחלקה לבעלי דרגת סרן  ואחד שהיה בה מייצג את קולו של נתניהו  פתרון בן מי… arnonsegal1 ביום שישי האחרון התפללו בהר הבית 15 אלף מוסלמים אני משוכנע שכל אלה יקבלו בהבנה מלאה את ההגבלה ל19 מתפללים בלבד רואה כבר… asaflib ראש עיריית שפרעם אני בהלם אין עליי איומים קלמןליברמן  על עוד תיק שבו אסתר חיות מטפלת בחברה שקשורה בפרנסת בעלה על גורג קרא שמרחיב ומצמצם את רשימת המניעויות שלו כראות…  haggaisegal פרופ׳ יונתן הלוי קרא עכשיו בחדשות 12 לציבור הדתי לוותר עד לשיפור המצב על תפילה בבתי הכנסת ואפילו על מנייני חוץ סואנים פ… יהודה נוריאל זל עצוב פרשני עיתון הארץ ממשיכים לספור כיפות במערכת הבטחון אראל ואני ניסינו להבין מה מפריע להם אצלנו הדתיים  kannnews מנכל משרד הבריאות לMoavVardi וKalmanLiebskind הייתי מעביר חלק מהאחריות למשרד הביטחון משרד הבריאות הוא הרגולטור לריא… אראל סגל כועס על מנדלבליט  השר צחי הנגבי מסביר מדוע הצביע בכנסת בעד ההתנתקות אני לא הייתי מוכן להיות הפראייר שמצביע נגד  יריב אופנהיימר מזהיר מפני פיגועים שיתבצעו כאן אם נחיל ריבונות ביוש אנחנו דווקא זכרנו את הפיגועים שהיו כאן בעקבות…  כשחכ יאיר גולן ממרצ מפקד הפינוי בעמונה מתגאה במה שעשו שם השוטרים שפוצצו מפגינים במכות רצח באלות אפשר רק לתהות…  RinatRanch asaflib חלילה יש חלוקה מדוייקת בינינו aviyalou ברור</t>
-  </si>
-  <si>
-    <t>כאמור  עוד הוכחה שאפילו לימין הכביכול אידיאולוגי אין שום מושג מה לעשות הלאה הם יעדיפו פומבית להמשיך להכות בשמאל לשיטתם במ…  אופיר דיין כותבת היום בישראל היום על הצורך לא להתרפס בפני אלו שרומסים אותך שיעור שחשוב לזכור וליישם  baruchikra לאור הצפה אינטנסיבית של רעיון החנינה או עסקת טיעון גרנדיוזית אני מעלה פה שוב את הקטע הרלוונטי ממאמרי ביום חמישי  מי שתומ… Amites285 לבריאות YarinRaban אלוהיי שמור אותי מקיטש היהודי של שי פירון וסיון רהב מאיר מהפונדמנטליסטים אשמר כבר בעצמי YoazHendel1 dereheretz תתפטרו YossiDorfman המפגינים איתי ויונתן יטוב נחלצו לעזרת שוטרת שנפגעה כשמעדה בזמן שגררה מחסום  איתי הוא חובש וטיפל בה בשטח יונתן תיעד את… essoji חצות בבלפור אחי ואני עולים במעלה קינג ג׳ורג׳ לכיוון הרכב הרחוב ריק ממפגינים אבל מאד רועש כי קבוצה קטנה של שוטרות ושוטרים גור… arik3000 IsraelHayomHeb כולנו עבריינים לא לפני פסק דין חלוט בושה שאתה מנהל מסע צלב להחלפת עם מכהן DorDugy ו׳המרד׳ של בגין idanlandau יודע מה לא בהכרח צריך לבדוק מה קרה עם דוגמאות דומות BrianNReeves This is what AOC boycotted tonight because peacenowisraelPeaceNowUS commemoration of the assassination of Rabin a w… השכן של ההורים שלי גאון  erannissan 15 This photo was taken in July 19 after a meeting between  AOC and us NewStoryLeaders  a group of young Israelis amp… RamiHod yonatanlevi עוקפים את הפלסטינים עצמם משמאל הזיה BarakRavid PeaceNowUS FarkashOrit RonenManelis 🤷‍   erannissan קראתי בין השורות KalmanLiebskind  barpeleg המטרה היא להפגין בבלפור ברכבים בשיירות שיצאו מכל הארץ ״לא ניתן לנאשם את התענוג שירדנו מבלפור הוא מתכוון לחרב את הדמוקרטיה ו… barpeleg ברייקינג למרות שהחוק להגבלת ההפגנות לא עלה ארגוני המחאה כנגד נתניהו ביטלו את ההפגנה מחר מול בבלפור וקוראים לתומכים להפגין ב… maayanef התאריך בו גיליתי שיש כזה דבר עכשיו BarakRavid אני מאוד רוצה לקוות שזה לא מכתב מוזמן של נתניהו ואדלשטיין כדי לקבל כסות מקצועית לדיכוי ההפגנות אבל זה מריח לא טוב מאוד… JoshBreiner תיכף 1400 עסקים שאינם חיוניים יסגרו אבל השאר צריכים אוכל תרופות מוצרים חיוניים מותר לצאת להצטייד מעבר ל1000 מטרים… shaycohen natitucker אדם כהן קיטרון מכה שנית HauserTov ימי בנימין  אידיאולוג או אופורטוניסט  natitucker  בהמשך לסעיף 2 baruchikra ובינתיים מתעלם מהפיל בחדר  קלמן ליבסקינד  על חלק מתקשורת הימין אפשר לומר בצער רב  רצינו לגדל דור של עיתונאים  ובמקומם צמח לנו דור של שרלטנ…  אראל סגל עיתונאי על הרעיון שנתניהו יעשה עסקת טיעון עם כל הכבוד לעקיבא וקלמן מי אתם שתציעו הצעה כזאת אולי יש מ…  וזה מדהים כי השבוע התוכנית שלהם בכאן 11 ליבסקינד נדהם מהתשובות ההיסטריות של סגל אמר לו אפילו ״אתה פובליציסט 400 שנ…  ״גידולי פרא״ הוא כותב ומתעלם מהשנים בהן החברים המציאו סיפורים ושקרים ומתקפות על כל מי שאפשר עכשיו זה מגיע אליו א…  NadavYonani roysharon11 KalmanLiebskind אההה הוא אמנם מעל המוזכרים בטור אבל בוא לא נגזים MayaEzra3 roysharon11 KalmanLiebskind עוד לא קראתי 🤷‍ roysharon11 KalmanLiebskind מזכיר שם את אראל אגב avichaifa יש וייב כזה בין הצעירים שם רציני לגמרי avichaifa הליכוד מת על ליברטריאנים צעירים עכשיו זה הפתח שלך yairbrill ביצוע מושלם של תורן דף הבית בהארץ  adiryanko כל הסיפור בשתי תמונות אחרי ההכרזה על סגר הרמטי שיחל מחר מהו ההבדל בינו לבין זה שנכנס לתוקף ביום שישי האחרון תראו בעצמכם… GONENB1 דבר המלך במועצתו TomerPersico כולם רואים את ההתפרקות מדינה שמנוהלת ברשלנות פושעת משועבדת לצרכיו המשפטיים והפוליטים של אדם אחד נזק כלכלי של מיליארדים… משפט מדהים  Zkankav יותר מהיר לקרוא אחרי DaphniNLeef Nefolet eladitzhakian כולם Idaneretz כאן רשת וקשת לייב זה כואב לי לראות למה הוא לא מסתכל על המצלמה תאונה בשידור חי alecyefremov משטרה פרטית של הקיסר חובת צפייה  porgcupinetree בסדר תקרא על דבורין ותבין מה מעניין פה OAklum בוא תכתוב נו פוסט למחזקים בפייסבוק זה נחשב itaybh אתה מניח שהימין הקיצוני המתנחלי לא בשלטון כרגע ושולט בחיים שלנו כבר 10 שנים בערך הלובי המתנחלי אלקין ולוי…  itaybh ימין זה לבנות התנחלויות ולהשאיר מאחזים ימין זה להתעלם מהפלסטינים ימין זה לחסל את מערכת המשפט וימין זה להק…  10 הפוסטים הכי מצליחים בפייסבוק הישראלי השבוע   לעוד ניתוחים בדוח הדיגיטל השבועי של mehazkim…  itaybh המיתוג הוא קיים יותר זמן משנינו ויהיה קיים אחרינו ולהתעלם ממנו והמסורת העולמית והמקומית שלו פלוס עולם הת…  elchangr meiretingr עזוב מלא ערבים וגייז פה כמו אצלכם רק קצת יותר FtheBear ספר חדש  shaishahaf תיעוד מטורף מבלארוס נהג במונית נוסעת נחלץ להצלת מפגין שבורח מכוחות המשטרה  itaybh אתה חושב שבמציאות שלנו היום אין מקום לאלטרנטיבה מדינית ובטחונית שניתן לסווגה חיובית כשמאל ברצינות itaybh ביבי לא יהיה כאן לנצח itaybh השמאל של היום חייב להמציא עצמו מחדש אבל אם אתה רוצה שלמדינה הזאת תהיה דרך חדשה אתה חייב להפעיל את הדמיון ולהיות אמיץ DovMorell אל תגיד אובססיבי תגיד שאני במסע צלב DovMorell תעשה מיוט דובלה איזה יופי עורך הדין של הליכוד וארגון לביא כמובן שכעת מגישים עתירות נגד ליאת בן ארי מגיש תביעות דיבה בשם עמית…  itamars חביביייייי  הלכתי לראות מה השולמנים מתכננים לעשות בעקבות הסגר השני והבנתי שאנחנו חייבים להיות מאוחדים ואנחנו חייבים להפנים ושנע…  itamars למה אתה באמת לא משתף מוזיקה יותר אור ואהבה אור ואהבה בכל מקום אגב שרי אריסון לדעתי מוציאה אלפי שקלים בחודש על קידום בפייסבוק ולכן על ברכת השנה טובה שלה יש 30 אלף לייקים  erannissan איך לנצח מגיפה מאת בצלאל סמוטריץ  עדכון תעמולה ביביסטית  לפי מדד תעבירו את זה הלאה שכולם ידעו את האמת האשמים במשבר הם בגצ מנדלבליט ניסנקורן וכ…  elchangr יש מספיק מקום בשטח ישראל הריבונית גם לגזענים מטונפים כמו השכנים שלך HauserTov נראה לי שזה לא הובן אז  מעתה ועד לסוף משבר הקורונה ההפגנות בבלפור יוגבלו ל2000 איש לא לתקופת הסגר לא לשבועיים  עד לסוף… SefyHendler הניהול הקטסטרופלי של נתניהו את ישראל כבר חרג מזמן מתחום הפוליטיקה טובה רעה בינונית הוא הפך להיות סכנה אסטרטגית למדינה… לפנות את יצהר  adindan zionnenko לא מסכים דן אמת עצובה אבל שלח צודק Alaska0x3 0 אבל בטוח שזה בדרך itzikelrov אפשר להעיף את נתניהו לתהומות הנשייה גם בלי בחירות כל מה שצריך זה פוליטיקאים עם עמוד שדרה מהקואליציה והאופוזיציה שיתאחדו ב… OriKatz3 דרוקר ארלוזורוב וספי עובדיה טוענים את זה bennunanat תיקון חוק הקורונה העתיד שלכם לא רלוונטי גם לא ההתגדויות שלכם  JoshBreiner origivati מה זה אומר סגרו את כל השוק הפרטי מלבד החיוניים לא ILParliament MatanAlcalay ככה אתה מתאונן על משכורות שילכו לקולגות שלך בושה YairEttinger כתבה מקסימה אתמול EtiRiis להקשיב ולא להאמין מה מסוגל לעשות נאשם בפלילים נתניהו משעבד מדינה שלמה רק לדבר אחר להפסיק את ההפגנות נגדו השאר לא מעניין אות… romlior בעוד קצת יותר מ24 שעות יעבור חודש כן כולה חודש מהרגע הזה קשה להאמין כמה זמן בוזבז על כלום כמה כוחות הושקעו בחילופי המהל… iloveisraell לכל אלו שאמרו להפסיק לשבועיים כתבתי בימים האחרונים שאם נראה חולשה  נתניהו יתקוף יותר חזק שימו לב  שבועיים זה כבר לא מס… LVertzhaizer טרופר jewdas Well you know man you dont have to take it this far just to spite the idiots doronziv ממש בלתי נשכח אין שום קשר למציאות כמובן אבל תנסו להיאחז באמת עושים לנו gaslighting ברמה הלאומית זוכרים כשדף המסרים של הימין דיבר על הפגנה קטנה שמתודלקת על ידי התקשורת  אז עכשיו אנחנו בשיא של השמאל מדביק את כ…  תודה למר מלכה שכתב לנו מראש יום אחרי הפסקת ההפגנות ככה דף המסרים של הליכוד בערך יראה   עדכון  מה אתם יותר arik3000  DovMorell קשה קשה הממשלה נסגור בתי הכנסת  אריה דרעי אין סיכוי   הממשלה אל תדאג נדפוק גם תסמולנים  אריה דרעי  UziBaruch מה זה שמע ישראל omerbabai מערכת אלקטור מה זה משנה העיקר שאין ערבים YoazHendel1 ZviHauser  yonatanlevi יש סיבה שמשטרי ימין פופוליסטי – מארהב וברזיל ועד בריטניה וישראל – נכשלים בהתמודדות עם המגיפה 1 חיסול מתמשך של הדרג המק… erannissan זה לא או תפילות או הפגנות  זה גם תפילות וגם הפגנות  בעוד פחות משעה יתכנס קבינט הקורונה לישיבה בה יוחלט ככל הנראה להטיל ע… yudash העיקר שידעו שאנחנו לא מפחדים UriKeidar  מישהו צריך להצליב את זה עם גרף החולים  AlonMizrahi שרשור זועם ספונטני על מאבק התודעה ברגע זה  1 שנאו אותנו בעוצמה מטורפת גם לפני הקורונה הסיבות מתחלפות השנאה נשארת  2 י… arnondeg 🤷‍🤷‍🤷‍🤷‍ זה מאה אחוז אשמתך דוקטור arnondeg חברים מרוצים אבל האמת שזה הוצאה על מים arnondeg תעדכן כי אני מוכן שתצא פראייר לפני iloveisraell 17 חברים יקרים לקראת יום הכיפורים החלטתי לתת לכם שירשור שופרות כיפי  ובכן מה הוא שופר אדם שצריך להעביר מסר ולא משנה בא… frak001 Passion of the Gantz אבל איזה מזל שלא הקמנו ממשלה עם המשותפת אה  ChenSror הבחירה לסמן יהודים בצד אחד וישראלים בצד השני היא מודעת וכל עניינה לייצר גרסא חדשה של שתי הממלכות הנפרדות יהודה וישראל שתיה… natitucker הדיון הציבורי פה כל כך מטומטם בהפגנות בבלפור בסגר יש גג 5000 איש ביום כיפור הולכים להשתתף בבתי הכנסת לפחות מיליון איש… odedkramer אז תפילות בחוץ זה פיקוח נפש רק אם אין הפגנות ItaiAknin אדוני אתה לא סותם את הפה לרגע בנושא הזה  מישהו באמת חושב שאם ההפגנות בבלפור יפסיקו המתקפות יפסיקו הם ימצאו תירוץ אחר  erancherpak כל עוד יש התנגדות פעילה לממשלה ולפעולותיה למה אתם לא מסוגלים להיות כבשים צייתניות roykatz ספין הדבקות הקורונה בהפגנות בבלפור וההשוואה לתפילות במרחב הסגור הוא מהלך תקשורתי שראוי להילמד פינקלשטיין לא היה עושה את זה ט… BiniAshcknasy ביני תנו דוגמה אחת למומחה פרטי וחיצוני שמדבר במקום הרמטכל או החשב הכללי  פיד יש מיליון דוגמאות  ביני תנו אחת   פיד ח… SefyHendler סוד לא כמוס גם ברגע שיעצרו ההפגנות בבלפור הקורונה לא תיעלם הנחה לא בלתי מבוססת אם נחליף ראש ממשלה סיכוי טוב שתוך 6 חודש… asapir אז למה רומן אברמוביץ תרם כ100 מיליון דולר  במשך 10 שנים דרך חברות קש מאיי הבתולה לעמותת אלעד וסייע להפוך אותה לעשירה בי… Yossieli פרסום ראשון  משפחת אלחלק שבנם האוטיסט נורה למוות על ידי שוטר מגב הגישו בגצ נגד מחש בדרישה לתת החלטה לאלתר בתיק אם להעמיד… CHAGAID אם תרצה לדבר בהזדמנות ובהרחבה על ההבדלים אשמח CHAGAID כן זה קיים אבל זה לא 1 מאות חשבונות טוויטר פייקיים שדוחפים רעיונות דומים בהתאמה למסרים של מפלגת השלטון…  CHAGAID לא יודע רואה איזו מתקפה פוליטית מאורגנת על ׳מתפכחי השמאל׳ כמו חיים רמון ודינה דיין או נגיד דרוקר כשהגן ע…  CHAGAID כחול לבן לא תשלח את צבא הרפש שלה אחריי כי אין לה אחד כזה CHAGAID אולי קצת רדיקל בענייני מגדר CHAGAID כן אני די שמאלן סטנדרטי עצוב שגם אנשי ימין מובהקים והרבה יותר קיצונים ומסוכנים מכל אחד בליכוד כמעט חוטפים אש מבלפור ושלוחיו ברגע שהם מבקר…  לא מאוד תופס אגב כמה מאות שיתופים במקסימום אבל יורים את התותחים המיטב של הביביסטים נגד ליבסקינד ונוביק מהפייסבוק תביעות אצבע של הליכוד בכל מקום פה  היום בשער מגזין הליכוד  כאילו חתיכת תזמון שכולם באותו שבוע כותבים על זה אני אגב מתנגד כמובן המדינה לא צריכה להיכנע לבריון בלי לפחות הודאה באשמה הספין החדש של הביביסטים חגי סגל עקיבא נוביק וקלמן ליבסקינד נפגשו עם מנדלבליט והוא גרם להם לכתוב מאמרים שקוראים ל…  NimrodFlash תשתוק ותצדיע לא שאני מפקפק בידיעה הזו אבל ביבי תמיד שמח לתפור לעובדי מדינה כוונות פוליטיות נסתרות בנט אחראי על הסגר פוטש  AnalGoddess770 eranlaor רעיון מעולה eranlaor נהדר shaycohen כשאני צריך מישהו שיחקור מחקרים וינתח נתונים האיש הזה הוא וויל דר וויליאם קוביסון בשבילכם ומה שוויל אומר ומראה פה זה שהגל… doroniko אורי בלאו בהארץ מגלה שחברות הקשורות לרומן אברמוביץ שותף סמוי של פוטין תרמו לעמותת אלעד של המתנחלים כמאה מיליון דולר תזכר… haimglikman סיפור יפה MayaEzra3 את מאוכזבת שזה לא פרסומות האם נתניהו יפרסם בסוף את סרטון התעמולה שטופז לוק הסריט אמש בבלפור orlybarlev בערוץ N12News וערוץ newsisrael13 התרכזו בסיקור בהפרת הבידוד והתעלמו לחלוטין מהסיבה שבגללה שני יועצי נתניהו היו בכלל בהפג… שלום תבורך jack בוא נראה אם האלגוריתם תומך בהסתה או בשלום  ReutMor בום האיש מאחורי עמותת אלעד  רומן אברמוביץ אלעד יודעים שהם גנבים שגוזלים את המעט מאלה שיש להם הכי פחות לכן הם מסתירים את ז… hagitofran אם הפעילות של עמותת אלעד היא כזאת טובה ולגיטימית למה התורם המרכזי שלה מתחבא חשיפה גדולה של uriblau   idanlandau לא מזמן אמר לי מירון רפופורט האיש שפירק לחתיכות את כל מערך השליטה התמנוני של עמותת אלעד הסוד שאף אחד עוד לא הצליח לפצח… harnevo נניח וצמד השקרנים לא היה נתפס נניח שהם היו מצלמים את ההצגה השקרית שהם יצרו מה הייתם רואים היום בתקשורת המיין סטרים הישראלית… אלעד וגופים אחרים בסגנון אשכרה עובדים על להוציא פלסטינים מבתים במזרח ירושלים משכונות פלסטיניות 100 מיליון דולר מדהים וואו  avischarf Roman Abramovichlinked offshore firms sent 100 MILLION to Israeli rightwing group working to expand Jewish presence in Ea… UriahCanaff אני עם אותו מספר 15 שנה והתמודדות עם הבעיה רבות וכן יש לי דיעות בנושא בקרוב המאמר באלכסון UriahCanaff השיטה הזו לא קבילה אם יש לך מספרים זהים ברביעי ובחמישי וחייבים לקחת שיטה אחרת BiniAshcknasy מתחיל להיגמר להם הקופים לפחות הוא לא שובר בידוד ויוצא לרחוב רק בריאות  DorHollander davidyerman Kanal מהדורה מיוחדת של  הסניהיומי  SanyArazi  DorDugy קורס איך להתקבל למילואים בהול iloveisraell תראו מי הגישה היום הצעת חוק להגביל את ההפגנות  זאת שלא מזמן הפיצה סרטון שלה בו היא מזמינה את הציבור להפגנת תמיכה בביבי… shaycohen עמית סגל לא מכיר את ראובן עזראבל גם אם מדובר ביועץ הטוב ביותר בנמצא את היום הזה הוא צריך לסיים עם מכתב פיטורין אא לדרוש… MayaEzra3 מחכה לך idanlandau יודונאצים עם ווטסאפ  hebmeme TopazLuk הווווו חחח NaamanStavy הכתובת הייתה על הקיר  freyisrael1 בסך הכל קופי פייסט לפני הפעולה של אתמול היה סלפי TopazLuk  AviWinestoock סרטון נהדר  AviWinestoock איש שליחויות לכל מטרה תסתכל על הקוח שלו בשנה האחרונה AviWinestoock כשהם התחרו בפייגלין שלחו אותו לצעוק על נערים שהוא גם מאמין בכלכלה חופשית  כשעשו את הקמפיין על היהודי…  haimhz Yoglas74 בהחלטטטטטט איש יקר שרשור בנט לפני שניסה להתמרכז שוב  AviWinestoock איזה מהדברים כהנא פרסם אתמול השאר לאורך השנים origivati כרגע יש את מה שפרסמתי ומיטב חוקרינו ממשיכים לעבוד SemelYair זו הערכה מבוססת חכ מתן כהנא אנשים מטילים דופי בפטריוטיות של שמאלנים איך אתם מעזים  חכ נפתלי בנט זה לא יוסי יונה זה חמאס ג…  איך הם מעזים  gevakraoz לא אופתע אם זה שילוב של השניים או לקחו כמה משוגעים ונתנו להם מיתוג ובמה או חיברו אליהם אחרים זה הכי ט…  limormoyal האם קלוגהפט בישל את הדייסה הזו  ארגון קש של פליטי שולמן עומד בשולי ההפגנה ומכחיש קורונה הם לא באו להפגין נגד המושחת ה… schatzah ניסיון חיסול של המחאה חמישה עמודים ניסיון חיסול של מפגינים פסקה  TalAviram לפי הפרסומים ygurvitz בפעם הבאה שאשף התעמולה המלוכלכת של הימין ינסה להתנחמד אל תשכחו את העובדות האיש זוהמה שאיננה ראויה לבוא בקהל  דוגמאות  עוד פרטים בשיטות המלוכלכות של האיש שאחראי על השחתת השיח הישראלי והסתה נגדי ונגד חברים שלי  הקבוצה שלהם בפייסבוק  ארגוני קש שקלוגהפט קידם  נשבר מהמשכנתא  נגד בנק הפועלים מורידים את מוצרי החשמל  נגד אלקטרה מחאת הרכבים …  Elkannush פיקנטי yotameyal aviadglickman זה עניין אישי של בן ארי כאשר פעילים בשירות נאשם בפלילים במשפט שהיא אחראית עליו מפגינים מולה אין בושה itamars עם כל הכבוד לחובת הבידוד של טופז לוק והתחקירים הנרגשים בנושא אני די משוכנע שאתמול ניסה מישהו לדרוס מפגינים בחיקוי כמעט ישיר ש… schatzah בכיר בחוליית ההסתה של ראש הממשלה נתפס מפר בידוד במהלך בישול עלילת שנאה נגד המפגינים בעניין אחר וממש לא קשור  נהג שפרץ מחסום… NitzanWaisberg באמצע ההפגנה כל הכבישים חסומים פתאום חונה בכיכר רכב ביביסטי מבט לצד מראה לנו חבורה הזוייה של מכחישי קורונה מאחורי ה… Yoglas74 מנגנון ההשחרה בשרותו של הנוכל הנאשם עופרגולן וטופז לוק נמלטים בחשיכה אחרי שצילמו קבוצה של אנשים מכחישי קורונה בשולי הפגנה …  YossiDorfman האירוע של החשד לניסיון פיגוע דריסה בהפגנה בבלפור כולל עצירת הרכב באקדחים שלופים עי השוטרים arianamelamed עכשיו קרדיט נדב גלאון  AyalHermanBadt orikol אם צריך את הסרטון שלי  הייתה בו מכונית עם סטיקרים של הליכוד שחנייתה בשטח הייתה תמוהה YTB2018 13 שבועות רצופים של הסתה נגד מפגיני בלפור והגשרים וההסתה עובדת בליץ התעמולה עובד גם עליכם דוחף אתכם להסתייג למצוא פגמים ל…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ההגבלות מטרתן לעצור את התחלואה ולא להשתיק את המחאה בוודאי שלא אסכים לסיכולה הממוקד בתקנות שעת חירום בשל עיסוק אובס…  זו תהיה בושה גדולה ובלתי מתקבלת על הדעת אם כנסת ישראל תצא לפגרה תפקיר מאחור עשרות אלפי עצמאים ותקצץ בדמי האבטלה למ…  התפשטות התחלואה מחייבת הכרעות קשות זו מלחמה שכדי לנצחה יש למנוע התקהלויות בעיקר במקום סגור זכויות היסוד להפגנה ו…  אמירה הזויה היקף הבקשות לסיוע במזון בחגים זינקה פי 2 השנה ל12 מיליון בקשות את התקציב הגדלנו פי 3 וזו רק דוגמה  תודה לך יאיר  לך ולכל ההורים לילדים המיוחדים על שיתוף הפעולה למענם אסור לעולם שנאפשר שמוגבלותם תהווה סיבה לאפליית…  KerenMarc michalpeylan היי קרן זה לא נכון אצלנו אלו נתוני אמת שנאספים עי המשרד באופן ישיר מול המסגרות עב יומיומ…  אנשים עם מוגבלות הם אזרחים שווי זכויות ורק אחכ בעלי מוגבלות ומוגבלותם אינה צריכה להוות סיבה לסגירתם במעונות ולבידוד…  sivankli נשנה זו הכוונה סיוון מגיפת הבדידות מסוכנת לא פחות מהקורונה לכן החלטנו להשאיר את מרכזי היום לקשישים פועלים תחת הגבלות אנו פועלים מול מש…  התרעתי מראש כלפי האוצר שמדובר בסעיף מטומטם שהכניסו לחוק ולא יחזיק מים בזמן אמת אני שמח שדרישתי כלפיהם התקבלה במלוא…  סגר מוחלט אינו יעיל לט״א וספק אם יעמוד במבחן הציבור למיקוד מאמץ דיפרנציאלי ולנקיטת צעדים אגרסיביים במוקדי התחלואה…  על פחות מחצי אחוז הדבקה במערכת אין שום סיבה להעניש את ההורים הצעירים ולסגור את הגיל הרך גם תחת סגר הותרת המעונות…  הבטחתי לציבור הנכים שנעלה את קצבאות הנכות ואני גאה שהצלחנו להשיג זאת יחד בזמן שבו זה נדרש יותר מתמיד אני מברך את א…  כפי שהתחייבתי לציבור הנכים הקצבאות שלהם תועלנה  בתכנית התקציבית שאישרנו יש בשורות משמעותיות לאוכלוסיות הרווחה בתקופת הקורונה כפי שהבטחנו ביחד עם שר האוצר נעלה את…  במפגש עם מנהלי לשכות הרווחה בערים האדומות הבעתי את הערכתי הרבה לעבודתם המקצועית והמסורה בתקופה קשה זו החמ״ל המיוחד…  הגעתי לאלעד ולג׳לג׳וליה כדי לבחון את היערכות הרווחה לסגר ולראות את הצרכים מהשטח הערים האדומות מתמודדת עם אתגרים חב…  אנו ערוכים בערים האדומות להגיע ולהושיט יד לכל מי שזקוק לכך הקצנו תקציב מיוחד לערים העו״סים בשטח לצד המשפחות והנחי…  יצאנו היום למבצע אכיפה חסר תקדים בהיקפו במסגרות הגיל הרך במקום 20 פקחים שהיו עד כה התייצבו למבצע כ120 שיגיעו כל…  עשרות מיליוני שקלים יועברו היום לקשישים סיעודיים שלא קיבלו שירות בתקופת הקורונה בלתי מתקבל על הדעת שהם יוענשו כי ל…  גאה להתייצב לצד Reshettv ביום שמוקדש למאבק באלימות נגד נשים וילדים עם תקציבי החירום שהשגנו נוסיף 60 יח׳ ל110 המר…  גיא יזמת מהלך גדול זכות להיות חלק  ברגע האמת מאות אלפי מובטלים וחולים נושאים עיניהם למדינה וטוב שכך העובדים שאת שכרם רוצים לקצץ הם גם העוסיות המורי…  בלתי מתקבל על הדעת שפעוטות עם אלרגיות מסכנות חיים יוענשו ויורחקו מן הגנים בגלל מצבם הבריאותי הם לא צריכים להיות בנ…  מבקר במסגרות לגיל הרך לרגל פתיחת השנה אחריותנו לשלום הילדים עצומה והשנה נחולל מהפכה במקום ההפקרות שהיתה עד כהזו ה…  צילום חורחה נובמינסקילע״מ פגשתי היום יחד עם gantzbe הורים לילדים שעברו התעללות מזעזעת בפעוטון במקום ההפקרות שהשתוללה בתחום בעבר נוביל מהפך…  בפעם הראשונה אי פעם תקבע מדינת ישראל באופן רשמי מהם דמי המחיה בכבוד שפגיעה בהם תהווה פגיעה בזכויותיו הבסיסיות של כ…  אישרנו בממשלה 10 מיליון ₪ למקלטים לנשים נפגעות אלימות וילדיהן המקלטים יתוקצבו בסכום חדפ של 300 אלף ₪ ירכשו מחשבים…  כוננתי הערב את מועצת הביטוח הלאומי ובחרתי לעשות זאת בבית שלווה כאן אני תמיד מרגיש בבית   ״לא בחסדם של נדיבים יהיו…  הניצחון הזה הוא לפני הכל בזכות נחישותם של אלפי הורים שנאבקים כבר שנים על רפורמה בגיל הרך ענת שאיבדה במעון בגלל מע…  ההגנה על שלומם ורווחתם של חסרי הישע עבורי היא משימת חיים בכוחן של התקנות שאני מפרסם היום לחולל מפנה היסטורי בגיל ה…  פרופ׳ גמזו הוא המקצוען הטוב ביותר שיכולנו לבקש מול נגיף הקורונה הממשלה בחרה פרוייקטור להתמודדות מול הנגיף וצריך לת…  היום תתקיים ישיבה מכרעת עם נציגי משרד רוהמ והאוצר ואין לי כוונה להתפשר על שלומם של הפעוטות אין אדם אחד שנאבק יותר…  יש בידי הזדמנות היסטורית לעצור אחת ולתמיד את ההפקרות בגיל הרך ע״י תקנות הפיקוח זה לא יקרה אם אפרסם תקנות מרוככות ל…  הדאגה לשלומם ולרווחתם של חסרי הישע היא משימת חיים עבורי לכל אחד ואחת מהםן מגיעה הזכות לחיים של משמעות מוגנות ושי…  הנחיתי את גורמי משרדי להגדיל את תקציב התמיכה השנתי של מרכזי הסיוע לנפגעות ונפגעי תקיפה מינית ביותר מחמישים אחוזים…  על גופתי המתה  היום שמנו סוף לעוולה ארוכת שנים שהביאה לפגיעה קשה במאות מורי דרךאשכול ומנעה מהם לקבל את רשת הביטחון שהם כה זקוקים…  תודה ענקית ליו״ר ועדת העבודה והרווחה ח״כ חיים כץ לשר התרבות והספורט חילי טרופר ולמנכל הביטוח הלאומי מאיר שפיגלר מ…  עולם התרבות ספג את אחת מהמהלומות הקשות בקורונה ובתוכו עובדי הסט והבמה במיוחד לאחר מאמץ רב הצלחנו לאשר את החוק ההי…  לצערי ערב פתיחת שנה״ל החליט משרד האוצר באופן תמוה לקחת הימור מסוכן ומיותר על חיי הפעוטות עם האלרגיות מסכנות החיים ב…  נפגשתי עם נציגות ההורים של הפעוטון מהגיהנום ברמלה לפגישה קשה כאבא אתה תופס את הראש למשמע תיאורי הזוועה המחרידים הל…  החשדות לאונס המחריד באילת מחרידים כל  לב 30 תוקפים חייתיים  כנגד נערה אחת בת 16 אחת ולא נמצא מי מהם שיעצור את הזוו…  אם כבר מציבים אולטימטומים בעניין התקציב הם צריכים להיות על דמי האבטלה לעצמאים קצבאות נכים ופנסיית מינימום לקשישים אילו החזון מעורר ההשראה של בית שמש יצליח ישראל כולה תצליח דווקא בתקופה של קיטוב והסתה במקום הזה מתעקשים על הטוב ו…  zviashkenazi מתנגד נחרצות נתוני האבטלה פשוט זועקים לשינוי מודל החל״ת ומעבר לסבסוד שכר למעסיקים אסור שישראל תישאר מאחור בגלל קיבעון מחשבתי שע…  אני מודה לשאר שותפינו בממשלה וביניהם ראש הממשלה החליפי על הגיבוי והדחיפה למשרד האוצר המשרד לשוויון חברתי והמשרד…  אישרנו עתה בממשלה את תכנית ״מגן זהב״ לטיפול באוכלוסייה המבוגרת במשבר הקורונה מהרווחה בראשותי יוביל את המאמץ במטרה…  רות גביזון ז״ל כלת פרס ישראל הלכה מאיתנו לא רק ענקית משפט וערכים אלא שסימלה את הסיכוי לחיות כאן כחברה מאוחדת אך…  ההסכם ההיסטורי בין ישראל והאמירויות פותח עידן חדש של מימוש הזדמנויות חשובות והתמודדות מול סכנות משותפות באזורנו למ…  סרטוני ההתעללות האכזרית בפעוטות חסרי ישע מצמררים ומחרידים מול פשעים מתועבים וחמורים שכאלה הפקרות העבר תיפסק לאלתר…  עולם התרבות נפגע קשות במשבר הקורונה ואין לי שום כוונה להפקירו המשבר חשף במיוחד עד כמה חסרה בו רשת ביטחון מינימלית…  התכנית כמובן נמצאת באחריות משרד החינוך אולם ההשלכות על סגירתה יתנקזו כולן לרווחה לא מוסרי לא יעיל וגם טפשי להגיע לזה תכנית היל״ה היא המפלט האחרון לפני ההידרדרות עבור צעירים רבים שנקלעו למצבי סיכון סגירתה עלולה להנחית מכה אנושה על ע…  לקראת שנה״ל הנחיתי את הביטוח הלאומי להעביר השנה בהקדם את מענק הלימודים השנתי בהיקף כולל של 240 מיליון שקל לכ240 אל…  TomerPersico התייחסתי ומתייחס בכל ראיון תעשה גוגל TomerPersico הארכת דמי האבטלה ומענקי המבוגרים החזר של מאות מיליונים למקבלי קצבאות קיום הסכם היסטורי עם העו״סים…  נוביל יחד עם משרדי הממשלה וארגוני המעסיקים להקמת מערך הכשרות מודרני אטרקטיבי ואפקטיבי שיוכל להחזיר ישראלים רבים ל…  התכנית הלאומית להכשרות מקצועיות היא מהלך אסטרטגי מרכזי ביכולתנו להניע מחדש את המשק ולתת ישראלים שאיבדו את מקור פרנס…   AFP הלב בוכה מול המראות הקשים שמגיעים מביירות ליבנו עם העם הלבנוני בשעתו הקשה ונסייע לו ככל שנדרש מול טרגדיות קשות שכ…  إن العين لتدمع والقلب ليحزن على هذه الفاجعة والمشاهد المؤلمة التي نراها من بيروت، قلوبنا مع الشعب اللبناني في هذه ا…  בלתי מתקבל על הדעת להכביד את הנטל על המעסיקים כשהם ממילא בקושי עומדים על הרגליים הוריתי לביטוח הלאומי שלא לגבות את…  די מופרך לתלות בתקציב דו שנתי גזירות וקיצוצים אחרי פיזור של 6 מיליארד שקל לכל עבר במענקים במקום לספור אצבעות לא קי…  אני דוחף לתקציב יחד עם כח״ל דרישה להעלאת הקצבאות לקשישים העניים ביותר במדינה אנחנו דורשים להעלות את קצבאת השלמת הה…  דרישת ההורים לילדים עם צרכים מיוחדים לקבלת מענק מוגדל מוצדקת מאין כמותה אני פועל בימים האחרונים על מנת להביא לתיקו…  מודל החל״ת נכשל הגיע הזמן לעבור למודל חדש של סבסוד שכר למעסיקים מה שיעודד אותם להשאיר ולהשיב עובדים רבים למקומות…  חבורות הביריונים האלימות שאורבות ומתנפלות על מפגינים שיוצאים לממש את זכותם הדמוקרטית מגונה וחייבת להיפסק מיד הפורע…  תקציב ל3 חודשים בתוך משבר כלכלי חמור זו טעות שהציבור עלול לשלם עליה וביוקר במקום תקציב שאפתני שיספק ודאות ויציבות…  הזדמנות נהדרת לשבח את שהצליח להדביק רבים לפני שנים במחויבות לקידום זכויות לאנשים עם מוגבלות והניצחון הזה הוא קודם כל שלו orenhelman משרד העבודה והרווחה בראשותי יזם ויוביל את ״מגן זהב״ תכנית חסרת תקדים בהיקפה למען האוכלוסייה המבוגרת בקהילה ובבתי ה…  יחד עם שר האוצר נאשר הערב תיקון היסטורי עבור ציבור הנכים העלאת ה״דיסריגרד״ במקום לכלוא נכים שמסוגלים לצאת לעבודה…  מברך את Israelkatz על ההחלטה לא לקזז דמי אבטלה במהלך הכשרות מקצועיות ושמח שדרישתי התקבלה בלתי מתקבל על הדעת שבמק…  קריאת הנשיא במקומה ויש להפנימה לא נתפס שמול המשבר הבריאותי והכלכלי החמור ביותר שהיה כאן נדרדר  לתסריט בלהות של בחי…  יש רגעים שפשוט צריך לעשות בהם את מה שנכון ולא רק את מה שאפשר  טיפולי המרה הם פשע את הנעריםות הלהט״בים צריך לקבל…  Syechimovich amirperetz אין שאלה בכלל תודה לכםן תמיד אעמוד לצדכם  אני מודה לשר האוצר Israelkatz  שגילה כאן רגישות חברתית אמיתית ולאנשי משרדו לארנון בר דוד histadruthadash על…  אני מצדיע לעובדים הסוציאליים בהנהגת ענבל חרמוני על מאבקם העיקש ושמח שעלה בידינו לתת מענה לדרישותיהם הצודקות מול הא…  לא יקום ולא יהיה  ביחד עם gantzbe פגשנו את העו״סים כדי להביע תמיכה מלאה בדרישותיהם הצודקות הם הכוח החברתי הכי חזק שלנו שבלעדיו אין…  Thank you Mr ambassador for a wonderful and meaningful meeting I’m sure we can strengthen amp expand our partnershi…  יש לברך על הסכם האחיות החשוב שהושג אתמול עם זאת לא ברור למה האוצר ממשיך להתעלם מהדרישות המוצדקות של העו״סים ומפקי…  לאחר מאבק עיקש דרישתנו הצודקת  לחלוקת מענק מוגדל לשכבות החלשות התקבלה  פתרון יעיל יותר מבחינה כלכלית וצודק חברתית…  עד היום העצמאים היו שווים רק בחובות הגיע הזמן שיהיו שווים גם בזכויות יחד עם הביטוח הלאומי גיבשנו הצעת חוק לדמי אב…  החוק למניעת אלימות כלכלית שאישרנו עתה בממשלה הוא חוק קריטי שיספק לנפגעותים רבים נתיב מילוט ממציאות אכזרית של הזנחה…  השאלה אינה האם צריך לתת כסף לציבור צריך לתת גם יותר השאלה למי כשמעניקים לכולם אותו הדבר נותנים למי שצריךפחות מד…  חד וחלק במקום לזמן את העובדים הסוציאליים הבוקר לחדרי החקירות על הפגנות צריך להתכנס איתם בחדר המומ כדי להגיע להבנו…  עמדה אמיצה ונכונה כנראה שלא יכולתי לבקש לעצמי יריב אידיאולוגי עיקש יותר משאול מרידור וחבריו לאגף התקציבים אבל גם…  IdanYosef Israelkatz אז כתבו מכתב וואו מה אתה בולע כל מה שזורקים לך פרט לכך הדמגוגיה הזו עלולה לעלות ביוק…  IdanYosef Israelkatz תגיד מאיפה הנפצת את הקשקוש הזה  YTB2018 מבין שאתה לא משתגע על הרכב הממשלה גם אני אבל בחירות זו אופציה רעה יותר ולגבי השפעההארכת דמי אבטלה לשנה…  עדיף שהמסוקים עם המזומנים יפזרו את הכסף איפה שבאמת צריכים במקום מעל לעננים80 אלף בעלי עסקים נותרו בינתיים מחוץ למ…  GLZRadio שר הרווחה ishmuli תוקף אצל RinoZror ברקע כוונת האוצר להגביל את עצמאות הביטוח הלאומי זו לא הזרוע הארוכה של מס הכנסה אף א… להסתכל על העו״סים שמועסקים בשכר דל וקורעים תחת הנטל בתקופה הזו ובכלל ״כתוספת שכר במגזר הציבורי משקף פרדיגמה צרה וי…  איילת תתקדמי זה 2020 לא 2003 הרופאים העוסים ועובדי המדינה מעולם לא היו אויבי העצמאיים אלא משרתי העם רק שהדמוניז…  המחאה הערב היא כרטיס צהוב מוצדק לממשלה וחובתנו לתקן זאת כדי שהמובטלים החדשים לא יהיו עניים חדשיםיש לפעול ומהר כמ…  11 עו״סים נעצרו מחוץ לאולפן pgoshMTP כי באו להביע באופן לגיטימי את מחאתםן המוצדקת ביותר זכות המחאה היא זכות יסו…  בנוסף נמשיך לדחוף קדימה את ״המודל הגרמני״ ואפשרות לדמי אבטלה גמישים אתגרים ומאבקים גדולים עוד לפנינו במסגרת התקצי…  התכנית הכלכלית היא צעד בכיוון הנכון ואני שמח שרוב הצעדים אותם דחפתי  הוכנסו ובעיקר הארכת רשת הביטחון למובטלים ולג…  לקחת דווקא את הביטוח הלאומי שמשמש כעמוד התווך המרכזי למיליון מובטלים בתוך משבר הקורונה ולפגוע בו זו החלטה חסרת היגי…  צר לי באמת שאגף התקציבים ניצל את נכונותנו להידבר ובזמן שהתקיימו כבר פגישות בעניין מתוך הבנה שלא מדובר בבעיה פרטית…  לא נאפשר לאוצר להצמיד אקדח טעון בראשו של הביטוח הלאומי כדי לבזוז את כספי המבוטחים ולהשתמש בהם לטובת צרכים אחרים מד…  כפי שהתחייבנו קצבת הנכות תועלה בתקציב הקרוב ואיתה גם התמיכה לילדים נכים נכים מונשמים נכים מבוגרים ועוד גם הדיס…  ועדת החקירה היחידה שצריכה לקום כאן היא על איך בעיצומו של המשבר הבריאותי הכלכלי והחברתי הכי חמור שהיה כאן פוליטקאים…  קרן פיצוי מיידית לעסקים עב מחזור פטור מתשלום ארנונה לעסקיםהכשרות מקצועיות תוך מתן דמי מחיה דמי אבטלה לעצמאים הא…  בני גנץ מוביל את המאמץ להכנסתה לתכנית הסיוע של הממשלה והיא תקבל ביטוי רב בצעדים שיפורסמו לצד הבטחת הקיום התכנית תס…  תכנית ״חיסון כלכלי״ יוצאת לדרך אסור לתת למאות אלפי ישראלים עצמאים שכירים ואחרים ליפול לתהום ולכן יחד עם…  ygil לדעתי ההודעה אינה מעודכנת קרי יצאה לפני שהוארכה הזכאות אבל זה בבדיקה צילום אריאל חרמוני משרד הביטחון הדבר הראשון שעשינו היום הוא לפגוש את נציגי הענפים שנפגעו קשות מההגבלות הם זקוקים לחבל הצלה לא לחבל תלייה המשוואה…  לאור העליה הגדולה בתחלואה אין ברירה אלא לנקוט בצעדים אגרסיביים יותר כדי להימנע מסכנת קריסה של מע׳ האשפוז יחד עם זא…  מחאת העוסים מוצדקת מאין כמותה ואני פועל על מנת לגבש הסכמות בין הצדדים ולהביא לפתרון מציאות שבה ילדה שנפגעה או קשיש…  טוב שהשר הנגבי חזר בו מדבריו מיליון ישראלים איבדו שלא באשמתם את מקור פרנסתם ונזרקו לאבטלה ולחרדה כלכלית קיומית הע…  HadarGil בהצלחה רבה  אחרי שנאבקנו והשגנו את הארכת דמי האבטלה לשכירים בכוונתנו לדחוף להגדלת הסיוע לעצמאים כדי שאף ישראלי לא ישאר מאחור ב…  מול מיליון מובטלים שכמהים לחזור לנורמליות אין שום דבר קדוש בתאריך של היום פרט להבטחת רשת הביטחון שלהם ויצירת מקומות…  gantzbe מיליון מובטלים לא מתעניינים בסיפוח אלא באיך לגמור את החודש ואני מבטיח שנעשה את הכל כדי לדאוג לכך שמצבם הכלכלי ישתפר   באתי לע… שמח שלצד הארכת דמי האבטלה ומענקי המבוגרים עד לאוגוסט התקבלה גם דרישתי להתמיד במדיניות אי קיזוז הקצבאות מדובר בהישג…  הקורונה היא לא רק מגפה בריאותית אלא גם כלכלית ולמרות נתוני התחלואה שעולים תחת ניהול סיכונים נכון יכולת הספיקה של מ…  אני שמח שראש הממשלה ושר האוצר נענו לדרישתי הנחרצת להארכת תקופת הזכאות לדמי האבטלה ולמענקים לאוכלוסיה המבוגרת עד לאו…  הזכות להפגין היא מרכיב מהותי בחופש הביטוי ויש להגן עליה מכל משמר מעצר מפגינים המוחים באופן לגיטימי הוא אקט קיצוני…  אין לנו זמן להמתין אם לא נתעורר ביום חמישי הבא 262097 ישראלים מובטלים יגלו שהם לא מקבלים דמי אבטלה ביוני חודש של…  קורונה חברתית לא רק בריאותית אנו עדים לזינוק חד במספר הפונים ללשכות הרווחה עלייה של 61 בהשוואה לשנה שעברהוא…  fessunion לא נכון ותודה הקריאות המביישות וההסתערות האלימה על אמנון אברמוביץ׳ בזויה ומעוררת חלחלה אני מגנה אותה בכל תוקף התקפה על עיתונאי…  הצעת האוצר שלא לגרוע מימי הזכאות של המובטלים את תקופת הסגר היא צעד בכיוון הנכון אך אינה מספקת והתוצאה של מאות אלפי…  אם לא תוארך הזכאות לדמי אבטלה עד לאוגוסט נגיע לכחצי מיליון מובטלים שרובם המוחלט לא יקבלו דמי אבטלה כלל השאר יקבלו…  בהחלטה משותפת עם Israelkatz העברנו עכשיו החלטה חשובה בהיקף של 340 מלש״ח עבור המענקים המיוחדים בתקופת הקורונה לטוב…  צעדת העו״סיםות היא צעדה למען החברה כולה אני תומך במאבקם בכל לבי ואתייצב לצדם בממשלה ובכל מקום הגם שמועסקים בתנאי…  המענק הזה הוא אוויר לנשימה עבור האוכלוסייה המבוגרת אלפי גמלאים פשוט לא ידעו שאם יעבדו אפילו שעה אחת ילקח מהם מענק…  EsawiFr NitzanHorowitz tamarzandberg עיסוואי עם כל הכבוד ויש הרבה כלפיך קצת התבלבלת בעניין של מי הכניס את מי בחייך zviashkenazi DotzMR netacheha מושלמת זכינו זכיתי  אני שמח שההחלטה התקדימית שקיבלתי מתחילה להניע את גלגלי השינוי עבור המתמחים ומברך את שר הבריאות על הודעתו האמיצה שנ…  הקשישים שלנו לא אמורים להינמק בבדידותם ובעליבותם לא בחייהם ובטח שלא במותם כשר העבודה והרווחה שאמון על עיקר הטיפו…  הנתונים מהערב מדאיגים ולא מפתיעים מאות אלפי ישראלים עדיין בבית לא כי הם מאוהבים באבטלה אלא כי לשוק אין מקום עבור…  GLZRadio שר העבודה והרווחה ishmuli לRinoZror לא אחתום על היתר עבודה של 26 למתמחים   זה שוק עבדים מודרני לא רוצה שמנתח הוריי יחז… GLZRadio השר ishmuli תוקף אצל RinoZror לקחת את הנכס האסטרטגיביטחוני של מדינת ישראל בדמות מחויבות מדינות המפרץ לקידום הנורמליזציה… Israelkatz zionnenko ישראל יישר כוח וכל הכבוד על היוזמה ושיתוף הפעולה גילית רגישות חברתית אמיתית  התחייבתי לבטל את מחדל קיזוז הקצבאות בקורונה ואמש אישרנו את החוק בכנסת 250 מלש״ח יוחזרו לשכבות המוחלשות ביותר בזכות…  בסופ״ש איבדנו את רואן אל כתנאני ואת העובר שנשאה ברחמה לאחר שהוכתה למוות בשטנות ע״י בעלה 12 נשים שכל אחת מהן היא ע…  פניית שגריר האמירויות לעם בישראל היא מעשה אמיץ ומעורר השראה שמלמד על מחויבות האמירויות לקידום הנורמליזציה במזה״ת ל…  gontarzn Anon1450012136 gantzbe netanyahu regevmiri AmirOhana הוא יכול וכך היה עם או בלי קשר למה שכתוב בתקנ…  אדגיש כי לא ניתן מעשית לשנות את המתווה בין לילה באופן פשטני ע״י אי חתימה על ההיתר בכלל דבר שעלול להכניס את מערכת ה…  אין בכוונתי לתת צ׳ק פתוח להמשך ההעסקה הפוגענית של המתמחים ברפואה לכן דחיתי את הבקשה למתן היתר ארוך וגורף להמשך של…  אדגיש כי לא ניתן מעשית לשנות את המתווה בין לילה באופן פשטני ע״י אי חתימה על ההיתר בכלל דבר שעלול להכניס את מערכת ה…  גולני גולני שלי מצדיע ללוחם גולני הערכי הנחוש והאמיץ שהתייצב בגופו כדי להגן על אדם חסר אונים מול התוקפים האלימים    אני שמח שדרישתי החשובה להאריך את מענקי הקיום לבני ה67 התקבלה ומברך את שר האוצר על הצעד הנכון בצד הנעת המשק א…  אני שב וקורא לראש הממשלה ולשר האוצר לאשר הערב את דרישתי להארכת מענקי הקיום לאוכלוסייה המבוגרת ואת החל״ת למובטלים שפ…  בג״צ קבע את המובן מאליו לא הסדרה נועד להשיג החוק כי אם הכשרה בדיעבד של עושק וביזה משכך טוב שנפסל על ידו ברוב מוח…  MKMickeyLevy מיקי תודה על תמיכתך בדרישה שלנו הצלחנו שתתקבל דרישתנו להארכת חל״ת לעובדים ואני משוכנע שהשר כץ…  אין לי כוונה להתפשר על דרישתי להארכת מענקי הקיום לבני 67 שנפלטו משוק העבודה ואם הנושא לא ייפתר לאלתר נביא זאת מיד…  אני שמח שדרישתי להארכת החל״ת גם ביוני התקבלה במלואה עם זאת אסור בשום אופן להפקיר את האוכלוסייה המבוגרת מאחור וחו…  הממשלה חייבת דחוף לחשב מסלול מחדש אחרת עם חצי מיליון מובטלים שאין להם לאן לחזור פשוט נתנגש בקרחון מע׳ הרווחה ממש…  אנו יוצאים עם תכנית חירום עבור ניצולי השואה העניים ביותר במדינה שנפגעו קשות בתקופת הקורונה המהלך ירחיב מאוד את מע…  במקביל הנחיתי לוודא שבכל בתי האבות קיים ציוד מיגון מספק גם במלאי ושישנה הקפדה יתרה על הנהלים במקביל נגביר ונרחיב…  אנו פועלים בצוותא עם ״מגן אבות ואמהות״ וישנה שליטה על מקרה ההתפרצות בבית האבות באור יהודה עד כה נספרו מס׳ חולים מק…  ישראלים רבים יהפכו בקרוב בעל כורחם ל ענייםהחדשים כשיצנחו מהכנסה נורמלית להבטחת הכנסה לזמן ממושך במקום לדחוף לני…  yairlapid יאיר אתה זורק סיסמאות על הרווחה כבר כמה ימים תעשה שיעורי בית אף אחד לא לקח לילדים עניים אוכל מהפה וג…  היי יאיר פשוט מאוד זו משימת חיי ואני מתכוון להילחם עבור המוחלשים כפי שלא היה מעולם בחלק גדול נצליח בחלק אולי פ…  מצדיע למנהיגיות המאבק נגד אלימות במשפחה שהגיע הערב לשיא עלינו להפוך את המשוואה ולספק עולם בטוח ומוגן לנשים ולילדי…  ״חירום״ אינו סיבה מספקת לשוטרים לפרוץ שרירותית לבתים פרטיים לממשלה להורות שבית המשפט והכנסת נסגרים ושהאזרחים מנועי…  קיצוץ התקנים במשרדי הרווחה והבריאות בתקופה זו הוא דבר בלתי מתקבל על הדעת ואדרוש בישיבת הממשלה להחריגו לנוכח הזינוק…  מתוך מחויבות עמוקה לשלומה של האוכלוסייה המבוגרת מהרווחה יקיים הערב לצד ״מגן אבות ואמהות״ ומהבריאות הערכת מצב בא…  חג שבועות שמח     ynetalerts אבא של מאיה ווישניאק ז״ל ביקש משר אחד לקום ולהגיד ׳מעכשיו זה עליי׳ אז שיהיה ברור המאבק כנגד אלימות במשפחה הוא עלי…  נפתלי אין מפה טובה לישראל עם סיפוח ח״צ לא עכשיו ולא בהמשך אזרוח המוני פלסטינים עם נרטיב עוין תביא לתבערה בטחונית…  אחרי העקומה הבריאותית חייבים להשטיח את העקומה החברתית לאחר הקורונה תחולת העוני עלתה ב15 הסיכוי של משפחות עם 2 מ…  אתמול נודע לי כי באחת ממסגרות הטיפול שלנו התגלה לאחרונה חשד לפגיעה והתעללות בחוסה חסר ישע הוגשה תלונה למשטרה והפוג…  צריך לומר ביושר ובהגינות יישר כוח גדול לשר האוצר Israelkatz שגילה רגישות חברתית מיוחדת כלפי ביטול העוול של קיזו…  kannnews שר העבודה והרווחה ishmuli התפקיד הזה זו משימת חיי יש הרבה בעיות במדינה קלמןליברמן KalmanLiebskind asaflib מדובר בהישג חסר תקדים לטובת השכבות החלשות אני מודה לשר האוצרישראל כץ על הגיבוי למנכל הביטוח הלאומי ולנציגי אגף ה…  לאחר דיונים מרתוניים עם נציגי אגף התקציבים עלה בידי להגיע לסיכום בדבר עצירת הקיזוזים השערורייתים של דמי האבטלה מקצב…  תודה מיכל זו רק ההתחלה  המשפחות העניות הן האחרונות שצריכות לשלם את המחיר ואני שמח שהצלחנו להשיג את התקציב להמשך פעילות המיזם לביטחון תזונתי…  אמרתי עתה בישיבת הממשלה שבצד המאמץ להחזיר לתעסוקה מחובתנו לדאוג לאלה שאין להם לאן לחזור יש לפתור את מחדל קיזוז הקצ…  מרכזי היום ומועדוני האזרחים הוותיקים יחזרו לעבוד מחר לאחר מאמץ רב שהובלנו יחד עם מהבריאות והאוצר בדידות הקשישים מ…  אנשים מבוגרים שהמדינה דוחפת לעוני ונאלצים ״לחיות״ על מצות מפסח זו בושה לכולנו מזה כ3 שבועות שאנחנו דוחפים את החוק…  עצרתי הכל ונסעתי למקום בו הותקף השבוע עובד סוציאלי כדי לדבר עם העוסים הם חוד החנית במאבק מול זינוק במקרי אלימות ב…  נשיאנו המיוחד והיקר ruvirivlin פרס את חסותו הערב על המאבק כנגד אלימות נשים והודיע כי יקדיש חלק ניכר מיתרת כהונתו ל…  באירוע לזכר מיכל סלה ז״ל ביוזמת אחותה וחברתי הקרובה LiliBenAmi אשר יזמה הקאתון לפיתוח טכנולוגיות במטרה למגר את תו…  תחושת הבדידות בקרב הקשישים קשה ואסור להקל בה מעבר לתחושה הקשה היא מסכנת אותם בריאותית ונפשית במידה רבה כמשרד הראש…  באחריותי לגייס את הממשלה כדי להעמיד משאבים שיאפשרו הקמת מערך ליווי מעקב והרחקת גברים אלימים הרחבת המעטפת להגנת נפ…  אני נכנס לתפקידי היישר למציאות מחרידה שבה מספר רב של נשים נרצחו מתחילת השנה התופעה המתועבת הזו היא אחת מהבעיות הקש…  במשמרת שלי העו״סים לא יהיו שק החבטות של אף אחד ולא משנה כמה קשות נסיבות חייו הם שנמצאים בקו החזית של המשבר החברתי…  Ayeletnnv Meravbenari תודה רבה איילת יקרה ריגשת מאוד guylerer תודה גיא  Meravbenari תודה נשמה  תודה רמי זו משימת חיי  אני מושבע עתה כשר הרווחה העבודה והשירותים החברתיים של מדינת ישראל לנגד עיניי מיליון מובטלים אלפי בעלי עסקים שנשב…  לאחר מאמץ גדול ומשותף עם ההורים וצוות משרד העבודה והרווחה עלה בידינו להביא לסיום מוצלח של המשבר במעונות היום כ 40…  כואב מאוד את נפילתו של עמית בן יגאל בנו של חברי הקרוב מאוד ברוך רק ביום הזיכרון האחרון ביכה עמית את לכתו של דניאל…  במשבר הקורונה העמותות לקחו על עצמן במסירות את מתן הסיוע הישיר למיליוני ישראלים במצוקה הן פעלו ביוזמתם ועל חשבונם…  צעד ראשון בכיוון הנכון אבל עדיין צעד חסר ומפלה החיילים הבודדים המשוחררים יקבלו מענק בגובה 4000 ש״ח אם עבדו חודשי…  החלטת הממשלה מהערב לאשר את המשך המתווה לקבלת דמי אבטלה הכרחית אך חסרה ומחוררת החיילים הבודדים המשוחררים שוב נותרו…  מודה לחברי המפלגה שאישרו את הצעתנו ברוב מוחץ הכרעה לא קלה אך נכונה נוביל שינוי חברתי טוטאלי ונבלום כל ניסיון השת…  יאיר אני מציע שתתעמק ותדייק קרא אתה את החוק הצרפתי שרצו לקדם בכנסת וגם את ההסכם שבתוכו  פריטטיות ותפוגה לביבי… </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ShayPatael ronitlev12 טופל  HXgZDgEpuj1PDiA ronitlev12 אמא מבגדד ddzmora ronitlev12 מה לא צמחוני בשורבה ronitlev12 אני בצלחת השלישית של השורבה כפרה  ronitlev12 בקטנה  ronitlev12 טוב טוב  מה הכנת לצאת הצום ronitlev12 הלו הלו מה עם הסוכה honeycomb358  amnonbenhaim משתתפת בצערך yelenaperelman גם לקחתי על עצמי החל מהשבוע לראיין בכל שידור שלי אנשים שאיבדו את היקר להם מכל בגלל הקורונה מוזמנים להפנות בפרטי מרואי…  zehavagalon Haaretz אוי זהבה עוד פעם התפקשש לך הפמיניזם YinonMagal רפואה שלמה זהו זה השיא איזה מלך שבת שלום  rothmar Riklin10 tadmorerez48 bardugojacob שמחה תת רמה לא מכבד אותך ולא אותנו גם את הכותב אבל זה כבר סיפור אחר shlomisammy זה מביך אבל קלמן ציטט חצי ציוץ מבלי שהתייחסתי אליו את הדברים כתבתי אחרי הציוץ של בראשי בנוגע לניסיון ש…  shlomisammy האמת שקלמן הכניס אותי וגם לא ביושר פישל לקלמן מפריע שאנשי תקשורת היו בפעילות בליכוד וחזרו לתקשורת הוא כנראה שכח שהיה פעיל פוליטי והוצב ברשימת התחיה לכנסת…  ראיתי הבוקר שלקלמן ליבסקינד מפריע שהייתי בפעילות בליכוד וחזרתי לתקשורת תגידו שמעתם את קלמן אומר את זה פעם על הנדל…  Riklin10 אפשר דוגמה BoazGolan  זה קורע yuvalyoz בול אי אי פלקסין אתה מחסיר פרטים מהשיחה ברדוגו הדגיש את אהבת הציבור הימני בפריפריה ליהודה ושומרון החיבור של המסורתים…  הגיע הזמן שאנשי ימינה יתייחסו לדברים מדוע ניסו להפגיש ולהשפיע על דעתם של עיתונאים על אביחי מנדלבליט  סגן שר הבריאות יואב קיש היו כמה עשרות מקרים של אנשים שאמרו היינו בהפגנה ואחרי כמה ימים גילינו שאנחנו חולים IsraelGaley סגן שר הבריאות יואב קיש אומר לנו הבוקר מעל 6800 נדבקים ביממה האחרונה אנחנו בתחלואה אולי הכי קשה בעולם המציאות ח…  KfirSapir על זה ptrdvd אמרת שי ניצן אמרת הכל ptrdvd וזה עוד מבלי שנכנסת לסטטיסטיקה של אלפי העצורים סתם פעולה שגרתית של שוטרי שטח בהתנתקות עצרו את זכות ההפגנה אוי טוויטר תודה  alonkar3 אמן לכולנו alonkar3 קרה היום בשידור שלי  אין שאלה בכלל CwPmMOYzfhk73VJ מעציב משהו alonkar3 כולנו אשמים  כל מי שמתקהל ולא מקפיד על עטיית מסיכה  סגור yossilevi78 אבל הטינופת בסופו של דבר נרשמת עליך אז מה עשינו פה DiscussingEcon1 יצאתי נגד פתיחת בתי הכנסת ותפילות המוניות ונגד הפגנות הקורונה לא מבדילה ביניהם yossilevi78 הנאורים מבלפור הם החביבים עליי תוך כמה זמן מתחילות בשמאל ההשוואות בין מתווה ההפגנות לתהליכים בגרמניה הנאצית newsisrael13 RavivDrucker תודה חדשות 13 אתם חבורה של אנרכיסטים  תמשיכו לעודד הדבקה בשם אידיאולוגיית רק לא ביבי מוטרפים nadavabeksis JoshBreiner לא לא טיקטוק NadavYonani ranboker ראוי לציין שמי שהקפיד כל הזמן על מסכות ועוד ברדיו היו YairNetanyahu  YaaraZered   לפני חודשיים ויותר  arutz20 ערוץ 20 נענה לקריאתו של שר התקשורת יועז הנדל והחל מהיום יחוייבו כל הפאנליסטים והאורחים באולפן לעטות מסיכות על פניהם כל עוד א… אפרופו השיח על מנדלבליט עכשיו נזכרתי שרק בתחילת החודש הפרקליטות הוציאה תגובה שהיא לא תיגרר לניהול המשפט דרך התקשו…  הסיפור הוא לא המקורות שחגי סגל או עיתונאים אחרים מוכנים ובצדק לשוחח איתם הסיפור הוא החיבור הפוליטי בין מנדלבליט לפ…  TopazLuk מעולה adibergman2 איך מגבה אותו אם היום הובאה חוות דעת חיצונית ההיסטוריה תשפוט את העיתונאים שמגבים עכשיו את מנדלבליט וכן גם את הפוליטיקאים שעד רגע זה חוסם את התקנות להגבלת ההפ…  OriginalMosheC Riklin10 איזה עובדות ידברו אלה שנמצאות בכספת והיועץ חוסם את פרסומן בכל דרך talgilboa הם ימשיכו לכתוב ולקשקש ואת תמשיכי בעשייה זו החלוקה שיתפוצצו baruchikra מוזר עד רגע זה הוא נמנע מלכתוב חוות דעת בעניין אולי לא היה לו זמן כי מה זה כבר התקהלות של אלפי אנשים בזמן שהנגיף משותלל כאן eitanzeliger ריבוי דעה avigrin10 גם הפעם הפקידים מכניעים אותם לא להאמין arutz20 דר אביעד בקשי בראיון לזמן כנסת יש גורם אחד שמוסמך להתקין תקנות גם לפי חוק הקורונה וגם לפי תקנות שעת חירום וזה ממשלת ישראל… ErelSegal 8xJHSXjvLpKXpjK הנה ההסבר שמספק מנדלבליט מרף מסוים השתלחות קשה ומתמשכת במערכות שלטון החוק עלולה להגי…  ErelSegal ועם כל זה אסור להתעלם מכך שנשלח סוג של איום מרומז לנתניהו בהכרזה על נבצרות מהותית אני סופר עד אלף כ…  michaelhoss לא זלזול ולא חוסר כבוד עמדות שונות  המאבק אינו של נתניהו הוא של הימין כולו על המערכות שכוחן הפך מפ…  shilobesheva אז ההצעה שלך היא לוותר על הכל כולל כל הפרשיות הנלוות לתיקי נתניהו נוותר גם על זכות החפות של האזרח ו…  michaelhoss זה מה שהבנת ממה שכתבתי אגב גם אז היו מוכנים לוותר על הניקיון במערכות אכיפת החוק תמורת ראשו של נתניהו כלומר הסיאוב בפרקליטות ביועמשיה…  אפרופו השיח שמתנהל בציונות הדתית הוא התחיל לפני שנתיים וחצי בהארץ ובידיעות זכור לי טור של נדב איל עם ההצעה שנתנ…  מוזר על המחאות הם לא דיברו רק בתי הכנסת מפריעים להם כמעט מפתיע  ביום שישי מנדלבליט אומר במקור ראשון שהוא לא מתנגד להגבלת ההפגנות היום סגן השר קיש אומר שיש החלטת ממשלה אבל מנדלבלי…  baruchikra אוי כמה צביעות כל שבוע אתה וחבריך מקדמים את המחאות הללו בתקשורת כל שבוע מפרים שם הנחיות  עכשיו נזכרת להזדעק ממשלת ישראל שלום אתם אחראים לפארסה הזו אוזלת יד שמסכנת את החיים של כולנו יש כאן חבורה של אנרכיסטים שמוכנים להתאב…  michaeldvorin אין לנו לוקסוס לוותר שנה טובה דבורין שנה טובה חברים  שמרו על עצמכם על ההורים ועל סבא וסבתא שנה של בריאות ויציאה מהמשבר שנחזור להתחבק ולחגוג יחד ללא…  Onetruth011 AvishayBenHaim שנה טובה  AvishayBenHaim אבישי אתה מלך  ריגשת  שנה טובה ומתוקה  arutz20 איש השנה של יערה זרד הרב ישעיהו הבר זצל  הרב הבר הגדיר לעצמו יעד שהיה בוודאי נשמע דמיוני – לבטל את רשימת ההמתנה לכליה בישרא… נציג המשטרה סנ״צ גלעד בהט אומר לנו הבוקר בגלי ישראל הזכות להפגין קיימת אבל אם אנשים יהיו בלי מסיכות ואם לא ישמרו…  GiladFarber להעיף את הטלפון הכי רחוק שאפשר ולהתחיל לאט מספיק כמה עמודים ביום ואז זה כבר יבוא לבד arikbender אריק אל תתאכזב גם זה יגיע  ריבונות סיפוח זה משהו אחר יושבת עם ריקלין בבית קפה  שואלת אותו  איפה המלצרית תכף תגיע  כעבור 10 דקות לא מגיעה ריקלין מה יהיה אין עוגה אין…  GLZRadio netanyahu efitriger מה מה מה היא אמרה שלא ראתה את התמונות ודיברה באופן כללי על מה שנדרש מהם לבצע בתור משלחת alonkar3 dinadayan שכחת את הדר והיא עושה עבודת קודש בזמן שאנחנו מצייצים בטוויטר כדאי להקשיב לה dinadayan הויכוח עם פרופסור ברבש היה השיא של השבוע  ואולי צניעות לא תזיק לאף אחד אין מושג מה קורה עם הנגיף הזה היהירות שלה מדאיגה מאוד dinadayan החיבוק מהתקשורת מתעתע  ועלול להתהפך בבת אחת חראם yarivop Riklin10 ברור בגלל זה מחנה השמאל בישראל מתכווץ לאחמד טיבי וחבריו השונאים שמתמרמרים על השלום הציבור הערבי בישראל מרוויח בענק מההסכם הזה בעיקר בשיתופי פעולה ובעסק…  SLaviod הלב איתם  chagayst ועוד ארק בושה chagayst היה לחיים ולא הייתי אינעל דינק חגי פרשנים חמוצים אייטם על חמישה מפגיני שמאל מחוץ לבית הלבן פוליטיקאי שמכפיש מחנה שלם בפריים טיים רשימת עדים שמתפרסמ…  גאה להיות ישראלית ביום הזה גאה לתמוך בראש הממשלה שמנהיג אותנו לשלום אמיתי גאה להיות חלק מתקשורת ימין מכובדת ואופט…  ronitlev12 האיש שלנו בעולם הגדול  devorah555 Riklin10 זה נכון Riklin10 מה היה קורה אם אתה היית עושה דבר כזה בשידור חי איזה תגובות היו מתקבלות בתקשורת הברברים האלה מהימין וכו הנושא הפלסטיני זה לא אישיו  איראן זה הדבר המרכזי לא להאמין כמה הבלים שמענו לאורך השנים וכמה טוב שגם זה נגמר  CarolineGlick IsraelHayomHeb איזה כיף בהצלחה yairkraus אוף עצוב אוי לא מה יעשו בלעדיו טרגדיה  רגע לפני הסגר פרידה מהקיץ  yanircozin יפה תמיד להקשיב לאישה BoazGolan מהממים תייצגו אותנו בכבוד dinadayan קראתי והתחלחלתי פשוט מפלצות  לא נתפס השר דרעי אומר בלי למצמץ מי שלא מקפיד על ההנחיות והכללים זה רצח זו עבירת לא תעמוד על דם רעך מנהיגי הציבור החילו…  עכשיו גם בחריין מנהיג מימין שעושה שלום אמיתי מהפכה של ממש ביחסים עם העולם הערבי ואין אינתיפאדה ואין מלחמה הערב ב…  IsraelGaley ד״ר DarashLimor לYaaraZered ZivMaor ישראל נמצאת בגל שני מוקדם יחסית משאר מדינות העולם אחרינו צועדות מדינות אירופה… IsraelGaley ד״ר DarashLimor לYaaraZered ZivMaor אם תהיה היענות של 80 בעטיית מסיכה נכונה במיוחד בחללים סגורים שיעור התחלואה כמע… IsraelGaley ״מנדלבליט שולח איום לראש הממשלה בעיתוי מפליא בו אנחנו שומעים את נתניהו מהדהד את מה שחשף עמית סגל  פתאום הפלא ופלא יוצאים… IsraelGaley ח״כ zoharm7 ״אם לא נעצור את המחאות  לא נעצור את התחלואה חד משמעית צריך לעצור את המחאות אני לא מאמין לכך שאין שם הדבקו… אין דרך אחרת לכנות את מה שעשו הערב מנדלבליט והפרקליטות מדובר בסחיטה באיומים  איתות אזהרה לרהמ כדי שיפסיק לדבר על…  האיש שטרפד את ועדת החקירה למחש לאחר שכבר הוקמה בניגוד לעמדת היועמש ועשה רפורמה כדי לכסות על הכשלים והקומבינות ש…  תזכורת רוטנברג הוא החוקר שאמר למתלוננת על הטרדה מינית שישלח אותה לנווה תרצה אם לא תגיד שרהמ שלח אותה כך על פי עד…  liori012 בריאות MDanielLevi הכי משעשעים המפגינים באירופה עם קריאות ביבי הביתה מקווה שמהציאות לא תפתיע אותם malkatwito הכי נכון זה מרביעי  אבל בפרקליטות אישרו חסימת כבישים וכבלו את ידי השוטרים הכל סבבה  אין מה לראות בממלכת האנרכיה  Riklin10 מברוק גיני אלימות נגד שוטרים בחסות בגץ והפרקליטות  YairNetanyahu התוכנית השבועית ברדיו IsraelGaley עם YaaraZered  michaeldvorin וואוו איזה מדהים תעשו דברים גדולים rothmar tadmorerez48 IsraelGaley אוללללללללה JoshBreiner גוש בתור עיתונאי ותיק לא נראה לך מוזר שלא מתקבלים נתוני הדבקה מהמחאות חדשות 12 מציינים את מוקדי הדבקות הקורונה ישיבות מסיבות נוער חתונה גדולה במגזר הערבי רק אירוע אחד נעדר המחאות ה…  Riklin10 שכחת לציין שהוא היה עיראקי אין להם טיפת חוש הומור לחבורה הדיקטטורית הזו  TomerNaor נראה לי מגוחך שרהמ משיב ל12 ו13 על שאלות והם בכלל לא באויר אבל בקטנה אחלה הלל ביטון רוזן כל הכבוד לו ofirsofer uditenne arutz20 שלחנו את המובחרת MDanielLevi אולי הוא התכוון להגבלת כהונה לפקידים כמה חוצפה יש לפקיד בכיר ככל שיהיה להדביק לעיתונאים שהעבירו עליו ביקורת מימין ומשמאל את הכינוי שופרות חייבים לה…  OutToLunchFreak מקרי לגמרי itamarshumi לגמרי תזכורת מנכל משרד האוצר לשעבר טען לתפירת מכרזים באגף התקציבים באוצר בין השאר תחת ניהולו של הממונה שאול מרידור טו…  elirantal אין כסף בפוליטיקה יש אחלה גובים בבנקים פקיד כמו שאול מרידור עדיף שיעלם ממשרד האוצר הגיע הזמן תנו לנבחרי הציבור להכתיב מדיניות ותפסיקו לשים מקלות בגלגלים בתקופת משבר קשה GoelVaknin ברור קיבלתי קצת תובנות לשבת מחברה מהממת שמבצעת דגימות קורונה  שמרו על עצמכם ועל ההורים שבת שלום   דברים שאמורים להיבדק בהליכי מכרז אה נתנו להם פטור אז לא משנה  IlanTsion אתה גדול ronitlev12 וואוו המשנה לפרקליט המדינה נורית ליטמן עלתה לשידור ברשת ב וטענה שההנחיה שפורסמה לא נועדה להפגנות בבלפור אלא הנחיה שמחכ…  סופו של בידוד  עכשיו בגלי ישראל עד עשר עם ZivMaor בואו  לא רק התקשורת הישראלית זה מה שמפריע להם הציוץ הזה מעיד בעיקר על יחסם של אנשי התקשורת ששלטו כאן עשרות שנים על הנרטי…  ramonhaim הועד נגד צביעות ומוסר כפול שמח לבשר לנכים לחרדים  לערבים לאתיופים למתנחלים ולכל מי שמתכוון להפגין מהיום מותר לכם לחסום כב… Irisleal15 היי איריס  גם תמונות כאלה חוטפים שמולי ופרץ  ראית את הכתישה ברשתות החברתיות בחודשים האחרונים נגד אורלי…  Shiritc מברוק ronitlev12 לפני שנתיים בעיצומו של הניסיון להחזיר את המסתננים לארצם פנה מזכל התנועה הקיבוצית לקיבוצים כדי שישכנו…  yesnomabyyes פיד יקר מחפש לצאת מהחלת לעבודה ופתוח להצעות יש לי נסיון רב שנים בניהול שיווק ומכירות ניהול מומ וסגירת עסקאות קטנות… LVolf gilmishali אתגר של טיקטוק השיר והריקוד וכו אני מכורה לשיט הזה IKweller נותנת לך מתכון לשווארמה טבעונית  ואז זה יהיה מושלם היחס שמקבלת אורלי לוי אבקסיס מהמחנה הנאור לא דומה לשום פוליטיקאי גם לא פרץ ושמולי שנכנסו בדיוק כמוה לממשלה הכל כש…  giladzw liranlevi חחח האיש האחרון שהתעניין במה שקורה בשבס אם היה מטפל אולי היום כבר היינו בשלבי פתרון ושיקום הארגון nachiz9   gilmishali אין אין על הטיקטוק  לא רואה את הטוויטר liranlevi WallaNews מה בשבס שלנו smadarshmueli נכון הלם  ZivKnobler מהרגע הראשון יש מצב שניסנקורן שכח שהוא החומה הבצורה של הדמוקרטיה ומגנם של שומרי הסף ברגע שהדמוקרטיה לא הסתדרה לו עם המציאות eitanzeliger מקום מהמם מה שעצוב בציוץ הזה הוא שיאיר לפיד באמת מאמין שהוא חילץ אותנו ממשבר כלכלי כואב הלב  tamnuniter מסכן בר סימן טוב חטף מקלחת בשישי על הבוקר בידיעות אחרונות רק כדי שיצליחו לשווק את הספר של בנט TomerNaor מוזר שאתה בורח מהמהות כל נציגי הערוצים הפנו לרהמ שאלות רק ערוץ 20 שידר את מסיבת העיתונאים עד סופה  ז…  עוד רגע הם יתלוננו שהוא לא משיב לשאלות עיתונאים  התקשורת שנתנה גיבוי לאלימות בשמאל במשך שבועות לא מפסיקה לפמפם עכשיו על אלימות משטרתית במחאת השמאל המשטרה שנכנעה ל…  בן דרור ימיני בואו נדון בשאלה מה הקו שצריך להבדיל בין חברה ליברלית מתקדמת שיש בה זכויות נשים לבין חברה שההפקרות שו…  הימור מערכת היחסים בין גנץ לאשכנזי עומדת להסתיים אשכנזי כבר התרברב לפני חודש בהארץ איך טרפד את הריבונות מול האמ…  חשיפה מטורפת על סגירת בדיקה משטרתית בשקט בשקט של שר המשפטים הנכנס בחודש בו הוא החל את תפקידו במה עוסקים שופרות הדי…  באוגוסט 2017 פורסמה פתיחת הבדיקה בלהב 433 נגד יור ההסתדרות ניסנקורן בעקבות תלונות על זיופי קולות היועמש אביחי מנ…  פרשנים שמסבירים לנו בשיא הרצינות שהודעת הליכוד שגויה כי אין פריימריז בכחול לבן ולכן אשכנזי לא יכול להתמודד פספסתם…  erezto תודה רבה  דש לאמא  ErezZadok1 talgilboa arutz20 כל מילה והשמלה הורסת YairNetanyahu השבוע הפתעה יערה היקרה  בבידוד אז משדר את התוכנית הקבועה מחר ברדיו IsraelGaley  עם האחת והיחידה גלית דיסטלאטבריאן… MDanielLevi לאמילי מואטי עדת מעריצים מאוד מוזרה  כשהיא מתייחסת לתקיפה מינית מבלי לקשור את האירוע למחנה פוליטי היא לא מקבלת אהדה מהמער… f7FEPCkXfGH3sBU ברור תהיה תכנית  אני אחזור בשבוע הבא 5714israel לא בטוחה שמותר לי לומר  omeraricha רק בגלל הבידוד הצלחתי לצפות  היה שווה  נכנסתי לבידוד בתחילת השבוע לאחר חשיפה לחולת קורונה הבוקר קיבלתי תשובה שלילית בבדיקה ממשיכה כנדרש את ימי הבידוד ת…  ranyehoshua בבידוד  shallmiri בבידוד  האמת שאין דבר יותר הזוי משרים בממשלה שיכולים למנוע בחירות ברגע אבל מעדיפים לצייץ בכזה זלזול נגד ראש הממשלה בטוויטר…  ErelSegal מה זה אלשיך שוב משקר  מוזר ולא צפוי בכלל   talgilboa כמה זה אכזרי בלתי נתפס batiag מה פספסתי מנייאכ באופן כללי סדרה לא אמינה שוטר שהופך לחוקר מחש ושומר על יחסי חברות עמוקה עם בכירים במשטרה וגם נשוי לשוטרת…  IsraelHayomHeb במקום לאפשר למחוקק ליצור את ההרתעה בחוק שר המשפטים AviNissenkorn מתמסר להגנה על האוטונומיה של השופטים כשהשר מתפקד כח… ZivKnobler מה עובר על נחום ברנע כואב הלב yairkraus מבודדת ושמחה  ידיעות אחרונות מפרסמים פייק ניוז בכותרת הראשית על מכירת מטוסי F35 לאמירויות ראש הממשלה מכחיש  בבית הלבן מכחישים…  fischlerpini אבל השר אמר שיש הסכמה בינו לבין היועמש וראש מחש נעזוב רגע את זה שהקריקטורה של בידרמן נוטפת גזענות בידרמן לעולם לא יציג את מורכבות המאבק את הבריונות והאלימות של ה…  EladReuven זה מהלך שנוצר כדי לא לחדש את פעילותה של ועדת הבדיקה שהקים אוחנה בפברואר השנה היועמש התנגד לה בגץ עצ…  Talramot לא קמה כבר ועדת בדיקה חבריה מונו מנדלבליט טען שיש מניעה משפטית בגלל ממשלת המעבר בגץ עצר את פעילותה…  תבינו כמה הדבר הזה נורא  עד שהקימו פה ועדת חקירה לבדיקת מחש גוף שכפוף לפרקליטות הניסיון הראשון מזה שנים לחקור א…  התנועה לאיכות השלטון לא עתרה לבגץ נגד הרפורמה שמתכנן ניסנקורן במחש במקום להקים ועדת חקירה למרות שראש מפלגתו מע…  כתבתי על כך בהרחבה לפני שבוע בישראל היום מנדלבליט טען שיש מניעה משפטית בממשלת מעבר כדי למנוע את הקמת הוועדה ניס…  ניסנקורן קובר סופית את ועדת הבדיקה בעניין מחש שהקים השר אוחנה בהיותו שר משפטים אל תחקרו את מחש אל תחקרו את הפרק…  היהודים באים יכולים ללעוג ולבזות את היהדות בכל פרק על חשבון כספי המיסים שלנו אבל אם חלילה אברי גלעד שואל שאלה שפוג…  YairNetanyahu למי שפספס התוכנית השבועית שלי ושל YaaraZered ברדיו IsraelGaley משישי האחרון התוכנית הוקלטה בחמישי לפני הכרזת הסכם השל… rightStudent1 היסטרי  איפה TomerNaor אחלה יחצ עבורם בקושי נחשפתי ליהודים באים עד שדיברו על זה בטוויטר אמצע אוגוסט ועדיין סוער  לא זוכרת ים כזה  charedim10 mohsaud08 yankihebrew אלופים Irisleal15 היהדות זה דבר נפלא האמונה מחזקת את האדם עוד מאה שנה העיתון יעלם ואיתו גם רוב המילים שכתבנו היהדות וה…  מזכיר קיבוץ ניר דוד נבהל מכניסתם של חוגגי המימונה לנחל האסי ללמדכם עד כמה המאבק הזה חשוב וכפי שהוא אומר במילותי…  נראה לי שבתוך כל המרמרת במאמרי סוף השבוע והחמיצות באולפנים אמש אפשר לסמן את שיא השפל במסיבת העיתונאים לאחר שראש המ…  MiriBarbi מה   תגידו  זה אמיתי    NitzanShai aviadglickman benarifake BarashiKinneret   YaaraZered  IsraelGaley העלתה נקודה  עו״ד BarashiKinneret לZivMador YaaraZered ״אתמול הצהירה ליאת בן ארי שהאדם שתקף את השוטר זה לא בנה אוקי… שלום לשרה להגנת הסביבה כולי תקוה שאינך עומדת מאחורי הפשרה של זקי לוי או כפי שמכנים זאת הקיבוצניקים החצופים מניר… </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> talschneider ״אפשר לבדוק את הפרוטוקולים״ אמר השר אוחנה לדוריה למפל על מה שהולך בתוך הדיונים  אבל האמת היא שאי אפשר לקרוא אותם למשך 3… NadavEyal ובישראל נעשה ניסיון בגיבוי היועץ המשפטי לממשלה לצמצם את חופש המידע בעיצומם של ימים אלה צריך להבהיר  אמון הציבור נפגם בגלל… EladSi קראתי את הכותרת הזו על חשיפת מיילים  שמתארים את הלחץ בקרב המדען הראשי והרופא הראשי הבריטים נוכח הביקורת על מודל חסינות העדר ב… haaretzcom How Ruth Bader Ginsburg helped pave the way in the struggle for gender equality in Israel  haaretzcom Australian leader welcomes Israeli ruling to extradite accused pedophile Malka Leifer  BarakRavid אתה חדש בטוויטר chaimlevinson ״בדיונים סגורים״ shemeshmicha יששששששש   ״עשה לנו ביבי״  חתך בדרמטיות משיחת זום רבת משתתפים עקב ״שיחת טלפון חשובה״ מילון הקורונה AmichaiStein1 ״לא הסתייע״ נפלא shemeshmicha שמש אין איזה עימות סוער מתוח דרמטי בממשלה Nefolet כי כך החליט משרד הבריאות כדי לא לשתק ענפים שלמים של ממשל תרבות ספורט ועוד Nefolet מתווה משלחות רשמיות קפסולה  בידוד חמישה ימים  בדיקות התבשרנו כעת כי בדיקות הקורונה למשלחת לוושינגטון שליליות וכי ״ניתן לחזור לשגרת פעילות מלאה בהתאם להנחיות כלל האזרחים…  ארה״ב מתחילה לשפוך היום תוכן להכרזתה החדצדדית על השבת הסנקציות על איראן מצ״ב העולם עדיין כולו מנגד  ReutersIran US set to announce new sanctions tied to Iran arms  jseldin Happening now SecPompeo announces US is sanctioning Irans Ministry of Defense Irans civil nuclear program and others re… natitucker אבי בר אלי פורש מתפקידו כעורך TheMarker אחרי שלוש שנים פסיכיות כולל המהלך לחומות תשלום האתר  קבלו את sivankli העורכת ה… YHepstein מי זו נעה לנדאו הבאה ומה קרה לנוכחית 🤔 AssafYNews תראה אם להיות כנה החלב החביב עליי כרגע הוא שיבולת שועל להקצפה של אלטרנטיב תנובה אבל זה פחות קליט almogbenzikri קלאסי אין על אמיר בהצלחה  yosefyisrael25 למה מה אתה שותה אני עדיין בבידוד אגב מישהו בלשכת רה״מ יכול להקפיץ לי חלב 3 תודה Two Netanyahu aides violate quarantine order after returning from White House signing ceremony  avischarf Now in English  Another Netanyahu advisor violated quarantine orders went shopping while in isolation  If this is how B… BarakRavid אחרי טופז לוק גם יועצו המדיני של נתניהו ראובן עזר הפר את הנחיות הבידוד  וננזף בשנית כל הפרטים בWallaNews  GLZRadio יועצו המדיני של רהמ netanyahu ראובן עזר הפר בידוד ביום שישי כשביקר במרכול במבשרת ציון כך דווח על ידי נעה לנדאו בהארץ עז… arik3000 אני מחבב ומעריך את ReuvenAzar  לאירוע הזה אין שום הצדקה במיוחד שמדובר בפעם השניה צריכה להיות פה הסקת מסקנות לכל הפחות מש… N12News נעה לנדאו מפרסמת בהארץ גם יועצו המדינה של ראש הממשלה ראובן עזר הפר בידוד כשיצא לסופר במבשרת ציון לאחר שובו מוושינגטון למ… idanroll ואומרים שאין אנרכיסטים בבלפור EladSi מייאש yanircozin מגיע בנאדם מבוגר רציני היועץ המדיני של רהמ ולא מצליח להבין פעמיים הנחיות שמשום מה כל העיתונאים הצליחו להבין להישאר… לצערי לא הצלחתי לגלות מה היה דחוף לו כ״כ לרכוש יש ניחושים  יועץ נוסף של נתניהו הפר בידוד ושהה ביום שישי בסופרמרקט במבשרת ציון   talschneider כנראה שהנזיפה הקודמת שעזר קיבל לכאורה מבןשבת לא השפיעה עליו עזר טוען כי הודעת משרד הבריאות שהם בבידוד ״הגיעה רק בשעת לילה מאוחרת ביום חמישי והוא לא התעדכן ומצר על כך״ רק אציי…  בום גם יועצו המדיני של רה״מ ראובן עזר נצפה מפר בידוד כשהוא הולך לסופרמרקט במבשרת ציון אחרי שובו מוושינגטון כן…  NaamanStavy gantzbe EsperDoD נכון רק שבמשלחת לבית הלבן אפילו היה מטוס נפרד וכאן הוא טס רגיל NaamanStavy gantzbe EsperDoD ״בהתאם להנחיות משרד הבריאות הנסיעה תתבצע במסגרת קפסולה גנץ יבוא במגע עם צוות המשל…  Israel’s gantzbe scheduled to meet EsperDoD in DC tomorrow to discuss Iran amp Israel’s QME AKA the UAE F35 deal origivati You cant make this stuff up tovahlazaroff Forget about the Polish Embassy The event whose title is suggestive of the question of whether or not journalism is nee… I have another one Does democracy help or hinder government work What a ridiculous headline for a panel on journa…  In the moment of truth will US bullying force the world to reimpose Iran sanctions Analysis ⁦haaretzcom⁩   הניסיון לכפות הטלת סנקציות על איראן בוחן את גבולות הכוח של ארהב פרשנות ⁦Haaretz⁩   Honduras announces again it will open an embassy in Jerusalem  omertosh בטלפון נחשב horowitzb כן כל מי שהיה במשלחת התבקש להגיע לבדיקה הלילה גם אני הייתי הונדורס שוב הודיעה היום כי תפתח שגרירות בירושלים הם הכריזו לראשונה על כוונתם בינואר 2019 אולם מאז נפתחו בטגוסיגלפ…  גם אני הייתי באותה בדיקה אליה זומן טופז לוק הלילה עם שאר המשלחת לוושינגטון זה היה במשרד רה״מ בפורמט ״היבדק וסע״ י…  מהליכוד נמסר בתגובה ״טופז לוק הגיע לבצע בדיקת קורונה בירושלים על פי ההנחיות שקיבל ממשרד הבריאות עם שובו מהמשלחת לו…  בליכוד מעסיקיו של לוק תכף יגיבו רשמית לפרשה גרסתו הוא היה בדרך לבדיקת קורונה NeumanRoee erancherpak TopazLuk מה הוודאות אתה מעיד שראית וזיהית אם זה אכן TopazLuk הוא אמור להיות עדיין בבידוד כמו שאר המשלחת לוושינגטון  tbWNTkeaNqb6UQ5 ILpolice הבנת הנקרא הייתי בירושלים בשביל בדיקה לא הפגנה מה לא ברור tbWNTkeaNqb6UQ5 ILpolice מכם אני נסעתי לבדיקת קורונה חצוף לILpolice שלום מבינה לגמרי את הצורך במחסומים אבל פחות מבינה למה להציב אחד כזה ביציאה מירושלים דווקא בקצה העליי…  michellenichols US will on Mon sanction some 2 dozen people entities involved in Iran’s nuclear missile arms programs putting te… risjoxford A lot of the things we report on as journalists we report on because they’re surprising They might be surprising because… AymanM Ruth Bader Ginsburg didn’t just talk about justice and equality She personified these principles In 1999 Justice Ginsburg mar… GermanyDiplo The E3  note that the US ceased to be a participant to the JCPoA following their withdrawal on 8 May 2018 Consequ… ExtSpoxEU Iran JosepBorrellF on US announcement on sanctions snapback   cannot be considered JCPOA participant Statecannot in… עם תפוגת 30 הימים לאחר בקשת הסנפבק ממשל טראמפ הודיע הלילה כי יטיל מחדש חדצדדית את הסנקציות הבינ״ל על איראן מזכ״ל…  UN ⁦antonioguterres⁩ told UNSC on Saturday he cannot take any action on a US declaration that all UN sanctions o…  irin I asked When the time comes what would you like to be remembered for Someone who used whatever talent she had to do her work… RIP RBG  KaisDjelassi maryf2017 Indeed it does Trump says Kuwait will “end up” being a part of the AbrahamAccords “fairly quickly”  michellenichols Britain France and Germany told the UN Security Council on Friday that UN sanctions relief for Iran  agreed u… haaretzcom United States hopes to name Qatar as major nonNATO ally official says  אנחנו כזה עם של אוברחוכמים זה משו ABZayed שנה טובה משפחת לוי חוגגת לבד השנה אבל את כתב חדשות 12 הגיוני לארח AfifAbuMuch Prime Minister Netanyahu is eager to expand normalization beyond Bahrain and the United Arab Emirates but many Israeli A… מכירה יותר מדי אנשים שלא שמים על הסגר כבר מעכשיו ככה לא נצא מזה לעולם זה מקרה קלאסי של כשאתם חושבים שאתם עובדים ע…  khalidalkhalifa Wishing my Yehudi Friends in Bahrain and around the world a prosperous Shana Tovah   Bahrain  RoshHashanah EU’s ⁦JosepBorrellF⁩ spoke with ⁦GabiAshkenazi⁩ Recalled EU support for normalisation between Israel amp UAE Bah…  Happy new Jewish year May we all be kinder to ourselves amp others RoshHashanah  KToltz Brilliant And such like that by noalandau  הסכמי השלום העולמי בבית הלבן חלולים כמו הצהרות מיס יוניברס  ולא בטעות פרשנות ⁦Haaretz⁩   EstherSolomon Ten sharp comments on Israels normalization agreements with the UAE and Bahrain from a spectrum of experts with diverse… haaretzcom Israels second coronavirus lockdown starts in less than 14 hours What does it entail  במשרד רה״מ טוענים בתגובה שההנחיה על הבידוד חדשה להם והם יפעלו לפיה והקרקס הוא גם של משרד הבריאות שלא הבהיר מה לעזאזל הוא רוצה מאיתנו למרות ששאלנו כל היום וגם של לשכת רה״מ שקימבנה לעצ…  Nefolet שאלה טובה קרקס מסתבר שמשרד הבריאות הנחה את כל המשלחת לארה״ב ״ללא יוצא מן הכלל״ להיות בבידוד עד יום שני אבל רה״מ ועובדיו פ…  The WH peace declarations were as vacuous as Miss Universe ‘world peace’ statements and by design They were writt…  Netanyahu just announced it will take “several months” till first coronavirus vaccine Guess he didn’t buy into Tr…  נתניהו אמר הערב כי על בסיס שיחותיו עם מדינות שונות לגבי חיסונים ״זה ייקח עוד זמן ייקח עוד כמה חודשים עד שנראה את ה…  DanWilliams In US ally Bahrain Israel deal rallies a weakened opposition  via ElYaakoubi LisaBarrington R… שנה טובה וחודש סליחות משמעותי לשלומי מלאכי שטרח לשלוח לי את המייל הזה במקום לטנף כנהוג בטוויטר וברוח זו ראיתי גם…  עקיצה איראנית על הסכמי אברהם  UAE amp Israel planning to include Palestinian areas in bilateral economic engagements says top UAE official to ⁦…  haaretzcom Coronavirus Israel live Government approves regulations for threeweek lockdown  YossiDorfman וכולם לבנים BarakRavid משרד הבריאות ולשכת ראש הממשלה אמרו לכל הכתבים על המטוס שאנחנו צריכים להגיע הביתה מיד אחרי הנחיתה ולהיכנס לבידוד עד לחקירה א… ממריאים חזרה ארצה נתראה בסגר YunaLeibzon kaitlancollins I think you’re right “This day is a pivot of history It heralds a new dawn of peace” B Netanyahu yesterday   ונזכרתי בעוד דבר בפעם הקודמת שהייתי בשדה התעופה אנדרוז שמעון ריקלין התערב איתי כאן שיהיה סיפוח ושאם לא הוא מפסיק לתמוך בביבי ד״ש ממתינים בשדה בוושינגטון לטיסה חזור בינתיים נזכרתי מה קרה בפעם הקודמת ששבנו מוושינגטון בצל מטח טילים  avischarf Israel signs important peace deal that ended no war noalandau  Analysis  Just realized this lovely elbow is in all my WH ceremony pics I like it though It reminds me of the imperfect rea…  noalandau בוושינגטון נחתם היום לקול תרועות הסכם שלום חשוב שלא סיים אף מלחמה פרשנות ⁦Haaretz⁩   noalandau Israel signs important peace deal that ended no war Analysis ⁦haaretzcom⁩   almogbenzikri אחרי לילה קשה ראש עיריית שדרות נכנס בנתניהו ב200 קמש ואומר לא מוזר לכם כמדינה שהמחבל היחיד שחוסל בעזה בגלל ירי רקטות… Gaza rockets rain on southern Israel morning after US peace signing ceremony IDF pounds the strip  Israel signs important peace deal that ended no war Analysis ⁦haaretzcom⁩   And the BahrainIsrael declaration as we published before  Appendix to UAEIsrael deal  The UAEIsrael deal  Finally The Abraham Accords declaration   בוושינגטון נחתם היום לקול תרועות הסכם שלום חשוב שלא סיים אף מלחמה פרשנות ⁦Haaretz⁩   פרטים ראשונים על ההסכם עם האמירתים ההסכם כולו סה״כ תשעה עמודים במבוא מוזכרת שאיפה לפתור את הסכסוך עם הפלסטינים ל…  IsraelBahrain declaration of peace promises efforts for “just resolution to IsraeliPalestinian conflict”  הצהרת השלום עם בחריין כוללת התחייבות ל״פתרון צודק״ לסכסוך עם הפלסטינים ההצהרה המלאה   Haaretz obtained the declaration of peace between Israel amp Bahrain It includes a commitment to “continuing the e…  עוד היא מציינת כי הצדדים הסכימו ״לכונן יחסים דיפלומטיים מלאים״ וכי הסכימו לחתור להסכמה בשבועות הקרובים על השקעות ת…  הגיעה לידינו הצהרת השלום עם בחריין  היא כוללת התחייבות ל״הבטחת המאמצים להשגת פתרון צודק מקיף ושריר לסכסוך הישראליפלסטיני״ All the clapping and cheering and trumpets and we still don’t know what the hell they were signing מחיאות כפיים תרועות חצוצרה ועדיין אף מילה על מה לעזאזל חתמו היום All updates from the WH ceremony today   Peace treaty   There it is now can someone say what’s in there   Breaking Rocket alarms heard in southern Israel while AbrahamAccords peace ceremony ongoing at WH Trump says the deal will open the doors of AlAqsa Mosque to Muslims Israeli media tried to join live a UAE reporter but it didn’t really work the guy is a pro   Docs are ready   EadoMeron בהחלט טראמפ בפגישה עם נתניהו הפלסטינים יצטרפו גם הם בזמן הנכון אפילו לביבי נמאס ממלחמות  Trump said “Even Bibi gets tired of war” Trump tells Netanyahu at the WH “We went in the smart door and the Palestinians will absolutely be a member at the right time” Netanyahu amp UAE Bahrain set to ink peace deal Live updates here  ⁦haaretzcom⁩   נתניהו ונציגי איחוד האמירויות ובחריין בבית הלבן בקרוב הטקס עדכונים שוטפים   avischarf Netanyahu and UAE Bahrain foreign ministers set to ink peace deal in White House ceremony Live updates fm noalandau    Netanyahu arriving now  LahavHarkov העיתונאיות מכבדות את התרבות המקומית    At the WH  בכניסה לבית הלבן מפגינים נגד נתניהו כולל גונן בן יצחק  avischarf Hours before ceremony Netanyahu finds out hes not authorized to sign UAE Bahrain peace deal  So Bibi had to ask FM Ashken… נצפו במלון כעת חברי המשלחת הבחריינית שחלקם לנים פה איתנו מנסים להבין מול נציג אמריקאי על איזה עותק פיזי שר החוץ…  He said this will be through references to previous agreements signed לדבריו האזכור יהיה באמצעות התייחסות להסכמים קודמים UAE’s AnwarGargash says in zoom briefing the 2state solution will be mentioned in the agreements today השר האמירתי במשרד החוץ אנוואר גרגש אומר בתדרוך זום כי פתרון שתי המדינות יוזכר בהסכמים היום Hours before the ceremony the final details of the peace deals are still unknown but one thing is clear Even unde…  להסתיר להסתיר להסתיר גם כשנתניהו חותם על שלום הוא מתעקש לחבל במאמציו פרשנות ⁦Haaretz⁩   Senior US official says White House will encourage wearing masks at the ceremony tomorrow but it’s not compulsory  על עסקת האף35 שב והביע את עמדת הממשל כי היא עדיין נשקלת אבל הביטחון של ישראל והסכמי היתרון האיכותי יילקחו בחשבון על סידורי הקורונה בטקס בבית הלבן מחר אמר הבכיר  אמריקאי כי הבית הלבן ״יעודד״ חבישת מסכות מחר אבל ״לא יחייב זאת״ gt בכיר אמריקאי אמר הערב בתדרוך לכתבים ישראלים כי מחר ייחתם תחילה הסכם זהה בין כולם ״הסכם אברהם״ ואז הסכמים בילאטרלי…  ruslantrad The details of the agreements between Israel the United Arab Emirates Bahrain and the United States will only be revealed… בשולי השוליים מאז הנחיתה נתניהו לבוש מסיבה לא ברורה כמו יאיר לפיד  BarakRavid רק לי זה נראה כאילו הדפים ריקים ההסכמים לא נראים ארוכים במיוחד  פומפאו משבח את קטאר על תפקידה בעזה  US SecPompeo at Qatar Strategic Dialogue We anticipate other countries in the Middle East will recognize the ben…  hendmana “Substantive peace between nations is only possible if people within those countries desire meaningful change”  My oped in… Senior UAE diplomat OmarSaifGhobash says peace with Israel could help them promote the Palestinian cause better הדיפלומט האמירתי OmarSaifGhobash בזכות השלום עם ישראל נוכל גם לסייע לפלסטינים יותר Israeli Official Final Details of UAE Bahrain Deals Only to Be Revealed on Tuesday   ItayMis נכון גורם במשלחת הישראלית לוושינגטון פרטי ההסכמים ייחשפו רק מחר עקב רגישותם  Officials in the Israeli delegation to Washington say all final details of the agreements with the UAE amp Bahrain…  הוא הוסיף כי ״הנוהל הוא הנוהל הרגיל שקודם כל חותמים ואז מביאים לאישרור הממשלה ולכנסת ככה זה גם היה בעבר בהסכמים בינלאומיים״ גורם במשלחת הישראלית לוושינגטון אומר כעת כי פרטי ההסכמים ייחשפו רק מחר בשל הבנות בין המדינות מדברי הגורם עולה כי מ…  מסכימה שיחשפו את ההסכמים במקום שגורמים אנונימיים יגיבו בילדותיות  לשכת רה״מ מגיבה כעת מפי גורם בפמליה ״המקורות של הורוביץ כפוליטיקאי אפילו פחות טובים משהיה עיתונאי״  שבה ואומרת לפי החוק הסכמים בינלאומיים בישראל מאושררים בדיעבד על ידי הממשלה ואפשר גם הכנסת לא חובה  orsela לא חייבים אישור ממשלה וכנסת מראש אפשר לאשרר בדיעבד peledori לא מדובר בנוהג אשרור בדיעבד maayanef ואנחנו צחקנו על ראש ממשלת סרביה עד לרגע זה התוכן המדויק של ההסכמים שייחתמו מחר בבית הלבן עדיין לא התפרסם לידיעת הציבור כתב ידיעות itamareichner קלט מהחלון בארוחת הבוקר המבודדת שלנו את יועצו המדיני של ראש הממשלה ראובן עזר יוצא לריצה…  chaimlevinson ברור שלכאורה לא chaimlevinson הם בבלייר האוס LahavHarkov Ok the details First of all the White House does encourage people to wear masks This is from the email Abraham Accord… בהצלחה לכולם  “We seek a warm peace with Israel” UAE’s hendmana writes in a special oped for haaretzcom ahead of WH ceremony   ״שלום בין מדינותינו הוא הזדמנות משמעותית אך איננו תחליף לשלום בין הישראלים לפלסטינים״ כותבת hendmana בHaaretz…  “Peace between our two countries is a significant opportunity but it is not a substitute for peace between Israeli…  UAE’s ⁦⁦hendmana⁩ in a special oped for ⁦haaretzcom⁩ ahead of WH ceremony   הנד אל עוטייבה במאמר מיוחד ל⁦Haaretz⁩ לקראת הטקס בשלישי   ⁦hendmana⁩   haaretzcom Netanyahu lands in DC for historic trip and noalandau will be there to follow it all as it happens  avischarf masks on  Bibi and Sara land DC even amd Dermer is not there to greet them  קבלת פנים צנועה בחמש בבוקר בשדה בוושינגטון אפילו השגריר דרמר לא התייצב  avischarf Netanyahu lands in DC for UAE Bahrain signing ceremony noalandau there with updates  התקבל בוואטסאפ  Netanyahu arrives in Washington for signing of UAE Bahrain normalization deals  לסקרנים מלבד זה שנתניהו דילג על השיחה המסורתית עם הכתבים לפני העלייה למטוס בינתיים לא היה שום דבר ״מחמיר״ בטיסה ה…  avischarf Mossad chief sporting 007 looks Working to get more states to normalize relations w Israel  Israel netanyahu and family and delegation just landed in DC avischarf Netanyahu set to depart for DC to sign UAE Bahrain deals  Text of agreements not published yet  US officials hope Tue… להלן הלוק  ראש המוסד הגיע בלוק ג׳ בונד </t>
+    <t xml:space="preserve">naftalibennett החשיפה של עמית סגל מאירה באור קשה את מערכת אכיפת החוק בישראל  יש לחקור את הארועים המתוארים בצורה מעמיקה וללא מורא ולט… shaimaymon למה  naftalibennett פותחים שנה עם חבר׳ה נהדרים ממקיף דרכא ספיר בירוחם  בהצלחה  naftalibennett  MatanKahana מגיעה לנו מנהיגות אחרת  naftalibennett אני מברך את פרופסור רומי גמזו על הצגת תכניתו הנכונה למיגור הקורונה  אסייע לו בכל דרך שהיא   עם זאת זהו ערב קשה וכואב… meravcohenh לאחר שנמנעו במהלך מערכת הבחירות האחרונה להגיד את השם המפורש וחתמו על אין סוף הצהרות נאמנות חכ מתן כהנא בגלצ חוזר לימי ה… YuvalKarni לא יודע מה איתכם אבל אני רואה את יו״ר ימינה naftalibennett מסתער ב200 קמ״ש לטפל במגפת הקורונה כאילו היה הפרוייקטור הלאומי… YotYotam סעמק כבר כמה חודשים שבנט עושה אחלה עבודה באופוזיציה ואז בא יאיר לפיד ומפרגן לו בראיון אצל רינה מצליח לך תצא מזה עכשיו Shiritc בנט השבת במקור ראשון  על נתניהו שסרב למנות אותו לשר הבריאות אני חושב שנתניהו אולי פוחד ממני   על דבריה של אשתו נגד רהמ… mirilavi1 נפתלי בנט במסיבת עיתונאים מודה שאני תומכת נלהבת עוד לפני וגילוי נאות  יש לי הכבוד לעבוד עם האיש אבל הבנאדם פשוט פנומן אם הו… radio103fm לתוצאות הסקר המלא gtgt   AviBenayahu זה נכון מאוד שאם נתניהו ימנה את שר הבריאות הגולה naftalibennett לפרויקטור לאומי לניהול המאבק בקורונה עלול הדבר חלילה להט… tamarishshalom 45 מהישראלים היו רוצים לראות את בנט ממונה למנהל משבר הקורונה  naftalibennett צריך להתמקד בבאילו תנאים פותחים עסקים ולא רק בלסגור  אני כרגע במתחם ״פשא״ בחולון שהוקם במיוחד למען קיום הופעות בידו… AryeErlich ייזכר לטוב הפוליטיקאי היחיד שטרח לעיר ביתר עילית באחד הימים הכי קשים שלה  חבר הכנסת naftalibennett כל הכבוד על האכפתיות… chaimlevinson רגב בדקלוינסון הייתי אתמול מקוזזת בהצבעה והפרו קיזוז הגעתי דקה אחרי וביקשתי להוסיף את שמי   עם מי קוזזת  רגב nachiz9 זמן טוב לסקר  לו היו היום בחירות ואלו היו המועמדים לראשות הממשלה למי הייתם מצביעים meravcohenh אחרי שבנט וסמוטריץ עשו בלאגן עכשיו תורה של שקד שהגישה מועמדות לכהן כחברה מטעם האופוזיציה בועדה לבחירת שופטים  yossidavidov10 סמרטוטי הליכוד  יושבים אז ככה ההצעה להקמת ועדת חקירה לשופטים נפלה בעקבות המספרים הבאים 43 הצביעו בעד 54 הצביעו נגד… avital1974d אגב רק שתדעו regevmiri נכחה במליאה בזמן ההצבעה ובחרה שלא להצביע תזכרו את זה בפעם הבאה שהיא תבוא לגנוב דעת AyeletShaked היום הוא גנז  amitsegal התקלקל ליאיר נתניהו הטוויטר חבר מודאג שואל כל היום הטפות מוסר ומבחני יושר פתאום דממה naftalibennett נקרע הלב  בסוף יום ארוך בו פגשתי בשדרות אשקלון ובבאר שבע בעלי עסקים שעולמם נחרב עליהם הגעתי למהדורת 13 עם מסר לממשל… shaimaymon גל 2 סיכום ביניים נתניהו ישן כלום לא יצירתי  משרד הבריאות ככ איטי אף אחד לא בשטח מביט בעיניים 36 שרים באצהריים בהחזר מי… BenCaspit נפתלי בנט צודק  naftalibennett במפגש עם מסעדנים בעיר שדרות הם זועקים  הצילו את העסקים שלנו הם מבקשים מהממשלה תכנית ווודאות כלכלית כדי להציל את מטה… naftalibennett יורם בתמונה מימין בעל אולם חתונה בבאר שבע ״ההחלטה לסגור אולמות נכונה אבל זה ׳בלוף’ לומר לנו  רק 50 איש בארוע לא מש… michaldiament כרגע נראה שבנט הוא זה שנכנס לתפקיד ראש הממשלה החלופי וגם עושה את זה די בהצלחה YaelLasrii naftalibennett כמה שמחה שבחרתי בך ואיזה קאם באק אתה הולך לעשות תמשיך בדרכךהאוטבוס המאסף התחיל את הקו GLZRadio יור ימינה naftalibennett פונה אצל amirivgi לחברי הממשלה מה אתם עושים שם כל היום אנשים פונים אליי ברחוב ושואלים אם יש… naftalibennett nadavabeksis נדב בדיוק כדי שלא נידרדר לאסון סגרים הממשלה צריכה עכשיו להיכנס לנוהל חירום כמו במלחמה 247 להגדיל… newyamin YairNetanyahu  אני רק שאלה אבא שלך יזם יחד עם לפיד את הקמת התאגיד והצביע בעד או נגד הקמת התאגיד  זה נ ו ר א מבלבל YairNetanyahu  אני רק שאלה אבא שלך יזם יחד עם לפיד את הקמת התאגיד והצביע בעד או נגד הקמת התאגיד  זה נ ו ר א מבלבל 130 שנות התיישבות בארץ ישראל נזרקים לפח  SAD  יש מיליון מובטלים בישראל שעוד מעט יהיו מובטלים קבועים כי הממשלה לא עושה כלום כדי להתכונן לגל השני  כשאין לחם ואין…  naftalibennett חברים הנה תכנית לאומית לקראת גל הקורונה השני הצפוי בחורף—איך לנצח מבלי להרוס את הכלכלה   הגל השני בחורף ישלב קורונהש… naftalibennett ריבונות מתחילה בריבון  בכנסת ובממשלה  מספיק לקטר יש לפעול  התשובה לפסילת חוק ההסדרה היא בשתי פעולות החלת ריבונות ו… naftalibennett אני מצפה מראש הממשלה נתניהו לפעול  להחיל ריבונות ולחוקק התגברות  היתר זה מלל חסר משמעות naftalibennett כל הכבוד  naftalibennett חברים לכל מי ששואל על כך שאין לנו שליטה על מעבר רפיח טכנית נכון  מהותית לא נכון יש לנו אינספור מנופים להשפיע על מ… naftalibennett רבותיי הרה״מים נתניהו וגנץ מדוע אישרתם את הכנסת גופתו של מנהיג הגיהאד האסלאמי רמדאן שלח לקבורה ברצועת עזה  מדוע לא… בושה  יד על הלב נתניהו ככה רק בינינו   אם הפרקליטות היתה סוגרת לך את התיק האישי היית עוזב אותם מפסיק את המלחמה נגדם…  אז למה נתניהו מינה את שי ניצן לפרקליט מדינה נגד עמדתם של בנט אורי אורבך ז״ל עוזי לנדאו ואורי אריאל וכמה הוא שיבח…  avital1974d יאיר אכפת לך להסביר לנו למה אבא  שלך ארח את הפקיד בפנסיה ואת רעייתו הפקידה בפנסיה למספר לא מבוטל של ארוחות ערב hgkkuh שאלה פשוטה אם מערכת המשפט הייתה אומרת לביבי אנחנו מבטלים לך את המשפט ואת כל החקירות העתידיות תמורת זה שתפסיק לתקוף אותנו מה ב… arutz7heb חכ בצלאל סמוטריץ נתניהו לא משדר אמינות bezalelsm  TsahiRight חכ מתן כהנא נתניהו אשם בחולאיה של מערכת המשפט  arielplaksin1 נתניהו האיש שנכנע שוב ושוב ושוב ושוב לכל גחמה משמאל ושהגן על בית המשפט כמו על העיניים שלו לא אכפת להם שיבוא במקומ… RoyIddan אני רוצה לחזור לנושא אשם עד שתוכח חפותו נראה שזה הווייב הכללי של המערכת מול הסגול נכון הרבה מאיתנו מכירים את זה בישראל… הדיל בין נתניהו לפרקליטות  כל עוד הפרקליטות שמרה על נתניהו הוא שמר עליהם מינה את שי ניצן ודינה זילבר והוא בלם כל…  נתניהו עמד ״כחומה בצורה״ מול כל ניסיון לגעת במערכת המשפט   כאשר המערכת רמסה את רפול ז״ל—נתניהו הגן על המשפטנים…  kannnews האם נתניהו אחראי למצבו בגלל הנטייה לתת לצד השני את תיקי המשפטים KalmanLiebskind וErelSegal חלוקים מתמיד  קלמןסגל  קיצוצים זה מאד מאד ראוי אם זה למען התייעלות הורדת מסים אבל לא בשביל להגדיל שומנים וגובים מיותרים במשרדים הזויים ממשלת ביביגנץ שמנה ומנותקת  הממשלה מחר מקצצת בחינוך ובבריאות כדי לממן 2 משרדי ראש ממשלה עם מזכירות מאבטחים לשכו…  יש לך את זה ביותר צבוע  shirlypinto לְמַעַן צִיּוֹן לֹא אֶחֱשֶׁה וּלְמַעַן יְרוּשָׁלִַם לֹא אֶשְׁקוֹט״  יום ירושלים שמח   KahanaMatan החלטה מאד מאד מוזרה של נתניהו להסיר אבטחה משר הביטחון היוצא בנט בעוד שכל שאר שרי הביטחון מאובטחים משך 5 שנים  מדובר בסיכ… RoyIddan לא על החמאה לבדה בשם חבריי התסריטאים אני קורא לשר התרבות טרופר ושר התקשורת הנדל להצטרף לחברם שר החקלאים שוסטר ולעצור מיידית… ממשלת נתניהוגנץ הסוציאליסטית מרוששת את אזרחי ישראל  יש כמיליון מובטלים בישראל ובמקום לסייע להם הממשלה השמנה והב…  arielschnabel מי ששורף את הארץ הזו לא אוהב את הארץ הזו ומוכיח במו ידיו  כי היא לא שלו ולא הייתה שלו  מעולם YinonMagal כמו שאמרתי בגלל שנאה אישית ירו RPG בנגמש ועכשיו נפתחו שערי הגיהנום חבל מיותר ולא תם ביזיון  kannnews תיעוד הצתת שריפה באזור שילה בידי פלסטיני בארבעת הימים האחרונים נרשמו למעלה מ70 שריפות בשטחי יוש חלקן נחקרות כהצתות car… מי פעל בכל כוחו למנוע את שינוי השיטה למינוי שופטים ואף התגאה בכך ש״בלמתי יוזמות שרצו לפגוע בשופטים״ במספר ראיונות YinonMagal מעולם לא הרגשתי כזה ניתוק של בגצ  כמו כשלקחו שיר של נעמי שמר על כיסופי היהודים לירושלים והשליכו אותו על הערבים שאינם בהר ה… haggaisegal ״אשמח אם בפעם הבאה שאתם מונעים מיהודים לעלות להר הבית תשתמשו בציטוט של אמא שלכם לצורך זה ותעזבו את שלי בשקט תודה״ אריאל… מינוי שי ניצן בעד בהתלהבות—בנימין נתניהו וכל שרי הליכוד  נגד  השרים נפתלי בנט אורי אורבך ז״ל אורי אריאל ע…  shakuf1 TomerAvital1 naftalibennett YaelFinkelstein  AyeletShaked הקשיבו לראיון שלי אצל אראל סגל לכל הראיון תקבלו תשובות על הרבה דברים   מורשת הליכוד 43 שנים בשלטון ולא עשו כ ל ו ם לרסן את מערכת המשפט🤬🤬  עכשיו נתניהו קנה עוד 4 שנות תירוצים למה הוא ל…  meirmarcovich netanyahu יכול להתלונן אצל YairNetanyahu  ולהיפך שימינה אשמים  bezalelsm הישג אדיר לממשלת השמאל בראשות נתניהו ביביניצחהימיןהפסיד arielschnabel למי שפספס כשישי שנרב שאל את הנגבי על יומן הפגישות שלו כשר שאין בו דבר וחצי דבר עם ״שיתוף פעולה אזורי״ הנגבי הגיב ״אנ… AyeletShaked אנחנו נהיה פה כדי לאסוף את השברים של מה שישאר מהכלכלה הישראלית אחרי שאתם תגמרו אותה  shaimaymon מצאו את ההבדלים  yehodavald מהציוצים  של YairNetanyahu   ביממה האחרונה אני מבין שבבלפור לחוצים מזה שימינה בחוץ וגם שנגמרו הטיעונים הענייניים rothmar שרים בממשלה מתחייבים לפעול נגד אינטרס הציבור ולמען הפקידות והמקורבים לאתרג את כשלי מערכת המשפט ולהטיל עלינו היטלים ומסים  נו… avishaigrinzaig אני מבין שאתה רוצה לשאול שאלות צהובות כמו כתב אחר חובש כיפה צחי הנגבי 2020  hgkkuh יאללה הגיע הזמן לנעוץ חדש hgkkuh במילים אחרות נגד הסיפוח ככה זה בליכוד לא רגילים לכיפות עם שאלות קשות  RoyIddan שיהיה לכולם ברור זה מה שמסתמן כלכלית כרגע מממשלתנו הנלוזה 1 יוקר המחיה יעלה בדגש על מזון 2 מסים יעלו 3 הוצאות ממשלה י… YairNetanyahu יאיר חלאס להתבכיין  תן דוגמא אחת של משהו שאבא שלך עשה לשינוי מערכת המשפט שלא קשור לתיקים האישיים שלו🤬🤬  עד אז ביבי≠ימין שתפו  Menachemcohen1 זה יותר חשוב מלייצר מקומות עבודה מה יהיה ההישג הכי גדול של ממשלת נתניהושמאלחרדים tsahe YairNetanyahu תספר לנו פעם אחת שנתניהו עשה משהו לשנות את מערכת המשפט שזה לא קשור בו אישית מתי הוא הזי…  YairNetanyahu תקשיב איך אני יגיד לך את זה בעדינותזה לא ממש מעניין אותנו  תספר לנו איך אתם יוצרים מקומות עבודה…  KahanaMatan הסוציאליזם החזירי של חלוקת כספי ציבור לקבוצות לחץ של מקורבי מפאי חוזר לעמדות מפתח בכלכלה יום עצוב לכלכלת ישראל AyeletShaked שר הקלקלה החדש נציגם של הוועדים החזקים יושב בממשלה הכי מנופחת מאז ומעולם ובאותו הזמן מדבר על כלכלה אנושית  כלכלה אנו… יאיר—אתה קולט שיותר ויותר ימנים מבינים שבגדתם בהם🤬🤬  שכאילו ״נלחמתם״ לשינויים במשפט אבל בעצם כל מה שמזיז לכם זה ה…  YairNetanyahu אוי אוי אוי  יש לך תשובה למה כל השנים אביך בלם בגופו כל ניסיון לשנות את מערכת המשפט  למה התחנף לב…  יכול להיות שיש הסכמה נסתרת שבג״צ מאפשר לנתניהו להמשיך לכהן כרה״מ תמורת זה שהוא ״מגן״ על מערכת המשפט מפיסקת התגברות…  netaelbandel לצייצן YairNetanyahu  עוד מינוי משובח של אביך כמו שי ניצן דינה זילבר וציפי לבני   תגיד יכול להיות…  YairNetanyahu YinonMagal AvishayBenHaim יאיר אביך הגן על מערכת המשפט ומנע כל שינוי בה עד שאיילת הגיעה איילת מע…  שר החקלאות החדש מודיע שיטיל חסמי ייבוא  שר הכלכלה החדש מודיע שיטיל חסמי ייבוא   זו כלכלה אנושית שתדאג להעלות עוד…  KahanaMatan 1הגיע הזמן לסגור את גלצ  2 זה עולה כ 40 מיליון שח בשנה יש שם תקנים כמו לשתי טייסות קרב וחצי אייזנקוט 3 תקשורת מ… הרפורמה המשפטית של הליכוד מול בג״צ  יוצאים לדרך 🤦  נתניהו אמר כאן בסרטון החדש שלו ״הענקתי כבישים מחלפים רכבות״   נתניהו הלו  זה מהמסים שלנו הציבור שגביתם מהעב…  נתניהו מעולם לא פתחת את הדלת  השתמשת וזרקת את הציבור הכי נאמן כלפיך  אתה לבדך  לא  AyalaHasson AyeletShaked פייק ניוז מוחלט BittonRosen פייק ניוז מוחלט פייק ניוז מוחלט  naftalibennett היוזמה של אחמד טיבי ועפר שלח לחקיקת ״חוק פסילת נתניהו״ היא מהלך אנטי דמוקרטי קיצוני שמהווה יריקה בפרצוף של חצי מדינה… yeminaparty נתניהו הוא ראש הממשלה עכשיו תשאלו את עצמכם את מי אתם רוצים לצידו הצביעו טבימינה כדי שנהיה חזקים לצידו yeminaparty צאו להצביע ימינה yeminaparty תושבי יוש להתעורר עכשיו יכולה לקום ממשלת ימין רק אם תצאו מהבתים ותצביעו כאיש אחד ימינה טב ShneyVavim הישג ביניים לnewyamin משפחת שווידלר הלא גדולה מהמעוז הלא מובהק רחובות עם שלוחונת בישוב הראשון שלה בארץ מצפה רמון שע… yeminaparty עוד קול ועוד קול עוד פתק טב ועוד פתק טב ונקים ממשלת ימין אמיתית כולם יוצאים מהבית ומצביעים ימינה yeminaparty עוד מנדט אחד לימינה ותקום ממשלת ימין אמיתית צאו מחר והצביעו ימינה IsraelHayomHeb יור yeminaparty שר הביטחון naftalibennett כדי שלא יהיה גירוש נוסף ושלעולם לא נמסור שוב שטחי מולדת לערבים כדי שכל… OfirSof אחיי ואחיותיי תושבי הצפון היקרים הסרטון הזה הוא עבורכם  bezalelsm דתיים מסורתיים וסתם אנשים אחראיים שעדיין מתכוונים להצביע כחול לבן  תחשבו שוב בבקשה זה לא עניין של פוליטיקה הם פשוט הול… yeminaparty אנחנו קרובים להקמת ממשלת ימין ביום שני כולם יוצאים מצביעים טב ומביאים להקמת ממשלת ימין אמיתית yehodavald הסירטון שיכריע את הבחירות  naftalibennett בשבילכם תמיד  שנותיי בצה״ל בהייטק במערכת הפוליטית מתנקזות לרגע אחד  אני מבקש שתתנו לי להמשיך לשרת אתכם עם אהוב שלי… naftalibennett אני כל כך אוהב את העם שלנו  yeminaparty לכל אחד ואחת בעם ישראל יש כוח עז וכמה כוח יש לנו ביחד  yeminaparty בבחירות הקרובות אתם תכריעו זה או ימינה או שמאלה ימינהשומריםעלהבית  yeminaparty אנחנו קרובים יותר מתמיד להקמת ממשלת ימין בהצבעה לימינה תקבלו גם את נתניהו כראש ממשלה וגם ימין אידאולוגי לא מתפשר שיימנע… yeminaparty יש רק מפלגה אחת יש רק ציבור אחד במדינת ישראל שלעולם לא ייתן להקים מדינת טרור פלסטינית שבירתה אבו דיס שבירושלים ביום שני… naftalibennett בוגי יעלון  תקף אותי שלא היה צריך ככה לאסוף גופות מחבלים על מנת להשיב את הדר גולדין ואורון שאול  TzahieRight והנה עוד סיבה נהדרת למה צריך להצביע ימינה בשביל  להכניס לכנסת את  shirlypinto  ayeletkahana סרטון חדש של ימינה עשוי טוב מלא הומור שלא היה כאן מאז אפריל אשתקד ומעביר את המסר עם חיוך חושבת בקול עד כמה ההשפעה ש… yeminaparty עכשיו זה מספיק ברור srugim2020  bezalelsm זה אפשרי זה אפילו ממש קרוב ממשלת ימין שתקדם את כל מה שטוב ונכון במדינת ישראל מפלגה ציונית דתית גדולה ומשפיעה על הערכים… yeminaparty 1 איילת זה עם שני י 2 מה קורה עם הערכת הסיכונים של שרת הבריאות המיועדת בממשלה החדשה בנוגע לנגיף הקורונה והאיום הביול… yeminaparty אם כל הימין ייצא להצביע נגיע ל61 מנדטים ותוקם ממשלת ימין yeminaparty בבחירות הקרובות אתם תכריעו זה או ימינה או שמאלה  AyeletShaked כששר ביטחון naftalibennett במדינה ריבונית מחליט לא לוותר לארגון טרור שמחזיק בגופות חייליו yarivop  אתם מאבדים צלם א… naftalibennett נמאס מהביקורת הצבועה של השמאל נגד ״חוסר ההומניות״ שבשימוש בדחפור כדי להביא אלינו גופת מחבל שניסה לרצוח  ישראלים  רב… KahanaMatan אפקט בנט  גופות מחבלים לא יחזרו עד השבת הבנים אנשי חמאס שנשלחו לאסוף את הגופות נענו בירי לברכיים כך מתנהלים מול ארגון ט… bezalelsm שבוע טוב תפסיקו לדמיין מספרים  צאו להביא מצביעים  יוצאים מהבית ומכריעים  yeminaparty ״לא נהיה עוד הגשר רק במובן הזה שכולם דורכים עליו אלא גשר במובן הזה שכולם מתחברים אליו״ מקיימים את צוואתו של חברינו אורי… naftalibennett איילת שקד לא יעצרו אותנו   AyeletShaked  KahanaMatan שר הביטחון נפתלי בנט הוכיח שוב ששינוי המדיניות שהוא מוביל במשרד הבטחון מניב תוצאות תגובה חריפה ולא מתנצלת היא השפה הנכונה… bezalelsm יאיר תתבייש  איך אתה מעז לבזות את זכרו של קצין צהל גיבור תלמיד של הרב רפי  ולעשות בו שימוש ציני לתעמולת הבחירות שלך נגד… shirlypinto אז ימינה מפלגה חברתית בהחלט  איך זה מתחבר עם הליברליזם  צפו בראיון שנערך איתי בערוץ הכנסת  KnessetT  newyamin  yeminaparty מה שלא סיפרו לכם על משבר האקלים  yeminaparty האם בני גנץ השיב לבצלאל  לא  אז התשובה שלנו תהיה ב 23 KahanaMatan יורדים מהגגות  שמים יד על ההגה  ב 23 שמים טב בקלפי  yeminaparty אף אחד לא יעצור אותנו שימו אזניות פתחו רמקולים ושתפו עם כולם  yeminaparty הזוי שנים שלהקה תקשורתית חד מימדית אומרת את אותם מסרים מחבקת ומלטפת את מי שיקר לה ואת מי שחפצים ביקרו והכל גלוי וידוע ו… yeminaparty שמחים לברך את מועמדת ימינה חכל oritstrock על זכייתה בפרס ירושלים להתיישבות ופועלה לקידום הריבונות המשילות והמשפט   פעיל… yeminaparty אז מה היא בעצם תכנית המאה הזדמנות המאה או סכנת המאה  yeminaparty אתם חייבים לראות את זה בני גנץ על מנהרות הטרור מעזה יש איום התקפי אבל לא מתקפתי  yeminaparty רק היום ורק במפלגת ׳בואו אלינו דתיים׳ השתמשו היום  זרקו מחר בתוקף עד ה33  yeminaparty Kachollavan19 naftalibennett ברחתם עכשיו כשלתם אז  yeminaparty לאן באמת בני ברח צפו עד הסוף  yeminaparty בני בוגי  לאן ברחתם  yeminaparty תכנית המאה הזדמנות המאה או סכנת המאה  TheJeremyMan עובדים ⁦newyamin⁩  yeminaparty יש פנים יפות של הציונות הדתית בחול ויש פנים יפות בארץ   avital1974d יאיר לפיד צריך עשרה מחזורי חיים כדי לתרום לחברה הישראלית את מה שתרם לה הרב רפי yeminaparty 12 האיש והג׳ל חזר לשקר יאיר יש גבול לשקרים ולהסתה נגד הציונות הדתית תחפש מישהו אחר לרכוב עליו הרב רפי פרץ מעולם לא אמ… yeminaparty עכשיו כולנו ביחד שומרים על הבית  yeminaparty עקרונות ימינה 1מתי  עכשיו החלת ריבונות מיידית 2מה  כלל ההתיישבות ולא רק בקעת הירדן 3לא תהיה שום הכרה במדינה פל… yeminaparty מפלגת ימינה היא הבית שלכם כדי שנוכל להמשיך בעשייה למען עם ישראל ובשמירה על ארץ ישראל חייבים להצביע ימינה  צפו בדברים שאמ… yeminaparty עשינו טעויות בדרך אנחנו יודעים זאת אבל התוצאה הסופית היא מצויינת רשימה נהדרת של אנשי עשייה שנותנים את הנשמה למדינה  ht… yeminaparty כרגיל כשמגיע שלב המעשים איווט שוב בורח דווקא עכשיו כשניתן להחיל את החוק הישראלי באריאל במעלה אדומים ועל חצי מיליון מתייש… yeminaparty מעשים לא דיבורים  yeminaparty התנגדות כחול לבן ליוזמה של השר סמוטריץ להצביע על סיפוח הבקעה בכינוס המליאה הקרוב מראה שהם שבויים של אחמד טיבי ואיימן עוד… yeminaparty אחמד בחייאת הפעם תהיה עדין עם יועז realyeminaparty הם יפנו לכם את הבית אנחנו נשמור לכם על הבית  realyeminaparty מתברר שנציג המפלגה שניהלה מומ להקמת ממשלת מיעוט עם אחמד טיבי ואיימן עודה חלש לא רק בכלכלה אלא גם בעובדות אז נזכיר לך… אחרי כל רעשי הרקע מסביב יש רק מפלגה אחת ימינה מהליכוד בואו איתנו  realyeminaparty בבחירות האלה דרושה הכרעה ממשלת ימין או ממשלת שמאל ערבים מצביע ימין שמתלבט בין איווט לימינה הצבעה לאיווט היא הצבעה ו… realyeminaparty איווט בדקנו  realyeminaparty יאיר לא נקבל הטפות מוסר ממפלגה שדחפה להקמת ממשלת מיעוט עם אחמד טיבי ואיימן עודה ימינה מייצגת את הימין האידיאולוגי וא… naftalibennett כיושב ראש מפלגת הימין החדש שמתמודדת לכנסת  וכשר החינוך לשעבר של מדינת ישראל  לא אכלול ברשימה שלי מי שמחזיק בסלון ביתו… יצאנו לדרך  YotYotam בנט צודק מאה אחוז בהחלטה שלו לרוץ לבד הסיכוי היחידי לממשלת ימין הוא שתי רשימות מימין לליכוד נכון שבבחירות הראשונות של 2019… naftalibennett לחימה כלכלית נגד מחבלים עדכון 1  מאהר עבדל יונס הורשע ברצח החייל אברהם ברומברג ז״ל הוא ירה בראשו מטווח אפס  משפחת יו… התחקירן שלנו עוד מחפש  מצילים את העסקים הקטנים  חלק ב׳  למי שאולי פיספס  KahanaMatan לוחמי האש שלנו מדהימים  חבל שוועד הכבאות וההסתדרות עושים הכל כדי להרוס להם  בהמשך לדיבורי איווט הפעם בפגוש את העיתונות חשבנו שנעביר ערב בלי דיבורי איווט אבל מסתבר שגם הערב  איווט עסוק בדי…  איווט תלמד  אחרי שנים של רק דיבורים רגע חריג ונדיר איווט לא מדבר  AnnaBarskiy אחרי שסיעת חדש  פנתה לועדת הבחירות בדרישה לבטל את התעמולה של הימין החדש מהימין החדש מוסרים בתגובה כמה לא מפתיע לראות ש… כשעופר כסיף יוצא נגדך אתה יודע שאתה בכיוון הנכון עופר  אצלנו זה לא מילים  מעשים תתחיל להתרגל  KahanaMatan חוסאם רקהתחלנו  לניצן יש בעיה עם שר ביטחון שעושה ולא שר ביטחון שרק מדבר  naftalibennett יוצאים לדרך מיניתי היום את קובי אלירז לתפקיד מנהל המערכה נגד הבנייה הפלסטינית הבלתי חוקית בשטחי C אחרי שנים של חוסר מ… AyeletShaked כשרת המשפטים העברתי את חוק הטרור כשר הביטחון בנט הפעיל אותו צוותמנצח  איווט מדבר בנט עושה  naftalibennett קובעים ימין בשטח  gantzbe בני תקשיב לגנץ  AyeletShaked למה חייבים מאכער כדי לפתוח מסעדה הרגולציהחונקת  navedromi די מהר מתברר כמה לא ימנים ולא יצירתיים היו שרי הביטחון הקודמים  chaimlevinson naftalibennett חיימקה עכשיו אנחנו יודעים שאנחנו בכיוון הנכון לא מילים מעשים  איילת שקד מעשים לא דיבורים  אז את מי אתם מעדיפים  KahanaMatan הכניסה לעשירים בלבד כך פועלת ההסתדרות להעמקת הפערים בחברה צפו  הימין הכלכלי התחלנו  ליברמן בנט רקהתחלנו </t>
+  </si>
+  <si>
+    <t xml:space="preserve">אחרי ההישג של הועדה בראשותי בו משרד האוצר ומשרד הקליטה תיקצבו את הפרוייקטורים של הקליטה ברשויות השגנו הישג נוסף ב…  כיור ועדת העליה הקליטה והתפוצות אני רוצה להודות לשר האוצר Israelkatz  ולשרת הקליטה pninatamanosh  על העברת ה…  ניראה כי בזמן האחרון אין צורך בסיעת הליכוד מזה זמן רב ישיבות הסיעה מתמעטות וכמעט ולא קיימות כשיש כבר ישיבת סיעה ה…  ZvikaKlein שרת הקליטה פנינה תמנושטה הציעה ש8000 הממתינים יעלו מאתיופיה עד סוף 2022 מתוכם 4500 עד סוף 2020 וב3 שנים יסגרו המחנות… תודה רבה לפרופ שלמה מור יוסף וחברי השר ariyederi על התגובה המהירה ופתרון מהיר של הבעיה  אני מבקש להקים תוך שבועייםשלושה צוות עם פייסבוק ושאר הרשתות החברתיות שיגדיר איזה סממנים יהיו מקובלים על הצדדים כאנ…  לצערי הרב הליכוד הגיע לשפל חדש נתניהו ומיקי זוהר לוחצים על יעקב חגואל לבגוד בחבריו בליכוד העולמי ובסוכנות וזאת תוך…  תודה על הפרגון צביקה  IsaacHerzog 22 קראנו יחדיו לממשלה לגבש ביחד איתנו תכנית לאומית למול גל העליה הצפוי תהיה זו עליה איכותית מגוונת ובתוכה הרבה צעירים… IsaacHerzog 12 שמחתי להופיע הבוקר בועדת העלייה והקליטה של הכנסת בראשות ח״כ דוד ביטן ולהציג את האתגר וההזדמנות של גל עליה שאנו בסוכנ… KnessetT בכינוס של ועדת העלייה הקליטה והתפוצות בערד אמר חכ דוד ביטן בנושא של עולי אתיופיה השכר הממוצע שלהם יחסית לשכר הממוצע במ… שמחתי לקיים את הדיון הראשון של ועדת הקליטה העלייה והתפוצות בשטח בעיר ערד ערד מוכנה לקליטת העולים שיגיעו בקרוב בעק…  SivanRahav היום  16 שנים לפטירת נעמי שמר על משפט אחד שאמרה לבנה אריאל הורוביץ  החלק היומי  SivanRahav ממש במקביל לדיונים הסוערים הבוקר בכנסת דיון בוועדת קליטה על יהדות מרוקו בקורונה דוד ביטן דוד אמסלם עמיר פרץ ונציגי סוכ… חשוב מאוד בתקופה הזאת לעזור דווקא לחיילים הבודדים שנמצאים פה לבד ואין להם גב משפחתי וכלכלי זה המינימום שמדינת ישרא…  ZvikaKlein הערכה לכ50 אלף עולים השנה כמעט פישניים ובמשרדי הממשלה טרם הוגדל התקציב יור וועדת העלייה והקליטה דוד ביטן משרדי הממשלה… yanircozin שיחה מרתקת בין דוד ביטון לבצלאל סמוטריץ מנובמבר 2016 חודשים לפני פינוי עמונה אומר ביטן שחוק ההסדרה לא יציל את עמונה ובכל… TaliPloskov תודה רבה טלי ברכות לרגל מינויו של ח״כ YuliEdelstein לתפקיד שר הבריאות יולי הוא מהמנהיגים הראויים והבולטים של הליכוד ואני בטוח…  בוקר קשה עם הידיעה על דבר נפילתו של לוחם סיירת גולני סמ״ר עמית בן יגאל בפעילות מבצעית בכפר יעבד בן יחיד להוריו מ…  giladerdan1 ידידי השליחות שאליה אתה יוצא טומנת אחריות רבה והיא משימה לאומית מדרגה ראשונה אני בטוח שתייצג את ישרא…   תודה רבה לצוותים הרפואיים יישר כח נמסטה  תומך בחברי יו״ר הכנסת YuliEdelstein שלא לאפשר הצבעת בזק בניגוד לתקנון הכנסת לא נאפשר מחטף זו לא דמוקרטיה jk6GN825EP7YejI RonenRt בכנסת כולם יושבים עם כולם ועובדים עם כולם אבל לא הוקמה קואליציה שנשענת על הרשימה המשותפת…  RonenRt רונן לקחת תמונה מלפני מספר שנים ולהתל בציבור כאילו מדובר בישיבה שנערכה היום זה סוג חדש של שפל אל תנסו להצ…  תודה רבה לכל פעילי  ומצביעי הליכוד על המאמץ הגדול לניצחון הליכוד ומחנה הימין navaboker נאוה היקרה אני משתתף בצער המשפחה תנוחמו מן השמיים shitritketi TzipiHotovely תודה רבה קטי דבריו של יועצי שנכתבו במקומות שונים בטוויטר חמורים מאוד ואינם מקובלים עלי אני מגנה אותם בתוקף אין מקום לשימוש בשפ…  LinoyBarGeffen odeliabn sharmootot אני מגנה בתוקף את האמירות המביישות הללו כלפי נשים בפרט וכלפי בני אדם בכלל ה…  elicoh1 TzipiHotovely תודה רבה אלי 10elilevi sbyifat MKOfirKatz TzipiHotovely תודה רבה אופיר אני מודה לרוה״מ על האמון שנתן בי אפעל באחריות כשטובת הציבור לנגד עיני שאיפתו של כל איש ציבור היא לשרת את ציבור בו…  MotiYogev TzipiHotovely sbyifat תודה רבה מוטי היקר TzachiHanegbi   צחי חברי משתתף בצער המשפחה על מות האם חכ לשעבר גאולה כהן שלא תדעו עוד צער יהי זיכרה ברוך בימים האחרונים קידמתי יוזמה לביטול הפריימריז לראשות הליכוד אני סבור כי בעת הזו יש להתרכז בניצחון הליכוד בבחירות נ…  הגעתי לכמות החתימות הדרושות על מנת לכנס את המרכז להצבעה חשאית לביטול הפריימריס  זאת הצעתי לכחול לבן כדי לפתור את הפלונטר שנקלענו אליו אני חושב שזאת הדרך הטובה ביותר למנוע בחירות ולהקים ממשלת אחד…  היום יותר מתמיד מחזק את ידיך אדוני ראש הממשלה אני סמוך ובטוח שתוכיח את חפותך מאחל לך אורך רוח וחוזק נפשי לעבור את…  תודה על הפרגון נדב  כחלק מתפקיד סגן יור הכנסת צריך לנהל מליאות כנסת את האמת המעמד קצת מרגש בפעם הראשונה  בהצלחה לחברי avidichter  בתפקידך החדש כסגן שר הבטחון netanyahu התכנית הסודית של גנץ לפיד וליברמן gtgt  אני מגנה בתוקף את תקיפת חיילי צהל עי אותם נערים פורעי חוק שצריכים להיענש בכל חומרת הדין חיילי צהל הם הילדים של…  הפעם עברתם כל גבול  אלירן פעם שנייה היום שאתה מצייץ ולא מדייק בלשון המעטה אין קשר בין הציוץ שלך לביטול הגעתי לכנס הציוץ שלך יצא היום…  אלירן ידידי אני לא יודע מאיפה ההמצאה הזאת הייתי ונישארתי איש של נתניהו להזכירך מי שהתחיל את הפגנות הימין בכיכר גו…  שנה טובה  הבהרה למי שהבין לא נכון את דבריי איני מתכוון לפרוש מהכנסת אם יהיו בחירות חדשות הכוונה הייתה לחילופי גברא בתפקיד…  סופית הליכוד קיבל את המנדט ה32 הרכב שלימזוהה ליכודחנה בחניה במצודת זאב בתל אביב וכשירדתי חזרה לרכב גיליתי שניפצו לי את השמשה הקדמית  את חוצפנית כבוד השופט מלצר ניסה במשך דקות ארוכות להשתיק אותך את ילדה קטנה חסרת כבוד חברייך למפלגה התביישו בהתנהג…  לא יודע מה איתך אבל אותי כל יום מזמינים לכל הערוצים בפריים טיים יכול להיות שהבעיה בכלל זה לא אני דרך אגב אני זה…  YoazHendel1  הזמנתי אותך כמה פעמים אבל כניראה שאתה צריך עוד קצת זמן להתכונן אז בזמן ש akivanovick מסדר פריים טיי…  כחול לבן שקרנים אם יש מישהו בליכוד שמדברים איתו  שיראו אותו  קארין לא איימתי על אף אחד אצלנו במפלגה יש דמוקרטיה ונבחריה נבחרים במערכת בחירות עי עשרות אלפי מתפקדים מה שבמפלגה…  היום חתמו ואישרו כל המועמדים בליכוד עד מקום 40 על תמיכה גורפת בראש הממשלה netanyahu תשובה לספינים השיקריים של כחול לבן וישראל ביתנו הגשת הרשימות לכנסת ה22  YoazHendel1 akivanovick  הבטיח לתאם זמן מתאים בערוץ 13 בפריים טיים עקיבא כל המדינה מחכה רק לך יועז אני עדיין ממתין לעימות יש מצב שאתה מעביר זמן כדי להתכונן מספיק טוב YoazHendel1 ברק צריך לתת תשובות ולהיחקר על העניין הזה אף אחד לא נכנס מכוסה פנים סתם ככה לבית  אין ויכוח שנעשו דברים אצל אפשטיין בזמן שהוא היה שם GLZRadio הקרב על הקול הרוסי  חכ davidbitan תוקף את AvigdorLiberman אצל Galgush הוא טוען שמילה שלו זו מילה אבל הוא זנח את מי שה… יש מפלגה כזאת  YakovGrodka הכנו לכם מהדורת סופש מושקעת במיוחד הצטרפו עכשיו לשידור החי מאולפן הוידאו קול ברמה פלוס צפו  ht… YoazHendel1 attaliami יועז ידידי akivanovick  מקדם את זה ויתאם מולך תאריך ושעה ניפגש בערוץ 13 YoazHendel1 attaliami אתאלי אני מאוד מכבד אותך אבל העימות חייב להיות בטלוויזיה כמו שהבטחתי בתוכנית שש עם כמוב…  yanivou YoazHendel1 כניראה שאתה מבין רק מה שאתה רוצה להבין אכן קיימתי עימות עם יועז בטלוויזיה של כמה דקות הזמנתי אותו לעימות של שעה YoazHendel1 יועז כבר לפני כשלושה שבועות הזמנתי אותך לעימות על אידיאולוגיה ואגנדה תקבע תאריך ושעה אני מגיע  avidareli  אלי מי שהפיל ממשלת ימין זה אתם מי ששיקר לבוחרים זה אתם אם אתה חושב שבצעקות הציבור ישכח את זה אתה טועה IsraelGaley ח״כ davidbitan לfathizimri ״טוב שאיוב קרא הלך הביתה משהו קורה לו כל ההתנהגות שלו גם בהרכבת הממשלה הקודמת הוא מבלבל… MaarivOnline ח״כ דוד ביטן הליכוד נגד שר התקשורת המתפטר  איוב קרא הבוקר בתכניתם של פתחי וזמרי ברדיו גלי ישראל אמר ביטן ״טוב שאיוב… שוב האליטות הישנות מגלות בדיוק מה הן חושבות על עם ישראל  מר שביט אני ליכודניק גאה ואני גאה בכל חבריי ומצביעי  הה…  יחד עם כל עם ישראל אני מרכין ראשי בכאב בעקבות פטירתה של רעיית נשיא המדינה הגב׳ נחמה ריבלין ושולח את תנחומיי הכנים…  arikbender רק שותה שוקו ונכנס אל דאגה  אני האחרון מבין חברי הליכוד שצריך להוכיח את מה שעשיתי עבור תנועת הליכוד וראש הממשלה בנימין נתניהו ואת הכבוד שאני רו…  הבהרתי בצורה ברורה בשיחה המוקלטת והדברים אף נכתבו שהעברת מסרים אפשרית אך מינוי לשר רק ראש הממשלה הוא זה שמקבל את הה…    אני שמח שיו״ר ועדת הבחירות כבוד השופט חנן מלצר נעתר לבקשתי כסגן יו״ר הועדה מטעם הליכוד מח…  אני שמח שיו״ר ועדת הבחירות כבוד השופט חנן מלצר נעתר לבקשתי כסגנו בוועדה מטעם הליכוד מחובתי היה לוודא כי רצון הבוחר…     צאו להצביע ולהשפיע מחל מחל ועוד מחל  את השביתות ברכבת צריך להפסיק מייד ניסנקורן שר האוצר של לפיד וגנץ ישבית את המדינה הוא יחזיר אותנו אחורה לכלכלת ה…  אני קורא לאמצעי התקשורת לפנות לגורמי האכיפה המתאימים כדי שאקבל אישור להתייחס לתוכן החקירה ולעדויות בתגובה לשקרים וה…  כבר למעלה מ 24 שעות שהתקשורת ״חוגגת״ בפסטיבל חסר מעצורים בסיפורים ופרשנויות שכאילו ונכתבו בידי סופר ספרי מתח  אי ה…  מחר 43 נפגשים בכפר המכביה בשעה 1830 כנס השקת רשימת הליכוד בראשות בנימין נתניהו My cup of coffee  לצפייתכם דיון שקיימתי בחדשות שישי ברשת 13 במסגרתו אני מתייחס לכל הסוגיות שעל סדר היום    ואם קרה אז מה קרה מה קרה הרבה קרה לצפייתכם  I posted a new video to Facebook  tinman YuvalKarni קל להסתתר מאחורי דמות חסויה ולכתוב הכל קצת הבנת הנשמע לא תזיק לך YuvalKarni יובל כשאתה מצטט אותי אני מבקש שתדייק ולא תחתוך קטעים מתוך דבריי ותעוות אותם להלן הקטע המדובר מתוך הרא…  בזמן אמת אמרתי כשהתקיימו ההפגנות מול ביתו של היועמ״ש בפתח תקווה  השמאל והתקשורת הפעילו ומפעילים לחץ פסול על  גורמ…  שתפו בשמאל קיים משבר מנהיגות לימין ולמרכז יש מנהיג אחד בנימין נתניהו  לצפייתכם ראיון שקיימתי בערוץ 20  שבת שלום…  אני מבקש להודות לרמטכל היוצא אייזנקוט ולברך את הרמטכ״ל הנכנס רא״ל אביב כוכבי המון הצלחה במילוי תפקידו  על כתפיו…  צפייה מהנה  moshehia את האמת לא יוגע אם יש בניהם מתפקדי ליכוד ולא בדקתי מה שכן בדקתי זה את המצב הכלכלי שאליו הם הגיעו בגלל…  אני קורא לשרי הממשלה להעביר ביום א הקרוב את הצעת חוק המתמחים ולסיים עם הסאגה הזאת ל4000 מתמחים אין אוויר להמתין…  longliveisrael1 מי שניסח את הבחינה יצר מצב לכאורה שרק אחוז מסויים יצליח לעבור אותה זה לא שהמתמחים שנבחנו היו פחות…  benash58 חיים לידיעתך מי שדאג להעלאת קצבת הנכים לכ4000שח עד 2021 והצמיד אותה לשכר המינימום זה אני אז להגיב תגובה…  tsuryosef דווקא אני כעוד חושב שנגרם עוול למתמחים אין מה לפחד מעוד עורכי דין בשוק מי שטוב במקצועו אין לו ממה לפח…  DafnaPeler דפנה אם זה היה תלוי בי החוק היה עולה מחר לצערי אני לא יכול להחליט על זה חייבים להעביר את חוק המתמחים מחר אלפי משפחות מתמודדות עם מצב לא פשוט ותפקידנו נבחרי הציבור לעמוד לצידם בדיוק ברג…  ברכות לשי חגג על הזכיה בבחירות ליור מרכז המועצות האזוריות אין ספק שעשית היסטוריה שזכית בתואר כאיש ליכוד כל הכבוד עלה והצלח שלא תגיד שלא פינקתי אותך YuliEdelstein   לא כל יום מחלקים פלאפל חינם במליאה לא יכולתי להתאפק  לאחר שנואש מלחתור תחת ממשלת הימין מתוך הממשלה החליט בנט שנוח לו יותר לתקוף את נתניהו והליכוד בתחפושת חדשה הגיע הזמ…  השחתת קבר אביו של היועמ״ש הנו מעשה בזוי ואני מגנה אותו בכל תוקף מדובר בחציית קו אדום ואני מקווה שהמשטרה תגיע במהרה…  כל מה שרציתם לדעת על החוק לצמצום תאגידי המים של הועדה בראשותי שעבר אמש בקריאה שנייה ושלישית  חוק צמצום תאגידי המים עבר בקריאה שלישית ברוב של 49 בעד עם אפס מתנגדים הציבור ירגיש בקרוב את השינוי  היום נעביר בעה בקריאה שנייה ושלישית את חוק צמצום תאגידי המים של הועדה המשותפת בראשותי חוק שעמלנו עליו רבות ויביא…   arikbender כל שנה יש רעש סביב העלאה האוטומטית של שכר הבכירים שרים חכים וכו ב1 בינואר אז תזכורת בנובמבר 2015 העביר יור ועדת הכנסת… RoiYanovsky אתה מפרסם מידע שקרי אין לעניין הדרישה להחזרת השטח מהיזם כל קשר לחקירה נגדי אתה  משרבב את שמי בכוונה כדי לקבל פרסום שוב פיגוע רצחני שמימדיו טרם התבררו עד תום עלינו להגיע למרצחים במהרה ולהחיל מדיניות תקיפה יותר ביהודה ושומרון הכול…  ידע כל בן עוולה שמתכוון לבצע פיגוע שימיו ספורים הזרוע הארוכה של צהל והשבכ תגיע לכל מחבל ולא משנה כמה הוא  יסתתר…  arutz7heb הליכוד חייב להחיל את הריבונות  סיירתי היום בחאן אל אחמאר וראיתי את ההתערבות הבוטה של האיחוד האירופי והרשות הפלסטינית בשטחי C אנחנו חייבים לפנות א…  קבלתי בכאב רב את הבשורה הקשה על פטירתו של התינוק הפג שאימו נפצעה באורח קשה בפיגוע בצומת עפרה שלשום אני מבקש לשלוח…  סיירתי היום בחאן אל אחמאר וראיתי את ההתערבות הבוטה של האיחוד האירופי והרשות הפלסטינית בשטחי C אנחנו חייבים לפנות א…  תודה רבה סיון  הצלחנו היום העברנו בועדת תאגידי המים בראשותי את חוק צמצום תאגידי המים הבאנו בשורה אמיתית לציבור שסבל מעוולות רב…  sivanhakolkalul שינוי דרמטי במשק המים בישראל פרסום ראשון אחרי מאבק של 5 וחצי שנים חוק המים של הכל כלול עבר קריאה שניה ושלישית התאגי… הסטנדאפיסט נדב אבקסיס ברגע של הומור בכנסת ישראל חג חנוכה שמח לכולם  הייתה הופעה מצחיקה נדב חג שמח לך ולמשפחתך nadavabeksis  אני מחזק את ידי ראש הממשלה ושר הבטחון בנימין נתניהו  צה״ל והרמטכ״ל עם היציאה למבצע ״מגן צפוני״ לסיכול המנהרות ההת…  ראיון בגלצ בנושא תיק 4000 שווה האזנה מלאה  ראיון בגלצהתייחסות להמלצות המשטרה בתיק 4000  מחדד את דבריי למען הסר ספק להערכתי הבחירות יהיו במאי  ראש הממשלה מעוניין להשלים את ימיה של הממשלה עד למועד המקורי…  attilus בציוץ שלך הכנסת את השאלה והתשובה ביחד התשובה הייתה שינויים ולא חיסול אטילה אמרתי  שאנו מנסים לעשות שינויים ולא כפי שכתבת לחסל את מערכת המשפט נא תקן  attilus אטילה אמרתי  שאנו מנסים לעשות שינויים ולא כפי שכתבת לחסל את מערכת המשפט נא תקן kannnews חכ davidbitan בשבתרבות בחדרה הבחירות יהיו במאי לנובמבר לא נגיע אני חשבתי מארס אבל ראש הממשלה התעקש על מאי  והוא זה ש… kannnews חכ davidbitan בשבתרבות בחדרה אם יוגש כתב אישום נגד בנימין נתניהו זה לא ישנה שום דבר ראש ממשלה יכול להמשיך לכהן גם במצב… מנפלאות אופוזיציה חכ HassonYoel  שינה את השעון במכשיר הפלאפון שלו כדי לטעון שנגמר הזמן בוועדת הכנסת ובכך לחסום הצבעה על רוויזיה אני ממש לא נגד regevmiri  אנחנו חברים טובים ואני בעד חוק נאמנות בתרבות אבל אנחנו חייבים לשמור על ממשלת הימין ול…  למי שפספס  כפי שהבטחתי במושב הנוכחי יעבור בועדה בראשותי החוק לצמצום תאגידי המים בקריאה שנייה ושלישית עוד דיון אחד בועדה ונעל…  יואל גמליאל אתה חבר אמיתי המון הצלחה  במסיבת הנצחון של ראש המועצה המקומית גדרה יואל גמליאל המון הצלחה בהמשך בכנס נצחון של ראש העיר הנבחר בבתים צביקה ברוט אני מאמין שתושבי בתים ירגישו את השינוי המיוחל לו חיכו בהצלחה צביק…  צביקה ברוט היקר המון הצלחה בניהול העיר בתים  GLZRadio חכ davidbitan הליכוד לא רוצה בחירות אבל כנראה שזה מה שיקרה כחלון חושב שאם הוא קיבל עוד שני מנדטים בסקר הוא יכול להפיל מ… yossitatika ח״כ davidbitan בpgoshMTP  “אסור להפיל ממשלת ימין״  במסיבת הנצחון של ראש עיריית טירת הכרמל הנבחר אריה טל ראש העיר ברכות מכל הלב נצחון מתוק  דברים שנשאתי בכנס הנצחון של ראש מועצת בנימין החדש ישראל גנץ איש יקר שאני מאחל לו המון הצלחה בתפקיד החשוב והמאתגר  מה השאלה עם יואל חסון  Yoel Hasson ערוץ הכנסת העמוד הרשמי  שולח את תנחומיי הכנים למשפחתו של קצין צהל מ שנהרג הלילה בגבול עזה והחלמה מהירה ומלאה לקצין הפצוע דברים שנשאתי הערב במסיבת הנצחון של ראש מועצת שומרון יוסי דגן שניצח בבחירות וקיבל 81 מהקולות תוצאה מדהימה  ביטן הנשיא לא יעמוד בלחץ אם יהיו הפגנות נגד נתניהו  KnessetT השבוע בתוכנית מה השאלה חברי הכנסת davidbitan מהליכוד ו HassonYoel מהמחנה הציוני מגיעים לענות על השאלות שלכם ושלכן מוזמ… YehudahGlick שגריר ישראל בארגנטינה ומשלחת חברי הכנסת מניחים זר הכנסת באתר הפיגוע בשגרירות HaimJelin meravi11 ishmuli davidbitan d… meravi11 נהדר לפגוש את miriamperetz המדהימה באמצע היום במרכז הספורט של הקהילה היהודית בארגנטינה davidbitan YehudahGlick dudiamsa… kannnews חכ davidbitan לamirbarshalom רהמ תומך בפונדקאות אבל אי אפשר לעשות תיקון חוק באמצעות הסתייגות אי אפשר כל שני וחמישי… kannnews חכ davidbitan לamirbarshalom זה הולך לכיוון עימות נרחב ברצועת עזה היינו צריכים להגיב לפני חודש וחצי רהמ ושר הביטחון… kannnews חכ davidbitan לamirbarshalom לא ניתן למוטט את חמאס אבל צריכים לעשות פעולה עם הרשות הפלסטינית ועם המצרים כדי להוציא את… arutz7heb פערים עצומים בין החרדים לליברמן  haimvais davidbitan צדק כשאמר לי בראיון לפני חודשיים כי חוק הגיוס לא יעבור בשלוש קריאות במהלך מושב הקיץ תידרכו נגדו אמרו שזה שקר אב… talshalev1 טל מזל ששמת לבתוקן  jonatanu תיק 4000 קורס כמו ההגנה של אנגליה טוענים נתניהו נתן עסקת מיזוג בזקיס וקיבל סיקור חיובי בוואלה העובדות לא קיבל סיקור חיוב… כמובן תודה לסיון כהן מהכל כלול שלחצה בלי סוך שהחוק הזה יעבור  כפי שהבטחתי עברה בקריאה ראשונה הצעת החוק לצמצום תאגידי המים במושב הנוכחי ברכות ליוזמים איציק שמולי  Itzik Shmuli והשר אלי כהן  Eli Cohen EranSidis ח״כ ביטן davidbitan עכשיו במליאה ״כשאני רעב באמצע הלילה אני מזיז את המחוגים לשעה של בוקר ואוכל״ היום עברה בועדת שרים לחקיקה הצעת חוק צמצום תאגידי המים של הועדה בראשותי יחד עם elicoh1  ו ishmuli  וכפי שהבטחתי ב…  ishmuli 60 תאגידי המים הם חלק מהבעיה לא מהפתרון ולכן היו חייבים לסגור אותם כבר מזמן בזכות מאבק נחוש שלנו elicoh1 davidbitan siva… תודה רבה לך כבוד ראש הממשלה Benjamin Netanyahu  בנימין נתניהו על המילים החמות מעריך זאת מאוד  כתבה שמסכמת את החצי שנה האחרונה בחיי שווה קריאה  הבטחתי וקיימתי חוק צמצום תאגידי המים עבר בקריאה ראשונה בועדה בראשותי בשבוע הקרוב הוא יעבור גם במליאת הכנסת מיד א…  מזל טוב לחברתי סגנית שר החוץ TzipiHotovely להולדת הבת בריאות לאם ולתינוקת מתוך ראיון בקול ברמה  אני לא מתגעגע לתפקיד יו״ר הקואליציה עשיתי זאת שנתיים זאת עבודה קשה מאד מיציתי דודי אמסל…  efroniido צמצום זאת אומרת סגירה של מרבית התאגידים MosheRoee תאגידי המים AzagiR מי שישלם על המונים הם תאגידי המים ולא הגזרח אני אדאג לצמצם את תאגידי המים בקרוב מאוד אבל לפני כן אני רוצה לספר לכם על הבשורות לציבור שייכנסו לתוקפן מיידית  י…  אני מבקש לברך את חברי השר zeevelkin  על החלטתו להתמודד לתפקיד ראש העיר ירושלים זאב אני מאחל לך בהצלחה כשקידמתי את חוק ההדחה כיו״ר הקואליציה למרות התנגדות של חברי כנסת מהשמאל אמרתי כי הוא יעמוד במבחן בג”צ מאחר והכנסנו…  ReshetBet חכ davidbitan על החקירות נגדו אני לא אחתום על הסדר טיעון אין מצב זה יסתיים בכך שלא יהיה שום דבר מי אמר שהעדות של עד ה… talshalev1 אחרי ששבר שתיקה davidbitan פתח סניף ברוטשילד  omerdos ח״כ yairlapid היום ״הסכם הפיוס עם טורקיה שחתם נתניהו היה טעות״  ח״כ יאיר לפיד ביום ההכרזה על הסכם הפיוס עם טורקיה 27 ביונ… אִם אֶשְׁכָּחֵךְ יְרוּשָׁלִָם תִּשְׁכַּח יְמִינִי תִּדְבַּק לְשׁוֹנִי לְחִכִּי אִם לֹא אֶזְכְּרֵכִי אִם לֹא אַעֲ…  לפני מספר ימים כולנו נחשפנו לתופעת הירי מרכבים שהתרחש בדרום הארץ הצעת חוק שלי ושל חכ דודי אמסלם הקובעת עונשי מיני…  מברך את צה״ל על פעולה נחושה ואפקטיבית אמש לא נאפשר מצב לפיו איראן תבסס מוצב קדמי אשר יאיים מסוריה על ישראל  כל טפ…  נשיא ארה״ב אמר הערב למשטר האייטולות בקול רם וברור עד כאן  האיום שהמזה״ת ייכנס למרוץ החימוש הגרעיני נמנע הערב  פו…  עבר בועדת שרים ועולה לקריאה ראשונה  ליבי עם משפחות הנערים שיצאו לטיול בנחל צפית ולא שבו לבתיהם מאחל החלמה מלאה לפצועים ושהנעדרים יימצאו במהרה שלמים וב…  במסגרת משלחת של הסוכנות היהודית לקהילות היהודיות בארהב שמטרתה לחזק את הקשר בין ישראל ליהדות ארהב הגענו אני וחברי…  לא צריכה להיות סיבה מיוחדת כדי לכתוב לך אבל היום זה יום מיוחד שהוא רק שלך אתה הכוח שמניע אותנו לעבודה בשילוב של…  תרבחו ותסעדו  חג פסח שמח וכשר לכל ישראל  אמש השתתפתי בשני כנסים חשובים מאוד באזור הדרום הראשון כנס התמודדות על ראשות מועצת ירוחם של נציגת הליכוד הנמרצת Nil…  akivanovick יפה שאנשים באים לכנסת להצטלם עם גדולי האומה  הבוקר ביקשתי מראש הממשלה לשחרר אותי מתפקידי כיו״ר הקואליציה  זאת בשל העובדה שהמצב הקיים מקשה על תפקודי ואינני  אחרי לילה ארוך במליאה התעוררתי לבשורה המרה עם לכתו של גדול הדור הרב שטיינמן זצל למשפחתו ותלמידיו הרבים איתכם באבלכם הכבד ומשתתף בצערכם ברגעים אלה ממש בוועדה המשותפת לוועדת הפנים וועדת הכלכלה על תאגידי המים כיבד אותנו בנוכחותו ידידי שר הכלכלה אלי כהן  כדי לפזר את כל השמועות שמסתובבות בתקשורת בשעה האחרונה אין ולא היתה כוונה לכנס מסיבת עיתונאים אין ולא היתה כוונה לפרוש התפקיד או מהכנסת שבת שלום לכל עם ישראל  יום חגיגי בכנסת ילדי עמותת חינוך לפסגות  Educating for Excellence התלוו אלינו חברי הכנסת ליום עבודה בדיוני  אתמול היה יום מיוחד לכבוד יום הילד אירחנו בכנסת תלמידים מ״חינוך לפסגות״ גם לי היה כיף איתך מייקל  I posted a new video to Facebook </t>
+  </si>
+  <si>
+    <t>בוקר של כיף עם עמרי בשופרסל דיל מרוב התרגשות מהאירוע החגיגי כמעט לבשתי את החולצה המכופתרת האהובה עליי ששוכבת בארון…  EliBCook אז מה אם עשירים באמריקה פעם שילמו יותר מס אז מה אם עשירים בעולם משלמים יותר מס בסמינר של קרן תקווהבס…  yonatanlevi יש לציפי לבני הסבר יפה להבדל בין המרכז שלה לזה של לפיד וכנראה שגם זה של רבים בכחול לבן היא אומרת ש…  חבל להתייחס לזה אבל עודה דייק ראיון עמוס בדברי הבל שאין בהם דבר מלבד זרגון אמירות ריקות שהן לא רק משוללות כל יסו…  OdehBisharat מושלם erancherpak אמן בלי נדר KseniaSvetlova קסניה יקרה מאוד חיבוק גדול erancherpak אני ממש בספק השינויים החשובים והיפים שמתרחשים בחברה החרדית בשנים האחרונות לא באים לידי ביטוי ולו במי…  erancherpak הוא צריך להוסיף בביו מדברר פוליטיאים ועסקנים ששולחים אנשים למותם זה עד כדי כך חמור הזוועות שהוא מפיץ פה תפילת נעילה עוצמתית ומיוחדת במינה בשדרות ההשכלה בשכונת ביצרון תל אביב מבוגרים מתפללים ליד ילדים מתנדנדים טליתות…  גמר חתימה טובה לכולם כמה שסבתא חוה זל צדקה כשהיא אמרה העיקר שנהיה בריאים AnshelPfeffer אנשיל לגיטימי לגמרי שהיא תבחר לא לעסוק בסוגיה הזאת וגם לא לקבל את הזמנת שלום עכשיו אבל לאשר ואז לב…  YosephHaddad מי היה מאמין שזה יקרה בהתנחלות מעוז השוויון והדמוקרטיה כנראה יש שם בעיית הסברה BarakHer ברק יש חיץ מובהק וברור בין תנועת החרם לבין השמאל הציוני בישראל הם לא מעוניינים בשום קשר איתנו ולהפך חי…  gutweind רק צריך לומר שהביקורת של תנועת החרם ושל הפוליטיקה הפלסטינית בארהב כמו גם של מעגלים אקדמיים רחבים שאתה מכ…  gutweind בהחלט מעניין אם גדול הציניקנים בפוליטיקה הישראלית יעשה חשבון נפש ביום כיפור על ההתעקשות שלו שבתי הכנסת יישארו פתוחים ברא…  amitd441 או זה אכן סלע המחלוקת בינינו amitd441 ולגבי גביזון קראתי ואני מכיר היטב אני חותם על הגדרתה של מדינה יהודית ודמוקרטית amitd441 לא כתבתי שעודה ישיר את התקווה או יצדיע לצהל כתבתי שהנכונות שלו להיות חלק מהפוליטיקה הישראלית הממסדית וש…  amitd441 אני מסכים עם זה לגמרי פשוט בגלל שהימין שולט בישראל באופן די מוחלט לא מעט שנים ובגלל שמהלכי החקיקה חוק…  amitd441 ועוד משהו אנחנו מנהלים ויכוח טקטי אבל אני מנחש שיש בינינו מחלוקת על מהי יהודית ודמוקרטית וממנה נובעת המ…  amitd441 רואה בעצמו חלק ממחנה המרכזשמאל ולפיכך מוכן לפשרות עם האידיאולוגיה הטהורה שלו כפי שכולנו עושים בוודאי ה…  amitd441 ישראל כפי שהיטיבה לתאר רות גביזון היא בו בזמן מדינה יהודית ומדינת כל אזרחיה אין מדינה שאינה מדינת כל א…  amitd441 מלבד בתפיסת העולם של מהי מדינה יהודית ודמוקרטית היא ההבחנה בין חוסר הסכמה לבין חוסר לגיטימיות אני לא מס…  amitd441 לא הקרן החדשה תומכת גם בארגוני חברה אזרחית ערבים שאינם ציונים וטוב שכך לגבי ארגוני זכויות אדם ממה שאנ…  amitd441 וכיוון שהאזרחים הערבים ונציגיהם לא היו ציונים ולא יהיו ציונים ולא יתרגשו מהסמלים והטקסטים שאתה ואני מתרגש…  amitd441 מהותית אתה צודק הניתוח שלהם את הציונות לא מאוד שונה זה מזה והוא בוודאי מאוד שונה משלנו כציונים השאלה ה…  yonyyony תודה רבה ShMMor כל מילה בסלע amitd441 הויכוח בין שמאל ציוני ללא ציוני הוא ויכוח שולי מאוד בפוליטיקה הישראלית אני מוצא את עצמי מנהל אותו כשאני…  amitd441 מה שכן יש זה את הפוליטיקה הערבית בישראל שהיא אכן  באופן לא מפתיע לא ציונית שם ההבדלים הם בין כאלו שמוכנ…  amitd441 זה לא המעגל שלי ואני לא מכיר כאלו בשלוף בלד הם כאלו וכל מי שתומך בחרם על ישראל כולה מי שחושב שכל צור…  amitd441 חביבי אין פה שום התפכחות את ההבדלים בין שמאל ציוני שרוצה מדינת יהודית ודמוקרטית ללא אפליה וללא כיבוש לב…  YaelBerda Mickeygitzin lihiy ygurvitz OrenNahari talschneider AOC JacobMagid TimesofIsrael אני אכן מתנגד ל…  YaelBerda Mickeygitzin lihiy ygurvitz OrenNahari talschneider AOC JacobMagid TimesofIsrael אני מניח שההבחנ…  YaelBerda Mickeygitzin lihiy ygurvitz OrenNahari talschneider AOC JacobMagid TimesofIsrael אנשים שלא מקבלי…  8 למה זה מבאס כי קורטז לא שואפת להיות מלכה הביצה של הבייס הרדיקלי אלא פוליטיקאית משפיעה ברמה הארצית כלומר שואפת…  7 וכמובן שמעל הכול הביטול של קורטז הוא שגוי פוליטית היא זוכה למחיאות כפיים בבייס הרדיקלי אבל ל95 אחוז מהדמוקרט…  6 הכי חשוב זה איפה אתה מדבר ומה מסמלת הבמה הזאת ומי עוד דובר בפאנל והאם הוא טהור מוסרית כפי שמצופה ממך להיות הכי…  5 אותם אנשים שהביאו לביטול השתתפותה של קורטז עשו את המוות לאיימן עודה על השתתפותו בכנס גייסטריט אז מה אם מדובר ב…  4 כמובן שהסכמי שלום ברחבי העולם ובמזרח התיכון נחתמו כמעט רק עלידי מנהיגים עם דם על הידיים שבאו מהשדרה המרכזית…  3 לפי הגישה הזאת שמצפה מפוליטיקאים בשמאל להיות דוברים נאמנים של אתיקה טהורה ולא אנשים שנמצאים בעמדות כוח כדי לקדם…  2 הסופר המחונן וידידי החכם MattiFriedman טוען כבר שנים שהאגפים הרדיקליים בשמאל העולמי מאמצים נקודת מבט על ישראלפ…  1 אז אלכסנדריה אוקסיוקורטז ביטלה הגעה לאירוע זיכרון לזכר רבין שמארגנת שלום עכשיו ארהב לאחר שהבייס הרדיקלי ותומכ…  eyal6699 thedrow אני ישראלי זה חשוב לי עמדתה לגבי ישראל חשובה לי יש שמאלנים קוסמופוליטיים עילאיים מבחינה מוסר…  doronziv Mickeygitzin grapesofwhat thedrow וכל זה לא היה חושב לו היה מדובר במישהי אחרת אבל כיוון שהיא רואה ב…  doronziv Mickeygitzin grapesofwhat thedrow שנית זו עמדה רעה מבחינה פוליטית היא זוכה למחיאות כפיים בבייס הרד…  doronziv Mickeygitzin grapesofwhat thedrow שום פאניקה מוסרית פשוט מחלוקת הקו שלה נוראי ראשית מהותית כי א…  Mickeygitzin grapesofwhat RamiHod thedrow אני לא מזלזל באף אחד ולא כל אחד יש תפקיד בזירה אבל במקביל הניסיון למצוא אנשים טהורים… maoritzk yonatanlevi מאה אחוז maoritzk yonatanlevi היי מאור אני איש שמאל ציוני וסוציאל דמוקרט על כל המשתמע מזה אלו עמדותיי giladlevi73 revitalamiran yonatanlevi צודק זה פשוט בייס שנעים להקשיב לו במירוץ למי יותר רדיקלי בתוך השמאל אבל…  thedrow רק עופר כסיף או חגי אלעד יעשו שלום כפי שבני דמותם  נציגי השוליים של השוליים של השמאל  הם אלו שעשו שלום…  RoyIddan yonatanlevi זה לא מפתיע אותנו רועי יודעים היטב שעבור החברה האלה גם אנחנו בשמאל הציוני נחשבים לימין קיצוני MairavZ arnondeg לא לתמוך בפתרון פוליטי קונקרטי אלא בצדק זה נחמד לסוציולוג בברקלי לא לפוליטיקאית להקשיב לאגפי…  MairavZ arnondeg מה שכמובן מדהים זה שבכירים פלסטינים בפלסטין ובישראל משתתפים ומדברים באירועים לזכר רבין אבל זה ל…  MairavZ arnondeg ביטולה המוחלט של המדינה היהודית יהיו גבולותיה ותצורתה אשר יהיו דה קולוניזיציה של המרחב או קש…  NadavEyal הטירוף הרדיקלי בהתגלמותו arnondeg כן ברור כי מה שמעניין אותם הוא סיום הכיבוש בוודאי abuofir yonatanlevi אופיר מתערבים על ארוחה metukidror yonatanlevi לגבי החברה האלה באמריקה אין עתיד אנחנו ימין קיצוני מבחינתם natansachs alexbkane Unbelievable הטירוף בהתגלמותו קורטז ביטלה השתתפות באירוע לזכר רבין כי הצעקנים והטהרנים הרדיקלים הסבירו לה שמי שפיקד על מלחמות ל…  UriKeidar shaiagmon yonatanlevi ביטלה איזה טירוף יא אללה UriKeidar yonatanlevi orikol השאלה איזה מירוץ במירוץ הפופולריות במחלקה ללימודים פוסטקולוניאליים בברקלי ובקרב קוראי 972 היא מנצחת בגדול thedrow orikol yonatanlevi טוב אם פלסטינים אומרים אין מצב שזו גם עמדה שגויה thedrow yonatanlevi ברור עופר כסיף יהיה זה שיחתום יום אחד על הסכמי שלום לא בן דמותו של רבין yonatanlevi איזה טרלול היא בטוח תרד מזה עכשיו YaaraZered את אחת מגידולי הפרא אפס רקורד אפס הישגים אפס אתיקה אפס מחויבות לעיתונות לעובדות למשהו חוץ מלאדון ishmuli ההגבלות מטרתן לעצור את התחלואה ולא להשתיק את המחאה בוודאי שלא אסכים לסיכולה הממוקד בתקנות שעת חירום בשל עיסוק אובססיבי בלתי פ… yaronkel נכון Mickeygitzin נכון ועדיין הוא צודק ובמחנה שלנו לא קרובים אפילו להבין את זה עם הפחד העמוק והמשתק מכוח שנים שגידולי הפרא התקשורתיים בימין בלשונו של KalmanLiebskind חוברים לגופים כמו אם תרצו ומנהלים קמפיין הסתה ודה…  arielikobi itzikelrov לא עדיף לעזור במקום להפגין אתה רציני יש לך תודעה דמוקרטיה של נתין נטול זכויות באימפריה העותמאנית UriKeidar אתה UriKeidar למה את מצייץ בזמן זום זה לא לעניין nivshai פח זה לא מילה itzikelrov אפשר להעיף את נתניהו לתהומות הנשייה גם בלי בחירות כל מה שצריך זה פוליטיקאים עם עמוד שדרה מהקואליציה והאופוזיציה שיתאחדו ב… הישרדות אישית ומילוט ממשפט מעל הכול בריאות הציבור מתחת להכול בכחול לבןהעבודה יודעים את זה בימינה יודעים את זה…  AlonLeeGreen הפעם אתה טועה חבר הקו שמייחס הכול לבלפור אכן מזעזע על גבול המכחיש קורונה ובעיקר הרסני פוליטית אבל…  AlonLeeGreen  GaliGnt מנעד רגשי ושפתי של בתי בת ה4 GONENB1 LVertzhaizer  LVertzhaizer נחשי אם אכן הולכים לסגר מלא וההחלטה תתקבל בניגוד לעמדת גמזו ומשרד הבריאות ורק במטרה לחסל כל סוג של מחאה נגד נתניהו כל ה…  TehilaFriedman 1 מערכת החינוך צריכה להיות סגורה אין ברירה אבל אי אפשר לצפות שהורים ימשיכו לעבוד לא נאשר סגירה של הגנים בלי פתרון ל… EilonTohar נכון מאוד וזה לא רק עניין אלקטורלי זה פשוט חרא בול  YHepstein ולמה שאני לא אוהב את זה יש לי מחלוקות אידיאולוגיות קשות גם עם המשותפת ואני מפרגן להם אכן החכים של הימי…  YHepstein צודק במאה אחוז ChenSror הבחירה לסמן יהודים בצד אחד וישראלים בצד השני היא מודעת וכל עניינה לייצר גרסא חדשה של שתי הממלכות הנפרדות יהודה וישראל שתיה… לא שזה מפתיע למי שמכיר את AyOdeh  AidaTuma  DrJabareen וחברי כנסת נוספים מהרשימה שליחי ציבור ולא רק הציבור ש…  לא מדברים מספיק על ההתנהלות המנהיגותית והמרשימה של חברי הכנסת מהרשימה המשותפת במשבר הזה גיבוי מלא להחלטות שמטרתן ש…  NitzanHorowitz הבעיה הכי קשה בסגר הזה עוד פיטורים והוצאה המונית לחל״ת עכשיו מצטרפים כ100 אלף איש לדורשי דמי האבטלה זה הרסני למובטל… tomereznik kerenberlk amirperetz לדעתי זה זה והחשדנות העמוקה של בכירי האוצר 100000 ישראלים הוצאו לחלת מאז ראש השנה שיעור האבטלה בישראל הוא הגבוה במערב כבר באפריל היו גופי מדיניות ואנחנו…  שרשור מצוין  בסד  Itaigutler נביא בעירו לא תהיה יציאה מהמשבר בלי שינוי במדיניות הכלכלית זה מה שצריך לעשות 1 סבסוד שכר במקום חלת 2 מענקים פשוטים ומהיר…  eyaldatz kann בהצלחה אחת הסיבות לכך שאף אחד במרכזשמאל לא מאיים כרגע על נתניהו והימין היא העיסוק המוגזם המאוס והמטוטמם מבחינה פוליטית ש…  Yesodotorg חשבון נפש כלכלי בגל התחלואה הראשון ישראל בלטה לרעה בכל הנוגע לניהול הכלכלי של המשבר כעת בצל הגל השני על הממשלה לגבש תקצ… נפתלי בנט המאמי הלאומי החדש מסתיר את העמדות החברתיותכלכליות שלו כמו שהוא מסתיר את סמוטריץ ואת שאר הגזענים שברשי…  Malileonard2 המדינה לא תומכת בו זה גוף פרטי שעושה פעילות לגיטימית אין צורך לרדת לרמת אם תרצו בנייר מדיניות חדש מציעים בפורום קהלת את הצעדים הבאים הפחתה זמנית של שכר המינימום העברת תשלום מעסיקים לביטוח הלאומ…  חצי שנה מפרוץ המגיפה והאפשרויות שמעמידה הממשלה בפני הגנים והכיתות הנמוכות הן עדיין בינאריות פתוח או סגור פעילות מ…  חחחחחחח  YaronHD באתר ynet פורסמה הבוקר כתבה מתורגמת מאת סוכנויות הידיעות שהיתה צריכה להרעיד את אמות הסיפים אבל כנראה שכאן תתפוגג לריק על רקע… Sykocan LevineHagai מדויק ShaniAshkenazi שני עכשיו את האישה הנמוכה החשובה בעולם AybeeBinyamin אתה שילוב ייחודי של בור ודביל בדרך כלל זה סתם פאתטי עכשיו זה כבר ממש מסוכן Mickeygitzin NitzanWaisberg מה שמיקי כתב NitzanWaisberg וכל מה שכתבת על מערכת החינוך ומדיניות הממשלה מדויק וגם המחאה חשובה מאוד ומרגשת מה שלא לעניין זה ה…  NitzanWaisberg את מוזמנת להיכנס לדיגיטל של קרן ברל כצנלסון לקרוא ניירות שלנו שמוצגים מדי שבוע בכנסת פעמים רבות ע…  NitzanWaisberg את ממש חושבת שמה שאת עושה הוא מרכז העולם אה אם לא סעדתי בבלפור אז לא עשיתי כלום את מודעת לזה שיש…  NitzanWaisberg וגם התשובה הטפשית הזאת היא וואטאבאוטיזם נחות מדיניות הממשלה היא חרפה נתניהו מושחת ומסוכן אין שום…  בתוך יומיים מתו בישראל 57 אנשים מקורונה מי שלא שומר על כללי הריחוק החברתי הוא עבריין לא משנה אם הוא מתפלל בבית כנ…  NitzanWaisberg איפה הייתי את אמיתית את בסרט שאת רזיסטנסנס במלחמת העולם השנייה ושמי שלא חי בסרט שהוא כזה הוא צייצ…  NitzanWaisberg וואטאבאוטיזם ילדותי מזיק ומסוכן Mickeygitzin מי שמכחיש קורונה פועל באופן מכוון נגד הנהלים מסכן את הציבור גם במצב בו קשה להאמין לאינטרסים של הממשלה חברה לא יכולה לא… OriRamati  Tsur נכון אז מה אתם מתכננים להראות לילדים בטלוויזיה בתקופת הסגר המלצות לסדרות וסרטים איכותיים לגילאי 45 yaelshevach שנה טובה יעל למה אתה מצביע ימין ומקבל קורונה  filbers התכוונתי לבקש הוכחות לטענות המגוכחות שלך אבל נזכרתי שהאמת היא תמיד נר לרגליך אז אני מאמין אוטמטית אדם ישר דרך שכמוך   הנה מה שצריך לעשות התכנית לשינוי יחסי משפחהשוק עבודהמערכת החינוך של יערה מן ראש תחום ח…  המגזר הפרטי ימשיך לעבוד כרגיל מערכת החינוך תיסגר הנה על רגל אחת עיוורון המדיניות הציבורית בישראל כלפי משפחות צע…  שכונה  horowitzb עכשיו שסגרו את מערכת החינוך כולל גנים אני בטוח שיוציאו לפועל את תכנית המגירה שמשרד החינוך עובד עליה בחודשיים האחרונים בדיו… revitalamiran בהצלחה רויטל יקרה דעו מה להשיב לאלו שבניגוד לכל היגיון כלכלי וחברתי רוצים לפגוע דווקא בתקופה הזאת במגזר הציבורי YaaraMann ראש תחו…  זה פשוט לא ייאמן שהם בלי מסיכות ובלי ריחוק חברתי ובלי כלום אצל טראמפ זו אידיאולוגיה אנטי מדע אנטי מומחים אנטי מ…  פליז פליז פליז שבהסכם שנחתם היום מסתתר תת סעיף שמחזיר אותנו לבית האסייתי במוקדמות המונדיאל אוהב אותך ביבי לעד AlonLeeGreen אתה רומז שהקורונה היא לא קונספירציה של ביבי תמיד כדאי לקרוא את RonnyLinder  הפעם זו ממש חובה טקסט מעולה   ShMMor לפני שחנויות הספרים נסגרות לשלושה שבועות צאו לקנות את הגיליון המקסים של תֶּלֶם  כתב עת לשמאל הישראלי שמוציאה קרן ברל כצנלסו… itzikelrov אנחנו עוד מעט חוגגים שנה לקורונה וחלק מכם לא טרח לעשות שעורי בית בסיסיים סביב האירוע  בניגוד לעבר זה כבר לא השערות יודע… amitbentzur סטנלי פישר בראיון סוציאלדמוקרטי  הבנק המרכזי יכול להמשיך להזרים כסף זול  צריך להשתמש במדיניות התקציבית לצמצום איהשווי… kerenberlk העונה הבאה של הישרדות כבר כאן כשישראל נכנסת לסגר ומאות אלפים נוספים בדרך לאבד את פרנסתם – המדינה עומדת לקצץ 10 מדמי הא… kerenberlk ההסכמים עם מדינות המפרץ חשובים ומרגשים את כולנו – אך האם משמעותם היא שייתכן שלום בלי מדינה פלסטינית  לדר אסף דוד יש תשוב… erancherpak בסגר הראשון עם רמת תחלואה נמוכה בסדרי גודל מהנוכחית ועומס פחות פי כמה על מערכת הבריאות נסגרו כל בתי הכנסת כולל לאורך כל ח… ובכן מסתבר שאפשר  המגזר פרטי עובד כרגיל ומערכת החינוך סגורה לחלוטין עבורנו משפחות צעירות בישראל זוהי הנחיה עם סתירה פנימית עמוקה ש…  איך בדיוק הפעילות במשק אמורה לרדת ל50 בלבד בעוד כל גני הילדים ובתי הספר יהיו סגורים באיזה מוחות מעוותים ומנותקים…  ishmuli סגר מוחלט אינו יעיל לט״א וספק אם יעמוד במבחן הציבור למיקוד מאמץ דיפרנציאלי ולנקיטת צעדים אגרסיביים במוקדי התחלואה לא ניתן עד… tamarzandberg במקום להילחם כל אחד על המגזר שלו על שרי הממשלה להתאחד ולהחליט על רשת בטחון נדיבה ופיצוי הולם לעובדים לעסקים ולענפים שנ… YaelBerda מהדהדת את RamiHod לשרים ולחברי הכנסת של המרכזשמאל יש כרגע משימה אחת בלבד  להילחם שלא יהיה סגר בלי רשת ביטחון כלכלית אמית… מצוין  לשרים ולחברי הכנסת של המרכזשמאל יש כרגע משימה אחת בלבד  להילחם שלא יהיה סגר בלי רשת ביטחון כלכלית אמיתית אין סגר…  gutweind חשיפת פרטי הדיונים על הסגר מלמדת שמניעיו הם פוליטיים ולא בריאותיים לא נעשו צעדים לחיזוק מערכת הבריאות שהם תנאי למאבק בקורונ… נכון מאוד  בדיוק כך  erancherpak המשרוקית עושים עבודה מדהימה הגענו למצב הנוראי הזה כי פתחנו הכול ומהר למה כי העצמאים בעלי העסקים והעובדים שיצאו לחלת פשוט קרסו למה כי רשת…  AvishayBSG הכי מצחיק זה שהעורך של רסלינג הוצאה שבמשך שנים העלתה על נס את כל הזוועה הזאת ממש לא מבין מאיפה בן חיי…  AvishayBSG מי היה מאמין שכל הממבו גמבו של תיאוריות פוסט קולוניאליות יביא לכאלה תוצאות dinadayan תודה לך על המודיעין אמין ואיכותי כרגיל metukidror חבל שאתה מפריע לאנשים להיגרר לספין ולהמשיך לא לעסוק במצב הכלכלי אוקיי אז הולכים לסגר דמי אבטלה לעצמאים כבר יש אין שינוי מודל החלת ההרסני כבר יש אין פיצוי ברור לעסקים שנסגרי…  חברי כנסת שלא מושקעים עכשיו כל כולם במשבר הבריאות והכלכלי החמור בתולדות המדינה לא ראויים לתואר נבחרי ציבור כן גם…  אי אפשר להטיל סגר נוסף מבלי להכריז באותו רגע על חבילת סיוע מקיפה לעסקים דמי אבטלה לעצמאים ומעבר מהחלת ההרסני לסבס…  זה פשוט לא ייאמן במה מתעסק ראש ממשלת ישראל בזמן המשבר הבריאותי והכלכלי החמור בתולדות המדינה מעל 3500 חולים מאומתים…  EmilieMoatti בני לאו הוא לא איש תקשורת ולא פריימריסט ולא ראש ארגון שמאל הטון שלו לא צריך להיות הטון שלך או שלי ה…  זה מה שצריך לעשות   אם כל סגירה של עסק הייתה מגיעה עם פיצוי הולם לא היה לחץ לפתוח הכול ומהר אם במקום ההוצאה לחלת היה כאן סבסוד שכר…  tamarzandberg קשרית שמאל מספר 7 קלאסית ILParliament נכון אוהבים לדבר על כך שמעטים מדי מציגים אלטרנטיבה כלכלית לצעדי הממשלה אני מאוד שמח לקרוא ל kerenberlk לקוח שלי וגאה ל… Israelcohen911 אדוני יודע מה זה נתונים אתה מבין שיש יותר קורונה בביתר עלית מאשר בכפר סבא אתה מכיר בקיומה של מציא…  האם זה לגיטימי להודות שעל אף שהסוף של הקמפיין ידוע מראש וכך גם סופה של הטלויזיה שהשלט ייזרק לעברה בפעם המי יודע כמה…  ItaiVered אם ראשי הרשויות הערביות ולא החרדיות היו מובילים מרד זה היה נגמר במשטר צבאי ראש ממשלה אחר שלא היה צריך את ליצמן ודרעי כדי ללכת לבחירות נוספות ולהשיג חוקי חסינותהתגברות שיחלצו אותו מהכלא הי…  jotambrom בזכות קרן ברל כצנלסון הייתה לי הזכות לכתוב בשנה החולפת נייר מדיניות כיצד אנחנו יכולים להפוך את לימודי היהדות במערכת החינוך מ… itzikelrov בתור אדם חרדי אני עוקב בהשתאות אחרי הראיונות של ההנהגה הערבית בישראל סביב משבר הקורונה במגזר לקיחת אחריות מלאה גיבוי אנשי… אם שר האוצר רוצה לייצר מקורות מימון למשבר שישקפו חלוקת הוגנת של הנטל בין עובדים שנפגעו ממנו לכאלו שלא נפגעו אפשר ל…  MGozlan1974 arielikobi זה כבר שיח לא סבבה המגזר שקובי משתייך אליו לא אשם בדבר ישראלים טובים שרובם המכריע נוהג ל…  arielikobi ערב טוב לבדרן הבית של בלפור אין נתונים שמעידים על הדבקה בהפגנות אתה מפיץ בורות ושקרים אתה הרי יודע א…  מדויק מה שבטוח שבניגוד לגל הראשון הפעם אף אחד מחוץ לערים אדומות ושכונות אדומות לא ימלא אחר הנחיות הסגר  טור פצצה  EilonTohar מבין revitalamiran EilonTohar אני מודע היטב כפי שאני מודע היטב לכך שבמאבקי צדק חברתי ושוויון אחרים חלק גדול ממי שמצביע…  EilonTohar לא קשור ללשנות מבפנים קשור ללדעת להבדיל בין שותפים שאתה חולק עליהם בכמה סוגיות לבין יריבים פוליטיים שא…  EilonTohar זה באמת נורא מבאס בלי ציניות אבל איכשהו אצלנו כל פוסט משקף את השמאל ומוביל למשברים ודילמות קיומיות…  UriKeidar YaelPatir חחחחח השלב הבא לשכנע את בועז רקוץ הגאון לעשות טוויטר עלייך YaelPatir ה thewhistleIL עשו עבודת קודש ופירקו בזה אחר זה את טיעוני האוצר נגד החלת מודל לסבסוד שכר כחלופה לחלת ובכלל מתחי…  metukidror אביר קארה לוחם למען זכויות העצמאים וכנראה זכויותיו שלו בליכוד מארגן הפגנה נגד ההסתדרות על סכסוך עבודה במגזר הציבורי  יעני… חדש בהוצאת סלע מאיר כיצד הפך נתניהו את ישראל לאימפריית קורונה יש לי משפחה קרובה בביתר עילית ומודיעין עילית יש לי חברים באלעד ובבני ברק ההתנהלות של ליצמן דרעי הרב קנייבסקי וח…  yaronavraham זה מאוד פשוט או שיטילו סגר על ערים חרדיות וערביות שבהן יש תחלואה רחבה  או שיטילו סגר כללי כי שיקולי פוליטיקה ופוליטיקלי… כל מילה  אם במקרה אתם עדיין לא מספיק בדיכאון חשוב לזכור שיש משחק של הנבחרת מחר erancherpak בשונה מפוליטיקאים וירוס הקורונה לא מתרגש מבריוני רשתות חברתיות ושופרות שלטון הניסיון להאשים את המפגינים בתחלואה שמשתוללת… amitbentzur השאלה היא מי כאן הון ייצור ומי הון סיבוב leeyaron נשארנו עם נונה אז Itaigutler leeyaron לא יושבים עם לפ טופ בלילה במנזר תחזור לירושלים מהגר מידת הדמוקרטיה הפנימית במפלגה מעניינת את ציבור מצביעי המרכזשמאל בערך כמו שפרשת הרפז מעניינת את דודה שלי לפיד ושלח…  ILParliament יש אגרול פצצה בקפיטריה בבית ברל</t>
+  </si>
+  <si>
+    <t xml:space="preserve">עיר האבות שבה לחיים בזכות הרבנית לוינגר  בצער רב קיבלתי את הבשורה על פטירתה של הרבנית מרים לוינגר זצל מקומה של ה…  YairGolan1 אתה לא חושש שתגרום לבידוד בינלאומי או שזה חשוב לך רק כשיש נשיאים עוינים בבית הלבן zehavagalon השאלה אם לתופרי התיקים מגיעה חנינה תמורת סגירת התיקים לדעתי לא אסור לתת למערכת המושחתת להמשיך ככה אפ…  גברת סולימאן הדבר היחיד שאמת בציוץ שלך זה שהאינתיפאדה דוכאה בכוח מה לעשות בריונים אלימים וחברה שמקדשת רוצחי תינ…  מדינת ישראל במלחמה אבל במפלגת אנרכיה ביתנו עסקים כרגיל בושה  YinonMagal רפואה שלמה עצב וגאווה עצב על כך שהכותל ריק  גאווה על האחריות הלאומית והערבות ההדדית  היא סוד קיומנו והיא הערובה להצלחתנו…  אנשי הציונות הדתית והימין שקוראים לנתניהו ללכת בשביל האחדות yarivop הוא מדגם מייצג של המפגינים כרגע עסוק בנתניהו…  לא מפתיע שהיור החליפי של כחול לבן gantzbe התיישר עם היור בפועל AviNissenkorn עושה דברו של האנרכיסט הראשי מנדלב…  avidareli  YairGolan1  yairlapid  tamarzandberg  bogieyaalon  ההסתה שאתם מלבים בהפגנות גרמה לכך  טרם שמע…  YairGolan1 אני במקומך הייתי מודאג יותר מאחוז החסימה התפקיד האמיתי של gantzbe בכחולבן הוא יור המפלגה החליפי היור בפועל הוא AviNissenkorn ניסנקורן מושך בחוטים והבו…  למי שהיה ספק אז עכשיו אין ספק ראש הממשלה עשה שלום תמורת שלום ומקדם גם בניה בהתיישבות בשורה שמחממת את הלב בתקופת…  אי שם במקום מפגש חליפי לוולדורף אסטוריה דובר1 שלב א עבר בהצלחה  סגר דובר2 נמשיך להפגין דובר1 ואז אחרים יפרו…  יחסינו עם מדינות שמנהלות נגדנו לוחמה משפטית לא יכולים להישאר ללא תגובה אתמול פירסם arik3000 ב IsraelHayomHeb שמד…  yarivop Shiritc אני יודע שזה מבלבל ושהוא גם היה יהודי אבל אהבו את שונאיכם זה לא יהדות חוץ מזה שגם הוא לא דיבר…  עקב פגישה עם מי שיש חשש שנדבק בקורונה מכניס את עצמי לבידוד לפחות עד שיתקבלו תוצאות בדיקתו  תקפידו על ההנחיות ושימ…  MatanKahana מתן הקורונה חשובה מאוד חשוב לא פחות שנדע מי מסייע להפגנות המדבקות והמסוכנות בספר של נפתלי לא כתוב ע…  אנו נמצאים במדרון חלקלק להפוך מדמוקרטיה לאוליגרכיה משפטית ופקידותית בדיון בוועדת חוקה היום הצבעתי על המצב האבסורדי…  RanBaratz  אנחנו המונים מאות אלפים שיפילו את נתניהו  אבל קורונה אוסרים התקהלויות כולל תפילות   טוב מה אתה משווה תפילות זה ה… האם יעלה על הדעת שמדינת ישראל תממן הגנה לפורעי חוק המפגינים נגד ממשלת גרמניה האם ממשלת גרמניה הייתה עוברת על כך בש…  במדינת בגץ חופש הביטוי מאפשר ביזוי קודשי ישראל הסתה נגד רהמ ותמיכה בחרמות על ישראל  הרב שמואל אליהו הוא רב מוער…  uriakenig שמאל מרץ 2020 אל תאמינו לביבי אין קורונה זה הכול כדי שלא תבואו לקלפיות שמאל מאי 2020 אל תאמינו לו אין משבר קורונה… אחזור על מה שאמרתי בועדת חוקה אין לי שום ציפיה לא מהמפגינים ולא מהמנהיגים שלהם או מהתקשורת  הפניה שלי היא לרוב הש…  YairGolan1 ואופוזיציה שיודעת לכבד החלטות של רוב MatanKahana shlomokarhi מה שלום naftalibennett מרגיש יותר טוב העוצמה יצרה את האינטרס האינטרס הביא את שיתוף הפעולה שיתוף הפעולה הביא את השלום בדיוק ההיפך מדרך השמאל נתניהו הג…  sariazoulay Daniellalugassi שרי כל ועדה שלא תהיה מאוימת על ידי מערכת האכיפה בסוף זה בני אדם ועל בני אדם אפשר…  sariazoulay Daniellalugassi sariazoulay   ועדה פרלמנטרית היא חיצונית למערכת המשפטית לא מכיר משהו יותר חיצוני מזה הצבעתי היום בעד וועדת חקירה פרלמנטרית לבדיקת שחיתויות במערכת המשפט והאכיפה דמוקרטיה היא לא שלטון השופטים ושלטון ה…  yarivop 1 אתה משקר ומוציא דיבה הרבנים לא תומכים ברצח הם פשוט חושבים שהוא חף מפשע  2 לעלות לרגל אל תומכים אמית…  מעניין אם הועדה שמחליטה למי להעניק את פרס הנובל לשלום תעשה את המעשה הראוי ותעניק לרהמ את הפרס על ההישג המדהים או…  זוכרים את חוק יסוד כבוד האדם וחירותו שעבר באישון ליל ומשפיע עלינו עד היום  אז בחסות הקורונה מבשל לנו שר המשפטים…  המציאות עולה על כל סיוט העיקר שיש חומה בצורה בצורת AviNissenkorn היום בבגץ יועמשנו מנדלבליט  מכסה על ההדלפות של…  rothmar הבעיה היא ש attilus מודה חייב לציין שביושר רב שדמוקרטיה פשוט לא מעניינת אותו מבחינתו העמדה שלו תשלוט…  כשאתה שמאל חלש ומתרפס שלום תמורת שטחי מולדת בונוס טרור כשאתה ימין חזק ונחוש שלום תמורת שלום ואחרי חודש עוד מדינה מצטרפת  YoazHendel1 ענית אתמול לשאלתי ואמרת שאור השמש מחטא ושאין גוף החסין מביקורת סיפרת על סבך שחלם על מדינה עם שוטר…  מי שטוען המערכת תבדוק את עצמה לא מגן על האמת כי אם על שחיתות דברים שאמרתי בישיבת הסיעה אתמול צפו  בכל מקום שבו יעשה צעד שמשחרר את הסרבול הבירוקרטי והרגולטורי אני אהיה שם  attilus אתה מתווכח עם איש קש אני רוצה איזונים ובלמים שמח שגם אתה עכשיו בוא תסביר לי במסגרת האיזונים והבלמים מי…  attilus שם זו דיקטטורה ופה זו אוליגרכיה משפטית אני אישית בעד דמוקרטיה שיטה מיוחדת שכזו עם איזונים ובלמים שבה העם…  שומרי סף נטולי פניות מערכת שמבקרת את עצמה ככה נראית שחיתות  tadmorerez48 מה בדיוק בקונספקט של איזונים ובלמים אתם לא מצליחים להבין אין חיה כזאת שהמערכת תבדוק את עצמה תשמרו את המעשיות האלו לטמבל… attilus סיריוסלי זה מה שהם אמרו לך הפתעה מרעישה אני בטוח שאם היית שואל את בכירי המערכת בברהמ הם היו מסבירים…  arutz20 חכ קלנר לערוץ 20 ניסנקורן מתנהג כמו יור וועד עובדים מה שקורה במערכת אכיפת החוק זה שערוריה שי ניצן השחית את המערכת וצריך ל… AviNissenkorn אתה הפיגוע מס 1 באמון הציבור במערכות האכיפה כששומעים אותך ואת הטיוח שאתה מבצע מבינים שעוד לא ראינ…  AviNissenkorn  הוא הפיגוע מס 1 באמון הציבור במערכות האכיפה כששומעים אותו מבינים שעוד לא ראינו כלום מבחינת השחיתו…  yehudaamrani לשבחה של מערכת המשפט צריך לומר שאמון הציבור בה לא ירד הערב אז מה חברים למי יש אמון מלא במערכת אכיפת החוק ושומרי הסף החשיפה של עמית סגל זו רעידת אדמה ופגיעה אנושה באמון הציבור במערכת אכיפת החוק הערב נפל דבר בישראל תיק 2000 צריך ל…  amitsegal אבל ניצן מודה במייל סודי המפכל התנהג שערורייתית אבל לא נעזור כי זה יעשה טוב למי שרוצה ברעת המערכת ודי לחכימא זמן קצר… בלתי תלויים ומקצועיים נשמע הרבה יותר טוב מפוליטי נכון  היום התקיים דיון בוועדת חוקה בנושא הקמת ועדה בלתי תל…  bogieyaalon האמירה המקורית היא גמל הוא סוס שועדה תיכננה אבל צפוי שמי שלא מקבל את כללי המשחק הדמוקרטים בהם העם…  רוצים להרוויח עוד קצת מבלי להסתבך עם רשויות המס בעלי עסקים שרוצים להעסיק עובדים ולא עומדים בנטל הבירוקרטי הצעת הח…  AvigdorLiberman אתה רומז לראש מפלגה כלשהי שקיבלה את המספר העצום של 7 מנדטים YairGolan1 נכון מאוד העם בצד הנכון ואתם מיעוט קטנטן ורעשן שמפגין נגד בחירתו לצפצף על הנחיות מערכת הבריאות בהתקהלויות מטורללות מול בית ראש הממשלה ואז להתלונן על התפרצות הקורונה זה כמו לתמוך ב…  סעיף 13ג1 לחוק חסינות חברי הכנסת מגדיר את החלטתה של ועדת הכנסת  סופית מדובר בהחלטה חלוטה  התערבות בגץ במקרה…  הדיון בבגץ היום בנוגע לחסינות חכ חיים כץ שהגישה התנועה להחלפת השילטון חמורה ביותר ומהלך נוסף בהפיכת ישראל לאוליגר…  יור ועד עובדים יקר  זה שתגיד מאה אלף פעם שומרי סף שעושים את עבודתם לא תשנה את המציאות אתה מגן על חשדות כבדים…  attilus אני מבין שאחרי שמיצית את הנרטיב בליכוד אוטוטו מחליפים את נתניהו עברת לנרטיב נתניהו עובר לשמאל מחכה בקוצר רוח לשלב הבא yarivop הרי ידוע שאתה מאלה שמעדיפים לראות חייל חוטף אבן לפרצוף ובורח אני לא על מורים לכלכלה כמו amirperetz אמר מארק טוויין מעולם לא נתתי לבית הספר להפריע לחינוך שלי  בדיחה מימי הקומוניזם אמריקאי מסביר לרוסי על דמוקרטיה אני יכול לצרוח בכיכר העיר רייגן לך הבייתה בתגובה הרוס…  SaraHaetzniCohe יחסר לי המאבק על אי נמשך והמע המשפטית נגדנו ביקרתי היום עם   israelganz  ו OsnathilaMark  במצפה כרמים זכויות הפרט לא…  2346479Orna תודה רבה כאבא לילדים קטנים אני יודע כמה כניסת ההורים לגנים במיוחד ביום הראשון עוזרת להתאקלמות של הפעוטות כניסת ההורים חש…  שנת הלימודים בפתח הורים רבים משוועים לחזור לעבודה עצמאים מנסים להתאושש כלכלית אבל ליפה בן דוד והסתדרות המורים לא…  כמה עצוב לראות את טובי בנינו בסיטואציה הזו  זוהי תוצאת פעולת המלקחיים של מערכת משפטית מעוותת מחד וחינוך למוסר פוסט…  רגע אז עכשיו כשאני באמצע הספר ממלאי הפקודות אתה אומר שבסוף כן חייבים לציית bogieyaalon  yehudaamrani מאמצים אחרונים להסדרת מצפה כרמים לחץ על ליאת בן ארי ובן זוגה לבנות בית ביישוב אין כמו לטייל בארץ ישראל צאו להנות מהארץ שלנו  mikihaimovich1   מחכה לדיון הבא בנושא האלימות המשטרתית בקוצר רוח  לא מפתיע אך מרתיח את הדם בתי מחבלים נשארים על כנם ובתי יהודים חלוצים נידונים להרס השמאל הפוסט ציוני לא מחמיץ הזדמ…  ב 2020 ישראל ייצרה 11 יוניקורנים  חברות ששויין מוערך ביותר ממיליארד דולר  השווי הכולל שלהן 11 מוערך בכ15 מיליאר…  העיוות במניעת הרס בית המחבל שרצח את עמית בן יגאל היד היא עיוות של הרכב הבוקר אצל דקלוינסון על העיוות בהרכבי בג…  Shiritc בהצלחה האם הרס בית המחבל שרצח את עמית בן יגאל היד היה מונע את הרצח של הרב שי אוחיון היד היום לא יודע אני כן יודע שאנו…  attilus לא משנה מה יעשו בפרקליטות זה אמיתי הם באמת כל כך מנסים לרצות אותנו או סתם לנקוט באותו דין לימנים ושמאל…  נדהם מהתמורות שחלו בשלטון החוק שלנו ב 15 שנה  לפני הגירוש מפגינים הוכו ונעצרו ילדות בנות 14 הוכנסו למעצרים…  הגיעה העת לשים קץ לאחד העיוותים בבגץ – עיוות קביעת ההרכבים היום הנחתי הצעת חוק הקובעת שכמו בארהב גם בישראל בי…  מלחמה היא שלום עבדות היא חירות בערות היא כוח 1984 גורג אורוול  וסותם הפיות נציג האגודה העותמנית…  דין הטלפון הנייד של אדם כדין ביתו הצעת החוק שהגשתי תאסור על שוטר לערוך חיפוש בטלפון נייד של אדם בדיוק כפי שאסור…  מעניין שחשד להדלפה מכלי תקשורת מעניינת את AviNissenkorn הרבה יותר מהדלפות מגמתיות של המשטרה והפרקליטות   יור ועד…  בשדולה שאנו מייסדים אנו מבקשים לתת הכרה לקשר בין השנאה עתיקת היומין לבין תנועת החרם והדהלגיטימציה  המכנים…  avidareli מעניין אצלי זה היה הרגע היחיד שפתחתי אותה אתמול לצערי רהמ איחר מה שגרם לי לצרוך רעלים מסוכנים במשך 20 דקות אני נגד אלימות משטרתית השמאל היה בעדה גם נגד מפגינים לא אלימים ולימנים תמימים שבטוחים שהשמאל התפקח הכל מפוזיציה…  GabiAshkenazi העיקר שלמנדלבליט אתה נותן ציון לשבח אחרת מי יודע איפה היית היום שוב העצמאים מפגינים בספונטניות  כחכ יש מעט זמן לקרוא מצד שני האחריות ללמוד רק גדולה יותר פרידריך האייק הוא לא עוד כלכלן אלא אחד ההוגים החשוב…  למותר לציין שאני ו YoraiLahav חלוקים בדעותינו אבל הפרה כה בוטה של חסינות חכ בידי המשטרה צריכה להיות מוקעת בין מי…  arielschnabel בבריכת גורדון בלחץ ImTirtzu עוצרים את העוכרים שמתפרנסים מהטרדת חיילי צהל כל הכבוד לחכ ArielKallner  יור השדולה למאבק בדה לגיטימציה שהעלה את המציאו… בבריכת גורדון נערכים לקבל את התיירים מסודן ניסנקורן המשטרה לא תחקור יותר את עצמה תראו את היועמש הוא לא יכול לחקור את עצמו פרקליט המדינה אחראי על כך נכון…  ככה נראית אנטישמיות מודרנית פוגעים רק בעסקים של יהודים אזרחי ישראל ואפילו מוכנים לפגוע בפרנסתם של אלפי ערבים ו…  מסתבר שבאמירויות לא שמעו על ההערכות של מכון המחקר המקצועי  בכלל הקשר של המכון ודומיו לכדור הארץ טעון בדיקה  מ…  yarivop על ציונות לא צריך לעשות משאל על ההיפך כן attilus חייב לדעת יש לך תזכורת בקלנדר להוציא פוסט בסגנון הזה או שזה טבעי מרכין ראש לזכר כלת פרס ישראל פרופ רות גביזון   יש לה אגנדה טען אהרון ברק ודאג שלא תתמנה לעליון  גביזון זל…  מברך את ראש הממשלה על הישג ההסכם עם איחוד האמירויות  ועם זאת אסור לוותר על הריבונות היא חשובה לא פחות  אסור להחמיץ את השעה 110 שנים להולדתו של נתן אלתרמן  לא יודע למה אבל ביטול הרס בית המחבל שרצח את עמית בן יגאל היד עי בגץ הזכיר לי…  חייבים לעצור את ההפקרות  הצעת החוק שלי להגבלת זכות השביתה בתקופת הקורונה היא צו השעה אנו בעיצומו של משבר כלכלי וב…  השר שוסטר תרשה לסכם לך שיעור ראשון בכלכלה רק תחרות מורידה מחירים פיקוח או יוצר מחירים גבוהים מדי או יוצר מחסור…  מצד שלישי גיא זוהר תיקן אותי שפסק הדין של ברק אישר את ההסדר עם המשטרה אכן דיוק חשוב אך גם המהות חשובה  השופט ב…  arikbender 1 כדי שמי שיש לו אזרחות זרה לא יצטרך לחשוב פעמיים לפני שהוא נכנס לפוליטיקה כך אנחנו מפסידים אנשים טוב…  פסיקת בגץ היום הפגישה את פני הרשע עם  פני העוול רון חולדאי אני קורא לך להאיר את בניין עריית תל אביב בפנים היחידו…  סמכות ללא אחריות זכויות אדם לאויב ופגיעה בביטחון ישראל כך נראה בית הדין הגבוה לאי צדק בגץ פשוט לא מחמיץ הזדמנות…  כך פוגעים בחלשים ודואגים לקב אינטרס לפני כחודש אישרו שרי הכלכלה והחקלאות למועצת הלול לשלם 4 משח ללולנים שלא יג…  הבהרה הצעת החוק שלי מדברת על בתים פרטיים בכלל לא רק על בית רהמ היא כוללת גם אותו בהתאם לפסיקת אהרון ברק davidlebor על זה בדיוק אני מדבר yotameyal הצעת החוק מדברת על בתים פרטיים בכלל לא יאומן בנו של איש האצל מנדלבליט שלנו  כשהארץ יכתבו עלי דברים טובים אתחיל לדאוג בינתיים המצב נראה טוב לגבי הכנסת ה 24 אולי אהיה שם ואולי לא האחרון ש…  הישג גדול אבל עוד ארוכה הדרך גם הוד מעלתה מודה היום שהטענות לניגודי עניינים מצריכות שינוי אמנם מוטב מאוחר מא…  חבל דאבדין ולא משתכחין הרבה בזכות הרב שטיינזלץ גם אני הקטן הצלחתי לטעום מאוצר התלמוד  כואב את לכתו של הרב חתן פ…  היום בסביבות השעה 1630 אשא את נאום הבכורה שלי מוזמנים לצפות זה לא אותו דבר פסק דין של בגץ בקשר להפגנות בבלפור ליד בית ראש הממשלה קובע שמותר להפגין אבל לא יותר מ500 מפגינים…  NaorIhia ״הוא נפל״  arutz20 האם הנגיף יודע להבחין בין התקהלות לצורך תפילה או לצורך מחאה  לא חושב שהמחאה הייתה מקבלת מעמד נעלה אם היה מדובר בראש ממשלה… היום בועדת חינוך אמרתי הוירוס  לא מבחין בין התקהלות של הפגנה להתקהלות לתפילה או חתונה  לא ברור לי מדוע דווקא הפג…  בסיור שערכתי היום עם ImTirtzu נחשפתי למציאות בה מדי יום מגיעים אנרכיסטים כדי לפגוע בחיילי צהל בשטח ולייצר פרובוקצ…  farhag1 shlomopyuter shlomokarhi AyeletShaked אין רוב גם אם כל הליכוד כולל המבודדים יגיעו להצביע זו הסיבה שאנחנו בממשלת אחדות shlomopyuter shlomokarhi AyeletShaked לא טענתי שההצעה תחזק את בגץ טענתי שאיננה אפקטיבית  לא מבחינה מעשית …  3 נק על פיס ההתגברות 1 ההתגברות צריכה להיות של בגץ פסילת חוק צריכה להיות בהרכב מלא ופה אחד 2 הבעיה הגדולה א…  tamarzandberg רועדים מפחד EyalZivIL הפגנת העצמאים המבוכה של יוסי אלי אומרת הכל  בדיוק tamarzandberg  ההפגנה היא של כל אלה שאף פעם לא רצו כאן את נתניהו גם לפני כתבי האישום והחקירות בעצם למה נת…  attilus חזרנו לנקודת ההתחלה  מי שרוצה ישראל דמוקרטית שפויה שומרת חוק ולא מושתתת צריך להפוך כל אבן כדי שמערכו…  15 שנה לגירוש שם בחולות של גוש קטיף קבור האמון שלי במערכות האכיפה והמשפט אמשיך להיאבק למען האמת כי סוף האמת לנצ…  attilus חלילה השמצות אבל כשדעתן כמוך כותב אני לא מנצח ולא מפסיד שום דבר בקלפי זה טיעון שהוא זלזול באינטליגנציה…  attilus אז אני מבין שבגלל שאתה לא מתמודד אתה לגמרי אדיש לגבי זהות ראש הממשלה ולכן אתה אובייקטיבי לגמרי בכל הפעילו…  yarivop כמו זה שימנים של לה פמיליה תקפו שמאלנים תמימים  attilus מי שכותב שעיתונאים לא צריכים להיות אובייקטיבים במאבק על הדמוקרטיה על האמת ועל חשיפת שקרים ודיסאינפורמציה…  attilus לכן אתה כל כך עסוק בחשיפת השחיתויות של מנדלבליט ליאת בן ארי ושופטי העליון שחיתות לכאורה כמובן YairNetanyahu אין בשמאל אלימות בתמונה קברו של פעיל ליכוד שנרצח ע״י פעילי שמאל של אהוד ברק בבחירות 1999  ערב תשעה באב נרגש לבשר שאעמוד בראש השדולה למען הר הבית יחד עם חברתי חהכ GolanMay השדולה תפעל לחיזוק אחיזתנו ב…  שמח שבדיליי של 15 שנה גם בשמאל מבינים שלדכא הפגנות באלימות זו לא הדרך מקווה שהדיליי הזה יהיה קצר יותר בנוגע לגיב…  נותני שירות רבים שילמו דמי חבר ללשכות פרנסתם נפגעה בקורונה אין שום סיבה שלא יקבלו את כספם בחזרה באופן יחסי  AradFirer בדיוק כמו ההבדל בין יהודים שהשתדלו בזמנו כדי להקים את בית המקדש ומלכות ישראל לבין אלה שפעלו להחריב אותו בר קמצא מודל 2020  מעורבות מדינות זרות  בישראל היא מזמן לא בגדר תמיכה בשיח הדמוקרטי זוהי סכנה לביטחון הלאומי רינה שנרב היד נפלה קור…  הם עדיין לא למדו מה מסמל הדגל האדום בתקופתנו — זה דגלו של הקומנאציזם מ בגין  לא כלכלה מעניינת את האספסוף הבו…  KElharrar netanyahu כשאותם עיתונאים יתחילו לעשות את עבודתם וכשאת וחברייך תתחילו לטפל באלימות של האספסוף האנרכיסטי במקום לשלהב אותו LivnatLimor AmirOhana לא הוא פשוט איש עקרונות ואנשי עקרונות מתוגמלים בבחירות פריימריז לכן אמיר במקום שבו הוא…  חבר כנסת וניצב בדימוס משלהב את האספסוף האנרכיסטי להמשיך ולסכן את הבריאות של כולנו רק בגלל אינטרס ציני עלוב בושה  התחקיר המטלטל הנוסף הזה רק מחזק עוד יותר את הצורך בהצעת החוק שהגשתי  במקום ששופטים יעמדו בסטנדרט גבוה יותר אפילו…  arutz20 חכ קלנר לא אשכח איך לפני גירוש גוש קטיף שלחו צבא כדי לדכא מחאה של אנשים שלא נקטו באלימות כלל הם היו אויבי הדמוקרטיה והיום… באתי לחזק את ראש הממשלה דווקא בעת הזו עת החירום בהפגנה שלנו אנשי פריפריה עצמאים שכירים ואפילו מובטלים המצוקה א…  כי סחיטה באיומים לא ממש מביאה אהדה והכרת תודה סתם שתדע הי AviNissenkorn אתה מתכוון לעשות את זה בשיטות של הארגון ההוא שאתה מכיר היטב זה שמשכנע אותנו בחשיבות הגדולה של…  Delighted to announce my initiative to head a new caucus at the Knesset dedicated to the fight on…  YairNetanyahu דגל ״אנטיפה״ אתמול בפרעות השמאל ארגון שהנשיא טראמפ הכריז עליו כארגון טרור  sariazoulay החוק דומה אבל על שרים מחילים כללים נוספים ואני מבקש שכל מה שמחילים על שרים שיחילו על שופטים בכנסת הקרובה אעמוד בראש השדולה למאבק בדה לגיטימציה נגד מדינת ישראל והאנטישמיות גם בזמן הקורונה ארגוני החרם לא נחים…  ניגוד עניינים  הגדרה אחת לכולם גם לשופטים  מצפה לתמיכה מקיר לקיר להצעת החוק שהגשתי מי שיתנגד כנראה שלא מלחמה בש…  80 שנה לפטירת זאב זבוטינסקי לא נשכח איך התייחס השמאל של אז לזבוטינסקי של אז  זבוטינסקי האמיתי פאשיסט וולדי…  עלינו להחליט אם אנו רוצים לשלב חרדים או לחנך אותם מחדש שילוב חרדים טוב לכלכלה טוב לחברה וטוב לחרדים המחיר הם יח…  עצמאים יקרים אזרחים יקרים  חבורת שקרנים אנרכיסטית רוכבת עליכם אנו קשובים למצוקתכם רהמ והשרים עושים הכל כדי לסי…  מי שלא יוצא לרחובות כדי לדרוש מהיועמש הסברים על הפערים העצומים בגרסאותיו שלא יקשקש על כך שמיגור השחיתות מעניין אות…  סהכ מחאה לא אלימה בכלל או שגם הביריון האנרכיסט הזה שתול של ביבי  attilus לא חבל על הציפיות שאתה מטפח אצל החברה שלך סתם יוצר מפח נפש  השמאל הפרוגרסיבי צריך להבין  מילים ומשאל…  הדמוקרטיה אני בטוח שהתנועה לאיכות השלטון וכל הגיבורים שלוחמים בשחיתות כבר יוצאים למערכה אחרי זה ידברו על מי מאיים כאן על ב…  attilus כתבתי לך את זה כבר לפני יומיים אתה כותב דברים מהסוג הזה או מהדהד פוליטיקאים מיש עתיד וישראל ביתנו שאומרי…  YairNetanyahu הם חושבים שהם יצליחו לשבור את נתניהו כמו שהצליחו לשבור את בגין לא ילך להם הפוך כל ״הפגנה״ אנרכיסטית מחוץ לביתו מחזקת… attilus סרט האימה שלי התרחש לפני 15 שנה  בלי בגץ ובלי בצלם רמסתם אותנו ילדות בנות 14 הושלכו למעצרים עד תום ההלי…  attilus עזוב מילים גבוהות אתה בעד לקדם את מה שאתה מאמין בו בין אם יש לזה רוב ואז אתה תרמוס את המיעוט עד עפר ובין…  attilus ראשית החוק שמסמיך אותם נחקק עי פוליטיקאים כבר סתירה שנית לפקידות המקצועית תפקיד חשוב להגשים את המדי…  זה השר הכי מיותר בממשלה נקודה  בשביל מה צריך משכורת עוזרים יועצים ותקציב אם כל מה שהאדון הזה יודע לעשות זה קופי…  10elilevi EINATkalisch אמשיך לעקוב שכולם יידעו אם הדברים נכונים היועמש מסכן את בריאות הציבור ממשיך בכך את הקו של בגץ שמנע את איכוני השבכ והעלה א…  limorh6 BBWEWillWIN ikicohen MiriBarbi mayabsh atikt73 shelegbeleg RuthB36446246 ASHER501…  החלטה נכונה של EINATkalisch תודה לכל מי שהביע את מחאתו יש לוודא שמקרים מסוג זה לא יישנו  לא בחיפה ולא בערים אחרו…  בזמן מלחמה יש טעויות זה נסלח כי אחרת זה לא אנושי בזמן מגיפה חסרת תקדים כנראה שגם נעשות טעויות לא יכול להיות אחרת…  כמה חצוף אתה יכול להיות כדי להשוות בין רהמ לוחם חירות ישראל יצחק שמיר לזמרת שקראה להשמדת המדינה שעליה נלחם יצחק…  attilus אטילה אתה הרי כתב פוליטי מנוסה לא נמאס לך לשמוע ולהדהד את המנטרה הזו של יש עתיד וישראל ביתנו 100 אלף פעם בחודש בשנה האחרונה העלאה בשכר  כן אבל לא רק כך נחזיר את המורה למעמד הראוי לו  כשרואים את האנרכיסטים של השמאל משתוללים ליד בית רהמ מבינים מה זה עדר עיוור מוסת   האם המסיתים לפיד בוגי וליב…  מי שדאג שהמורים לא ילמדו שעה אחת מעבר ל30 ביוני אולי הצליח להגן בצורה בריונית על זכויות המורים אך ודאי שפגע במעמד…  YairNetanyahu אם היית שואל את הבדואים היית יודע שלא ממש כשהשנאה מעוורת ומעדיפים את היבא יזבק על ראש הממשלה נתניהו מה הפלא שלא מבדילים בין עובדות סוציאליות לחרשים  הבידוד צפוי להימשך עד חמישי הבא מעדכן שנכנסתי החל מאתמול בערב 127 לבידוד זאת לאחר שבני בן ה 45 נחשף לחולת קורונה מאומתת אני מרגיש טוב ומוכן…  DarashLimor ב 86 לאחר הדיון בבגץ הופסקו איכוני השבכ שיעור החולים החדשים כ100 ביום  ב 246 חוק איכוני השבכ עובר קריאה ראשונה ב… yarivop מעניין שאלה כל העצות שנתת גם לפני שהלכת להפגנה אותנטית צר לי שהאופוזיציה מנסה לרכב על המחאה האוטנטית בציניות מחפירה  צר לי גם שמפלגת כחוללבן מנגחת את הממשלה שבה היא חב…  ביום חמישי האחרון הציגו רהמ ושר האוצר תכנית סיוע נרחבת לעצמאיים ומובטלים מענקי סיוע הארכת דמי אבטלה הארכת תוקפי…  הפגנת העצמאיים היא זעקה אמיתית עשרות סיפורים מגיעים לפתחי על אנשים שאיבדו את מקור פרנסתם את מפעל חייהם את חלומם…  rothmar אם האקטיביזם השיפוטי היה עוצר לכבוד הקןרונה היה אפשר להשתמש בקןרונה כתירוץ להימנעות ממהפכת הנגד  בגץ והיועמש מנצלים את הקו… אני מבין שבכחוללבן מודאגים מכך שלתוכנית הכלכלית אין מנועי צמיחה  רוצים כסף בואו נתחיל מהפנסיות התקציביות של הגנר…  LibertariDos אני מקווה שימינה יפסיקו לתת אמון מלא במנדלביט LibertariDos לא סיכל כלום אין לנו 61 אם היינו עושים גיוס מלא גם כחול לבן היו עושים יצרו מצג שווא כאילו ליברמן…   יש ניגודי עניינים לנתניהו ואין ניגודי עניינים למנדלבליט או לשופטי בגץ  יש בעיה בעיתוי לבדיקת שחיתויות בעליון …  שנה אחרי שנה נקבעים נהלים ותקנות והמפעלים מצפצפים עליהם פשוטו כמשמעו האכיפה מוכרחת להיות אפקטיבית  בעקבות דוח המש…  אני סבור שהחלטת היועצת המשפטית אינה בגדר הסמכויות המוקנות לה ומשוללת כל היגיון בסיסי ועיקביות לוגית כלשהי לפיכך ד…  השמאל נגד ריבונות  בגלל העיתוי השמאל נגד ועדת חקירה פרלמנטרית לבדיקת שחיתויות של שופטי בית המשפט העליון  בגלל הע…  לצערי לא תהיה ועדת חקירה פרלמנטרית יש כאלה שחשוב להם ששופטי העליון יהיו מעל החוק מגיש בקשה לדיון מהיר בועדת חוקה… </t>
+  </si>
+  <si>
+    <t>michtzi1 Reshettv מה זה הגבלת ההפגנות זמנית הנה דברים זמניים בארץ מצב החירום כבר 72 שנה הכיבוש כבר 53 פינוי אקרית וברעם לשבועיים…  שגריר ישראל באום מפרסם הבוקר מאמר בישראל היום וקובע שהאום מאבד את זכות קיומו כדי להבין כמה זה מעוות תארו מצב…  IshayShnerb הצעת חוק שבעה חודשים מתחילת המגפה פוליטיקאים לא יורשו להשתמש בלשון עתיד בהודעות לעיתונות המבשרות על מהלכים שהצורך בהם יד… talschneider חופשת רגילה בוטלה לא יצאו ליום כיפור לא יגיעו לאף חג סוכות אסור לבוא לבקר לא נראה את הנער עד 25 באוקטובר ואולי אף יות… zehavagalon אייר Amos123Biderman Haaretz  יותר מ25 אחוז מהציבור כבר נמצא מאומת לקורונה יותר מכל מדינה בעולם אחד מכל 40 שמרו על עצמכםן מצד אחד המוני יהודים חכמים שהתפללו בחוץ ומצד שני ממשלה פושעת שהתירה צפיפות רצחנית  בבתי כנסת אותה ממשלה תנסה מחר ל…  aviadglickman במידה ויתגלו בתי כנסת שהיו פתוחים ביום כיפור ובתוך אני מדגיש בתוך היו המוני אנשים בניגוד להוראות האחראים על אותם בתי… מפגינים ומתפללים מסרבים להיות אויבים einatovadia אֵל נוֹרָא עֲלִילָה הַמְצִיא לָנוּ מְחִילָה   בִּשְׁעַת הַנְּעִילָה  יפה שטראמפ שילם רק 750 דולאר מס אבל הוא עדיין יכול לקחת שיעורים מנתניהו איך לקבל פטור ממס 2600 חיילים ישראלים נפלו במלחמה שפרצה לפני 47 שנה כי גולדה התנגדה להחזרת השטחים שכבשנו תמורת שלום אז במקום להחזיר…  בנימין נתניהו בנימין גנץ עמיר פרץ אורלי לויאבקסיס לא סלחנו היום לפני 25 שנה נחתם הסכם אוסלו ב רבין הביא אותו לאישור הכנסתקונספט שביבי טרם שמע עליו ההסכם אושר למרות שחברי ה…  Orlylevy את לא מתביישת שדדת אותי ועוד רבבות הייתי מעדיף שתקחי לי את הארנק באלימות מאשר השוד האלים שביצעת אם את…  perisharon פורסם בערוץ 7 perisharon ערוץ 7 פרסמו ששה בני משפחה נהרגו כשנפלו לבור ספיגה בכפר דיר אל עסל שבשטחים הכבושים נראה לי שאם הם  היו יהודים הייתם שומעים על זה גמר חתימה טובה זמן לבקש סליחה אזרחיות ואזרחי ישראל אני מבקש סליחה על כך שפגעתי בכם ובכן והצבעתי לעמיר פרץ אורלי לויאבקסיס ואציק…  yairlapid נתוני התחלואה במגזר החרדי מדאיגים מאוד אנחנו חייבים כולנו  הממשלה הכנסת והאזרחים  לעשות הכל כדי למנוע אסון זו החובה המוס… RonnyLinder TheMarker יוחזר סימנטוב Liberwomen נתניהו מבין דבר או שניים במו״מ אם באמת היה רוצה לדלל את ההפגנות מתוך דאגה כנה לבריאות הציבור היה נוקט בגישה קצת יותר דיפלו… אני קורא לאזרחי ישראל אל תיקחו דוגמא משר הבריאות שנכשל ואל תסיתו כמוהו אל תיקחו דוגמא מראש הממשלה והישמרו משוחד מ…  gabylasky כל מי שקיבלה דוח על אי עמידה בריחוק  כדי לאתגר את המערכת תבקשו להשפט  זו לא קריאה לפעול בניגוד להנחיות זו עמדה ברורה… ariyederi להתפלל בחוץ ולהפגין בחוץ זה בדיוק אותו דבר יגאל שריג אביו של גיא שנהרג כי נתניהו לא הקשיב לגורמים המקצועיים  tamarzandberg מפגינות ומפגינים אלף מטר מהבית  nivsarig  אבא שלי  מסתבר שנתניהו לפעמים טועה או אפילו משקר דיווח של YeshDin מתנחלים פגעו ברכוש פלסטיני בקוסרה שרפו טרקטור שברו קולטי שמש פגעו בציוד משק והשליכו אבנים על מכוניות כך נראה הכיבוש lioramihai דיווח ראשוני YeshDin מתנחלים פגעו ברכוש פלסטיני ביישוב קוסרה שרפו טרקטור פגעו בציוד משק והשליכו אבנים על מכוניות   תחק… zehavagalon המעבר במחסום ליד מחנה עופר ב 443 ממש סביר שאלו לאו אתם אמרנו להפגנה אמרו סעו zehavagalon וואהו הגשר בכניסה למודיעין מכביש 443 מפוצץ באנשים עם מסיכות ודגלים ששומרים על ריחוק חברתי ממש מרגש NirACohen77 זה מאבק למנוע את חורבן הבית אנחנו נאבקים על הבית של כולנו וביבי נאבק על הבית הפרטי שלו המדינה ואזרחיה ממש לא מעניינים או… בפאריז נאסרו התקהלויות של מעל 10 אנשים הפגנות מותר שמאלנים אנרכיסטים שלשום מלאו 40 שנה להחלטת בית המשפט העליון שקבעה כי כפיית יחסי מין במסגרת נישואים היא אונס אתמול 40 שנה אחרי אסר ש…  zehavagalon את כל המרץ והיצירתיות שלו רהמ השקיע בשחיתות ועכשיו בניסיון לחסום כל ביקורת נגדו באמצעות השתקת ההפגנות בתירוץ של המאבק ב… למרות הצפיפות בחברה הערבית ירידה במספר המאומתים ושיעורם נמוך גם מהחברה החרדית וגם מהחברה הכללית הישג מרשים של א…  gontarzn תמלולי חקירתו של בנימין נתניהו אשר הביא גידי וייץ במוסףHaaretz הם בבחינת מופע זיקוקים מעל שמי ישראל ובבחינת השלכה מדויקת… שר הבריאות אדלשטיין מהקודקוד עד לבן 15 במטולה ובת 15 באילת כולם אחראים לא ממש לא יש ממשלה היא אחראית אם כו…  mossiraz netanyahu באף מדינה באירופה המצב לא דומה לקטסטרופה שאליה הובלת אותנו התפטר netanyahu באף מדינה באירופה המצב לא דומה לקטסטרופה שאליה הובלת אותנו התפטר lioramihai דיווח ראשוני של YeshDin פלסטיני נפגע הבוקר כתוצאה מירי גז מדמיע שנורה לעברו בכפר עסירה אל קבליה בזמן שהחקלאים ברחו מהירי… ועדת החוקה ננעלה  התקנות לא יכנסו בחקיקה  כבוד לאופוזיציה נקווה שלא יכנסו בתקנות שעת החירום באוניברסיטה העברית למדתי עם אוסמה סעדי ועופר כסיף שני חברי הכנסת שהובילו הלילה והבוקר לצד אחרים כמו חברתי תמר זנדב…  Ahmadtibi נציגי המשותפת בועדת חוקה osamasaadi63 ו  ofercass  ושאר חברי האופוזיציה עושים עבודה מצוינת מאתמול  וגם בלילה ועד לרגע… בשולי העיתונות הימנית צמחו במהלך השנים באין מפריע גידולי פרא תקשורתיים מככבים בה אנשים שמדלגים בין עיתונות לפול…  בעוד בכנסת מוציאים להורג את חופש ההפגנה אני רוצה להזכיר שהיום לפני 38 שנה התקיימה בתל אביב הפגנת ה400 אלף נגד הטבח…  כבוד ליזהר שי על כל שרי הממשלה ללכת בדרכו zehavagalon ראש הממשלה עשה את מה שהוא יודע לעשות הכי טוב להטיל אשמה ניהול המדינה גדול עליו אבל ביחסי ציבור והטלת רפש יש לו קילומטרז… זה המשבר הכי חמור שידעה האנושות במאה השנים האחרונות חייבים להיות מאוחדים במלחמה נגד המפגינים zehavagalon זה סיפור כל כך מומצא שמלצרית בבית קפה סיפרה אותו לריקלין והוא אמר לה די הפעם הגזמת עצה לגנץ מה לגיד בנאומו הערב לקראת יום הכיפורים אני מבקש סליחה ממאות אלפים שגנבתי את קולם ומאזרחי ישראל על שהייתי…  Ahmadtibi אף לא מיטת טיפול נמרץ ילדים בנצרת והסביבה 3 בתי חולים פרטיים בעיר מנהל ביהח הצרפתי דר נאיל אליאס  בנצרת פנה למשרד הבריאו… ככל שמתכנס קבינט הקורונה יותר כך מתחזקת הקורונה טוב שלא מכנסים את קבינט הפיוס tamarzandberg אלפי חולים עשרות מתים ומאות אלפי מובטלים חדשים למי אכפת מה צעקו לו Ahmadtibi אמרו מראש שזו ממשלת חרום ואהן הביאו אותנו למצב חרום לא מבין על מה הטענות tamarzandberg שר האוצר שר הכלכלה כל שרי כחול לבן שראו במו עיניהם את אירועי הלילה ויודעים שהחלטות מונעות משיקוליו של נאשם בשוחד ולא מ… לחץ על נתניהו מצד מקורבת להשאיר את המכבסות פתוחות גם בסגר aradnir מערכת האמון קורסת יותר משביבי רוצה לחסל את ההפגנות הוא רוצה לסכסך כדי לחסל את האופוזיציה זכות ההפגנה היא קדושה ואין לפגוע בה ויש גם…  yairlapid הממשלה הצביעה על סגר שני עכשיו שתגלה לנו איך לא נגיע לסגר שלישי מה התוכנית yayafink 12 אלף איש ואישה כבר אישרו הגעה להפגנה הוירטואלית שלנו במוצש מפגינים בבלפור מהבית סיימנו 25 ימים רצופים של טמפרטורה מעל הממוצע לא היה אף פעם דבר כזה גם הממוצע הוא כבר לא מה שהיה פעם חייבים לעצור את ההתחממות מתארגנת ביום כיפור תפילה המונית להתפטרות נתניהו pninatamanosh ממשלת הקורונה נכשלה 200000 נדבקים ממשלת הקורונה הביתה AGvaryahu ראש ממשלת ישראל לא טס לוושינגטון בשיאה של מגפה דקה לפני סגר כדי לחתום על הסדר שיעניק לישראלים את הזכות לטוס מתישהו דרך איח… NitzanHorowitz עפר שלח לצערי נותן יד להשתקת כל מחאה חודשים קדימה העמדה הזו היא רוח גבית למי שרוצה ציבור כנוע כלוא בביתו שלא רשאי למ… היום לפני 24 שנה פתח ביבי את מנהרת הכותל וגרם למהומות שהובילו למותם של 17 חיילים ו100 פלסטינים לך הביתה כבר yarivop zionnenko ההפגנות החשובות ביותר בהיסטוריה של ישראל התרחשו בעת מלחמה השעייה לא תהיה זמנית אלא לחודשים רבים עד שיימצא החיסון… אלמונים תקפו רכב של משמר הגבול ליד ההתנחלות יצהר היום תעביר ועדת הכספים עשרות מליוני שקלים להתנחלויות בשטחים aviadglickman רן כרמי בוזגלו מגדולי תומכיו של נתניהו אתמול בערב מול ביתו של מנדלבליט במסר מאייםהיום הילדים שלך ירגישו מאויימים… AvishaiReu כן נתניהו מסית נגד ההפגנות בעוד שהוא היחיד במדינה שיכול וצריך להפסיק אותן על ידי הליכה לנשיא yayafink החלטנו בתנועת darkenuIL לארגן במוצש הקרוב הפגנה וירטואלית שתאפשר למאות אלפי ישראלים שלא יכולים להגיע לירושלים להיות בבלפור… בואו נתפשר ביום כיפור לא יתפללו בבתי הכנסת ולא תתקיים הפגנה brownjohnbrown אם בתי כנסת וישיבות שקולים להפגנות אני מצפה מהמדינה לסדר בכל שכונה עשרה מתחמי הפגנות במרחק הליכה במימון ציבורי לממן… YoazHendel1 פעם היית בעד מדינה יהודית ודמוקרטית אחר כך התנגדת לדמוקרטיה ועכשיו אתה מתנגד גם ליהדות עם תפילות עם…  מתווה יום הכיפורים חייב להיות פשוט בתוך בית הכנסת עד 0 אנשים תפילה בחוץ בסדר עד מליון איש גמר חתימה טובה regevmiri טופז לוק שמהווה סכנה לא בא להפגין גם הנהג שבא לדרוס לא בא להפגין אבל רגב שתמיד תגנה את הקורבן במקום לג…  בביתו של הנהג שניסה לדרוס התגלו גליונות של ישראל היום BarakRavid ליצמן התפטר לייפר תוסגר החלה שנה וברכותיה YehudahGlick kereneubach אתמול נפטרה מירית הררי מסרטן שככל הנראה נגרם מעישון מקדישים לה הרבה זמן ובצדק  אך לא מז…  הנהג שניסה לדרוס הייתי בדרך לבדיקת בלמים JoshBreiner שבועיים הייתי בבידוד השארתי משפחה להסתדר לבד איזה אידיוט הייתי כל מה שהייתי צריך לעשות זה לטוס לארהב להסתובב עם אנשים… יועץ ראש הממשלה הפר בידוד עבירה חמורה  אם הוא אכן יצא ממעון ראש הממשלה אז הוא וראש הממשלה הפרו את הצו האוסר לארח…  zehavagalon ניסיון הדריסה הערב בבלפור הוא תוצאה של הסתה מתמשכת של רהמ וחסרי החוליות שעומדים לרשותו האנשים האלו פותחים נצרה וסותמים א… כשיש מסיתים יש גם מי שמנסה לדרוס היום לפני 38 שנה ראש השנה עם היוודע מימדי הטבח במחנות הפליטים סברה ושתילה שבביירות יצאו ישראלים טובים להפגין באו…  haimgoldberg השוטר שנתן למפגין החרדי בבית ישראל אגרוף לפנים בשבת הוא לא רק שוטר אלים הוא גם שוטר פחדן שמנצל את זה שאין מצלמות מפגין בכיכר צרפת במרחק שני מטר מהמפגינים האחרים ופחות מקילומטר מהבית של הנאשם לך  almogbenzikri ערב ראש השנה זוג הומואים שמתגורר בעיר העתיקה באר שבע היה קורבן לתקיפה על רקע נטייתם בשעה 2 בלילה הם התעוררו לקללות מו… YairGolan1 צאו לרחובות ולכיכרות וראו כמה אזרחי ישראל ממושמעים הרחובות ריקים והמעט שמסתובב חבוש במסיכות אזרחי ישראל נושאים בעול בגבור… EstyS מזל טוב בחוץ יום כיפור היום והמחדל שופטת בית המשפט העליון האמריקאי רות בייגר גינזבורג הלכה לעולמה גינזבורג שהעידה כי הופלתה בעבר על רקע היותה יהודייה…  talschneider האישה השנייה בתפקיד שופטת עליונה והיהודיה הראשונה בעליון רות ביידר גינסבורג נפטרה הלילה בארה״ב בת 87 המאבק הפוליטי על… SherriPizza מזל טוב Ahmadtibi שתהיה שנת טובה שנה של כיבוד ולא של קוביד של סובלנות ולא של סבל שנה של חיסון ולא של חסינות שנה שבה נקטע את שרשרת ההדבקה… שבשנה הבאה תהיה תמונה כזו עם 50 אחוז נשים  הארכת טווח היציאה מהבית לקילומטר מאפשרת לנתניהו ללכת לבית הנשיא להתפטר לך שתהיה שנה בלי הצהרות ראש ממשלה בשעה 20 ושראש הממשלה יתחלף שנה טובה mikiros1 ברור שnetanyahu לא מסוגל לנהל את המשבר הזה פשוט גדול עליו הוא מדינאי  לא מנהל לא איש עשייה הכי טוב למדינת ישראל שביבי י… הכדורים התועים הגיעו לירושלים המערבית ילד בן 6 משכונת מעלות דפנה שבצפון מערב העיר פונה אמש לבית החולים לאחר שנפצע מקליע ruthelbaz החרגה נוספת מותר לישון על רצפת מטוס בשביל תמונה KElharrar בזמן שישנתם הממשלה לא הצליחה להסכים על נוסח תקנות הסגר שאמור להתחיל עוד 30 שעות בעקבות כך בוטל הדיון בועדת חוקה שנקבע להבו… עובדים בבית הלבן התגלו חיוביים לקורונה תזכירו לי מה הם אמרו כשהתגלה שהיה מפגין שהתגלה אחרי ההפגנה כחיובי לקורונה JoshBreiner גם לוקח אחריות וגם מבקש סליחה בטוחים שזה מנהיג בישראל zehavagalon תגידו אם הם הפרו הנחיות למה שלא יהיו בבידוד 14 יום הרי גם ככה יש סגר   yairlapid תודה גדולה ואישית לשר הרווחה ishmuli  שנענה לבקשתנו לאפשר למשפחות עם צרכים מיוחדים לבלות את החג עם יקיריהם ולהחזירם למסגרות… netanyahu אות קין Ahmadtibi מציע קודם לעשות שלום עם 20 מהאזרחים האזרחים הערבים בהסכם השלום יהיה סעיף אחד בלבד כל האזרחים במדינת ישראל יהיו שווים ZulatEquality ואולם האמת היא אחרת אין מקום להשוות שדרוג של נורמליזציה עם שתי מדינות מרוחקות לסיום מצב הלוחמה עם המדינה החזקה ביותר ש… הרשימה המשותפת מהווה כמעט 13 אחוז מכנסת ישראל אבל נתח ההופעות של חברי הכנסת שלה בכלי התקשורת הוא 07 אחוז כדי שיופ…  Ahmadtibi הטרלה של הורי התלמידים yairlapid חמישה חודשים העצמאים מחכים להבטחת נתניהו העלנו את החוק לכנסת הקואליציה הפילה את החוק ואמרה שהיא תעלה בעצמה חמישה חודשים וכ… bokeralmog תחשבו רגע על המשפחה משדרות שאחד הילדים שלהם נמצא חיובי לקורונה והוא שוהה בבידוד באחד החדרים ואז צבע אדום ועוד אחד ועוד אחד… אני עוד זוכר שרדפתי אחרי חיילים בריטים  הנפגעים מהרקטות על אשדוד הם קרבנות השלום yayafink טוב שלום מארץ ישראל השלמה עשיית שלום וביטול הסיפוח זאת לגמרי היהדות שלי אני בטוח שלאחר הארוע הצפוף ללא המסיכות במדשאת הבית הלהבן נתניהו יפסיק להסית נגד ההפגנות Ahmadtibi לא יהיה שלום במזרח התיכון בלי שלום עם העם הפלסטיני בלי סיום הכיבוש שלום שישים קץ למלחמות ושפיכות הדמים הוא עדיף על שלום ע… היה ברור שברגע שגנץ ישאר כאן לבד יסגרו את בתי הספר RotemShtarkman אחת דמוקרטיה אחת דיקטטורה אחת שלחה שרים בממשלה שניה שלחה שליט יחיד עם אשתו וילדיו מרגש צעירים בכפר יאסיף מצילים תינוקת שננעלה ברכבה האם מודה להם צפו  bezalelsm במקום להתנגח אחד בשני יש לתמוך בתפילות הפגנות תקיעה בשופרות וכל אירוע אחר שנערך בחוץ חצי שנה אני כועס על עצמי שהצבעתי לעמיר פרץ אבל היום הפוגה של יום לאחר שעמיר קיבל את המלצת קבט משרדו שלא לאשר לרכזי…  ביום ההיסטורי הזה מן הראוי שנתניהו ילך בדרכו של בגין שהתפטר היום לפני 37 שנה ישראל כץ ליונית לויאני אני אני אני אם רק יוסיף את רעייתי יהיה כשיר להחליף את ביבי nirhasson כולם מעודכנים בזה שהמשטרה מחזיקה מצלמות וכרטיסי זיכרון של עיתונאים ומבקשת להשתמש בחומרים כראיות   די עם הבלגאן צריך שוויון תפילה בחוץ הפגנה בחוץ מותר בכל מספר בפנים אסור ReutMor צד אחד מאשים את ההפגנות ובצד השני מאשימים את התפילות  וכך כולנו משרתים את האג׳נדה של המושחת שרק רוצה לראות אותנו אחד נגד השנ… NitzanHorowitz בראיון מדהים בGLZRadio סיפר מנהל בי״ח העמק ד״ר זיו רוזנבוים שמאז תחילת הקורונה  כבר חצי שנה לא הוספה שם אפילו מיטת ט… zehavagalon רהמ נתניהו טס לוושינגטון לחתום על מה שהוא מוכר לנו כהסכם שלום מבלי לעדכן את הממשלה והכנסת רוצים לדעת מה יש בהסכם הזה… shacharbm יכול לשלוח לי בבקשה ל Razmossi1965gmailcom shacharbm מה זה המסמך הזה לא רוצה לסכסך אבל כדאי שעמיר פרץ ידע ששר הכלכלה של איחוד האמירויות יהיה בטקס החתימה Ahmadtibi נתניהו מוושינגטון אני מחזק את הציבור הישראלי תחזיקו מעמד שם מול המגפה הוראות הסגר יכולות דווקא לחזק את ההפגנות בשעה היעודה נאמר בצאת החג ביום ראשון בשעה 1930 יצאו המונים מביתם ויצעדו…  די עם הויכוח מי אשם הממשלה או הציבור הממשלה אשמה בכישלון הציבורכולל אותי לכל הרוחות אשם שבחר את הממשלה הרעה הזו chaimlevinson 1 Shiritc יוחרגו צריך לאפשר כל מה שבחוץ הפגנות תפילות הליכה לים הכל bezalelsm שטח פתוח צריך להיות פתוח לכולם תפילה הפגנות ים בריכה עלייה לקברי צדיקים פיקניקים ועוד היום הבנתי מה פירוש הביטוי האירוניה התאבדה כששמעתי את עמיר פרץ אומר שהבעיה שלנו היא אובדן האמון Ahmadtibi בגל הראשון מדא היתה אחראית ישירות על תחנות היבדק וסע בארץ ובישובים הערביים והיא פרסה תחנות בכל היישובים במהירות ויעילות  ב… היום 27 שנה לחתימה על הסכם אוסלו שסיים את האינתיפאדה והוביל לשלום עם ירדן הימין לא מבטל אותו בשל יתרונות השתפ הביט…  GadeerMreeh בהתרגשות רבה אני מודה לך אמיר השכל על בחירתך בי כאשת השנה  זה מרגש ומשמעותי עוד יותר כשזה מגיע ממך אדם שמצליח לסחוף אחר… לקראת ראש השנה ויום הכיפורים אני מבקש סליחה ומחילה שהצבעתי לרשימת אמת זה לעולם לא יקרה שוב הערבים נוהרים לוושינגטון לחתום עם ביבי einatovadia שבת שלום מתוקות  naamuli84 אני מטיל ספק בטענה שהם פחות ממושמעים יש שם יותר צפיפות ולכן יותר הדבקה אגב פחות נשים מגברים היו בצבא ו…  yairlapid מטוס פרטי עכשיו מה פתאום מטוס פרטי לאנשים אין מה לאכול אין גבול לניתוק ולאטימות של האיש הזה danawt נתחיל הסוף  אף אחד לא מחרים  YunaLeibzon עמיתתי המעולה  תהיה שם אנחנו פה  ועדיין כמה מילים על ההחלטה שלי להישאר בארץ על ה… NirACohen77 וגם הבוקר הזה חייבים לזכור ולהזכיר שכחול לבן בהובלת בני גנץ ממשיכים לשבת בממשלה עם ביבי הם אשמים במצב לא פחות ממנו עד… Liberwomen לי דווקא לא מפריע שראש הממשלה נוסע לוושינגטון בשיאו של משבר הקורונה מי ישמע הוא מנהל אותו כשהוא כן בארץ yairlapid העובדה שנתניהו נמנע מפגישה עם ג׳ו ביידן בנסיעתו לארה״ב עומדת בניגוד לנוהג רב שנים מזיקה לנו מדינית ומעמיקה את הקרע ההרסני ש… הכיבוש מרעיל חכ עופר שלח ידיעות אחרונות היום schatzah גדלים פה שונאי אנסים סדרתיים תשובה מושלמת לחקירה השערורייתית  מתנגד לנסיון להוריד משידור את עירית לינור וקובי אריאלי לפחות אחת מהם אמרה גם עלי דברים קשים אבל חופש הביטוי כולל את זכותם לאמר דברים קשים לא צריך סגר נתניהו רק יבקש והאוזר יעביר חוק שמאריך את יום כיפור בחודש כשליצמן אמר לנתניהו אתה הורס לנו את החגים הוא אמר בטעות ג במקום י נתניהו הורס לנו את החיים אז מסתבר שלא נבלה את ראש השנה באבו דאבי ShaniAshkenazi שקר צבא העם הגיע הזמן לבטל את גיוס החובה barpeleg במשך כשנתיים אני מלווה את חסאן ורואה את ההתעללות הבירוקרטית שהוא עובר באורח פלא כל פעם ששלחתי עבורו שאילתה דברים הסתדרו לפ… yairlapid אם ביבי וחבורתו היו משקיעים במאבק בקורונה עשירית מהאנרגיה שהם משקיעים בנסיונות לחלצו מהכלא היינו היום  מדינה ירוקה לאנס יש תעודת הוקרה ממשה קצב ענק  הזדעזעתי לראות את הסרטון המזעזע והקשה מרכבת ישראל אם מישהו ברכבת באמת הורה לא להעלות חרדים בתחנת בת ים הוא חייב לעוף רצו 400 נדבקים הכניסו למערכה את ראש הממשלה נוסף עוד 0 יש 4000 ReutMor עוד בוקר שמתחיל בהתכתבות כואבת בקבוצת החברות היינו ילדות ונערות בתל אביב של שנות התשעים והאלפיים וראינו הכל וחווינו על גופנו… כשהיו 2000 חולים ביום מנכל משרד הבריאות ברח ליומיים לאבו דאבי עכשיו יש 4000 ביום וביבי בורח לארצות הברית לאבעה ימי…  BarakRavid אנחנו על סף 4000 ישראלים חדשים שחיוביים לקורונה מדי יום תוך כמה ימים עלולים להיות 5000 מדי יום נתניהו לא יכול להרשות לעצמ… ruthelbaz פעם חשבתי שראש ממשלה ששקוע תחת כתבי אישום לא יכול לנהל מדינה עכשיו אני מבינה שזו מפלגה שלמה שלא יכולה לנהל מדינה bnyiroz כבוד yayafink חייב להגיד שלא מעריך את התכנית יצאת צדיק במקום להיות חזקים על חזקים הם חזקים על חלשים לכו תעשו תחקירים על תשובה על כיל ע… mossiraz gantzbe אם באמת חשוב לך שלטון החוק וותר ממחר על הליכה לבית הספר gantzbe אם באמת חשוב לך שלטון החוק וותר ממחר על הליכה לבית הספר almogbenzikri פרסום ראשון קשיים התגלו סביב השאלה אם שלמה קרעי יכול לנהוג בD9 שלא ישאיר זכר ממפלגת צאלח אדין קרעי סיפר להארץ שיש… netanyahu סוף סוף ראש הממשלה בעד חקירה בלתי תלויה של פרשת הצוללות אהלא origivati המשטרה מספרת שמצאו טביעות אצבע שלי על השלט סבבה אני בטוח שאם היו משקיעים פה בתפיסת עברייני מין כמו שמשקיעים ברדיפת פעילים… חכ אחמד טיבי בעקיצה לאוסנת מארק שצועקת על ניסנקורן צריך לקרוא אותך לסדר על ההופעה של הדמות שלך אתמול בארץ נהדרת RotemShtarkman כבר 3 שנים ידוע שאל קיעאן חף מפשע כל הדוחות הראיות והכתבות הוכיחו את זה למעשה כבר מהיום הראשון זה היה די ברור ואף נכת… almogbenzikri יש גם אלמנה נוספת קלרה לוי שמה שאמרו לה שבעלה נרצח בפיגוע באום אלחיראן אני מנסה לדמיין מה עובר עליה בימים האחרונים כ… schatzah הם כולםםםם ידעו שאבו אלקיעאן חף מפשע אבל נהנו לרקוד לערבים על הדם הם כולםםםם יודעים שאף אחד לא מכבה טלפונים אבל נהנים להפיץ… idobenbaji אום אלחיראן בפרקליטות לא חקרו כדי לא לעזור לנתניהו נתניהו מתנצל כדי להתנגח בחוקריו בפיד דנים בקשר לתיקי האלפים בקיצור… נתניהו עוד יגיד שישראל כבשה את השטחים ב1967 כדי להרשיע אותו  winerez הצייצן מספר 1 13 מליון תחת עוצר 18 מליו עניים יש חפיפה גדולה ביניהם netanyahu לכשתחזור מהמדינה האדומה נא להיכנס לבידוד ולא לזייף בראש השנה כמו שזייפת בפסח טוב שיש סגר נושם לפחות דבר אחד עוד נושם כאן משטרת ישראל צריכה להתנצל בפני איימן עודה על שפגעה בו באום אל חיראן  למשפחתו של יעקוב אבו אל קיעאן למרבה הצער לא תעזור שום התנצלות מתוך סולידריות עם תושבי הערים המוחלשות הנתונים תחת עוצר לילה בכוונתי להימנע מלצאת מביתי בלילות הקרובים אלא אם יווצר צורך דחוף einatovadia נתניהו מנצל את הרצח באום אל חיראן את כאב המשפחה ואת ההסתרה המכוונת של מה שקרה שם באמת בשביל צרכיו הפוליטיים והוא אדם רשע… יעקוב אבו אל קיעאן הוא קרבן חף מפשע הגיע הזמן להכיר בו כנפגע פעולת איבה zehavagalon אריאל אני מבינה שקראת עיתון הבוקר ולא וידאת קודם שזה ישראל היום zehavagalon יכלת לעצור ב״אין צורך בסיעת הליכוד״ הסתיימו מהר הפריימריס ביש עתיד zehavagalon חושן ארגון ההסברה והחינוך של הקהילה הגאה בישראל נפגש בבתי הספר עם בני נוער המפגש יכול להציל נוער להטבי שחושב שהוא לב… דעה לא פופולרית לא שותף להתלהבות מבנט אם יבחר במקום נתניהו תהיה זו נפילה מהפח אל הפחת זוכרים  היום 6 שנים ליום בו נכנס אברה מנגיסטו את לרצועת עזה נעלם וכנראה נמצא בידי החמאס</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yigalc73 מחזק את מה שאני אומר לך כל פעם רק אנשים מעניינים יכולים לכתוב סדרות מעניינות אין מה לראות סדרות של אנשים שלא מעניינים אותך N12News מי היה כאן ראש הממשלה בחצי השנה האחרונה אולי גם לו יש אחריות כך הגיבה KerenMarc  להצהרת ראש הממשלה  dovbsin roysharon11 גם לך רק אומר yanivbiton99  rumblevcrumble נראה לי לא זול בכלל כולל הייבוא והכל ShaniAshkenazi RonHuldai הבעיה שלנו היא לא מחסור באומץ אלא מחסור במרחב ציבורי לפעול בו הכל קטן הכל צפוף והרוב…  est987 אי אפשר גם להגיד טקטי ומהיר וגם לדבר על מצב הכביש והתשתיות זה או או או קומנדו או חטיבת שריון ShaniAshkenazi RonHuldai לגבי הכרם ונווה צדק אני מסכים איתך  החזון לשכונות האלה צריך להיות עם מינימום רכבים בש…  ShaniAshkenazi RonHuldai נכון נחלת בנימין למשל פועל כרחוב בבוקר על מנת להקל על הסוחרים זו אוכלוסיה חשובה לא פ…  ShaniAshkenazi RonHuldai ויחד עם זאת  אם יש מקום שאת חושבת שאפשר לעשות בו התערבות נשמח לשמוע היה גל ראשון של…  ShaniAshkenazi RonHuldai כמעט כל הצירים הראשיים בעיר ייסגרו כל צירי המשנה יהפכו לעמוסים בתחבורה ציבורית המרחב…  ShaniAshkenazi RonHuldai אפשר למצוא גם בת״א כמה תמונות  שיראו שדווקא כן עושים פה ״סטוקהולם״ אבל אם לרדת לשורש ה…  DorLasker avishaysela געגועים גם מהצד השני abaleh העיקר שהצעתי התקבלה לא whatevergever 1 ZRTZR ברור שזה מבוים guylerer תהיה חזק חבר דיברנו על זה שזה יהיה רגע קשה עשיתם המון טוב לעולם זה לא יספיק  stagadouch בתל אביב במקרה כולם מדברים על אלשיך  אף אחד לא מדבר על ארדן השר לבטחון פנים שהגיע למקום באותו הבוקר קבע שמדובר במחבל והאשים את…  jony4212 לא יודע אבל אם היה פתרון זמין אני די משוכנע שהיינו כבר מזמן מאמצים אותו jony4212 רק בן אדם שכל כך איכפת לו כל כך מתעצבן מהדברים האלה רובם באמת מטריפים אבל הם חלק מהמכלול שכולנו אוהבים…  tamarlask טופל  Yashar2U  barakbl אודיסאה yoavr  mtklng קיקה אלמודובר 1993 גרסה מוקדמת יותר  mtklng eyaldatz ממש לא אבל אם הוא ירוץ וייבחר  זה חדשות נפלאות למדינה therealnirs TelAviv  Oelster zviashkenazi  zviashkenazi תודה אכן הבטחתי ושמח שזה עזר בהלם שזכרת את זה בפועל הקרדיט ליועצת רה״ע למעמד האשה  אפרת מייקין כנפו abaleh מנחש שעוד מגדל אבל לא בדקתי SecPompeo The people of Israel recently made a beautiful demonstration of solidarity with the people of  Lebanon  by illuminating the… DoroniP RIP freyisrael1 עצה ידידותית אם אתה לא רוצה שיזכירו שאבא שלך טרוריסט אל תמזער את סיקור האלימות הפוליטית מימין על ידי סימטריה שקרית מה ל… spez RonHuldai EINATkalisch kunikran השלושה האחרים לא באמת מסורים robertrabin ברוך הבא  כן יירבו dudiLift מושלם EliBarbel 1 Elinorigby היי חברות וחברים מדובר באותו אדם שפגע גם בי אם זה לא רלוונטי אליכם ומקווה שלא בבקשה בבקשה בבקשה שתפו אולי ביחד נצליח ל… noalandau Live from Tel Aviv A rare moment of solidarity   TelAviv  סינמטק תל אביב מחפש מנהלת אמנותית  דרישות המכרז גמישות למדי אבל הכי חשוב  מישהוי שמאוד אוהבת קולנוע ישראלי ו…  elad3 spez jimmyjazz0123 אלה בדיוק הגבולות של הפעימה הראשונה שאני מציע קטע בואו נדסקס ברצינות בשבוע הבא spez elad3 jimmyjazz0123 תשמע זה ממש דומה למתווה שאני עובד עליו סמול מיינדס  שווה לדסקס קצת יותר לעומק במהלך שבוע הבא spez האפשרות השנייה היתה שביל דו סיטרי בצד אחד אבל אז נכנסים לבעיה בצמתים spez זאת גם היתה עמדתי אבל זה נפל מטעמי בטיחות הסיבה המרכזית היא רוחב השביל יש מקטעים צרים ברחוב ואם רוצים שב…  Nirpetel לשכנע את אבי ניר אבל זה יהיה קשה כי זה פרוייקט קצת יקר ביחס למה שקורה היום שלא לדבר על זה שזה נולד בתקו…  drgilitamir LeonSlepyan DavidAgaev3 מכיר ומוקיר מאוד את פועלו מהאנשים שיקבלו פרס ישראל צדיק בעירו LilacBL zviashkenazi TogetherKulan iTelAvivYafo אנסה ruthelbaz ״תפקידה הראשון על המסך״ חצופים לא יהיה פה שום קלוז׳ר עד שלא אזכה בתביעת הדיבה נגד ישראל היום considerthefish ואין אוטובוסים  חלק מהקסםשקט considerthefish פידתחבורה בעלי עסקים נוטים להתנגד לביטול מקומות חניה בטענה שזה יפגע בהם אבל סקירה של 12 מחקרים מהעולם מוצאת שלסלילת… ronasherov considerthefish iTelAvivYafo MeitalLehavi אוקיי אעבור שם בשבוע הבא ואחפש מקום  תודה considerthefish iTelAvivYafo MeitalLehavi צודק יטופל est987 MeitalLehavi בקיצור צריך להתחיל מדידות ותכנון ואז נדע איפה אנחנו עומדים לא הייתי בונה על 2020 מקווה שנצליח ל2021 est987 MeitalLehavi מצד שני כיוון שהתכניות העתידיות הן להרחיב את הרחוב להגדיל את המדרכות לייצר מסחר ושבילי אופ…  est987 MeitalLehavi לא ״אמור״ להיות מסובך אבל גם לא לגמרי פשוט כי יש תחבורה ציבורית משני הצדדים מה שדורש תכנון ש…  est987 MeitalLehavi בהחלט חייבים שם שביל גם מתוכנן אחד מבטיח לנסות להקדים את הביצוע שלו ZRTZR וואו מקרה קיצוני אם הוא קורה הרבה בשלב ראשון הייתי מגביר אכיפה לפעמים זה מספיק rahelibindman גם חלק מהתכנית spez בינתיים אין תכנון כזה eliavl תבוא לשיתוף ציבור יוסבר שם eliavl האדומים  שבילים ראשיים הירוקים בהירים  שבילים משניים talrabinovsky ittaishick הטיפול בצמתים הוא חלק מרכזי בתכנית בשיתוף הציבור נרחיב על הפתרונות ilalevy בבקשה   nirmatara בבקשה   ronasherov בשנה הבאה אמורות להתחיל שם עבודות הרכבת הקלה ואז סוף סוף יהיה שביל ofekzemach בבקשה   IllBrains בבקשה    ShayLibrowski יהיו עוד כמובן yuvalvar בבקשה    DorVardi צמתים הם חלק משמעותי מהתכנית TheMokagi בבקשה   yguyyyy AssafShtauber הכל תלוי ברוחב הרחוב השאיפה היא שבילים דו סטריים משני עברי הכביש אבל זה רק בכבישים ראשיים…  RosinJonathan 1 תודה 2 לינק למפה ברזולוציה גבוהה   3 המפה פתוחה לשינויים רצינו להביא משהו קונקרטי לשיתוף ציבור assafon 5 שנים  אם הכל הולך חלק בטח ייקח קצת יותר isrPiccolo מסכים כל עוד כל ערי המטרופולין לא ייקחו חלק בשינוי סדר העדיפויות יהיה קשה לייצר מהפיכה אמיתית AssafShtauber אמור לרדת בסוף השנה נובמברדצמבר isrPiccolo לצערי בינתיים רק דיבורים Idan68492838 אם תשלח מייל מסודר לפה assafhareltlvgmailcom מבטיח להעביר לגורמים הרלוונטים yosefmatan עושים ריסטארט בתחבורה תכנית האופניים שלנו יוצאת לדרך כבר השנה נסלול שני שבילים היסטוריים  בדיזנגוף ובהרצל נוריד לכביש את השבילים שמצוי…  itaihyman הלילה צובעים בנווה שאנן רח׳ סלומון chaluny therealnirs שמנו עמודונים isrPiccolo בהחלט מקווה שממש בקרוב יש שופטים בירושלים ויש שבילים טקטים בתל אביב  פינסקר  בין בוגרשוב לכיכר  yigalc73  yigalc73  היתה לי תחושה שהטלפונים שאני עושה לזקני העיר לא ממש פועלים לטובתי  gotomichal Alikfinkelstein ShaniAshkenazi naamuli84 אני לא חושב שיש פה היתממות אלא כאמור משאב מוגבל ברור שיש א…  telavivacation צריכים פה עזרה של הממשלה כי מבחינת החקיקה הקיימת לעירייה אין מספיק כלים לאכוף העלנו את הארנונה אב…  telavivacation זה קורה מעצמו זה היופי הן מתחילות לחזור לשוק בגלל הקורונה ״השוק החופשי נתן השוק החופשי לקח יהא השוק החופשי מבורך״ NeumanRoee מצטער על זה SagiShyovitz אני מציע בעניין כיכר אתרים לשפוט אותי לפי התוצאה הסופית ולא לפי כל מני כותרות ופרשנויות לא שיניתי את…  everytinisfine אתה צודק הקדשתי את רוב הזמן ללמוד את החומר ואת המערכת אשתדל להשתפר ולשתף יותר NeumanRoee יש מיקרו ויש מקרו במיקרו יש צוותי עבודה לכל נושא אופניים מדרחובים שמגבשים תכניות עבודה ואני חלק מהם…  ExteriorMusic עובדים גם על זה naamuli84 הגיעו ימות המשיח עיריית תל אביב מאפשרת להוציא כיסאות ושולחנות על חשבון חניה עושים את זה קצת מכוער לא יכלו להעתיק מברצלונה… אם יש לכם המלצות למדרחובים נוספים  אשמח לשמוע  assafhareltlvgmailcom מדרחובים שבילי אופניים הצללות ומרחבים להולכי רגל שנה שלמה אנחנו מגבשים הכל וסוף סוף אפשר לראות קצת תוצאות יש עו…  abuhobbit הבוט הבטיח בקרוב בשלב הבא  תכנית האופניים abuhobbit וריאציות שונות של בקרוב אצלנו ltltltRLbotgtgtgt therealnirs chaluny בקרוב עובדים על זה במלוא הכח aaronaaronmt dovalfon RonHuldai TelAviv מקווה שבקרוב מאוד עובדים על זה ReutMor  GadeerMreeh היום בכנסת israelrosner MattiFriedman kann מגיע לכם כל מי שעשה פעם דוקו היסטורי יידע להעריך את העבודה שלכם  מהעריכה המעו…  מלחמה בלי שם  סדרת דוקו נפלאה על הבוץ הלבנוני שבמשך שני עשורים היה חלק הזוי משגרת החיים פה מאות הרוגים אלפי פצו…  ShaiCohen13 גם אני ביחד עם ירון ניסקי ודורון צור    DavidLifshitz מעולה AsafZagrizak yoavr בעבודה בימים אלה ממש פרטים בקרוב yoavr זה אנחנו צובעים לא מע״צ נכון יפה  חוץ מזה כבר אין מע״צ RTsipris  RTsipris קייס לתפארת eyaldatz 1 לאוהבים את האביב ומילים מוזרות כמו דינגה דינג  SaHreports Day 13 of lockdown  yigalc73 בדרך avishaysela וואו אתה היחיד שזוכר את זה AsafCarmel1 roykatz ואליהו שפייזר כמובן ashavit23 AsafCarmel1 roykatz מאשר רשמית ברוך הבא מספר 3 ברשימה שלנו  eyaldatz אסור ShaniAshkenazi barakbl RonHuldai פינו את הכלים  תודה לפקחים שעובדים בשבת תודה למחלקת התפעול ותודה לסוכנת שלי שמלווה אותי מתחילת הדרך barakbl ShaniAshkenazi RonHuldai מסכים בודק OriBenDov Yashar2U ואכן לאור הגידול המבורך במספר הילדים בשכונה העירייה מבקשת להשתמש במבנה כבית ספר עם זאת מתו…  OriBenDov Yashar2U ההסבר הרשמי סניף הנוער העובד והלומד ביפו מקיים את הפעילות השוטפת שלו בבי״ס ויצמן שנסגר לפ…  OriBenDov Yashar2U אין לי מושג שומע על זה בפעם הראשונה אבדוק תודה barakbl eyal6699 צריך להבין שההגדרה הסטטוטורית של שטח בית הספר היא שטח חום  שטח לצרכי ציבור בעבר היה שם בית ספר…  eyal6699 בוא נתחיל מזה שתהיה ממשלה barakbl eyal6699 החלטה קשה שהתקבלה בלב כבד אבל לצערי לא נמצאה באמת חלופה עדיפה כל נושא הזרים בעיר מורכב מאוד במ…  eyal6699 לצערנו התשתיות בעיר רחוקות  מלהתמודד עם משבר האקלים מבחינת תקציבים כבר עכשיו אנחנו עושים את המקסימום אבל…  abaleh שכחת לתייג אותי הכל בסדר נשמה אלה חוקי הפורמט  לא יודע מי עשה אבל מדויק  YTB2018 shaulig theakerman RoeiGalnor עובדים על זה כבר כמה חודשים ממש לא שבועיים התקציב הוא 125 מיליון למיט…  yigalc73 אלק  בולדווין yigalc73 מותר האדם עלק  drornissan mayasel רעיון שכשל גם במקרה של האסיר איקס mayasel אינדיד ובגלל זה עד היום לא יודעים mayasel המעורבות של האדם השלישי לא הוכחה ולא נחקרה לעומקה סימני השאלה שם גדולים ורבים לא ברור האם נשבר בחקירה ש…  דרוש גרפיקאי של שבת עבודה קטנה שעתיים כזה שמערבת פוטושופ ופאוורפוינט חייב להיות מחר בתשלום כמובן מי פנוי ברוטשילד yuvalrub barakbl אנחנו רק בתחילת הדרך תן כמה שנים להוכיח את עצמי מקווה שתוך כמה שנים תחשוב אחרת תהליכים רציניים לוקחים זמן EstyS אעלה בקרוב מונולוג שמסביר את כל הסיטואציה עברהווהעתיד מחכה להחלטת הוולחוף EstyS ולעניות דעתי  זה לא הדיון המכריע אני סבור שהדיון המכריע עוד לפנינו פה אני חלוק על העמותה EstyS אני פה בדיון נלחם במגדלים בדרכי גם אם היא שונה מזו של העמותה זה לא אומר שאנחנו לא פועלים למען אותה מטרה ruthelbaz מה לא היה כיף OmerLubi ביבי  רוצה  שתדברו  על  הבחירות  החוזרות  במקום  על  ההפגנה  אתמול  סתם שתדעו  נב  לא יהיו בחירות חוזרות abaleh שולה קשת ואני דווקא מתואמים בעניין הזה אבל גם אם דעותנו היו שונות אני מעדיף רשימה שבה מותר לכל אחד להחזיק…  abaleh ספציפית זה אומר שבמקביל להקמת מרכז התרבות שהוא כאמור מבורך בעיני צריך לדאוג שיהיו מאות יחידות של דיור בר…  abaleh ג׳נטריפיקציה היא מילה שקל לזרוק אבל במציאות גם אם תיקח שכונה במצב קשה ורק תשפץ את הרחובות תוסיף גינות תא…  abaleh הדבר החשוב בעיני הוא כיצד יתפקד מרכז התרבות והאם תהיה בו רק ״תרבות לבנה״ או גם ״תרבות שחורה״ ויצוג לקהילות…  abaleh המציאות רחוקה ממה שאתה מתאר אבל כיוון שקמת מהספה ושרפת את הקול עלי מגיע לך הסבר מפורט  שולה קשת לא מתנגד…  ruthelbaz היי לכולם אני יוצאת לדרך עצמאית ומחפשת עבודה בניהול תוכן ודיגיטל קריאיטיב כתיבה וכו יש לי ניסיון בניהול דיגיטל וכתיבת…  במסגרת חגיגות העצמאות בבית הנשיא ציפי שביט נשיא המדינה וכל הקהל שרים יחד ״ברבאבא ברבאבא אוהבים אותך כולם״ ורק ראש…  לטוס לחו״ל עם תינוק זה מאתגר אבל גם להגיע לנתב״ג עם תינוק זה לא פשוט השבוע גיליתי את הסטארטאפ הישראלי החדש  מונית…  Lazyishai נכון אבל הסדרה החדשה שלו סתמית ובינונית ArielBH ברור  בוא נמשיך בפרטי ולגבי הבחור שבתמונה באופן מפתיע אנחנו מסכימים על הרבה יותר דברים ממה שחשבתי הדיאלוג מאוד ענייני רציני ומקצועי…  מקווה להתחיל לעדכן לעיתים תכופות יותר ולישון יותר הטלפון במשרד שיהיה לכם 037244605 פלאפון 0547324732 המייל assafhareltlvgmailcom תכלס הרבה מאוד נושאים קריטיים בעיר מחכים לשר תחבורה חדש ושר פנים חדש שיכולים לעשות שינוי אמיתי בנוגע לתחנה המרכזית…  נושאים נוספים שהתחלתי לעסוק בהם הגדלת כמות בתי השימוש הציבוריים ברחבי העיר ובגינות הסעות לים בשבתות הפחתת תקן הח…  המאבק על ציר שלבים גם כאן נשמעים קולות חדשים בעירייה תחזיקו לנו אצבעות  עובד על זה ביחד עם שלי דביר וגם כאן אני…  אני מנסה לעזור מבפנים למאבקים החשובים בעיר המאבק להצלת העצים שנותרו בארלוזורוב ממערב לאבן גבירול נעשים ניסיונות…  ביחד עם שותפי לסיעה אמיר בדראן אנחנו מלווים את הנסיונות להסדרת נמל הדייגים הפרדסים ובתי הקברות בפרוייקטים החדשים…  מגדלים בני השגה  ביחד עם יו״ר ועדת התכנון והבנייה דורון ספיר מתחילים לשנות את תמהיל הדירות במגדלים החדשים בעיר וב…  תכנית האופניים הגדולה  כאחראי על תחום התשתיות של שבילי האופניים אנחנו מתחילים לגבש  ביחד עם צוות התחבורה הרציני…  פינויים בעיר  בחודש האחרון הגישו יותר מ200 משפחות בקשה להצטרף למתווה הפינוי של שכונת הארגזים מדובר במתווה פינוי…  ברגע שכל הפרטים ייסגרו אציג לכם אותו במונולוג מיוחד שיפרט את כל ההסכמות המחלוקות והסטטוס העדכני בכל מקרה אני מאמ…  רוב הזמן מוקדש לפגישות ישיבות ושיעורי בית אני עוד רחוק מלהציג הישגים ממשיים מדובר בתהליכים ארוכים אבל אשמח לשת…  מבזק עדכונים דבר ראשון אני מתנצל שאני לא מעדכן בתדירות גדולה יותר השילוב של תפקיד חדש ורציני ביחד עם תינוק…  ruthelbaz נחמד שכחתי את זה odedkramer נחיתה הבאה  רק עם מאמן זר zviashkenazi תודה צבי mtklng ברצוני להתנצל בשם מחלקת הקריאייטיב העירונית משחק המילים אינו ראוי ואינו מכבד את התושבים נותר לנו רק להתנח…  1 המערכון לא צחק על יוני אלא על מסע היח״צ ההזוי שאירגנת לעצמך באנטבה  2 יש הבדל קטן בין תכנית סאטירה לתשדיר בחיר…  drorfo יפה כתבת לזכר הזוגיות המופלאה של יונה עטרי ז״ל ואילי גורליצקי  Lazyishai תהיה בשקט תהיה בשקט תהיה בשקט תהיה בשקט תהיה בשקט תהיה בשקט תהיה בשקט תהיה בשקט תהיה בשקט תהיה…  תקשיבו לרותם סלע בסרטון מ2014  הבחורה יודעת על מה היא מדברת   כשיש לך כרטיס קופת חולים לפני שיש לך שם  mulisegev odedkramer היו ימים שהיה מותר לעשן בחדר כותבים ליד החלון swedishkeren  כבוד גדול להיות מוזכר בכתב האישום נגד נתניהו סעיף 195 מספר איך הפך ״מערכון ביקורתי״ הגדרה של היועמ״ש על מסעות נ…  קצת מוזר שכולם מדברים על איחודים בשמאל ואף אחד לא מציע את האופציה של איחוד עם חד״ש מילא העבודה אבל גם למרצ יש בעי…  AviBenayahu זה לא עניין של שמאל וימין  הכיבוש משחיתזו עובדהאמרו זאת לפנייגם שרון  גם בצה״ל מודעים לכך ומשקיעים רבות בחינוך והכנה… hagaykr igalmosko אהה אז שמתם לב שמתם לב שהכתבות של igalmosko מתחילות למלא את החלל הגדול שהותיר אחריו  קירשנבאום עם טון מדויק ומשעשע הוא הופך את ג…  elidukorski כשאנו נכנסים לכיתה או לגן מתנוססות מולנו תמונות נשיא המדינה ראש הממשלה והרמטכל  דמויות גבריות כאילו רק גברים יכולים להצ… לא מצליח להבין מה הטמפרטורה בחדר  לפני שנה נסעתי ליום כיף במתקן הכליאה עופר בשטחים רציתי להתרשם כמה אנחנו מוסריים לשבת קצת בדיונים לראות איך הסיס…  NitzanHorowitz אני רואה שמתפתח מיני קמפיין נגד אסף הראל ״הציני והאופורטוניסט״ אז ככה הוא לא הראשון ולא האחרון שמשנה כיוון בניגוד ל… asaflib שמתי לב שיש זעזוע בפיד מההחלטה של אסף הראל להיכנס לקואליציה של חולדאי עוד שמתי לב שאיש מהמזועזעים אלה שראיתי לא תמך באסף ה… dovhanin עוזב את הכנסת אבל לא מוותר על עשייה בשטח  hapoella זה לא אני זה פופטיץ תכלס מהפייסבוק של דניאל מירן  faniaoz איזה יפה כתבת ודיברת ושרת בציבור היה מרגש במשך 13 שנים היה dovhanin חבר הכנסת האהוב עלי להצביע לו היה מניה בטוחה הוא אף פעם לא הביך אותך או גרם לך להתחרט…  lironk1 שלא תדעי עוד צער odedkramer כשהיינו בסוף היסודי הבילוי של שישי בערב היה לנסוע לסעיד לאכול לאפה הקושי הגדול היה למצוא מונית של 7 ונהג שיסכים לדחוף אליה 8 המנוח ואני אחד הפרקים האהובים עלי בשוטטות היה לאיש הומור עצמי </t>
   </si>
   <si>
     <t>JewishAgency Wishing you a meaningful Yom Kippur May you be inscribed in the book of life YomKippur EveryOneOfUsTogether  HaSochnut מתרגשים מהזכות להיות שליחים לתפילותיהם של רבים כל כך מרחבי העולם לקראת יום הכיפורים חתימה טובה  IsaacHerzog  גמר חתימה טובה בריאות איתנה וצום קל לכל עם ישראל בארץ ובתפוצות   מוזמנים לשתף את הקישור לשליחת התפילות עם משפחותיכם וחבריכם    השנה בצל מגבלות הקורונה לא ניתן להגיע בחופשיות לכותל המערבי להתפלל מזה חודשים יהודי התפוצות מוגבלים או מנועים מלב…  at The JewishAgency have decided to invite anyone who so desires from Israel and the all over the world to send…  This year due to Covid19 restrictions there is limited access to pray at the Western Wall Not to mention the ma…  PresidentRuvi Mourning the passing of RuthBaderGinsburg a passionate champion of justice democracy and equality under the law insp… שנה טובה ומבורכת לכל בית ישראל בשורות טובות והעיקר הבריאות  מסכמים שנה מאתגרת ומרתקת  בסוכנות היהודית  שנה טובה  HaSochnut הטסנו עולים כשטיסות התבטלו סייענו למוסדות יהודיים בסכנת קריסה ואפילו העלנו משפחות על מנוף כדי לאחד אותן בסגר השנה התגייסנ… כולי תקווה שכבר בשנה הבאה נחגוג יחד עולים וותיקים חילונים ודתיים נשים וגברים את חגי ישראל במלוא עוצמתם והדרם ממ…  המבצע הזה יצא לדרך הודות לתרומות שגייסה הסוכנות היהודית מקרן היסוד הפדרציות היהודיות של צפון אמריקה ומקרנות שונות…  כמו ולנטינה למעלה 5000 קשישים ניצולי שואה ודרי דיור מוגן ב56 בתי עמיגור הפרוסים ברחבי הארץ קיבלו את המצרכים…  אין דבר שיותר ממלא את הלב מאשר לזהות חיוך מאוזן לאוזן כשהוא חבוי מאחורי מסיכה בטח כשהוא קורן מהעיניים כשהגענו השב…  22 מרגש לדמיין את את הילדים שלנו והדורות הבאים נהנים מפירות השלום יחסים כלכליים ודיפלומטיים עם מדינות האזור כפי…  12 היום נכתבה הסטוריה חדשה במזהת  ההסכם עליו חתם רהמ עם האמירויות ובחריין בתיווכו של נשיא ארהב והבית הלבן מבי…  33 Looking forward to visiting the special Jewish communities in the Gulf which will now become a visible part of…  23 I congratulate the leaders who brought this important moment It‘s exciting to imagine our children and future…  13 The agreement signed by the Prime Minister with the Emirates and Bahrain mediated by the President of the Unit…  JerusalemPost Chairman of the JewishAgency IsaacHerzog has hailed the breakthrough in relations between Israel the United Arab E… תודה ברק ותודה שזכרת בהחלט רגע היסטורי ושיהיה בהצלחה לחותמים בוושינגטון מחר  הלב היהודי פועם מרגש  while the Jewish Agency can support another Jewish community in the Middle East I congratulate the leaders of Israel Bahrain and the United States on the important agreement I was happy to cong…  additional services similarly to all Jewish communities around the world and the recent agreement with the UAEs Jewish community gtgtgt I spoke with the Head of the Jewish community of Bahrain Ebrahim Nonoo with whom I have been in contact with for…  22 אני מברך את מנהיגי ישראל בחריין וארהב על ההסכם החשוב שמחתי לברך את ידידי אברהם נונו על העובדה שבקרוב יוכל לב…  12 שוחחתי עם ראש הקהילה היהודית של בחריין אברהם נונו שעימו אני עומד בקשר שוטף כבר מזה זמן סיכמנו רשמית כי הסוכנ…  עלילה הסטורית  מרתקת שמראה שוב עד כמה מורכב האזור בו אנו חיים תודה לטל שניידר talschneider על חשיפתה ועל הבאת חלק…  Welcome home  ברוכים הבאים  קרדיט צילום לתמונה המצורפת מארק ניימן לע״מ במעמד נשיא המדינה ruvirivlin ונשיא האוני העברית פרופ אשר כהן הענקנו את הפרס ע״ש הנשיא ה6 חיים הרצוג ז״ל לד״ר יו…  ZvikaKlein הסוכנות היהודית בוחנת הפעלת שליח קבוע באיחוד האמירויות  עם כינון היחסים הרשמיים בין ישראל לאיחוד האמירויות הארגונים היהודי… JewishAgency 1500 children who made Aliyah immigration to Israel during COVID19 pandemic are set to start school in Israel TODAY… DanLavie1 הסוכנות היהודית וקרן היסוד יחלו לפעול בקהילה היהודית באמירויות • הסוכנות בוחנת הפעלת שליח קבוע • הרצוג פרק נוסף בספר של ה… JewishAgency will begin strengthening the Jewish community in UAE  boosting Jewish identity amp communal life Tog…  הסוכנות היהודית ביחד עם khuia וJFNA יחלו לפעול בקהילה היהודית באיחוד האמירויות לחינוך יהודי שמירת זהות יהודית ח…  ZvikaKlein עולם השליחות הציונית חוזר למסלול קבלו את שליחי השש שנת שירות הראשונים שיוצאים השנה  ללוס אנגלס בסלפי עם דיוקן של הבו… HaSochnut פותחים את שנת הלימודים החדשה עם ערוץ טיק טוק חדש מוזמנים לעשות את אתגר העברית העולמי שלנו או לשלוח להורים שרוצים לעשות מעב… Congratulations my dear friend and admired Jewish hero Natan Sharansky on the publication of your new book Never A…  ZvikaKlein כ90 אלף שיחות בנושא עלייה מרחבי העולם במחצית השנה הראשונה של 2020 הגיעו לגלובל סנטר של הסוכנות היהודית  בהן עלייה של 31… jfederations We were heartbroken to learn Chabad at University of Delaware was intentionally set on fire amp had major damage Were gra… JerusalemPost Approximately 1500 new olim who arrived in Israel amid the coronavirus pandemic will start their first school year as… התרגשתי לקבל באולם בו התכנסה לראשונה כנסת ישראל והשביעה את הנשיא הראשון 10 ילדים שעלו בתקופת הקורונה מברזיל צרפת…  ZvikaKlein הסיפורים נחשפים 90 שנים לבניין שבו נולדה המדינה  המפקדה הראשית של העם היהודי ספרו החדש של ההיסטוריון מרדכי נאור מוקדש למבנ… HaSochnut ברוכה הבאה Ayeletnnv שמחים להודיע על מינוי חכ לשעבר איילת נחמיאס ורבין ליו״ר הוועדה הציבורית של JREADY – מיזם שיתוף ידע ד… LFI Must read article from former Israeli Labour party leader IsaacHerzog and Michael Herzog    CotlerWunsh תודה IsaacHerzog  על אירוח דיון הכרחי על מנת להתמודד עם הדהלגיטימציה דמוניזציה ומוסר כפול נגד מדינת ישראל והעם היהודי… מאז פרוץ הקורונה אנו חווים עליה בביטויי האנטישמיות ושנאת ישראל ברשתות החברתיות זה עלול להתפרץ ביתר שאת עם הסרת המג…  CotlerWunsh Thank you IsaacHerzog for hosting this discussion on the imperative to combat delegitimization demonization amp x2 standa… MyShtender AriBergmann and here is Rav Yitzhak Isaac haLevi Herzogs obituary for Reb Meir Simcha of Dvinsk as published in The Lon… We are here to put an end to violence I turn to all men in our society stop violence against women It is time fo…  نحن هنا من اجل التصدي للعنف أناشد جميع الرجال في البلاد والعالم اجمع كفى عنفاً ضد المرأة حان الوقت لكي نفهم ونست…  אנחנו כאן כדי לעצור את האלימות  מהבניין שממנו הוקמה מדינת ישראל אנחנו קוראים לעצור את האלימות כלפי נשים אני פונה…  HaSochnut גם במקסיקו תומכים בשביתת הנשים שליחי ושליחות הסוכנות היהודית שולחים מסר הזדהות ומצטרפים לעובדות ועובדי הארגון שיישבתו היום… גם עובדות ועובדי הסוכנות היהודית יצטרפו בשעה 1200 בצהריים לשביתת הנשים  נשים ונערות אינן הפקר וייצאו להפגנת הז…  My brother Mike and I on the delusion of a one state solution   ילדה אחת  ילדה בת 16  שרועה הלומה משותקת מאימה  והם עומדים בתור עומדים ומחכים לרצוח את נפשה לחלל את גופה לג…  HaSochnut על גל העלייה בימי הקורונה שמעתם SivanRahav מצביעה על פוטנציאל לעוד אירוע בקנה מידה היסטורי עלייה של רבע מיליון איש בשנים… JerusalemPost Israel will see approximately 250000 new immigrants over the next five years according to the JewishAgency  Report… JewishAgency Welcome to Absorbtion Center Ulpan Etzion Mr President Thank you PresidentRuvi for a wonderful visit inspiring  Is… תודה לך כבוד נשיא המדינה על ביקור מרגש במרכז הקליטה ״אולפן עציון״ של הסוכנות היהודית אנו צופים גל עלייה גדול ואסור…  Thank you President Rivlin for your inspiring visit We expect a big wave of Aliyah and we must not miss this wonde…  ruvirivlin רות גביזון המשפטנית המבריקה הלכה מאתנו מחשבתה החריפה והמורכבת לא אפשרה לאיש לתייג אותה ותפיסתה היתה תמיד צלולה כבדולח בהי… HaSochnut יור הסוכנות היהודית IsaacHerzog שוחח לפני כניסת השבת עם ראשי הקהילה היהודית של בלארוס ודרש בשלומם ראשי הקהילות המונות כ… 35 שנה אבל באהבה שלנו דבר לא השתנה יום נישואים שמח מיכלי  ההסכם החשוב בין ישראל ואיחוד האמירויות בתיווך ארה״ב הוא בשורה טובה הוא מציב בחזרה את הדיפלומטיה בחזית העשייה המדינ…  An important agreement fostering hope for peace amp security was reached by Israel amp UAE mediated by USA Hopefull…  ZvikaKlein מה תפקידה אם בכלל של מדינת ישראל הרשמית בקידום החינוך היהודי בתפוצות IsaacHerzog עונה על השאלה חכ תהלה פרידמן בעד י… talschneider הסנטורית קמלה האריס ביקרה בישראל לאחרונה בנובמבר 2017 ועשתה סיור מקיף בכנסת אחד ממארחיה הוא IsaacHerzog מי שהיה אז יו… JewishAgency ¡Olé Some exciting news A firstofitskind charter flight from Mexico carrying 230 olim immigrants Masa Israel Jour… Bienvenidos a vuestra nueva casa Les deseamos en nombre de todo el pueblo de Israel una integración agradable y ex…  Los Olím realizan el antiguo sueño del pueblo judío de lograr la independencia en la tierra de sus antepasados Isr…  Muy emocionado al acoger en el aeropuerto Ben Gurión a 200 judíos llegados por vuelo especial desde México Otro ej…  JerusalemPost A charter flight from Mexico brought 230 Olim immigrants Masa Israel Journey volunteers and Israelis returning home…  33 Welcome The people of Israel welcome you and wish you every success in your new home  23 Many Olim are young people entrepreneurs professionals This is a diverse Aliyah from all over the world that…  13 So exciting to welcome 200 Jews arriving on special flt from Mexico Part of growing wave of Aliyah Were expe…  HaSochnut אולה 230 עולים ממקסיקו מתנדבי מסע וישראלים השבים מהמדינה הגיעו היום במסגרת טיסה מיוחדת שאורגנה בצל משבר הקורונה ברוכים… 33 ברוכים הבאים לביתכם החדש ונאחל לכם מכל עם ישראל קליטה נעימה ומוצלחת  23 רבים מן העולים העתידיים הם צעירים אקדמאים יזמים ובעלי מקצועות מבוקשים זוהי עלייה מגוונת מכל רחבי העולם שיכו…  13 בהתרגשות רבה קיבלתי היום בנתבג את פניהם של כ200 יהודים שנחתו בישראל אחרי טיסה מיוחדת ממקסיקו עוד דוגמא לתחיל…  הרב עדין אבןישראל שטיינזלץ הלך מאיתנו אחד מאותם ענקי רוח צנועים ושקטים שמשנים סדרי עולם כך עשה  בלימודי מורשת יש…  HaSochnut בזכותם קיבלנו עולים חדשים מהודו שירלי ואורן מתנדבי הסוכנות שעלו בעצמם מהודו סייעו לשבעה עולים להגיע ארצה בשבוע שעבר הם ת… IsraelMFA At the direction of FM GabiAshkenazi and Defense Min Gantz Israel via security and international channels has offered hu… ruvirivlin نشارك الشعب اللبناني في مصابه الأليم، ونمد لهُ يد صادقة للعون HaSochnut איך קיבל אולפן עציון של הסוכנות היהודית את הכינוי אולפן האהבה לכבוד טו באב N12News שמעו את הסיפורים של העולים שהגיעו ל… לאחר שעורר סערה גדולה שוחחתי עם הקומיקאי סת רוגן שהתנצל על אמירתו ממנו השתמעה אפשרות לשלילת קיומה של ישראל הוא…  Had candid convo w Sethrogen He made clear his recent comment on Israel was said in jest amp doesnt reflect his cl…  DanLavie1 הכוכב ההוליוודי היהודי שחולל סערה לאחר שטען כי המדינה לא צריכה להתקיים וכי הוא מפחד מיהודים שוחח עם יור הסוכנות הרצוג •… לשכנינו וחברינו החוגגים את חג עיד אלאדחא חג הקורבן שלוחה אליכם ברכת חג שמח ומאושר שנדע ימים של אחווה רעות ושלום…  اخواني واخواتي الاعزاء، اتقدم لكم ولعائلاتكم باحر التهاني والتبريكات بمناسبة حلول عيد الاضحى المبارك اعاده الله على…  JewishAgency Today is Tisha BAv an annual fast day in Judaism to mourn the destruction of the ancient Temples and the city of Jerusa… IsraelHayomHeb אלמונים חיללו כ30 מצבות בבית העלמין של הקהילה היהודית הגדולה בסנט פטרסבורג • יור הסוכנות IsaacHerzog אני סומך על… בערב תשעה באב תשף שנאתהחינם נשקפת אלינו מרחובות הארץ אנו רואים ביטויי שנאה ליבוי יצרים ואלימות קשה ומסוכנת מאוד…  PresidentRuvi A Tisha bAv study session on National and Individual Loneliness with JewishPolicy URJPresident Rabbi Rick Jacobs Ra… We call on Twitter to show zero tolerance to racism and antisemitism When rapper WileyCEO bursts into a racist r…  ZvikaKlein מחסור במורים הסוכנות היהודית יוזמת מורים יהודים מהעולם יתנדבו בבתי ספר בישראל  בתי ספר יהודיים מתכווצים וחלקם לא יפעלו… האלוף במיל רוני נומה עשה בחודשים האחרונים עבודה מרשימה בטיפול משבר הקורונה בעיר בני ברק הבוקר נועדנו איתו בסוכנות…  HaSochnut גם השנה כמו בכל שנה מחנות הקיץ יאפשרו לאלפי ילדים ובני נוער בתפוצות להישאר מחוברים ליהדות ולישראל IsaacHerzog  ב4 בבוקר גלגלי מטוס אתיופיאן איירליינס נגעו במסלול הנחיתה בנתב״ג 14 ילדים ו20 נשים וגברים שעלו ארצה מאתיופיה י…  DanLavie1 בצל המגפה תקיים הסוכנות היהודית את הפעילות שמחברת בין יהודי העולם • הרצוג אלפי ילדים ומשפחות בתפוצות יישארו מחוברים לישר… HaSochnut הקשר של המשפחות ליהדות ולישראל הוא דרך בית הספר אם בתי הספר ייסגרו  הקשר ליהדות יתנתק כדי לשמור על הקהילה היהודית בארגנ… היום נפתח בגרמניה משפטו של סטפן בלייט שהגיע לפני כשנה לבית הכנסת בעיר האלה וניסה לטבוח בעשרות מתפללים יהודים בצהרי…  israelmidru OTD HE  Ambassador AViktorov met with the Chairman of JewishAgency for  Israel IsaacHerzog in Jerusalem di… Freedom made great strides when JohnLewis walked alongside Dr Martin Luther King amp Rabbi Abraham Y Heschel He s…  HaSochnut כבר 8 שנים שמשפחת אוסטרובסקי מתכננת לעלות לארץ ואתמול הם סוף סוף הצליחו בשיא המגיפה סייעה הסוכנות היהודית יחד עם הקרן לידי… ברוכים הבאים לעולים החדשים מארגנטינה שמתחילים את צעדיהם הראשונים במולדתם בבידודשתהייה לכם שבת שלום  JewishAgency Can anything related to Israel be simple  Explore the complexity and questions that will shape Israels future as part o… MaarivOnline יו״ר הסוכנות היהודית יצחק הרצוג במכתב לשגרירת גרמניה בעקבות השחתת בית העלמין העתיק בעיר וורמס ״להעמיד לדין את האחראים ול… KipaNews בעקבות האנטישמיות בגרמניה הרצוג כתב לשגרירה ״להעמיד לדין את האחראים  Israelcohen911 יור הסוכנות היהודית יצחק הרצוג הגיע הבוקר מלווה ברב הראשי לישראל הרב דוד לאו והרב רבינוביץ ומכובדים נוספים לבית הקב… JewishAgency With Jewish communities worldwide on the verge of financial collapse and with thousands of COVID19 victims We announced… JewishChron Pandemic could push aliyah to 250000 over three years says Jewish Agency   DanLavie1 This is a historic challenge and we must harness this opportunity Jewish Agency chairman tells Knesset olim Israel Ha… ZvikaKlein BreakingNews Jewish Agency chairman IsaacHerzog 2200 Jews passed away from COVID19 worldwide not including North Amer… תודה מיוחדת לבעז דקל נכדו של אליהו דובקין שהיה מחותמי מגילת העצמאות ולהוצאת הספרים המשפחתית שלהם המספרת את תולדות…  קצת נורמליות השקנו ביחד עם הפרופסור מרדכי נאור את ספרו ״הבית בו נולדה המדינה״ המתאר את ההיסטוריה המרתקת של בניין…  EGiaufretEU Great to meet today Jewish Agency chairman IsaacHerzog to discuss relations with Europe COVID19 and the challenges ahe… indemtel Amb Sanjeev Singla met IsaacHerzog today and discussed issues related to the Jewish community in India and the Indian Diasp… ZvikaKlein הרצוג וביטן קוראים לממשלה לגבש יחד איתנו תכנית לאומית למול גל העלייה הצפוי של כרבע מיליון תוך 3 עד 5 שנים תהיה זו עלייה… DanLavie1 בוועדת העליה בכנסת הדגיש הרצוג את הצורך בתוכנית לאומית כוללת של הממשלה בענין • יור הוועדה ביטן הקשר עם יהודי התפוצות הוא… 22 קראנו יחדיו לממשלה לגבש ביחד איתנו תכנית לאומית למול גל העליה הצפוי תהיה זו עליה איכותית מגוונת ובתוכה הרבה צ…  12 שמחתי להופיע הבוקר בועדת העלייה והקליטה של הכנסת בראשות ח״כ דוד ביטן ולהציג את האתגר וההזדמנות של גל עליה שאנו…  22 הסוכנות היהודית הפלטפורמה הגלובלית של העם היהודי רואה בממשלת ישראל ובמשרד התפוצות שותפים חיוניים בפעולה לתמיכה…  12 מברך את השרה לענייני התפוצות omeryankelevitc על הצעד של אישור הממשלה על החלטה חשובה המשנה את הפרדיגמה ביחסי יש…  JerusalemPost IsaacHerzog chairman of the JewishAgency for Israel predicted that Israel will absorb 250000 new immigrants with… religionstate WATCH Interview w JewishAgency head IsaacHerzog predicts massive aliyah in next 35 years  HaSochnut ברכות לכל הצוערים המסיימים היום את קורס הקצינים בבהד 1 בין הצוערים הנרגשים גם אריה ישראל גרוס מרעננה המסיים את קורס קציני… JewishAgency The Jewish Agency for Israel mourns the loss of a dear friend the GenesisPhilGrp’s President and CEO Ilia Salita z”l… HaSochnut היום ב1450 יור הסוכנות היהודית IsaacHerzog ו HerbKeinon  בשיחה בכנס JerusalemPost על העולם היהודי והשפעת נגיף הקורו… JerusalemPost Chairmain of the Jewish Agency IsaacHerzog in conversation with HerbKeinon   The Jerusalem Post virtual conference … ברוכים הבאים המצטרפים החדשים לצוות הרצוג אלה עמית ותמרה שלושה תינוקות מקסימים של עוזריי שמוליק והאם הטריה שיר וד…  JewishAgency Our JewishAgency building in Jerusalem witnessed many celebrations and historical events but nothing quite like today’s… בניין הסוכנות היהודית בירושלים היה עד בעשרות שנות קיומו לאירועים היסטוריים רבים היום התקיימה בחצרו החתונה הראשונה…  WorldJewishCong WJC WebTalk today Join for a special conversation with IsaacHerzog Chairman of the JewishAgency on the state of… AlMonitor BenCaspit interviews former Labor Party leader Isaac “Bougie” Herzog On Israel Episode 6 Coronavirus and Jewish Life in I… פועלים לשיקום הקהילות היום כינסנו בפעם השנייה את הפורום הגלובאלי המשותף לממשלת ישראל משרד התפוצות וה…  Working to rehabilitate global Jewish life in Day After COVID Minister of Diaspora Affairs IsraelDiaspora amp…  HaSochnut כעת בשידור חי הצטרפו אלינו ל״מצעד ההצדעה לישראל 2020״  amitsegal Today at 8pm Israel time the CelebrateIsrael annual 5th Ave Parade in NYC is going virtual This year theme is TodahFron… JewishAgency Today 1pm EDT The CelebrateIsrael virtual parade broadcasting on our Facebook page Join us here  usegal Today at 8pm Israel time the CelebrateIsrael annual 5th Ave Parade in NYC is going virtual This year theme is TodahFrontline… HaSochnut מדי קיץ השדרה ה5 בניו יורק מתמלאת בדגלי כחולבן ובעשרות אלפי אנשים המריעים למדינה באירוע המסורתי של מצעד ההצדעה לישראל 🤍… Itongadol ENTREVISTA EXCLUSIVA ISAAC HERZOG «DEBEMOS GARANTIZAR LA SUPERVIVENCIA DE NUESTRAS COMUNIDADES»  … לקראת יציאתו של השר giladerdan1 לתפקיד משמעותי ומאתגר בארהב נפגשנו הבוקר לדון על יהדות התפוצות ופעילות שליחי הסו…  HaSochnut מזל טוב לרות דרוגלו נשיאת הקהילה היהודית ברומא ולבעלה יוגיניו שהתחתנו בשבוע שעבר בביהכ הגדול בעיר במהלך חודשי הסגר רות… JewishAgency Were proud to be recognized as an organization highlighting democracy tolerance technology and culture of Israel globa… מעלה אדומים עיר ואם קולטת עליה ומתפתחת בתנופה שמחתי לשוב ולבקר בה הבוקר כאורחו של ידידי ראש העיר הותיק בני כשריא…  ח׳אלדי איש משרד החוץ רועה צאן בעברו הוא אחד מדובריה הרהוטים של מדינת ישראל בעולם לפני שנה הופענו יחדיו בפלורידה וה…  בשיא משבר הקורונה במיזם טכנולוגי משותף לסוכנות היהודית ולעמותת תפוח עשרות מתנדבים בעלי ידע טכנולוגי דוברי אנגלי…  פגישת מטות טובה הבוקר בין אנשי הסוכנות היהודית לשר אלקין ואנשיו על הפרק פרויקטים משותפים רבים שנוגעים לדור הצעיר ו…  HaSochnut ועידת עם עולם ב1000 בפייסבוק ובאתר MakorRishon יו״ר הסוכנות היהודית IsaacHerzog ועורך מקור ראשון haggaisegal בשיחה… RabbiMSchneier Thank you to NYJewishWeek for including my conversation today at 12pm ET with IsaacHerzog Chair of the Executive J… סיפורו של המרגל אלי כהן הוא חלק מנוף חיינו בעת האחרונה גבר העניין באלי כהן בכל רחבי תבל בשל הסדרות שיוחדו לסיפורו…  ZvikaKlein כרבע מיליון עולים בשנים הבאות כך אומר יור הסוכנות היהודית IsaacHerzog ל haggaisegal לקרות ועידת עם עולם שתתקיים די… פגשתי ציונות ברחוב היום בעצם שלוש אחת עלתה מפרו שנייה מברזיל והשלישית מאיטליה    AJCGlobal Can American Jews and Israelis overcome cultural religious and political divides to work toward a common future   Join us… PresidentRuvi Special event at Beit HaNasi visitors center today  45 students from Liebler YavnehCollege in Melbourne had a virtual… DanLavie1 הושקה תוכנית חמסה ברוח אבי החיילים הבודדים צביקה לוי זל  המטרה סיוע לחייל הבודד מליווי ברגע הגעתו לישראל ועד לקליטתו… TheYossifoon 14 יור הסוכנות היהודית יצחק בוזי הרצוג IsaacHerzog — שהיה מזכיר הממשלה בעת יציאת צהל מלבנון — מצטרף לקריאה להכיר ב… A great Jewish leader educator and thinker of blessed memory  Exciting to welcome Shavuot with some of our newest Israelis   children of our new Olim from around the world at t…  הביכורים המרגשים לשבועות של העולים החדשים לישראל מכל קצוות תבל במרכז הקליטה ״בית קנדה״ שבאשקלון   חג שבועות שמח ל…  JewishAgency We are LIVE Join us for the The Judaism Israel and Diaspora Conference  Watch now here    ha… DanLavie1 30 ארגונים בינל השתתפו אמש בדיון על אתגרי העם היהודי בתפוצות ובשיקום הקהילות הרצוג לראשונה פורום פורמלי של הממשלה והסוכ… HaSochnut הצטרפו עכשיו לשידור החי מוועידת יהדות ישראל והעולם  omeryankelevitc המשימה המיידית יצירת סולידריות יהודית עולמית  יחד עם יור HaSochnut IsaacHerzog ערכנו היום שולחן עגול וירטואלי רא… JewishAgency LIVE tomorrow at 8am EDT The Judaism Israel and Diaspora Conference  an important discussion about how COVID19 has af… GesherOrg kudos to IsaacHerzog  of the JewishAgency  and omeryankelevitc  and the IsraelDiaspora  for convening this incredibly i… ZvikaKlein פגיעת וירוס הקורונה בקהילות היהודיות לראשונה כונס שולחן עגול גלובלי בראשות משרד התפוצות והסוכנות היהודית עם כ30 ארגונים י… 1st time in history JewishAgency amp IsraelDiaspora convene forum with 30 global amp regional organizations to assist…  בין הסוגיות המרכזיות שעלו לדיון מהלכים לשיקום הקהילות והתמודדות בשגרה ובמשבר גיוס משאבים לטובת תקופת השיקום חיזו…  ביחד עם שרת התפוצות omeryankelevitc וכ30 ארגונים יהודיים גלובליים ואזוריים מרחבי העולם סיימנו כעת את הפורום הגל…  חוזרים לשטח כאן בקומה 20 במתחם של מאות דירות ההולכות ונבנות באשקלון על ידי ״עמיגור חברת הדיור הציבורי של…  ZvikaKlein שרת העלייה והקליטה pninatamanosh הגיעו היום לפגישת תיאום מטות ראשונה עם יור הסוכנות IsaacHerzog ואנשי משרדו בין הסוג… לשכנינו המוסלמים חג עיד אלפיטר שמח ומבורך מי ייתן ויביא איתו בשורות שלום ושלווה כול עאם ואינתום בח׳יר عيد مبارك بمناسيه حلول عيد الفطر السعيد يسرني ان اتقدم لجميع المسلمين في اسرائيل والعالم باجمل التهاني داعيا الله ا…  JerusalemPost Aliyah and Integration Minister pninatamanosh and JewishAgency head IsaacHerzog both welcomed 119 new olim from E… Realizing the dreams of generations upon landing in the Land of Israel Welcome home Especially moving standing ne…  kannnews שרת העלייה והקליטה חכ פנינה תמנו שטה ויור הסוכנות היהודית יצחק הרצוג קיבלו את פניהם של 119 עולים חדשים מאתיופיה שנחתו בנת… הוריהם חלמו באתיופיה והם הגשימו בארץ ישראל ברוכים הבאים לישראל ומרגש לעמוד לצידה של השרה הראשונה מציבור יוצאי אתי…  AlisaBodner מרגש מאד מחכים לכל השאר להצטרף אלינו ישר כוח IsaacHerzog HaSochnut pninatamanosh JewishAgency This story must be told In the 80s thousands of Ethiopian Jews traveled by foot more than 2500 miles of desert land j… בני גושן היה רק בן 5 כשיחד עם הוריו היה בין היהודים הראשונים לצאת מאתיופיה למסע הרגלי והמפרך לארץ ישראל ביום ירושל…  HaSochnut לסוכנות היהודית מסורת ארוכת שנים במתן פתרונות לסיוע בשעת חירום בישראל ובקהילות היהודיות בעולם יעל רז מנהלת האגף לשעת חירום… ״ושלח אורך ואמיתך לראשיה שריה ויועציה ותקנם בעצה טובה מלפניך״ מתוך התפילה לשלום המדינה ביום הזה נזכור ששירות…  כשהשיער הלך והתארך במהלך תקופת הקורונה החליטה מיכל שאת התספורת הראשונה היא תקדיש לחולות  סרטן באמצעות תרומת שיער ל…  DovBenShimon Grateful to have IsaacHerzog speaking to our jfedgmw Builders Event and tell us the great work of our partner Jewish… israelconnect attilus dandayan SivanRahav יור הסוכנות היהודית יצחק הרצוג IsaacHerzog סוקר את מצב היהודים בתפוצות ומספר על קרן הל… DanLavie1 פרסום ראשון חדשות טובות כ5500 יהודים מרחבי העולם ממתינים להחזרת הטיסות במטרה להגיע לישראל ולהתנדב • מדובר בזינוק משמעותי… RahavRan כל הכבוד מיכל הרצוג דוגמה אישית מרגשת אבי ליטל מעריב  צילום יחצ  עורכים דורון כהן גולן בר יוסף MaarivOnline Zich… ZvikaKlein ברוכים הבאים לאחים ולאחיות כ100 עולים שתכננו את עלייתם עוד לפני פרוץ משבר הקורונה נחתו השבוע בנתבג 53 עולים מאוקראינה… ruvirivlin בשעה הקשה הזו אני שולח חיבוק אמיץ וכוחות למשפחתו של רב סמל עמית בן יגאל שנפל הלילה בעודו מגן על כולנו  ליבנו נשבר מול זיו… JewishAgency In support of Jewish communities around the world our Chairman isaacherzog And Ministry of Diaspora Affairs TzipiHoto… DanLavie1 המציאות המורכבת מצריכה התגייסות עולמית רחבה המטרה סיוע בשיקום  הקהילות וניצול אתגרי השעה וגם היערכות לפני שחלילה יתרחש … HaSochnut מתגייסים למען הקהילות היהודיות ברחבי העולם  בעקבות הפגיעה הקשה של וירוס הקורונה בקהילות היהודיות והמשבר הקשה אליו נקלעו יו…</t>
   </si>
   <si>
-    <t xml:space="preserve">PCforthemass כיום נדמה  לי שאומרים ״גמר חתימה טובה״ ולא ״חתימה טובה״ שאומרים בין ראש השנה ליום כיפור לאחר יום כיפ…  מחקתי את הציוץ הקודם כי הוא לא שיקף נאמנה את מה שנאמר בשידור כשטועים צריך לתקן  עיקרון שנכון לכולם זו היתה אכן טעות כתיב אני מוחק את הציוץ הוא עדיין גזען עלוב ודוחה NWeinryb לא מאמין בתמימות שלו לגבי ערביםהיו לו ביטויים יותר קשים LahavAdam בגלל שהוא עבריין מועד וגזען tzvidanieli לא ידעתי  שמערכת תוכנית הבוקר תגיב לכך ותבהיר ואז נסכים בינינו סגר מימין כביש עפולה ומשמאל ליד נווה אילן ואבו גוש  טראמפ לא היה כלום כי אין כלום  הילד המתוק מג׳ד שחאדה בן 8 מכפר יאסיף נהרג בתאונת סקייטבורד לפני כמה ימים משפחתו האצילה תרמה את איבריו שהצילו 3 בנ…  לזכרם  עדכון אוסמה הצליח ובסוף זה הוחרג ויש בחינה ביום ג EytanYoav אוסמה מקצוען אמיתי ופרלמנטר מעולה תם סדר היום העם התפטר סגר נעים   ישיבת ועדת החוקה ננעלה  לא תהיה היום הצבעה במליאה  על חוק הגבלת ההפגנה בבלפור גאה בחבריי אוסמה סעדי ועופר כסיף ו…  חכ סעדי המצוין הציג בועדת חוקה את סוגית בחינת הבגרות  המורשת למוסלמים דרוזים ונוצרים שאמורה להתקיים ביום ג 1125 נ…  נציגי המשותפת בועדת חוקה osamasaadi63 ו  ofercass  ושאר חברי האופוזיציה עושים עבודה מצוינת מאתמול  וגם בלילה ו…  אף לא מיטת טיפול נמרץ ילדים בנצרת והסביבה 3 בתי חולים פרטיים בעיר מנהל ביהח הצרפתי דר נאיל אליאס  בנצרת פנה למשרד הבריאות בדרישה זו ואכן אמרו מראש שזו ממשלת חרום ואהן הביאו אותנו למצב חרום לא מבין על מה הטענות לא לאיים לא לעקוף יש חוק כאן חוק טיבי  saragusti הכל יחסי ענת בזמן שרבים ראו את התוכנית ״זמר במסכה״ בערוץ12 שודרה תוכנית מעמיקה בערוץ11 על הפגנות 2000 בשם ״ 10 ימים באוקטובר״ ש…  נתניהו לא נאבק בקורונה תמונת הנצחון שהוא רוצה היא כיכר בלפור ריקה לאורך זמן באמצעות חקיקה  המציאות ממשיכה לאתגר את דף המסרים של נתניהו  עכשיו בכספים במסגרת המאבק בקורונה בסעיף תקציב הספורט יש תמיכה ברבני קהילה  ועוד 25 מלש להתנחלות היהודית בחברון…  אל על מתחילה להחזיר כסף לנוסעים מנסה לשכנע לקחת זיכוי  על פי חוק טיבי  במקום לנייד חולים מהצפון למרכז היה צריך להוסיף מיטות בפריפריה  במקום להתאים חניונים לאשפוז היה צריך לחזק את בתי החולים  מחדל מתמשך That footballrelated funds are being used to expand illegalcolonial settlements has been already denounced yet…  לא רק בקורונה אשמה יפעת שאשא ביטון חשוב לציין שהיא אחראית גם להפקרות של יועצי רה״מ לאבטלה לשסע החברתי לפשיעה וג…  TsviSarShalom talschneider מקווה שאתה צודק צבי israel13243546 talschneider פורסם שלעזאזל תפוס ע׳י אנשים כמוך ולא נשאר מקום רוצח או ראש כנופיה לא היה שולח הודעת יח״צ לכתבים עם פירוט פשעיו בשנה החולפת כנופיית נוער הזוועות מתגאה בפעולות הטר…  נתניהו מנהיגים מכל העולם מתקשרים אלי ושואלים איך לשחרר את היועצים שלהם מבידוד  לא רק נגיף הקורונה משתולל גם נגיף הצביעות  מניעת התקהלות נדרשת מכוווולם לא רק מהמפגינים בבלפור אלא גם מעובדי רש…  לפני חודש דיברנו היתה מעודדת עם שמחת חיים שידעה שיסתיימו מיד  מודל לחיקוי בהתמודדות עם המחלה הארורה עצוב מאוד…  AmiBrand תשתמש חופשי שתהיה שנת טובה שנה של כיבוד ולא של קוביד של סובלנות ולא של סבל שנה של חיסון ולא של חסינות שנה שבה נקטע את שרשרת…  MkSondos hadastag osamasaadi63 מברוק הדס על עבודה נהדרת ומסורה אזרחי ישראל אתם בידיים טובות ידידי מייק פנס ואני נטפל בכם  eladrosenfeld ועוד המווון הורים פניתי ליור ועדת חוקה ולשר החינוך ולשר רווחה כדי למצוא מסגרת ופתרון לילדיהם של מי שמוגדרים ״עובדים חיוניים״ זאת מצו…  הצ״ח שלי לרשת בטחון כלכלית ופיצוי למועדוני כדורגל מכל הליגות בשל משבר הקורונה  ZulatEquality חכ Ahmadtibi  אמנם הקהילה הבינלאומית רובה תומכת במאבק הפלסטיני אבל הבית הלבן והממשל האמריקאי עוי  שהמדיניות שלו כמע… הקורונה מבקשת להבהיר כי מי שמתקהל כדי להפגין בעד ביבי הוא לא מפיץ מחלות    whynot42 אין חוק יסוד ערך שוויון בישראל מציע קודם לעשות שלום עם 20 מהאזרחים האזרחים הערבים בהסכם השלום יהיה סעיף אחד בלבד כל האזרחים במדינת ישראל יהיו שווים שיא חדש במספר חולי הקורונה ראש הממשלה עושה ״שלום״ על הדשא בבית הלבן כך שהאחריות המלאה על ראש הממשלה החליפי אתם צ…  zehavagalon האמנם המשך מורשת רבין ופרס פאנל דיגיטלי בשידור חי היום יום רביעי בשעה 2100 האם זה הסכם שלום או FAKE PEACE רוצים שנענ… הטרלה של הורי התלמידים לא יהיה שלום במזרח התיכון בלי שלום עם העם הפלסטיני בלי סיום הכיבוש שלום שישים קץ למלחמות ושפיכות הדמים הוא עדיף ע…  שעתיים לפני פתיחת תחנת היבדק וסע באום אלפחם עיר אדומה  פיקוד העורף הודיע על ביטולה ״בגלל העומס במעבדות״ איפה המ…  הקואליציה עסוקה בקטיעת שרשרת ההדבקה  נב ואני עקרונית נגד הריסת בתים האם הורסים את הבית לרוצח השפל הזה או שלא הורסים בתים לטרוריסטים יהודים כי הם יהודים  נתניהו מוושינגטון אני מחזק את הציבור הישראלי תחזיקו מעמד שם מול המגפה התנהגות זבל  מי שתקף פלסטיני התעלל בו שדד והשפיל אותו יבלה את החג בבית כמו כל עם ישראל מונתסר אחד הפועלים המותקפים התקשר ושאל…  מקום ראשון בגרפים ובדיאגרמות  Ratmonkey42 מאמר אכן מצוין בגל הראשון מדא היתה אחראית ישירות על תחנות היבדק וסע בארץ ובישובים הערביים והיא פרסה תחנות בכל היישובים במהירות ויע…  Ratmonkey42 יש הבדל ztomer נכון תודה רבה מאיר מעריך מאוד אבל אני פועל למען כלל הציבור  galberger  navazigmund תקראי שוב osherlarov הכיבוש משחית osherlarov כבר צייצתי את זה לפני כמה שנים  אבל זה רלבנטי תמיד מקורבים לזהבי המשטרה רודפת אותו כי הוא כדורגלן מכהן לחקור את החוקרים  מטרת נתניהו הורדת קצב התחלואה 🤣🤣🤣 מטרת נתניהו שיפור מצבם הכלכלי של אזרחי ישראל 🤣  arnaviv ilanbentov זאת שנינה יותר מאשר בדיחה LermanYuval nitayp אנחנו אופוזיציה ורצינו בחירות ועלינו במנדטים מ10 ל15 כיום יש מבין לא נשתף פעולה עם מי שמשתף פעולה עם תומכי טרור  hadarse barpeleg בדיחה  ליכודניקית גרועה חייבים לחקור את הפרקליטות  מודה באשמה  תגרת עולם בין כחול לבן והליכוד האשמות וצעקות הכל סביב חקירות נתניהו מנדלבליט וכו׳ די  2017 תזכורתבלילה של ה18122018 ירתה המשטרה ביעקוב אבו אלקיעאן והרסה את ביתו ניסינו להיכנס ליישוב המשטרה נהגה בנו באל…  הוא ״ התנצל״ בזו הלשון  נתניהו אלימות משטרתית כלפי הערבים  כדי לפגוע בי הזנחה של שנים בתשתיות  כדי לפגוע בי…  כמה פעמים נרצח יעקוב אבו אלקיעאן  פנייה בכתב לראש הממשלה נתניהו תתנצל בפני משפחת אבו אלקיעאן ובפני הציבור  מקווה שבקרוב יתגלה קשר כלשהו בין חקירת נתניהו והכיבוש ואז כל הביביסטים יזעקו פתאום די לכיבוש רצח יעקוב אבו אלקיעאן הוא פשע נתעב ידענו שהוא נרצח ושהחקירה טויחה המניעים לא מענינים אותנו זה טיוחכווולם שותפים…  אין גבול לציניות ולרשעות  חיכיתי לשמוע את הכדור שיסיים את הסיוט הזה ואת החיים שלי קורבנות מגב מדברים  אזור הדמדומים  הארץ  קריאה חובה   המשפחות של שוטרי מג״ב החייתיים צעקו ״הבנים שלנו הגנו על כל עם ישראל״ אגב האירוע לא היה חד פעמי אלא חזר על עצמו כ…  BokerIris אולי זאת הסיבה להזמנה לחקירה MkSondos  ואני ביקרנו בבית הוריה של המנוחה שריפה אבו מועמר  המורה שנהרגה אתמול בביתה ברמלה זה מוות נורא  עצוב ו…  ZulatEquality כשהמשטרה לא תוכל להסתיר את האלימות היא תהיה חייבת להפסיק לנהוג באלימות זה פשוט וזה צריך להיות החוק  זאת הצעת החוק של… תמיד חשבתי שזה לא היה המופתי   מתי החייל  מקבל את עיטור הגבורה רוע ורשעות לב   kleinmandan אתה מבין מה שכותבים לך כשאני או אתה מדברים מותר להסיר את המסכה המשטרה kleinmandan כשאני מדבר כך צריך הרצח הנפשע של שריפה אבו מועמר פתח את מהדורת חדשות 12 המטשרה עצרה במהרה  3 ואחד יואשם ברצח רצח של חסרי מצ…  yigalb עבריינים לא יחזירו נשק מרצון זה כבר נעשה מתוך סרטון פתיחת שנת הלימודים כתוב ״ סאלם״ במקום סלאם מר נתניהו סאלם זה שם המחסום ליד היישוב סאלם ואצלנו התלמידי…  عندما تصبح فيروز  الزعيمة المعنوية لشعب لبنان جارة القمرايه في أمل  tFFi0gf5qNStTsH MariposaMm568 פונקט וואס איר האט געהערט GoodbeerOssi תתאמי בפעם הבאה  הוא רק לא אמר כמה בחירות יהיו עד 2024  Pltwva7YwlJwuz5 מה השם האחרון שנשאר לך בזכרון שתהיה שנת לימודים טובה ומוצלחת לכולם לדניאל לאורי ולמוחמד לכוווולם  אלימות שוטרים נגד חרדים גם  שביתת עובדי המעבדות צודקת והדרישות מוצדקות יש להעניק להם תנאי שכר ועבודה הולמים ולא מעליבים yedidyagrosman תציע חוק שימנע סילפי עם טיבי רק עם ביבי יש כמה חכים שמתאימים להצעת חוק כזו שוב ירי גז מדמיע ע׳י הכיבוש לתוך בית חולים והפעם בחברון 25 חולים נפגעו משאיפת גז חלקם במחלקות קורונה לפני שבוע זה…  AvishayBenHaim LBudashev אבישי מביך כמה אתה מרגיש צורך להתגונן מציוץ ציני  אם כבר נפגשתי עם מפגינים לא צפוניים…  ולבסוף האהבה וקבלת הפנים  למרות המסכה הצהובה תפנימו צהוב זה הצבע של תע״ל המפלגה שלנו  NirRotem צהוב זה הצבע של תעל המפלגה שלנו תפנימו   yb66957 ואפילו עניתי על כמה שאלות וביקשת יותר Elyashivz1 yb66957 iairLevy ולא אנרכיסטים האמת כמה נעים   Gilshely zehavagalon תע״ל שאיפה משותפת לעתיד טוב יותר⁦zehavagalon⁩  בבלפור עם ״ ישראל השניה״ משמאלי וחרדי לא אנרכיסט מימין  tembel1233 אחד הטובים ביותר יהי זכרו ברוך חיילים דורשים ממועצת הכפר סבסטיה להוריד את העמוד במרכז הכפר עליו יונף דגל פלסטין התושבים סירבו  התפתחו עימותים א…  KnessetT יש לכם שאילתות דחופות למשרדי הממשלה ולשרים לנו יש את חכ MkSondos שתפנה אותן למקומות הנכונים בזמן אמת הצטרפו ללייב בפייסבוק… מה שווים השופטים אם אנחנו לא שולטים בהם  אלה שמות שוטרי מג״ב הקלגסים שהיכו והשפילו ושדדו את הפועלים הפלסטינים הם יועמדו למשפט פלילי ובנוסף עו׳ד מוחמד רחאל…  hadover1 רפואה שלמה גאה בך חכ MkSondos   שופטת השלום רחל ערקובי שוברת שיא באטימות וערלות לב דחתה בקשה לפטור מאגרה שהגישה משפחתו של המנוח יעקוב אבו אלקיעאן…  וחברי הקואלציה יצאו לחופשה מוקדמת  מזל שהרופאים והרוקחים מכילים  מוסיקה של ואגנר או שטראוס  ishterenfeld הצבע של תעל המפלגה שלנו על מצוקת מועדוני הכדורגל במשבר הקורונה    שניהם חזרו למליאה   נתניהו גנץ ואשכנזי עזבו את המליאה ולא הצביעו  ההסתייגות הזו שלי  תעלה הערב במליאה בהצבעה בקריאה שנייה ושלישית אם כחול לבן רוצים לאזור אומץ למה צריך אומץ בכלל…  עכשיו בוועדת כספים על חוק האוזר בהצבעה נכללה תמיכה ותקצוב לתוכניות הילה וקרב ותוכניות אחרות  סטטיסטית זה אומר שאפילו חלק ממצביעי הליכוד מבינים שמה שמעניין את נתניהו זה השיקול המשפטי  כחול לבן שמעו על הסכמת נתניהו לפשרה דרך מסיבת העיתונאים כנראה שההצבעות בוועדת כספים על חוק האוזר יידחו לשעה 2100 הלילה  אם בכלל dov145 מסכים איתך בנקודה זאת לזכותו המפוקפקת של ניסו גואטה הוא לא מבדיל בין יהודים לערבים גם העיתונאי רג׳אי ח׳טיב נציג הטלביזיה הירדנית הרגיש א…  השם הנכון לא נחל עמל ולא נחל האסי אלא ואדי אלעאסי אלעאסי שזה המורד ממש כמו שמו של נהר אלעאסי בלבנון  מורד כי המס…  משטרת ישראל הגיעה להפריד בין ניצים בביה׳ח מאקאסד בירושלים המזרחית והמשטרה החליטה שהדרך הטובה להפריד זה לירות גז מד…  I usually tweet about Barcelona but let me introduce to a team I adore CDPalestinoSADP I heard of them first wh…  המשטרה עברה על חוק החסינות  זוועה חייתית חברה בפשיטת רגל  עוד תאונת עבודה קטלנית בראש העין דקל גדיס זל  בן 35 נפל מפיגום באתר בניה בראש העין ב 10 לאוגוסט הלילה נפטר בבית החולים מח׳ש מחלקה לחיפוי על שוטרים בעיקר אם הם ירו על אזרחים ערבים האזרוח צעד בכיוון הנכון אבל  הצדק חייב להיראות שוטר…  יש לך עמית בכנסת שיש לו הצח בענין זה במיוחד בינתיים הממשלה מסרבת לאשר חייבים להעביר הצח שתביא לסיום הסבל הזה בכבי…  חמושי מחסום קלנדיה ירו בגבר חירש בן 60 הם יורים באוטיסטים חירשים ובעלי מוגבלויות מה עם הסרטון לפני הירי מלא מצל…  3 חודשי עבודות שירות  ניתנו בישראל לספר שהעלים מס לאדם שסחר בדיסקים צרובים ובשטחים הכבושים למתנחלת שקיללה ולפר…  מאחל לחכ משה גפני בריאות  ורפואה שלמה   להפגין עם אלפי ״חייזרים״ בעלי מצפון חוויה  באהבה כבוד ושותפות   בצעדת האמהות השכולות למען החיים לפני אבו גוש זעקת האמהות חייבת להישמעמכאן אני ממשיך לבלפור  في مسيرة الامهات الث…  yairmarom לא יש לנו קטע נגד יד קלה על ההדק וסכינים בגב כעת נודע מגורמי החקירה במחוז מרכז שהסרטון ישוחרר כדי לסייע בחקירה  מדהים עד לרגע זה לא נמצאו הפושעים מתברר שלמשטרת ראשלצ יש סרטון של התקיפה שבה נראים 5 בריונים  רואים את הדקירה וב…  תמצית דבריו של נתניהו בחירות מבטלות הכרעות של בתי משפט למעשה הוא אומר אין למעשה צורך בבתי משפט פגיעה החוק שלי שוב תוקן  אל על ושאר חברות התעופה יחויבו להחזיר לנוסעים ישראלים שטיסתם בוטלה את כספם בחזרה עד 1 באוקטו…  שתי הנשים הפלסטיניות  בנות ה70 ומעלה  ג״זילה וחמדה  היו באדמות שלהן ובחזרה הביתה לכפר אלזאוויה ליד סלפית  הן עוכבו…  חברי המשותפת  כולם  יצביעו בעד החוק האוסר על כהונת ראש ממשלה אם יש נגדו כתב אישום אני מאחל לכווולם בריאות ושפיות  אפילו השוט של כחול לבן הוא של יש עתיד  על הקורונה הם דיברו בקבינט הקורונה או שלא היה זמן לזוטות  משטרת ראשלצ עצרה לאחר כמה שעות נאשמים ברצח בחוף חקירה מאומצת ונכונה שאלה מה עם התוקפים של מוחמד נסאסרה באותו חוף…  Ratmonkey42 או רק ערבים שהם חיילים אי תורמים לאנדרטאות של חיילים או חובשים שמטפלים ביהודים מעבר לעובדה שהוא מפר את הוראות הרשות השניה האיש הזה מבזה כל אולפן שהוא יושב בו ואוי לערוץ שנותן לו במה להפיץ את דבר…  אסון אנושי הלב דואב  من قلبي سلام لبيروت  התפקיד של שרי  הליכוד בדיון 40 חתימות  לשוחח עם הבוס כדי שייראה עסוק מול ההתקפות עליו מעל הדוכן  יחד עם המדריכות והמדריכים של תוכנית קרב בהפגנה נגד סגירת התוכנית  התקשר אליי מר רפי סער ראש העיר כפ״ס ואמר ״שלסגירת מתחם המנגל אין רקע גזעני וי מפלה״ והוסיף ״ התזמון גרוע מאוד ולא…  ShekerMinister  ShekerMinister רק בתקופת החג shu3809 מכיר כינויים כאלה נגד יהודים לפני 80 שנים alpakahhunger מפעיל בעצמי בעצמי  bnyiroz אתה חרדי וקורבן לאותה דעה קדומה תתבייש לך הפארק בכפר סבא נסגר בסרטונים מיום ששי עד יום שני ״ בגלל הקורונה״ כטענת העירייה אלה בדיוק ימי חג אלאדחה משתמע שאח…  ״מנהיגים מכל העולם מתקשרים כדי לדעת איך עשינו זאת״  RamCohen1 עושה כל מאמץ פיראס הוא סטודנט מישראל הלומד במולדובהאישתו המולדבית בהריון הציג בקונסוליה הישראלית את צילומי US כנדרש ע׳י משרד ה…  srotterman netanyahu YairNetanyahu avishaigrinzaig Riklin10 YinonMagal הוא כן הזכיר את זה בפומבי אתה טועה יש ידיעה מורחבת בעיתונות srotterman netanyahu YairNetanyahu avishaigrinzaig Riklin10 YinonMagal הקרדיט ליוסי דורפמן ימני שמאלני הפוך על הפוך דעתכם  srotterman א כדי להבליט את הפוסט עצמו ב לדעתי הפוסם הפוך על הפוך בכוונה ג אמחק בכלל למה לא בחולצות חומות  John doe משטרה שלום  רציתי לדווח שגם אני קיבלתי  איום מפרופיל פייסבוק לא מזוהה של אדם בשם jhon doe אנא טיפולכם  GoyshelShabat tsahihalfi וגם עצה זו שלך היא לא נכונה tsahihalfi יש לבטל לא לתקן לעולם לא אקבל עליונות על פי גזע וזכות הגדרה עצמית לעם אחד בלבד קובי אתה  מאשר יציאה למרפסות לצורך מחיאת כפיים  rMVFfnnIgpZCheR TheMaya لاننا لا يمكن ان نصوت على ان القدس الكاملة الموحدة عاصمة لاسرائيل  ولا على ان حق تق…  שאלה  אמירה נוקבת ממגדלור של מוסר ואקליפטוס של אידיאולוגיה  הישג חשוב לנו בוועדת הכספים השר כץ התחייב להביא החלטת ממשלה לעיר נצרת סיוע בסכום של 30 מל׳ש בעיקר בגלל המשבר בתייר…  כשהמפגינים בירושלים נשלחים למעצר ״ האנרכיסטים״ בגבעות חוגגים ומחבלים חופשי באלבירה  erandly הבנת את שימוש במילה על מה הם עובדים שם בועדת שרים לחקיקה  בכיין תתעסק בקורונה לשם שינוי </t>
-  </si>
-  <si>
-    <t>yarivop תראו את התמונה הזאת כחול לבן עושה יחד אחת עם הליכוד והחרדים כדי להשתיק בחוק את האנשים שבחרו בהם  ב ג י ד ה FCkzombibist נראה לי שלא הבנת את האנלוגיה הכוונה היא שזה סתם מילים הכל מילים בשורה התחתונה הנתונים מראים שריכוזי ההדבקה הם בישובים חרדיים וערבים ובמקום לט…  אבל האם אי אפשר להגיד בדיוק הפוך יש המון הדבקות בחצרות וישיבות ובתי כנסת ומשתיקים את התופעה כי זה לא מתאים לאג׳נד…  חלק מהחרדים ובוודאי חברי הכנסת מהליכוד מאשימים את המפגינים בעליית התחלואה אבל מאחר שיודעים כבר שהקורונה הרבה פחו…  לא הבנתי כלום  BarashiKinneret baruchikra להסיט talialin אני פשוט הולכת נכנסת למאפיה כלשהי לקנות קפה gt רואה מישהו ממתין שם עם מסיכה רק על הפה gt מפחדת קצת להעיר אז רק דופקת בו מבט מאייםמא…  ינון מגל שגר בכיכר המדינה כזכור חושב שנדבק בקורונה ממאמן הכושר שלו מסתבר שהפה של ״ישראל השניה״ עממי כמעט כמו המנ…  וגם מזדהה הרגע אכלתי קרואסון שוקולד חלווה מלחמנינה   Amos123Biderman  dudiamsalem דודי משחירים על שמאלנים גם גרוטו אמר להעיר לאנשים שישימו מסיכה כמו שצריך אבל אני כשלעצמי מעדיפה קורונה מלהידקר netanyahu אבא אתה לא מעודכן davidoflod missmentos למההה לא יודעת מה אתכם אני הצלחתי להזמין וולט תשפ״א מסתמנת כאחלה בינתיים chaimlevinson הזמנתי קרפ אני רוצה לראות ראשון את כל הסרטונים של שר הדיגיטל דודי אמסלם אמר אף אחד אף פעם  RoiReshef BenCaspit קוקסינליים זה לא כינוי מתקבל על הדעת ועל כך תיחסם AfifAbuMuch לא  מה קורה פה זה יום הכן את הפיצה שלך הרשמי SargonoffAkkad מדהים איך כל שנה אנשים מופתעים מזה מירי רגב hold my beer  RoyIddan kann יאללה איזה כיף DorMuskal איזה מטומטם netanyahu חתימה טובה אבא תחשוב טוב טוב מירי רגב התנצלה שוב בפני אנשים שהתכוונה לפגוע בהם כנראה מדובר בהרבה אנשים אם שמעתי כבר שתי התנצלויות כאלה BenCaspit חתימה טובה  BenCaspit אהבתי מאוד tavlinos אני מתה על HKorach אבל גם שם חייבים להתנגד להבאת אורחים מסוימים כדי לשמור על הרמה זו הייתה פעם תכנית רצינית למה אנשים רציניים צריכים בכלל לבזות את עצמם בדיונים עם אנשים כאלה ומה אנחנו אשמים ChaimShore הכל אחלה אבל שלום תמורת שלום זה שקר אז חלאס ניצני הנכונות של אנשי ימין להתנער מהטרולים הביביסטים הם המפתח לנורמליזציה פנימית ChaimShore לגמרי נגד סיפוח אבל זה מחיר שישראל שילמה לאחר שביבי הכריז עליו ובחייאת  אנחנו אישרנו לאמריקאים למכור…  ChaimShore שלום תמורת ויתור על סיפוח ומכירת f35 רק שנדייק Leemalach המכנה המשותף הוא היעדר מצפון על זה תלבישי מה שבא לך כמו פלסטלינה nitayp קבוצת הפייסבוק של שיכון דן גועשת הימורים תוך כמה זמן חוזר בו ומדבר על לצופף שורות  אנשים שחייבים לי התנצלות השנה בני גנץ גבי אשכנזי יועז הנדל וצביקה האוזר שלוש מערכות בחירות הצבעתי לכם הטיקט המ…  האיש הזה זה מתיחה נכון תיכף מושון יצא מאחורי העץ ויגיד חחחחחח ואתם חשבתם שהוא חבר כנסת יאללה הנה המצלמה חייכו  talshalev1 מיקי זוהר ישן על האף itayr2 לא הקשיב היה עסוק בשינון מסרים על הפגנות הסרטון הזה אמור להרגיע אותי הבנאדם באמוק  netanyahu שבוע טוב אבא זה 5111958 dudiamsalem מתביישת שאתה שר בממשלה שלי  איך אני יכולה לצפות בסרט על אולמרט Lilitlv חשבתי שאני הראשונה שהוזמנה אבל כשחיכיתי ראיתי את קלמן יוצא Whataboutism for dummies  BenCaspit השאלה איך מבטאים קרעי אבל טוב יאללה אני בעד חנינה לנתניהו לתחושתי נענש מעל ומעבר  קרוב לוודאי שלאחר הסופש יוכרז איסור על שהיה של פחות מ1000 מטר מבני זוג  באמת שתמונות מיוון כעת צריכות להיות מחוץ לחוק בעיני BarakRavid המשפחה הזאת מקולקלת chaimlevinson בבקשה תמשיך  israzohar מוכנה להמליץ עליך וואו מישהו ממש נעלבי  yosefyisrael25 אני מספיק זקן לזכור כמה לחץ מיקי זוהר הפעיל כדי שמדגרות ההדבקה האמיתיות המכונות גני אירועים אלה שחצי מהמשפחה שלו מפעי… ועוד משהו העובדה שהם מוזמנים לפאנלים כאלה ואחרים בערוצי טלויזיה ותכניות אקטואליה לגיטימיות מנרמלת את התופעה די ל…  רק חבל שהעיתונאים הימניים האמיתיים כל עוד הם נהנים מחיבוק של הטחב שצמח בערוגה הזאת לא מתנערים ממנו ומחבקים חזרה…  ובכן קראתי את הטור של קלמן מסכימה כמובן שאנשים כמו ריקלין ארז תדמור וברדוגו הם לא פחות ממסוכנים מפיצים פייק ניו…  zoharm7 חבורה של אימבצילים התעסקתם בפטור ממס לביבי ובהתנגחות עם כחול לבן וברמיסת מערכת אכיפת החוק ובמה לא הכל חו…  ערב טוב לכולם  ברקו הוא הילד שצועק ״המלך הוא עירום״ וזה בא טוב ruthelbaz ועוד יערה זרד מכה מכה אין לי מה להגיד רוצה לבוא אלי נזמין גלידה מישהו שינזוף בנתניהו כמו שאופירה וברקו נוזפים כעת ביזהר שי זה מה שאנחנו צריכים Ronkofman1 דיקלמה את דף המשרדים מקסים כולל הלהיטים ״שמאלנים אנרכיסטים״ ו״ההפגנות דווקא מועילות לנו פוליטית״ chaimlevinson חשבתי שראיתי הכל בימי חיי אבל קופרייטר כושל שלולי היה מלקק לביבי היה כותב היום ברושורים למאפיות טוען שקלמן ליבסקינד הו… ruthelbaz מעליב elikmargalit קולטים את הליצן הזה העיתונאי שחתום על עשרות תחקירים במעריב כולל תחקיר שהציל אותנו מגלנט כרמטכל היה צריך את גלי ישראל… asafd1 אוקי אז אחסום ביוש asafd1 ״טרחתי״ להדביק כי חסום גם אצלי וראיתי את זה אצל מישהו אחר כך והאם אני עובדת ציבור שאתה משלם לה משכורת לא…  האזנתי עכשיו לאסנת מארק מאתמול אצל דקלוינסון ויש מלא שטויות חמודות אבל הכי חמוד שהיא קראה לחופש התנועה ״זכות התזוזה״  asafd1 נשבר לי שאומרים לי מה ״להדהד״ ומה לא אני רוצה לבקר משהו אני ״אהדהד״ אותו יכול להסיר עוקב פשוט asafd1 מציעה שכל אחד יעשה בחשבון הטוויטר שלו לפי שיקול דעתו הכי טוב עדיף עליהם מעלינו  איזו מדינה מיוחדת במינה  Sounds about right  RinoZror איש נוראי AyeletShaked ומה עם סנטה קלאוס שמביא מתנות אמיתי באותה מידה ולא יהודי BarakRavid ממש מפתיע אין מנוס  Nefolet החל ממחר תשבו בבית ותחשבו על מה שעשיתם לביבי תודה לשם על אבא שבזכותו אנחנו פה netanyahu כל כך רציתי שיזכיר בדוגמאות להתקהלויות עוד משהו חוץ מבלפור לא קרה מקהלת הכל סבבה שניה רק ללהקת הכל עובר חביבי מה הקשר גז שהוצאנו מהמים מה איפה כל המדינות האלה שמטילות סגרים זה אמיתי האיש הזה יש כזה  דעה לא חשובה המסיכה של מירי רגב מזעזעת YaelTesler HKorach לרוב הפוך הוראות הבימוי אל תיתני לאף אחד לדבר בלי שאת מפריעה לו כנראה פרפראזה על דיקנס  it was the best of times it was the worst of times עוד ״החתונה הזאת עם כחול לבן היא קלה היא קשה״ מה איזה כיף אסנת מארק אצל HKorach משפט ראשון ״יהודים אחרי 2000 שנות גלות שהצלחנו להתפלל שמים על כף המאזניים תפילה…  רק אני שמתי לב שבפרסומת לג׳רוזלם פוסט לייט הזה ללימוד אנגלית היא אומרת I’ve been acceptend מה זה acceptend NiflaPo עכשיו כשאנחנו ב7000 חולים ביום וברור מי אשם בעניין נראה לי די מקורי שתתחילי את הציוץ הבא שלך במילה סליחה לציבור שאת מקבלת מ… 7000 נדבקים ביום וסגר שני זה תוצר ישיר של ממשלה שהתעסקה בחודשים האחרונים בהכל חוץ מבקורונה זה והעובדה שביבי לחיץ…  JoshBreiner מקומות עבודה JoshBreiner הפצת שנאה ושקרים ברמה כזאת זה פול טיים ג׳וב BarakRavid השר יזהר שי הצביע נגד החלטת הממשלה על הסגר זה מה שהוא אמר לפנות בוקר בישיבה קריאת חובה לכל מי שאכפת לו איך מתקבלות החלטות… YHepstein יקי די נו מה הקשר בין הדברים די מה עוד יש לומר עצוב לי שזו הכנסת וזו הממשלה עידן קשוח מאוד  הסגר הכללי עומד לגרום לפי הערכות למאות אלפי מובטלים חדשים ונזק של 35 מיליארד ש״ח למשק אבל זו התמונה בכתבה על הסגר…  NBecher חולי קורונה בבני ברק 136 לאלף איש בתל אביב 28 בשם איזה טירוף צריך לכלוא אותנו עכשיו לחודש נוסף במקום להטיל עוצר על הערי… YuvalYoaz סיכום היום 1 נתניהו לא עוסק בהתמודדות עם המשבר אלא רק בחיסול ההפגנות נגדו 2 כבוד למפגיני בלפור מקומץ קטן בגורן הפכו… זה שנתניהו בכלל מתעסק בהגבלות על הפגנות נגדו זה ניגוד עניינים מטורלל MBlumenblat תנסה תחתונים  yarivop את הקטע הזה כל ישראלי חייב לראות RavivDrucker  דיכאון מדינה דיכאון  וושינגטון פוסט הוא חבר של פדופיל לא נקבל ממנו הטפות מוסר קלירלי מדובר בילדים שהלכו לבית ספר בבוקר ולבלפור בערב רק משם הקורונה  chaimlevinson מי שהיה מטומטם מספיק להישאר אני  מגיע לו והגראנד פינאלה ״מצטערת אם פגעתי במישהו זה לא היה בכוונה ומצטערת גם במי שפגעתי בכוונה״ מכל העולם מתקשרים לשאול מי משלם את החשבון של הכביסה “Yifat shasha biton made me do it” הופה והנה גם דף המסרים ״ההפגנות משרתות אותנו פוליטית אנחנו פשוט דואגים לבריאות הציבור״ בארור מירי רגב מסבירה את הציוץ שלה מעמידה את חופש הביטוי והדמוקרטיה מול חופש הפולחן כאילו השניים מתנגשים ואז אומרת שאם…  והתגובה  אותו דבר רק באנגלית  לא תיאמן המשפחה הזאת  ומדברים רק על ההפגנות הכל מטורלל פה והפעם זו סכנת חיים  למה הגענו למצב הזה ולא עשו סגר עד עכשיו למה אפשר להתחרפן מי המדליף מכחול לבן ותודה גם לחילי טרופר מדהים מדהים מדהים ישיבת קבינט הקורונה אך ורק על ההפגנות מדהים תסמונת שטוקהולם  ובכן קראתי את פסק הדין של בג״ץ בעניין הרב אליהו והנה קטע מתוך פסק דינו של השופט שטיין מרגיש לי רלוונטי במיוחד לעו…  אם חברי הכנסת מהליכוד היו מדברים על התקהלות בבתי כנסת או על חתונות עשירית מהזמן שהם מדברים על הפגנות הייתי מאמינה שאיכפת להם מהבריאות שלנו BarakRavid יש להם סיבים לתת לנו michaldiament regevmiri בתור שמאל לא ענייני regevmiri את מכה TopazLuk איזה קטע שעמית חדד מייצג גם אתכם סוד הקסם  היעדר מצפן מוסרי שבדכ מרסן את כולנו בשורה התחתונה  זה יהיה ניצחון מזהיר של נתניהו מצא דרך להפסיק את ההפגנות בלי לשלם מחיר פוליטי בצד שלו קוסם  הנהג של שרה היה על הטיסה לארה״ב BenCaspit nitayp ב20 בדיקות חיוביות בריכוזים חרדים כשבתי החולים למעשה בתפוסה מלאה עדיין תפילה בציבור בתוך בתי הכנסת היא אפשרות   זאת הפקרות… מה יותר אות קלון על המדינה היהודית שאלה שריה פלגנות שיסוי קיטוב הסתה שקרים ליבוי יצרים הכל בחסות המשטר ווא…  ShaniAshkenazi רק שלא ייצא מפתח תקווה ואנחנו בסדר zoidzalach פשוט כל פעם שמצייצים נגד המשטר פרייסלס  ksoko123 אולי הודו עד כדי כך משעממת שהחליט לקחת את הזמן ולכתוב לי הודעה נסיך  talchaim אתה מותח את גבולות השימוש במילה ״ענייני״ גם שטייניץ היום אצל ישי שנרב נותן דוגמאות להפרת ההנחיות הפגנות בים סעודה בבלפור מסעדות טיילת בתל אביב מה חסר לי פה ״למה להדהד אותו״ זה האקוויוולנטי הטוויטרי ללצעוק לי הוראות איך לחנות למרות שלא ביקשתי amitsegal לפי הסרטונים מאומן יש עוד דתות כאלה וואו  YoazHendel1 הפגנות הן באוויר הפתוח תפילות אפשר לעשות גם בבית מבאס שאתם נופלים לרטוריקה של הסימטריה המדומה OreJedi חולה על פאסיב אגרסיב  יאללה קדימה מתוקי חמודי  מאזינה לפודקאסט של הארץ שאני מאוד מעריכה ומדברים שם עם פרופ׳ יורם יובל שאני מאוד מעריכה ואז הוא אומר ״הפרויקטור גימזו״ OreJedi הסקת מסקנות מדהימה בהצללה בחיים מותק Shimon19390145 guykindler ashkenazitzafri BenCaspit שמעון ביוש ביבי שכנע מלא אנשים בציבור שההפגנות הן מקור הגל השני האיש הזה כל כך הרסני למדינה ודואג רק לעצמו באופן כל כך שקוף ו…  ashkenazitzafri BenCaspit כן רק לא חכם שמעתי את חכ שלמה קרעי אצל BenCaspit והשני היום והחלטתי לפצוח בהדסטארט על מנת לרכוש לו אונה נוספת אנא פתחו את לבכם GONENB1 נו לפחות זה CohenGal1993 Israelmeir4 tamarlask אכן MarkZlochin בפעם הבאה שעוד שופר יתחיל עם השקר הזה של ההפגנות הן מדגרות קורונה תראו להם את הטבלה הזאת  יש כאן רשימת ערים שבהם מספר… חידה מי יגיד על עצמו שאינו עלה נידף רמז עלה נידף  talshalev1 הקרב האהוב עלי בתש״פ בפער שמחה שמלווה אותנו גם לתוך תשפ״א מתקנים אותי פה ששכחתי את צלם התחתונים המדופלם beware12863855 נכון הושמט בטעות לחשוב שהאנשים הכי קרובים לביבי אלה יאיר שרה טופז לוק עופר גולן ואוריך ולהבין הכל BarakRavid בלתי נסבל האיש הזה איך קוראים לבעיה הזאת שלא מבחינים בין מציאות לדמיון  carmelkamin כיף Asaf13444472 morkalfonbekuf לקחתי בטח Asaf13444472 morkalfonbekuf ורצהיזר Teodor1 אני אשלם מיוזמתי מס הכנסה וגם מה זה ההנחיות השתנו מספר פעמים האם באיזושהי גרסה של ההנחיות זה היה סבבה להסתובב ברחוב בתוך קהל אנשים אוף זה מרתיח פרופ׳ חזי לוי מדבר על רק על ההפגנות ולא מדבר על החרדים וחוץ מזה לתחושתי הסיבה היחידה לזה שעושים ״סגר״ מחורר שכול…  זימברו אותנו הילדים האלה הא איזו תגובה להקיא עליו  ״אני מתנצל שהפכו אותי לכלי ניגוח״  הכי לא התנצלות שראיתי בחיים  yakov57v hkim14050017 מה זה קנס 5000 שח קטן עליו BarakRavid מציעה גם למפגינים זה כמעט כאילו לא צריך לשים אחריות על אי התפשטות מגיפה בידיים של ילדים  BoazCohen וואו זה אחד האיחולים הקשים דין אחד לבלפור ואנשי שלומו דין אחר ליתר פשוט attaliami די נו סתם צוחקים מפרגנת למה לא freyisrael1 מתעב את ההשוואות השלטון רוצה לשסות אותנו זה בזה אסור לתת לו להצליח אבל רק כדי לנקות שולחן על כל מפגין בבלפור היו לפחות… yaronavraham רצחת amitsegal לא מכיר את ראובן עזר אבל גם אם מדובר ביועץ הטוב ביותר בנמצא את היום הזה הוא צריך לסיים עם מכתב פיטורין אי אפשר לדרוש ציו…  להלן פרעות  הבנאדם אשכרה השתמש במילה ״פרעות״  הידד  מעבירה קורס על איך להתקבל לחטיבת קשרי חוץ  שיעור ראשון חינם דברו אנגלית  בבקשה israzohar רשף כמובן  Maayanian בהחלט היא באמת משאירה אבק למיקי זוהר  Yoglas74 מנגנון ההשחרה בשרותו של הנוכל הנאשם עופרגולן וטופז לוק נמלטים בחשיכה אחרי שצילמו קבוצה של אנשים מכחישי קורונה בשולי הפגנה … ומה עם התגובה הזאת חברים גם מאחוריה אתם עומדים  טופז לוק ErelSegal פופוליסט בשקל עשיתי את זה נכון noalandau בארור האם אכלתי עכשיו גביע שהגיע עם גלידה מלפני מספר ימים בהחלט כן אם טופז לוק הדביק מפגינים אז סוף סוף ההפגנות מדבקות ruthelbaz את אדם גדול יותר ממני ruthelbaz חיים שלי תחסמי את כולם אני פה</t>
-  </si>
-  <si>
-    <t>אל״מ במיל׳ אבי כהן שניהל את משבר הקורונה בבני ברק אמר לאולפן שישי   ״אם יש מגע או חולה מאומת במוסד חינוכי זה…  כך נראה עולם הפוך בשעה ש25 מיליון תלמידים בישראל נאלצים להסתגר בבתיהם בשל הנגיף  מאשר היועמ״ש לממשלה בלחץ כחול…  החברה בישראל חייבת להתנהל לפי סטנדרטים מוסריים ראויים הדאגה לנזקקים היא אחד מהם זו סיבה מרכזית לקביעתי כי הפעילות…  ״תהיו אמיצים תגשימו את החלומות שלכם כל עוד אתם בריאים וחזקים״  כתבה מירית הררי שנפטרה הבוקר לאחר מאבק אמיץ ומעורר…  שנה טובה מי יתן ותהיה זו שנה של הצלחות לעם ישראל  ביטחון בריאות חינוך כלכלה ורווחה חג שמח לכם ולמשפחותיכם   מערכת החינוך אינה מקור הדבקה כי אם עוגן של יציבות למיליוני תלמידים והורים זהו הגוף הגדול ביותר המסודר והמפוקח ביו…  ברכות חמות על הישג מדיני היסטורי למדינת ישראל תחת הנהגתו של ראש הממשלה netanyahu  שלום עם שתי מדינות ערביות איחו…  מודה לראש הממשלה ולחבריי השרים על אישור הצעתי להמשיך בלימודים עד יום ו׳ ערב ראש השנה  ילדי ישראל הם העתיד שלנו …  מערכת החינוך ותלמידי ישראל הם העתיד והיתרון שלנו הם לא גורם התחלואה הבעיות נמצאות במקומות אחרים והגיעה השעה לטפל…  מזרח תיכון חדש  ברכות למדינת ישראל ולראש הממשלה netanyahu במהלך השבת התבשרנו על מדינה ערבית נוספת שבחרה בשלום עם…  מערכת חינוך פעילה חיונית לכל ילד ולכל משפחה ומהווה תנאי בסיסי להפעלת המשק בישראל אסור לגרום לפגיעה בחינוכם של ילדי…  התלמידים בבתי הספר בישראל  24 מליון  מהווים 26 מהאוכלוסיה בישראל התלמידים המאומתים כחולים  1817  מהווים 65…  הזדעזעתי לשמוע על השלטים בביהס בכפר סבא אני מגנה בכל תוקף את הפגיעה בתלמידות ואת המסר האלים המבוטא בשלטים זהו מע…  במערכת החינוך הנהדרת שלנו יש הכל מהכל  הבוקר צללתי עם תלמידי מגמת חקלאות ימית בבית הספר רמות ים במכמורת   היה מרת…  הראיון שלא היה והשקרים שלא נבדקו  ברביעי האחרון הלכתי לנחם עם ראש עיריית רמלה את משפחת המורה שריפה אבו מועמר שנהר…  הערב נשמעות טענות שקריות כנגד מערכת החינוך מניתוח הנתונים שהוצגו על ידי משרד הבריאות עולה כי העלייה בתחלואה החלה…  33 תודה והערכה רבה למנכ״ל המצטיין של משרד החינוך עמית אדרי למטה המשרד למנהלים במחוזות ובבתי הספר ובעיקר לגננות…  23 שנת הלימודים נפתחה היום ללא תקלות לאחר עבודה משותפת יחד עם ארגון המורים הסתדרות המורים ארגוני ההורים השילטון…  13 לאחר עבודה מאומצת ובהתרגשות רבה נפתחה היום שנת הלימודים התשפ״א תודתי לראש הממשלה בנימין נתניהו ולחברי הממשלה ע…  הבטחתי וקיימתי   כבר לפני חודשיים התחייבתי לפתוח את שנת הלימודים באחד בספטמבר  היום נפתחו למעלה מ95 ממוסדות החי…  כאבתי לשמוע על מותה של המורה שריפה אבו מועמר שנרצחה אתמול בלילה ברמלה   מערכת החינוך תפעל לחנך טוב יותר את דור הע…  מודה לראש הממשלה ולחבריי השרים על אימוץ עמדתי וההחלטה בקבינט הקורונה לפתוח את מערכת החינוך במלואה ביום ג׳ 1920…  הרב שי אוחיון ז״ל יצא הבוקר מביתו ונרצח בשל היותו יהודי מדינת ישראל כואבת את מותו הטרור לא יכריע אותנו נרדוף ונש…  LikudParty גבי אשכנזי ממשיך להיות חתרן בלתי נלאה עד הרגע האחרון אשכנזי ממשיך לעשות כל מאמץ לגרור את ישראל לבחירות כדי להדיח את גנץ… שמחתי לשוחח אתמול עם שר החינוך הארגנטינאי ניקולאס טרוטה trottanico הוא שותף וחבר אתמול החלפנו מידע ושיתפנו את אר…  האונס המזעזע באילת הוא מעשה חמור ביותר המחייב טיפול והתייחסות חינוכית  כשר החינוך אני מחוייב לשלום התלמידות ולחינו…  הצהרונים ותכנית החינוך המשלים יימשכו הם חיוניים לחינוך תכניות כמו קרב הילה מילת ימשיכו להיות עוגן חינוכי עבור…  התארחתי היום אצל ידידי ראש עיריית ב״ש רוביק דנילוביץ׳ יחד עם ראשי רשויות מהדרום לדיון לקראת פתיחת שנת הלימודים תשפ״…  בשבועות האחרונים עשינו במשרד החינוך לילות כימים יחד עם כל גורמי החינוך הרלוונטיים בכדי לגבש מתווה פדגוגי לשנת הלי…  הסכם השלום ההיסטורי שהביא netanyahu עם איחוד האמירויות מחדד ומדגיש את הבידוד של איראן ושלוחותיה הרצחניות מול מדינו…  כלת פרס ישראל פרופ׳ רות גביזון ז״ל הלכה היום לעולמה פרופ׳ גביזון מהבכירות במשפטני ישראל הקדישה את חייה למען מדי…  הסגירה האפשרית של החינוך המשלים מדאיגה אותי מאז התברר כי לא מועבר התקציב להפעלת התוכניות   בשבוע האחרון אני ואנשי…  זהו יום היסטורי  ברכות והערכה רבה לראש הממשלה netanyahu על הישג יוצא דופן   כינון יחסים רשמיים עם איחוד האמירויות יתרונה של מדינת ישראל על אויביה נשען על ההון האנושי שלה ההתחלה היא לעולם בבית ובמערכת החינוך ההמשך בצה״ל ובאקדמיה…  33 אני קורא ליו״ר כחול לבן בני גנץ הצטרף אלינו לאישור מיידי של הצעת התקציב  כדי שנוכל למנוע את ביטול התכניות הח…  23 15 מיליארד שקלים מוכנים באוצר לטובת החינוך המשלים במערכת החינוך ובכלל זה תוכניות קרב היל״ה המתנ״סים ועוד רב…  13 גנץ תגלה אחריות שים את הפוליטיקה בצד ואל תפגע בפתיחת שנת הלימודים ב19 אנחנו חייבים לאשר תקציב מיידי כדי לפת…  יום שישי 26032010 היה יום שחור וקשה  רסן אלירז פרץ ז״ל וסמר אילן סביאטקובסקי ז״ל מטובי הלוחמים בגולני היו הא…  כינסתי הבוקר את בכירי משרד החינוך לדיון מרכזי בנושא היערכות לפתיחת שנת הלימודים תשפ״א במסגרת תוכנית ״לומדים בביטחון…  אני מודה לראש הממשלה netanyahu ולחברי הממשלה על אישור התכנית ״לומדים בביטחון״ אותה הצגתי לממשלה יחד עם…  עצרתי הערב את ביטול סל התרבות במערכת החינוך והנחתי להקצות שמונה מיליון שקלים לפתרון זמני עד סוף שנת העבודה 2020  ה…  MeravMichaeli ואני מחזיקים בדעות שונות בנושאים שונים ובכל זאת יש לנו מן המשותף לכן בחרתי בה לפרויקט מחובריםבערך…  שנת הלימודים תשפ״א תיפתח באחד בספטמבר הצגנו היום את תכנית ״לומדים בביטחון״ שתחזיר את ילדי הגנים ותלמידי בתי הספר…  מודה לידידי שר האוצר Israelkatz על שותפות למען החינוך ולטובת הציבור בישראל   מערכת החינוך היא עוגן של יציבות עב…  הממשלה אישרה הבוקר את מינויו של עמית אדרי למנכל משרד החינוך  נכונו לעמית אתגרים גדולים בתפקידו  ובראשם פתיחת שנת…  השבוע הבהרתי במליאת הכנסת באופן חד וברור מדוע אין הצדקה לסגירת בתי הספר של החופש הגדול   במהלך החודשיים האחרונים נ…  מערכת החינוך היא עוגן של יציבות למליוני תלמידים מורים גננות והורים בזכותה מתאפשרת רווחת המשפחות   תודתי לראש המ…  האתגרים הנוכחיים מורכבים אך נתגבר עליהם בכוחות משותפים אנו פועלים בתיאום ובהדדיות ויחד נעמוד במשימה  שנת הלימודים…  נפגשתי היום עם חבריי לנשק מקימי תנועת ״הביטחוניסטים״ העלינו זכרונות מלחימה ומשירות משותף ושוחחנו על האתגרים הביטח…  למען הסר ספק  בתי הספר של החופש הגדול לילדי הגנים ותלמידי כיתות א׳ עד ד׳ ממשיכים לפעול כסדרם במתכונת שהייתה ובקבו…  מיכאל בן זיקרי ז״ל הציל אישה ושלושה ילדים במעשה גבורה הוא שילם בחייו על גילוי אזרחות למופת תוך הפגנת אומץ לב חריג…  במקום להעביר ביקורת מוטב ששר המשפטים יפעל לחשיפת הקלטות מנדלבליטאשכנזי והתנהלותם בפרשת הרפז  שמחתי לראות היום את ההתפתחות המרשימה של מערכת החינוך במועצת שדות נגב לפני 5 שנים היו במקום מעט מאד מסיימי בגרות ה…  העיר שדרות היא סמל לאומי שנים ארוכות אני מלווה את שדרות ותושביה בצבא לחמתי למען ביטחונם כשר הבינוי והשיכון פעלת…  22 לוח הזמנים הקצר לקראת פתיחת שנת הלימודים הקרובה מחייב לפעול במרץ על מנת להתאים את מערכת החינוך לאתגרים שנכפו…  12 שמואל אבואב מנכ״ל משרד החינוך הודיע לי היום על רצונו לסיים את תפקידו לאחר שנים ארוכות של עשיה מבורכת ומאומצת…  המורות והמורים במערכת החינוך הם אנשים מצויינים חדורי תחושת שליחות ומוטיבציה אני גאה להנהיג את המערכת החשובה הזו…  בהצלחה לתלמידים הניגשים היום לבחינת הבגרות במדעי המחשב אתם דור העתיד של ישראל ואלו שיובילו בגאון את המדינה לחדשנו…  אני מודה לנשיא המדינה מר ראובן רובי ריבלין ולמוסד הנשיאות על שיתוף הפעולה  עם משרד החינוך למען ילדי ישראל נמשי…  חופש הביטוי אינו חופש ההסתה  רינה מצליח הוכיחה הערב שוב שנאת הליכוד ושנאת נתניהו העבירה אותה על דעתה  כמיליון וח…  33 ״בית הספר של החופש הגדול״ יאפשר לתלמידים להשלים פערים שנוצרו בשנה האחרונה עקב התפרצות הקורונה החזרה למסגרת חינ…  23 לעובדי ההוראה יתאפשר לעבוד ב״בית הספר של החופש הגדול״ בתמורה לתשלום שכר נוסף gtgt 13 הודעתי כעת כי הלימודים בגני הילדים ובכיתות א׳ עד ד׳ ימשכו ברצף עד 6820   בעקבות החלטת בית הדין הארצי לעבודה…  מדינת ישראל ומערכת החינוך בכלל זאת נמצאת בימים לא רגילים וכולנו נדרשים להכנס מתחת לאלונקה ולתרום את חלקנו במסגרת צו…  תמר בורנשטייןלזר אחת מסופרות הילדים האהובות ביותר הלכה היום לעולמה אך יצירותיה ומורשתה יישארו עימנו לעד בסגנונ…  22 אנו עושים זאת בזכות מסירותם ונחישותם של המורות והמורים הגננות והמנהלים הפועלים מתוך תחושת שליחות ואהבה לתלמידים 12 מערכת החינוך ממשיכה לפעול כסדרה בהתאם להנחיותי ראש הממשלה ושרי הקבינט אימצו את עמדתי הקובעת כי מערכת החינוך מ…  33 התרשמתי שאשדוד מנצלת בתבונה וביעילות את המשאבים שעומדים לראשותה מתוך הבנה כי החינוך של הילדים ובני הנוער הוא הנ…  23 העיר אשדוד מיוחדת בזכות התושבים שלה פסיפס אנושי שמסמל את קיבוץ הגלויות שמייחד אותנו כעם וכמדינה הגעתי לשטח כד…  13 התארחתי היום אצל ידידי ראש עיריית אשדוד  yechiellasry פגשתי צוות חינוך והוראה יוצא דופן שמוביל את תלמידי ותל…  ברכות ללוחמי צה״ל אנשי שירות הביטחון הכללי ומשטרת ישראל על עוד מבצע מוצלח שבסופו נעצר המחבל שרצח את לוחם צהל סמל…  22 מקרי הידבקות נוספים בכל מקום שבו מזוהה חולה מאומת המוסד החינוכי נסגר 12 נתוני התחלואה שמשרד הבריאות מציג לא השתנו דרמתית ואין שום הצדקה להביא לסגירה של החטיבות והתיכונים זו תהיה פגיע…  ביקרתי הבוקר בבתי ספר בעיר נוף הגליל העיר הזו מייצגת את כל החברה הישראלית  חיים בה בהרמוניה יהודים וערבים ותיקים…  הגעתי הבוקר ל״ביקור בהפתעה״ בבית הספר היובל בירושלים  מצאתי מנהלת נהדרת שרי אלבז וצוות מורות ומורים מקצועי ומסור…  קיימנו היום שורת התייעצויות כולל ״קבינט קורונה״ בראשות ראה״מ באשר להתפרצות הקורונה הכוללת כ 30 מוסדות חינוך ברחבי ה…  YakiAdamker רננה חיה זל  הייתה נשמה שבאה לעולם לתקופה קצרה שום הסבר או הגיון טבעי לא יוכל להיות תשובה לשאלה למה תינוקת שמעולם לא חטא… היום סיכמנו את המתווה המלא שיעניק מסגרות חינוכיות הקיץ לילדי הגן ולכיתות א׳ד׳ זה חלק ממחויבותנו לתת מענה לאתגרי ה…  ביקרתי הבוקר בקרית אתא סוציואקונומי ממוצע והגעה להצלחה מרשימה בחינוך הערכי והקניית הידע לתלמידים הזכאות לבגרות ג…  33 הסיפור הזה מרחף כעננה שחורה מזה עשור  הגיעה השעה שהציבור ידע את האמת  עדיין לא מאוחר לעצור ולבחון את בעיית הס…  23 שיחות אלו היו חלק ממהלך חמור ביותר כנגד הממשלה ושלטון החוק היכן אבירי הצדק ומדוע מנסים להסיר זאת מסדר היום …  13 באופן לא מפתיע הצביעות של התקשורת לקראת פתיחת משפטו של ראש הממשלה שוב חוגגת הרצון העז לראות את תמונת ראה״מ על…  הבוקר ביום ירושלים ועם תחילת תפקידי כשר החינוך נשאתי תפילה להצלחת מדינת ישראל ולהצלחתם של ילדי ישראל לרכוש דעת ער…  הארוע בו נדרשה תלמידה להסיר את שמלתה הינו חמור ומקומם הוריתי הבוקר על קיום בדיקה ותחקיר והצגת מסקנותיו בפני מנכל…  היום החלטתי כי כל גני הילדים ובתי הספר ייפתחו החל ממחר בשעה  0730 בסיור שערכתי הבוקר מצאתי כי צוואר הבקבוק הנוצר…  אני מודה לראש הממשלה על האמון ועל ההזדמנות ומקבל על עצמי את תפקיד שר החינוך של מדינת ישראל מתוך הבנת האחריות והחשיב…  ברכות לידידי השר יריב לוין לרגל מינויו הצפוי לתפקיד יו״ר הכנסת יריב ביצע בהצטיינות ובתבונה את כל תפקידיו בממשלה וב…  כוחות צה״ל פועלים יומם וליל היום שילמנו מחיר כבד לוחם גולני סמ״ר עמית בן יגאל נפל בלחימה בכפר יעבד כפר עויין המ…  ברכות לידידי השר giladerdan1 לרגל מינויו לתפקיד שגריר ישראל באו״ם גלעד הוא שר מצויין משוכנע כי ייטיב לייצג ולקדם…  פרחים ואיחולי הצלחה לממשלת ישראל העתידה לקום בשבוע הבא שבת שלום לחיילי צה״ל לאנשי כוחות הבטחון לצוותים הרפואיים…  חקיקה בימי קורונה עושים הכל כדי להקים ממשלה יציבה בישראל  אלירז פרץ ז״ל נפל בגבול רצועת עזה במשמרתי כאלוף פיקוד דרום אחיו אוריאל נפל שנים אחדות קודם לכן בלבנון…  נבי שועייב  הנביא יתרו השנה חל החג הדרוזי באופן סימלי בסמוך ליום הזיכרון ויום העצמאות ראוי כי נזכור את המחיר הכב…  אלי ביר  שמחים על החלמתך מהקורונה ועל חזרתך לישראל הארגון אותו הקמת ובראשו אתה עומד  ״איחוד הצלה״ מציל חיים כל י…  ״ברוך רופא חולים״  ברכות לחברי השר litzmanyaakov ולרעייתו חוה לאחר החלמתם ממחלת הקורונה  בריאות טובה והמשך הצלחה  מתוך זעקתם של מליוני הניספים עלה הציווי ״לעולם לא עוד״ לעולם לא יחפש ילד יהודי מגן מפני מבקשי נפשו ואין מושיע מכח…  יונתן בן ארצי אתה צריך להבין טוב מאחרים מה אסור להגיד על ראש ממשלה מגנה את הדברים המקוממים והמכוערים ראש הממשלה…  שומרים על הקשישים במקבצי הדיור של משרד העליה והקליטה תמונת יום מאחד מקבצי הדיור לעולים קשישים לאחר שהחלטנו לפרוש…  ראש המל״ל מאיר בן שבת מופקד מטעם ראש הממשלה על תיכלול הארוע הזה מכיר את מאיר מאז שנת 1997  הוא רע״ן בשב״כ דרום ו…  ביקרתי הבוקר בחזית הלחימה בקורונה  המחלקה המיוחדת שהוקמה בבית החולים שיבא המדיניות הנכונה של ממשלת ישראל הקנתה זמ…  ישראל היא ביתו של כל יהודי החודש עלו לישראל 961 עולים הלילה נחתו בישראל 72 עולים מאתיופיה בהמשך להחלטה להעלות את…  שבוע טוב הדמוקרטיה הישראלית לא נמצאת בסכנה הסיכון האמיתי לאזרחי ישראל בימים אלו הוא מגפת הקורונה והשפעותיה הבריא…  בשעה קשה זו גנץ תחליט אחדות בעם או אחדות בכחול לבן  משבר הקורונה הוא מגפה עולמית ואתגר של ביטחון לאומי לישראל בממשלה צריך אחדות לא בידוד לפיד ובוגי מסרבים להצטרף  ג…  אנו נמצאים במשבר המחייב קבלת החלטות משמעותיות בפרק זמן קצוב הממשלה פועלת לפי חוק בסמכות וברשות כדי להגן על אזרחי…  כיהנתי 4 שנים כשר וכחבר בכנסת ה  20 מקווה כי הכנסת ה  23 אשר הושבעה היום תאריך ימים בניגוד לשתיים שקדמו לה ותכונ…  אנו בתקופה רגישה זו לא העת למהלכים פזיזים ובהולים כחול לבן מנסים להפוך את הכנסת לקרקס פוליטי בעת משבר בינלאומי ת…  בעת האחרונה נפל דבר העולם בסערת הקורונה ישראל נמצאת במאבק מורכב ובינתיים מוצלח כדי לבלום את התפשטות המגפה ומ…  פנה אלי סמיר מחאמיד ראש העיר א״א פאחם יש 3000 סטודנטים ערביים ישראלים בירדן הם סגרו אוניברסיטאות אך גם הגבול סגו…  קראתם לעצמכם ״כחול לבן״ אמרתם ״ישראל לפני הכל״  אלו השותפים ליישום המשנה הפוליטית שלכם   מדאיג מבייש מעציב  עדיין לא  פורים שמח 🤡  בוקר טוב לבני גנץ שנינו מכירים לאורך שנים את גבי אשכנזי ואת פעולותיו האפלות  הוא משקר לך כי רק ככה הוא יודע לך ה…  מסירים מסיכות בחג פורים  המפלגות המאוגדות במשותפת רואות עצמן במוצהר כשלוחה של התנועה הלאומית הפלשתינית עכשו ברו…  ״אָנוּ מַכְרִיזִים בָּזֹאת עַל הֲקָמַת מְדִינָה י ה ו ד י ת בְּאֶרֶץ יִשְׂרָאֵל הִיא מְדִינַת יִשְׂרָאֵל״  מתו…  יוזמת החקיקה הנואשת של כחול לבן מעוותת את רצון הבוחר ומכרסמת ביסודות הדמוקרטיה זוהי חקיקה אישית זוהי חקיקה בדיעבד…  העם אמר את דברו באופן ברור תמיכה אדירה לליכוד בראשות נתניהו ולמחנה הלאומי ערב של תקווה שמחה וגאווה  מצביעי הליכוד צאו להצביע והביאו את כולללם לקלפיות  הניצחון בהישג יד לא לוותר לאף חבר או מכר כל קול קובע מצביעים מחל ומקימים ממשלת ימין  צאו להצביע   זה היה רמטכ״ל    חלק מהדו״ח של הפצ״ר עפרוני על פרשת אשכנזי שהוגש לגנץ כשהיה רמטכ״ל  לקרוא ולא להאמין העלמת עדוי…  כבוד לקרן אימפקט ולמרתון ת״א רצנו הבוקר אור ואני עם 150 בוגרי קרן אימפקט במרתון ת״א את הקבוצה הוביל פנטה גזצ׳ו…  תשאלו את בני גנץ מה הוא יודע על טוהר המידות של אשכנזי  הלך לעולמו אלי מויאל ראש העיר שדרות לשעבר אלי הנהיג את שדרות לאורך עשור של שגשוג בתקופה של התקפות טרור קשות כמפק…  גנץ  בתקופתך כרמטכ״ל נכתב דו״ח מצ״ח מטלטל על פרשת אשכנזי הדו״ח הוסתר בין הממצאים אשכנזי עקב אחרי אלופים בצה״ל…  מרגש וייחודי שתי מילים שמסכמות את המסע שלי לאדיס אבבה להעלאת הקבוצה הראשונה של בני הפלשמורה לשנת 2020 כלוחמים ב…  אני יודע היטב מה היה לפני עשור במה שמכונה בטעות פרשת הרפז אך צריך להיקרא פרשת אשכנזי לאחר שיוסר צו איסור הפרסום תה…  השב״כ מופקד על סיכול טרור למען בטחון מדינת ישראל ואזרחיה ״השירות״ פועל לפי חוק ומשרתיו הם טובי בנותינו ובנינו השי…  אסור בשום אופן שהדמוקרטיה הישראלית תשמש כלי בידי אלו הרוצים להחריבה דברי הנשיאה חיות על יזבק מדברים בעד עצמם פר…  לפני כמעט 40 שנה פעלתי בלילות חשוכים יחד עם חבריי לחיים ולנשק לוחמי שייטת 13 להבאתם של ראשוני העולים מאתיופיה מחו…  חמאס משגר בשבועיים האחרונים עשרות מטעני נפץ באמצעות בלונים לעבר ישראל  זהו מעשה טרור והסלמה מסוכנת מתברר כי מי שפ…  אכן צונאמי מדיני מדינה ועוד מדינה בזו אחר זו מבקשות להתקרב לישראל ולהדק את הקשרים  העוצמה הישראלית היא המפתח…  ארה״ב כבר הכירה בירושלים כבירת ישראל היום הצטרפה גם אוגנדה מדינות רבות נוספות יצטרפו בהמשך לאור צדקת דרכנו ובזכו…  הסרבן מפסיד מסרבנותו תכנית המאה קבעה עיקרון חדש הסרבנות אינה משתלמת גם הליגה הערבית מבינה זאת היטב כל הצהרות הל…  החלטות מדיניות לא מקבלים בניחותא ולא בקונצנזוס בינלאומי יש רגעי הזדמנות בלתי חוזרים בחיי אומה בהם נדרשים מנהיגות ו…  INSS2020  אז מה היה לנו השבוע •50 מנהיגי עולם מגיעים לישראל ומתחייבים להילחם באנטישמיות  •עסקת המאה של נשיא ארה״ב  •החז…  איראן מנסה לשטוף את המזה״ת בסופה שיעית  לבנון  עיראק ונסיונות להשתלט על סוריה גם ירדן אינה חסינה אם יוכלו ינסו…  קרדיט תמונה חדשות 12 היסטוריה ארה״ב אימצה באופן מלא את הנימוקים הישראליים בהיבטי אסטרטגיה וביטחון כבסיס להסדרת הסכסוך הישראלי פלסטיני…  היום יום השואה הבינלאומי  לזכור ולא לשכוח בזכות כוחנו ולאור צדקתנו נבטיח לדורות הבאים  לעולם לא עוד  בתמונה כא…  ביום הזה אני מתרגש וגאה להיות יהודי ישראלי לוחם מיל בצהל שר בממשלת ישראל ובעיקר בנם של מיכאל ז״ל ופרומה תיבד…  החלת הריבונות הישראלית על בקעת הירדן וקביעת גבולה המזרחי של ישראל על נהר הירדן הינם צעדים חיוניים לביטחון ישראל של…  הצהרת גנץ על בקעת הירדן היא או היתממות או התחסדות הוא אומר כן אבל ויודע שהאבל ימנע את העניין הגבול המזרחי של…  שמחתי לארח את מושלת מחוז אנטוורפן שבבלגיה ואת נציגי הקונגרס היהודי הישראלי באירופה ולהסביר את החשיבות שאנו רואים בנ…  נפטר ינון אשכנזי אביו של לוחם השייטת ארז אשכנזי אשר נפל בקרב נגד מחבלים בעזה ב 2003 ינון הנציח את זכרו של בנו ארז…  בסוף שבוע רווי יצרים פוליטיים איני שוכח את שליחותי ואת משימתי  בטחון ישראל האתגרים רבים ובראשם חתירת איראן לנשק ג…  היום ארה״ב ניצבת לצידנו במערכה וגם אירופה שוקלת להסיר את מסכת הצביעות שלה חשוב כי יד איתנה ומנוסה תאחוז בהגה הלאומ…  הערכת אמ״ן מבהירה עד כמה גדול האתגר של ישראל אל מול מאמציה הבלתי פוסקים של איראן להשיג נשק גרעיני לצד נסיונותיה להש…  האם אירופה היא האחרונה לגלות הגיע הזמן להסיר את מסכת הצביעות המביישת מעל פניה של אירופה נקווה שהאחריות לביטחון הע…  לא ינום ולא יישן שומר ישראל החיבור בין היכולת הטכנולוגית והמחקרית של מדינת ישראל לבין האנשים המעולים במערכת הבטחון…  מדינת ישראל קולטת עליה בהתאם ובכפוף לחוק השבות  כל אדם בישראל הוא עולה חדש או צאצא של עולה חדש  אלו האנשים שבנו א…  התמודדות עם איתני הטבע ממחישה את מגבלות האדם מכיר מקרוב את עוצמתם של המים  אנו מחוייבים להפיק לקחים ולהיערך למצבי…  היום מלאו 70 שנים להקמתה הרשמית של שייטת 13   לרגל הארוע התכנס פורום מאד מיוחד בבסיס השייטת בעתלית  כל מפקדי שייט…  איראן היא מחוללת הטרור הגדולה בעולם וסכנה חמורה לשלום המזה״ת חיוני ואפשרי למגר את הטרור וההתפשטות האיראנית  נמשיך…  ״הצגת תכלית״ קטנה של ארה״ב כדי לאותת לאלו הפוגעים בה ובבנות בריתה ישראל שוכנת בסביבה עויינת למזלנו המעצמה החזקה ב…  הדמוקרטיה חגגה  הליכוד ניצח כעת כולנו מאחדים כוחות לקראת נצחון הליכוד בבחירות כאז כן עתה חג החנוכה מנציח את גבורת המכבים בהגנת העם והארץ כנגד היוונים הבאים להשמיד את הגוף ואת הרוח היהודית ש…  ביטחון ישראל עומד מעל הכל ירי רקטה אפילו אחת הוא מעשה טרור וקריאת תיגר על נוכחותנו בארץ הזו  לא נסכים לכך לא נ…  טרור חיזבאללה בהכוונת איראן הוא סכנה לעולם כולו ישראל ניצבת בחזית המלחמה כנגדו  מברך על החלטת הפרלמנט הגרמני לאסו…  אנו מרכינים ראשנו עם לכתה לעולמה של גאולה כהן לוחמת חירות ישראל חברת כנסת וכלת פרס ישראל תנחומי לחברי צחי הנגבי ולבני המשפחה ברכות לשירות הבטחון הכללי ולעומד בראשו  נדב ארגמן על עוד מבצע מוצלח להגנתם של אזרחי ישראל כנגד הטרור הפלשתיני  יום ההוקרה לפצועי ונכי צה״ל  הם אלו אשר בהקרבתם ובעוז רוחם הקנו חיים למדינת ישראל הם הנושאים עדות זו עמם יום יום…  ברכות לאנגליה  נצחונו המובהק של ג’ונסון על קורבין הוא גם נצחונן של ישראל ושל היהדות כנגד האנטישמיות וכנגד ה BDS ומעודדי הטרור האנטי ישראלי מדינת ישראל הדמוקרטית היא מדינת חוק את הכרעת הדין קובעים בבית המשפט חזקת החפות שמורה לכל אדם כך גם לראש ממשלה עתיר זכויות כבנימין נתניהו מדינת ישראל לא תאפשר הקמתו של צבא איראני בסוריה ויצירת חזית ״חיזבאללה 2״ ברמת הגולן  נקודה  ארה״ב הבהירה היום באומץ את המובן מאליו  ההתיישבות אינה מפרה את החוק הבינלאומי על הרי יהודה ושומרון קמה ממלכת בית…  אסור לאפשר הקמת ממשלה הנשענת על קולות חברי הרשימה הערבית המשותפת המתנגדת לקיום מדינת ישראל כמדינה יהודית וציונית…  ביטחון ישראל מעל הכל  ברכות לצה״ל ולשב״כ על ההצלחה המודיעינית והצבאית אנו מאוחדים בלחימה כנגד הטרור מי יתן ונדע…  נסראללה מודה במה שישראל טוענת שנים חיזבאללה הוא זרוע של תמנון הרשע האיראני ארגון טרור המקבל את תקציבו ותמיכתו מאי…  די לנשף המסיכות  נשק גרעיני בידי איראן יהפוך את העולם למקום לא יציב יגביר את התוקפנות האיראנית ויציב את ישראל בס…  ראש הממשלה יצחק רבין ז״ל הרמטכ״ל עטור התהילה של מלחמת ששת הימים נרצח ע״י יגאל עמיר מגנה בכל תוקף את הנסיונות להכ…  מברך את ארה״ב על הצלחתה בחיסולו של מנהיג דאע״ש אבו באכר אלבגדאדי אני מכיר מקרוב את לוחמי הכוחות המיוחדים של ארה״…  בביקור בבאבי יאר קייב אוקראינה מקום בו נרצחו עשרות אלפי יהודים ע״י הנאצים חלפו לבלי שוב הימים בהם דם יהודי הוא…  פגיעה בחיילי צה״ל ע״י כל אזרח ישראלי בודאי מקרב הציבור היהודי היא חציית קו אדום מחזק את ידיהם של לוחמי ומפקדי צה…  משתתף באבלה של משפחת שמגר והעם בישראל על לכתו של נשיא בית המשפט העליון לשעבר מאיר שמגר כמח״ט בצה״ל זכיתי להציג בפ…  השתתפנו היום בארוע מרגש  חברינו הטובים משפחת שוורצברג ממושב עמיקם אירחו בסוכתם את מרים פרץ ומשפחתה הנפלאה כבר שנ…  ארוע הטרור בגרמניה הוא עדות נוספת לכך שהאנטישמיות זוקפת את ראשה באירופה כשר העליה והקליטה אני קורא לכל יהודי אירופ…  גמר חתימה טובה לכל בית ישראל  אחרי שבוע פוליטי עמוס מצאתי זמן לחתירת בוקר ממושכת  הים נהדר בתקופה הזו שבת שלום ‍  שנה טובה לכל בית ישראל  תודה לכל מי שדרש בשלומי  כבר אחרי ריצה הבוקר ‍ שנה טובה ומבורכת   שבת שלום אתמול בערב חוויתי אובדן הכרה קצר בשל התייבשות לאחר בדיקות מקיפות השתחררתי כעת מבית החולים ואני מרגיש מצו…  400 שנים שלטה טורקיה בארץ ישראל  תקופה של נחשלות עוני דיכוי ובערות ישראל מביאה לעמה ולסביבתה קידמה שגשוג שפע…  קשה להאמין  מפלגה ציונית כחול לבן נשענת על תמיכת הרשימה הערבית המשותפת השוללת את קיום ישראל כמדינה יהודית וציונ…  3 שעות אחרונות נותרו להצבעה הבחירות הללו צמודות מאי פעם ואנחנו חייבים לסגור את הפער ביננו לבין השמאל כדי לא להתעור…  מצביעי הליכוד נותרו פחות מ8 שעות להצבעה חייבים ללכת ולהצביע מחל אחוזי ההצבעה בקלפיות במעוזי השמאל גבוהים חיי…  יום גורלי לעתיד מדינת ישראל  כל קול קובע מצביעי הליכוד צאו להצביע ותנו לליכוד את הכוח להמשיך ולהצעיד את מדינת ישר…  מחר יום קריטי עבור מדינת ישראל צאו והצביעו לליכוד הצביעו מחל  רגע לפני הבחירות מוזמנים לראות את העשייה גם מזווית אחרת  מעכשיו הצטרפו אליי גם באינסטגרם  מחכה לכם…  החלת הריבונות הישראלית בבקעת הירדן היא בראש ובראשונה מענה לצורך ביטחוני חיוני של מדינת ישראל  רק הצבעה לליכוד תאפש…  איראן נחלשת אך היא רחוקה מנקודת השבירה ומויתור על תכנית הגרעין החשיפות של ראש הממשלה נתניהו מסייעות להמשך הלחץ הבי…  בידוד מדיני כבר אמרנו ברכות לראש ממשלת אתיופיה ד״ר אביי אחמד עלי שממשיך את צונמי המנהיגים המבקרים בארץ בשבוע…  חשפנו את ארכיון הגרעין החרבנו את מנהרות חזבאללה אנו פועלים כנגד הניסיונות להוציא לפועל את פרויקטי דיוק הטילים לא…  ברק איבדת את הבלמים ובודאי את האיזונים לשמוע את דבריך ולא להאמין שרי הקבינט מטומטמים ואילו אחמד טיבי ראוי לכהן ב…  המשוואה פשוטה אנחנו פועלים ונמשיך לפעול בכל מקום בכל דרך ונגד כל מי שמנסה לפגוע בביטחוננו  לאף אחד אין ולא תהייה חסינות בעת הזו כולנו מאוחדים סביב שתי משימות דחופות • לטפל בפצועים ובמשפחתם  • להגיע אל המחבלים ולמצות עימם את הדין ברכות לנמרוד גז על מינויו לתפקיד ראש מטה שר הביטחון מכיר את נמרוד לאורך שנים ארוכות משירותו הטוב והמשמעותי בשירו…  מתקדמים ברכות לפרגוואי על החלטתה להכיר בחיזבאללה ובחמאס כארגוני טרור לפני חודש החליטה המדינה הלטינית הראשונה א…  רק השבוע נכנסו בשערי המדינה מאות עולים חדשים ורבבות תיירים שבאו להינות מקיץ ישראלי כולם ברוכים במדינתנו רשידה טלי…  מקבל את פניהם של 241 עולים חדשים מארצות הברית וקנדה חלקם הגיעו במיוחד כדי להתגייס לצה״ל  זאת תוספת עוצמה אדירה למ…  ״ארדוף אויבי ואשיגם ולא אשוב עד כלותם״  תהילים י״ח ל״ח  המעגל נסגר  נלכדו רוצחיו של דביר שורק ז״ל</t>
-  </si>
-  <si>
-    <t xml:space="preserve">אני מבקש לשלוח תנחומים מעומק הלב למשפחתה של מרים לוינגר ז״ל שהלכה לעולמה מרים ובעלה משה ז״ל היו ממקימי היישוב היהו…  עונה לשאלות שלכם בשידור חי בפייסבוק שלי  אני מבקש מכל מי שמקים סוכה לחג לעשות זאת עם מסיכה ולפי כל כללי הריחוק   יחד ננצח את הקורונה  גמר חתימה טובה ושנה טובה לכולכם זה כולל הכנת מערכת הבריאות לחורף מאמצי הסברה ואכיפה לחבישת מסיכות ושמירה על ריחוק חברתי מעבר איטי ומדורג לשגרת קו…  אזרחי ישראל אני גאה בציבור שגילה אחריות ושמר על ההנחיות ביום הכיפורים   אנחנו ממשיכים לעבוד מסביב לשעון כדי לבלום את מגיפת הקורונה בישראל שוחחתי עכשיו עם הרבנים הראשיים לישראל הראשל״צ הרב יצחק יוסף והרב דוד לאו והודיתי להם על מנהיגותם וקריאתם המשותפת לה…  אָבִינוּ מַלְכֵּנוּ מְנַע מַגֵּפָה מִנַּחֲלָתֶךָ אָבִינוּ מַלְכֵּנוּ חַדֵּשׁ עָלֵינוּ שָׁנָה טוֹבָה  ariyederi ההפגנה כעת בבלפור כשהמדינה כולה בסגר חסרת אחריות ותביא לעליית התחלואה כשהם נוהגים בחוסר אחריות אנחנו נדרשים לאחריות גדולה… אנחנו בשעת חירום לאומי כולנו צריכים להתגייס יחד כדי לנצח את הקורונה עדכון חשוב ממני אליכם  אנחנו עם אחד הקורונה לא מבדילה בינינו ולכן רק ביחד ננצח את הקורונה  שבת שלום מטרתי היחידה היא לשמור על חיי אדם על חיי המתפללים שאומרים ביום כיפור אבינו מלכנו מנע מגיפה מנחלתך ועל חיי כל אז…  מצב החרום מחייב אותנו לקבל החלטות קשות אבל הכרחיות  זה לא קל לא בישראל ולא במדינות באירופה שגם בהן המחלה צוברת תא…  LikudParty בשעת חירום לאומית זו אין מקום לפוליטיקה קטנה אף שההפגנות רק מסייעות לליכוד מבחינה פוליטית הן מסכנות את בריאות הציבור ולכ… LikudParty כיוון שלא ניתן להשלים את חקיקת החוק עד יום שלישי הליכוד הציע תקנות לשעת חירום לימים ספורים כדי למנוע הפגנות המוניות שיגרמ… LikudParty החוק ממילא לא יכל לעבור היום בכנסת עם 4000 הסתייגויות של האופוזיציה שמתנהלת בחוסר אחריות בשעת חירום לאומית זה קורה בשל הא… האחריות של המומחים היא לייעץ והאחריות שלי כראש ממשלת ישראל היא לקבל את ההחלטות הנכונות כדי להציל חיים  שאלו אותי על ההפגנות בבלפור הנה 2 דקות על הטענות ההזויות ששמעתי בימים האחרונים צפו  אנחנו בשעת חירום לאומית במלחמה על הבריאות הכלכלה על החיים של כולנו אני יודע שיחד אנחנו יכולים לנצח את הקורונה…  LikudParty הערב שמענו את יאיר לפיד פוגע באמון הציבור בזמן חירום ובכך מסכן את חייהם של אזרחי ישראל   זה אותו יאיר לפיד שאמר שאין הצד… לפי מצב התחלואה בישראל סגר היה רק עניין של זמן לכן עדיף סגר מלא עכשיו בחגים במחיר כלכלי נמוך יותר מאשר סגר אחרי…  IsraeliPMheb שידור חי ראש הממשלה בנימין נתניהו מוסר הצהרה לתקשורת  ArielKallner האם יעלה על הדעת שמדינת ישראל תממן הגנה לפורעי חוק המפגינים נגד ממשלת גרמניה האם ממשלת גרמניה הייתה עוברת על כך בשתיקה… שוחחתי עם הנסיך סלמאן בן חמד אל חליפה יורש העצר של ממלכת בחריין  זאת הייתה שיחה יוצאת מן הכלל ומאוד ידידותית די…  kannnews חכ יפעת שאשאביטון לא הסכימה עם התחזית של פרופ גבי ברבש שעמדה על 600 חולים קשים גם כשהתברר שהוא צדק מהצדהשני עם guyzo… לשלומית לילדיו ארנון מוריה גלעד שילה אורה נבו וברנע ולנכדים ננצור יחד עמכם את זכרו של איש מופלא בישראל  מה גדול הכאב ובתפקידיו ראש בית הספר לחינוך באוניברסיטת בר אילן ראש המכון לחקר החינוך הדתי ראש המזכירות הפדגוגית במשרד החינוך…  הוא עלה לבד בגיל 18 מיוהנסבורג היה בין הצנחנים ששחרורו את הכותל במלחמת ששת הימים ובמשך עשור עשה שרות מילואים במוסד…  יענקלה היה לי כאח במשך 30 שנה הלכנו בדרך משותפת הוא תמיד צעד לצידנו ברגעים של קורת רוח ושמחה ועוד יותר ברגעים ש…  רעייתי שרה ואני ובנינו יאיר ואבנר מבכים את הליכתו של ידיד משפחתנו יקירנו פרופסור יעקב כץ מותו הפתאומי זעזע אותנו עד עמקי נשמתנו I join the American people in mourning the passing of Ruth Bader Ginsburg one of the great judicial leaders of our…  איתך תמיד בנימין ושרה נתניהו לדידי הררי חברנו האהוב אנחנו מחבקים אותך ודואבים איתך ועם הבנות על האובדן הקשה מנשוא של אשת חייך האהובה מירית שנל…  שנה טובה ובריאה לכל אזרחי ישראל  IsraeliPMheb שידור חי ראש הממשלה בנימין נתניהו מוסר עדכון לציבור ממעון ראש הממשלה בירושלים  שידור חי    My warmest birthday wishes to my good friend Prime Minister of India narendramodi  Happy birthday יום הולדת שמח  ज…  שתהיה לכולנו שנה טובה וחג שמח מבצע ״תפוח בדבש״ צפו gtgt  קרן ההשקעות של אבו דאבי שמנהלת מאות מיליארדי דולרים פותחת את משרדה הראשון מחוץ למדינה בישראל  כך נראה שלום תמור…  FLOTUS It is always a pleasure to host Mrs Netanyahu at the WhiteHouse The bond between our two nations is strong amp I appreciated t… כותרות העיתונים הגדולים בארצות הברית הבאנו שלום תמורת שלום שלום מתוך עוצמה ועידן חדש של שלום  רגע לפני שנוחתים בישראל ביקשתי להודות לחברי המשלחת על רגע היסטורי שנזכור לדורות  כמה טוב לחזור לארץ בשלום ועם הסכמי שלום   הבאנו שלום תמורת שלום שלום מתוך עוצמה   אני מודה לנשיא טראמפ על אות הידידות שהעניק לי ולרעייתי בבית הלבן החברות בין ישראל לארה״ב איתנה וחזקה מתמיד …  BismuthBoaz בלי ויתור על חבלי מולדת ובלי אוטובוסים מתפוצצים • וזו רק ההקדמה גם סעודיה בדרך • הפרשנים יעקמו פרצוף כאילו שלא הביאו להם… אני לא מתפלא שהטרוריסטים הפלסטיניים ירו לעבר ישראל בדיוק בזמן הטקס ההיסטורי הזה הם רוצים להחזיר את השלום לאחור ה…  את הפירות של ההסכמים הללו אזרחי ישראל יראו מהר מאוד אבל הם יעמדו לנו לדורות כל אחד שהיה במקום הבין שעשינו תפנית…  אני בדרך לישראל אחרי ביקור היסטורי בוושינגטון בו חתמנו על מסמכי הכינון של שני הסכמי שלום עם שתי מדינות ערביות  במשך אלפי שנים העם היהודי התפלל לשלום במשך עשרות שנים המדינה היהודית התפללה לשלום   היום הבאנו שלום תמורת שלום…  Thank you President Trump You have unequivocally stood by Israels side and boldly confronted the tyrants of Tehra…  I am grateful to King Hamad of Bahrain and to Foreign Minister Abdullatif AlZayani for joining us in bringing hop…  I am grateful to Crown Prince Mohammed bin Zayed of the United Arab Emirates and to Foreign Minister Abdullah bin Z…  You have boldly confronted the tyrants of Tehran Youve proposed a realistic vision for peace between Israel and t…  This week is Rosh Hashana the Jewish New Year and what a blessing we bring to this new year a blessing of friend…  I have worked to make Israel strong very strong for history has taught us that strength brings security strength…  This is not only a peace between leaders its a peace between peoples—Israelis Emiratis and Bahrainis are already embracing one another I know the price of war For those who bear the wounds of war cherish the blessings of peace And the blessings of…  This day is a pivot of history It heralds a new dawn of peace For thousands of years the Jewish people have pray…  יום גדול לעם ישראל הבאנו שלום תמורת שלום שלום מתוך עוצמה  מהיום  עידן חדש של שלום במזרח התיכון   עם ישראל יודע את מחיר המלחמה אני יודע את מחיר המלחמה   נפצעתי בקרבות איבדתי בין זרועותיי חבר קרוב שנפל בקרב איב…  לכל החברים של ישראל במזרח התיכון  אלה שמצטרפים אלינו היום ואלו שיצטרפו אלינו מחר  אני אומר סאלאם עליכום שלום על…  ידידי הנשיא טראמפ תודה על קבלת הפנים החמה לבית הלבן זהו עידן חדש של שלום  IsraeliPMheb ראש הממשלה בנימין נתניהו בטקס חתימת הסכמי השלום ההיסטוריים הסכמי אברהם עם איחוד האמירויות ובחריין במעמד נשיא ארהב… IsraeliPM WATCH LIVE Prime Minister Benjamin Netanyahu at the signing ceremony of the historic Abraham Accords with the United Arab… realDonaldTrump HISTORIC day for PEACE in the Middle East — I am welcoming leaders from Israel the United Arab Emirates and the King… WhiteHouse Today is a HISTORIC day at the White House  President realDonaldTrump welcomes the Prime Minister of Israel and the Forei… IsraeliPMheb שידור חי פגישת ראש הממשלה בנימין נתניהו עם נשיא ארהב דונלד טראמפ בבית הלבן   IsraeliPM LIVE Prime Minister Benjamin Netanyahu meets with US President realDonaldTrump at the White House   יום מרגש והיסטורי לישראל בדרך לעשות שלום תמורת שלום שלום מתוך עוצמה  kannnews הסכם אברהם  השלום בסיקור עיתוני המפרץ כותרת עיתון אל איתיחאד של איחוד האמירויות האמירויות וישראל  שלום העתיד  יום הי… גם כשאני עסוק בעבודה המדינית החשובה הזו אני לא שוכח לרגע שאלה ימים קשים לכולנו הספקתי לדבר היום גם עם שר האוצר וג…  זו תפנית עצומה בתולדות ישראל גם בתולדות המזרח התיכון תהיה לזה השפעה אדירה וחיובית על כל אזרחי ישראל אני גם מבטיח…  אני מחזיק בידי את טיוטת חוזה השלום ההיסטורי בין ישראל לאיחוד האמירויות וגם את הצהרת השלום ההיסטורית בין ישראל לבחר…  בדרך להביא שלום תמורת שלום  גם עכשיו למענכם ובשליחותכם אני אקבל את ההחלטות הנכונות גם אם הן קשות כדי להציל את חייהם של אזרחי ישראל וכדי לשמ…  אותו תהליך בדיוק קורה עכשיו במגיפת הקורונה  בגל הראשון של הקורונה קיבלנו את ההחלטות הנכונות שהביאו את ישראל למצב…  תמיד ראיתי לנגד עיניי את המטרה של טובת ישראל ותמיד קיבלתי את ההחלטות הנכונות למען המדינה שלנו   תמיד קרה אותו דבר…  כשאמרו שאני גורם לצונאמי מדיני כשנלחמתי לבנות גדר בגבול סיני כשאמרו שאני הורס את היחסים עם ארה״ב כשאמרו שלעולם לא אביא הסכמי שלום – גם כשהכדורים שרקו סביבי  גם כשנורו עליי חיצי ביקורת ולעג –  כשהנהגתי כלכלה חופשית  כשהוצאנו את הגז מהמים  כשהתנג…  בשנותיי כלוחם ומפקד בסיירת מטכל ובכל תפקידיי הציבוריים  כשר האוצר כשר החוץ כשר הביטחון וכראש הממשלה   תמיד דג…  קיבלנו את ההחלטות הנכונות בגל הראשון של הקורונה ובזכותן בישראל התמותה נמוכה ביחס לעולם והכלכלה חזקה ביחס לעולם   ג…  IsraeliPMheb שידור חי ראש הממשלה בנימין נתניהו בהצהרה לתקשורת  שוחחתי כעת בטלפון עם ראש ממשלת דנמרק מדה פרדריקסן והודיתי לה על עמידתה האיתנה להגן על הקהילה היהודית ועל מסורת בר…  כל ההסכמים הללו נעשים עי עבודה מאומצת מאחורי הקלעים במשך שנים אבל הם הגיעו לכלל מימוש עי העזרה החשובה של ידידנו נ…  זה עידן חדש של שלום שלום תמורת שלום כלכלה תמורת כלכלה אנחנו השקענו בשלום במשך שנים ארוכות ועכשיו השלום ישקיע בנו…  זה מצטרף להסכם השלום ההיסטורי עם איחוד האמירויות זה לקח לנו 26 שנים להגיע מהסכם השלום השני עם מדינה ערבית להסכם הש…  אזרחי ישראל אני נרגש לבשר לכם שהערב נגיע להסכם שלום נוסף עם מדינה ערבית נוספת עם בחריין זה מצטרף להסכם השלום ההי…  אוהב אתכם שתהיה לכל אזרחי ישראל שבת שלום Today we remember all those who perished in the greatest terrorist crime in history committed on September 11 200…  לוקח רגע מהדיונים בקבינט הקורונה כדי לעדכן אתכם אישית על ההחלטות שלפנינו  נפגשתי השבוע עם עמותות סיוע למשפחות נזקקות  אנחנו מחוייבים שלא תהיה אף משפחה שתגיע לחג בלי ארוחת חג נעשה הכל כדי…  LikudParty סיעת הליכוד רק חקירה עצמאית ובלתיתלויה תגלה את האמת על תפירת התיקים נגד ראש הממשלה נתניהו ישראל צריכה מערכת אכיפת חוק ו… בפירוט  פיתוח וחיזוק של ההתיישבות ביהודה ושומרון תקציבי סיוע לכפרי הסטודנטים ברחבי הארץ תוכניות למען בעלי חיים ועוד מענקים מיוחדים לאוכלוסיית הנכים תכנית להעלאת כ2000 מבני הפלאשמורה תכנית סיוע לשילוב בני העדה האתיופית בישראל ע…  הבאנו ואישרנו הלילה תקציב של 11 מיליארד שקלים לטובת כל אזרחי ישראל ובמיוחד לאוכלוסיות נזקקות בשורה חשובה מאוד בין היתר תקצבנו כולנו ראינו השבוע את אותם גילויים מזעזעים על טיוח חקירות ושיבוש חקירות מעשים שנעשו על ידי בכירים בפרקליטות ובמשטרה…  שידור חי    amitsegal מסמך משטרתי חושף   החוקר רוטנברג ״ידע על בדיקה נגד נוני מוזס ועל קיום חומרים שנגעו לה״   במשטרה ובפרקליטות מנעו את חקירת האמצעים הפליליים בהם השתמשה המשטרה כדי להביא את ניר חפץ להפוך לעד מדינה    אתמול…  אני גאה לצאת בשבוע הבא לוושינגטון בהזמנת הנשיא טראמפ ולהשתתף בטקס ההיסטורי בבית הלבן לכינון הסכם השלום בין ישראל לאיחוד האמירויות arutz20 רהמ נתניהו בהצהרה היום אם זה מה שעשו לי ולמשפחת אבו אלקיעאן  מה הם עושים יום יום לאזרחי ישראל  אני בסיור עבודה בבית שמש שהוגדרה כעיר אדומה קידמנו היום את הפעולות שיחזירו אותה להיות עיר ירוקה   באתי לחבק ולחזק…  החשיפה של עמית סגל מוכיחה שהחקירות נגדי היו פוליטיות ומזוהמות מהרגע הראשון חייבים חקירה עצמאית ובלתיתלויה כדי להג…   ישראל חוזרת לאפריקה ואפריקה חוזרת לישראל  נפגשתי היום עם יור הקבינט של צאד עבדלקרים דבי ועם ראש שירותי המודיעין של צאד אחמד קוגרי  לאחר חידוש היחסים עם…  סיור עבודה ברמלה בשני בתי עסק שמתמודדים עם האתגרים הלא פשוטים של הקורונה  חיזקתי אותם והבטחתי להמשיך לעזור מעבר לס…    מזעזע עמית סגל מטיל הערב פצצת אטום ומוכיח בהתכתבויות בין בכירי משטרה ופרקליטות כך תפרו תיקים לראש הממשלה נתניהו…  amitsegal רב פקד אבי רוטנברג ניהל את חקירת המעונות של שרה נתניהו במהלך החקירה רגע לפני שהוא אמור להיות גם בצוות שבודק את הקלטות מוז… amitsegal אבל ניצן מודה במייל סודי המפכל התנהג שערורייתית אבל לא נעזור כי זה יעשה טוב למי שרוצה ברעת המערכת ודי לחכימא זמן קצר… amitsegal הכתבה המלאה  GolanOfer amitsegal חושף את קשר השתיקה וההסתרה של המשטרה והפרקליטות נגד ראש הממשלה החשיפה מצטרפת לפרשת קלטות הסתר של מנדלבליט מניע… לצערי פוליטיקאים מנסים לנצל את המגיפה לצרכים פוליטיים ראשי האופוזיציה חייבים לגלות אחריות ולא לגרור את המדינה לאנר…  מכתב ששלחתי עכשיו לראשי האופוזיציה גלו אחריות  שידור חי    מסר מרגש ודרישת שלום מיור הפרלמנט של קוסובו עוסמני ויוסה המדינה המוסלמית הראשונה שתפתח שגרירות בירושלים  A touc…    אזרחי ישראל אני מבקש לעדכן אתכם על ההחלטה שועדת השרים קיבלה הערב לאור הנתונים וההמלצות הללו ההחלטה הערב הייתה שק…  פניה אישית ממני אליכם אחיי ואחיותיי מהמגזר החרדי צפו gtgt  אני מודה לכל עמותות הסיוע שעבדו איתנו היום ושעובדים בכל ימות השנה כדי לסייע לכל מי שזקוק לעזרה אנחנו משקיעים כמעט מיליארד שקלים בעזרה מיידית לשכבות המצוקה אנחנו רוצים שזה יגיע ויגיע מהר   אנו מחוייבים לעזור…  החלטנו להגדיל את סכום התמיכה שהמדינה נותנת לעמותות סיוע לנזקקים פי 3 ל18 מיליון שח   בנוסף נביא 9 מיליון שח לס…  נחנו בעידן חדש של נורמליזציה ושלום  שלום שנובע מעוצמתה של ישראל  כמו יתר העולם נמשיך להאבק בקורונה נדאג לכלכלת…  שבוע טוב  אני מברך על ההסכם עם קוסובו שתהיה המדינה המוסלמית הראשונה שתפתח שגרירות בירושלים סרביה תהיה המדינה הראש…  שבת שלום   LikudParty לשמאל קשה לראות איך ראש הממשלה נתניהו ריסק את תפיסת שטחים תמורת שלום והביא לראשונה ״שלום תמורת שלום״ ולכן הם מנהלים מול… על אף שהתבשרנו על עלייה אפילו מפתיעה בהכנסות של מדינת ישראל בחודש אוגוסט אנחנו יודעים שיש עדיין קשיים גדולים יש…  כינסתי דיון כלכלי עכשיו לבחינת צעדים נוספים להאצת המשק וחיזוק הכלכלה   אנחנו דנים כל הזמן בצעדים נוספים  מס הכנסה…  אני מבקש את שיתוף הפעולה של כל אזרחי ישראל על מנת לבלום את התחלואה הזאת   הישמעו להנחיות הבריאות   זה חשוב לבריאות של כל אחד ואחת מכם במשך חודש שלם היינו ברמה של תחלואה גבוהה אך יציבה בימים האחרונים חלה עלייה ועלייה דרמטית מאוד אתמול   לכן החלטנו…  נפגשתי היום עם ידידי שר החוץ של רומניה בוגדן אאורסקו בירושלים   אנחנו מברכים על היחסים המצוינים בין רומניה ליש…  שוחחתי היום עם נשיא מצרים עבד אלפתאח אסיסי דיברנו על האתגרים האזוריים חיזוק היחסים ושיתוף הפעולה בינינו במגוון…  בנוסף זה יפתח לנו את המזרח כשאתם טסים לתאילנד או לכל מקום אחר באסיה זה יוריד דרמטית שעות טיסה ומחירים    הבאנ…  פריצת דרך אדירה אישרנו שמטוסים ישראלים ומטוסים של כל המדינות יוכלו לטוס ישירות מישראל לאבודאבי לדובאי ובחזרה  …  שמחתי ללוות את אופק ראשון שסבלה מחרם חברתי מצער לפני מספר שנים ביום הראשון ללימודים על כולנו להתגייס למאבק נגד ש…  ברוכה הבאה ShuliMR  AaronKleinShow My piece today in Newsweek  The Netanyahu Doctrine Is Bringing Middle East Peace  כולנו ביחד חייבים להוקיע תופעות כאלה ולגלות ערבות הדדית אסור לעמוד מהצד   ולך אופק את גדולה מהחיים אנחנו שותפים למשימה וביחד ננצח דיברנו יחד על איך נוכל לקדם מטרה חשובה זו ולדאוג שאף ילד לא יצטרך לעבור שימינג ביריונות או חרם   רעייתי שרה מוביל…  פגשתי היום את אופק ראשון שסבלה מחרם חברתי מצער לפני מספר שנים כיום היא מובילה ב״סיירת החרם״ של ״הצינור״ במטרה לעז…  אני מברך על ההבנות הראשונות שנחתמו באבו דאבי   ההבנות יסייעו לנו לקדם השקעות הדדיות ושיתופי פעולה נרחבים נודי…  באתי לפתוח את שנת הלימודים בכיתה א׳  צפו בעדכון אישי ממני אליכם  בקרוב עוד חדשות טובות על הסכמים נוספים בינינו בתחומי התעופה התיירות והמסחר יש למה לחכות בתמונה שער אחד העיתונים המובילים באיחוד האמירויות רגע היסטורי של ״שלום תמורת שלום״  היום חתמנו על הסכם ראשון ב…  שלום כיתה א׳ בהצלחה לכל התלמידות והתלמידים שלנו   הצטרפו אליי לטלגרם  שלום כיתה א׳ בהצלחה  yankihebrew התקווה לשלום   The hope for peace  الأمل في السلام  ⁦يتعلم اطفالي عن السلام  גם אני מכין ילקוט   אוהב אתכם ילדי ישראל  בהצלחה  25 שנה אני עובד כדי לפרק את תפיסת ״שלום תמורת ויתורים״ ולהביא ״שלום תמורת שלום״ היום הזה הגיע  זה יום חג משמח למדינת ישראל עבדתי קשה 25 שנה כדי שנגיע לרגע הזה לשלום תמורת שלום שלום מתוך עוצמה    שידור חי  לחמודים ולחמודות שמתחילים מחר את הגן  זה בשבילכם gtgt  מרגש דגל ישראל מונף באבו דאבי   שלום תמורת שלום  שלום מתוך עוצמה   יום היסטורי ומרגש אמסור הצהרה בשעה 1815  תודה   וידאו kaisos1987 התרגשתי לשוחח בטלפון עם המשלחת הישראלית לאבו דאבי בדרך לעשיית שלום היסטורי  אחרי מאמצים אדירים שהובלתי במשך שנים…  IvankaTrump Historic IsraelAbu Dhabi flight to fly over Saudi Arabia  This was the 1st ever commercial flight from Israel to the UAE… זה דרש ועדיין דורש שינוי מהפכני בגישה הרווחת כיצד ישראל תשיג שלום אני גאה שנאבקתי על השינוי הזה והובלתי אותו עד…  זהו יום היסטורי למדינת ישראל שעמלתי להשיגו במשך עשרות שנים   הנה הדברים שכתבתי בספרי ״מקום תחת השמש״ לפני 25 שנה ב…  לראשונה בהיסטוריה טיסה מסחרית ישראלית לאיחוד האמירויות ככה נראה שלום תמורת שלום  בוקר טוב ישראל  צפו משפחה באיחוד האמירויות חוגגת את הסכם השלום עם ישראל   עושים שלום מתוך שלום  שלום מתוך עוצמה   במשך זמן רב מדי הטילו הפלסטינים וטו על השלום בין ישראל למדינות ערב זה נגמר שלום תמורת שלום שלום מתוך עוצמה  כך נראה שלום תמורת שלום שלום מתוך עוצמה  במשך זמן רב מדי לפלסטינים היה וטו על שלום בין ישראל לעולם הערבי אם נצטרך לחכות להם  נחכה לנצח אנחנו לא מחכים ומ…  אתמול איחוד האמירויות הסירו לראשונה את החרם על ישראל ופתחו את הדלת למסחר השקעות ושיתוף פעולה בין הכלכלות הטובות בי…  אני שמח לארח היום במעון ראש הממשלה בירושלים את ג׳ראד קושנר שליחו המיוחד של הנשיא טראמפ ואת רוברט אובריאן היועץ ל…  IsraeliPMheb שידור חי ראש הממשלה בנימין נתניהו בהצהרות משותפות עם היועץ לביטחון לאומי של ארהב רוברט אובריאן והיועץ הבכיר לנשיא ארה״… IsraeliPM LIVE Statements by Prime Minister Benjamin Netanyahu US National Security Adviser Robert OBrien and Senior US Presidentia… אחרי הראיונות המלוקקים של התקשורת עם רוני אלשיך כדאי לקרוא את העובדות כדי להבין את האמת  אני מברך על החלטת נשיא איחוד האמירויות שייח חליפה בן זאיד לבטל את החוק להחרמת מוצרים מישראל ומגעים כלכליים עם יש…  בשבוע הבא בפעם הראשונה תצא טיסה מסחרית לאבו דאבי ככה בדיוק נראה שלום תמורת שלום שבת שלום לכולכם   LikudParty הפגנות השמאל הן ההפגנות ״הספונטניות״ המאורגנות ביותר אי פעם מי שעומד מאחוריהן ומממן אותן הם טייקונים מהשמאל וביניהם אורני… אני מצר על ההחלטה השגויה של בגץ בעניין פינוי מצפה כרמים הוריתי למנכל משרדי רונן פרץ להיפגש עם נציגות היישוב נמצ…  שרה ואני מתארחים היום במלון רות צפת מקום נפלא  היינו פה בפעם הראשונה לפני כ30 שנה לדעתי גם באותו חדר שוחחתי…  בשם כל אזרחי ישראל אני שולח תנחומים מעומק ליבי למשפחת אוחיון על רצח אב המשפחה הרב שי בפיגוע דקירה היום בפתח תקווה…  ישראל רואה בחומרה רבה את הירי לעבר כוחותינו על ידי חיזבאללה לא נסבול שום תוקפנות נגד אזרחינו ונגיב בעוצמה על כל הת…  לפני הכל אני פה כדי לשמור על החיים שלכם נמשיך להביא ביטחון ומתוכו גם להביא שלום  שומרים על ביטחון ישראל  בוקר ט…  זהו הסכם היסטורי הוא יביא למנועי צמיחה הוא יכול לעזור להביא לפריחה כלכלית בכלל ובפרט בתקופת הקורונה אני מקווה ש…  הנחיתי את ראש המטה לביטחון לאומי מאיר בןשבת לצאת בראש משלחת ישראליתמקצועית לשיחות באיחוד האמירויות בשבוע הבא…  אנחנו פותחים את שנת הלימודים כי זה חשוב לחינוך הילדים וזה חשוב גם לכלכלה שלנו לאפשר להורים ללכת למקומות העבודה  א…  סיימתי עכשיו סיור עבודה בבית הספר עופרים בירושלים יחד עם שר החינוך גלנט כדי לעקוב מקרוב אחר היערכות מערכת החינוך…  החלטתי עם שר האוצר ישראל כץ ושר החינוך יואב גלנט להקצות 300 מיליון שח לסבסוד הצהרונים עד לסוף שנת הלימודים הקרובה…  מה באמת קורה בהפגנות השמאל הסתה לרצח תקיפת שוטרים ביזוי סמלי המדינה הפרות סדר שתפו את מה שהתקשורת מסתירה מכם  kannnews נתניהו הגיע להצבעה במליאה לא זוכר שדיברתי על גנץ כמו שהם מדברים עליי אבל זה הזמן לשלב ידיים shemeshmicha  הדבר האחרון שישראל צריכה עכשיו זה בחירות לכן הודעתי אתמול על תמיכה בפשרה שתמנע בחירות לצערי היום כחול לבן הוסיפו…  Today I had an important meeting with my friend SecPompeo   I thanked him for America’s great support for Isr…  הייתה לי פגישה חשובה היום עם מזכיר המדינה האמריקני ידידי מייק פומפאו   הודיתי לו על התמיכה האדירה של ארה״ב בי…  IsraeliPM Watch Live Statements by Prime Minister Benjamin Netanyahu and US Secretary of State Mike Pompeo following their meeting a… IsraeliPMheb שידור חי ראש הממשלה בנימין נתניהו ומזכיר המדינה האמריקני מייק פומפאו בהצהרות משותפות בתום פגישתם במשרד ראש הממשלה בירוש… אני תמיד שמח לארח בירושלים בירתנו את מזכיר המדינה האמריקני ידידי מייק פומפאו ברוך הבא   צילום קובי גדעון…  IsraeliPM Prime Minister Benjamin Netanyahu meets with US Secretary of State Mike Pompeo at the Prime Ministers Office in Jerusalem… IsraeliPMheb שידור חי פגישת ראש הממשלה בנימין נתניהו ומזכיר המדינה האמריקני מייק פומפאו במשרד ראש הממשלה בירושלים  </t>
-  </si>
-  <si>
-    <t>NiflaPo בוקר טוב בני בוקר טוב גבי בוקר טוב אבי קיבלתם את הקולות של למעלה ממיליון איש ממש כמו סגול בשיער שישב עוד כשעה באמצע השולח… Dragonwithtat אתם יודעים שכשזכות ההפגנה תילקח היא לעולם לא תוחזר נכון orlybarlev פותחת שידור חי מהשיירה לכנסת אצלי בפייס baruchikra לאור הצפה אינטנסיבית של רעיון החנינה או עסקת טיעון גרנדיוזית אני מעלה פה שוב את הקטע הרלוונטי ממאמרי ביום חמישי  מי שתומ… roeishapira We have a flair for the drama BRBY063 אין מה לעשות תמיד אמרנו Soloph0ne  כי אין שום ברירה אחרת אנחנו נאבק על הזכות שלנו להביע ביקורת ודעה חופשית כי על זה המאבק  החופש שלנו לבקר את השלטו…  אבל בחיים לא חשבתי שזה יגיע לכדי כך שהוא ידרדר אותנו אל פי פחת שהמציאות תגיע לכדי כך זה כל כך סוריאליסטי לפעמים…  אני מפחדת ממחר זו האמת סליחה שאני לא יכולה להתעלות מעל זה ולהפיח אופטימיות לא מסוגלת אני פשוט מפחדת לא רוצה אפ…  zelama אנחנו בתוך בבושקה של סגרים ItaiLeshem חנינה בשום פנים ואופן לבחור מיטה עליונה או תחתונה יש על מה לדבר orlybarlev הפגנה במרחק של 1000 מטר מהבית זה דיכוי זכות היסוד של הפגנה חופש ביטוי והמחאה כל הסגר המטורלל הזה בניגוד לעמדת אנשי המקצו… segalyaniv מושלם  DonMacLoof ShragaTichover Soloph0ne הדדי  HalperinShirly  היה כיף להיפגש מהממת segalyaniv היוש כנסת אנחנו נתראה מחר אנחנו הולכות לוודא שאת הולכת לעשות את התפקיד האחרון שלך שעדיין לא הפקרת וזה לשמש לנו מגן נוהר… sadibenshitrit איש ענק היה תענוג להיפגש סוף סוף זכינו להיפגש ומה אומר הוא אפילו יותר חתיך וסוחף במציאות  orlybarlev אלה מספרי הטלפון של חברי כחולבן סמסו להם תסבירו להם מה תפקידם כעת תזכירו להם שהם לא רוצים להיות בצד של ההיסטוריה שמחסל ד… ShragaTichover דמו קרט יה misscorina2  Soloph0ne  hadarse אצל בני גנץ עם קורינה המלכה בני תתעורר או תתפטר misscorina2 gantzbe  netanyahu תתפטר kumiiisrael 13 זוהי נקודת זמן קריטית מחר שלישי נעלה לכנסת בשיירת ענק מכל הארץ ניפגש שם החל משעה 1000 השיירה המרכזית תגיע קצת אח… gevakraoz גם אני חושבת yanivbiton99 יניבבבבב אני אוהבת אותך איזה שחקן גאד דמיט אני צמרמורות אימלה מי זאת מפרת פסיקת בגץ המהממת הזאת   instabaluga שלומית במצוקה נסערת וירוקה לכן היא עסוקה היום ויש לה בסוכה שרשרת הדבקה שלומית התחרפנה היום היא לא תשכח לשים תחמושת בכיסים… CactusBavarius אני תמיד אומרת לאנשים שמכירים ואוהבים אותי שהם פשוט עוד לא פגשו את בעלי הוא הדבר האמיתי CactusBavarius זה נכון חברים היום ב2030 רחוב הטללים 7 ראש העין מול הרמטכל שכשל  קרדיטים רעיון בעלי המהמם ביצוע CactusBavarius האחד ו…  barakshalev כשאתה ילד המספר הגבוה ביותר הוא ״שמונתאלפים״ SharonYosef עכשיו מתגלעים שני ויכוחים שהאחד מצדיק את השני ולהיפך  אנחנו התמימים והטהורים של מדוע לפרסם את הסרטון והשניים צדיקים וטהור… Ogi43188459 Zakiel91  iloveisraell הערב בראש העין  2030  cch444444 על הבחורה עצמה אין מה לרדת היא תוצר של קעקוע תודעה בשיטות של שרלטנים הקשר בינה לבין יהדות וישראליות ומגובשות מקרי בהחלט ש… cch444444 תודה AvishayBenHaim נשמה התאוריה עם הפיוס שלך עובדת מלא מלא חצי מדינה הפכו למוכי כת גואל רצון פינת אושו RTsipris misscorina2 יש גם אותם  RTsipris  RTsipris לא יודעת מה לעשות כרגע עם כל הטוב הזה אני רוצה תערוכה של כאלה במוזיאון OBOW2jV7KJuKXcD רק באחת WowGilush אמירת האמת בימים של הונאה אוניברסאלית היא מעשה מהפכני גורג אורוול arnavonet מסכן רוב הסיחרור שהוא עבר בצילומים לסדרה הזאת מערבל בטון 90 טון SharonYosef sadibenshitrit תרגיש טוב יותר חשוב מהכל  sadibenshitrit באה SharonYosef שתדע שאני באיזור sadibenshitrit חברים היום בערב בשעה 2030 אני הולך להזכיר לגנץ העציץ שיש לו אפשרות למזער את הנזקכולם מוזמנים רחהטללים 7 ראש העין עכ… RTsipris אין ולא יהיה יותר טוב מזה Soloph0ne וואו וואו וואו Ogi43188459 התמכרות GalonItay אנסה לפעול לטובתך אך לא יכולה להבטיח דבר לא מאמינה שקריירת המשחק שלי סוף סוף התחילה להתניע ועוד ביום כיפור  hgidt34 גם אותי ולכן מצאתי את עצמי בניגוד עניינים חריף בנושא SharonYosef למה שביבי לא יהיה האדם הראשון שטס למאדים  מוותר לו על משפט טוב אני באמת מרחמת על רקדנית ההסתה ולא תיכננתי להשתף בפסטיבל אבל זה כל כך טוב בעיני שלא יכלתי שלא תהנו  NitzanWaisberg אני איתך Soloph0ne VennySol  rankarmibuzaglo רנוש התגעגעתי אלייך חיים שלי מקווה שאתה מרגיש טוב אחרי הפציעה אני עוד מחכה לתפקיד במחזה החדש שלך מ…  Banboonsdum מוחה בשם דוקטור אביצי SharonYosef נראה לי שיום כיפור הוא יום נהדר להעלים מתנגדי משטר hadarse אני רוצה להיות שרת התרבות ולהוציא את הכפיים מחוץ לחוק אפשר Soloph0ne נתניהו טופז תעלה תמונה של הכותל לכבוד כיפור ותכתוב חתימה טובה  טופז כן בוס על זה  CactusBavarius netanyahu בולללל ItaiLeshem כן אחרי התמלילים היא לא משחררת לו מזון regevmiri מזל טוב עם הנשיקה 1010 בפופוליזם מהזן הנחות  חתימה טובה מותק NiflaPo מסכן זאת לא אשמתו היה לו עותק מהספר בכיס של המכנס אבל הוא עבר כזו הרתחה במכבסה בארהב שהכל שם נמחק נשאר ר…  SharonYosef יוסףףף  gontarzn orlybarlev פעם הבאה חסר לך שאתה לא בא להגיד שלום instabaluga orlybarlev cnnbrk CNN cnni  hagarsi orlybarlev גם אני חתימה טובה אהובה וואלה המחמאה הכי יפה שקיבלתי עד היום חתימה טובה גם לך נשמה  orlybarlev  תודה על הכל וחתימה טובה אורלי יקרה  Teodor1  netanyahu אתה מבזה את הקיר שאתה עומד על ידו freyisrael1 אתה חתיכת איש מהמם חתימה טובה BenCaspit כל מילה וגמר חתימה טובה baruchikra חתימה טובה איש יקר ראיון אצל אורלי חלק ב  אז בין ההמולה של הכל זכיתי אתמול להגשים חלום ולעלות לראיון אצל orlybarlev המדהימה חלק א  Soloph0ne avidareli שונאת אותך ביוש netanyahu אתה מרגיש את האדמה רועדת אבא Lolavanhorn תודה רבה eladmeidar idaholloway זה נכון גם אנחנו צריכים על זה חשבון נפש BenCaspit שלום תמורת כביסה טורשישי מלא   idaholloway  יועזי חייב לנו סליחה שהוא כזה חתיך קולע לסל שהשתמש בצורה המהממת שלו כדי לסנוור אותנו באופן כל כך מביש אם לא היה ברור עד היום למה אני מעריצה ואוהבת את האישה הזו אז הנה  orlybarlev לאה סטולר ניצולת שואה בת 88 שעלתה אתמול בשיירה ההיסטורית לבלפור העיניים התכסו דמעות  צפו בראיון הקצר שערכתי איתה  chaimlevinson האישה הזאת עושה לי ניים שיימינג ואני רוצה למחות על כך Banboonsdum  Banboonsdum אין לי מה לבקש סליחה כי אני מושלמת orlybarlev תודה על הכל אישה יקרה TheTLVgirl אחפש תודה רבה  adindan לא משרת יותר את הימין במילותיו שלו Eladingo מזל טוב נשמה טובה orlybarlev במספרים אלפים יצאו לגשרים לצמתים ועוד אלפים בכיכרות תא בקיסריה רבבות בהפגנה הווירטואלית רבבות מול השידורים החיים מהש… hagarsi הוא עמד כמה מטרים ממני בבלפור היום צילמתי כי כאב לי בלב שבמקום לבלות ולהנות מהחיים הוא צריך לעמוד בבלפור עם שני דגלים  מציאו… eranetzion איך יודעים שנתניהו בפאניקה  מילא החיוורון הפנים הנפולים העיגולים מתחת לעיניים העפעפיים הנפוחים שימו לב לעריכה את הסרט… instabaluga dudiamsalem  Yoglas74 רותם אוחיון אנחנו ניפגש בבית המשפט המפקדים שלך סימנו אותי בקהל כי לא נעים להם לשמוע שאתם מתנהגים כמו עבריינים הכל מתועד א… dudiamsalem אמא שלך אנרכיסטים מופקרים arianamelamed קורינה אחותי את ובני דורך הם התקווה שלי ואנחנו החטייארים פה בשבילכם בשבילנו בשביל המדינה המשונה הזאת שכולנו אוהבים… arianamelamed  לא יודעת אם יש לו עבודה פנסיה משכורת אדם מבוגר שבא למרות כל הקשיים לזעוק את הזעקה שלו האיש הזה הוא גיבור ישראל  המשטרה שועטת עכשיו לתוך המפגינים והכיכר עשרות שוטרים שלוקחים את ציוד ההגברה בניגוד לפסיקת בגצ שמרשה נאומים עד 23…  hadarse קורינהההההה  misscorina2  adindan אתה אלוף והיה מרגש מאוד להיפגש  adindan אני רוצה להגיד לכם שהמחאה הזו היא מרגשת באופן שקשה לתאר כל פעם ממציאה עצמה מחדש בנחישות ביצירתיות במסירות נפש ממש כל המ… TheMaya עם  misscorina2 המהממת  Soloph0ne מחפשים את TopazLuk   Yoglas74  חנינו האוטו הולכים בירושלים כל הכבישים רכבים של שיירת המחאה לא היה דבר כזה מעולם למעלה מעשרה שבועות שאני פה אנ…  simontetros חברים לעצור את השיירות קובי אריאלי אמר שהוא לא מבין על מה ההפגנות והם מיותרות בעיניו אז די עם זה YTB2018 בלתי נתפס מה שקורה בארץ עכשיו דיווחים על הפגנות בכל צומת וכיכר מאות אנשים מתאספים סתם כך בנקודות רנדומליות ברחבי הערים ובגשר… Soloph0ne אני כבר ציינתי שאני רוצה פסל שלו בבית NiflaPo איזו חיוך  noamfathi שיאללה איזה גבר אתה דש לחתול נשמה ZivYekutieli ליבי במזרח ואנוכי בסוף מערב שולחים איזה שוטר פעור להגיד לנו שאסור להפגין למושחת מול הבית בקיסריה הוא רק לא יודע למה אסו… avidareli נכון GONENB1 הערב הוא ערב היסטורי מדינת ישראל נגד בנימין נתניהו לצוקים ולטרש  אבל בהול  chaimlevinson הרגת יאללה יצאנו לבלפור  כבר בכיכר הראשונה מחוץ לקיבוץ עמד שוטר חביב שהסביר לנו שקיבל הנחיות מלמעלה שאסור להפגין במרחק…  NitzanWaisberg הגיעו עדויות שמשטרת ישראל עוצרים אנשים בדרך לבלפור ומחלקים דוחות בטענה שהם ״מקדימים״ להפגנה טירוף  עו״ד יאיר נהוראי ה… hagarsi AaocP dudubitn elisulam ZVIKA68 BarakKrenzler dovsim DonMacLoof oftopic udiperets…  jamesbb25 סטרייט מזיין עם חברו המיליונר לא סטרייט מוציא ממנו כרטיסים למריה קארי jamesbb25 בכי orlybarlev מרגש ניפגש בבלפור NiflaPo לגמרי מתביישת בעצמי NiflaPo מאת גון לה קארי סליחה NiflaPo אגב לא רבים יודעים שפאקר אף היה מאורס למאריה וקנה לה יהלום בגודל חצי בריכה בקיסריה אך האירוסין בוטלו בנס…  NirACohen77 זה מאבק למנוע את חורבן הבית אנחנו נאבקים על הבית של כולנו וביבי נאבק על הבית הפרטי שלו המדינה ואזרחיה ממש לא מעניינים או… Soloph0ne או או או או או או או או או או או או או או  לוקחים מעניים נותנים לעשירים איזו ממשלה של מושחתים  או או או או או או או או או א… michalbgigi חולהההה שרופהההה  michalbgigi נוווו מתי נדב אייל מוצא כבר את ההורקרוקס האחרון ומציל אותנו מביבי BenCaspit כל פרויקט אצלהם הצלחה כבירה  ProfBenDavid אלופים noamfathi מאמי אולי הובלת את קמפיין שוקה הבנק הלאומי רנו מרצדס והקמפיינים שלך שודרו בכל העולם אבל נשארת עם…  jamesbb25 להפגין להתפלל לאהוב ברשת זו הדרך שלנו לאחוז ידיים  ולהעביר את המידע 2 מי מכם שיוצא מביתו  שמרו והקפידו פי מיליון על כל ההנחיות…  אבל חשוב לי לציין שלדעתי אין מקום אחד שהוא עדיף ממקום אחר אני חושבת שכל אזרח צריך להפגין בדרכו לפי צו ליבו ובאופן…  בוקר טוב ישראל יוצאת היום למחאת מלחמה תחת הסגר דנו השבוע רבות בשאלה האם וכיצד נכון לקיים אותה למעשה המחאה כבר…  Soloph0ne בוקר צרחותתתתת  Soloph0ne הבן רק חוזר על מה שהאם חושבת hagarsi אני מתה על השיר הזה ומתה עלייך hagarsi שישי  שנסון   PaulizDead EstyS זה רעיון נהדר ואני בפנים kumiiisrael בוקר אחד הילדים שלנו ישאלו אותנו איפה היינו כשישראל עמדה להפוך לדיקטטורה ספרו להם בגאווה שנלחמתם עליה בבלפור תהיו בצד הנ… Ronkofman1 נכון עמית סגל אלוף בלהביא עובדות חצי קשורות מן העבר כדי לבלבל עם נתונים לא רלוונטים ולהסיט את הדיון המ…  CactusBavarius חיימשליייייייי GalonItay  CarmitSoliman  arianamelamed  אריאנה אוהבת אותך Soloph0ne חיימשליייייייי  מחווה לשרה  פרק 4  דנה הו דנה חלק ב  איזה אבי וייס אבי וייס שלנו  sofalakatino78 1 על שניהם michalbgigi תמציאו כבר בושם בריח עוגות שמרים שוקולד מה הפאקינג בעיה adimessika אני קוראת לו ככה שנים הכי מתאים לו Soloph0ne כל מילה Soloph0ne עכשיו ראיתי שרן כרמי בוזגלו הותקף על ידי מפגין אמש בושה וחרפה אלימות צריך להוקיע ולא משנה כלפי מי היא ננקטת אני מקווה שהמ… TheMaya ביבי מכניס את ישראל לסגר כי הוא כושל ומפחד מהפגנות חבורת הקרנפים גם ב12 וגם ב13 לא שואלים את השאלה איזה תכנון כלכלי יש למ… fessunion תמסור לו תודה גם בשמי mysilentaccount  אם אני עמוס שוקן אני מסדרת לגידי ווייץ איזו חופשה מפנקת על חשבון המערכת הבן אדם בטח הגדיל היום באיזה 300  את כמות המנויים להארץ יזהר שי מאמי להאשים את אופירה וברקו בדיקלום דף מסרים מבלפור זאת כבר רמת התגוננות של ילד בכיתה ג שתופסים אותו זורק…  limormoyal למחאה הזו אין מנהיגים יש ארגונים שיש להם ראשים ויש המון דעות וחילוקי דעות וגם לא מעט הצהרות לתקשורת אבל האמת היא שזה… limormoyal כל מילה ותודה רבה BenCaspit שווה מחווה BarNahum5 יד שרוססה לפני כן בתרסיס אקונומיקה ועם כפפה כמובן שרוש לא מרשה אחרת NiflaPo הוא בדיוק מתעסק בבתי הכנסת כדי לאסוף חומרים לאסטרטגית השיסוי לשבוע הבא אז טרם הספיק לעיין בכתבה chaimlevinson מכל העולם מתקשרים AvishayBenHaim זה הפייק בדוק Sammyd453 מהמם  NeumanRoee BRBY063 פיפי NiflaPo כל מילה וגמר חתימה טובה מר כ היקר dorzach אוהבים אותך דור TheMaya נכון sadibenshitrit סדי התגעגענו iloveisraell  נתניהו עד עכשיו שירת את הימין מעכשיו לא אז אפשר לפתוח תפיות  OsnathilaMark אוסי בקרוב את ופיך הרעיל יעופו על טיל מהציבוריות הישראלית ואני אספר לנכדים איך פעם בתקופת השפל חסר…  Doronhakatom התמונה הכי חמודה אוורררר  החוויה נשמעת קצת פחות ואני נדחית אינטואיטיבית מגברים במשבר גיל העמידה שחושבים שהסקס אפיל המעופש שלהם מדביק אליהן בחורות כמו זבובים אז הם…  baruchikra כמה מלים על הטור של קלמן  1 טוב וחשוב שנכתב 2 תמיד טענתי שקלמן עיתונאי מעולה גם כשהוא תוקף אותי וגם כשבעבר תקפתי אתו… Ahmadtibi תודה רבה לכם Ahmadtibi ישיבת ועדת החוקה ננעלה  לא תהיה היום הצבעה במליאה  על חוק הגבלת ההפגנה בבלפור גאה בחבריי אוסמה סעדי ועופר כסיף ובכלל האו… iloveisraell אז ניפגש בבלפור adindan וואו וואו וואו Ogi43188459 yanivbiton99 עוד מאותו כלום LikudParty טופי נפתח לך על החשבון של המפלגה בכל פעם שאבישי בן חיים מצייץ אני צריכה להיכנס במיוחד כדי לוודא האם מדובר בפרופיל פייק או האמיתי giladlevi73 עיתונאי הימין ידעו שנים על תאוריות הקונספירציה והטירלולים מבית היוצר של בלפור הם צפו בגדילתה של המפלצת ולא פצו פה כשעיתונ… orenhaz בהצלחה אבא  אלי אבידר למיקי זוהר נמנעתי מהלגיד לך את זה עד היום אם תשתפר אתה תהיה אהבל  והמיקרופון נפל  NiflaPo או שניצל zoharm7 מיקי רק רציתי לעדכן שכבר שמחתי בליבי היום על 7000 חולים מיליון מובטלים ו1405 מתים תודה אבא וזו בדיוק הבעיה שלי עם עיתונאי הימין והבית היהודי נקבל כל דבר שנתניהו עושה נעלים עין משחיתות מדפי המסרים מחדלות הא…  ליפסטיק כתב טור יצא ב200 על ריקלין ושאר ירקות כי הם טינפו עליו השבוע וואו וואו כל הכבוד באמת טור מצוין הבינג סייד…  NiflaPo העוגת שמרים נתקעת לו ככה בגרון הוא נחנק מסכן חברים זה לא יפה gantzbe מאמא שכחת את הקומקום על הגז רותח השריקה כבר כל כך חזקה מעידה על ההתנפצות הקרובה לאלפי רסיסים אבל אתה עוד…  YossiZabari כל מילה GoodbeerOssi yairy yaelgaon Eranw44 גם לי  ItaiLeshem בולללל</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gktkan 16 מיליון הידועים כ16 מתקציב התרבות uricirlin1  yakirasaf כן הא אני חובב אלימות ושונא עניים זה מה שמוביל אותי ובזה אני מאמין   אם זה מה שעוזר לך לעשות דמוניזצ…  EliBCook  EliBCook לא ממש היא התחילו בשנות השבעים המאוחרות כשנטשו את סטנדרט הזהב כדי לממן אינפלציונית את מלחמת וייטנאם…  zeevikim EliBCook אגב גה מס של 50 על ההכנסה לא הנכסים של ה01 זה די מעט כסף zeevikim EliBCook אשמח למקור של הגרף הזה ולצורת החישוב שלו מעולה כל הכבוד לו  snirklein92 כי אנשים לא מגיבים למחירים EliBCook 1 לדעתי זה הרבה יותר קשור להרחבה מוניטרית   2 בישראל אי השוויון דווקא הצטמצם למרות הירידה העקבית במס חברות איך הצליחו yakirasaf כן הא what can possible go wrong shmuelp30 איך זה יכול להיות החזרי נסיעות הם למיטב ידיעתי חובה חוקית של המעסיק noavic78 כן אבל עכשיו המדיניות של הממשלה היא למנוע שימוש בתחצ snirklein92 בדיוק הם בסדר אני רוצה למנוע נסיעות מזדמנות shmuelp30 למה לשלם יותר זה על חשבון המעסיק שר החקלאות alonschustermk צמצם את מכסות החלב ובכך יוצר סכנה למחסור  תוך שהוא מרוויח מזה אישית…  במקום לצמצם את התחצ  OriKatz3 הם הגיעו למסקנה שמצ תפחיד אותה uricirlin1 אולי זה מה שקורה כשאיראן יושבת לך על הדלת shokito87 לגמרי הם חירבו בעיקר את הריסות נמרוד שזה די מחריד אבל באמת שיש בעיראק אוצרות ארכיאולוגיים כל כך גדולי…  uricirlin1 אגב ידעת שרוב העוקבים של דובר צהל בערבית הם מעיראק לא הבנתי כדי למנוע הידבקות מצמצמים את התחצ מה ההיגיון NevoSheffi אסור לי להיכנס עם דרכון ישראלי gershuni לא אמיתית אבל כן לצורכי הסכמי שלום וטיסות חוץ ביום שיש שלום עם עיראק אני  1 עושה מסיבה בסגנון מסופוטמי  2 קונה כרטיס טיסה בבהול uricirlin1 את שיעורי המס אפשר להעלות גם למעל 100 עם מספיק רצון פוליטי את תקבולי המס זו כבר שאלה אחרת לגמרי YiftachDayan KhenElazar Yovelinho שוב אני לא מדבר על טראמפ בעיני טראמפ הוא פשוט דוגמה שבמקרה נכנסה לתקשורת כי…  uricirlin1 לא עניין של נורא קשה זה עניין של אי אפשר להבטיח על בסיס זה הרים וגבעות סוציאליסטיות וזה בעיקר יוצר עיוותים בהשקעות הון YiftachDayan KhenElazar Yovelinho בסוף אמריקאים יבחרו את הנשיא שלהם לא אני אני רוצה ללמוד מהניסיון שלהם מה אפש…  YiftachDayan KhenElazar Yovelinho כמובן אבל לא על זה אני כותב כאן EliBCook מה היה אחוז המס ששולם בפועל לא שיעור המס הגבוה פלוס מלא יוצאי דופן שנתפרו עבור המקורבים לשלטון simchat239 בעלמא זו פשוט מילה בארמית לא CureTeh מוזמן בכל זאת טראמפ הוא לא הנושא כאן אגב KhenElazar Yovelinho YiftachDayan טראמפ הוא לא הנושא כאן אלא חוסר היעילות של מיסים על העשירים בדיוק מהסיבות שאתה מתאר Yovelinho טראמפ הוא לא הנושא כאן Ohadmx2 כמובן טראמפ הוא לא הפואנטה כאן או האחרון זה שכתוב בו מה שאתם מגיבים עליו לאיזה ציוץ בשרשור אתם מגיבים הראשון Yovelinho SamiBuzaglo מה ההגדרה של זה BiniAshcknasy מוזמן לפרט אני מפנה אותך לניסיון הכושל מלפני כמה שנים בצרפת להטיל מס מיליונרים אתה יודע איך זה נגמר שיר לא רע בכלל מאזרבייגן שמציג לראווה את המודרניזציה של הצבא שלהם בין השאר בעזרת נשק ישראלי   SamiBuzaglo תכנוני מס אגרסיביים זה בסך הכל אומר לשלם מיסים כחוק פשוט חכם בשביל שזה לא יקרה צריך לפשט את מערכת המס BiniAshcknasy אנשים עשירים בניגוד לאנשים ממעמד הביניים או השכבות החלשות יכולים לשכור את שירותיהם של עודים ורוח…  BiniAshcknasy כמובן אני פשוט מראה את זה כדוגמה למשהו אחר BiniAshcknasy נכון מאוד והדרך לשנות את זה היא לחוקק מיסים פשוטים ונמוכים שיניבו רווח נאות בלי לתת יתרון בלתי הוג…  TerribleMaps Europe but if Europe colonised it  Europe Colonised Map Borders  תזכורת לאור הסכסוך שנדלק בשבועות האחרונים  תמחקו את ככל הנראה   יש לציין גם שישראל ככל הנראה מחמשת את אזרבייגן Pitzynivly אותו חרא Yovelinho 1 למי אכפת  2 לא עד כמה שידוע לי simchat239 למה לא נכון SimonaHolstein כן לאזרים לדעתי אמלק הסכסוך בין אזרבייגן לארמניה הסובייטים בנו גבולות גרועים בכוונה כדי לתדלק סכסוכים מקומיים ולמנוע מרידות אתני…  מה אנשים עשירים משתמשים בעורכי דין לענייני מיסים כדי למזער את תשלומי המיסים שלהם בכל דרך חוקית וואו איזה סקנדל…  DaughterOfThAir נאום המלך זה ליטרלי האידיאולוגיה שלי DaughterOfThAir אני קלאסי שמואל adirzz זה בעקבות זה TrinityZ20Z איך אני שמח שהציוץ הזה נהיה ויראלי שיאללה Arspoeti וואו מדהים שדברים כאלה קורים בימינו Yovelinho dvirnimrod מה זה משנה אלו בסיסי מודיעין dvirnimrod Yovelinho זהו אזרבייגן נותנים לנו בסיסים מצפון לאיראן שזה מגניב בקיצור ברמה המדינית צריך לסתום את הפה amif2000 למה שני המנהגים מתקיימים במקביל במאבק בקווקז אני בעד יהיה לי עצוב מאוד אם בעקבות הסגר והצורך הבלתינלאה להפרו ייחלש המנהג שלא נוסעים ביום כיפור ומפנים את הכבישים לאופ…  spez בכיף למה לא DavidsArrow אע כל אירופה מייבאת עגבניות מטורקיה popepants ורק מכון ון ליר ממשיך לפרסם פסאודומחקרים מה יהיה ספין הבחירות הבא בארהב למה החדרים של האקרים כל כך חשוכים פתחו את האור זה לא עושה לכם טוב לעיניים Danabf7 DiscussingEcon1 AmirGol Manwithoutime כמו שאתה רואה זה לא טיעון לכאן או לכאן אם אתה רוצה לקחת כסף מ…  Wlrving popepants מנסודיום גלוטמט זה לא כזה נורא כמו שחשבו פעם gamken1 Always have been efrattolk הן טעימות ולא בא לי לשלם עליהן הון בנוסף זה מקרה קלאסי שחסם ממשלתי פוגע ספציפית בעניים Danabf7 DiscussingEcon1 AmirGol Manwithoutime גם רוב מדינות העולם המערבי אוסרות על קנאביס זה לא אומר שזה רעיון טוב או הגיוני yallanu ספרי לי מה הולך שם כרגע uralevltch וגם יא חביבי בכל מקרה תסתכל על הניקוד הכל נועד לקשר את ארדואן ויזואלית לערבים כדי לשדר אויבות עגבניות בטורקיה הן מסובסדות כל פעם שאתם קונים עגבניה טורקית אתם לוקחים כסף מארדואן ומכניסים אותו לכיס שלכם עם…  arbelaue מעניין אבדוק את העניין arbelaue מה הבעיה TrinityZ20Z כשיש תחרות  המחיר יורד זוכרים שמירב מיכאלי הביאה מומחים כדי שימליצו לפקח על המחיר של מסכה ורצתה לקבוע מחיר של 35 שח… nimshkedy FriedmanIddo הוא בשלטון 11 שנה והמדינה לא מתחרבת נשמע שאם הוא רוצה להחריב את המדינה הוא לא כל כך טוב בזה Syechimovich YaronDeckel את אומרת להציל את התחנה כאילו תחנת רדיו בשליטת הצבא שמשתמשת בעובדי כפייה זה מצב נורמלי ותקין MickeyDiamant Morgen3030 DiscussingEcon1 chinavictor מה קרה במקביל בOECD במיטות האשפוז התוצאה תפתיע אותך Anon1450012136 barak56976102 LiberStam מצביעי ליברמן היו מוכנים לשבת עם ביבי בממשלת אחדות בלי חרדים לא הייתה מ…  Gdavid7S ממש ככה herutcohen יש בעיות של שקיפות גם בבית דין של מעלה ממליץ לכל מי שמתעניין לשמוע את פרק יום כיפור של עושים תנך על הטקס המטורף עם שתי עיזים אחת לאל עליון הכנעני והשנ…  noamrivlin FriedmanIddo מה בטח שעלה משבר הפליטים העולמי הוא פשוט instance מודרני של נדידת עמים תופעה שאנחנו נתקלים בה שוב ושוב ברמה ההיסטורית arbelaue הצלחנו להשיג נשק גרעיני נראה לי שאורניוםתוריום לאנרגיה חשמלית זה פתיר arbelaue  CureTeh אל תאחל לי דברים כאלה   טוב אולי מתישהו ולא במערכת הציבורית SababaYomtov תודה רבה alon613 I see what you did there michaelmr101 אתה כן בוא ספר אני יודע בדיוק מי קראו את המאמר שלי על אנרגיה גרעינית ומי הגיבו רק על סמך הכותרת לפי השאלות שהם שואלים michaelmr101 Yovelinho David3674 אני די בטוח שהקירור יהיה פרויקט זול בהרבה מפער המחירים והזיהום המטורף שיש בין…  Yovelinho michaelmr101 David3674 Idaneretz רוב הכורים בצרפת שהיא המדינה עם הכי הרבה הסתמכות על אנרגיה גרעינית לא ממוקמים על קו הח… omeraricha התייחסתי ישירות לאיומים בטחוניים קרא את המאמר AceWcp נכון לכן ההשוואה לOECD יפה ומאז 2009 התקציב אכן עלה הרבה יותר מהם David3674  David3674 מה לא בפוקושימה רדיוס הקרינה המסוכנת המקסימלי אחרי האסון עמד על 30 קמ מספיק שזה בחור בנגב ואף אחד לא…  SorosStan אני מתייחס לזה ישירות קרא את המאמר החלטתי להקשיב לעצה של עצמי  או במילים אחרות החלטתי להקשיב לעצה של עצמי להפסיק לדבר על ביבי להתחיל לדבר על אנרגיה גרעינית  למרות המיתוסים סביב אנרגיה גרעינית זו האנרגיה הבטוחה הזולה והנקייה ביותר הידועה לאנושות יותר מגז אנרגיה סולרית…  glumushi תודה רבה תיקנתי את החישוב מצאתי טעות משמעותית בחישוב שלי תודה לעוזרים מצאתי את הטעות ייצור אנרגיה סולרית הכי יעיל דורש 12000 מר לגיגהוואט שעה בשנה כלומר כל ייצור החשמל של מדינת י…  ailanda3 שנה glumushi ברור זו צריכה שנתית צריכת החשמל בישראל היא 55 מיליארד קילוואטשעה מקור   צריך 92 מר כדי להפיק קילוואטשעה של…  חישבתי ויצא לי שניסיון לייצר את כל צריכת החשמל של מדינת ישראל ידרוש בערך 500000 קמר פי כמה וכמה משטח מדינת ישראל…  תקציב הבריאות עולה בכל מדד שאפשר לבדוק  orenhaz איך הוא יידע מתוך מצגת פומבית לחלוטין שחברת החשמל שמו באינטרנט  זו תזכורת למען שיפור הדיונים באינטרנט תקציב הבריאות עלה דרסטית בעשור האחרון כן גם אחרי התחשבות בגידול האוכלוסי…  amitbentzur מערכת הבריאות מעולם לא הורעבה התקציב שלה גם פר אוכלוסיה בהתחשב באינפלציה ואפילו בשינוי טווח הגילא…  oshrira Bondaki1 שיפרתי ושיפצתי אותה 🤷 ailanda3 לא היה שם את מה שאני מחפש אבל מצאתי במקום אחר  royroseman קודם כל אני פשוט חושב שהשאלה ביבילא ביבי היא לא המרכזית והחשובה ביותר אני יודע כופר אבל זו עמדתי…  maoritzk בדיוק הם בסך הכל מוציאים תסכול ולא פועלים בשום צורה אפקטיבית למען הפלת שלטון נתניהו בבורותם הם משמרים…  מחפש מה צריכת החשמל הכוללת במדינת ישראל   מגיע לאתר של חברת החשמל בטוח ששם יש מידע עדכני ומסודר   הנתונים רק עד…  Bondaki1 היי תיקנתי את המצגת לפי ההערות של קולגה ושיפצרתי אותה באופן כללי מוזמנים להעיר גמר חתימה טובה  אימייל ששלחתי הרגע לשפצר זו אחלה של מילה אחד מהסלנגים הצהליים היותר שימושיים DrNirDagan ברור כאמור אינטרס פוליטיgtאינטרס ציבורי פראייר  מי שלא רוצה להידבק במגפה ולמות עוד לא שמעתי את ההגדרה הזאת  המצחיק הוא שזה שביבי מעצים את ההפגנות בבלפור ושם אותן במרכז השיח מדגים בדיוק את טענות המוחים  התועלת הפוליטית האיש…  royroseman בוא תסביר לי איך אני טועה maoritzk בוא תסביר לי איך אני טועה YaelFishman כן זה נורא זה מחרפן אותי במיוחד כשזה אנשים שאני מסכים עם חלק ממה שהם אומרים SorosStan TommerVinner נדמה לי שלמחאה החברתית ב2011 היה ייעוץ תקשורתי בכל זאת TommerVinner יש להם בכלל יועץ תקשורת Fnnobou נאבק נגדם תקשורתית זה נותן להם תחושה שהם חשובים והם ממשיכים ללכת להפגנות לא משנה כמה זה נראה רע עושה רושם שעצם המאבק נגד ביבי יותר חשוב למפגיני בלפור מאשר וול להפיל את ביבי Ofernicus נראה שאלו שהולכים להפגנות לא ממש מבינים את זה אני לא חובב קונספירציות גדול אבל באמת שבשלב הזה זה נראה כאילו ביבי דוחף אנשים בכוונה להפגנות בבלפור כי האימגים מ…  אילון מאסק הוא popepants היום  2samadams3 בשם הארכיאולוג האינטרנטי של עוד 2000 שנה אני מבקש ממך להשאיר את זה Ben4293 כן יש לזה לא מעט פתרונות  ronnyeps תעמולה אנטיאשורית האשורים הם נאצים תעמולה אשורית כן אנחנו די נאצים מלך היקום נשמע כמו כינוי שילד בכיתה ד ינסה להדביק לעצמו אבל זה גם היה התואר האמיתי של מלכי אשור Yosefros popepants 1 popepants אשורבניפלמן Asimmatrix כן 2TTgtWQVE1zj6MO מה זה משנה מה הם אומרים shemmishtamesh כל אות במקומה OmerPerchik וואי זה מוצלח ממש אני עדיין מזועזע מעצמי מהתפלצת משלממשלות יותר משלממשלות קשה להועיל קל להן להזיק Itamar23032605 SaeedQalbAsad ירדן RamiVeiberman ראיתי טוב די נמאס לי לדבר על ביבי בואו נעבור לנושא הבא אנרגיה גרעינית amitgonen ברור שלא אין כאן מסר כלשהו roeishapira למה אתה חושב שאני מנסה להגיד משהו פוליטי סתם מספר על מה קורה איתי טו טו טו טו טו טו טו AKislev הפסדתי בה אין לביבי אינטרס להפסיק את ההפגנות הוא רוצה לדבר על זה כמה שיותר כדי להיות חזק מול השמאל ואז הוא יעזוב את זה כשאני אומר במוצש אני מתכוון ברגע זה ממש אם לשפוט מהצפצופים החזקים שאני שומע במוצש מהמרפסת שלי בגבעתיים עושה רושם שלא אוהבים את ביבי popepants ממים על ממים popepants וואו מאיפה זה SaeedQalbAsad DorelMasasa לנסות לחקור לתוך נפשו זה כבר היפר סובייקטיבי Iaskquestions30 לא אומר למי אני מצביע כמדיניות Iaskquestions30 לרבין זה יהיה קצת קשה תגידו מה שתגידו אצלנו המשיגנערים לא עד כדי כך מפגרים  SaeedQalbAsad לתת לפלסטינים פחות ממדינה בזמן שחותרים לשלוםתמורתשלום עם כמה שיותר ממדינות האזור Gdavid7S שניהם ייצגו את המיינסטרים הישראלי רבין בזמנו וביבי היום מחזיקים בערך באותה אידיאולוגיה מדינית כאשר ביבי קצת יותר זהיר מרבין בשימוש בכוח צבאי שנו את דעתי benbugi לא אם אתה מאמין שאתה בסדר ומי שאשם זה ההם benbugi כמובן אבל בשביל להתאמץ ולהילחם צריך מוטיבציה מאוד חזקה וכזו אי תמיד בנמצא shai11359607 SaeedQalbAsad alon613 אין לממסד בייס מצביעים ובנוסף רוב מצביעי הממסד הם בעיקר מבוגרים מעל גיל 65 סתרת את עצמך adgreenberg בוודאי שיש לו  להיבחר כמו כל פוליטיקאי AvitalAvitan shai11359607 AssafMantzur לא מדברים כאן ככה נא למחוק או לעוף מכאן uricirlin1 תראה כמה בנט חורש את הארץ ואשכרה מציע פתרונות יעילים למה כי זו הדרך שלו לטפס בסולם uricirlin1 חייבת אבל עצם התחושה הפנימית לא מספיקה צריך תמריץ חיצוני כלשהו כמו רווח כספי או לכל הפחות התקדמות בפוליטיקה ArikFyodorov לא יודע על סמך מה אתה מניח את זה danielbarkan איפה הימים של JFK Oleger19 לא אני לא טוען את זה אני טוען שאין לו אינטרס להתאמץ להילחם במגפה מעבר למה שעושים מתחתיו uricirlin1 זה מה שאמור להוביל את הממשלה לפעול לטובת האינטרס הציבורי לא נשמע אמין במיוחד בכל תנאי לאאופטימלי  ArikFyodorov איך זה יעשה אותו פחות ראש ממשלה מה בעצם התמריץ של ביבי לטפל בקורונה מה אם הוא לא יטפל בה כמו שצריך מישהו יעבור להצביע לשמאל אם הוא כן יטפל בה כ…  SaeedQalbAsad אני לא חושב אין להם סיכוי לנהל משהו תמיד יהיה מישהו עוד יותר בתחתית שצריך להעדיף את האינטרסים שלו שמעתי שAOC השלימה סיבוב והחרימה את טקס רבין שארגן סניף אמריקאי של שלום עכשיו סופו של הפרוגרסיביזם האמריקאי הוא לimplosion בלתי נמנע ruthelbaz לא שאני רוצה להתערב יותר מידי אבל עד עכשיו אף אחד מגידולי הפרא שקלמן הגדיר לא הגיב לטור שלו באופן ענייני כל מה שראיתי עד… בשלב הזה זה מרגיש שאנשים רבים על פארש avichaifa התפרק סופית רק במאה ה14 Asimmatrix כולל אזרחות עם זכות הצבעה לאותם 2 מיליון לא נראה לי שהממשלה שתקום תהיה לרוחך Asimmatrix כי הגבולות הספציפיים פחות משנים אלא השלטון הצבאי על מיליוני אנשים אשכרה דו שיח בין חירשים uricovagerev אני זועק את זה שנים אין לנו כוח אדם ותקנים מערכת דיווחי המתים הציבורית יובשה תנו לי לנהל את המערך הזה ותראו מה זה מתים… C00LF0X ביבי שיותר מתון ממנו מדינית אוי לא הגיע הזמן בשנה שפוליטיקאים מתנצלים שאין להם עוד כוח פוליטי אני עושה לאחרונה בינג רציני של עושים תנך פודקאסט מרשים ומרתק עם זאת הם מביאים בעיקר חוקרים מהאסכולה התל אבי…  dviryamin 7Eqg59Wj808TmRF כן אבל בנט לא תומך בזה 7Eqg59Wj808TmRF איזה מתווה אשמח לקרוא Iaskquestions30 7Eqg59Wj808TmRF זה אינדיקטור חשוב iepel 7Eqg59Wj808TmRF על סמך מה אתה אומר את זה TrinityZ20Z כמובן אבל הוא תומך סטטוס קוו הוא לא רוצה להחמיר את המצב כמו גורמים רדיקליים במפלגה שלו אבל גם לא לה… </t>
-  </si>
-  <si>
-    <t xml:space="preserve">michaeldvorin aviadglickman הייתי שמח לראות את התצהיר של הגב בן ארי כשקיבלה טופס 4 גליקמן אתה יכול לעזור לי להשיג אותו סעיף 239 ל… Roadrun86259229 michaeldvorin ErelSegal aviadglickman ״פיצול לשעתו״ mosheifargan זהו כרגע ברור לחלוטין שליאת בן ארי לא יכולה להיות אוכפת חוק בכלל ובטח לא לכהן בצמרת של אוכפי החוק אין לה שום תוקף מוס… aviadglickman הייתי שמח לראות את התצהיר של הגב בן ארי כשקיבלה טופס 4 גליקמן אתה יכול לעזור לי להשיג אותו סעיף 2…  rothmar וזה ממשיך  האירוניה הוסיפה ארבע קומות לא חוקיותפרגולה לבית שלה פיצלה לעשרים דירות עלתה למעלה וקפצה אל מותה  אומר  ועושה לה הנחה  rothmar ואז ליאת בן ארי טענה שמדובר באכיפה בררנית  וזהו דוקטור יותר אני לא זוכר כלום  dwwido AmirHaskel האיש מאיים על מפקד משטרת ירושלים יש מאחריו פרקליטות יועץ משפטי בג״ץ YanivTurgi אני מתנגד להפגנות בבלפור ולכל התקהלות המונית בעת הזאת הכל כולל הכל מי שרואה את הסרטון הזה מבני ברק ושותק כשהתחלואה בישראל… michaeldvorin ערימת חדלי אישים  היא קוראת לנו הגברת הזו giladzw בהמשך לציוץ הקודם מצורף שרשור מאיר עיניים המספק הסבר מקיף אודות הפשע של מדליפי פרטיו האישיים של טראמפ כמו גם העובדה כי הסיפו… michaeldvorin גמר חתימה טובה גידולי פרא שלי emilm313 כמה חבל שגם היא הודתה כבר שכשלה בלשונה תתעדכן גמר חתימה טובה גידולי פרא שלי giladzw והיום בפינת שמאלפלורליסטיאוהב אדם  גו ביידן בהשוואה מחליאה בין טראמפ לשר התעמולה הנאצי הוא סוג של גבלס   אין ספק שגב… Irisleal15 כתבת חברי ליכוד יקרים אני ועוד 120000 חברי ליכוד אם התכוונת לשרי ליכוד יקרים היית כותבת את זה אני…  JackPosobiec Democrats in panic mode ערימת חדלי אישים  היא קוראת לנו הגברת הזו  michaeldvorin הבנתם הם העלו למדגרת קורונה גם בת 88 אוכלוסיית סיכון אא בואו נזרום איתם ונניח לרגע שמפגיני בלפור חסינים לגמרי מהמגיפ… MidaWebsite אחרי הסערה הגדולה בימין mosheifargan מפרק בשקט את המשנה הפשטנית והטהרנית של קלמן ליבסקינד gtgt  YaaraZered לקחתי על עצמי החל מהשבוע לראיין בכל שידור שלי אנשים שאיבדו את היקר להם מכל בגלל הקורונה מוזמנים להפנות בפרטי מרואיינים שיר… michaeldvorin רק שתבינו מה זה שמאל אנרכיסטי navedromi פתאום נפל לי האסימון שזה שדובר צהל לשעבר משווה את המחאה הזאת לסוג של מלחמת שחרור יכול להסביר חלק מהדברים שעברו על הצבא בע… MidaWebsite המחאה נגד המנותקים הפכה בעצמה למפגן מפונק של ניתוק והפקרות gtgt  noamfathi כתבתי את התיקון הכללי   נסיון לתקן את מה שנשבר בין קלמן לגידולי הפרא שהם לא עיתונאים ברמה של קלמן ערב יום הכיפורים… רק שתבינו מה זה שמאל אנרכיסטי  הבנתם הם העלו למדגרת קורונה גם בת 88 אוכלוסיית סיכון אא בואו נזרום איתם ונניח לרגע שמפגיני בלפור חסינים לגמרי מה…  tadmorerez48 האמת היא שאני מתבאס להתעסק עם הרפש הזה דקה לפני כיפור אבל מכיוון שכדברי מארק טווין השקר מספיק לעשות את דרכו סביב חצי עול… amirivgi הסיבה לקורונה האזינו  liyaomer עוד נצחון כזה ואבדנו כשראש המפלגה שלך קורא למרד בפועל לא פלא שאתה כחרפה שאתה מתנהג כמו שאתה מתנהג fischlerpini תת ניצב גיא ניר שהצביע על שחיתות במשטרה ובין השאר הביא לפרישתו של ניצב רוני ריטמן מבקש לבטל את הסכם הפרישה שלו שלפיו… YanivTurgi היות ואני חסום אצל מייסדת הפקולטה להנדסת התודעה אשמח אם מישהו ימסור לה שהמשטרה קבעה שהנהג שנעצר אינו התכוון לדרוס דבר ש… arielschnabel מסתכל על התמונות מבלפור ומרחם על השוטרים ובני משפחותיהם המפגינים מכניסים את עצמם לסכנה במודע ובלב שלם אבל למה לשוטרים… SteveGuest Joe Biden says he got to the Senate 180 years ago    MiriBarbi ראשוני  אל תצאו החוצה   תראו מה קרה לאלי אבידר  ivgiz זו אותה מדינה כאילו  michaeldvorin BarakRavid KalmanLiebskind וואו יש עוד הרבה כמותם מה תעשו מר רביד Mcohen1234 hadarse הוא חסם אותי הדר סגל תני פה צילומסך שנראה מה כתב michaeldvorin shu3809 tadmorerez48 2 אי פעם יוכל מנהיג המחנה הלאומי להיות בשלטון בלי להיות משועבד לצד השני נתניהו עשה טעה רבות בנ… michaeldvorin shu3809 tadmorerez48 1 לא חושב שיש מישהו רציני שעוסק במאבק המורכב מאז 2016 שנקרא פרשות נתניהו שהמחשבה אם הוא צריך… dovikco iairLevy  iairLevy כעת בבלפור צפיפות מטורפת תוך כדי שהמפגינים רודפים אחרי השוטרים ודוחיפים אותם  amitsegal אבי בבקשה תמחוק את הציוץ המופקר הזה היית תת אלוף בצבא שדיבר על ממלכתיות וציות  bardugojacob אשכנזי תראה מה כותב היועץ שלך בצבא תא״ל בניהו בנוגע למפגינים ״ושמים את טובת המדינה לפני טובתם נוחיותם ובריאותם זוהי… YinonMagal טוב הגיעה התוצאה יש לי קורונה🤦‍ המזל הוא שהחום כבר ירד כמעט לגמרי ואני מרגיש טוב בהרבה ומקווה שזה מאחורי הבאסה היא שא… michaeldvorin noamfathi תוסיף בוויקיפדיה michaeldvorin מרד  הכל בסדר איתו michaeldvorin סגר rafiperlshtein עזוב בוא  אי אפשר להבין אחרת את מה שאמר bnyiroz עצוב ומזעזע אין מילה אחרת  RubiYona פחות מ24 שעות לכניסת כיפור   1 הכותל ריק 2 אלפי אנרכיסטים מתפרעים בעיר הקודש noamfathi לפני עוד יום שידורים מיוחד ופריצות מהפגנת הפריבילגים תזכרו 1196 מנדטים של ישראלים מצביעי ליכוד לא ליכוד ביבי לא ביבי… bnyiroz אתם רואים כאן שמירה על ההנחיות ריחוק מסכות כי אני לא וניסנקורן אומר שהקרונה לא קשורה לבלפור  anatnh שר המשפטים במדינת ישראל 2020 החרדים והערבים הם מחוללי הקורונה  MidaWebsite הנאום של שר המשפטים האמריקני ביל בר לא קל הוא לא עושה הנחות והוא לא מתנחמד אבל הוא כן מדגים מהי מנהיגות משפטית ואיך צרי… סגר  shlomokarhi כספית לא מגלה שהמפגש הזה היה ביוני כאשר בבית קפה מותר היה לשבת ולאכול ללא מסכה ושאם הייתי צריך לומר בסוף בבת צחוק גייס… BarashiKinneret ראש הממשלה ניהל את המשבר לבד בממשלת מעבר היום הוא תקוע עם יור ועד מפגינים חומה בצורה למנדלבליט והנחיותיו ההזויות שתפ… noamfathi תוסיף בוויקיפדיה noamfathi גם ברק רביד הצבוע יחטוף כשצריך michaeldvorin tadmorerez48 אגב למרות ביקורתי על מאמרו האחרון של קלמן להבדיל ממאמרו הקודם חייב להבהיר שקלמן יצא פעמיים נגד מעסיקיו… arisade94 קראתי תכתובת וואטסאפ של מפגינים היום והפסקתי להתעצבן אנחנו נישאר ספונים בבתים לא נפגוש את סבא וסבתא נצא רק לקנות אוכל תר… מרד  הכל בסדר איתו  IlanAharon שים לב ותבדוק אותי אני לא אמרתי מילה על המאמר שלו משבוע שעבר זו דעתו וזה לגיטימי אף שאיני מסכים איתה…  MatiHBL לא הבנת ביזו קלמן זלזל באחוזי המיקרופונים שהם היחידים שמהדהדים את הסיפורים שלו ומה אמור לקרות עכשיו ברק רביד יהדהד אותם ElkyBergstein אז שאבין כל המדינה בסגר וחבורת הפריבילגים הזאת יוצאת מתי שבא לה ועושה מה שבא לה MotTal נועם פתחי חושף את הצביעות של ברק רביד באולפן וכמובן ברק רביד לא מסוגל להשתלט על עצמו ומקלל את נועם פתחי  אלה הפנים האמיתיות… ivgiz פייסבוק בדק ומצא  ItsikSaban חובת צפייה  המפגינים רוצים אלימות הם רוצים להתפרע הם רוצים לשרוף את המדינה קדימה עיתונאים קדימה תעשו לזה יחסי ציבו… michaeldvorin לא יודע אם עתונאי או סדרן הפגנות michaeldvorin YotYotam שמע פתחי ניגב איתו את הרצפה זה היה מרהיב לוינסון תמיד תחמם את פתחי לפני שידורים YotYotam שמע פתחי ניגב איתו את הרצפה זה היה מרהיב לוינסון תמיד תחמם את פתחי לפני שידורים ivgiz נראה שהם לא שומרים על מתווה הקפסולות YotYotam אין דבר יותר מצחיק מלראות שמאל רדיקלי ישראלי מנסה לשכנע שמאל רדיקלי אמריקאי לא להחרים את האזכרה של רבין  לא יודע אם עתונאי או סדרן הפגנות  DrEliDavid OshryAlk geektimecoil נהדר בדיוק קראתי על זה אלי mclbgn ובינתיים בפיד שמאל דיון סוער האם רבין מחבל כמו ערפאת או סתם מיליטנט קולוניאליסט כובש ואלים אללה ירחמו איזה ממשיכי מורשת השאי… YotYotam חחח מה זה יש להם מחולל גנרלים  hkim14050017 אכן עסקו בכך והיו היחידות שעשו כן אבל הן עסקו רק בזווית של ההתנכלות לצ והנושא לא קיבל את התהודה המג…  hkim14050017 ציפורי הוא בוודאי עיתונאי עם רקורד מרשים של עשרות שנים שמעטים העיתונאים בוודאי בעיתונות הכלכלית שאוחז…  hkim14050017 כן מאז גלנט לפני עשר שנים היו לו עוד כמה תחקירים לא זכור לי שאפילו אחד מאלה האחרונים והמדוברים שלו…  Forever21Israel chaimlevinson יש כל מיני מדדים בעולם הפרסום בסוף אם ניקח את הפרסומת של 9 מליון או של אסי כהן עם…  hkim14050017 הם לא עיתונאים הם אנשי תקשורת מגישי תוכניות אקטואליה פובליציסטים וכיוב כשהוא פרסם סיפור הם קידמו…  shu3809 tadmorerez48 2 אי פעם יוכל מנהיג המחנה הלאומי להיות בשלטון בלי להיות משועבד לצד השני נתניהו עשה טעה רבו…  shu3809 tadmorerez48 1 לא חושב שיש מישהו רציני שעוסק במאבק המורכב מאז 2016 שנקרא פרשות נתניהו שהמחשבה אם הוא צ…  tadmorerez48 אגב למרות ביקורתי על מאמרו האחרון של קלמן להבדיל ממאמרו הקודם חייב להבהיר שקלמן יצא פעמיים נגד מעסי…  michaeldvorin מה שקלמן עשה מזכיר לי את פרק החתונה האדומה במשחקי הכס אלא שקלמן שכח שאלה שעליהם התגולל הם אלה שנשאו את הסיפורים שלו… giladzw חשיפות מטלטלות בארהב  1 חוקר לשעבר בצוות מולר מאשר לראשונה לא היה כל בסיס לחקירת הקנוניה בין טראמפ לרוסיה  עד לרמה שהחוק… oferdann chaimlevinson אבל לוינסון כתב הוא קופירייטר כושל דבר שאיננו נכון לכן לוינסון צריך למחוק את הציוץ הזה ו…  מה שקלמן עשה מזכיר לי את פרק החתונה האדומה במשחקי הכס אלא שקלמן שכח שאלה שעליהם התגולל הם אלה שנשאו את הסיפורים…  chaimlevinson חיימקה תבדוק את עצמך כשאתה אומר קופירייטר כושל ותריד את הציוץ הזה הקריירה של פתחי בתחום הקופיריטריו…  michaeldvorin סוף מעשה במחשבה תחילה  נכון תמיד ביתר שאת כעת  בעולם המשפט אומרים מעולם לא הצטערתי על תיק שלא לקחתי  על אותו משקל א… YotYotam זה לא נגמש אחי זה בימבה hofitsh מה השורה הזאת למטה זה ציטוט של מישהו הוא גחמה של העורך  michaeldvorin מעניין מה ליאורה גלאט ברקוביץ חושבת על ההערות האלה של קרא על איכות המקצוע מעניין מה ליאורה גלאט ברקוביץ חושבת על ההערות האלה של קרא על איכות המקצוע  michaeldvorin זה נהדר כמה שזה מכוער YotYotam רואה את דני קושמרו הדרמטי עם השקף של מחדל יום הכיפורים בפתיחת אולפן שישי ונזכר בדני קושמרו הפחות דרמטי שעמד בסוף הגל הראשון… MeirRubin זה לא משנה אם הממשלה נכשלה או לא ומה עושים אחרים  אל תכנסו למקומות סגורים כרגע עם מישהו שאיננו ממשק הבית שלכם אלא אם זה ה… yairkraus חכ אלי אבידר קורא למרד המונים ומספק הצצה מדאיגה למאחורי הקלעים של ההפגנות תגיעו לבלפור במוצש בשיירות שכל המדינה תהיה חס… Machlufb BarakRavid KalmanLiebskind דיבה BarakRavid KalmanLiebskind וואו יש עוד הרבה כמותם מה תעשו מר רביד סוף מעשה במחשבה תחילה  נכון תמיד ביתר שאת כעת  בעולם המשפט אומרים מעולם לא הצטערתי על תיק שלא לקחתי  על אותו מש…  dovikco מהדורות חדשות שהביאו את יורם לס שאמר שזאת ״רק שפעת״ ואת עידית מטות שסיפרה לנו שבכלל אין גל שני ואת אירה דולפין כדי לקדם אנר… mclbgn וואו נשמות אם תקשורת המיינסטרים ושאר שופרות הדיפסטייט היו עושים פולואפים לקלמן על החשיפות שלו של מערכת המשפט כמו שהם מהדהדים… liyaomer חחחחחחח רק אחרי שקלמן כתב ביושר עיתונאי את מה שבניהו מצפה ממנו לכתוב  יקרא כעת האדון בניהו את טוריו של קלמן על מערכת המשפט… זה נהדר כמה שזה מכוער  ErelSegal אמנם אני חמור זקן שראה הכל אבל הוא איתי שם תמיד הילד שהוריו התגרשו  גירושין מכוערים מאוד  קרוע בין אמא לאבא ואחרי שהצטער… JoeS15128922 rothmar Riklin10 tadmorerez48 bardugojacob YaaraZered שמחה הבין היטב מה כתבתי rothmar Riklin10 tadmorerez48 bardugojacob YaaraZered תבין  כשאתה אומר שאתה אוהב את האמת יותר אתה מאשים את כ…  rothmar Riklin10 tadmorerez48 bardugojacob YaaraZered במילה אחת אכזבה בשתי מילים חוסר תבונה RonelAdani rothmar Riklin10 tadmorerez48 bardugojacob YaaraZered כשאני רוצה לדעת מה זו אשפה אני הולך לפיד שמ…  rothmar Riklin10 tadmorerez48 bardugojacob YaaraZered שמחה יקירי כל האנשים המנויים ברשימתו של ליבסקינד הם הם ה…  YoavBlum דיבה tadmorerez48 לפני שבוע הציוץ הזה היה נראה לרבים מוגזם דומני שעכשיו רבים יותר מבינים את כוונתי תגובה מנומקת לגידופי קלמן תפורסם בשבוע… michaeldvorin מתי אתה יודע שהלכת צעד רחוק מדי כשהצד השני משתמש במה שאתה כותב כדי לקדם את האגנדה שלו קלמן ראה איך הפכת לכלי משחק בי… michaeldvorin שישאל את קרן ווקסנר michaeldvorin RavivDrucker amitsegal רביב יא עיתונאי דגול שכמוך כבר למדת את החומר על התאגידים שלא הואשמו בתיק 4000 או שאתה זקוק ל… שישאל את קרן ווקסנר  RavivDrucker amitsegal רביב יא עיתונאי דגול שכמוך כבר למדת את החומר על התאגידים שלא הואשמו בתיק 4000 או שאתה זקוק לעוד כמה חודשים mosheifargan תגידו לי רק באיזו רפובליקת בורקס דובר משרד המשפטים כותב דבר כזה בפומבי והוא נותר בתפקידו איזה כשל מערכתי צריך לקרות כדי… מתי אתה יודע שהלכת צעד רחוק מדי כשהצד השני משתמש במה שאתה כותב כדי לקדם את האגנדה שלו קלמן ראה איך הפכת לכלי משח…  NoamUrbach אני לא בטוח שאתה רוצה את מה שקורה בארהב בתחום הקורונה YinonMagal שלום קלמן הבנתי שמפריע לך שגדלו בימין גידולי פרא לא עיתונאיים תגיד  מה לגבי דוברי הפרקליטות דוברי כחול לבן דוברי מרץ שממ… YanivTurgi זכותך לחשוב שאתה העיתונאי הכי טוב בישראל קלמן העובדה שבחרת לחלק ציונים לאנשי תקשורת ממחנה הימין וללגלג עליהם היא לא לזכו… michaeldvorin טראמפ בדרך לפרק את ביידן smadarshmueli איך פרופ גמזו לא רוצה סגר עם 59 הלוויות ביממה לאן הוא רוצה להגיע טראמפ בדרך לפרק את ביידן  yoavgallant כך נראה עולם הפוך בשעה ש25 מיליון תלמידים בישראל נאלצים להסתגר בבתיהם בשל הנגיף  מאשר היועמ״ש לממשלה בלחץ כחול לבן ה… bardugojacob במהלך ממשלת הרוטציה נאלץ ב1986 שר האוצר יצחק מודעי מהליכוד שכינה את שמעון פרס ראש ממשלה מעופף להתפטר  ניסנקורן מפגין… ronitlev12 רק לחשוב על זה שבני גנץהצבי של הדואר היה רמטכל יאיר גולן כמעט וכרמי גילון ראש השבכ ועוד והמדינה עדיין עומדת על תילהחו… dovikco סיכום ההצהרות בערב הזה  נתניהו אנחנו במשבר חירום לאומי   לפיד רק לא ביבי  גנץ אני יכול ללכת להשתין רגע michaeldvorin natitucker טוקר מה אתה יודע אני מוכן אפילו לשקול לייצג אותך אם יש לך מספיק כסף לשלם לי igalmalka לגמרי natitucker טוקר מה אתה יודע אני מוכן אפילו לשקול לייצג אותך אם יש לך מספיק כסף לשלם לי moris1hakimi קרוב משפחה שלי חולה קורונה במצב קשה שתי ריאותיו קרסו אנא מכם תפיצו ותבקשו רפואה שלמה עבור יצחק בן טאג׳י תבורכו giladzw שמעתם שהבן של טראמפ קיבל 35 מיליון דולר ממיליארדרית רוסיה המקורבת לפוטין  אה בעצם מדובר בהאנטר ביידן הבן של גו ביידן הא… ErezZadok1 אכתוב את זה ברור כל מי שטוען שאין הדבקות במסיבות הקורונה המופקרות בבלפור הוא  או מטומטם או שרלטן YinonMagal ומה שהכי מקומם במאבק של כחול לבן להשאיר את ההפגנות ולא תשמעו על כך הוא שמדובר פשוט בשיקולים פוליטיים לבייס מדומיין שאגב ב… ivgiz תסמיני הקורונה חום בלבול קשיי נשימה ולהצהיר בסקר שאתה מצביע לשאשאביטון YoavNews1 מה ניתן ללמוד מהתייצבות בכירי כחול לבן לצד המפגינים בבלפור למרות הסיכונים הרפואיים השנאה לנתניהו וכמיהתם לסילוקו גדולים מר… arielschnabel אז עכשיו ניכנס לסגר חונק במיוחד רק כי זו הדרך היחידה להגביל הפגנות הקנאות המטורפת של קיצוני בלפור בסיוע דחלילי כחל״ב ב… YanivTurgi שתול ביביסט    Shiritc פרופ ברבש לחכ שאשא ביטון בחדשות 12 הוויכוחים שאתם מנהלים בוועדה אני לא רוצה להגיד נוגעים בהכחשת קורונה מערערים את אמון הצ… GadiTaub1 כדור הארץ לדגלים השחורים האם שומעים עבור elicoh1 ההתאבדות של חברי כחול לבן על קיום ההפגנות היא פשוט בלתי נתפסת המגיפה מתפשטת בכל העולם אנשים מאבדים במקרה הטוב את מקום עבודתם… YinonMagal כמו שטענתי השיקולים של כחול לבן בשעה קשה זו הם פוליטיים בושה amitsegal טרופר איך קרה שכחול לבן נותנת גיבוי לקולות הקצה אנחנו אמורים להיות הקול הממלכתי  nadavabeksis הרגע דיברתי עם קובי יעקובי מפקד תחנת מוריה חבר מהצבא אח נדבק בקורונה סליחה לא נדבק חולה חום חולשה כאבים כל התס… ShelleyWallach הישג אדיר כלכלי וגאו פוליטי לישראל נחתמה חוקת פורום הגז האיזורי החתימה גם מאפשרת את הקמת הארגון שבמסגרתו יקודם פרוייק… YossiFuchs שאלה לי ליועץ מנדלבליט אותה ממשלה בראשות נתניהו וישראל תחת מתקפת טילים משולבת מצפון ומדרום וכל תושבי המדינה במקלטים או בממ… Yossieli אין נתונים על הדבקות בהפגנות בבלפור אז קבלו פרסום ראשון מפקד תחנת מוריה בים ניצב משנה קובי יעקובי האחראי בשטח על אירועי… akibigman אגב השאלה אם איילת שקד מתווכת לעיתונאים פגישות או מסרים ממנדלבליט בנוגע לפרישה של נתניהו הרבה יותר מעניינת וקריטית מהשאלה א… yitzhak55 שלא תדע צער YinonMagal ראש הממשלה הולך הכי חזק נגד הבייס שלו וסוגר את בתי הכנסיות ביום הקדוש ביותר בשנה וכחול לבן כחול לבן כהרגלם במין פיינשמייק… omeryankelevitc עם 6700 נדבקים ביממה הגיע הזמן לומר די לדמוגוגיה למפגינים בדיוק כמו למתפללים  אין שום חסינות מהדבקות אותם כללי… moxypen500 אבא שלי נפטר כשפרש לגמלאות תיכנן לטרוף את העולם באה הקורונה וטרפה אותו אבא שלי לא הלך להפגנות לא הלך לים לא הלך למסעדו… liyaomer תקשיבו רגע כל מטורללי השמאל בראשות פקיד ההסתדרות  אתם באמת חושבים שההפגנות רעות לנתניהו ולכן הוא רוצה לאסור אותן בחיי שאתם… RanBaratz כחוללבן דבקה במשימת ההגנה על ההפגנות באופן מרשים מאוד לא זכור לי מפגן כזה של אווילות בו מפלגה שטוענת למרכזיות וממלכתיות… YanivTurgi עכשיו זה רשמי אביחי מנדלבליט מכהן גם כיועץ המשפטי למחאה filbers מדינה שלמה הולכת לסגר מלא מלא בגלל שניסנקורן התעקש 3 חודשים על ההפגנות מלא מלא טוב בהסתדרות רגילים שכל יור חדש שנבחר… itzikbam אני לא מבין למה התפקיד שממלא דר מנדלבליט נקרא היועץ המשפטי לממשלה לדעתי יותר פשוט ויותר מדויק לקרוא לתפקיד הזה ברוח הימי… hbsela ErelSegal  שומע את השיחה המרתקת עם itzikbam  יש לי הצעה ל michaeldvorin  אולי תנצ ניר ורפק צ יעברו  יושאלו לשרת במחש… avribloch המדליף לכאורה אל תוכנית המקור נחשף במזכר סודי  עד המדינה ניר חפץ מספר לחוקריו כי אילנה דיין אמרה לו שעד התביעה בתיק 4000… dovikco אז מנדלבליט עוד פעם נתפס משקר  לא הופתעתי ככה מאז הפעם הקודמת שמנדלבליט נתפס משקר liyaomer איך שגלגל מסתובב לו פעמיים במסמך אחד והמבין יבין  mosheifargan לימור לבנת הקשיבי הכל משתנה העולם בני אדם מוסדות וגם  מפלגות הכל בתנועה מתמדת לא מתאים לך הליכוד של היום מצאי מפל… tzvitessler עמוס גלזר זל נהג דן היקר שהיה כולו חסד ונתינה  בזכות הנסיעות איתו הפכנו לסוג של משפחה כל חייו התגעגע לבנו תמיר זל שנ… fischlerpini  amitsegal רק דת אחת בעולם כולו דורשת את המשך הפולחן גם במחיר חיי אדם הדת היא רק לא ביבי ופולחנה  הפגנה שבועית בבלפור GadiTaub1 אני אתרגם לכם לעברית את הצעתו של קלמן ליבסקינד שנתניהו יפרוש תמורת ביטול ההליך הפלילי נגדו המלצה להיכנע לרעיון שהפקידות יכו… LiberalRiWo בריטניה נוקטת בהגבלות שיהיו בתוקף עד חצי שנה עוד צעד של נתניהו לדחות את משפטו liyaomer כל עוד יהיו הפגנות לא יהיה כאן סגר חברי הכנסת האנרכיסטים שממשיכים לדחוף את ההפגנות שרי כחול לבן שנראה שזו כל מטרתם עלי אדמו… BarashiKinneret דובר משרד המשפטים מוציא תגובה שיקרית  ל natitucker ואומר שמנדלבליט מעולם לא ביקש להיפגש עם Riklin10 ובכן להלן גרסת… fischlerpini תת ניצב גיא ניר עושה להם בית ספר חשבו מתעסקים עם פראייר ומקבלים פייט מהסרטים haskioren michaeldvorin MatanKahana הלך להתייעץ עם בנט michaeldvorin MatanKahana צרצרים ממר כהנא MatanKahana צרצרים ממר כהנא GuyBechor דבר כזה עוד לא ראיתי חשוב להפיץ נגד כל שונאינו  GadiTaub1 הם רוצים עוד קורונה אין שום הסבר אחר אם לא הם היו נוהגים באחריות ודוחים את ההפגנות לאחרי הסגר שום דמוקרטיה לא נפלה בגלל… BarashiKinneret YanivTurgi TopazLuk איזה פיצלה תתקן בנתה דירה בניגוד לדין שהשיגה במרמה ולא שלמה עליה מס שמחתי לעזור YotYotam כתבה שלמה ומוצדקת על אוטובוסים של חרדים שחזרו אתמול מהפגנות באוטובוסים ומה עם החברה האלה אוקיי בהפגנות אין הדבקה כי… yotameyal הרבה בריאות dogly1900 בוא נראה כמה מסיכות אתם יכולים לספור בוידאו הזה   yossidavidov10 ובכן ברדוגו מטמטם את זהבה גלאון  bardugojacob בכירי מפלגת העבודה פרץ ושמולי פותרים את מגיפת האבטלה בקלות  בנט פותר את מגיפת הקורונה והאבטלה בקלות  שאשא ביטון לועגת ל… mosheifargan אם אנשים שהציעו את ראשו של נתניהו ורמיסת בחירתנו תמורת עסקה קיבלו לפניכן תדרוך ממנדלבליט הרי שלכאורה מדובר באחד האירו… michaeldvorin ReutBitton מוסר תשלומים לעורכי דין חייבים לכבד את זה ReutBitton מאיזו מבחינה לא יכול מאיפה לו לדעת מה מקור הכסף YaaraZered מוזר על המחאות הם לא דיברו רק בתי הכנסת מפריעים להם כמעט מפתיע  ReutBitton מוסר תשלומים לעורכי דין חייבים לכבד את זה YanivTurgi עלינו על מוקש צעק אז הפצוע עזוב מוקשים עכשיו לך לעסקת טיעון השיבו לו עיתונאים מהציונות הדתית liyaomer ארבעה עיתונאים בכירים קמו בוקר אחד והחליטו לכתוב בשינויים קלים את אותו הטור כולם מצאו את אותה התרופה לקורונה כולם החליטו… michaeldvorin MatanKahana לא הבנתי מתן אתה לא מכיר את הפעילות של הקרן לישראל חדשה לא מכיר שוברים שתיקה לא מכיר שלום עכשיו אתה לא… mosheifargan מה מה קורה כאן מי עוד נפגשו עם מנדלבליט מי פנה למי חייבים את כל הפרטים בלתי נסבל מה שקורה כאן mosheifargan תגידו לא מוזר שנושאים עיניים אל המנדלבליט בעניין חקירת ההדלפות כשסימן השאלה שעולה אצל רבים הוא שהוא עצמו נטל בזה חלק ל… mosheifargan שמרתי את זה כדוגמאות לכך שמדובר במידע שלא יכול להגיע מגורמים מחוץ למערכת מה אומרים  MatanKahana לא הבנתי מתן אתה לא מכיר את הפעילות של הקרן לישראל חדשה לא מכיר שוברים שתיקה לא מכיר שלום עכשיו את…  michaeldvorin נראה שמתווה ההפגנה בקפסולות שעשו כדי לאפשר את מימוש הזכות להפגין במדינה דמוקרטית עובד נהדר ואתם אמרתם שפקידות משפטית מ… iairLevy האנרכיסטים מהשמאל הקימו אוהלים במרכז הכביש בבלפור בכוונה להקשות על השוטרים את הפינוי </t>
+    <t>HassonYoel הגיע הזמן שנראה בכל מדיה אפשרית את הפנים והשמות של קורבנות הקורונה ואת המחיר היקר ששילמו הם ומשפחתם אולי זה יזיז למישהו פה הגיע הזמן שנראה בכל מדיה אפשרית את הפנים והשמות של קורבנות הקורונה ואת המחיר היקר ששילמו הם ומשפחתם אולי זה יזיז למישהו פה UriKeidar לא בישראל לא משלמים מיסים לימונדה עוגה ביתית ומרק לאחכ ככה מסיימים צום צמנו כיפרנו    עכשיו הקורונה תלך  אני שילמתי מיסים יותר מטארמפ haskioren מסכים הוא בטח רוצה שלום תמורת שלום  אז יורם לס כבר ביקש סליחה תמיד ביום כיפור מי שהכי צריך לבקש סליחה לא מבקש YinonMagal רפואה שלמה פרופ סדצקי היא אישה חכמה ומוכשרת בראיון ב N12News היא אומרת דברים מאוד חשובים הטעות הגדולה שלה ושל הפקידים הבכי…  therealguypines מצרף טקסט קטן של מאיר שלו מהסופש שכדאי לקרוא יש לי גם את התשובות לפיגועים שיגיעו בתגובה קל Sykocan  elidukorski מזל טוב לרהע המוכשר יזכור עם ישראל  האלימות היא כרסום יסוד הדמוקרטיה  NadavEyal זה על חברי הכנסת הם יכולים לשנות את זה BenCaspit כבוד למי לכחול לבן והאופוזיציה יחד יש מספיק אצבעות בכנסת לצמצם את היקף הסגר ולמנוע את הנזק הכלכלי לאזרחי ישראל במהלך היום גמזו יתפטר נתניהו אולי תמים לחשוב שההפגנות לא יחזרו הן יחזרו וביותר עוצמה לאחר הסגר בנתיים רוב הישראלים שוב צופים ברהמ שמכנ…  talibo8 דייקת אף פעם לא הייתי פסימי לגבי המדינה כמו שאני היום  עצוב beginistim האמון בנתניהו בשפל   רק 27 מכלל הציבור מביעים אמון בנתניהו בכל הקשור לניהול משבר הקורונה   במצב כזה לא ניתן לנהל את המש… עשרות אלפי מפגינים גם אם ממש יתאמצו לא יצליחו לייצר כמות כל כך גדולה שלי נדבקים כמו הניהול הכושל של הממשלה perezesty תמיד חורף שם ליצמן מאיים ובסוף מתפטר דרעי מאיים בהתפטרותהאם נתניהו בעצם מפרק את הממשלה בשלבים היא גם רצחה את ארלוזורוב  אני במקומו הייתי מדביק את הראש לשולחן ולא זז משם הוא ופקידי משרד הבריאות עסוקים בלהתראיין מהבוקר עד הלילה הם כשלו…  צריך לקצץ לכל הבכירים בשירות הציבורי כולל בשלטון המקומי בעת הזו  NaorMeningher אתה חייב להתחכם רק על החלת הזה שהרס כל כך הרבה משפחות צריך ועדת חקירה ממלכתית ולהטיל אחריות על מי שהסכימו לזה היו עוד במרץ 20 כל…  HassonYoel אנחנו כבר תקופה ארוכה חיים באנרכיה פוליטית ולאומית קווים אדומים נעברו כאילו כלום אל תתפלאו שזה גלש לציבור הישראלי והפך את… HassonYoel לפי כמות הספורטאים ברחובות עכשיו אנחנו בוודאות לוקחים מלא מדליות באולימפיאדה הבאה אנחנו כבר תקופה ארוכה חיים באנרכיה פוליטית ולאומית קווים אדומים נעברו כאילו כלום אל תתפלאו שזה גלש לציבור הישראלי…  לפי כמות הספורטאים ברחובות עכשיו אנחנו בוודאות לוקחים מלא מדליות באולימפיאדה הבאה HassonYoel גיל סמסונוב מאחל את זה הכי נכון ואני מסכים איתו שנה טובה ובריאה בכל המובנים 🤞  עד מלחמת לבנון השנייה הציבור ברובו היה אדיש לתדמית המושחתת של אולמרט כשמלחמת לבנון השניה נתפסה ככשלון הציבור נטש…  גיל סמסונוב מאחל את זה הכי נכון ואני מסכים איתו שנה טובה ובריאה בכל המובנים 🤞  HassonYoel החלטתי לחשוף שיניים אל מול הקורונה האכזרית  HassonYoel הממשלה הבאה שתקום חייבת להקים ועדת חקירה ממלכתית על התנהלות המדינה בכל הקשור לטיפול בקורונה בדגש על משרד הבריאות ושלוחותיו… הממשלה הבאה שתקום חייבת להקים ועדת חקירה ממלכתית על התנהלות המדינה בכל הקשור לטיפול בקורונה בדגש על משרד הבריאות ו…  drAnatBerko שנה טובה ובריאה החלטתי לחשוף שיניים אל מול הקורונה האכזרית  HassonYoel עבור היום החשוב הזה היה שווה 13 שנות נתניהו בראשות הממשלה HassonYoel אני לא משונאי נתניהו בעיקר מאוכזב מהתנהלותו הפוליטיתמנהיגותית נתניהו צרב אתמול תמונה הסטורית בשבילו ולמדינה שלום הוא חי… אני לא משונאי נתניהו בעיקר מאוכזב מהתנהלותו הפוליטיתמנהיגותית נתניהו צרב אתמול תמונה הסטורית בשבילו ולמדינה שלום…  fWniPUkSmLMLdDZ אני זמין ובנתיים חמאס יורה וממשלת ישראל ממשיכה לאפשר לזרוע טרור שנשלטת עי איראן לפעול ללא הפרעה ולהשפיע על חיינו חלק מה…  עבור היום החשוב הזה היה שווה 13 שנות נתניהו בראשות הממשלה LVertzhaizer מתכונן לפנסיה זה הזמן ללמוד מטעויות מעסיקים הולכים להוציא עובדים לחלת צריך לעצור את זה הממשלה צריכה לאמץ מיידית את המודל הגרמ…  חתימת ההסכמים היום היא הישג חשוב של נתניהו ודבר גדול לישראל דווקא בגלל זה נתניהו יכול היה להיות יותר נדיב וממלכתי…  NaorMeningher נראה בבחירות אי אפשר להרגיש את זה בטלוויזיה צריך להיות פה  סגר בחגים עצמם אכיפה חזקה נגד התקהלויות כולל קנסות גדולים  לא 5000 שח  50000 שח המשך עבודה למשק ולכלכלה בי…  כן סגר לא סגר הכנסת היא גוף חיוני וחייבת להמשיך ולפעול גם בסגר מלא זה בדיוק הזמן לפיקוח פרלמנטרי ערן זהבי הוא BenMittelman שימו לב למדרגות הצצה שנבנו שםבמקרה הזה טוב אח רחוק משכן קרוב ShlomiWaroner ההודעה של הפלסטינים נגד ההסכם עם ממלכת בחריין והבנת המציאות החדשה ההולכת ונרקמת לנגד ענינו במזהת למען האידיאל שהם חפצי… HassonYoel נורמליזיציה עם בחריין זה אור גדול בתקופה כל כך חשוכה מבחינה לאומית פרגון גדול לנשיא POTUS ולרהמ netanyahu אני נותן צפחות קלות לעידו  בן ה  7 עם עיתון מגולגל עידו אבא מה זה  אני נורמליזיציה עם בחריין זה אור גדול בתקופה כל כך חשוכה מבחינה לאומית פרגון גדול לנשיא POTUS ולרהמ netanyahu giblli המחאה היתה נגד המהלך יאללה שתהיה שבת שלום ושלא תהיה סיבה לרסס בעתיד אמן אני צופה במנאייכ אתה מפריע לי  giblli ולהיות המחנה רק ביבי ולא משנה מה הוא יעשה זה עינייני למען הדיוק ההיסטורי הריסוס היה נגד מתפלגי העבודה…  giblli לא תופס עצמי כך אני חושב שמבקר עיניינית ובודאי לא מאמין באידיאולוגיה של רק לא ביבי giblli אל תדבר אליי ברבים giblli תעשה סקר ונראה מה חושב על זה רוב הציבור הישראלי ביטול המטוס לא היה מתוכנן רצו לטוס במטוס הפרטי חשבו להתבסס על גורמי מקצוע שייקבעו שכך רהמ צריך לטוס לא היה מי…  Meravbenari  השמיים נפלו  HassonYoel סבבה סגר  אבל האם תוך כדי הסגר ומיד אחריו יהיה מערך מקצועי וסדור של חקירות אפידמיולוגיות וקטיעת שרשראות הדבקה  כדי לצאת… מי שמבקש מטוס פרטי בעת הזו הוא לא פטריוט ואין לו שום רגישות כלפי הציבור OmerLubi הוא לא דוגמא אישית לשום דבר YakiAdamker מרגש EitanGinzburg cohenmeirav כל הכבוד סבבה סגר  אבל האם תוך כדי הסגר ומיד אחריו יהיה מערך מקצועי וסדור של חקירות אפידמיולוגיות וקטיעת שרשראות הדבקה  כ…  D0ronhe בהצלחה לא מצליח להבין למה אנשים נעלבים כשהישוב שלהם והם עצמם נכנסים לסגר יש להם אינטרס אישי עסקי ובריאותי להוריד את התחל…  HassonYoel ייקח שנים אם בכלל יהיה אפשרי לשקם את אמון הציבור בפוליטיקה הישראלית ייקח שנים אם בכלל יהיה אפשרי לשקם את אמון הציבור בפוליטיקה הישראלית גמזו שמאל חלש Meravbenari אבל הוא צודק Tessgadot מזעזע קטע קריאה לתלמידי כיתה ב נראה שלא עודכן משנות החמישים של המאה שעברה מסר חשוב כיצד להתייחס לבעלי חיים לשיעבוד והנא… HassonYoel אז שלום תמורת שלום זה לא haskioren לסוף של כולנו אז שלום תמורת שלום זה לא talangert בגילים הצעירים שדורשים פיקוח הורים בבית יש בעית תחלואה נמוכה והם יכולים להמשיך ללמוד בגילאים העצמאיים י…  y1shaul צודק הייתי צריך לציין  כל מי שמושפע מהסגר יפוצה כלכלית באופן יעיל וישיר צריך להבין אי אפשר להמשיך בכוח בחיים הרגילים צריך סגר כללי אין אירועים אין מפגשים אין התגודדיות מה יש  לתת ל…  HassonYoel הייתי פעם יועץ רהמ אז הנה עצה לרהמ netanyahu תקדם הסכמי שלום תגיע עד נובמבר לטקס חתימת הסכם שלום על מדשאת הבית הלבן ע… 8xJHSXjvLpKXpjK netanyahu נכון אין לי שום רצון לראות את נתניהו בכלא הייתי פעם יועץ רהמ אז הנה עצה לרהמ netanyahu תקדם הסכמי שלום תגיע עד נובמבר לטקס חתימת הסכם שלום על מדשאת הבי…  HassonYoel אני מכיר כל כך הרבה סתומים עם תעודת בגרות GoelPinto Ayeletnnv צביקה כותב לי עוד משנת 2001 כשהייתי יועץ ראש הממשלה שרון והמשיך לכתוב בנאמנות כל שנותיי בכנסת…  GoelPinto דש לצביקה אני מכיר כל כך הרבה סתומים עם תעודת בגרות TzipiLivni טוב אבישי חבל שלא שאלת ישירות מהם מניעיי וכדי לחסוך לך תזות כיד הדמיון אענהולא בשם כל ״הנסיכים״ את הטקסט הראשוני שלך… TzipiLivni הזהות המשותפת נוצרה שם לא הזהות השטחית שאתה מתאר אלא זהות של ערכים שמחוברת לארץ ישראל וליהדות על מסורותיה ומנגינותיה הש… TzipiLivni מניעים אידיאולוגיים הובילו את הוריי לפוליטיקה וישרים כסרגל התנהלו בה וכך ילדיהם ואני בתוכם זוהי תורת ז׳בוטינסקי בה הם האמ… TzipiLivni מאבק בשחיתות הוא ערךהיה גם חלק מהמאבק בשלטון מפאי ואינו חציית קו פוליטימישהו אחר חצה את הקווים אימץ בשלטונו נורמות פסול… TzipiLivni כשאתה AvishayBenHaim מגן על השחיתות בשם הזהות אתה עושה עוול לאנשים ישרי דרך בשמם לכאורה אתה מדבר עצוב שמי שסבל מעולם דימ… HassonYoel ההתקפלות מול חמאס מבישה ממשלת ישראל ממשיכה לקבל ולממן את שלטון החמאס בעזה ומאפשרת לו להתעצם דווקא האווירה הבינלאומית הנוכ… התחושה של הבוקר המיוחד הזה  שלום כיתה ב  ההתקפלות מול חמאס מבישה ממשלת ישראל ממשיכה לקבל ולממן את שלטון החמאס בעזה ומאפשרת לו להתעצם דווקא האווירה הבינלאו…  tamarzandberg מזדקן גם עוד כעוזר פרלמנטרי של עוזי לנדאו בסוף שנות ה  90 ספריית הכנסת היתה בעיניי אחד המקומות היפ…  kessleronil כל השנים ידעתי להיות עינייני בביקורת כלפי נתניהו גם כשהייתי בליכוד יש המון סיבות למה נתניהו צריך לפ…  NaorMeningher עוד יותר טוב יש המון רעשי רקע מסביב רובם מוצדקים אבל אסור להפחית מגודל האירוע הטיסה הבוקר לאמירויות היא היסטורית ומרגשת מאוד…  אולי כל מה שהיה צריך שישראל כץ ושאול מרידור ישירו יחד את שיר ביתר והכל היה מסתדר  HassonYoel רכיבה של 36 קמ רובם עם נוף ים כיף  HassonYoel נדרש כאן לחכמת ההמונים  מקדונלדס ארוחה לגיטימית לילדים yotama9 אף פעם לא הבנתי למה לקנות שניצל משקית הכי פשוט קל וזול להכין לבד זה גם טעים יותר ובריא יותר נדרש כאן לחכמת ההמונים  מקדונלדס ארוחה לגיטימית לילדים רכיבה של 36 קמ רובם עם נוף ים כיף  לאכול דג זהב  NaorMeningher לברק בקדירה אורז צהוב וחלב קוקוס מעכשיודיאטה DrNirDagan ממש לא עכו  טיול נהדר אתרים מושקעים אוירה נהדרת אל תדלגו על אורי בורי שבת שלום  moranynet חייבים עכשיו נשיא חליפי בשביל הסימטריה bnyiroz עצוב כל כך HassonYoel ככה זה צריך להיות  HaSochnut Ayeletnnv איזו התאמה בהצלחה אהובה lucyaharish כמה הדדי  ככה זה צריך להיות   תמיד מרגש  Shiritc המון הצלחה HassonYoel זה הסיפור הגדול והטרגי של הקורונה המחיר הכלכלי רצף של טעויות הפך כל כך הרבה אנשים לעניים ונזקקי קצבאות זה התחיל בהחלטה ה… זה הסיפור הגדול והטרגי של הקורונה המחיר הכלכלי רצף של טעויות הפך כל כך הרבה אנשים לעניים ונזקקי קצבאות זה התחיל…  HassonYoel 120 יום קיבלו 120 חברי כנסת  בעולם של פוליטיקאים אמיתיים בתקופה כזו הכל יכול לקרות לכל אחד יכולה להיות הזדמנות או מפלה א… תגובת מוס וגינגי לדחיית הבחירות  120 יום קיבלו 120 חברי כנסת  בעולם של פוליטיקאים אמיתיים בתקופה כזו הכל יכול לקרות לכל אחד יכולה להיות הזדמנות או…  TzipiLivni נורמליזציה תמורת הרס הדמוקרטיה זו העסקה שמציע ראש הממשלה לעמו   הנורמליזציה עם מדינות המפרץ מבורכת מאוד אבל היא לא מקנה… היתה דרך אחת לגרום לו להפסיק לצחוק להזכיר לו את הסיפוח שבוטל בתמורה לשלום והוא היה עובר לבכי בלתי נשלט  נתניהו רוצה לחתום על הסכם שלום ולהיכנס להיסטוריה  אם היינו הולכים לבחירות זה יכול היה להידחות ואולי אף לא להתקיים…  YotYotam גם אני מתגעגע HassonYoel פעם היו צוותי התייעצות פורום שרינו ראשי מפלגה מרכז מפלגה מה יש היום ראש ממשלה שיושב בבית עם משפחתו ומקורבים  יקבל ה… giblli א יש לי זיכרון טוב ב אתה לא מדייק קדימה היתה דמוקרטית אפילו התמודדתי בפריימריס של עשרות אלפי חברים וזכיתי במקום ה  8 פעם היו צוותי התייעצות פורום שרינו ראשי מפלגה מרכז מפלגה מה יש היום ראש ממשלה שיושב בבית עם משפחתו ומקורבים…  HassonYoel אני מבין שיש החלטה לשבור את הכלים להתעלם ממה שטוב למדינה וללכת לבחירות בדרך מייצרים סיפורים ממוחזרים על אבי ניסנקורן כדי… HassonYoel השאלה שצריכה להישאל היא לא למה נפתחות חקירותבדיקות נגד פוליטיקאים אלא למה גם לאחר המלצה של המשטרה לסגור אותם הפרקליטות מ… צודק  השאלה שצריכה להישאל היא לא למה נפתחות חקירותבדיקות נגד פוליטיקאים אלא למה גם לאחר המלצה של המשטרה לסגור אותם הפר…  אני מבין שיש החלטה לשבור את הכלים להתעלם ממה שטוב למדינה וללכת לבחירות בדרך מייצרים סיפורים ממוחזרים על אבי ניסנק…  HassonYoel האם מישהו יבוא חשבון עם המשטרה עח  הפעילות הלא חוקית נגד חכ בישראל  לא מתפלא שכך פעלו נגד חכ YoraiLahav  בשנים האחרונות… Meravbenari ILpolice YoraiLahav משטרת ישראל אל תזהו אין צורך יש תעודת חכ ולזה בין השאר היא נועדה האם מישהו יבוא חשבון עם המשטרה עח  הפעילות הלא חוקית נגד חכ בישראל  לא מתפלא שכך פעלו נגד חכ YoraiLahav  בשנים…  חגגנו יום הולדת לעידודואתם יודעים אין אין אין חגיגהבלי בלי בלי עוגה  אין כאן יחסים ואין כאן מין יש כאן 30 סוטים מופרעים ועם נשמה שרופה ששרפו את הנשמה של נערה בת 16 עם כל היצירתי…  HassonYoel בחירות בעת הזו לא פחות מפשע נגד אזרחי מדינת ישראל איך עוצרים את זה  פועלים הפוך ממה שמצפים ממךלא רק בקואליציה פוליטיק… יופיתמשיכו כך  omlavi לא הכל זה נתניהו יש פה אזרחים ומדינה בחירות בעת הזו לא פחות מפשע נגד אזרחי מדינת ישראל איך עוצרים את זה  פועלים הפוך ממה שמצפים ממךלא רק בקואליציה…  נראה אתכם עכשיו טסים לסודן V2xTHMMuevYxnmg מי שעוקב יודע שאני עקבי בדעה הזו בשנים האחרונות תעשו איתנו שלום לפני האחריםאה ולא נוותר על אינץ ממש מסר של שלום ופתיחות הפלסטינים ממשיכים להיות דובי לא ל…  והיא גם חברה טובה ואהובה מזל טוב swid4  nivshai הפלגת למחוזות רחוקים ואתה גם כותב דברים לא נכונים וחבל רוצחים  HassonYoel נתניהו רוצה לצרוב מורשת ולהיכנס להיסטוריה צריך להעריך את העובדה שבחר במסלול של הסדר עם מדינות ערב על פני סיפוח חד צדדי שהי… נתניהו רוצה לצרוב מורשת ולהיכנס להיסטוריה צריך להעריך את העובדה שבחר במסלול של הסדר עם מדינות ערב על פני סיפוח חד…  צפיתי עכשיו עם עידו 7 בסרט ET במושגים של היום הסרט  ET מידי נמרח ואפילו קצת משעמם לפני 38 שנים זה היה הסרט הכ…  noamfathi נחמד זה טלפון אדום מפרגן  Meravbenari הם כל הזמן דורכים על תמונות ודגלים ונשארים במקום וכל האחרים מתקדמים ומשאירים אותם מאחור galberger ובצדק ErezKeller ומזה צריך להימנע אבו מאזן חלש שנים בורח ממומ ומהחלטות הוא העונש של הפלסטינים אחריו המבול הוא רוצה שהמציאות תגרור אותנו למדינה א…  שטחים תמורת שלום עם מדינה שאין לנו סכסוך גבולות איתה זה באמת לא קשור נראה את netanyahu מביא שלום תמורת שלום עם הפלסטינים חיפוש פופולרי ב google כעת איחוד האמירויות קניות כיף שכולם שמחים  rlutski צודק ההסכם עם איחוד האמירויות ShmulikYosef הלוואי haskioren בוודאי שמברך אמן וזה באמת קורה נתניהו עושים שלום בטוח moranynet סומך על לאה באתי לכנסת להיפרד מלאה ורון מנהלת ועדת הכלכלה שמסיימת את עבודתה בכנסת לאה היא דוגמא ומופת לעובדת ציבור חרוצה חכמה…  Ayeletnnv טוב שהתנצל אני אוהב ומעריך את איציק כהן וממש מאוכזב שכך הוא דיבר  נחים ונהנים  attilus מעניין אם היו אמיצים לידי שהיו מצביעים בעד החוק attilus עשרות חוקים חוקקתי ב11 שנה אבל אותך אטילה אי אפשר לרצות   אסון מחדל טעות בשיקול דעת בכל העולם יש סטנדרט ברור מתפטרים בישראל יש סטנדרט אחר טעינו רק אנחנו יכולים לתקן חחח doronuzan1 היו כל מיני סקרים רובם היו או תיקו בין הגושים או יתרון קל לנתניהו לא קשור לתקווה או רצון בסהכ נתתי כי…  יש כאלה שמתרגשים שלמרות הכל עדיין יש לנתניהו מעל 61 מנדטים לגוש הימין בכל הסקרים חשוב להזכיר בכל מערכות הבחירות ה…  שבת שלום 🥳  yoashbi כיתה א תמונה מהעבר ביהס בליך רמת גן בחירות 2001  בחירות עכשיו  בגידה במדינה ובאזרחיה AviadM zviashkenazi  HassonYoel מעסיקים לא מצליחים להחזיר עובדים לעבודה או לקלוט חדשים אנשים מתאהבים באבטלה הם לא אשמים אשמה הממשלה שניתקה אותם ממקום הע… מעסיקים לא מצליחים להחזיר עובדים לעבודה או לקלוט חדשים אנשים מתאהבים באבטלה הם לא אשמים אשמה הממשלה שניתקה אותם…  HassonYoel תהיה חכם ולא צודק כך gantzbe צריך לנהוג כרגע למצמץ כן למצמץ ולאפשר תקציב חד שנתי אסור לתת תירוץ לבחירות בפוליטיקה לפ… nadavkna gantzbe עד אז יהיה זמן למהלכים נוספים ראש העיר תל אביב יפו RonHuldai מבטא באמצעות המיצג על בנין העיריה את תחושתם של רוב אזרחי מדינת ישראל תהיה חכם ולא צודק כך gantzbe צריך לנהוג כרגע למצמץ כן למצמץ ולאפשר תקציב חד שנתי אסור לתת תירוץ לבחירות בפולי…  DrNachmanShai בהצלחה נחמן HassonYoel כשהבחירות פרצו שבועות אחרי בחירות אפריל 19 הופתענו אבל העברנו את זה בקלות למרות הטירוף שבעניין כשנגררנו גם לבחירות השליש… HassonYoel אין כמעט עיתונאי אחד בישראל שלא תדע מראש מה יכתוב או יאמר עוד לפני שקראת או שמעת כולם צפוייםעצוב</t>
+  </si>
+  <si>
+    <t>אשמח אם תקראו אם האו״ם ימשיך בהתעלמות ואפס מעשה גם כאשר נחתמים הסכמי שלום היסטוריים ואיראן נחשפת במלוא רצחנותה וש…  כיוםהיום בוקר טוב מייד אתראיין בכאן רשת ב אצל אריה גולן לקראת המשך הדיון בעצרת האו״ם כיום בו ישודר נאומו של ראש הממשלה מוזמנים להאזין מנסה ללמד את עמית ואראל את התפילה ואת ההפטרה אותה אקרא מחר בבית הכנסת ביום הכיפורים פעם תלמיד ישיבה תמיד תלמיד ישי…  נאומו של אבו מאזן כעת בעצרת האו״ם ביטא יותר מכל שזמנו תם ושהוא מבין שהסכמי השלום שחתמנו ניפצו את הווטו הפלשתיני על…  בוקר טוב מייד אתראיין לkannnews אצל rbinyamini מוזמנים להאזין UAEMissionToUN Good meeting with IsraelinUN Amb giladerdan1 following the UAEIsrael PeaceAccord The Ambassadors reviewed mutual p… I had a very good meeting with UAEMissionToUN Ambassador Lana Nusseibeh We discussed the importance of cooperatio…  44 Will we see nations during this UNGA call out the Iranian regime for its gross amp unceasing human rights violat…  34 The Iranian regime is one of the world’s worst human rights violators It executes its citizens like star athl…  24 Israel remains a beacon of hope and humanity in a region rife with chaos destruction and gross human rights v…  14 Honored to join USUN Mission SecPompeo and USAmbUN Kelly Craft in reaffirming our commitment to the Univer…  I convey my warmest wishes to the Kingdom of SaudiArabia on the occasion of its National Day May this be a year o…  statedeptspox US sanctions on Iran target their support for terrorism their nuclear program and the corrupt Iranian officials who… statedeptspox If the era of dominance and hegemony that Rouhani speaks of is over why doesn’t Iran get its troops and proxies out o… statedeptspox At UN75 HassanRouhani claimed that Iran supports peace amp combats extremism if only that were true The Iranian regim… The fact that Sec Gen antonioguterres made no mention of the peace treaties signed between Israel the UAE amp Ba…  באסם נעים בכיר חמאס ארגון טרור מוכרז  שם לב לעובדה שציינתי שמזכ״ל האו״ם פשוט התעלם בנאומו מהסכמי השלום עליהם חת…  The United States and Israel are forging a new path for peace in the Middle East Thank you to President Trump for…  נשיא ברזיל בולסונארו מביע בנאומו תמיכה בתכנית השלום של הנשיא טראמפ ומברך את ישראל בחריין ואיחוד האמירויות על הסכמי…  Participating in the 75th UNGA General Debate awaiting President Trumps speech The UN SecretaryGeneral opened w…  8xJHSXjvLpKXpjK תודה רבה משתתף בישיבת הפתיחה של ״הויכוח הכללי״ בעצרת האו״ם ה75 בהמתנה לנאומו של הנשיא טראמפ מזכ״ל האו״ם פותח את הדיון בנאו…  Proud to represent Israel  at the opening of the 75th UNGA Yet despite receiving a front row seat the bias aga…  מתרגש וגאה לייצג את ישראל בפתיחת עצרת האו״ם ה75  לשנה הקרובה ישראל קיבלה מקום בשורה הראשונה של העצרת אבל זה ממש ל…  JerusalemPost Israels ambassador to the UN giladerdan1 wrote to UN chief antonioguterres  in support of US sanctions that Ira… danielocarmon שנה טובה דניאל ידידי חג שמח רגע לפני כניסת החג ולצערי לאחר תחילת סגר אני מאחל לכל אזרחי ישראל היקרים שנה טובה ומבורכת שנת בריאות ואושר שנה ב…  LahavHarkov An interview with number 18 on the JPost Most Influential list  our man in NY and DC ⁦giladerdan1⁩   ShoshiShtub תודה רבה שושי היקרה שנה טובה ומבורכת zivarik תודה רבה אריק אחי שנה טובה ומבורכת בערב בו ישראל שוב בחרה בשלום הפלסטינים בחרו כהרגלם בדרך הטרור והשנאה לא יעזור להם כמה מילים ממני אליכם לאחר הטקס…  Today we begin a new era in which we no longer have to operate in the shadows Now we can publicly work together…  עוד כמה דקות יתחיל כאן טקס השלום המרגש שישנה את עתיד המזרח התיכון ויחזק משמעותית את מדינתנו  התרגשות אדירה באוויר  היינו כחולמים  בדרכי לוושינגטון להשתתף בטקס חתימת הסכם השלום ההיסטורי בין ישראל לאיחוד האמירויות ולבחריין התרגשות…  mitchellreports UAE Amb Nusseibeh I think this is a moment of optimism and I think it is one that is shared around the regions… mitchellreports UAE Amb Nusseibeh when two dynamic entrepreneurial economic power houses like the UAE and Israel decide to sign… mitchellreports UAE Amb Lana Nusseibeh on diplomatic relations with Israel This is indeed a historic signing of an accord tomorrow… statedeptspox We welcome Serbia’s intention to designate Hizballah as a terrorist organization in its entirety Iranbacked Hizballah… Another historic day for Israel and the Arab world Congratulations to PM netanyahu Bahrains King Hamad bin Salm…  netanyahu Today we remember all those who perished in the greatest terrorist crime in history committed on September 11 2001  We sh… 22 This day reminds us that Israel and the United States are connected through shared values and an understanding…  12 Representing the State of Israel at Ground Zero today alongside VP MikePence and RudyGiuliani I honor the…  Thank you Ambassador MAZappia for a great first meeting As regional partners our nations and peoples enjoy a v…  aviberkow45 Israel UAE to sign historic peace deal in White House ceremony next week   SecPompeo Forty years ago the Iranian regime arrested nine members of the Baha’i National Spiritual Assembly of Iran  No one has hea… AustraliaUN Great to meet Amb giladerdan1 of IsraelinUN at an important time for the Middle East region    amp  enjoy a close re… HillelNeuer I trust the UN Human Rights Council which opens next week  Members  Democratic Republic of Congo  Burkina Faso … HillelNeuer Ayatollah Khamenei No dictator in the world has more Muslim blood on his hands than you In Syria alone your Iranian gua… kannnews שגריר ישראל באום giladerdan1 לgolanaryeh על הדיווחים על עסקת נשק מתוכננת של ארהב עם איחוד האמירויות בדקתי לעומק את ה… kannnews שגריר ישראל באום giladerdan1 לgolanaryeh על נרמול היחסים עם קוסובו יש פה מסר לכל המדינות שרוצות יחסים עם ארצות הברית… The establishment of relations with Kosovo is an impressive achievement and will soon lead to more Muslim countrie…  כינון היחסים עם קוסובו מדינה מוסלמית נוספת הוא הישג משמעותי שיביא בקרוב עוד מדינות מוסלמיות לבחור בשלום עם ישראל…  SecPompeo Congratulations to the leaders of Serbia and Kosovo on today’s historic agreement We reaffirm our support for ongoing Serbi… 22 אני מברך את נשיא ארה״ב realDonaldTrump ואת ראש הממשלה netanyahu על ההישג הגדול ועל תהליך חסר תקדים שלום תמור…  12 פריצת דרך חשובה עם מדינה מוסלמית נוספת המכוננת יחסים עם ישראל בקרוב מדינות מוסלמיות וערביות נוספות יבחרו בשלום…  AIPAC Kosovo  just announced it will normalize ties with Israel and become the first Muslimmajority country to open its embassy in… 22 I congratulate netanyahu amp realDonaldTrump on this great achievement Serbia and Kosovo will now open embassi…  12 Another breakthrough another Muslim country normalizing ties with Israel After the UAE amp Kosovo I believe m…  HashimThaciRKS I welcome the announcement of Israeli PM netanyahu about the genuine intention to recognize Kosovo and establish dipl… realDonaldTrump Another great day for peace with Middle East – Muslimmajority Kosovo and Israel have agreed to normalize ties and est… The UNs theater of the absurd continues Iran an elected member of the UN Commission on Criminal Justice sentenc…  Thank you AustraliaUN Ambassador Mitch Fifield for a warm and productive meeting I am very grateful for the close…  Canada and Israel share common values and over the years our two nations have shared a strong connection Today I w…  Thank you Ambassador KatalinBogyay for an important and insightful conversationLooking forward to our continued c…  HillelNeuer Welcomes UAEIsrael peace  United Kingdom  Netherlands  Germany  Canada  Bahrain  France  Japan  India … Ayatollah khameneiir fears the new era of peace amp cooperation being shaped by Israel the UAE amp the United States…  22 ישראל רואה בממשלת לבנון כאחראית  הבלעדית לנעשה בשטחה ותגיב בעוצמה לכל מתקפת טרור על חיילינו או אזרחינו  בחודשי…  12 הדרישות והשינויים שהוכנסו אתמול למנדט של כח יוניפיל עי מועצת הביטחון הם תמרור אזהרה אחרון ומבחן לממשלת לבנון…  The UAEs decision to end its boycott of Israel is truly exciting As a minister I fought strongly against BDS a…  33 We will closely watch how UNIFIL’s renewed mandate is implemented and determine whether there is a justificatio…  23 Israel will not allow terrorist attacks to emanate from Lebanese territory and will respond with force to any s…  13 The UN Security Council’s renewal of UNIFIL’s mandate which will enable UNIFIL to function in a more effect…  22 פניתי אמש למועצת הביטחון בדרישה לשנות מיידית את מנדט יוניפיל  בהיעדר שינוי מהותי בתפקוד הכח אין שום הצדקה לקיומו אמשיך להיאבק על כך 12 כך נראית הפעילות של חיזבאללה בדרום לבנון בזמן שנמצאים שם 11 אלף חיילי אום בדיחה עצובה אנו רואים בממשלת לבנון…  IsraelHayomHeb שגריר ישראל באום giladerdan1 הגיש מכתב חריף למועצת הביטחון בדרישה לנקיטת צעדים מידיים נגד ממשלת לבנון וכוח יוניפיל ב… kannnews התקרית בגבול לבנון  השגריר באום ארדן הגיש תלונה רשמית למועצת הביטחון התקפות הטרור של חיזבאללה ידרדרו את האזור gilicohe… GLZRadio 9 ימים לפקיעת מנדט כוח האום יוניפיל בדרום לבנון • שגריר ישראל לאום giladerdan1 לIshayShnerb אם לא יהיה שינוי משמעות… IshayShnerb גלעד ארדן בנכוןלהבוקר ישראל תומכת בפירוק יוניפיל אם לא תינתן לכוח סמכות כניסה לבתי מגורים לחיפוש מצבורי נשק ורקטות… מייד אתראיין בגלי צה״ל אצל ישי שנרב מוזמנים להאזין שבוע טוב JerusalemPost During a meeting with US Secretary of State Mike Pompeo Israel Ambassador to the UN giladerdan1 said that Israel ful… 55 Secretary Pompeo and I also discussed the peace agreement that recently emerged between Israel and the UAE and…  45 The European Union must abandon the support that in effect it is lending to the Ayatollahs in Iran Israel st…  35 I have noted that instead of imposing upon Iran crippling sanctions that will curb the regime’s murderous amb…  25 In the meeting today I have expressed Israel’s full support for the United States’ triggering of the snapback m…  Today I met with the SecPompeo the USAmbUN and Iran Envoy Brian Hook I reiterated that Israel fully supports…  22 במקום להטיל על איראן סנקציות משתקות שיבלמו את שאיפותיה הרצחניות מועצת הבטחון מתנהגת בניגוד לחובתה  וסוללת את ד…  12 נפגשתי היום עם מזכיר המדינה האמריקאי שגרירת ארהב לאום והשליח המיוחד לענייני איראן הבעתי בפניהם את תמיכתה המ…  kannnews ״במקום להטיל על איראן סנקציות משתקות שיבלמו את שאיפותיה הרצחניות מועצת הבטחון סוללת את דרכה של איראן לנשק גרעיני שגריר יש… Thank you Secretary Pompeo for your leadership and determination  USAmbUN On this UN Intl Day of Remembrance and Tribute to Victims of Terrorism we honor those lost and stand with survivors We wil… Important to watch  SecPompeo As we have promised the United States will not let the arms embargo on Iran expire To that end I met with UN SecretaryG… StateDept SecPompeo The United States is determined to make sure that the Iranian regime doesn’t have the capacity to inflict even… USAmbUN Today the United States notified the Security Council that we are initiating the restoration of virtually all UN sanctions on… IsraeliPM Prime Minister Benjamin Netanyahus statement on the American decision to trigger snapback sanctions against Iran I commen… 3 Nor should it pave the way for Iran to fulfill its nuclear ambitions Now is the time for the international comm…  23 Reimposing the UN sanctions on Iran is a critical step to curbing Iranian aggression which threatens the entir…  13 We fully support the United States’ decision to request that UN sanctions on Iran be reinstated via the snapbac…  בשעות הקרובות יחל באו״ם המהלך להשתת סנקציות העבר על איראן ישראל תומכת ביוזמה להפעלת הsnap back והחזרת משטר הסנקציו…  2 לסייע לפתרונו בנוסף הצגתי בפניו את חשיבות המאבק באנטישמיות ודנו בהסכם השלום בין ישראל לאיחוד האמירויות והשלכות…  1 כשגריר וכחבר הקבינט במהלך ״צוק איתן״  יש לי חובה לפעול ללא הרף כדי לקדם את החזרת חיילינו ואזרחינו  לביתם לכן ב…  אכן  GLZRadio השגריר giladerdan1 מסביר לamirbarshalom וbardugojacob אני מנסה לבנות לגיטימציה לתגובה ישראלית שתינתן בעתיד אם הפעולות… GLZRadio שגריר ישראל באום giladerdan1 מבטיח אצל amirbarshalom וbardugojacob הפגישה הראשונה שלי עם מזכל האום תהיה בנושא החזר… ShaiCohen13 זה תואר לכל החיים mvpt1q3ds8siL3S תודה רבה יום נפלא בוקר טוב מייד אתראיין בכאן רשת ב׳ אצל אריה גולן על הסכם השלום המתקרב עם איחוד האמירויות ועל התלונה שהגשתי כנגד חיז…  2 UNIFILis supposed to prevent such infiltrations If it cannot stop Hezbollah from turning southern Lebanon int…  1 Today I sent a letter to the UN Security Council containing intelligence proving that Hezbollah terrorists rece…  kannnews שגריר ישראל באום giladerdan1 החלת הריבונות לא ירדה מהפרק ותחזור לסדר היום האזינו לריאיון המלא מתוך שליגואטה  2 The council has utterly failed in its responsibility of maintaining international peace and security This decis…  1 The Security Councils decision to reject the US initiative to extend the arms embargo on Iran is a disgrace In…  aviberkow45 Peace is a beautiful thing DinaAbramson זה פוטושופ כמובן שבת שלום הסכם השלום המתהווה עם איחוד האמירויות מוכיח שיחסים טובים עם ישראל הם נכס לכל מדינה לכן המדיניות שלי במאבק במחרימ…  We thank the US for its leadership on this historic agreement and for its uncompromising stand with the State of Is…  talshalev1 מהנעשה בסטורי משפחת ארדן נחתה בניו יורק  BussoUriel תודה מקרב לב אריאל ידידי היקר נמשיך לפעול יחד למען מדינת ישראל ואזרחיה כולם SagiBarmak תודה רבה שגיא ידידי היקר MosheDebby תודה רבה משה יקירי HayekAmir תודה רבה אמיר ידידי avi1mimran תודה רבה אבי היקר אשמח להמשיך לשוחח אצלך Meravbenari תודה רבה יקירתי motiohana1 תודה רבה מוטי ידידי DannyAyalon תודה רבה דני ידידי GideonMeir תודה רבה גדעון YoavBlum תודה רבה יואב ידידי אל דאגה החלפתי בגדים במטוס EladStr תודה רבה אלעד נתראה DinaAbramson תודה רבה דינה LiorWeintraub תודה רבה ליאור ידידי ElkyBergstein החלפתי בגדים בטיסה אל דאגה zeevelkin תודה רבה זאב danielocarmon תודה מקרב לב דניאל gidonsaar תודה רבה גדעון רגעי התרגשות אחרונים לפני ההמראה לארה״ב  אעשה הכל על מנת להגן על ישראל מדינתנו האחת והיחידה לייצג אותה נאמנה ול…  zivarik תורה רבה אריק היקר המשך בפעילותך החשובה לחיזוק הליכוד והמדינה FarkashOrit תודה רבה אורית היקרה נמשיך לשתף פעולה כנגד מחרימי ישראל ולחשוף את פרצופם האמיתי תודה רבה על האמון ראש הממשלה ותודה לכל חברות וחברי הכנסת של הליכוד על השותפות לדרך ועל העשייה רבת השנים אעשה כל ש…  אני מתחייב לעשות הכל להשבת הבנים הביתה הדר אורון הישאם ואברה מקומכם בישראל סיימתי כעת פגישה עם ראשי המטה  להשבת…  Twitter has failed to take serious steps to combat Antisemitism on its platform  This is an issue I fought for a…  A must read – Jodie Cohen’s excellent Tikkun Olam Israel vs Covid19 which captures the very essence of the start…  כבוד הנשיא תודה על הפגישה החשובה נמשיך להיאבק על הגינות ואיזון במוסדות האו״ם למען חיזוק מדינת ישראל והבטחת עתידה  Thank you GovParsonMO for passing the AntiDiscrimination Against Israel Act Israel greatly appreciates the frien…  dandayan IsraelinUN IsraelinUSA תודה רבה דני ידידי היקר אשמח להמשיך וללמוד מנסיונך ומהישגייך הרבים זו שעה קשה…  התרגשתי מאד להתמנות היום לשגריר ישראל באו״ם ובארה״ב נפרדתי זמנית מהממשלה והתחלתי פרק חדש בשליחותי הציבורית כפי שפ…  אדוני ראש הממשלה וחבריי לממשלה תודה מעומק הלב על האמון אעשה כל שביכולתי ואיאבק בכל כוחי על צדקתה של ישראל ולמען ה…  galhirsch2015 תודה רבה גל היקר voiceofajew תודה רבה יואב היקר elidukorski תודה רבה אלי אחי היקר Happy Independence Day to Israel’s greatest friend and ally  I’m looking forward to being there very soon and…  אשר הרמט שלי לשעבר במשרד לנושאים אסטרטגיים הוא אחד המומחים המובילים למערכה נגד ה BDS והדהלגיטימציה הצלחנו בשנ…  YunaLeibzon משתתף בצערך ובצער משפחתך יונה מי יתן ולא תדעו עוד צער תנחומיי תודה רבה רבה לכם על מלאכת הקודש אותה אתם עושים אמשיך להעלות את ירושלים ואת הר הבית על ראש שמחתי בכל מקום בעולם שב…  תודה רבה כבוד הנשיא אעשה כל שביכולתי כדי להגן על ישראל ולחזק את מעמדנו בעולם ואת יחסינו עם ארה״ב הגדולה שבידידותי…  IsaacHerzog תודה רבה בוז׳י יקירי נפעל יחד ונעשה כל שביכולתנו לחזק את מדינת ישראל בעולם ולחזק את הקשר בין מדינת ישראל ליהדות התפוצות  Thank you SecPompeo for your friendship amp clear moral vision regarding our shared threats from the Iranian regime…  CarmonDvir  שמחתי לשמוע שבהמשך לאישורי ולהנחיותי נתי חדד יועבר הלילה מתאילנד ויגיע מחר בעזרת השם לישראל  נפלה בחלקי האפשרות ל…  sebastiankurz Thank you Chancellor sebastiankurz my friend for your commitment to the fight against rising anti…  YakiAdamker יקי היקר הלב נשבר איתכם באבלכם הכבד שלא תדעו עוד צער Thank you JosepBorrellF  Israel calls on the EU to designate all of Irans terrorist proxy Hezbollah as a terror…  תודה רבה איציק ידידי ובהצלחה בתפקידך אני מאמין שבזכות היוזמה של לילי בו עמי יינצלו נשים רבות מאלימות של בני זוגן  ruvirivlin אירחנו היום את ההאקתון הראשון בישראל להצלת חיים ומניעת אלימות במשפחה בכלים טכנולוגיים לזכרה של מיכל סלה שנרצחה עי בן זוגה… danielocarmon FarkashOrit IsraelMFA בעזרת השם אין ספק שבלי קשר למשרד לנושאים אסטרטגיים יש הצדקה משמעותית לחיזו…  noalandau תודה תחדדי לקוראייך שמדובר בפעילים פוליטיים עם אידאולוגיה אנטישמית ועם קשרים לארגוני טרור מוכרזים ושה…  עיתון הארץ ממשיך בקמפיין הדורש לחשוף בפני מחרימי ישראל  את כל שיטות הפעולה והדרכים בהן אנו מתגוננים מפני הbds למרו…  danielocarmon FarkashOrit לא ״נגזל״ תקציב ממשרד החוץ בשל פעילות המשרד לנושאים אסטרטגיים במאבק בחרם ההיפך המשרד…  Thank you dear friends  סיימתי את כהונתי במשרד לנושאים אסטרטגיים בו הקמתי  כח משימה לאומי ותשתית שמגינה על ישראל מהBDS והביאה להישגים משמעו…  תודה רבה אורית בהצלחה נמשיך לעבוד יחד כדי להגן על ישראל  בעוד מספר דקות יתקיים טקס חילופי שרי בטחון הפנים במשרד לבטחון הפנים בירושלים הטקס ישודר בשידור חי בעמוד הפייסבוק שלי מוזמנים לצפות 148amisraelhay7 giladerdan1 השר גלעד ארדן תבורך על תרומתך הנצחית לגאולת ציון הר מרום הרים באמת מרגש ובאמת היית שם בכל עת לעזור ולקדם… Thank you dear Arsen We will continue to work hard together to defend Israel  היתה לי הזכות העצומה לחזק את ריבונותנו בהר הבית  המקום הקדוש והחשוב ביותר לעמנו מספר המבקרים היהודים כיום הוא פי…  תודה רבה מעומק הלב לכל השוטרות והשוטרים שלנו למפקדות ולמפקדים  שעושים את אחד התפקידים הכי קשיםמורכבים מסוכנים ו…  כמה הזדמנויות יש לעשות סלפי עם שני ראשי ממשלה יחד רגע מרגש ברכות לראש הממשלה ולראש הממשלה החלופי ולמרות הציניות…  תודה מעומק הלב ללוחמי האש המדהימים שלנו ולנציב רב טפסר דדי שמחי צעדנו יחד קדימה וחיזקנו מאד את מערך הכבאות ואת היכ…  הירי ממנו נפצעו  שוטרינו בטירה הוא פשע חמור המהווה חציית קו אדום משטרת ישראל תמשיך לפעול ללא הרף ביישובים הערבים ב…  dannydanon תודה רבה דני ידידי היקר ישר כח על העבודה המקצועית והמסורה שעשית באו״ם למען מדינת ישראל אין ספק שייצגת…  IvankaTrump Two years ago today realDonaldTrump kept his promise and opened the US Embassy in Jerusalem   I was honored to be in I… zviashkenazi ואל תשכח את יום הולדתי השנה zviashkenazi תבוא לבקר גלעד Shiritc שבת שלום גם לך אחד השבועות המשמעותיים ביותר בחיי הגיע לסיומו שירית אביטן כהן ממקור ראשון ראיינה אותי על העבר והעתיד מוזמנים לקרו…  OstrovA As EU continues to threaten the Jewish state on extending our sovereignty a bombshell new report from Israels Ministry of… תודה רבה רני זה אכן אחד הפרוייקטים החשובים ביותר שיש להשלים במשרד ובמשטרה שיציל חיים רבים  fredmana צרפת תחייב חברות המדיה החברתית להסיר תכנים מסיתים כולל אנטישמים תוך 24 שעות  כאשר השר giladerdan1 ביקש לקדם חקיקה שתטיל… SenyorEli חשוב היחידה שאמורה לטפל בבני זוג אלימים    URJPresident Thank you URJPresident for your kind words I look forward to strengthening Israel’s bond with the U…  LiorWeintraub תודה רבה ליאור ידידי yairlapid תודה רבה יאיר ידידי אעשה כל שביכולתי למען מטרות חשובות אלה ShuliMR תודה רבה שולי היקרה תפילת יהודים בהר היא לא בסמכות שר לבט״פ לצערי מקווה שאכן נגיע ליום זה dandayan תודה רבה דני ידידי המסכות יותר חשובות מהאלקוג׳ל דרך אגב שים עמדת חלוקה גם של מסיכות למי ששכח להביא KElharrar תודה רבה קארין היקרה YehudahGlick תודה רבה יהודה HenMazzig תודה רבה חן היקר המשך בפעילותך החשובה בהגנה על ישראל בעולם mbrooksrjc Thank you MBrooksJRC I am happy to be working together in further strengthening Israel’s already stro…  davidbitan תודה רבה דוד היקר מצפה לביקורך AviBenayahu תודה רבה אבי ידידי</t>
+  </si>
+  <si>
+    <t>הממשלה הכושלת ממשיכה לדבר ב36 קולות לציבור נמאס מהצעות שלא עוברות הוא גם ככה כבר לא מאמין במי שמנהל את המשבר  ק…  notkin1985 מה יש להם למהר גם מחר תהיה קורונה זו ממשלה מנותקת של 36 שרים ו16 סגני שרים שדואגת לעצמה  כחול לבן משרתים רק את ראש ממשלה הם לא משפיעים ונשארים בממשלה שמפקירה את הציבור גנץ מה יש לך לעשות בממשלה הזאת  הסגר הוא כישלון של ממשלת נתניהו אפשר היה להילחם אחרת במחלה גם בלי להרוס את הכלכלה   פרופ גמזו זה לא אתה שנכשלת ושצריך להצטער בפני הציבור  נשמע שקצת מאוחר מדי בשביל זה  הסגר הזה הוא כישלון של ממשלת נתניהו  אפשר היה להילחם במחלה גם בלי להרוס את הכלכלה אסור היה לצאת לסגר שני בלי תוכנ…  בושה שכחו שהם צריכים לעבוד עבור אזרחי ישראל שעוד רגע מתחיל סגר הרסני  הסגר הוא כישלון של ממשלת נתניהו המחיר הכלכלי הנפשי והחברתי יקר מידי אפשרי היה להילחם אחרת במחלה גם בלי להרוס את…  ולשמור על כלכלת ישראל  gantzbe אתם משרתים ראש ממשלה שעסוק רק בפוליטיקה זולה אתם לא משפיעים ונשארים בממשלה שמפקירה את הציבור  מה יש לך לעשות בממשלה הזאת אולי מספיק לזרות חול בעייני הציבור לא היה לשר Izhars7 שום פועלו שאפשר להמשיך אותו  אי אפשר היה לנסח את זה טוב יותר  If you have to shoot shoot dont talk  arikbender חבל רק שהוא וימינה הצביעו ברגלים ולא היו במליאה בזמן ההצבעה הראשונים לזהות בטח לאור ההצהרה של נתניהו עכשיו  זה נכון  סוף סוף הגיע dudiamsalem  אולי סרטון של עוזרי נתניהו שומרים על ההנחיות יעזור  כחול לבן משרתים ראש ממשלה שעסוק רק בפוליטיקה זולה הם לא משפיעים ונשארים בממשלה שמפקירה את הציבור gantzbe מה יש…  תגידי cohenmeirav השר Izhars7 נפגש עם gantzbe  ואת בין פוליטיקה למנהיגות מפריד ערך האחריות יזהר שי 7920 תגידי FarkashOrit השר Izhars7  נפגש עם gantzbe  ואת בין פוליטיקה למנהיגות מפריד ערך האחריות יזהר שי 7920 תגיד MichaelBiton4 השר Izhars7  נפגש עם gantzbe  ואתה בין פוליטיקה למנהיגות מפריד ערך האחריות יזהר שי 7920 תגיד alonschustermk  השר Izhars7 נפגש עם gantzbe ואתה בין פוליטיקה למנהיגות מפריד ערך האחריות יזהר שי 7920 תגיד asafzamir השר Izhars7 נפגש עם gantzbe  ואתה בין פוליטיקה למנהיגות מפריד ערך האחריות יזהר שי 7920 רגע לפני שיפגוש את gantzbeרצינו להזכיר משהו לשר Izhars7 בין פוליטיקה למנהיגות מפריד ערך האחריות יזהר שי 7920     ומה שהוא באמת התכוון להגיד הסגר הוא כישלון של ממשלת נתניהו המחיר הכלכלי הנפשי והחברתי יקר מידי אפשרי היה להילח…  YakiAdamker  YakiAdamker  YakiAdamker  YakiAdamker  YakiAdamker  YakiAdamker  את תתנו לכותרת של MaarivOnline לעבוד עליכם שרי Kachollavan19 אשמים בדיוק באותה מידה מה הם עושים בממשלה שמפקירה כ…  זה אותו Izhars7 שהודיע שהוא לא רוצה להיות שר כדי למנוע ביזבוז ואז הלך להיות שר  attilus יש כאן כשל של ממשלה netanyahu עושהאת כל מה שאתה מתאר ושותפו gantzbe שנכנס לממשלה בתירוץ של טיפול בקורו…  זאת קריאה לשרי ממשלת ישראל את כל ה 200000 אנשים שנדבקו בקורונה 634 חולים קשה מאות אלפי המובטלים לא מעניינת הפו…  מי נתניהו שלנו מה פתאום  עם 6800 חולים חדשים אף אחד לא מאמין שהוא מסוגל  ככה זה כשלמקבלי ההחלטת אכפת רק מעצמם  היום לכל המאוחר מחר שיכנסו לתוקף אחרי יום כיפור שיהיו לא רלוונטיות נוכח הנתונים החדשים ושישתנו כי זה לא טוב פול…  מדינת ישראל לא שייכת לבנימין נתניהו ולאזרחי ישראל מגיע תשובות לכאוס הבריאותי והכלכלי שישראל נמצאת בו בגלל ניהול כושל של נתניהו וממשלתו נתניהו הבין שהוא איבד שליטה על רמת התחלואה בקורונה על הנזק הכלכלי הצפוי לאזרחי ישראל ועל חוסר אמון הציור ביכולתו ל…  נתניהו נכשל בורח מאחריות וכעת גם מפחד לשמוע את הביקורת הציבורית  במקום לקיים את החוק ולהתייצב בפני כנסת ישראל ר…  הלם  בשביל להחזיר את אמון הציבור בצורך האמיתי של ההגבלות צריך קודם כל דוגמה אישית הממשלה הזו נכשלה בריאותית כלכלית וג…  הציבור משלם את מחיר הכישלון של נתניהו  לשרים שתוקפים את הממשלה  כבר התרגלנו אבל כשיור ועדת החינוך תוקף ככה ומוסיף שגם היום הוא יעבוד כדי לשנות את זה…  ממשלה מנותקת של 36 שרים ו16 סגני שרים  הסגר הזה הוא חותמת הכישלון של נתניהו  בריאותית וכלכלית זה יכול וחייב להיות אחרת  שר הבריאות בבשורה לבעלי העסקים שעדיין לא הבינו למה הם יהיו בסגר ואחרים לא יהיה עוד ויהיה יותר גרוע  ממשלה כושלת שלא מצליחה לנהל את משבר הקורונה מישהו שם זוכר שמדובר בחיי האזרחים בפרנסה במסורת בושה נכשלתם תתפטר…  בזכות פניית AndreyKozhinov  לשר הבריאות מעתה מסרוני איכון השבכ ישלחו בשפות השונות  ככה מחזירים את אמון הציבור ב…  בנאומה על הצעת החוק המבקשת להחזיר את המיליונים שנגבים מהציבור מקנסות על הפרת מגבלות הקורונה  לציבור תקפה יוזמת הח…  GLZRadio netanyahu steinitzyuval YaelDan1 ברגע זה ממש ישנם בבידוד 3157 אנשי צוות רפואי שמשלימים שבועיים של בי…  כשגם סגן שר הבריאות מודה שבריאותית יש פתרונות טובים בהרבה מה ישאר מאמון הציבור בממשלה הזו לאחר הסגר  הקואליציה מחביאה את כשלון הממשלה במקום להעביר את הצעת החוק של idanroll שמבקשת לחשוף את הפרוטוקולים בהם מפורטים עמ…  עוד 40 תקנים להתמחות עבור רופאים עולים חדשים נוספו בזכות פנייתו של YRazvozov לחברי ועדת העלייה והקליטה בטח כשמערכ…  מנציגי הענפים יעל דניאלי מנכלית התאחדות המלונות 150 מלונות היום סגורים חצי שנה ומה יקרה עכשיו ביום שישי ייסגר…  מנציגי הענפים חיים פרנקל בעלים של רשת מכוני כושר אנחנו ענף שמעסיק מעל 140000 עובדים ודואג לבריאותם של מיליון ו…  מנציגי הענפים לילך ספיר בעלת מסעדות מתל אביב בשבילנו העצמאים העסק שלנו הוא הילד שלנו וילדים זה לא צעצוע שאפשר…  מנציגי הענפים השונים דדי ביטון בעלים של רשת חוגים מהוד השרון החינוך הבלתי פורמלי זה המקום בו מתקיימת הלמידה המש…  חבר ועדת הכספים MKMikiLevi לוקחים פה משק חבוט רווי אבטלה עם גירעון אסטרונומי 70000 עסקים שנסגרים בלי תקציב…  באותה הצהרה למניעת הסגר אמרה OrnaBarb במשבר בסדר גודל כזה צריכים מנהיגות אמיצה ולא מנהיגים פחדנים לא דאגתם למער…  ראש האופוזיציה יאיר לפיד תקף את הממשלה שמוליכה המדינה לסגר נוסף הממשלה היחידה בעולם שמכניסה את אזרחיה לסגר שני…  נתניהו יכול להמשיך להציג גרפים אבל את המספרים האמיתיים אזרחי ישראל מרגישים בכיס במכולת ובחשבון הבנק  גם בריאותית יש פתרונות טובים יותר מהסגר הזה  הסגר הזה הוא מכת מוות למובטלים לעצמאים לעסקים ולכלכלה כולה  בזכות פנייתו של YRazvozov לשרי הבריאות והספורט הוחלט שליגות הספורט המקצועניות ימשיכו לפעול גם בזמן הסגר  gideonallon בשבוע שבו הממשלה מודיעה על כשלונה הטוטואלי בטיפול במשבר הקורונה ומטילה על אזרחי ישראל סגר בפעם השנייה…  עד לשם הגיעה Orlylevy בסיורים שלה סחטיין  הסגר הוא הודאה בכישלון הנה דוגמה לניתוק של הממשלה שidanroll פועל כדי לתקן  arikbender בשבוע שבו הממשלה מודיעה על כשלונה הטוטואלי בטיפול במשבר הקורונה ומטילה על אזרחי ישראל סגר בפעם השנייה…  מזל שעדיין לא סיפרו לעולם שמאות אלפי ישראלים עדיין מובטלים  שלום כיתה א  ביי כיתה א סגר לא מתוכנן הוא מסוכן ופוגע בחינוך ילדי ישראל  הסגר בחגים הוא חותמת הכישלון של נתניהו  הממשלה איבדה את אמון ציבור  נכשלתם תתפטרו netanyahu gantzbe  zalmanovitz KolBarama בשבוע שבו הממשלה מודיעה על כשלונה הטוטואלי בטיפול במשבר הקורונה ומטילה על אזרחי ישראל סגר ב…  נתניהו נכשל בטיפול בקורונה  ככה נראה כישלון ששיקולים הפוליטיים גוברים על מה שחשוב באמת  האזרחים  ליצמן זה לא השר שברח מתפקיד שר הבריאות כשפרצה מגיפת הקורונה וזה ששנים העדיף שתקציבים יעברו למקומות אחרים מלבד מערכ…  נתניהו נכשל בטיפול בקורונה לכן אסור לממשלה להחליט על סגר בלי תוכנית מקצועית ליציאה ממנו  מזה חודשיים שאלפי פעילים שלנו יוצאים מחוזקים בחברי הכנסת להפגין נגד הממשלה שלא דואגת לאזרחיה במשבר הבריאותי והכלכלי…    מנותק נמאסת  הפרויקט מתחילים בהייטק של חכ idanroll  ממשיך והפעם עם פייסבוק ישראל חכ רול אני גאה שאחת החברות הגדולות והמצ…  ספירה נכונה של נפטרי הקורונה היא קריטית בקביעת מדיניות הממשלה לכן דורש YRazvozov מרה״מ לבצע ספירה מחודשת  צריך ל…  מילה טובה לMKMickeyLevy על עשייה משמעותית והישג חשוב עבור העסקים הקטנים  אנחנו נהיה שם ואתם  הממשלה נכשלה  בתגובה לכישלון הממשלה לעצור את קצב ההדבקה אמר netanyahu הפרקליטות והוסיף gantzbe אני עם היד על ההגה  מה שווה שאתם עם הרגל על הברקס אם אתם לא לוחצים על הדוושה  חברי Kachollavan19 אתם תחת ראש ממשלה שעושה הכל כדי…  בטח בתקופת משבר הקורונה כשהנתונים מראים שישנם יותר ויותר קשישים וקשישות שנאלצים לעבוד חשוב לאפשר למי שיכול להשתכר…  מתוך 100 המשפיעים של כלכליסט  ע׳דיר משמשת נציגה של ה״דרוזים החדשים״ בכנסת דור חדש של מנהיגות ומעורבות חברתית המ…  פנייה לכל חברי הכנסת כל מי שאי פעם דיבר על ממלכתיות החוק הזה תלוי בכם  אז מה יעלה בגורל קבינט הפיוס סוף סוף אחרי שהוועדה לבטיחות בדרכים לא כונסה מאז יוני 2018 מונה פה אחד BToporovsky ליור וועדת המשנה לבטיחות הדרכ…  מזל טוב בקרוב אצלכם חתונה  לא קורנה  21320 נתניהו ״אני מנווט את הטיטאניק אני עומד בסיפון״  חצי שנה אחרי  ממשלה מנותקת של 36 שרים ו16 סגני שרים שדואגת רק לעצמה במקום למה שחשוב באמת  האזרחים  עוד עלה בדיון שהקרן להלוואות בערבות המדינה לעסקים קטנים בסיכון חילקה פחות מרבע הסכום שהוקצה לכך ושהבנקים מודים שהם…  בועדת הכלכלה דנים על עזרה לעסקים הקטנים ואפשר היה לחשוב שאין בכלל משבר אלא אם BToporovsky לא חשף האמת שמאחורי הנת…  ממשלה מנותקת ומסוכנת לציבור gantzbe netanyahu  מנהל שנכשל צריך להתפטר  ישראל ניצבת מול המשבר הבריאותי והכלכלי החמור בתולדותיה netanyahu קח אחריות תודה בכישלונך ותתפטר  רק כך נוכל לשמ…    כישלון מסוכן של ממשלת ישראל  נתניהו נכשל בטיפול בקורונה והציבור איבד אמון ביכולתה של הממשלה להוציא אותנו מהמשבר  yairlapid הממשלה הזו כבר לא רק מנותקת היא מסוכנת יושבים צוותי מומחים רופאים כלכלנים אנשי מדיניות ציבורית וממשל מקומי בונים תוכני… אז הוא דחה מה הלחץ גם מחר תהיה קורונה  כשראש הממשלה נכשל בטיפול במשבר הקורונה והחליפי לא רלוונטי אזרחי ישראל ימשיכו לשלם את המחיר  הממשלה איבדה את אמון הציבור לכן KElharrar וYSegalovitz שומרים בדיון בוועדת החוקה שההחלטות על מתווה הרמזור הן מקצועיות ולא פוליטיות  mkorlyfroman אסור להפסיק כולנו חייבים להמשיך במחאה ולהגיע לבלפור ביחד נוביל לשינוי עד שנתניהו יתפטר  כשהפוליטיקאים לא מאפשרים לאנשי המקצוע לקבל החלטות הם אלו שישאו במחיר הכישלון  מי נתניהו נתניהו שלנו לא יכול להיות  yairlapid העלייה בתחלואה מדאיגה ונובעת מכשלון ניהולי מחפיר של הממשלה הזאת חייבים לפעול מהר ובמקצועיות ללא שיקולים פוליטים זאת האפשרו… yairlapid 36 שרים ואף אחד מהם לא לוקח אחריות על ענף המסעדנות מפקירים אותם לגורלם ללא תשובות ללא תוכנית אף אחד לא מקשיב להם לבעיות… תוצאה של ממשלה שעושה הכל חוץ מלדאוג לאזרחים  נתניהו נכשל כישלון מחפיר בניהול המשבר הכלכלי והבריאותי  לכן לפי דרישתנו ביום רביעי הקרוב הוא יתייצב בכנסת לדיון…  עוד עדות לכישלון של ממשלת הקורונה  תנו לאנשי המקצוע לעבוד מהר ללא שיקולים פוליטיים gantzbe netanyahu  yairlapid גם שבוע הבא לא מתוכננת ישיבת ממשלה הממשלה ויתרה על ניהול המדינה מדובר במשתמטי עבודה שאנחנו משלמים להם את המשכורות yairlapid יש לי כבוד רב לרב קנייבסקי ואני מקווה ומאמין שהקריאה להמנע מבדיקות קורונה בישיבות לא הגיעה ממנו בכל מקרה פרופ׳ גמזו צודק ב… yairlapid אחרי הכשלון בבריאות ובכלכלה יגיע גם הכשלון בחינוך מנותקים נמאסתם  yairlapid מאחל רפואה שלמה ומהירה לשני אנשי כוחות הבטחון שנפצעו הבוקר בפיגוע בצומת תפוח כוחות הבטחון פעלו בצורה מהירה וההחלטית שהביאה… אין אמון בממשלה מנותקת  תתחילו כבר לעבוד בשביל הציבור gantzbe netanyahu  bogieyaalon היום נחתה עלינו ״בהפתעה גמורה״ שנת הלימודים   אתמול נתניהו היה עסוק בשיווק נחיתת המשלחת באמירויות והתפנה רק בערב לדיון…  מגיע לילדים שלכם יותר  yairlapid בשורה התחתונה למי שלא הצליח לעקוב ברקת תוקף את כץ שתוקף את מרידור שתוקף את ביבי שלא נותן גיבוי לגמזו ואני שואל תגידו אתם… צודקת בכל מילה נתניהו וגנץ נכשלו נכשלו בטיפול בקורונה ונכשלו בטיפול במשבר   נתניהו נכשל בטיפול בקורונה  הממשלה איבדה את אמון ציבור  yairlapid הממשלה הזו שפכה עשרות מיליארדים בלי שום שיקול דעת ומסרבת לתמוך בתנועות הנוער ניאבק בוועדת הכספים עד שיימצא התקציב להצלת תנו… yairlapid מצדיע לראש ממשלת יפן שינזו אבה גם על הדרך בה שירת את עמו גם על הבחירה ללכת ברגע שהבין שהוא כבר לא בשיאו כך נראית הנהגה אח… yairlapid התפטרותו של שאול מרידור היא לא תמרור אזהרה אלא אזעקת אמת כפי שהזהרנו כלכלת ישראל הפכה לאיזור אסון הניהול הכלכלי של משבר הק… bogieyaalon כששומעים את פרופ׳ ברבש אומר שאילו היה הממונה היה מתפטר כבר 3 פעמים על כניסת 17 אלף תלמידים מחו״ל על אומן ועל פתיחת שנה… דבריו של ראש אגף התקציבים באוצר קשים ואמיתיים  MKMickeyLevy מציע לבטל להם 34 מהשכר או להוציא את כולם לחל״ת גם ככה רובם מיותרים ולא תורמים לאזרחי המדינה דבר bogieyaalon כשנחשפים לתהליך קבלת ההחלטות של נתניהו באשר לנסיעה לאומן מבינים את כישלונו בניהול משבר הקורונה וגם את המשבר בחינוך בכל… הקדימו את הבחירות ולא אמרו בכל אופן באמת חייבים שינוי כיוון ודרך אחרת מהדרך של netanyahu  yairlapid מברך על כך זה חשוב זה כיוון טוב מוכן בכל רגע לשבת לדיאלוג חוצה מפלגות ומחנות איך לעשות את זה נכון  KElharrar מדינה בקריסת מערכות תחלואה משתוללת אין מעבדות שנה״ל בסימן שאלה אין ישיבות ממשלה כבר חודש מה הכי חשוב ועדת שרים לענין ט… yairlapid החל מהבוקר עובדי המעבדות בשביתה רוב הבדיקות לא יערכו הממשלה לא תדון בזה כי היא לא תתכנס העיקר שהוקם צוות מיוחד לטיפול בנ… yairlapid ישראלים יפים במדינה יפה יוצאים נגד ממשלה מכוערת  yairlapid אין צורך בצוות שרים לנושא הנסיעה לאומן לא צריך מתווה לא צריך ממונה צריך רק ממשלה נורמלית שתעשה החלטה לפי המלצות גורמי המק… bogieyaalon זה לא ימין או שמאל זה ישר או מושחת  לאזרחי ישראל מגיעה מנהיגות ישרה שתדאג להם לי אין ספק שהגיע הזמן למנהיגות אחרת צפו… bogieyaalon את העוצמות שלכם בשטח  איש לא יצליח לשבור את הרוח שלכם על הגשרים בככרות ובבלפור  איש לא יצליח לדכא זה לא ימין או שמא… bogieyaalon שבוע טוב לכם מהגשרים והצמתים באזור נס ציונה באר יעקב ונצר סירני גאה בכם ניפגש גם בבלפור  BToporovsky לכל שבת יש מוצאי שבת  מנותקיםנמאסתם  YeshAtidParty     מה עם התנאי של טיפול במשבר הקורונה ודאגה לאזרחים מישהו בממשלה על זה  מנותקים  YoraiLahav מה קשה יותר להגיד  גנן גידל דגן בגן או יוראי להב הרצנו  N12News חבר הכנסת עידן רול ובן זוגו הזמר הראל סקעת בראיון זוגי לIdoSolomon מספרים על ההתמודדות שלהם עם ימי הקורונה על הקריאה של ר… yairlapid ההתקפה של גורמי שלטון על בג״צ בעניין מצפה כרמים היא חמורה ומסוכנת הבקשה לדיון נוסף היא נכונה ובמקומה אבל ברור שלא גורל תוש… yairlapid שוב אין ישיבת ממשלה ביום ראשון אם הם בכל מקרה לא עובדים אפשר פשוט להוציא אותם לחל״ת yairlapid בוקר שישי במדינת ישראל מפלגת השלטון מוציאה הודעה שמאשימה את הפרקליטות שהיא אנרכיסטית ראש ממשלת ישראל מוציא הודעה שתוקפת את… bogieyaalon גם הערב אנחנו איתכם ולצידכם במחאה בככר רבין לא סתם נתניהו מודאג מהמחאה היא צודקת היא מוצדקת והיא חייבת להתעצם נמשיך… idanroll אנטנות G5 נפרסות ברחבי המדינה כולל בתוך מבנים אבל אף אחד לא בדק לפני את ההשלכות על בריאות הציבור צפו  yairlapid 850 אלף מבקשי עבודה ו36 שרים שאין להם שום עניין בזה אחוז אחד בלבד נוצל מהתקציב לעידוד התעסוקה מודל החל״ת הוא אסון תעסוקתי… yairlapid ממשלת הניתוק מציגה עוד שיא  yairlapid מדובר באסון הממשלה הזו מרסקת את העסקים הקטנים והבינוניים ברשלנותה בחוסר המקצועיות שלה בזה שלא באמת אכפת למנותקים נמאסתם… ותודה לממשלת ישראל שהביאוני עד הלום ומכאן זרקו לכלבים  KElharrar חבל שעוד אין תקנות בתוקף לחוק הפיקוח שלי ושל sbyifat אפשר היה למנוע את המקרה הזה וגם את המקרה הבא שלצערי עוד יהיה כי החוק… idanroll הממשלה יצאה בכותרות מפוצצות עם מספרים עצומים ומרשימים אבל דואגת להקשות כדי שהעסקים לא יראו את הכסף  ממשלה של אחיזת עיניים… bogieyaalon נתניהו פוחד מהמחאה ומנסה לשבור אותה בכל הכח מעצרי שווא לא חוקיים פינוי המאהל אלימות נגד המפגינים דרישה מגמזו לאסור הפ… חופשה מהנה ממשלה מנותקת  בושה  idanroll כבר בשבוע שעבר הגשתי שאילתה בנושא מינוי הוועדה והצעת חוק להוספת 250 מיליון שקלים לסל התרופות למקרה שהממשלה תמשיך להיות משותקת… YoraiLahav תרגום לעברית לא נמצאו בקואליציה 61 חברי כנסת שמספיק אכפת להם ששנת הלימודים תפתח כמו שצריך yairlapid זה פשוט לא ייאמן הממשלה הזאת פשוט לא רואה את האזרחים בכלל כל מה שמעניין אותם זה פוליטיקה זה פשוט ביזיון  KElharrar האנרכיה היחידה שנראית לעין בשנים האחרונות היא זו המנוהלת באמצעות דף המסרים של הליכוד הגיע הזמן שיפנימו שמימוש זכויות האזרחי… OrnaBarb מי אמר שהגודל קובע קואליציה ענקית שלא מצליחה להביא 61 ח״כים לאשור תקציב שנת הלימודים שוב נכשלה bogieyaalon משתתף בצערם הכבד של בני משפחת הרב שי אוחיון הי״ד מכריו ומוקיריו הטרור גבה היום שוב מחיר דמים נורא אני סומך על כוחות הבי… yairlapid ליבי עם משפחתו ויקיריו של הרב שי אוחיון זל שנרצח בדם קר המאבק בטרור נמשך אני מבקש לשלוח את הערכתי הרבה לאזרחים ולכוחות הב… mkorlyfroman הפקרת פעוטות הגיל הרך ממשיכה וממשלת ישראל לא עושה דבר  במקום לכתוב את התקנות של חוק הפיקוח על מעונות היום ולהביאן לאישור… YoraiLahav נפגשתי הבוקר בכנסת ישראל עם נועם קניאל נועם הוא טרנס שלפני ארבעה חודשים התגייס בגאווה לצה״ל דיברנו על חלומות על קורס קצי… yairlapid אתם לא תגידו לנו מה זה יהודים אתם לא תגידו לנו מה זה יהדות ואתם בטח לא תגידו לנו מי ישראלי ומי לא ישראלי  yairlapid אני לא יודע מה נורא יותר הצעת החוק החשוכה והגזענית של סמוטריץ׳ או הודעת הליכוד שהם ידונו בנושא בהמשך במקום להודיע שהם עומ… idanroll המתקפות נגד פרופ׳ גמזו מצד פוליטיקאים לגבי החלטות מקצועיות שקיבל מעלות תהיות רבות על אופן קבלת ההחלטות בממשלה והשיקולים המעור… bogieyaalon לפי יו״ר הקואליציה גם פרופ׳ גמזו לא מספק את הסחורה הוא לא מורה על פיזור המחאה בבלפור הכל למען הישרדותו של נאשם בפליל… idanroll יש כור היתוך חדש במדינה  ענף ההייטק במשך שנים גייסתי והכשרתי חרדים לתפקידים טכנולוגיים בחיל המודיעין מה שהתחיל כפיילוט שנר… bogieyaalon פרופ׳ גמזו לקח אחריות והתייצב בחזית הלאומית אל מול אתגרי הקורונה העצומים כמה מהר הוא הפך למטרה וליעד לסיכול שמא יצליח… yairlapid מי שלא מתעדף בימים אלה תוצרת מקומית פוגע במדינת ישראל בשביל 25 אגורות לא הורסים מפעלים ישראלים ממשלה של מנותקים נמאסתם… yairlapid הגירעון בגרמניה בשיא של 15 שנה לפחות  32 בישראל אנחנו צועדים לקראת 14 הממשלה הזו לא יודעת מה היא עושה בגלל ניהול כושל של משבר הקורונה הצעירים לא יודעים מתי ייצאו לעבוד ובגלל הניתוק של הממשלה הם גם לא יודעים מתי ייצאו…  yairlapid כשיור הקואליציה רב עם פרופ גמזו הפרוייקטור של הממשלה זה לא תורם לאמון הציבור בממשלה מנותקים נמאסתם תפסיקו לריב ותתחילו… yairlapid בשנת 1996 הבטיח ראש הממשלה נתניהו ״מחשב לכל ילד״ עברו 24 שנה ב14 מתוכן הוא ראש הממשלה הילדים של כיתה א אז כבר סיימו תו… KElharrar אז מתברר שהשר פשוט שיקר לועדה אין נוסח תקנות נציגי משרד העבודה והרווחה נשלחו לדיון הועדה כבשר תותחים בעוד השר מסתתר ממתן ת… yairlapid 100 ימים של כישלון ניהולי מנותקים נמאסתם  MKMickeyLevy הצלחנו בתמורה להסרה של 160 הסתייגויות שהגשתי לחוק הגדלת הגירעון האוצר הסכים להעביר סוף סוף את 175 מיליון השקלים לחינוך… YRazvozov אני אומר בשם כל העלייה מבריה״מ לשעבר אנחנו לא צריכים להתנצל בפני אף אחד העולים מבריה״מ הם הפטריוטים הכי גדולים במדינת ישרא…</t>
   </si>
 </sst>
 </file>
@@ -537,10 +537,10 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>120</v>
+        <v>79</v>
       </c>
       <c r="B2">
-        <v>120</v>
+        <v>79</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -554,10 +554,10 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="B3">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -571,16 +571,16 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>34</v>
+        <v>143</v>
       </c>
       <c r="B4">
-        <v>34</v>
+        <v>143</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E4" t="s">
         <v>29</v>
@@ -588,10 +588,10 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="B5">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
@@ -605,10 +605,10 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="B6">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
@@ -622,10 +622,10 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
@@ -639,10 +639,10 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="B8">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
@@ -656,16 +656,16 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="B9">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E9" t="s">
         <v>34</v>
@@ -673,16 +673,16 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="B10">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="C10" t="s">
         <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E10" t="s">
         <v>35</v>
@@ -690,10 +690,10 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B11">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C11" t="s">
         <v>13</v>
@@ -707,10 +707,10 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="B12">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="C12" t="s">
         <v>14</v>
@@ -724,10 +724,10 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="B13">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="C13" t="s">
         <v>15</v>
@@ -741,16 +741,16 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1">
-        <v>121</v>
+        <v>16</v>
       </c>
       <c r="B14">
-        <v>121</v>
+        <v>16</v>
       </c>
       <c r="C14" t="s">
         <v>16</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E14" t="s">
         <v>39</v>
@@ -758,10 +758,10 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="B15">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="C15" t="s">
         <v>17</v>
@@ -775,16 +775,16 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1">
-        <v>75</v>
+        <v>2</v>
       </c>
       <c r="B16">
-        <v>75</v>
+        <v>2</v>
       </c>
       <c r="C16" t="s">
         <v>18</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E16" t="s">
         <v>41</v>
@@ -792,10 +792,10 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="B17">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="C17" t="s">
         <v>19</v>
@@ -809,16 +809,16 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="B18">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="C18" t="s">
         <v>20</v>
       </c>
       <c r="D18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E18" t="s">
         <v>43</v>
@@ -826,16 +826,16 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1">
-        <v>47</v>
+        <v>104</v>
       </c>
       <c r="B19">
-        <v>47</v>
+        <v>104</v>
       </c>
       <c r="C19" t="s">
         <v>21</v>
       </c>
       <c r="D19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E19" t="s">
         <v>44</v>
@@ -843,10 +843,10 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="B20">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="C20" t="s">
         <v>22</v>
@@ -860,10 +860,10 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C21" t="s">
         <v>23</v>
@@ -877,16 +877,16 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="1">
-        <v>43</v>
+        <v>146</v>
       </c>
       <c r="B22">
-        <v>43</v>
+        <v>146</v>
       </c>
       <c r="C22" t="s">
         <v>24</v>
       </c>
       <c r="D22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E22" t="s">
         <v>47</v>
